--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -6115,10 +6115,14 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>112</v>
-      </c>
-      <c r="H56"/>
-      <c r="I56"/>
+        <v>400</v>
+      </c>
+      <c r="H56" t="n">
+        <v>12052273</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3028.382</v>
+      </c>
       <c r="J56" t="n">
         <v>56386</v>
       </c>
@@ -11178,7 +11182,7 @@
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>110</v>
+        <v>646</v>
       </c>
       <c r="H149" t="n">
         <v>3130880</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="860">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-7634-testime-2383-qytetare-te-infektuar-3-humbje-jete-dhe-1754-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-5367-testime-1658-qytetare-te-infektuar-8-humbje-jete-dhe-2005-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -91,7 +91,8 @@
   <si>
     <t xml:space="preserve">The Albanian Minsitry of Health and Social Protection publishes daily COVID-19 reports on its [website](https://shendetesia.gov.al/category/lajme/) detailing the daily number of tests performed, which we use to construct a time series beginning [25 February 2020](https://shendetesia.gov.al/koronavirusi-mshms-asnje-rast-i-konfirmuar-ne-shqiperi/).
 In some early reports, the testing figures' units are unclear because the same testing figures refer to both the number of cases tested and the number of tests performed; later reports are standardised and testing figures consistently refer to the number of tests performed, so we assume that the discrepancy is due to ambiguous language and translation issues.
-Testing figures refer to PCR and antigen tests. Antigen tests were first reported in Albania on [8 December 2020](https://shendetesia.gov.al/covid19-ministria-e-shendetesise-2532-testime-347-te-sheruar-753-raste-te-reja-dhe-14-humbje-jete-ne-24-oret-e-fundit/). Serological tests are also performed in Albania for "screening purposes" ("për arsye depistimi"), meaning that positive results are not used to confirm cases of COVID-19, and so they are excluded from our testing figures to ensure the accuracy of our Positive Rate. In reports from 10 Nov to 6 Dec 2020, testing figures refer to the total number of tests, and specifcy the number of which that are 'for screening purposes'; in such instances, we report the difference between these two figures in order to exclude serological tests. As such, our cumulative total differs that from the total tests ('Testime totale') reported by the source.</t>
+Testing figures refer to PCR and antigen tests. Antigen tests were first reported in Albania on [8 December 2020](https://shendetesia.gov.al/covid19-ministria-e-shendetesise-2532-testime-347-te-sheruar-753-raste-te-reja-dhe-14-humbje-jete-ne-24-oret-e-fundit/). Serological tests are also performed in Albania for "screening purposes" ("për arsye depistimi"), meaning that positive results are not used to confirm cases of COVID-19, and so they are excluded from our testing figures to ensure the accuracy of our Positive Rate. In reports from 10 Nov to 6 Dec 2020, testing figures refer to the total number of tests, and specifcy the number of which that are 'for screening purposes'; in such instances, we report the difference between these two figures in order to exclude serological tests. As such, our cumulative total differs that from the total tests ('Testime totale') reported by the source.
+Data scraping automation script contributed by [rouein](https://github.com/Rouein).</t>
   </si>
   <si>
     <t xml:space="preserve">AND</t>
@@ -202,7 +203,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2022/01/coronavirus-covid-19-at-a-glance-20-january-2022.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2022/01/coronavirus-covid-19-at-a-glance-24-january-2022.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -331,7 +332,8 @@
     <t xml:space="preserve">The Belarus Ministry of Health provides daily press releases that report the cumulative number of tests conducted to date. It is unclear whether the reported figures include pending tests.
 Prior to 14 April 2020, the Ministry reported imprecise testing figures (e.g. "...more than 64 thousand tests..."). We include these imprecise figures so that our time series extends back to 3 March 2020.
 The earliest reported figure that we have been able to find is from 3 March 2020, at which point approximately 5,000 cumulative tests were reported. The number of tests are cumulative since late January 2020, but the press releases do not specify the exact date on which the first test was conducted.
-Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source. See our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source. See our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).
+Data scraping automation script contributed by [bzki](https://github.com/bzki).</t>
   </si>
   <si>
     <t xml:space="preserve">BEL</t>
@@ -579,7 +581,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-19-de-janeiro-de-2022/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-20-de-janeiro-de-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -801,7 +803,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-21012022-spw9</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-24012022-6i36</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -920,13 +922,10 @@
     <t xml:space="preserve">Ethiopia - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">Information Network Security Agency</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.covid19.et/covid-19/Home/DataPresentationByTable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia Information Network Security Agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information Network Security Agency</t>
   </si>
   <si>
     <t xml:space="preserve">The [Ethiopian Public Health Institute](https://www.ephi.gov.et) in collaboration with the [Ethiopian Ministry of Health](http://www.moh.gov.et) provides daily press releases that report the cumulative number of tests performed to date. The figures reported in these press releases are displayed in an [official dashboard](https://www.covid19.et/covid-19/Home/DataPresentationByTable) maintained by the [Information Network Security Agency](https://www.insa.gov.et/), which we use as our primary data source. 
@@ -1071,7 +1070,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2022/145</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2022/157</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1082,7 +1081,7 @@
   <si>
     <t xml:space="preserve">The Government of Georgia reports the daily and cumulative numbers of tests performed on its [website](https://agenda.ge/en/news/news).
 The reported test positivity rate is equal to the number of confirmed cases divided the number of PCR and antigen tests performed within the past 24 hours. As such, we asssume that positive results from antigen tests can be used to confirm cases of COVID-19.
-Note that testing figures are approximate, as they are rounded to the nearest thousand by the source.</t>
+Data scraping automation script contributed by [rouein](https://github.com/Rouein).</t>
   </si>
   <si>
     <t xml:space="preserve">DEU</t>
@@ -1162,6 +1161,25 @@
   </si>
   <si>
     <t xml:space="preserve">The Guatemalan Ministry of Public Health and Social Welfare publishes daily updates on their offical dashboard (https://tablerocovid.mspas.gob.gt/) reporting the daily and cumulative number of people tested, which we use to construct a daily time series. The figures for "screened cases" [casos tamizados] refer to the number of "cases with any antigen or PCR test result for SARS-CoV2" [caso con cualquier resultado de prueba antígeno o PCR para la detección de SARS-CoV2]. Antigen tests are performed initially upon observation of symptoms, then negative results are verified with a PCR test, so figures include antigen and PCR tests. Pending results are excluded. The time series goes back to February 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=wlFOK1pUy5o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Public Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/channel/UCGA8-rFam5zwrBs7GZ1tRpw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Department of Public Information publishes weekly COVID-19 updates on its official [YouTube channel](https://www.youtube.com/channel/UCGA8-rFam5zwrBs7GZ1tRpw), which 
+occasionally report the number of tests performed.</t>
   </si>
   <si>
     <t xml:space="preserve">HTI</t>
@@ -1293,7 +1311,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/378562</t>
+    <t xml:space="preserve">https://irangov.ir/detail/378766</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -1307,7 +1325,8 @@
   <si>
     <t xml:space="preserve">The Government of Iran provides daily press releases of the cumulative number of tests performed to date. It is unclear whether the reported figures include tests for which the results are pending.
 We have found testing data dating back to 5 April 2020, at which point 189,790 tests had been conducted to date. It is not clear when the first test was conducted.
-Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source. See our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source. See our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).
+Data scraping automation script contributed by [rouein](https://github.com/Rouein).</t>
   </si>
   <si>
     <t xml:space="preserve">IRQ</t>
@@ -1403,7 +1422,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-saturday-january-8-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-saturday-january-22-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1786,10 +1805,16 @@
     <t xml:space="preserve">Moldova - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://msmps.gov.md/comunicare/2834-cazuri-de-covid-19-raportate-in-ultimele-24-de-ore/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Health of the Republic of Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova Ministry of Health, Labour and Social Protection</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://noi.md/md/societate/coronavirus-in-moldova-statistica-infectarilor-pe-teritoriul-tarii-428097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova Ministry of Health, Labour and Social Protection</t>
   </si>
   <si>
     <t xml:space="preserve">The Moldovan Ministry of Health, Labour and Social protection maintains a [website](https://noi.md/md/societate/coronavirus-in-moldova-statistica-infectarilor-pe-teritoriul-tarii-428097) reporting the total number of tests performed.
@@ -2221,7 +2246,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_-_21_ianuarie_2022,_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/24-01_BULETIN_DE_PRESA_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2244,7 +2269,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20420</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20446</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2796,7 +2821,8 @@
   <si>
     <t xml:space="preserve">The Ministry of Public Health in Uruguay publishes daily reports providing the cumulative total of tests performed. These figures are also made available on the [Sistema Nacional de Emergencias dashboard](https://www.gub.uy/sistema-nacional-emergencias/pagina-embebida/visualizador-casos-coronavirus-covid-19-uruguay), in which the figures are presented as the number of tests processed since 13 March 2020 ("Desde el 13 de marzo se han procesado: [N] test").
 Antigen tests can be used to confirm cases of COVID-19, according to an [ordinance](https://www.gub.uy/ministerio-salud-publica/sites/ministerio-salud-publica/files/2021-01/TEST%20DE%20ANTIGENOS%20COVID%2019.pdf) published by the Ministry of Health on 15 Jan 2021. Antibody tests are not diagnostic, but instead are used for investigative purposes, according to an (article)[https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/testeos-covid-19-uruguay] posted on 21 Dec 2021.
-We previously reported testing data from a [dashboard maintained by El Observador](https://observador.cr/covid19-estadisticas/), but on 20 April 2020 we replaced the entire time series based on the reports from the Ministry of Health.</t>
+We previously reported testing data from a [dashboard maintained by El Observador](https://observador.cr/covid19-estadisticas/), but on 20 April 2020 we replaced the entire time series based on the reports from the Ministry of Health.
+Data scraping automation script contributed by [3dgiordano](https://github.com/3dgiordano).</t>
   </si>
   <si>
     <t xml:space="preserve">VNM</t>
@@ -3271,7 +3297,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44581</v>
+        <v>44584</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3281,31 +3307,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H2" t="n">
-        <v>1538154</v>
+        <v>1543521</v>
       </c>
       <c r="I2" t="n">
-        <v>535.395</v>
+        <v>537.263</v>
       </c>
       <c r="J2" t="n">
-        <v>7634</v>
+        <v>5367</v>
       </c>
       <c r="K2" t="n">
-        <v>2.657</v>
+        <v>1.868</v>
       </c>
       <c r="L2" t="n">
-        <v>6971</v>
+        <v>4804</v>
       </c>
       <c r="M2" t="n">
-        <v>2.426</v>
+        <v>1.672</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3056</v>
+        <v>0.4589</v>
       </c>
       <c r="O2" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -3381,7 +3407,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3391,18 +3417,22 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>1337747</v>
+        <v>1347882</v>
       </c>
       <c r="I4" t="n">
-        <v>39.422</v>
+        <v>39.721</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="L4" t="n">
+        <v>2874</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.085</v>
+      </c>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4" t="s">
@@ -3471,7 +3501,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44580</v>
+        <v>44583</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3481,28 +3511,28 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="H6" t="n">
-        <v>31251700</v>
+        <v>31696084</v>
       </c>
       <c r="I6" t="n">
-        <v>685.257</v>
+        <v>695.001</v>
       </c>
       <c r="J6" t="n">
-        <v>104659</v>
+        <v>52039</v>
       </c>
       <c r="K6" t="n">
-        <v>2.295</v>
+        <v>1.141</v>
       </c>
       <c r="L6" t="n">
-        <v>120326</v>
+        <v>112891</v>
       </c>
       <c r="M6" t="n">
-        <v>2.638</v>
+        <v>2.475</v>
       </c>
       <c r="N6" t="n">
-        <v>0.686</v>
+        <v>0.688</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -3558,8 +3588,12 @@
       <c r="M7" t="n">
         <v>1.599</v>
       </c>
-      <c r="N7"/>
-      <c r="O7"/>
+      <c r="N7" t="n">
+        <v>0.0865</v>
+      </c>
+      <c r="O7" t="n">
+        <v>11.6</v>
+      </c>
       <c r="P7" t="s">
         <v>42</v>
       </c>
@@ -3581,7 +3615,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3591,32 +3625,28 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H8" t="n">
-        <v>59549278</v>
+        <v>60163582</v>
       </c>
       <c r="I8" t="n">
-        <v>2309.166</v>
+        <v>2332.987</v>
       </c>
       <c r="J8" t="n">
-        <v>186541</v>
+        <v>128213</v>
       </c>
       <c r="K8" t="n">
-        <v>7.234</v>
+        <v>4.972</v>
       </c>
       <c r="L8" t="n">
-        <v>211369</v>
+        <v>168448</v>
       </c>
       <c r="M8" t="n">
-        <v>8.196</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.3782</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2.6</v>
-      </c>
+        <v>6.532</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8"/>
       <c r="P8" t="s">
         <v>60</v>
       </c>
@@ -3638,7 +3668,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44582</v>
+        <v>44584</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
@@ -3648,16 +3678,20 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>136574442</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9"/>
+        <v>15102.66</v>
+      </c>
+      <c r="J9" t="n">
+        <v>136574442</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15102.66</v>
+      </c>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
@@ -3683,7 +3717,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -3693,28 +3727,24 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H10" t="n">
-        <v>6045582</v>
+        <v>6070424</v>
       </c>
       <c r="I10" t="n">
-        <v>591.351</v>
+        <v>593.781</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="n">
-        <v>9822</v>
+        <v>8523</v>
       </c>
       <c r="M10" t="n">
-        <v>0.961</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.0843</v>
-      </c>
-      <c r="O10" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0.834</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
       <c r="P10" t="s">
         <v>71</v>
       </c>
@@ -3793,7 +3823,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44582</v>
+        <v>44585</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -3803,21 +3833,21 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H12" t="n">
-        <v>8500970</v>
+        <v>8591245</v>
       </c>
       <c r="I12" t="n">
-        <v>4862.435</v>
+        <v>4914.071</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>23914</v>
+        <v>26031</v>
       </c>
       <c r="M12" t="n">
-        <v>13.678</v>
+        <v>14.889</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -3952,7 +3982,7 @@
         <v>99</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="D15" t="s">
         <v>100</v>
@@ -3962,31 +3992,31 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H15" t="n">
-        <v>29022067</v>
+        <v>29140142</v>
       </c>
       <c r="I15" t="n">
-        <v>2494.948</v>
+        <v>2505.098</v>
       </c>
       <c r="J15" t="n">
-        <v>137738</v>
+        <v>117238</v>
       </c>
       <c r="K15" t="n">
-        <v>11.841</v>
+        <v>10.079</v>
       </c>
       <c r="L15" t="n">
-        <v>97426</v>
+        <v>100783</v>
       </c>
       <c r="M15" t="n">
-        <v>8.375</v>
+        <v>8.664</v>
       </c>
       <c r="N15" t="n">
-        <v>0.411</v>
+        <v>0.431</v>
       </c>
       <c r="O15" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="P15" t="s">
         <v>102</v>
@@ -4137,8 +4167,12 @@
       <c r="M18" t="n">
         <v>60.895</v>
       </c>
-      <c r="N18"/>
-      <c r="O18"/>
+      <c r="N18" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="O18" t="n">
+        <v>581.2</v>
+      </c>
       <c r="P18" t="s">
         <v>42</v>
       </c>
@@ -4272,7 +4306,7 @@
         <v>136</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44575</v>
+        <v>44582</v>
       </c>
       <c r="D21" t="s">
         <v>35</v>
@@ -4282,21 +4316,21 @@
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H21" t="n">
-        <v>2031665</v>
+        <v>2081962</v>
       </c>
       <c r="I21" t="n">
-        <v>847.502</v>
+        <v>868.483</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21" t="n">
-        <v>265</v>
+        <v>7185</v>
       </c>
       <c r="M21" t="n">
-        <v>0.111</v>
+        <v>2.997</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
@@ -4321,7 +4355,7 @@
         <v>139</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>44579</v>
+        <v>44585</v>
       </c>
       <c r="D22" t="s">
         <v>140</v>
@@ -4333,21 +4367,21 @@
         <v>142</v>
       </c>
       <c r="G22" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H22" t="n">
-        <v>66120342</v>
+        <v>66606202</v>
       </c>
       <c r="I22" t="n">
-        <v>308.983</v>
+        <v>311.253</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22" t="n">
-        <v>850</v>
+        <v>69453</v>
       </c>
       <c r="M22" t="n">
-        <v>0.004</v>
+        <v>0.325</v>
       </c>
       <c r="N22"/>
       <c r="O22"/>
@@ -4372,7 +4406,7 @@
         <v>145</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D23" t="s">
         <v>146</v>
@@ -4382,28 +4416,24 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H23" t="n">
-        <v>8110530</v>
+        <v>8194201</v>
       </c>
       <c r="I23" t="n">
-        <v>1176.009</v>
+        <v>1188.141</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23" t="n">
-        <v>37675</v>
+        <v>30336</v>
       </c>
       <c r="M23" t="n">
-        <v>5.463</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.2044</v>
-      </c>
-      <c r="O23" t="n">
-        <v>4.9</v>
-      </c>
+        <v>4.399</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23"/>
       <c r="P23" t="s">
         <v>148</v>
       </c>
@@ -4425,7 +4455,7 @@
         <v>152</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -4435,18 +4465,22 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>305801</v>
+        <v>307832</v>
       </c>
       <c r="I24" t="n">
-        <v>14.225</v>
+        <v>14.32</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
+      <c r="L24" t="n">
+        <v>330</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.015</v>
+      </c>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24" t="s">
@@ -4470,7 +4504,7 @@
         <v>155</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -4480,18 +4514,22 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>1321209</v>
+        <v>1330294</v>
       </c>
       <c r="I25" t="n">
-        <v>107.806</v>
+        <v>108.547</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
+      <c r="L25" t="n">
+        <v>3038</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.248</v>
+      </c>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25" t="s">
@@ -4625,7 +4663,7 @@
         <v>168</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="D28" t="s">
         <v>164</v>
@@ -4635,31 +4673,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H28" t="n">
-        <v>55602784</v>
+        <v>55770366</v>
       </c>
       <c r="I28" t="n">
-        <v>1460.621</v>
+        <v>1465.023</v>
       </c>
       <c r="J28" t="n">
-        <v>110708</v>
+        <v>59867</v>
       </c>
       <c r="K28" t="n">
-        <v>2.908</v>
+        <v>1.573</v>
       </c>
       <c r="L28" t="n">
-        <v>125816</v>
+        <v>116402</v>
       </c>
       <c r="M28" t="n">
-        <v>3.305</v>
+        <v>3.058</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1892</v>
+        <v>0.1655</v>
       </c>
       <c r="O28" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="P28" t="s">
         <v>165</v>
@@ -4682,7 +4720,7 @@
         <v>171</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="D29" t="s">
         <v>172</v>
@@ -4692,15 +4730,15 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="n">
-        <v>1351</v>
+        <v>1006</v>
       </c>
       <c r="K29" t="n">
-        <v>2.404</v>
+        <v>1.79</v>
       </c>
       <c r="L29"/>
       <c r="M29"/>
@@ -4727,7 +4765,7 @@
         <v>177</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -4737,18 +4775,22 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>79902</v>
+        <v>81294</v>
       </c>
       <c r="I30" t="n">
-        <v>16.24</v>
+        <v>16.523</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
+      <c r="L30" t="n">
+        <v>253</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.051</v>
+      </c>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30" t="s">
@@ -4772,7 +4814,7 @@
         <v>180</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D31" t="s">
         <v>35</v>
@@ -4782,18 +4824,22 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>194439</v>
+        <v>196620</v>
       </c>
       <c r="I31" t="n">
-        <v>11.495</v>
+        <v>11.624</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
+      <c r="L31" t="n">
+        <v>533</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.032</v>
+      </c>
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31" t="s">
@@ -4817,7 +4863,7 @@
         <v>183</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D32" t="s">
         <v>184</v>
@@ -4827,32 +4873,28 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="H32" t="n">
-        <v>28518334</v>
+        <v>28905541</v>
       </c>
       <c r="I32" t="n">
-        <v>1484.374</v>
+        <v>1504.528</v>
       </c>
       <c r="J32" t="n">
-        <v>96981</v>
+        <v>96154</v>
       </c>
       <c r="K32" t="n">
-        <v>5.048</v>
+        <v>5.005</v>
       </c>
       <c r="L32" t="n">
-        <v>85026</v>
+        <v>87806</v>
       </c>
       <c r="M32" t="n">
-        <v>4.426</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.1127</v>
-      </c>
-      <c r="O32" t="n">
-        <v>8.9</v>
-      </c>
+        <v>4.57</v>
+      </c>
+      <c r="N32"/>
+      <c r="O32"/>
       <c r="P32" t="s">
         <v>186</v>
       </c>
@@ -4927,7 +4969,7 @@
         <v>196</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D34" t="s">
         <v>197</v>
@@ -4937,28 +4979,28 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="H34" t="n">
-        <v>31388148</v>
+        <v>31676327</v>
       </c>
       <c r="I34" t="n">
-        <v>612.262</v>
+        <v>617.884</v>
       </c>
       <c r="J34" t="n">
-        <v>92177</v>
+        <v>87483</v>
       </c>
       <c r="K34" t="n">
-        <v>1.798</v>
+        <v>1.706</v>
       </c>
       <c r="L34" t="n">
-        <v>88512</v>
+        <v>80602</v>
       </c>
       <c r="M34" t="n">
-        <v>1.727</v>
+        <v>1.572</v>
       </c>
       <c r="N34" t="n">
-        <v>0.414</v>
+        <v>0.416</v>
       </c>
       <c r="O34" t="n">
         <v>2.4</v>
@@ -4984,7 +5026,7 @@
         <v>202</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44576</v>
+        <v>44579</v>
       </c>
       <c r="D35" t="s">
         <v>203</v>
@@ -4994,31 +5036,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="H35" t="n">
-        <v>2418953</v>
+        <v>2450829</v>
       </c>
       <c r="I35" t="n">
-        <v>470.7</v>
+        <v>476.903</v>
       </c>
       <c r="J35" t="n">
-        <v>14642</v>
+        <v>12845</v>
       </c>
       <c r="K35" t="n">
-        <v>2.849</v>
+        <v>2.499</v>
       </c>
       <c r="L35" t="n">
-        <v>12429</v>
+        <v>12766</v>
       </c>
       <c r="M35" t="n">
-        <v>2.419</v>
+        <v>2.484</v>
       </c>
       <c r="N35" t="n">
-        <v>0.298</v>
+        <v>0.321</v>
       </c>
       <c r="O35" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P35" t="s">
         <v>204</v>
@@ -5041,7 +5083,7 @@
         <v>207</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D36" t="s">
         <v>35</v>
@@ -5051,21 +5093,21 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="H36" t="n">
-        <v>1328502</v>
+        <v>1341052</v>
       </c>
       <c r="I36" t="n">
-        <v>49.106</v>
+        <v>49.57</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>2999</v>
+        <v>2781</v>
       </c>
       <c r="M36" t="n">
-        <v>0.111</v>
+        <v>0.103</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -5090,7 +5132,7 @@
         <v>210</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44582</v>
+        <v>44584</v>
       </c>
       <c r="D37" t="s">
         <v>211</v>
@@ -5100,24 +5142,32 @@
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H37" t="n">
-        <v>4074484</v>
+        <v>4109897</v>
       </c>
       <c r="I37" t="n">
-        <v>998.243</v>
-      </c>
-      <c r="J37"/>
-      <c r="K37"/>
+        <v>1006.919</v>
+      </c>
+      <c r="J37" t="n">
+        <v>14525</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.559</v>
+      </c>
       <c r="L37" t="n">
-        <v>17102</v>
+        <v>18413</v>
       </c>
       <c r="M37" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="N37"/>
-      <c r="O37"/>
+        <v>4.511</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.4626</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.2</v>
+      </c>
       <c r="P37" t="s">
         <v>212</v>
       </c>
@@ -5198,7 +5248,7 @@
         <v>223</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44580</v>
+        <v>44583</v>
       </c>
       <c r="D39" t="s">
         <v>224</v>
@@ -5208,31 +5258,31 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="H39" t="n">
-        <v>21589908</v>
+        <v>21887209</v>
       </c>
       <c r="I39" t="n">
-        <v>24095.745</v>
+        <v>24427.552</v>
       </c>
       <c r="J39" t="n">
-        <v>95650</v>
+        <v>82187</v>
       </c>
       <c r="K39" t="n">
-        <v>106.752</v>
+        <v>91.726</v>
       </c>
       <c r="L39" t="n">
-        <v>110972</v>
+        <v>104876</v>
       </c>
       <c r="M39" t="n">
-        <v>123.852</v>
+        <v>117.048</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0229</v>
+        <v>0.0184</v>
       </c>
       <c r="O39" t="n">
-        <v>43.6</v>
+        <v>54.4</v>
       </c>
       <c r="P39" t="s">
         <v>42</v>
@@ -5255,7 +5305,7 @@
         <v>227</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44581</v>
+        <v>44584</v>
       </c>
       <c r="D40" t="s">
         <v>228</v>
@@ -5265,31 +5315,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="H40" t="n">
-        <v>47792759</v>
+        <v>48100824</v>
       </c>
       <c r="I40" t="n">
-        <v>4456.387</v>
+        <v>4485.112</v>
       </c>
       <c r="J40" t="n">
-        <v>135495</v>
+        <v>51819</v>
       </c>
       <c r="K40" t="n">
-        <v>12.634</v>
+        <v>4.832</v>
       </c>
       <c r="L40" t="n">
-        <v>108123</v>
+        <v>122024</v>
       </c>
       <c r="M40" t="n">
-        <v>10.082</v>
+        <v>11.378</v>
       </c>
       <c r="N40" t="n">
-        <v>0.174</v>
+        <v>0.187</v>
       </c>
       <c r="O40" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="P40" t="s">
         <v>42</v>
@@ -5365,7 +5415,7 @@
         <v>237</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44580</v>
+        <v>44583</v>
       </c>
       <c r="D42" t="s">
         <v>238</v>
@@ -5375,31 +5425,31 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="H42" t="n">
-        <v>57117134</v>
+        <v>57770408</v>
       </c>
       <c r="I42" t="n">
-        <v>9825.248</v>
+        <v>9937.624</v>
       </c>
       <c r="J42" t="n">
-        <v>222548</v>
+        <v>172194</v>
       </c>
       <c r="K42" t="n">
-        <v>38.283</v>
+        <v>29.621</v>
       </c>
       <c r="L42" t="n">
-        <v>207692</v>
+        <v>218263</v>
       </c>
       <c r="M42" t="n">
-        <v>35.727</v>
+        <v>37.545</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1387</v>
+        <v>0.1641</v>
       </c>
       <c r="O42" t="n">
-        <v>7.2</v>
+        <v>6.1</v>
       </c>
       <c r="P42" t="s">
         <v>239</v>
@@ -5591,7 +5641,7 @@
         <v>263</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44582</v>
+        <v>44585</v>
       </c>
       <c r="D46" t="s">
         <v>264</v>
@@ -5601,21 +5651,25 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H46" t="n">
-        <v>275464</v>
+        <v>276422</v>
       </c>
       <c r="I46" t="n">
-        <v>189.989</v>
-      </c>
-      <c r="J46"/>
-      <c r="K46"/>
+        <v>190.65</v>
+      </c>
+      <c r="J46" t="n">
+        <v>501</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.346</v>
+      </c>
       <c r="L46" t="n">
-        <v>306</v>
+        <v>241</v>
       </c>
       <c r="M46" t="n">
-        <v>0.211</v>
+        <v>0.166</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
@@ -5640,7 +5694,7 @@
         <v>269</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44581</v>
+        <v>44584</v>
       </c>
       <c r="D47" t="s">
         <v>270</v>
@@ -5650,31 +5704,31 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="H47" t="n">
-        <v>2715771</v>
+        <v>2750749</v>
       </c>
       <c r="I47" t="n">
-        <v>2049.348</v>
+        <v>2075.742</v>
       </c>
       <c r="J47" t="n">
-        <v>13210</v>
+        <v>12125</v>
       </c>
       <c r="K47" t="n">
-        <v>9.968</v>
+        <v>9.15</v>
       </c>
       <c r="L47" t="n">
-        <v>10558</v>
+        <v>11566</v>
       </c>
       <c r="M47" t="n">
-        <v>7.967</v>
+        <v>8.728</v>
       </c>
       <c r="N47" t="n">
-        <v>0.2449</v>
+        <v>0.3005</v>
       </c>
       <c r="O47" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="P47" t="s">
         <v>271</v>
@@ -5697,66 +5751,62 @@
         <v>274</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44561</v>
+        <v>44585</v>
       </c>
       <c r="D48" t="s">
-        <v>275</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>276</v>
+        <v>36</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H48" t="n">
-        <v>4112267</v>
+        <v>4297866</v>
       </c>
       <c r="I48" t="n">
-        <v>34.886</v>
+        <v>36.461</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>9706</v>
+        <v>7733</v>
       </c>
       <c r="M48" t="n">
-        <v>0.082</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0.4357</v>
-      </c>
-      <c r="O48" t="n">
-        <v>2.3</v>
-      </c>
+        <v>0.066</v>
+      </c>
+      <c r="N48"/>
+      <c r="O48"/>
       <c r="P48" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q48" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R48" t="s">
         <v>50</v>
       </c>
       <c r="S48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>278</v>
+      </c>
+      <c r="B49" t="s">
         <v>279</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="1" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D49" t="s">
         <v>280</v>
       </c>
-      <c r="C49" s="1" t="n">
-        <v>44576</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>281</v>
-      </c>
-      <c r="E49" t="s">
-        <v>282</v>
       </c>
       <c r="F49"/>
       <c r="G49"/>
@@ -5765,7 +5815,7 @@
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>6845933</v>
+        <v>6495313</v>
       </c>
       <c r="M49"/>
       <c r="N49"/>
@@ -5777,68 +5827,72 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50" t="s">
         <v>283</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="1" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D50" t="s">
         <v>284</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>44581</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>285</v>
-      </c>
-      <c r="E50" t="s">
-        <v>286</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H50" t="n">
-        <v>712511</v>
+        <v>725621</v>
       </c>
       <c r="I50" t="n">
-        <v>14525.33</v>
+        <v>14792.592</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>3642</v>
+        <v>3917</v>
       </c>
       <c r="M50" t="n">
-        <v>74.246</v>
-      </c>
-      <c r="N50"/>
-      <c r="O50"/>
+        <v>79.852</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.1521</v>
+      </c>
+      <c r="O50" t="n">
+        <v>6.6</v>
+      </c>
       <c r="P50" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q50" t="s">
         <v>286</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>287</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>288</v>
-      </c>
-      <c r="S50" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>289</v>
+      </c>
+      <c r="B51" t="s">
         <v>290</v>
-      </c>
-      <c r="B51" t="s">
-        <v>291</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>44402</v>
       </c>
       <c r="D51" t="s">
+        <v>291</v>
+      </c>
+      <c r="E51" t="s">
         <v>292</v>
-      </c>
-      <c r="E51" t="s">
-        <v>293</v>
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
@@ -5869,33 +5923,33 @@
         <v>4.2</v>
       </c>
       <c r="P51" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q51" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R51" t="s">
         <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>294</v>
+      </c>
+      <c r="B52" t="s">
         <v>295</v>
-      </c>
-      <c r="B52" t="s">
-        <v>296</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>44580</v>
       </c>
       <c r="D52" t="s">
+        <v>296</v>
+      </c>
+      <c r="E52" t="s">
         <v>297</v>
-      </c>
-      <c r="E52" t="s">
-        <v>298</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
@@ -5926,86 +5980,90 @@
         <v>3.2</v>
       </c>
       <c r="P52" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q52" t="s">
         <v>299</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>300</v>
       </c>
       <c r="R52" t="s">
         <v>50</v>
       </c>
       <c r="S52" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>301</v>
+      </c>
+      <c r="B53" t="s">
         <v>302</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="1" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D53" t="s">
         <v>303</v>
       </c>
-      <c r="C53" s="1" t="n">
-        <v>44578</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>304</v>
-      </c>
-      <c r="E53" t="s">
-        <v>305</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="H53" t="n">
-        <v>218757610</v>
+        <v>224532675</v>
       </c>
       <c r="I53" t="n">
-        <v>3244.603</v>
+        <v>3330.258</v>
       </c>
       <c r="J53" t="n">
-        <v>1778970</v>
+        <v>1356264</v>
       </c>
       <c r="K53" t="n">
-        <v>26.386</v>
+        <v>20.116</v>
       </c>
       <c r="L53" t="n">
-        <v>1310426</v>
+        <v>1279428</v>
       </c>
       <c r="M53" t="n">
-        <v>19.436</v>
-      </c>
-      <c r="N53"/>
-      <c r="O53"/>
+        <v>18.976</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O53" t="n">
+        <v>3.2</v>
+      </c>
       <c r="P53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q53" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R53" t="s">
         <v>31</v>
       </c>
       <c r="S53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>306</v>
+      </c>
+      <c r="B54" t="s">
         <v>307</v>
-      </c>
-      <c r="B54" t="s">
-        <v>308</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>44573</v>
       </c>
       <c r="D54" t="s">
+        <v>308</v>
+      </c>
+      <c r="E54" t="s">
         <v>309</v>
-      </c>
-      <c r="E54" t="s">
-        <v>310</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
@@ -6032,30 +6090,30 @@
         <v>15.5</v>
       </c>
       <c r="P54" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q54" t="s">
         <v>310</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>311</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>312</v>
-      </c>
-      <c r="S54" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>313</v>
+      </c>
+      <c r="B55" t="s">
         <v>314</v>
-      </c>
-      <c r="B55" t="s">
-        <v>315</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>44556</v>
       </c>
       <c r="D55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E55" t="s">
         <v>42</v>
@@ -6085,86 +6143,86 @@
         <v>55.8</v>
       </c>
       <c r="P55" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q55" t="s">
         <v>317</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>318</v>
       </c>
       <c r="R55" t="s">
         <v>120</v>
       </c>
       <c r="S55" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>319</v>
+      </c>
+      <c r="B56" t="s">
         <v>320</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D56" t="s">
         <v>321</v>
       </c>
-      <c r="C56" s="1" t="n">
-        <v>44582</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>322</v>
-      </c>
-      <c r="E56" t="s">
-        <v>323</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H56" t="n">
-        <v>12052273</v>
+        <v>12087355</v>
       </c>
       <c r="I56" t="n">
-        <v>3028.382</v>
+        <v>3037.197</v>
       </c>
       <c r="J56" t="n">
-        <v>56386</v>
+        <v>35082</v>
       </c>
       <c r="K56" t="n">
-        <v>14.168</v>
+        <v>8.815</v>
       </c>
       <c r="L56" t="n">
-        <v>51390</v>
+        <v>35678</v>
       </c>
       <c r="M56" t="n">
-        <v>12.913</v>
+        <v>8.965</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q56" t="s">
         <v>323</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>324</v>
       </c>
       <c r="R56" t="s">
         <v>24</v>
       </c>
       <c r="S56" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>325</v>
+      </c>
+      <c r="B57" t="s">
         <v>326</v>
-      </c>
-      <c r="B57" t="s">
-        <v>327</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>44577</v>
       </c>
       <c r="D57" t="s">
+        <v>327</v>
+      </c>
+      <c r="E57" t="s">
         <v>328</v>
-      </c>
-      <c r="E57" t="s">
-        <v>329</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
@@ -6191,27 +6249,27 @@
         <v>4.1</v>
       </c>
       <c r="P57" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q57" t="s">
         <v>329</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>330</v>
       </c>
       <c r="R57" t="s">
         <v>50</v>
       </c>
       <c r="S57" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>331</v>
+      </c>
+      <c r="B58" t="s">
         <v>332</v>
       </c>
-      <c r="B58" t="s">
-        <v>333</v>
-      </c>
       <c r="C58" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D58" t="s">
         <v>35</v>
@@ -6221,28 +6279,24 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H58" t="n">
-        <v>2194883</v>
+        <v>2215094</v>
       </c>
       <c r="I58" t="n">
-        <v>69.169</v>
+        <v>69.806</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58" t="n">
-        <v>1456</v>
+        <v>3511</v>
       </c>
       <c r="M58" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.2121</v>
-      </c>
-      <c r="O58" t="n">
-        <v>4.7</v>
-      </c>
+        <v>0.111</v>
+      </c>
+      <c r="N58"/>
+      <c r="O58"/>
       <c r="P58" t="s">
         <v>36</v>
       </c>
@@ -6253,316 +6307,316 @@
         <v>24</v>
       </c>
       <c r="S58" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>334</v>
+      </c>
+      <c r="B59" t="s">
         <v>335</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D59" t="s">
         <v>336</v>
       </c>
-      <c r="C59" s="1" t="n">
-        <v>44581</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>337</v>
-      </c>
-      <c r="E59" t="s">
-        <v>338</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="H59" t="n">
-        <v>54142740</v>
+        <v>55203840</v>
       </c>
       <c r="I59" t="n">
-        <v>5220.717</v>
-      </c>
-      <c r="J59"/>
-      <c r="K59"/>
+        <v>5323.034</v>
+      </c>
+      <c r="J59" t="n">
+        <v>107004</v>
+      </c>
+      <c r="K59" t="n">
+        <v>10.318</v>
+      </c>
       <c r="L59" t="n">
-        <v>343520</v>
+        <v>330607</v>
       </c>
       <c r="M59" t="n">
-        <v>33.124</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0.0539</v>
-      </c>
-      <c r="O59" t="n">
-        <v>18.6</v>
-      </c>
+        <v>31.879</v>
+      </c>
+      <c r="N59"/>
+      <c r="O59"/>
       <c r="P59" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q59" t="s">
         <v>339</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>340</v>
       </c>
       <c r="R59" t="s">
         <v>120</v>
       </c>
       <c r="S59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>341</v>
+      </c>
+      <c r="B60" t="s">
         <v>342</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="1" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D60" t="s">
         <v>343</v>
       </c>
-      <c r="C60" s="1" t="n">
-        <v>44580</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>344</v>
-      </c>
-      <c r="E60" t="s">
-        <v>345</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="H60" t="n">
-        <v>3465741</v>
+        <v>3498120</v>
       </c>
       <c r="I60" t="n">
-        <v>189.905</v>
+        <v>191.679</v>
       </c>
       <c r="J60" t="n">
-        <v>13342</v>
+        <v>16715</v>
       </c>
       <c r="K60" t="n">
-        <v>0.731</v>
+        <v>0.916</v>
       </c>
       <c r="L60" t="n">
-        <v>11264</v>
+        <v>12155</v>
       </c>
       <c r="M60" t="n">
-        <v>0.617</v>
+        <v>0.666</v>
       </c>
       <c r="N60" t="n">
-        <v>0.2056</v>
+        <v>0.2006</v>
       </c>
       <c r="O60" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="P60" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q60" t="s">
         <v>346</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>347</v>
       </c>
       <c r="R60" t="s">
         <v>31</v>
       </c>
       <c r="S60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>348</v>
+      </c>
+      <c r="B61" t="s">
         <v>349</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="1" t="n">
+        <v>44582</v>
+      </c>
+      <c r="D61" t="s">
         <v>350</v>
       </c>
-      <c r="C61" s="1" t="n">
-        <v>44568</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>351</v>
-      </c>
-      <c r="E61" t="s">
-        <v>352</v>
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
-        <v>155805</v>
+        <v>442695</v>
       </c>
       <c r="I61" t="n">
-        <v>13.499</v>
+        <v>560.14</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
+      <c r="L61" t="n">
+        <v>2771</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3.506</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3388</v>
+      </c>
+      <c r="O61" t="n">
+        <v>3</v>
+      </c>
       <c r="P61" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q61" t="s">
         <v>352</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>353</v>
       </c>
       <c r="R61" t="s">
         <v>24</v>
       </c>
       <c r="S61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>354</v>
+      </c>
+      <c r="B62" t="s">
         <v>355</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" s="1" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D62" t="s">
         <v>356</v>
       </c>
-      <c r="C62" s="1" t="n">
-        <v>44572</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>357</v>
-      </c>
-      <c r="E62" t="s">
-        <v>358</v>
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>31340560</v>
+        <v>155805</v>
       </c>
       <c r="I62" t="n">
-        <v>4149.529</v>
+        <v>13.499</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
-      <c r="L62" t="n">
-        <v>95848</v>
-      </c>
-      <c r="M62" t="n">
-        <v>12.69</v>
-      </c>
+      <c r="L62"/>
+      <c r="M62"/>
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>358</v>
+      </c>
+      <c r="R62" t="s">
+        <v>24</v>
+      </c>
+      <c r="S62" t="s">
         <v>359</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>360</v>
-      </c>
-      <c r="R62" t="s">
-        <v>50</v>
-      </c>
-      <c r="S62" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>360</v>
+      </c>
+      <c r="B63" t="s">
+        <v>361</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D63" t="s">
         <v>362</v>
       </c>
-      <c r="B63" t="s">
+      <c r="E63" t="s">
         <v>363</v>
       </c>
-      <c r="C63" s="1" t="n">
-        <v>44582</v>
-      </c>
-      <c r="D63" t="s">
-        <v>364</v>
-      </c>
-      <c r="E63" t="s">
-        <v>365</v>
-      </c>
-      <c r="F63" t="s">
-        <v>366</v>
-      </c>
+      <c r="F63"/>
       <c r="G63" t="n">
-        <v>620</v>
+        <v>27</v>
       </c>
       <c r="H63" t="n">
-        <v>9211093</v>
+        <v>32291326</v>
       </c>
       <c r="I63" t="n">
-        <v>956.087</v>
-      </c>
-      <c r="J63" t="n">
-        <v>49275</v>
-      </c>
-      <c r="K63" t="n">
-        <v>5.115</v>
-      </c>
+        <v>4275.411</v>
+      </c>
+      <c r="J63"/>
+      <c r="K63"/>
       <c r="L63" t="n">
-        <v>30539</v>
+        <v>111213</v>
       </c>
       <c r="M63" t="n">
-        <v>3.17</v>
+        <v>14.725</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
       <c r="P63" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q63" t="s">
         <v>365</v>
       </c>
-      <c r="Q63" t="s">
-        <v>367</v>
-      </c>
       <c r="R63" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="S63" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>367</v>
+      </c>
+      <c r="B64" t="s">
+        <v>368</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D64" t="s">
         <v>369</v>
       </c>
-      <c r="B64" t="s">
+      <c r="E64" t="s">
         <v>370</v>
       </c>
-      <c r="C64" s="1" t="n">
-        <v>44566</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
         <v>371</v>
       </c>
-      <c r="E64" t="s">
-        <v>372</v>
-      </c>
-      <c r="F64"/>
       <c r="G64" t="n">
-        <v>679</v>
+        <v>621</v>
       </c>
       <c r="H64" t="n">
-        <v>874583</v>
+        <v>9343917</v>
       </c>
       <c r="I64" t="n">
-        <v>2371.48</v>
+        <v>969.873</v>
       </c>
       <c r="J64" t="n">
-        <v>6583</v>
+        <v>132824</v>
       </c>
       <c r="K64" t="n">
-        <v>17.85</v>
+        <v>13.787</v>
       </c>
       <c r="L64" t="n">
-        <v>5954</v>
+        <v>37772</v>
       </c>
       <c r="M64" t="n">
-        <v>16.145</v>
+        <v>3.921</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q64" t="s">
         <v>372</v>
       </c>
-      <c r="Q64" t="s">
-        <v>371</v>
-      </c>
       <c r="R64" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="S64" t="s">
         <v>373</v>
@@ -6576,7 +6630,7 @@
         <v>375</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44582</v>
+        <v>44566</v>
       </c>
       <c r="D65" t="s">
         <v>376</v>
@@ -6584,29 +6638,27 @@
       <c r="E65" t="s">
         <v>377</v>
       </c>
-      <c r="F65" t="s">
-        <v>378</v>
-      </c>
+      <c r="F65"/>
       <c r="G65" t="n">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="H65" t="n">
-        <v>711538938</v>
+        <v>874583</v>
       </c>
       <c r="I65" t="n">
-        <v>510.646</v>
+        <v>2371.48</v>
       </c>
       <c r="J65" t="n">
-        <v>2182108</v>
+        <v>6583</v>
       </c>
       <c r="K65" t="n">
-        <v>1.566</v>
+        <v>17.85</v>
       </c>
       <c r="L65" t="n">
-        <v>1777122</v>
+        <v>5954</v>
       </c>
       <c r="M65" t="n">
-        <v>1.275</v>
+        <v>16.145</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
@@ -6617,273 +6669,271 @@
         <v>376</v>
       </c>
       <c r="R65" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="S65" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>379</v>
+      </c>
+      <c r="B66" t="s">
         <v>380</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D66" t="s">
         <v>381</v>
       </c>
-      <c r="C66" s="1" t="n">
-        <v>44582</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>382</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>383</v>
       </c>
-      <c r="F66"/>
       <c r="G66" t="n">
-        <v>312</v>
+        <v>665</v>
       </c>
       <c r="H66" t="n">
-        <v>46426888</v>
+        <v>716995333</v>
       </c>
       <c r="I66" t="n">
-        <v>167.993</v>
+        <v>514.562</v>
       </c>
       <c r="J66" t="n">
-        <v>200180</v>
+        <v>1474753</v>
       </c>
       <c r="K66" t="n">
-        <v>0.724</v>
+        <v>1.058</v>
       </c>
       <c r="L66" t="n">
-        <v>181606</v>
+        <v>1890436</v>
       </c>
       <c r="M66" t="n">
-        <v>0.657</v>
+        <v>1.357</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
       <c r="P66" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q66" t="s">
+        <v>381</v>
+      </c>
+      <c r="R66" t="s">
+        <v>120</v>
+      </c>
+      <c r="S66" t="s">
         <v>384</v>
-      </c>
-      <c r="R66" t="s">
-        <v>31</v>
-      </c>
-      <c r="S66" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>385</v>
+      </c>
+      <c r="B67" t="s">
         <v>386</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D67" t="s">
         <v>387</v>
       </c>
-      <c r="C67" s="1" t="n">
-        <v>44582</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>388</v>
-      </c>
-      <c r="E67" t="s">
-        <v>389</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>419</v>
+        <v>315</v>
       </c>
       <c r="H67" t="n">
-        <v>43865395</v>
+        <v>46960977</v>
       </c>
       <c r="I67" t="n">
-        <v>515.889</v>
-      </c>
-      <c r="J67"/>
-      <c r="K67"/>
+        <v>169.926</v>
+      </c>
+      <c r="J67" t="n">
+        <v>175763</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.636</v>
+      </c>
       <c r="L67" t="n">
-        <v>88576</v>
+        <v>180589</v>
       </c>
       <c r="M67" t="n">
-        <v>1.042</v>
+        <v>0.653</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>389</v>
+      </c>
+      <c r="R67" t="s">
+        <v>31</v>
+      </c>
+      <c r="S67" t="s">
         <v>390</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>391</v>
-      </c>
-      <c r="R67" t="s">
-        <v>50</v>
-      </c>
-      <c r="S67" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>391</v>
+      </c>
+      <c r="B68" t="s">
+        <v>392</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D68" t="s">
         <v>393</v>
       </c>
-      <c r="B68" t="s">
+      <c r="E68" t="s">
         <v>394</v>
-      </c>
-      <c r="C68" s="1" t="n">
-        <v>44581</v>
-      </c>
-      <c r="D68" t="s">
-        <v>395</v>
-      </c>
-      <c r="E68" t="s">
-        <v>396</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>538</v>
+        <v>421</v>
       </c>
       <c r="H68" t="n">
-        <v>17144299</v>
+        <v>44138128</v>
       </c>
       <c r="I68" t="n">
-        <v>416.332</v>
-      </c>
-      <c r="J68" t="n">
-        <v>25246</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.613</v>
-      </c>
+        <v>519.096</v>
+      </c>
+      <c r="J68"/>
+      <c r="K68"/>
       <c r="L68" t="n">
-        <v>22098</v>
+        <v>91256</v>
       </c>
       <c r="M68" t="n">
-        <v>0.537</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="O68" t="n">
-        <v>4.8</v>
-      </c>
+        <v>1.073</v>
+      </c>
+      <c r="N68"/>
+      <c r="O68"/>
       <c r="P68" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>396</v>
+      </c>
+      <c r="R68" t="s">
+        <v>50</v>
+      </c>
+      <c r="S68" t="s">
         <v>397</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>398</v>
-      </c>
-      <c r="R68" t="s">
-        <v>120</v>
-      </c>
-      <c r="S68" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>398</v>
+      </c>
+      <c r="B69" t="s">
+        <v>399</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D69" t="s">
         <v>400</v>
       </c>
-      <c r="B69" t="s">
+      <c r="E69" t="s">
         <v>401</v>
-      </c>
-      <c r="C69" s="1" t="n">
-        <v>44582</v>
-      </c>
-      <c r="D69" t="s">
-        <v>402</v>
-      </c>
-      <c r="E69" t="s">
-        <v>403</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>675</v>
+        <v>538</v>
       </c>
       <c r="H69" t="n">
-        <v>10770680</v>
+        <v>17144299</v>
       </c>
       <c r="I69" t="n">
-        <v>2161.527</v>
+        <v>416.332</v>
       </c>
       <c r="J69" t="n">
-        <v>18153</v>
+        <v>25246</v>
       </c>
       <c r="K69" t="n">
-        <v>3.643</v>
+        <v>0.613</v>
       </c>
       <c r="L69" t="n">
-        <v>22766</v>
+        <v>22098</v>
       </c>
       <c r="M69" t="n">
-        <v>4.569</v>
-      </c>
-      <c r="N69"/>
-      <c r="O69"/>
+        <v>0.537</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="O69" t="n">
+        <v>4.8</v>
+      </c>
       <c r="P69" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q69" t="s">
         <v>403</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
+        <v>120</v>
+      </c>
+      <c r="S69" t="s">
         <v>404</v>
-      </c>
-      <c r="R69" t="s">
-        <v>50</v>
-      </c>
-      <c r="S69" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>405</v>
+      </c>
+      <c r="B70" t="s">
         <v>406</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D70" t="s">
         <v>407</v>
       </c>
-      <c r="C70" s="1" t="n">
-        <v>44581</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>408</v>
-      </c>
-      <c r="E70" t="s">
-        <v>409</v>
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="H70" t="n">
-        <v>41818706</v>
+        <v>10821839</v>
       </c>
       <c r="I70" t="n">
-        <v>4500.991</v>
+        <v>2171.794</v>
       </c>
       <c r="J70" t="n">
-        <v>358814</v>
+        <v>12740</v>
       </c>
       <c r="K70" t="n">
-        <v>38.62</v>
+        <v>2.557</v>
       </c>
       <c r="L70" t="n">
-        <v>396193</v>
+        <v>19008</v>
       </c>
       <c r="M70" t="n">
-        <v>42.643</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0.1473</v>
-      </c>
-      <c r="O70" t="n">
-        <v>6.8</v>
-      </c>
+        <v>3.815</v>
+      </c>
+      <c r="N70"/>
+      <c r="O70"/>
       <c r="P70" t="s">
-        <v>42</v>
+        <v>408</v>
       </c>
       <c r="Q70" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="R70" t="s">
         <v>50</v>
@@ -6900,7 +6950,7 @@
         <v>412</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44581</v>
+        <v>44584</v>
       </c>
       <c r="D71" t="s">
         <v>413</v>
@@ -6908,269 +6958,257 @@
       <c r="E71" t="s">
         <v>414</v>
       </c>
-      <c r="F71" t="s">
-        <v>415</v>
-      </c>
+      <c r="F71"/>
       <c r="G71" t="n">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="H71" t="n">
-        <v>160111999</v>
+        <v>42989022</v>
       </c>
       <c r="I71" t="n">
-        <v>2652.289</v>
+        <v>4626.953</v>
       </c>
       <c r="J71" t="n">
-        <v>1110266</v>
+        <v>413933</v>
       </c>
       <c r="K71" t="n">
-        <v>18.392</v>
+        <v>44.552</v>
       </c>
       <c r="L71" t="n">
-        <v>1084684</v>
+        <v>404825</v>
       </c>
       <c r="M71" t="n">
-        <v>17.968</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.1663</v>
-      </c>
-      <c r="O71" t="n">
-        <v>6</v>
-      </c>
+        <v>43.572</v>
+      </c>
+      <c r="N71"/>
+      <c r="O71"/>
       <c r="P71" t="s">
-        <v>416</v>
+        <v>42</v>
       </c>
       <c r="Q71" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="R71" t="s">
         <v>50</v>
       </c>
       <c r="S71" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>416</v>
+      </c>
+      <c r="B72" t="s">
+        <v>417</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D72" t="s">
+        <v>418</v>
+      </c>
+      <c r="E72" t="s">
         <v>419</v>
       </c>
-      <c r="B72" t="s">
+      <c r="F72" t="s">
         <v>420</v>
       </c>
-      <c r="C72" s="1" t="n">
-        <v>44569</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="G72" t="n">
+        <v>700</v>
+      </c>
+      <c r="H72" t="n">
+        <v>163725878</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2712.154</v>
+      </c>
+      <c r="J72" t="n">
+        <v>519293</v>
+      </c>
+      <c r="K72" t="n">
+        <v>8.602</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1055340</v>
+      </c>
+      <c r="M72" t="n">
+        <v>17.482</v>
+      </c>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72" t="s">
         <v>421</v>
       </c>
-      <c r="E72" t="s">
+      <c r="Q72" t="s">
         <v>422</v>
       </c>
-      <c r="F72"/>
-      <c r="G72" t="n">
-        <v>458</v>
-      </c>
-      <c r="H72" t="n">
-        <v>731315</v>
-      </c>
-      <c r="I72" t="n">
-        <v>245.947</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4251</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2951</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.992</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0.3102</v>
-      </c>
-      <c r="O72" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="P72" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
+        <v>50</v>
+      </c>
+      <c r="S72" t="s">
         <v>423</v>
-      </c>
-      <c r="R72" t="s">
-        <v>120</v>
-      </c>
-      <c r="S72" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>424</v>
+      </c>
+      <c r="B73" t="s">
         <v>425</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="1" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D73" t="s">
         <v>426</v>
       </c>
-      <c r="C73" s="1" t="n">
-        <v>44581</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>427</v>
-      </c>
-      <c r="E73" t="s">
-        <v>428</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>713</v>
+        <v>465</v>
       </c>
       <c r="H73" t="n">
-        <v>29905819</v>
+        <v>777018</v>
       </c>
       <c r="I73" t="n">
-        <v>237.252</v>
-      </c>
-      <c r="J73" t="n">
-        <v>191060</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1.516</v>
-      </c>
+        <v>261.318</v>
+      </c>
+      <c r="J73"/>
+      <c r="K73"/>
       <c r="L73" t="n">
-        <v>148907</v>
+        <v>3127</v>
       </c>
       <c r="M73" t="n">
-        <v>1.181</v>
+        <v>1.052</v>
       </c>
       <c r="N73" t="n">
-        <v>0.2046</v>
+        <v>0.3873</v>
       </c>
       <c r="O73" t="n">
-        <v>4.9</v>
+        <v>2.6</v>
       </c>
       <c r="P73" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q73" t="s">
         <v>428</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
+        <v>120</v>
+      </c>
+      <c r="S73" t="s">
         <v>429</v>
-      </c>
-      <c r="R73" t="s">
-        <v>31</v>
-      </c>
-      <c r="S73" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>430</v>
+      </c>
+      <c r="B74" t="s">
         <v>431</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="1" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D74" t="s">
         <v>432</v>
       </c>
-      <c r="C74" s="1" t="n">
-        <v>44581</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>433</v>
-      </c>
-      <c r="E74" t="s">
-        <v>434</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>305</v>
+        <v>716</v>
       </c>
       <c r="H74" t="n">
-        <v>14247231</v>
+        <v>30387432</v>
       </c>
       <c r="I74" t="n">
-        <v>1387.399</v>
+        <v>241.073</v>
       </c>
       <c r="J74" t="n">
-        <v>36143</v>
+        <v>84039</v>
       </c>
       <c r="K74" t="n">
-        <v>3.52</v>
+        <v>0.667</v>
       </c>
       <c r="L74" t="n">
-        <v>35082</v>
+        <v>176132</v>
       </c>
       <c r="M74" t="n">
-        <v>3.416</v>
+        <v>1.397</v>
       </c>
       <c r="N74" t="n">
-        <v>0.1303</v>
+        <v>0.2387</v>
       </c>
       <c r="O74" t="n">
-        <v>7.7</v>
+        <v>4.2</v>
       </c>
       <c r="P74" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q74" t="s">
         <v>434</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="R74" t="s">
+        <v>31</v>
+      </c>
+      <c r="S74" t="s">
         <v>435</v>
-      </c>
-      <c r="R74" t="s">
-        <v>50</v>
-      </c>
-      <c r="S74" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>436</v>
+      </c>
+      <c r="B75" t="s">
         <v>437</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="1" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D75" t="s">
         <v>438</v>
       </c>
-      <c r="C75" s="1" t="n">
-        <v>44355</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>439</v>
-      </c>
-      <c r="E75" t="s">
-        <v>440</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>447</v>
+        <v>305</v>
       </c>
       <c r="H75" t="n">
-        <v>11965068</v>
+        <v>14247231</v>
       </c>
       <c r="I75" t="n">
-        <v>629.908</v>
+        <v>1387.399</v>
       </c>
       <c r="J75" t="n">
-        <v>52729</v>
+        <v>36143</v>
       </c>
       <c r="K75" t="n">
-        <v>2.776</v>
+        <v>3.52</v>
       </c>
       <c r="L75" t="n">
-        <v>39955</v>
+        <v>35082</v>
       </c>
       <c r="M75" t="n">
-        <v>2.103</v>
+        <v>3.416</v>
       </c>
       <c r="N75" t="n">
-        <v>0.03</v>
+        <v>0.1303</v>
       </c>
       <c r="O75" t="n">
-        <v>33.4</v>
+        <v>7.7</v>
       </c>
       <c r="P75" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q75" t="s">
         <v>440</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>439</v>
       </c>
       <c r="R75" t="s">
         <v>50</v>
@@ -7187,213 +7225,213 @@
         <v>443</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44581</v>
+        <v>44355</v>
       </c>
       <c r="D76" t="s">
-        <v>35</v>
+        <v>444</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>445</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>225</v>
+        <v>447</v>
       </c>
       <c r="H76" t="n">
-        <v>3170792</v>
+        <v>11965068</v>
       </c>
       <c r="I76" t="n">
-        <v>57.666</v>
-      </c>
-      <c r="J76"/>
-      <c r="K76"/>
+        <v>629.908</v>
+      </c>
+      <c r="J76" t="n">
+        <v>52729</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2.776</v>
+      </c>
       <c r="L76" t="n">
-        <v>7307</v>
+        <v>39955</v>
       </c>
       <c r="M76" t="n">
-        <v>0.133</v>
+        <v>2.103</v>
       </c>
       <c r="N76" t="n">
-        <v>0.0726</v>
+        <v>0.03</v>
       </c>
       <c r="O76" t="n">
-        <v>13.8</v>
+        <v>33.4</v>
       </c>
       <c r="P76" t="s">
-        <v>36</v>
+        <v>445</v>
       </c>
       <c r="Q76" t="s">
-        <v>37</v>
+        <v>444</v>
       </c>
       <c r="R76" t="s">
         <v>50</v>
       </c>
       <c r="S76" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B77" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D77" t="s">
-        <v>447</v>
+        <v>35</v>
       </c>
       <c r="E77" t="s">
-        <v>448</v>
+        <v>36</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="H77" t="n">
-        <v>1516877</v>
+        <v>3186286</v>
       </c>
       <c r="I77" t="n">
-        <v>851.167</v>
-      </c>
-      <c r="J77" t="n">
-        <v>10833</v>
-      </c>
-      <c r="K77" t="n">
-        <v>6.079</v>
-      </c>
+        <v>57.948</v>
+      </c>
+      <c r="J77"/>
+      <c r="K77"/>
       <c r="L77" t="n">
-        <v>8689</v>
+        <v>5307</v>
       </c>
       <c r="M77" t="n">
-        <v>4.876</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.1351</v>
-      </c>
-      <c r="O77" t="n">
-        <v>7.4</v>
-      </c>
+        <v>0.097</v>
+      </c>
+      <c r="N77"/>
+      <c r="O77"/>
       <c r="P77" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>37</v>
+      </c>
+      <c r="R77" t="s">
+        <v>50</v>
+      </c>
+      <c r="S77" t="s">
         <v>449</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>447</v>
-      </c>
-      <c r="R77" t="s">
-        <v>24</v>
-      </c>
-      <c r="S77" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>450</v>
+      </c>
+      <c r="B78" t="s">
         <v>451</v>
-      </c>
-      <c r="B78" t="s">
-        <v>452</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>44581</v>
       </c>
       <c r="D78" t="s">
+        <v>452</v>
+      </c>
+      <c r="E78" t="s">
         <v>453</v>
-      </c>
-      <c r="E78" t="s">
-        <v>454</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>614</v>
+        <v>135</v>
       </c>
       <c r="H78" t="n">
-        <v>6574401</v>
+        <v>1516877</v>
       </c>
       <c r="I78" t="n">
-        <v>1518.845</v>
+        <v>851.167</v>
       </c>
       <c r="J78" t="n">
-        <v>33957</v>
+        <v>10833</v>
       </c>
       <c r="K78" t="n">
-        <v>7.845</v>
+        <v>6.079</v>
       </c>
       <c r="L78" t="n">
-        <v>32520</v>
+        <v>8689</v>
       </c>
       <c r="M78" t="n">
-        <v>7.513</v>
+        <v>4.876</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1437</v>
+        <v>0.1351</v>
       </c>
       <c r="O78" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="P78" t="s">
         <v>454</v>
       </c>
       <c r="Q78" t="s">
+        <v>452</v>
+      </c>
+      <c r="R78" t="s">
+        <v>24</v>
+      </c>
+      <c r="S78" t="s">
         <v>455</v>
-      </c>
-      <c r="R78" t="s">
-        <v>50</v>
-      </c>
-      <c r="S78" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>456</v>
+      </c>
+      <c r="B79" t="s">
         <v>457</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="1" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D79" t="s">
         <v>458</v>
       </c>
-      <c r="C79" s="1" t="n">
-        <v>44570</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>459</v>
-      </c>
-      <c r="E79" t="s">
-        <v>460</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>76</v>
+        <v>614</v>
       </c>
       <c r="H79" t="n">
-        <v>990520</v>
+        <v>6574401</v>
       </c>
       <c r="I79" t="n">
-        <v>134.228</v>
-      </c>
-      <c r="J79"/>
-      <c r="K79"/>
+        <v>1518.845</v>
+      </c>
+      <c r="J79" t="n">
+        <v>33957</v>
+      </c>
+      <c r="K79" t="n">
+        <v>7.845</v>
+      </c>
       <c r="L79" t="n">
-        <v>2201</v>
+        <v>32520</v>
       </c>
       <c r="M79" t="n">
-        <v>0.298</v>
+        <v>7.513</v>
       </c>
       <c r="N79" t="n">
-        <v>0.3968</v>
+        <v>0.1437</v>
       </c>
       <c r="O79" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="P79" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q79" t="s">
         <v>460</v>
       </c>
-      <c r="Q79" t="s">
-        <v>459</v>
-      </c>
       <c r="R79" t="s">
-        <v>288</v>
+        <v>50</v>
       </c>
       <c r="S79" t="s">
         <v>461</v>
@@ -7407,7 +7445,7 @@
         <v>463</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44581</v>
+        <v>44570</v>
       </c>
       <c r="D80" t="s">
         <v>464</v>
@@ -7415,35 +7453,29 @@
       <c r="E80" t="s">
         <v>465</v>
       </c>
-      <c r="F80" t="s">
-        <v>466</v>
-      </c>
+      <c r="F80"/>
       <c r="G80" t="n">
-        <v>692</v>
+        <v>76</v>
       </c>
       <c r="H80" t="n">
-        <v>5805589</v>
+        <v>990520</v>
       </c>
       <c r="I80" t="n">
-        <v>3109.692</v>
-      </c>
-      <c r="J80" t="n">
-        <v>23669</v>
-      </c>
-      <c r="K80" t="n">
-        <v>12.678</v>
-      </c>
+        <v>134.228</v>
+      </c>
+      <c r="J80"/>
+      <c r="K80"/>
       <c r="L80" t="n">
-        <v>17444</v>
+        <v>2201</v>
       </c>
       <c r="M80" t="n">
-        <v>9.344</v>
+        <v>0.298</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1889</v>
+        <v>0.3968</v>
       </c>
       <c r="O80" t="n">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="P80" t="s">
         <v>465</v>
@@ -7452,56 +7484,62 @@
         <v>464</v>
       </c>
       <c r="R80" t="s">
-        <v>50</v>
+        <v>287</v>
       </c>
       <c r="S80" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>467</v>
+      </c>
+      <c r="B81" t="s">
         <v>468</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D81" t="s">
         <v>469</v>
       </c>
-      <c r="C81" s="1" t="n">
-        <v>44370</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>470</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>471</v>
       </c>
-      <c r="F81"/>
       <c r="G81" t="n">
-        <v>26</v>
+        <v>696</v>
       </c>
       <c r="H81" t="n">
-        <v>4731376</v>
+        <v>5892807</v>
       </c>
       <c r="I81" t="n">
-        <v>698.962</v>
-      </c>
-      <c r="J81"/>
-      <c r="K81"/>
+        <v>3156.409</v>
+      </c>
+      <c r="J81" t="n">
+        <v>14510</v>
+      </c>
+      <c r="K81" t="n">
+        <v>7.772</v>
+      </c>
       <c r="L81" t="n">
-        <v>14688</v>
+        <v>21727</v>
       </c>
       <c r="M81" t="n">
-        <v>2.17</v>
+        <v>11.638</v>
       </c>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q81" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="R81" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="S81" t="s">
         <v>472</v>
@@ -7515,7 +7553,7 @@
         <v>474</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44560</v>
+        <v>44370</v>
       </c>
       <c r="D82" t="s">
         <v>475</v>
@@ -7525,139 +7563,131 @@
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>507</v>
-      </c>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82" t="n">
-        <v>4635</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.666</v>
-      </c>
-      <c r="L82"/>
-      <c r="M82"/>
+        <v>26</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4731376</v>
+      </c>
+      <c r="I82" t="n">
+        <v>698.962</v>
+      </c>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82" t="n">
+        <v>14688</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2.17</v>
+      </c>
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82" t="s">
         <v>476</v>
       </c>
       <c r="Q82" t="s">
+        <v>475</v>
+      </c>
+      <c r="R82" t="s">
+        <v>24</v>
+      </c>
+      <c r="S82" t="s">
         <v>477</v>
-      </c>
-      <c r="R82" t="s">
-        <v>120</v>
-      </c>
-      <c r="S82" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>478</v>
+      </c>
+      <c r="B83" t="s">
         <v>479</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="1" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D83" t="s">
         <v>480</v>
       </c>
-      <c r="C83" s="1" t="n">
-        <v>44571</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>481</v>
-      </c>
-      <c r="E83" t="s">
-        <v>482</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>598</v>
-      </c>
-      <c r="H83" t="n">
-        <v>90632</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2369.216</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="H83"/>
+      <c r="I83"/>
       <c r="J83" t="n">
-        <v>248</v>
+        <v>7934</v>
       </c>
       <c r="K83" t="n">
-        <v>6.483</v>
-      </c>
-      <c r="L83" t="n">
-        <v>220</v>
-      </c>
-      <c r="M83" t="n">
-        <v>5.751</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="O83" t="n">
-        <v>2.9</v>
-      </c>
+        <v>1.14</v>
+      </c>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
       <c r="P83" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q83" t="s">
         <v>482</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="R83" t="s">
+        <v>120</v>
+      </c>
+      <c r="S83" t="s">
         <v>483</v>
-      </c>
-      <c r="R83" t="s">
-        <v>50</v>
-      </c>
-      <c r="S83" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>484</v>
+      </c>
+      <c r="B84" t="s">
         <v>485</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="1" t="n">
+        <v>44571</v>
+      </c>
+      <c r="D84" t="s">
         <v>486</v>
       </c>
-      <c r="C84" s="1" t="n">
-        <v>44573</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>487</v>
-      </c>
-      <c r="E84" t="s">
-        <v>488</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>664</v>
+        <v>598</v>
       </c>
       <c r="H84" t="n">
-        <v>7143396</v>
+        <v>90632</v>
       </c>
       <c r="I84" t="n">
-        <v>2655.674</v>
+        <v>2369.216</v>
       </c>
       <c r="J84" t="n">
-        <v>25605</v>
+        <v>248</v>
       </c>
       <c r="K84" t="n">
-        <v>9.519</v>
+        <v>6.483</v>
       </c>
       <c r="L84" t="n">
-        <v>21092</v>
+        <v>220</v>
       </c>
       <c r="M84" t="n">
-        <v>7.841</v>
+        <v>5.751</v>
       </c>
       <c r="N84" t="n">
-        <v>0.186</v>
+        <v>0.344</v>
       </c>
       <c r="O84" t="n">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="P84" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q84" t="s">
         <v>488</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>487</v>
       </c>
       <c r="R84" t="s">
         <v>50</v>
@@ -7674,7 +7704,7 @@
         <v>491</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44580</v>
+        <v>44582</v>
       </c>
       <c r="D85" t="s">
         <v>492</v>
@@ -7684,31 +7714,31 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="H85" t="n">
-        <v>3919013</v>
+        <v>7357387</v>
       </c>
       <c r="I85" t="n">
-        <v>6173.482</v>
+        <v>2735.228</v>
       </c>
       <c r="J85" t="n">
-        <v>9373</v>
+        <v>21578</v>
       </c>
       <c r="K85" t="n">
-        <v>14.765</v>
+        <v>8.022</v>
       </c>
       <c r="L85" t="n">
-        <v>5710</v>
+        <v>22682</v>
       </c>
       <c r="M85" t="n">
-        <v>8.995</v>
+        <v>8.432</v>
       </c>
       <c r="N85" t="n">
-        <v>0.3182</v>
+        <v>0.276</v>
       </c>
       <c r="O85" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P85" t="s">
         <v>493</v>
@@ -7731,7 +7761,7 @@
         <v>496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44575</v>
+        <v>44583</v>
       </c>
       <c r="D86" t="s">
         <v>497</v>
@@ -7741,36 +7771,36 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>271</v>
+        <v>697</v>
       </c>
       <c r="H86" t="n">
-        <v>352115</v>
+        <v>3940155</v>
       </c>
       <c r="I86" t="n">
-        <v>12.386</v>
-      </c>
-      <c r="J86"/>
-      <c r="K86"/>
+        <v>6206.787</v>
+      </c>
+      <c r="J86" t="n">
+        <v>6719</v>
+      </c>
+      <c r="K86" t="n">
+        <v>10.584</v>
+      </c>
       <c r="L86" t="n">
-        <v>1538</v>
+        <v>6116</v>
       </c>
       <c r="M86" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0.1548</v>
-      </c>
-      <c r="O86" t="n">
-        <v>6.5</v>
-      </c>
+        <v>9.634</v>
+      </c>
+      <c r="N86"/>
+      <c r="O86"/>
       <c r="P86" t="s">
-        <v>36</v>
+        <v>498</v>
       </c>
       <c r="Q86" t="s">
-        <v>37</v>
+        <v>497</v>
       </c>
       <c r="R86" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="S86" t="s">
         <v>499</v>
@@ -7784,37 +7814,37 @@
         <v>501</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44581</v>
+        <v>44575</v>
       </c>
       <c r="D87" t="s">
-        <v>35</v>
+        <v>502</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>503</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="H87" t="n">
-        <v>517237</v>
+        <v>352115</v>
       </c>
       <c r="I87" t="n">
-        <v>26.326</v>
+        <v>12.386</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87" t="n">
-        <v>1357</v>
+        <v>1538</v>
       </c>
       <c r="M87" t="n">
-        <v>0.069</v>
+        <v>0.054</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1593</v>
+        <v>0.1548</v>
       </c>
       <c r="O87" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="P87" t="s">
         <v>36</v>
@@ -7823,214 +7853,214 @@
         <v>37</v>
       </c>
       <c r="R87" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S87" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B88" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44579</v>
+        <v>44585</v>
       </c>
       <c r="D88" t="s">
-        <v>505</v>
+        <v>35</v>
       </c>
       <c r="E88" t="s">
-        <v>506</v>
-      </c>
-      <c r="F88" t="s">
+        <v>36</v>
+      </c>
+      <c r="F88"/>
+      <c r="G88" t="n">
+        <v>263</v>
+      </c>
+      <c r="H88" t="n">
+        <v>522048</v>
+      </c>
+      <c r="I88" t="n">
+        <v>26.57</v>
+      </c>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88" t="n">
+        <v>1285</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>37</v>
+      </c>
+      <c r="R88" t="s">
+        <v>50</v>
+      </c>
+      <c r="S88" t="s">
         <v>507</v>
-      </c>
-      <c r="G88" t="n">
-        <v>726</v>
-      </c>
-      <c r="H88" t="n">
-        <v>43854797</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1338.008</v>
-      </c>
-      <c r="J88" t="n">
-        <v>105366</v>
-      </c>
-      <c r="K88" t="n">
-        <v>3.215</v>
-      </c>
-      <c r="L88" t="n">
-        <v>106627</v>
-      </c>
-      <c r="M88" t="n">
-        <v>3.253</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0.0293</v>
-      </c>
-      <c r="O88" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="P88" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>508</v>
-      </c>
-      <c r="R88" t="s">
-        <v>31</v>
-      </c>
-      <c r="S88" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>508</v>
+      </c>
+      <c r="B89" t="s">
+        <v>509</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D89" t="s">
         <v>510</v>
       </c>
-      <c r="B89" t="s">
+      <c r="E89" t="s">
         <v>511</v>
       </c>
-      <c r="C89" s="1" t="n">
-        <v>44580</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="F89" t="s">
         <v>512</v>
       </c>
-      <c r="E89" t="s">
+      <c r="G89" t="n">
+        <v>730</v>
+      </c>
+      <c r="H89" t="n">
+        <v>44308922</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1351.863</v>
+      </c>
+      <c r="J89" t="n">
+        <v>95131</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2.902</v>
+      </c>
+      <c r="L89" t="n">
+        <v>113020</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3.448</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O89" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="P89" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q89" t="s">
         <v>513</v>
       </c>
-      <c r="F89"/>
-      <c r="G89" t="n">
-        <v>656</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1973268</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3629.866</v>
-      </c>
-      <c r="J89" t="n">
-        <v>7171</v>
-      </c>
-      <c r="K89" t="n">
-        <v>13.191</v>
-      </c>
-      <c r="L89" t="n">
-        <v>6620</v>
-      </c>
-      <c r="M89" t="n">
-        <v>12.178</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.1963</v>
-      </c>
-      <c r="O89" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="P89" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q89" t="s">
+      <c r="R89" t="s">
+        <v>31</v>
+      </c>
+      <c r="S89" t="s">
         <v>514</v>
-      </c>
-      <c r="R89" t="s">
-        <v>120</v>
-      </c>
-      <c r="S89" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>515</v>
+      </c>
+      <c r="B90" t="s">
         <v>516</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="1" t="n">
+        <v>44580</v>
+      </c>
+      <c r="D90" t="s">
         <v>517</v>
       </c>
-      <c r="C90" s="1" t="n">
-        <v>44582</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>518</v>
-      </c>
-      <c r="E90" t="s">
-        <v>519</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>551</v>
+        <v>656</v>
       </c>
       <c r="H90" t="n">
-        <v>1656696</v>
+        <v>1973268</v>
       </c>
       <c r="I90" t="n">
-        <v>3210.029</v>
+        <v>3629.866</v>
       </c>
       <c r="J90" t="n">
-        <v>3717</v>
+        <v>7171</v>
       </c>
       <c r="K90" t="n">
-        <v>7.202</v>
+        <v>13.191</v>
       </c>
       <c r="L90" t="n">
-        <v>3816</v>
+        <v>6620</v>
       </c>
       <c r="M90" t="n">
-        <v>7.394</v>
-      </c>
-      <c r="N90"/>
-      <c r="O90"/>
+        <v>12.178</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.1963</v>
+      </c>
+      <c r="O90" t="n">
+        <v>5.1</v>
+      </c>
       <c r="P90" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>519</v>
+      </c>
+      <c r="R90" t="s">
+        <v>120</v>
+      </c>
+      <c r="S90" t="s">
         <v>520</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>521</v>
-      </c>
-      <c r="R90" t="s">
-        <v>50</v>
-      </c>
-      <c r="S90" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>521</v>
+      </c>
+      <c r="B91" t="s">
+        <v>522</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D91" t="s">
         <v>523</v>
       </c>
-      <c r="B91" t="s">
+      <c r="E91" t="s">
         <v>524</v>
-      </c>
-      <c r="C91" s="1" t="n">
-        <v>44581</v>
-      </c>
-      <c r="D91" t="s">
-        <v>35</v>
-      </c>
-      <c r="E91" t="s">
-        <v>36</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>127</v>
+        <v>554</v>
       </c>
       <c r="H91" t="n">
-        <v>796665</v>
+        <v>1666273</v>
       </c>
       <c r="I91" t="n">
-        <v>166.837</v>
-      </c>
-      <c r="J91"/>
-      <c r="K91"/>
+        <v>3228.586</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2909</v>
+      </c>
+      <c r="K91" t="n">
+        <v>5.637</v>
+      </c>
       <c r="L91" t="n">
-        <v>5035</v>
+        <v>3530</v>
       </c>
       <c r="M91" t="n">
-        <v>1.054</v>
+        <v>6.84</v>
       </c>
       <c r="N91"/>
       <c r="O91"/>
@@ -8055,103 +8085,99 @@
         <v>529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44580</v>
+        <v>44585</v>
       </c>
       <c r="D92" t="s">
-        <v>530</v>
+        <v>35</v>
       </c>
       <c r="E92" t="s">
-        <v>531</v>
+        <v>36</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>750</v>
+        <v>129</v>
       </c>
       <c r="H92" t="n">
-        <v>12853742</v>
+        <v>811083</v>
       </c>
       <c r="I92" t="n">
-        <v>98.676</v>
-      </c>
-      <c r="J92" t="n">
-        <v>23153</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.178</v>
-      </c>
+        <v>169.856</v>
+      </c>
+      <c r="J92"/>
+      <c r="K92"/>
       <c r="L92" t="n">
-        <v>39649</v>
+        <v>4450</v>
       </c>
       <c r="M92" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.6482</v>
-      </c>
-      <c r="O92" t="n">
-        <v>1.5</v>
-      </c>
+        <v>0.932</v>
+      </c>
+      <c r="N92"/>
+      <c r="O92"/>
       <c r="P92" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>531</v>
+      </c>
+      <c r="R92" t="s">
+        <v>50</v>
+      </c>
+      <c r="S92" t="s">
         <v>532</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>530</v>
-      </c>
-      <c r="R92" t="s">
-        <v>31</v>
-      </c>
-      <c r="S92" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>533</v>
+      </c>
+      <c r="B93" t="s">
         <v>534</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" s="1" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D93" t="s">
         <v>535</v>
       </c>
-      <c r="C93" s="1" t="n">
-        <v>44512</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>536</v>
-      </c>
-      <c r="E93" t="s">
-        <v>537</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>53</v>
+        <v>753</v>
       </c>
       <c r="H93" t="n">
-        <v>2101912</v>
+        <v>13036631</v>
       </c>
       <c r="I93" t="n">
-        <v>522.341</v>
-      </c>
-      <c r="J93"/>
-      <c r="K93"/>
+        <v>100.08</v>
+      </c>
+      <c r="J93" t="n">
+        <v>7155</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.055</v>
+      </c>
       <c r="L93" t="n">
-        <v>7367</v>
+        <v>37279</v>
       </c>
       <c r="M93" t="n">
-        <v>1.831</v>
+        <v>0.286</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1431</v>
+        <v>0.6665</v>
       </c>
       <c r="O93" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="P93" t="s">
         <v>537</v>
       </c>
       <c r="Q93" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="R93" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S93" t="s">
         <v>538</v>
@@ -8165,253 +8191,241 @@
         <v>540</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44582</v>
+        <v>44585</v>
       </c>
       <c r="D94" t="s">
         <v>541</v>
       </c>
       <c r="E94" t="s">
-        <v>42</v>
+        <v>542</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>319</v>
-      </c>
-      <c r="H94" t="n">
-        <v>6700859</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2012.704</v>
-      </c>
-      <c r="J94"/>
-      <c r="K94"/>
+        <v>453</v>
+      </c>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94" t="n">
+        <v>10976</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2.728</v>
+      </c>
       <c r="L94" t="n">
-        <v>21989</v>
+        <v>12754</v>
       </c>
       <c r="M94" t="n">
-        <v>6.605</v>
+        <v>3.169</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94" t="s">
-        <v>42</v>
+        <v>543</v>
       </c>
       <c r="Q94" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="R94" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="S94" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B95" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D95" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E95" t="s">
-        <v>547</v>
+        <v>42</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>677</v>
+        <v>321</v>
       </c>
       <c r="H95" t="n">
-        <v>10381144</v>
+        <v>6752497</v>
       </c>
       <c r="I95" t="n">
-        <v>277.981</v>
-      </c>
-      <c r="J95" t="n">
-        <v>40211</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1.077</v>
-      </c>
+        <v>2028.214</v>
+      </c>
+      <c r="J95"/>
+      <c r="K95"/>
       <c r="L95" t="n">
-        <v>30536</v>
+        <v>21619</v>
       </c>
       <c r="M95" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0.2438</v>
-      </c>
-      <c r="O95" t="n">
-        <v>4.1</v>
-      </c>
+        <v>6.494</v>
+      </c>
+      <c r="N95"/>
+      <c r="O95"/>
       <c r="P95" t="s">
-        <v>547</v>
+        <v>42</v>
       </c>
       <c r="Q95" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="R95" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="S95" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B96" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>44581</v>
       </c>
       <c r="D96" t="s">
-        <v>35</v>
+        <v>553</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>554</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>568</v>
+        <v>677</v>
       </c>
       <c r="H96" t="n">
-        <v>1195950</v>
+        <v>10381144</v>
       </c>
       <c r="I96" t="n">
-        <v>37.184</v>
-      </c>
-      <c r="J96"/>
-      <c r="K96"/>
+        <v>277.981</v>
+      </c>
+      <c r="J96" t="n">
+        <v>40211</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.077</v>
+      </c>
       <c r="L96" t="n">
-        <v>5592</v>
+        <v>30536</v>
       </c>
       <c r="M96" t="n">
-        <v>0.174</v>
+        <v>0.818</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1245</v>
+        <v>0.2438</v>
       </c>
       <c r="O96" t="n">
-        <v>8</v>
+        <v>4.1</v>
       </c>
       <c r="P96" t="s">
-        <v>36</v>
+        <v>554</v>
       </c>
       <c r="Q96" t="s">
-        <v>37</v>
+        <v>555</v>
       </c>
       <c r="R96" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S96" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B97" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D97" t="s">
-        <v>555</v>
+        <v>35</v>
       </c>
       <c r="E97" t="s">
-        <v>556</v>
+        <v>36</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>490</v>
+        <v>569</v>
       </c>
       <c r="H97" t="n">
-        <v>6244663</v>
+        <v>1206427</v>
       </c>
       <c r="I97" t="n">
-        <v>113.941</v>
+        <v>37.51</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97" t="n">
-        <v>10678</v>
+        <v>3893</v>
       </c>
       <c r="M97" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="O97" t="n">
-        <v>74.2</v>
-      </c>
+        <v>0.121</v>
+      </c>
+      <c r="N97"/>
+      <c r="O97"/>
       <c r="P97" t="s">
-        <v>556</v>
+        <v>36</v>
       </c>
       <c r="Q97" t="s">
-        <v>557</v>
+        <v>37</v>
       </c>
       <c r="R97" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="S97" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B98" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="D98" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E98" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>599</v>
+        <v>490</v>
       </c>
       <c r="H98" t="n">
-        <v>907241</v>
+        <v>6244663</v>
       </c>
       <c r="I98" t="n">
-        <v>350.646</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1737</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.671</v>
-      </c>
+        <v>113.941</v>
+      </c>
+      <c r="J98"/>
+      <c r="K98"/>
       <c r="L98" t="n">
-        <v>1684</v>
+        <v>10678</v>
       </c>
       <c r="M98" t="n">
-        <v>0.651</v>
+        <v>0.195</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1244</v>
+        <v>0.0135</v>
       </c>
       <c r="O98" t="n">
-        <v>8</v>
+        <v>74.2</v>
       </c>
       <c r="P98" t="s">
         <v>563</v>
@@ -8434,7 +8448,7 @@
         <v>567</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44582</v>
+        <v>44580</v>
       </c>
       <c r="D99" t="s">
         <v>568</v>
@@ -8444,448 +8458,458 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>690</v>
+        <v>599</v>
       </c>
       <c r="H99" t="n">
-        <v>5093823</v>
+        <v>907241</v>
       </c>
       <c r="I99" t="n">
-        <v>171.654</v>
+        <v>350.646</v>
       </c>
       <c r="J99" t="n">
-        <v>18618</v>
+        <v>1737</v>
       </c>
       <c r="K99" t="n">
-        <v>0.627</v>
+        <v>0.671</v>
       </c>
       <c r="L99" t="n">
-        <v>16080</v>
+        <v>1684</v>
       </c>
       <c r="M99" t="n">
-        <v>0.542</v>
-      </c>
-      <c r="N99"/>
-      <c r="O99"/>
+        <v>0.651</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.1244</v>
+      </c>
+      <c r="O99" t="n">
+        <v>8</v>
+      </c>
       <c r="P99" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Q99" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="R99" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="S99" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B100" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44580</v>
+        <v>44582</v>
       </c>
       <c r="D100" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E100" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>598</v>
+        <v>690</v>
       </c>
       <c r="H100" t="n">
-        <v>23873619</v>
+        <v>5093823</v>
       </c>
       <c r="I100" t="n">
-        <v>1390.176</v>
+        <v>171.654</v>
       </c>
       <c r="J100" t="n">
-        <v>139231</v>
+        <v>18618</v>
       </c>
       <c r="K100" t="n">
-        <v>8.108</v>
+        <v>0.627</v>
       </c>
       <c r="L100" t="n">
-        <v>114324</v>
+        <v>16080</v>
       </c>
       <c r="M100" t="n">
-        <v>6.657</v>
+        <v>0.542</v>
       </c>
       <c r="N100" t="n">
-        <v>0.3126</v>
+        <v>0.4538</v>
       </c>
       <c r="O100" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="P100" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q100" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="R100" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S100" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B101" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="D101" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E101" t="s">
-        <v>42</v>
+        <v>582</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="H101" t="n">
-        <v>5856306</v>
+        <v>24290193</v>
       </c>
       <c r="I101" t="n">
-        <v>1142.404</v>
-      </c>
-      <c r="J101"/>
-      <c r="K101"/>
+        <v>1414.433</v>
+      </c>
+      <c r="J101" t="n">
+        <v>132418</v>
+      </c>
+      <c r="K101" t="n">
+        <v>7.711</v>
+      </c>
       <c r="L101" t="n">
-        <v>13840</v>
+        <v>130305</v>
       </c>
       <c r="M101" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="N101"/>
-      <c r="O101"/>
+        <v>7.588</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.3202</v>
+      </c>
+      <c r="O101" t="n">
+        <v>3.1</v>
+      </c>
       <c r="P101" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Q101" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="R101" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S101" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B102" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44577</v>
+        <v>44585</v>
       </c>
       <c r="D102" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E102" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>266</v>
+        <v>578</v>
       </c>
       <c r="H102" t="n">
-        <v>3992846</v>
+        <v>5894156</v>
       </c>
       <c r="I102" t="n">
-        <v>18.888</v>
+        <v>1149.788</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
       <c r="L102" t="n">
-        <v>8520</v>
+        <v>13607</v>
       </c>
       <c r="M102" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0.0439</v>
-      </c>
-      <c r="O102" t="n">
-        <v>22.8</v>
-      </c>
+        <v>2.654</v>
+      </c>
+      <c r="N102"/>
+      <c r="O102"/>
       <c r="P102" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Q102" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="R102" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="S102" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B103" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44571</v>
+        <v>44584</v>
       </c>
       <c r="D103" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E103" t="s">
-        <v>42</v>
+        <v>594</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>438</v>
+        <v>267</v>
       </c>
       <c r="H103" t="n">
-        <v>1630947</v>
+        <v>4055877</v>
       </c>
       <c r="I103" t="n">
-        <v>783.107</v>
+        <v>19.186</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
       <c r="L103" t="n">
-        <v>5177</v>
+        <v>9004</v>
       </c>
       <c r="M103" t="n">
-        <v>2.486</v>
+        <v>0.043</v>
       </c>
       <c r="N103" t="n">
-        <v>0.2292</v>
+        <v>0.02</v>
       </c>
       <c r="O103" t="n">
-        <v>4.4</v>
+        <v>50.1</v>
       </c>
       <c r="P103" t="s">
-        <v>42</v>
+        <v>594</v>
       </c>
       <c r="Q103" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R103" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="S103" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B104" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44580</v>
+        <v>44571</v>
       </c>
       <c r="D104" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E104" t="s">
-        <v>597</v>
+        <v>42</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>658</v>
+        <v>438</v>
       </c>
       <c r="H104" t="n">
-        <v>9743708</v>
+        <v>1630947</v>
       </c>
       <c r="I104" t="n">
-        <v>1782.724</v>
-      </c>
-      <c r="J104" t="n">
-        <v>31170</v>
-      </c>
-      <c r="K104" t="n">
-        <v>5.703</v>
-      </c>
+        <v>783.107</v>
+      </c>
+      <c r="J104"/>
+      <c r="K104"/>
       <c r="L104" t="n">
-        <v>30540</v>
+        <v>5177</v>
       </c>
       <c r="M104" t="n">
-        <v>5.588</v>
+        <v>2.486</v>
       </c>
       <c r="N104" t="n">
-        <v>0.3856</v>
+        <v>0.2292</v>
       </c>
       <c r="O104" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="P104" t="s">
-        <v>597</v>
+        <v>42</v>
       </c>
       <c r="Q104" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="R104" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S104" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B105" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44048</v>
+        <v>44583</v>
       </c>
       <c r="D105" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E105" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>58</v>
-      </c>
-      <c r="H105"/>
-      <c r="I105"/>
+        <v>661</v>
+      </c>
+      <c r="H105" t="n">
+        <v>9836884</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1799.772</v>
+      </c>
       <c r="J105" t="n">
-        <v>2682</v>
+        <v>11437</v>
       </c>
       <c r="K105" t="n">
-        <v>0.513</v>
-      </c>
-      <c r="L105"/>
-      <c r="M105"/>
-      <c r="N105"/>
-      <c r="O105"/>
+        <v>2.093</v>
+      </c>
+      <c r="L105" t="n">
+        <v>33361</v>
+      </c>
+      <c r="M105" t="n">
+        <v>6.104</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.4503</v>
+      </c>
+      <c r="O105" t="n">
+        <v>2.2</v>
+      </c>
       <c r="P105" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="Q105" t="s">
         <v>603</v>
       </c>
       <c r="R105" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="S105" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B106" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44582</v>
+        <v>44048</v>
       </c>
       <c r="D106" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E106" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>622</v>
-      </c>
-      <c r="H106" t="n">
-        <v>24415716</v>
-      </c>
-      <c r="I106" t="n">
-        <v>108.418</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H106"/>
+      <c r="I106"/>
       <c r="J106" t="n">
-        <v>59343</v>
+        <v>2682</v>
       </c>
       <c r="K106" t="n">
-        <v>0.264</v>
-      </c>
-      <c r="L106" t="n">
-        <v>54681</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0.243</v>
-      </c>
+        <v>0.513</v>
+      </c>
+      <c r="L106"/>
+      <c r="M106"/>
       <c r="N106"/>
       <c r="O106"/>
       <c r="P106" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Q106" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="R106" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="S106" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B107" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D107" t="s">
-        <v>612</v>
-      </c>
-      <c r="E107"/>
+        <v>614</v>
+      </c>
+      <c r="E107" t="s">
+        <v>615</v>
+      </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>500</v>
-      </c>
-      <c r="H107"/>
-      <c r="I107"/>
+        <v>625</v>
+      </c>
+      <c r="H107" t="n">
+        <v>24590353</v>
+      </c>
+      <c r="I107" t="n">
+        <v>109.193</v>
+      </c>
       <c r="J107" t="n">
-        <v>6577</v>
+        <v>57401</v>
       </c>
       <c r="K107" t="n">
-        <v>1.259</v>
+        <v>0.255</v>
       </c>
       <c r="L107" t="n">
-        <v>5686</v>
+        <v>57692</v>
       </c>
       <c r="M107" t="n">
-        <v>1.089</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0.1284</v>
-      </c>
-      <c r="O107" t="n">
-        <v>7.8</v>
-      </c>
+        <v>0.256</v>
+      </c>
+      <c r="N107"/>
+      <c r="O107"/>
       <c r="P107" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="Q107" t="s">
         <v>614</v>
@@ -8894,398 +8918,396 @@
         <v>50</v>
       </c>
       <c r="S107" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B108" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>44581</v>
       </c>
       <c r="D108" t="s">
-        <v>618</v>
-      </c>
-      <c r="E108" t="s">
         <v>619</v>
       </c>
+      <c r="E108"/>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>671</v>
-      </c>
-      <c r="H108" t="n">
-        <v>4937497</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1126.875</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="H108"/>
+      <c r="I108"/>
       <c r="J108" t="n">
-        <v>36057</v>
+        <v>6577</v>
       </c>
       <c r="K108" t="n">
-        <v>8.229</v>
+        <v>1.259</v>
       </c>
       <c r="L108" t="n">
-        <v>27021</v>
+        <v>5686</v>
       </c>
       <c r="M108" t="n">
-        <v>6.167</v>
+        <v>1.089</v>
       </c>
       <c r="N108" t="n">
-        <v>0.3959</v>
+        <v>0.1284</v>
       </c>
       <c r="O108" t="n">
-        <v>2.5</v>
+        <v>7.8</v>
       </c>
       <c r="P108" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Q108" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="R108" t="s">
         <v>50</v>
       </c>
       <c r="S108" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B109" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44304</v>
+        <v>44581</v>
       </c>
       <c r="D109" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E109" t="s">
-        <v>358</v>
+        <v>626</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>7</v>
+        <v>671</v>
       </c>
       <c r="H109" t="n">
-        <v>82516</v>
+        <v>4937497</v>
       </c>
       <c r="I109" t="n">
-        <v>9.049</v>
-      </c>
-      <c r="J109"/>
-      <c r="K109"/>
+        <v>1126.875</v>
+      </c>
+      <c r="J109" t="n">
+        <v>36057</v>
+      </c>
+      <c r="K109" t="n">
+        <v>8.229</v>
+      </c>
       <c r="L109" t="n">
-        <v>943</v>
+        <v>27021</v>
       </c>
       <c r="M109" t="n">
-        <v>0.103</v>
+        <v>6.167</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1963</v>
+        <v>0.3959</v>
       </c>
       <c r="O109" t="n">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="P109" t="s">
-        <v>358</v>
+        <v>626</v>
       </c>
       <c r="Q109" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="R109" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="S109" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B110" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44581</v>
+        <v>44304</v>
       </c>
       <c r="D110" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E110" t="s">
-        <v>630</v>
+        <v>363</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>682</v>
+        <v>7</v>
       </c>
       <c r="H110" t="n">
-        <v>2226517</v>
+        <v>82516</v>
       </c>
       <c r="I110" t="n">
-        <v>308.397</v>
-      </c>
-      <c r="J110" t="n">
-        <v>13729</v>
-      </c>
-      <c r="K110" t="n">
-        <v>1.902</v>
-      </c>
+        <v>9.049</v>
+      </c>
+      <c r="J110"/>
+      <c r="K110"/>
       <c r="L110" t="n">
-        <v>12433</v>
+        <v>943</v>
       </c>
       <c r="M110" t="n">
-        <v>1.722</v>
+        <v>0.103</v>
       </c>
       <c r="N110" t="n">
-        <v>0.4696</v>
+        <v>0.1963</v>
       </c>
       <c r="O110" t="n">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="P110" t="s">
-        <v>630</v>
+        <v>363</v>
       </c>
       <c r="Q110" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="R110" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S110" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B111" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44557</v>
+        <v>44581</v>
       </c>
       <c r="D111" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E111" t="s">
-        <v>198</v>
+        <v>637</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="H111" t="n">
-        <v>6808992</v>
+        <v>2226517</v>
       </c>
       <c r="I111" t="n">
-        <v>204.11</v>
+        <v>308.397</v>
       </c>
       <c r="J111" t="n">
-        <v>8770</v>
+        <v>13729</v>
       </c>
       <c r="K111" t="n">
-        <v>0.263</v>
+        <v>1.902</v>
       </c>
       <c r="L111" t="n">
-        <v>10948</v>
+        <v>12433</v>
       </c>
       <c r="M111" t="n">
-        <v>0.328</v>
+        <v>1.722</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09</v>
+        <v>0.4696</v>
       </c>
       <c r="O111" t="n">
-        <v>11.1</v>
+        <v>2.1</v>
       </c>
       <c r="P111" t="s">
-        <v>198</v>
+        <v>637</v>
       </c>
       <c r="Q111" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="R111" t="s">
         <v>50</v>
       </c>
       <c r="S111" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B112" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44570</v>
+        <v>44557</v>
       </c>
       <c r="D112" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E112" t="s">
-        <v>641</v>
+        <v>198</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>647</v>
+        <v>705</v>
       </c>
       <c r="H112" t="n">
-        <v>24297953</v>
+        <v>6808992</v>
       </c>
       <c r="I112" t="n">
-        <v>218.808</v>
+        <v>204.11</v>
       </c>
       <c r="J112" t="n">
-        <v>55394</v>
+        <v>8770</v>
       </c>
       <c r="K112" t="n">
-        <v>0.499</v>
+        <v>0.263</v>
       </c>
       <c r="L112" t="n">
-        <v>67818</v>
+        <v>10948</v>
       </c>
       <c r="M112" t="n">
-        <v>0.611</v>
+        <v>0.328</v>
       </c>
       <c r="N112" t="n">
-        <v>0.2391</v>
+        <v>0.09</v>
       </c>
       <c r="O112" t="n">
-        <v>4.2</v>
+        <v>11.1</v>
       </c>
       <c r="P112" t="s">
-        <v>358</v>
+        <v>198</v>
       </c>
       <c r="Q112" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="R112" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S112" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B113" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44582</v>
+        <v>44570</v>
       </c>
       <c r="D113" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E113" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="H113" t="n">
-        <v>28473025</v>
+        <v>24297953</v>
       </c>
       <c r="I113" t="n">
-        <v>753.314</v>
+        <v>218.808</v>
       </c>
       <c r="J113" t="n">
-        <v>131210</v>
+        <v>55394</v>
       </c>
       <c r="K113" t="n">
-        <v>3.471</v>
+        <v>0.499</v>
       </c>
       <c r="L113" t="n">
-        <v>98950</v>
+        <v>67818</v>
       </c>
       <c r="M113" t="n">
-        <v>2.618</v>
-      </c>
-      <c r="N113"/>
-      <c r="O113"/>
+        <v>0.611</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.2391</v>
+      </c>
+      <c r="O113" t="n">
+        <v>4.2</v>
+      </c>
       <c r="P113" t="s">
-        <v>647</v>
+        <v>363</v>
       </c>
       <c r="Q113" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="R113" t="s">
         <v>31</v>
       </c>
       <c r="S113" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="B114" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="D114" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="E114" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>659</v>
+        <v>628</v>
       </c>
       <c r="H114" t="n">
-        <v>29075044</v>
+        <v>28473025</v>
       </c>
       <c r="I114" t="n">
-        <v>769.242</v>
+        <v>753.314</v>
       </c>
       <c r="J114" t="n">
-        <v>135321</v>
+        <v>131210</v>
       </c>
       <c r="K114" t="n">
-        <v>3.58</v>
+        <v>3.471</v>
       </c>
       <c r="L114" t="n">
-        <v>102277</v>
+        <v>98950</v>
       </c>
       <c r="M114" t="n">
-        <v>2.706</v>
+        <v>2.618</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1971</v>
+        <v>0.2335</v>
       </c>
       <c r="O114" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="P114" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="Q114" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="R114" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="S114" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
     </row>
     <row r="115">
@@ -9293,155 +9315,163 @@
         <v>651</v>
       </c>
       <c r="B115" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="D115" t="s">
         <v>653</v>
       </c>
       <c r="E115" t="s">
-        <v>42</v>
+        <v>654</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>690</v>
+        <v>659</v>
       </c>
       <c r="H115" t="n">
-        <v>31306640</v>
+        <v>29075044</v>
       </c>
       <c r="I115" t="n">
-        <v>3078.961</v>
+        <v>769.242</v>
       </c>
       <c r="J115" t="n">
-        <v>311189</v>
+        <v>135321</v>
       </c>
       <c r="K115" t="n">
-        <v>30.605</v>
+        <v>3.58</v>
       </c>
       <c r="L115" t="n">
-        <v>262995</v>
+        <v>102277</v>
       </c>
       <c r="M115" t="n">
-        <v>25.865</v>
+        <v>2.706</v>
       </c>
       <c r="N115" t="n">
-        <v>0.146</v>
+        <v>0.1971</v>
       </c>
       <c r="O115" t="n">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="P115" t="s">
         <v>654</v>
       </c>
       <c r="Q115" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="R115" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="S115" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B116" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44496</v>
+        <v>44584</v>
       </c>
       <c r="D116" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E116" t="s">
-        <v>659</v>
+        <v>42</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>588</v>
+        <v>694</v>
       </c>
       <c r="H116" t="n">
-        <v>2809592</v>
+        <v>32450789</v>
       </c>
       <c r="I116" t="n">
-        <v>958.734</v>
+        <v>3191.487</v>
       </c>
       <c r="J116" t="n">
-        <v>4616</v>
+        <v>156704</v>
       </c>
       <c r="K116" t="n">
-        <v>1.575</v>
+        <v>15.412</v>
       </c>
       <c r="L116" t="n">
-        <v>5304</v>
+        <v>290814</v>
       </c>
       <c r="M116" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="N116"/>
-      <c r="O116"/>
+        <v>28.601</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.1655</v>
+      </c>
+      <c r="O116" t="n">
+        <v>6</v>
+      </c>
       <c r="P116" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q116" t="s">
         <v>660</v>
       </c>
-      <c r="Q116" t="s">
-        <v>658</v>
-      </c>
       <c r="R116" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S116" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B117" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44582</v>
+        <v>44496</v>
       </c>
       <c r="D117" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E117" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>403</v>
+        <v>588</v>
       </c>
       <c r="H117" t="n">
-        <v>18369289</v>
+        <v>2809592</v>
       </c>
       <c r="I117" t="n">
-        <v>960.347</v>
-      </c>
-      <c r="J117"/>
-      <c r="K117"/>
+        <v>958.734</v>
+      </c>
+      <c r="J117" t="n">
+        <v>4616</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1.575</v>
+      </c>
       <c r="L117" t="n">
-        <v>80506</v>
+        <v>5304</v>
       </c>
       <c r="M117" t="n">
-        <v>4.209</v>
+        <v>1.81</v>
       </c>
       <c r="N117"/>
       <c r="O117"/>
       <c r="P117" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Q117" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="R117" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S117" t="s">
         <v>668</v>
@@ -9455,7 +9485,7 @@
         <v>670</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D118" t="s">
         <v>671</v>
@@ -9465,586 +9495,572 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>530</v>
+        <v>404</v>
       </c>
       <c r="H118" t="n">
-        <v>248781136</v>
+        <v>18527882</v>
       </c>
       <c r="I118" t="n">
-        <v>1705.008</v>
+        <v>968.638</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118" t="n">
-        <v>480891</v>
+        <v>79044</v>
       </c>
       <c r="M118" t="n">
-        <v>3.296</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0.0633</v>
-      </c>
-      <c r="O118" t="n">
-        <v>15.8</v>
-      </c>
+        <v>4.132</v>
+      </c>
+      <c r="N118"/>
+      <c r="O118"/>
       <c r="P118" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Q118" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="R118" t="s">
         <v>50</v>
       </c>
       <c r="S118" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B119" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44582</v>
+        <v>44584</v>
       </c>
       <c r="D119" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E119" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
         <v>532</v>
       </c>
       <c r="H119" t="n">
-        <v>4367188</v>
+        <v>250691974</v>
       </c>
       <c r="I119" t="n">
-        <v>328.941</v>
-      </c>
-      <c r="J119" t="n">
-        <v>14309</v>
-      </c>
-      <c r="K119" t="n">
-        <v>1.078</v>
-      </c>
+        <v>1718.104</v>
+      </c>
+      <c r="J119"/>
+      <c r="K119"/>
       <c r="L119" t="n">
-        <v>15432</v>
+        <v>543107</v>
       </c>
       <c r="M119" t="n">
-        <v>1.162</v>
-      </c>
-      <c r="N119"/>
-      <c r="O119"/>
+        <v>3.722</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.0795</v>
+      </c>
+      <c r="O119" t="n">
+        <v>12.6</v>
+      </c>
       <c r="P119" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Q119" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="R119" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="S119" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B120" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44582</v>
+        <v>44585</v>
       </c>
       <c r="D120" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E120" t="s">
-        <v>42</v>
+        <v>685</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>110</v>
+        <v>535</v>
       </c>
       <c r="H120" t="n">
-        <v>64173</v>
+        <v>4407343</v>
       </c>
       <c r="I120" t="n">
-        <v>1198.465</v>
-      </c>
-      <c r="J120"/>
-      <c r="K120"/>
+        <v>331.965</v>
+      </c>
+      <c r="J120" t="n">
+        <v>9309</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.701</v>
+      </c>
       <c r="L120" t="n">
-        <v>161</v>
+        <v>13642</v>
       </c>
       <c r="M120" t="n">
-        <v>3.007</v>
+        <v>1.028</v>
       </c>
       <c r="N120"/>
       <c r="O120"/>
       <c r="P120" t="s">
-        <v>42</v>
+        <v>685</v>
       </c>
       <c r="Q120" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="R120" t="s">
-        <v>288</v>
+        <v>120</v>
       </c>
       <c r="S120" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B121" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44558</v>
+        <v>44585</v>
       </c>
       <c r="D121" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E121" t="s">
-        <v>689</v>
+        <v>42</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="H121" t="n">
-        <v>93855</v>
+        <v>64597</v>
       </c>
       <c r="I121" t="n">
-        <v>843.496</v>
+        <v>1206.383</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121" t="n">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="M121" t="n">
-        <v>0.602</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.1258</v>
-      </c>
-      <c r="O121" t="n">
-        <v>7.9</v>
-      </c>
+        <v>2.465</v>
+      </c>
+      <c r="N121"/>
+      <c r="O121"/>
       <c r="P121" t="s">
-        <v>689</v>
+        <v>42</v>
       </c>
       <c r="Q121" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="R121" t="s">
-        <v>24</v>
+        <v>287</v>
       </c>
       <c r="S121" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B122" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44581</v>
+        <v>44558</v>
       </c>
       <c r="D122" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E122" t="s">
-        <v>42</v>
+        <v>696</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>690</v>
+        <v>26</v>
       </c>
       <c r="H122" t="n">
-        <v>36352055</v>
+        <v>93855</v>
       </c>
       <c r="I122" t="n">
-        <v>1028.618</v>
-      </c>
-      <c r="J122" t="n">
-        <v>204057</v>
-      </c>
-      <c r="K122" t="n">
-        <v>5.774</v>
-      </c>
+        <v>843.496</v>
+      </c>
+      <c r="J122"/>
+      <c r="K122"/>
       <c r="L122" t="n">
-        <v>185901</v>
+        <v>67</v>
       </c>
       <c r="M122" t="n">
-        <v>5.26</v>
+        <v>0.602</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0302</v>
+        <v>0.1258</v>
       </c>
       <c r="O122" t="n">
-        <v>33.1</v>
+        <v>7.9</v>
       </c>
       <c r="P122" t="s">
-        <v>42</v>
+        <v>696</v>
       </c>
       <c r="Q122" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="R122" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S122" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B123" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44582</v>
+        <v>44584</v>
       </c>
       <c r="D123" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="E123" t="s">
-        <v>699</v>
+        <v>42</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="H123" t="n">
-        <v>978512</v>
+        <v>36791838</v>
       </c>
       <c r="I123" t="n">
-        <v>56.902</v>
+        <v>1041.062</v>
       </c>
       <c r="J123" t="n">
-        <v>1787</v>
+        <v>165134</v>
       </c>
       <c r="K123" t="n">
-        <v>0.104</v>
+        <v>4.673</v>
       </c>
       <c r="L123" t="n">
-        <v>1930</v>
+        <v>180189</v>
       </c>
       <c r="M123" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="N123"/>
-      <c r="O123"/>
+        <v>5.099</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.0293</v>
+      </c>
+      <c r="O123" t="n">
+        <v>34.2</v>
+      </c>
       <c r="P123" t="s">
-        <v>699</v>
+        <v>42</v>
       </c>
       <c r="Q123" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="R123" t="s">
         <v>50</v>
       </c>
       <c r="S123" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B124" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D124" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E124" t="s">
-        <v>42</v>
-      </c>
-      <c r="F124" t="s">
-        <v>704</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="F124"/>
       <c r="G124" t="n">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H124" t="n">
-        <v>7776967</v>
+        <v>983880</v>
       </c>
       <c r="I124" t="n">
-        <v>1131.764</v>
+        <v>57.215</v>
       </c>
       <c r="J124" t="n">
-        <v>36830</v>
+        <v>1442</v>
       </c>
       <c r="K124" t="n">
-        <v>5.36</v>
+        <v>0.084</v>
       </c>
       <c r="L124" t="n">
-        <v>32668</v>
+        <v>1837</v>
       </c>
       <c r="M124" t="n">
-        <v>4.754</v>
-      </c>
-      <c r="N124" t="n">
-        <v>0.445</v>
-      </c>
-      <c r="O124" t="n">
-        <v>2.2</v>
-      </c>
+        <v>0.107</v>
+      </c>
+      <c r="N124"/>
+      <c r="O124"/>
       <c r="P124" t="s">
-        <v>42</v>
+        <v>706</v>
       </c>
       <c r="Q124" t="s">
         <v>705</v>
       </c>
       <c r="R124" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S124" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B125" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44578</v>
+        <v>44585</v>
       </c>
       <c r="D125" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E125" t="s">
         <v>42</v>
       </c>
-      <c r="F125"/>
+      <c r="F125" t="s">
+        <v>711</v>
+      </c>
       <c r="G125" t="n">
-        <v>85</v>
+        <v>698</v>
       </c>
       <c r="H125" t="n">
-        <v>22536079</v>
+        <v>7897262</v>
       </c>
       <c r="I125" t="n">
-        <v>4132.331</v>
-      </c>
-      <c r="J125"/>
-      <c r="K125"/>
+        <v>1149.27</v>
+      </c>
+      <c r="J125" t="n">
+        <v>30998</v>
+      </c>
+      <c r="K125" t="n">
+        <v>4.511</v>
+      </c>
       <c r="L125" t="n">
-        <v>18288</v>
+        <v>33328</v>
       </c>
       <c r="M125" t="n">
-        <v>3.353</v>
-      </c>
-      <c r="N125" t="n">
-        <v>0.0517</v>
-      </c>
-      <c r="O125" t="n">
-        <v>19.3</v>
-      </c>
+        <v>4.85</v>
+      </c>
+      <c r="N125"/>
+      <c r="O125"/>
       <c r="P125" t="s">
         <v>42</v>
       </c>
       <c r="Q125" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="R125" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="S125" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B126" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="D126" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E126" t="s">
         <v>42</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>685</v>
+        <v>85</v>
       </c>
       <c r="H126" t="n">
-        <v>47169112</v>
+        <v>22536079</v>
       </c>
       <c r="I126" t="n">
-        <v>8637.883</v>
-      </c>
-      <c r="J126" t="n">
-        <v>41491</v>
-      </c>
-      <c r="K126" t="n">
-        <v>7.598</v>
-      </c>
+        <v>4132.331</v>
+      </c>
+      <c r="J126"/>
+      <c r="K126"/>
       <c r="L126" t="n">
-        <v>41204</v>
+        <v>18288</v>
       </c>
       <c r="M126" t="n">
-        <v>7.546</v>
+        <v>3.353</v>
       </c>
       <c r="N126" t="n">
-        <v>0.102</v>
+        <v>0.0517</v>
       </c>
       <c r="O126" t="n">
-        <v>9.8</v>
+        <v>19.3</v>
       </c>
       <c r="P126" t="s">
         <v>42</v>
       </c>
       <c r="Q126" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="R126" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="S126" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B127" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44581</v>
+        <v>44584</v>
       </c>
       <c r="D127" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="E127" t="s">
-        <v>719</v>
+        <v>42</v>
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="H127" t="n">
-        <v>2298820</v>
+        <v>47331497</v>
       </c>
       <c r="I127" t="n">
-        <v>1105.881</v>
+        <v>8685.842</v>
       </c>
       <c r="J127" t="n">
-        <v>14714</v>
+        <v>25114</v>
       </c>
       <c r="K127" t="n">
-        <v>7.078</v>
+        <v>4.609</v>
       </c>
       <c r="L127" t="n">
-        <v>13976</v>
+        <v>46361</v>
       </c>
       <c r="M127" t="n">
-        <v>6.723</v>
+        <v>8.508</v>
       </c>
       <c r="N127" t="n">
-        <v>0.61</v>
+        <v>0.148</v>
       </c>
       <c r="O127" t="n">
-        <v>1.6</v>
+        <v>6.8</v>
       </c>
       <c r="P127" t="s">
-        <v>719</v>
+        <v>42</v>
       </c>
       <c r="Q127" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="R127" t="s">
         <v>50</v>
       </c>
       <c r="S127" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B128" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44581</v>
+        <v>44584</v>
       </c>
       <c r="D128" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E128" t="s">
-        <v>724</v>
-      </c>
-      <c r="F128" t="s">
-        <v>725</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="F128"/>
       <c r="G128" t="n">
-        <v>680</v>
+        <v>704</v>
       </c>
       <c r="H128" t="n">
-        <v>21933255</v>
+        <v>2343421</v>
       </c>
       <c r="I128" t="n">
-        <v>365.299</v>
+        <v>1127.337</v>
       </c>
       <c r="J128" t="n">
-        <v>37484</v>
+        <v>11104</v>
       </c>
       <c r="K128" t="n">
-        <v>0.624</v>
+        <v>5.342</v>
       </c>
       <c r="L128" t="n">
-        <v>33896</v>
+        <v>15695</v>
       </c>
       <c r="M128" t="n">
-        <v>0.565</v>
+        <v>7.55</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1098</v>
+        <v>0.67</v>
       </c>
       <c r="O128" t="n">
-        <v>9.1</v>
+        <v>1.5</v>
       </c>
       <c r="P128" t="s">
         <v>726</v>
       </c>
       <c r="Q128" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="R128" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S128" t="s">
         <v>727</v>
@@ -10058,7 +10074,7 @@
         <v>729</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D129" t="s">
         <v>730</v>
@@ -10070,257 +10086,251 @@
         <v>732</v>
       </c>
       <c r="G129" t="n">
-        <v>713</v>
+        <v>686</v>
       </c>
       <c r="H129" t="n">
-        <v>48980751</v>
+        <v>22041433</v>
       </c>
       <c r="I129" t="n">
-        <v>954.694</v>
+        <v>367.1</v>
       </c>
       <c r="J129" t="n">
-        <v>193664</v>
+        <v>17187</v>
       </c>
       <c r="K129" t="n">
-        <v>3.775</v>
+        <v>0.286</v>
       </c>
       <c r="L129" t="n">
-        <v>175728</v>
+        <v>32281</v>
       </c>
       <c r="M129" t="n">
-        <v>3.425</v>
-      </c>
-      <c r="N129" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="O129" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0.538</v>
+      </c>
+      <c r="N129"/>
+      <c r="O129"/>
       <c r="P129" t="s">
         <v>733</v>
       </c>
       <c r="Q129" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="R129" t="s">
         <v>31</v>
       </c>
       <c r="S129" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>735</v>
+      </c>
+      <c r="B130" t="s">
         <v>736</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" s="1" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D130" t="s">
         <v>737</v>
       </c>
-      <c r="C130" s="1" t="n">
-        <v>44581</v>
-      </c>
-      <c r="D130" t="s">
-        <v>35</v>
-      </c>
       <c r="E130" t="s">
-        <v>36</v>
-      </c>
-      <c r="F130"/>
+        <v>738</v>
+      </c>
+      <c r="F130" t="s">
+        <v>739</v>
+      </c>
       <c r="G130" t="n">
-        <v>143</v>
+        <v>716</v>
       </c>
       <c r="H130" t="n">
-        <v>310727</v>
+        <v>49636120</v>
       </c>
       <c r="I130" t="n">
-        <v>27.301</v>
-      </c>
-      <c r="J130"/>
-      <c r="K130"/>
+        <v>967.468</v>
+      </c>
+      <c r="J130" t="n">
+        <v>177246</v>
+      </c>
+      <c r="K130" t="n">
+        <v>3.455</v>
+      </c>
       <c r="L130" t="n">
-        <v>484</v>
+        <v>192701</v>
       </c>
       <c r="M130" t="n">
-        <v>0.043</v>
+        <v>3.756</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0649</v>
+        <v>0.0336</v>
       </c>
       <c r="O130" t="n">
-        <v>15.4</v>
+        <v>29.7</v>
       </c>
       <c r="P130" t="s">
-        <v>36</v>
+        <v>740</v>
       </c>
       <c r="Q130" t="s">
-        <v>37</v>
+        <v>741</v>
       </c>
       <c r="R130" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S130" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B131" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44579</v>
+        <v>44585</v>
       </c>
       <c r="D131" t="s">
-        <v>741</v>
+        <v>35</v>
       </c>
       <c r="E131" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>675</v>
+        <v>145</v>
       </c>
       <c r="H131" t="n">
-        <v>78931045</v>
+        <v>317051</v>
       </c>
       <c r="I131" t="n">
-        <v>1688.538</v>
-      </c>
-      <c r="J131" t="n">
-        <v>304634</v>
-      </c>
-      <c r="K131" t="n">
-        <v>6.517</v>
-      </c>
+        <v>27.857</v>
+      </c>
+      <c r="J131"/>
+      <c r="K131"/>
       <c r="L131" t="n">
-        <v>315914</v>
+        <v>1101</v>
       </c>
       <c r="M131" t="n">
-        <v>6.758</v>
-      </c>
-      <c r="N131" t="n">
-        <v>0.371</v>
-      </c>
-      <c r="O131" t="n">
-        <v>2.7</v>
-      </c>
+        <v>0.097</v>
+      </c>
+      <c r="N131"/>
+      <c r="O131"/>
       <c r="P131" t="s">
-        <v>742</v>
+        <v>36</v>
       </c>
       <c r="Q131" t="s">
-        <v>741</v>
+        <v>37</v>
       </c>
       <c r="R131" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S131" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B132" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="D132" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E132" t="s">
-        <v>747</v>
+        <v>42</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="H132" t="n">
-        <v>6025747</v>
+        <v>80038801</v>
       </c>
       <c r="I132" t="n">
-        <v>280.302</v>
+        <v>1712.235</v>
       </c>
       <c r="J132" t="n">
-        <v>8242</v>
+        <v>256902</v>
       </c>
       <c r="K132" t="n">
-        <v>0.383</v>
+        <v>5.496</v>
       </c>
       <c r="L132" t="n">
-        <v>7284</v>
+        <v>298728</v>
       </c>
       <c r="M132" t="n">
-        <v>0.339</v>
+        <v>6.391</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0989</v>
+        <v>0.375</v>
       </c>
       <c r="O132" t="n">
-        <v>10.1</v>
+        <v>2.7</v>
       </c>
       <c r="P132" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="Q132" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="R132" t="s">
         <v>50</v>
       </c>
       <c r="S132" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B133" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44556</v>
+        <v>44585</v>
       </c>
       <c r="D133" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E133" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>203</v>
-      </c>
-      <c r="H133"/>
-      <c r="I133"/>
+        <v>701</v>
+      </c>
+      <c r="H133" t="n">
+        <v>6057121</v>
+      </c>
+      <c r="I133" t="n">
+        <v>281.762</v>
+      </c>
       <c r="J133" t="n">
-        <v>49555</v>
+        <v>8383</v>
       </c>
       <c r="K133" t="n">
-        <v>4.877</v>
+        <v>0.39</v>
       </c>
       <c r="L133" t="n">
-        <v>49555</v>
+        <v>7745</v>
       </c>
       <c r="M133" t="n">
-        <v>4.877</v>
-      </c>
-      <c r="N133" t="n">
-        <v>0.0647</v>
-      </c>
-      <c r="O133" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0.36</v>
+      </c>
+      <c r="N133"/>
+      <c r="O133"/>
       <c r="P133" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q133" t="s">
         <v>753</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>754</v>
       </c>
       <c r="R133" t="s">
         <v>50</v>
@@ -10337,160 +10347,156 @@
         <v>757</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44581</v>
+        <v>44556</v>
       </c>
       <c r="D134" t="s">
-        <v>481</v>
+        <v>758</v>
       </c>
       <c r="E134" t="s">
-        <v>482</v>
+        <v>759</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>608</v>
-      </c>
-      <c r="H134" t="n">
-        <v>15992000</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1834.893</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="H134"/>
+      <c r="I134"/>
       <c r="J134" t="n">
-        <v>80619</v>
+        <v>49555</v>
       </c>
       <c r="K134" t="n">
-        <v>9.25</v>
+        <v>4.877</v>
       </c>
       <c r="L134" t="n">
-        <v>84271</v>
+        <v>49555</v>
       </c>
       <c r="M134" t="n">
-        <v>9.669</v>
+        <v>4.877</v>
       </c>
       <c r="N134" t="n">
-        <v>0.396</v>
+        <v>0.0647</v>
       </c>
       <c r="O134" t="n">
-        <v>2.5</v>
+        <v>15.5</v>
       </c>
       <c r="P134" t="s">
-        <v>482</v>
+        <v>760</v>
       </c>
       <c r="Q134" t="s">
-        <v>483</v>
+        <v>761</v>
       </c>
       <c r="R134" t="s">
         <v>50</v>
       </c>
       <c r="S134" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B135" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="D135" t="s">
-        <v>761</v>
+        <v>486</v>
       </c>
       <c r="E135" t="s">
-        <v>762</v>
+        <v>487</v>
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>736</v>
+        <v>610</v>
       </c>
       <c r="H135" t="n">
-        <v>5418957</v>
+        <v>16267467</v>
       </c>
       <c r="I135" t="n">
-        <v>227.162</v>
+        <v>1866.5</v>
       </c>
       <c r="J135" t="n">
-        <v>14765</v>
+        <v>74013</v>
       </c>
       <c r="K135" t="n">
-        <v>0.619</v>
+        <v>8.492</v>
       </c>
       <c r="L135" t="n">
-        <v>24613</v>
+        <v>92404</v>
       </c>
       <c r="M135" t="n">
-        <v>1.032</v>
-      </c>
-      <c r="N135"/>
-      <c r="O135"/>
+        <v>10.602</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="O135" t="n">
+        <v>2.5</v>
+      </c>
       <c r="P135" t="s">
-        <v>762</v>
+        <v>487</v>
       </c>
       <c r="Q135" t="s">
-        <v>761</v>
+        <v>488</v>
       </c>
       <c r="R135" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S135" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B136" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44576</v>
+        <v>44585</v>
       </c>
       <c r="D136" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E136" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="H136" t="n">
-        <v>18593564</v>
+        <v>5501288</v>
       </c>
       <c r="I136" t="n">
-        <v>265.809</v>
+        <v>230.614</v>
       </c>
       <c r="J136" t="n">
-        <v>47053</v>
+        <v>21861</v>
       </c>
       <c r="K136" t="n">
-        <v>0.673</v>
+        <v>0.916</v>
       </c>
       <c r="L136" t="n">
-        <v>63144</v>
+        <v>25946</v>
       </c>
       <c r="M136" t="n">
-        <v>0.903</v>
-      </c>
-      <c r="N136" t="n">
-        <v>0.1076</v>
-      </c>
-      <c r="O136" t="n">
-        <v>9.3</v>
-      </c>
+        <v>1.088</v>
+      </c>
+      <c r="N136"/>
+      <c r="O136"/>
       <c r="P136" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q136" t="s">
         <v>768</v>
       </c>
-      <c r="Q136" t="s">
-        <v>769</v>
-      </c>
       <c r="R136" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S136" t="s">
         <v>770</v>
@@ -10504,103 +10510,103 @@
         <v>772</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44489</v>
+        <v>44576</v>
       </c>
       <c r="D137" t="s">
         <v>773</v>
       </c>
       <c r="E137" t="s">
-        <v>42</v>
+        <v>774</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>24</v>
+        <v>742</v>
       </c>
       <c r="H137" t="n">
-        <v>211166</v>
+        <v>18593564</v>
       </c>
       <c r="I137" t="n">
-        <v>157.132</v>
-      </c>
-      <c r="J137"/>
-      <c r="K137"/>
+        <v>265.809</v>
+      </c>
+      <c r="J137" t="n">
+        <v>47053</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.673</v>
+      </c>
       <c r="L137" t="n">
-        <v>227</v>
+        <v>63144</v>
       </c>
       <c r="M137" t="n">
-        <v>0.169</v>
+        <v>0.903</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0352</v>
+        <v>0.1076</v>
       </c>
       <c r="O137" t="n">
-        <v>28.4</v>
+        <v>9.3</v>
       </c>
       <c r="P137" t="s">
-        <v>42</v>
+        <v>775</v>
       </c>
       <c r="Q137" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="R137" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="S137" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B138" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44581</v>
-      </c>
-      <c r="D138"/>
+        <v>44489</v>
+      </c>
+      <c r="D138" t="s">
+        <v>780</v>
+      </c>
       <c r="E138" t="s">
-        <v>777</v>
-      </c>
-      <c r="F138" t="s">
-        <v>778</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F138"/>
       <c r="G138" t="n">
-        <v>682</v>
+        <v>24</v>
       </c>
       <c r="H138" t="n">
-        <v>651730</v>
+        <v>211166</v>
       </c>
       <c r="I138" t="n">
-        <v>76.871</v>
-      </c>
-      <c r="J138" t="n">
-        <v>1333</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.157</v>
-      </c>
+        <v>157.132</v>
+      </c>
+      <c r="J138"/>
+      <c r="K138"/>
       <c r="L138" t="n">
-        <v>1561</v>
+        <v>227</v>
       </c>
       <c r="M138" t="n">
-        <v>0.184</v>
+        <v>0.169</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0687</v>
+        <v>0.0352</v>
       </c>
       <c r="O138" t="n">
-        <v>14.5</v>
+        <v>28.4</v>
       </c>
       <c r="P138" t="s">
-        <v>777</v>
+        <v>42</v>
       </c>
       <c r="Q138" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="R138" t="s">
-        <v>780</v>
+        <v>24</v>
       </c>
       <c r="S138" t="s">
         <v>781</v>
@@ -10614,97 +10620,101 @@
         <v>783</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44475</v>
-      </c>
-      <c r="D139" t="s">
+        <v>44581</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139" t="s">
         <v>784</v>
       </c>
-      <c r="E139" t="s">
-        <v>42</v>
-      </c>
-      <c r="F139"/>
+      <c r="F139" t="s">
+        <v>785</v>
+      </c>
       <c r="G139" t="n">
-        <v>504</v>
+        <v>682</v>
       </c>
       <c r="H139" t="n">
-        <v>357432</v>
+        <v>651730</v>
       </c>
       <c r="I139" t="n">
-        <v>254.695</v>
+        <v>76.871</v>
       </c>
       <c r="J139" t="n">
-        <v>954</v>
+        <v>1333</v>
       </c>
       <c r="K139" t="n">
-        <v>0.68</v>
+        <v>0.157</v>
       </c>
       <c r="L139" t="n">
-        <v>825</v>
+        <v>1561</v>
       </c>
       <c r="M139" t="n">
-        <v>0.588</v>
+        <v>0.184</v>
       </c>
       <c r="N139" t="n">
-        <v>0.2345</v>
+        <v>0.0687</v>
       </c>
       <c r="O139" t="n">
-        <v>4.3</v>
+        <v>14.5</v>
       </c>
       <c r="P139" t="s">
-        <v>42</v>
+        <v>784</v>
       </c>
       <c r="Q139" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="R139" t="s">
-        <v>31</v>
+        <v>787</v>
       </c>
       <c r="S139" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B140" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44580</v>
+        <v>44475</v>
       </c>
       <c r="D140" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E140" t="s">
-        <v>790</v>
+        <v>42</v>
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>147</v>
+        <v>504</v>
       </c>
       <c r="H140" t="n">
-        <v>3783881</v>
+        <v>357432</v>
       </c>
       <c r="I140" t="n">
-        <v>317.02</v>
-      </c>
-      <c r="J140"/>
-      <c r="K140"/>
+        <v>254.695</v>
+      </c>
+      <c r="J140" t="n">
+        <v>954</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.68</v>
+      </c>
       <c r="L140" t="n">
-        <v>30216</v>
+        <v>825</v>
       </c>
       <c r="M140" t="n">
-        <v>2.532</v>
+        <v>0.588</v>
       </c>
       <c r="N140" t="n">
-        <v>0.2279</v>
+        <v>0.2345</v>
       </c>
       <c r="O140" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="P140" t="s">
-        <v>791</v>
+        <v>42</v>
       </c>
       <c r="Q140" t="s">
         <v>792</v>
@@ -10724,7 +10734,7 @@
         <v>795</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="D141" t="s">
         <v>796</v>
@@ -10734,257 +10744,249 @@
       </c>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>665</v>
+        <v>148</v>
       </c>
       <c r="H141" t="n">
-        <v>126969305</v>
+        <v>3868881</v>
       </c>
       <c r="I141" t="n">
-        <v>1493.006</v>
-      </c>
-      <c r="J141" t="n">
-        <v>414312</v>
-      </c>
-      <c r="K141" t="n">
-        <v>4.872</v>
-      </c>
+        <v>324.142</v>
+      </c>
+      <c r="J141"/>
+      <c r="K141"/>
       <c r="L141" t="n">
-        <v>398508</v>
+        <v>29781</v>
       </c>
       <c r="M141" t="n">
-        <v>4.686</v>
+        <v>2.495</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1667</v>
+        <v>0.3167</v>
       </c>
       <c r="O141" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P141" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="Q141" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="R141" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S141" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B142" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44579</v>
+        <v>44585</v>
       </c>
       <c r="D142" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E142" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>525</v>
+        <v>669</v>
       </c>
       <c r="H142" t="n">
-        <v>2289947</v>
+        <v>128596836</v>
       </c>
       <c r="I142" t="n">
-        <v>48.595</v>
+        <v>1512.144</v>
       </c>
       <c r="J142" t="n">
-        <v>5173</v>
+        <v>401636</v>
       </c>
       <c r="K142" t="n">
-        <v>0.11</v>
+        <v>4.723</v>
       </c>
       <c r="L142" t="n">
-        <v>6504</v>
+        <v>410304</v>
       </c>
       <c r="M142" t="n">
-        <v>0.138</v>
-      </c>
-      <c r="N142" t="n">
-        <v>0.0767</v>
-      </c>
-      <c r="O142" t="n">
-        <v>13</v>
-      </c>
+        <v>4.825</v>
+      </c>
+      <c r="N142"/>
+      <c r="O142"/>
       <c r="P142" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="Q142" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="R142" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="S142" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B143" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44582</v>
+        <v>44579</v>
       </c>
       <c r="D143" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E143" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="H143" t="n">
-        <v>17389831</v>
+        <v>2289947</v>
       </c>
       <c r="I143" t="n">
-        <v>400.071</v>
+        <v>48.595</v>
       </c>
       <c r="J143" t="n">
-        <v>57396</v>
+        <v>5173</v>
       </c>
       <c r="K143" t="n">
-        <v>1.32</v>
+        <v>0.11</v>
       </c>
       <c r="L143" t="n">
-        <v>40164</v>
+        <v>6504</v>
       </c>
       <c r="M143" t="n">
-        <v>0.924</v>
-      </c>
-      <c r="N143"/>
-      <c r="O143"/>
+        <v>0.138</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.0767</v>
+      </c>
+      <c r="O143" t="n">
+        <v>13</v>
+      </c>
       <c r="P143" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="Q143" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="R143" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="S143" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B144" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44582</v>
+        <v>44585</v>
       </c>
       <c r="D144" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E144" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>693</v>
+        <v>542</v>
       </c>
       <c r="H144" t="n">
-        <v>120124739</v>
+        <v>17523330</v>
       </c>
       <c r="I144" t="n">
-        <v>12023.195</v>
+        <v>403.143</v>
       </c>
       <c r="J144" t="n">
-        <v>401356</v>
+        <v>26131</v>
       </c>
       <c r="K144" t="n">
-        <v>40.171</v>
+        <v>0.601</v>
       </c>
       <c r="L144" t="n">
-        <v>436462</v>
+        <v>48645</v>
       </c>
       <c r="M144" t="n">
-        <v>43.685</v>
+        <v>1.119</v>
       </c>
       <c r="N144"/>
       <c r="O144"/>
       <c r="P144" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="Q144" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="R144" t="s">
         <v>50</v>
       </c>
       <c r="S144" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B145" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>44580</v>
+        <v>44585</v>
       </c>
       <c r="D145" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E145" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="F145"/>
       <c r="G145" t="n">
-        <v>658</v>
+        <v>696</v>
       </c>
       <c r="H145" t="n">
-        <v>423426729</v>
+        <v>121612435</v>
       </c>
       <c r="I145" t="n">
-        <v>6207.956</v>
+        <v>12172.097</v>
       </c>
       <c r="J145" t="n">
-        <v>1595845</v>
+        <v>499001</v>
       </c>
       <c r="K145" t="n">
-        <v>23.397</v>
+        <v>49.945</v>
       </c>
       <c r="L145" t="n">
-        <v>1390190</v>
+        <v>485705</v>
       </c>
       <c r="M145" t="n">
-        <v>20.382</v>
-      </c>
-      <c r="N145" t="n">
-        <v>0.0665</v>
-      </c>
-      <c r="O145" t="n">
-        <v>15</v>
-      </c>
+        <v>48.614</v>
+      </c>
+      <c r="N145"/>
+      <c r="O145"/>
       <c r="P145" t="s">
+        <v>822</v>
+      </c>
+      <c r="Q145" t="s">
         <v>821</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>822</v>
       </c>
       <c r="R145" t="s">
         <v>50</v>
@@ -11001,7 +11003,7 @@
         <v>825</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>44576</v>
+        <v>44584</v>
       </c>
       <c r="D146" t="s">
         <v>826</v>
@@ -11011,154 +11013,154 @@
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="H146" t="n">
-        <v>755435887</v>
+        <v>428535107</v>
       </c>
       <c r="I146" t="n">
-        <v>2269.155</v>
+        <v>6282.851</v>
       </c>
       <c r="J146" t="n">
-        <v>1103092</v>
+        <v>1278946</v>
       </c>
       <c r="K146" t="n">
-        <v>3.313</v>
+        <v>18.751</v>
       </c>
       <c r="L146" t="n">
-        <v>1890584</v>
+        <v>1366036</v>
       </c>
       <c r="M146" t="n">
-        <v>5.679</v>
+        <v>20.028</v>
       </c>
       <c r="N146" t="n">
-        <v>0.4305</v>
+        <v>0.0674</v>
       </c>
       <c r="O146" t="n">
-        <v>2.3</v>
+        <v>14.8</v>
       </c>
       <c r="P146" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="Q146" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="R146" t="s">
-        <v>828</v>
+        <v>50</v>
       </c>
       <c r="S146" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B147" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="D147" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E147" t="s">
-        <v>218</v>
+        <v>834</v>
       </c>
       <c r="F147"/>
       <c r="G147" t="n">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="H147" t="n">
-        <v>4930666</v>
+        <v>762950814</v>
       </c>
       <c r="I147" t="n">
-        <v>1414.764</v>
+        <v>2291.728</v>
       </c>
       <c r="J147" t="n">
-        <v>35283</v>
+        <v>2069358</v>
       </c>
       <c r="K147" t="n">
-        <v>10.124</v>
+        <v>6.216</v>
       </c>
       <c r="L147" t="n">
-        <v>32493</v>
+        <v>2142899</v>
       </c>
       <c r="M147" t="n">
-        <v>9.323</v>
+        <v>6.437</v>
       </c>
       <c r="N147" t="n">
-        <v>0.3181</v>
+        <v>0.3488</v>
       </c>
       <c r="O147" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P147" t="s">
-        <v>218</v>
+        <v>834</v>
       </c>
       <c r="Q147" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="R147" t="s">
-        <v>50</v>
+        <v>835</v>
       </c>
       <c r="S147" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B148" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>44581</v>
+        <v>44584</v>
       </c>
       <c r="D148" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="E148" t="s">
-        <v>837</v>
+        <v>218</v>
       </c>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>234</v>
+        <v>673</v>
       </c>
       <c r="H148" t="n">
-        <v>37453951</v>
+        <v>5018294</v>
       </c>
       <c r="I148" t="n">
-        <v>381.526</v>
+        <v>1439.907</v>
       </c>
       <c r="J148" t="n">
-        <v>56388</v>
+        <v>25231</v>
       </c>
       <c r="K148" t="n">
-        <v>0.574</v>
+        <v>7.24</v>
       </c>
       <c r="L148" t="n">
-        <v>55961</v>
+        <v>30987</v>
       </c>
       <c r="M148" t="n">
-        <v>0.57</v>
+        <v>8.891</v>
       </c>
       <c r="N148" t="n">
-        <v>0.3047</v>
+        <v>0.3511</v>
       </c>
       <c r="O148" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P148" t="s">
-        <v>838</v>
+        <v>218</v>
       </c>
       <c r="Q148" t="s">
         <v>839</v>
       </c>
       <c r="R148" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="S148" t="s">
         <v>840</v>
@@ -11172,7 +11174,7 @@
         <v>842</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="D149" t="s">
         <v>843</v>
@@ -11182,100 +11184,153 @@
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>646</v>
+        <v>234</v>
       </c>
       <c r="H149" t="n">
-        <v>3130880</v>
+        <v>37453951</v>
       </c>
       <c r="I149" t="n">
-        <v>165.474</v>
+        <v>381.526</v>
       </c>
       <c r="J149" t="n">
-        <v>6599</v>
+        <v>56388</v>
       </c>
       <c r="K149" t="n">
-        <v>0.349</v>
+        <v>0.574</v>
       </c>
       <c r="L149" t="n">
-        <v>6716</v>
+        <v>55961</v>
       </c>
       <c r="M149" t="n">
-        <v>0.355</v>
+        <v>0.57</v>
       </c>
       <c r="N149" t="n">
-        <v>0.2075</v>
+        <v>0.3047</v>
       </c>
       <c r="O149" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="P149" t="s">
         <v>845</v>
       </c>
       <c r="Q149" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="R149" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="S149" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B150" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D150" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E150" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F150"/>
       <c r="G150" t="n">
-        <v>622</v>
+        <v>651</v>
       </c>
       <c r="H150" t="n">
-        <v>1816276</v>
+        <v>3151487</v>
       </c>
       <c r="I150" t="n">
-        <v>120.346</v>
+        <v>166.563</v>
       </c>
       <c r="J150" t="n">
-        <v>4422</v>
+        <v>2119</v>
       </c>
       <c r="K150" t="n">
-        <v>0.293</v>
+        <v>0.112</v>
       </c>
       <c r="L150" t="n">
-        <v>4675</v>
+        <v>4925</v>
       </c>
       <c r="M150" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0.0754</v>
-      </c>
-      <c r="O150" t="n">
-        <v>13.3</v>
-      </c>
+        <v>0.26</v>
+      </c>
+      <c r="N150"/>
+      <c r="O150"/>
       <c r="P150" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q150" t="s">
         <v>850</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>851</v>
       </c>
       <c r="R150" t="s">
         <v>50</v>
       </c>
       <c r="S150" t="s">
-        <v>852</v>
+        <v>853</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>854</v>
+      </c>
+      <c r="B151" t="s">
+        <v>855</v>
+      </c>
+      <c r="C151" s="1" t="n">
+        <v>44581</v>
+      </c>
+      <c r="D151" t="s">
+        <v>856</v>
+      </c>
+      <c r="E151" t="s">
+        <v>857</v>
+      </c>
+      <c r="F151"/>
+      <c r="G151" t="n">
+        <v>622</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1816276</v>
+      </c>
+      <c r="I151" t="n">
+        <v>120.346</v>
+      </c>
+      <c r="J151" t="n">
+        <v>4422</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="L151" t="n">
+        <v>4675</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.0754</v>
+      </c>
+      <c r="O151" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="P151" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>858</v>
+      </c>
+      <c r="R151" t="s">
+        <v>50</v>
+      </c>
+      <c r="S151" t="s">
+        <v>859</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -258,7 +258,7 @@
     <t xml:space="preserve">Bahamas - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/53205746-0d32-4961-9bd4-7d417509d633/Update+%23664-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%28144%29.pdf?MOD=AJPERES</t>
+    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/8a4aca97-8ef2-43bf-94e4-5d5389762fca/Update+%23668+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%2869%29.pdf?MOD=AJPERES</t>
   </si>
   <si>
     <t xml:space="preserve">Bahamas Ministry of Health and Wellness</t>
@@ -402,7 +402,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/posts/4962274767167433</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/posts/4976069302454646</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -840,7 +840,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2022/01/MSP_cvd19_infografia_diaria_20220116.pdf</t>
+    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2022/01/23.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -2711,7 +2711,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1484103819504009218</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1485545591195246592</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -3668,7 +3668,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
@@ -3678,22 +3678,26 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>658</v>
       </c>
       <c r="H9" t="n">
-        <v>136574442</v>
+        <v>137032063</v>
       </c>
       <c r="I9" t="n">
-        <v>15102.66</v>
+        <v>15153.265</v>
       </c>
       <c r="J9" t="n">
-        <v>136574442</v>
+        <v>457621</v>
       </c>
       <c r="K9" t="n">
-        <v>15102.66</v>
-      </c>
-      <c r="L9"/>
-      <c r="M9"/>
+        <v>50.605</v>
+      </c>
+      <c r="L9" t="n">
+        <v>691698</v>
+      </c>
+      <c r="M9" t="n">
+        <v>76.489</v>
+      </c>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9" t="s">
@@ -3766,7 +3770,7 @@
         <v>74</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44580</v>
+        <v>44584</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
@@ -3776,28 +3780,28 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H11" t="n">
-        <v>203902</v>
+        <v>205879</v>
       </c>
       <c r="I11" t="n">
-        <v>513.718</v>
+        <v>518.699</v>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>429</v>
       </c>
       <c r="K11" t="n">
-        <v>1.26</v>
+        <v>1.081</v>
       </c>
       <c r="L11" t="n">
-        <v>871</v>
+        <v>583</v>
       </c>
       <c r="M11" t="n">
-        <v>2.194</v>
+        <v>1.469</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2983</v>
+        <v>0.2985</v>
       </c>
       <c r="O11" t="n">
         <v>3.4</v>
@@ -3872,7 +3876,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -3882,32 +3886,28 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="H13" t="n">
-        <v>11988131</v>
+        <v>12143237</v>
       </c>
       <c r="I13" t="n">
-        <v>72.086</v>
+        <v>73.019</v>
       </c>
       <c r="J13" t="n">
-        <v>41292</v>
+        <v>45807</v>
       </c>
       <c r="K13" t="n">
-        <v>0.248</v>
+        <v>0.275</v>
       </c>
       <c r="L13" t="n">
-        <v>32766</v>
+        <v>38469</v>
       </c>
       <c r="M13" t="n">
-        <v>0.197</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.2115</v>
-      </c>
-      <c r="O13" t="n">
-        <v>4.7</v>
-      </c>
+        <v>0.231</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13"/>
       <c r="P13" t="s">
         <v>89</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44582</v>
+        <v>44585</v>
       </c>
       <c r="D18" t="s">
         <v>118</v>
@@ -4147,32 +4147,28 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H18" t="n">
-        <v>1822451</v>
+        <v>2077195</v>
       </c>
       <c r="I18" t="n">
-        <v>2336.775</v>
+        <v>2663.412</v>
       </c>
       <c r="J18" t="n">
-        <v>71699</v>
+        <v>91287</v>
       </c>
       <c r="K18" t="n">
-        <v>91.934</v>
+        <v>117.05</v>
       </c>
       <c r="L18" t="n">
-        <v>47492</v>
+        <v>69118</v>
       </c>
       <c r="M18" t="n">
-        <v>60.895</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="O18" t="n">
-        <v>581.2</v>
-      </c>
+        <v>88.624</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18"/>
       <c r="P18" t="s">
         <v>42</v>
       </c>
@@ -5525,7 +5521,7 @@
         <v>249</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44577</v>
+        <v>44584</v>
       </c>
       <c r="D44" t="s">
         <v>250</v>
@@ -5537,32 +5533,28 @@
         <v>252</v>
       </c>
       <c r="G44" t="n">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="H44" t="n">
-        <v>2173087</v>
+        <v>2257495</v>
       </c>
       <c r="I44" t="n">
-        <v>121.48</v>
+        <v>126.198</v>
       </c>
       <c r="J44" t="n">
-        <v>16193</v>
+        <v>9720</v>
       </c>
       <c r="K44" t="n">
-        <v>0.905</v>
+        <v>0.543</v>
       </c>
       <c r="L44" t="n">
-        <v>12979</v>
+        <v>12058</v>
       </c>
       <c r="M44" t="n">
-        <v>0.726</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.4732</v>
-      </c>
-      <c r="O44" t="n">
-        <v>2.1</v>
-      </c>
+        <v>0.674</v>
+      </c>
+      <c r="N44"/>
+      <c r="O44"/>
       <c r="P44" t="s">
         <v>253</v>
       </c>
@@ -5815,7 +5807,7 @@
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>6495313</v>
+        <v>7195674</v>
       </c>
       <c r="M49"/>
       <c r="N49"/>
@@ -7168,7 +7160,7 @@
         <v>437</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D75" t="s">
         <v>438</v>
@@ -7178,32 +7170,28 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H75" t="n">
-        <v>14247231</v>
+        <v>14393752</v>
       </c>
       <c r="I75" t="n">
-        <v>1387.399</v>
+        <v>1401.667</v>
       </c>
       <c r="J75" t="n">
-        <v>36143</v>
+        <v>49956</v>
       </c>
       <c r="K75" t="n">
-        <v>3.52</v>
+        <v>4.865</v>
       </c>
       <c r="L75" t="n">
-        <v>35082</v>
+        <v>37081</v>
       </c>
       <c r="M75" t="n">
-        <v>3.416</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0.1303</v>
-      </c>
-      <c r="O75" t="n">
-        <v>7.7</v>
-      </c>
+        <v>3.611</v>
+      </c>
+      <c r="N75"/>
+      <c r="O75"/>
       <c r="P75" t="s">
         <v>439</v>
       </c>
@@ -7331,7 +7319,7 @@
         <v>451</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44581</v>
+        <v>44584</v>
       </c>
       <c r="D78" t="s">
         <v>452</v>
@@ -7341,31 +7329,31 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H78" t="n">
-        <v>1516877</v>
+        <v>1549089</v>
       </c>
       <c r="I78" t="n">
-        <v>851.167</v>
+        <v>869.242</v>
       </c>
       <c r="J78" t="n">
-        <v>10833</v>
+        <v>8416</v>
       </c>
       <c r="K78" t="n">
-        <v>6.079</v>
+        <v>4.722</v>
       </c>
       <c r="L78" t="n">
-        <v>8689</v>
+        <v>9798</v>
       </c>
       <c r="M78" t="n">
-        <v>4.876</v>
+        <v>5.498</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1351</v>
+        <v>0.2233</v>
       </c>
       <c r="O78" t="n">
-        <v>7.4</v>
+        <v>4.5</v>
       </c>
       <c r="P78" t="s">
         <v>454</v>
@@ -8395,7 +8383,7 @@
         <v>561</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D98" t="s">
         <v>562</v>
@@ -8405,28 +8393,24 @@
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H98" t="n">
-        <v>6244663</v>
+        <v>6283060</v>
       </c>
       <c r="I98" t="n">
-        <v>113.941</v>
+        <v>114.642</v>
       </c>
       <c r="J98"/>
       <c r="K98"/>
       <c r="L98" t="n">
-        <v>10678</v>
+        <v>10026</v>
       </c>
       <c r="M98" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="O98" t="n">
-        <v>74.2</v>
-      </c>
+        <v>0.183</v>
+      </c>
+      <c r="N98"/>
+      <c r="O98"/>
       <c r="P98" t="s">
         <v>563</v>
       </c>
@@ -10347,7 +10331,7 @@
         <v>757</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44556</v>
+        <v>44577</v>
       </c>
       <c r="D134" t="s">
         <v>758</v>
@@ -10357,27 +10341,27 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>203</v>
+        <v>553</v>
       </c>
       <c r="H134"/>
       <c r="I134"/>
       <c r="J134" t="n">
-        <v>49555</v>
+        <v>74876</v>
       </c>
       <c r="K134" t="n">
-        <v>4.877</v>
+        <v>7.37</v>
       </c>
       <c r="L134" t="n">
-        <v>49555</v>
+        <v>74876</v>
       </c>
       <c r="M134" t="n">
-        <v>4.877</v>
+        <v>7.37</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0647</v>
+        <v>0.2742</v>
       </c>
       <c r="O134" t="n">
-        <v>15.5</v>
+        <v>3.6</v>
       </c>
       <c r="P134" t="s">
         <v>760</v>
@@ -10840,7 +10824,7 @@
         <v>808</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44579</v>
+        <v>44583</v>
       </c>
       <c r="D143" t="s">
         <v>809</v>
@@ -10850,31 +10834,31 @@
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="H143" t="n">
-        <v>2289947</v>
+        <v>2313681</v>
       </c>
       <c r="I143" t="n">
-        <v>48.595</v>
+        <v>49.098</v>
       </c>
       <c r="J143" t="n">
-        <v>5173</v>
+        <v>6249</v>
       </c>
       <c r="K143" t="n">
-        <v>0.11</v>
+        <v>0.133</v>
       </c>
       <c r="L143" t="n">
-        <v>6504</v>
+        <v>5757</v>
       </c>
       <c r="M143" t="n">
-        <v>0.138</v>
+        <v>0.122</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0767</v>
+        <v>0.0594</v>
       </c>
       <c r="O143" t="n">
-        <v>13</v>
+        <v>16.8</v>
       </c>
       <c r="P143" t="s">
         <v>810</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="862">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-5367-testime-1658-qytetare-te-infektuar-8-humbje-jete-dhe-2005-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-7067-testime-2156-qytetare-te-infektuar-5-humbje-jete-dhe-1685-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -203,10 +203,13 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2022/01/coronavirus-covid-19-at-a-glance-24-january-2022.pdf</t>
+    <t xml:space="preserve">https://covidbaseau.com/tests/</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made available by CovidbaseAU</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.health.gov.au/news/health-alerts/novel-coronavirus-2019-ncov-health-alert/coronavirus-covid-19-current-situation-and-case-numbers</t>
@@ -317,7 +320,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-update-1387-new-cases-1363-recoveries_i_0000139636.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1403-new-cases-1074-recoveries_i_0000139903.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -581,7 +584,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-20-de-janeiro-de-2022/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-25-de-janeiro-de-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -803,7 +806,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-24012022-6i36</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-26012022-iahy</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -1027,7 +1030,7 @@
     <t xml:space="preserve">GAB</t>
   </si>
   <si>
-    <t xml:space="preserve">Gabon - samples tested</t>
+    <t xml:space="preserve">Gabon - tests performed</t>
   </si>
   <si>
     <t xml:space="preserve">https://monitoring-covid19gabon.ga</t>
@@ -1039,16 +1042,15 @@
     <t xml:space="preserve">https://monitoring-covid19gabon.ga/</t>
   </si>
   <si>
-    <t xml:space="preserve">The number of samples tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Government of Gabon maintains a [dashboard](https://monitoring-covid19gabon.ga/) reporting the number of samples tested.</t>
+    <t xml:space="preserve">The Africa Centres for Disease Control and Prevention maintains a [dashboard]https://africacdc.maps.arcgis.com/apps/dashboards/a5603222b29c49539df3af45bac16bcc reporting the number of tests performed for every country in the continent. We query the API to produce a time series of the cumulative number of tests performed in Gabon.
+It is unclear if the types of tests including in the testing figures match the criteria for case diagnoses in each country.
+The Government of Gabon also maintains a [dashboard](https://monitoring-covid19gabon.ga/) reporting the number of tests performed; this was our source until 2021-07-13.</t>
   </si>
   <si>
     <t xml:space="preserve">GMB</t>
   </si>
   <si>
-    <t xml:space="preserve">Gambia - samples tested</t>
+    <t xml:space="preserve">Gambia - tests performed</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/12/GMB-COVID-19-Situational-Report_2021_25_26th_December_No-413.pdf</t>
@@ -1070,7 +1072,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2022/157</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2022/179</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1311,7 +1313,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/378766</t>
+    <t xml:space="preserve">https://irangov.ir/detail/378891</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -1335,7 +1337,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1484162388496691204</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1486031434607476741</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1422,7 +1424,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-saturday-january-22-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-monday-january-24-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1526,7 +1528,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1484163859086815242</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1486006074532577280</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1543,13 +1545,16 @@
     <t xml:space="preserve">LAO</t>
   </si>
   <si>
-    <t xml:space="preserve">Laos - people tested</t>
+    <t xml:space="preserve">Laos - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.covid19.gov.la/index.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government of Laos</t>
   </si>
   <si>
     <t xml:space="preserve">https://app.powerbi.com/view?r=eyJrIjoiM2JkZWRhNTQtNDY5YS00YWM3LWI4ZjUtNmExM2VmZDM4YjU5IiwidCI6ImNkOWNiOGVjLWU2MjEtNDcyYS05NzlhLTU0OWFiNWJhMjQ3MCIsImMiOjF9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government of Laos</t>
   </si>
   <si>
     <t xml:space="preserve">The Government of Laos maintains a [dashboard](https://app.powerbi.com/view?r=eyJrIjoiM2JkZWRhNTQtNDY5YS00YWM3LWI4ZjUtNmExM2VmZDM4YjU5IiwidCI6ImNkOWNiOGVjLWU2MjEtNDcyYS05NzlhLTU0OWFiNWJhMjQ3MCIsImMiOjF9) reporting the number of people tested.</t>
@@ -1674,7 +1679,7 @@
     <t xml:space="preserve">Madagascar Ministry of Public Health</t>
   </si>
   <si>
-    <t xml:space="preserve">The Africa Centres for Disease Control and Prevention maintains a [dashboard]https://africacdc.maps.arcgis.com/apps/dashboards/a5603222b29c49539df3af45bac16bcc reporting the number of tests performed for every country in the continent. We query the API to produce a time series of the cumulative number of tests performed in Chad.
+    <t xml:space="preserve">The Africa Centres for Disease Control and Prevention maintains a [dashboard]https://africacdc.maps.arcgis.com/apps/dashboards/a5603222b29c49539df3af45bac16bcc reporting the number of tests performed for every country in the continent. We query the API to produce a time series of the cumulative number of tests performed in Madagascar.
 It is unclear if the types of tests including in the testing figures match the criteria for case diagnoses in each country.
 The Madagascar Ministry of Public Health provides daily COVID-19 updates on [their official Facebook page](https://www.facebook.com/minsanp) reporting the cumulative number of tests performed, labeled "Nb. TESTS."; this was our source until 2022-01-14.</t>
   </si>
@@ -1722,7 +1727,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1483859636763922432</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1486027654667337728</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1805,7 +1810,7 @@
     <t xml:space="preserve">Moldova - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://msmps.gov.md/comunicare/2834-cazuri-de-covid-19-raportate-in-ultimele-24-de-ore/</t>
+    <t xml:space="preserve">https://msmps.gov.md/comunicare/6199-cazuri-de-covid-19-raportate-in-ultimele-24-de-ore/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of the Republic of Moldova</t>
@@ -1842,7 +1847,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1484198392113016836</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1486001389721595914</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1894,10 +1899,10 @@
     <t xml:space="preserve">NAM</t>
   </si>
   <si>
-    <t xml:space="preserve">Namibia - samples tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/posts/231065632551111</t>
+    <t xml:space="preserve">Namibia - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/posts/232953715695636</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1909,7 +1914,9 @@
     <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/</t>
   </si>
   <si>
-    <t xml:space="preserve">The Namibia Ministry of Health and Social Services provides daily COVID-19 reports on [their official Facebook page](https://www.facebook.com/MoHSSNamibia) that include the cumulative number of samples tested. These reports date back to late March 2020 but did not begin including testing numbers until [1 April 2020](https://www.facebook.com/MoHSSNamibia/photos/pcb.506219653384376/506219576717717), when the cumulative total was 306 samples tested.
+    <t xml:space="preserve">The Africa Centres for Disease Control and Prevention maintains a [dashboard]https://africacdc.maps.arcgis.com/apps/dashboards/a5603222b29c49539df3af45bac16bcc reporting the number of tests performed for every country in the continent. We query the API to produce a time series of the cumulative number of tests performed in Namibia.
+It is unclear if the types of tests including in the testing figures match the criteria for case diagnoses in each country.
+The Namibia Ministry of Health and Social Services provides daily COVID-19 reports on [their official Facebook page](https://www.facebook.com/MoHSSNamibia) that include the cumulative number of samples tested; this was our source until 2022-01-23. These reports date back to late March 2020 but did not begin including testing numbers until [1 April 2020](https://www.facebook.com/MoHSSNamibia/photos/pcb.506219653384376/506219576717717), when the cumulative total was 306 samples tested.
 On 3 February 2021, the Ministry of Health issued a [statement](https://www.facebook.com/MoHSSNamibia/photos/pcb.694286304577709/694286204577719) asserting that they have "completed the validation of antigen Rapid Test Kits". Previously, the only tests in use were PCR, according to a [report](https://www.facebook.com/MoHSSNamibia/photos/a.500031154003226/562143527791988/) from 9 July 2020. The tests are performed at both public and private laboratories, and it appears that all laboratories are included in the reported totals. The wording in the reports often suggests that pending tests are not included, but we have seen no definitive confirmation of this.</t>
   </si>
   <si>
@@ -1919,7 +1926,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1dKM_S7x0i4vo8m0Ski0N716GdFXqDwOm</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1cdeXk2sIjGOhga89aRftBu7Vsg7k6APt</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -2069,7 +2076,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/280368150856821</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/282799773946992</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -2091,7 +2098,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/14843306760274165788</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1485831576684482563</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2125,7 +2132,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1484307968166604801</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1485733986764791813</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2183,7 +2190,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1484462020049129474</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1485911571641556992</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2246,7 +2253,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/24-01_BULETIN_DE_PRESA_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESA_26_IANUARIE.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2269,7 +2276,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20446</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20474</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2401,6 +2408,9 @@
     <t xml:space="preserve">https://www.moh.gov.sg/covid-19/statistics</t>
   </si>
   <si>
+    <t xml:space="preserve">Ministry of Health Singapore</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.moh.gov.sg/covid-19</t>
   </si>
   <si>
@@ -2540,7 +2550,7 @@
     <t xml:space="preserve">Sweden - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.folkhalsomyndigheten.se/smittskydd-beredskap/utbrott/aktuella-utbrott/covid-19/statistik-och-analyser/antalet-testade-for-covid-19/</t>
+    <t xml:space="preserve">https://www.folkhalsomyndigheten.se/smittskydd-beredskap/utbrott/aktuella-utbrott/covid-19/statistik-och-analyser/antalet-testade-for-covid-19/tidigare-data/vecka-46-2021</t>
   </si>
   <si>
     <t xml:space="preserve">Swedish Public Health Agency</t>
@@ -2711,7 +2721,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1485545591195246592</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1485918908934729728</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2877,7 +2887,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1484347837684932609</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1485760831539322881</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -3297,7 +3307,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3307,31 +3317,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H2" t="n">
-        <v>1543521</v>
+        <v>1550588</v>
       </c>
       <c r="I2" t="n">
-        <v>537.263</v>
+        <v>539.723</v>
       </c>
       <c r="J2" t="n">
-        <v>5367</v>
+        <v>7067</v>
       </c>
       <c r="K2" t="n">
-        <v>1.868</v>
+        <v>2.46</v>
       </c>
       <c r="L2" t="n">
-        <v>4804</v>
+        <v>3990</v>
       </c>
       <c r="M2" t="n">
-        <v>1.672</v>
+        <v>1.389</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4589</v>
+        <v>0.443</v>
       </c>
       <c r="O2" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -3407,7 +3417,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3417,24 +3427,32 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>1347882</v>
+        <v>1360920</v>
       </c>
       <c r="I4" t="n">
-        <v>39.721</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4"/>
+        <v>40.105</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13038</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.384</v>
+      </c>
       <c r="L4" t="n">
-        <v>2874</v>
+        <v>4261</v>
       </c>
       <c r="M4" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="N4"/>
-      <c r="O4"/>
+        <v>0.126</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1113</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9</v>
+      </c>
       <c r="P4" t="s">
         <v>36</v>
       </c>
@@ -3501,7 +3519,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44583</v>
+        <v>44585</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3511,28 +3529,28 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H6" t="n">
-        <v>31696084</v>
+        <v>31955052</v>
       </c>
       <c r="I6" t="n">
-        <v>695.001</v>
+        <v>700.679</v>
       </c>
       <c r="J6" t="n">
-        <v>52039</v>
+        <v>99402</v>
       </c>
       <c r="K6" t="n">
-        <v>1.141</v>
+        <v>2.18</v>
       </c>
       <c r="L6" t="n">
-        <v>112891</v>
+        <v>109231</v>
       </c>
       <c r="M6" t="n">
-        <v>2.475</v>
+        <v>2.395</v>
       </c>
       <c r="N6" t="n">
-        <v>0.688</v>
+        <v>0.667</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -3615,7 +3633,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3623,27 +3641,29 @@
       <c r="E8" t="s">
         <v>60</v>
       </c>
-      <c r="F8"/>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
       <c r="G8" t="n">
-        <v>482</v>
+        <v>691</v>
       </c>
       <c r="H8" t="n">
-        <v>60163582</v>
+        <v>60459462</v>
       </c>
       <c r="I8" t="n">
-        <v>2332.987</v>
+        <v>2344.461</v>
       </c>
       <c r="J8" t="n">
-        <v>128213</v>
+        <v>161570</v>
       </c>
       <c r="K8" t="n">
-        <v>4.972</v>
+        <v>6.265</v>
       </c>
       <c r="L8" t="n">
-        <v>168448</v>
+        <v>156675</v>
       </c>
       <c r="M8" t="n">
-        <v>6.532</v>
+        <v>6.075</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -3651,132 +3671,132 @@
         <v>60</v>
       </c>
       <c r="Q8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R8" t="s">
         <v>50</v>
       </c>
       <c r="S8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H9" t="n">
-        <v>137032063</v>
+        <v>138357196</v>
       </c>
       <c r="I9" t="n">
-        <v>15153.265</v>
+        <v>15299.8</v>
       </c>
       <c r="J9" t="n">
-        <v>457621</v>
+        <v>791137</v>
       </c>
       <c r="K9" t="n">
-        <v>50.605</v>
+        <v>87.485</v>
       </c>
       <c r="L9" t="n">
-        <v>691698</v>
+        <v>684604</v>
       </c>
       <c r="M9" t="n">
-        <v>76.489</v>
+        <v>75.705</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" t="s">
         <v>66</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>65</v>
       </c>
       <c r="R9" t="s">
         <v>50</v>
       </c>
       <c r="S9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H10" t="n">
-        <v>6070424</v>
+        <v>6094493</v>
       </c>
       <c r="I10" t="n">
-        <v>593.781</v>
+        <v>596.135</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="n">
-        <v>8523</v>
+        <v>8645</v>
       </c>
       <c r="M10" t="n">
-        <v>0.834</v>
+        <v>0.846</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" t="s">
         <v>71</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>70</v>
       </c>
       <c r="R10" t="s">
         <v>24</v>
       </c>
       <c r="S10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>44584</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
@@ -3807,82 +3827,82 @@
         <v>3.4</v>
       </c>
       <c r="P11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s">
         <v>24</v>
       </c>
       <c r="S11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
         <v>42</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H12" t="n">
-        <v>8591245</v>
+        <v>8638049</v>
       </c>
       <c r="I12" t="n">
-        <v>4914.071</v>
+        <v>4940.842</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>26031</v>
+        <v>26150</v>
       </c>
       <c r="M12" t="n">
-        <v>14.889</v>
+        <v>14.957</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>44585</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
@@ -3906,146 +3926,150 @@
       <c r="M13" t="n">
         <v>0.231</v>
       </c>
-      <c r="N13"/>
-      <c r="O13"/>
+      <c r="N13" t="n">
+        <v>0.2807</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3.6</v>
+      </c>
       <c r="P13" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" t="s">
         <v>89</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>88</v>
       </c>
       <c r="R13" t="s">
         <v>50</v>
       </c>
       <c r="S13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44580</v>
+        <v>44586</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H14" t="n">
-        <v>11389140</v>
+        <v>11509291</v>
       </c>
       <c r="I14" t="n">
-        <v>1206.11</v>
+        <v>1218.834</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>20506</v>
+        <v>19838</v>
       </c>
       <c r="M14" t="n">
-        <v>2.172</v>
+        <v>2.101</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0617</v>
+        <v>0.0872</v>
       </c>
       <c r="O14" t="n">
-        <v>16.2</v>
+        <v>11.5</v>
       </c>
       <c r="P14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R14" t="s">
         <v>50</v>
       </c>
       <c r="S14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="H15" t="n">
-        <v>29140142</v>
+        <v>29572551</v>
       </c>
       <c r="I15" t="n">
-        <v>2505.098</v>
+        <v>2542.271</v>
       </c>
       <c r="J15" t="n">
-        <v>117238</v>
+        <v>110080</v>
       </c>
       <c r="K15" t="n">
-        <v>10.079</v>
+        <v>9.463</v>
       </c>
       <c r="L15" t="n">
-        <v>100783</v>
+        <v>117598</v>
       </c>
       <c r="M15" t="n">
-        <v>8.664</v>
+        <v>10.11</v>
       </c>
       <c r="N15" t="n">
-        <v>0.431</v>
+        <v>0.461</v>
       </c>
       <c r="O15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R15" t="s">
         <v>50</v>
       </c>
       <c r="S15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>44575</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
@@ -4072,33 +4096,33 @@
         <v>4.4</v>
       </c>
       <c r="P16" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" t="s">
         <v>108</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>107</v>
       </c>
       <c r="R16" t="s">
         <v>24</v>
       </c>
       <c r="S16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>44335</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
@@ -4117,30 +4141,30 @@
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R17" t="s">
         <v>24</v>
       </c>
       <c r="S17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>44585</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
         <v>42</v>
@@ -4167,39 +4191,43 @@
       <c r="M18" t="n">
         <v>88.624</v>
       </c>
-      <c r="N18"/>
-      <c r="O18"/>
+      <c r="N18" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="O18" t="n">
+        <v>652.1</v>
+      </c>
       <c r="P18" t="s">
         <v>42</v>
       </c>
       <c r="Q18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>44581</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" t="n">
         <v>667</v>
@@ -4232,30 +4260,30 @@
         <v>42</v>
       </c>
       <c r="Q19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R19" t="s">
         <v>50</v>
       </c>
       <c r="S19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>44566</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
@@ -4282,24 +4310,24 @@
         <v>4.4</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R20" t="s">
         <v>50</v>
       </c>
       <c r="S20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>44582</v>
@@ -4328,8 +4356,12 @@
       <c r="M21" t="n">
         <v>2.997</v>
       </c>
-      <c r="N21"/>
-      <c r="O21"/>
+      <c r="N21" t="n">
+        <v>0.1246</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8</v>
+      </c>
       <c r="P21" t="s">
         <v>36</v>
       </c>
@@ -4340,27 +4372,27 @@
         <v>24</v>
       </c>
       <c r="S21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>44585</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G22" t="n">
         <v>356</v>
@@ -4382,73 +4414,73 @@
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q22" t="s">
         <v>141</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>140</v>
       </c>
       <c r="R22" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H23" t="n">
-        <v>8194201</v>
+        <v>8284060</v>
       </c>
       <c r="I23" t="n">
-        <v>1188.141</v>
+        <v>1201.171</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23" t="n">
-        <v>30336</v>
+        <v>30918</v>
       </c>
       <c r="M23" t="n">
-        <v>4.399</v>
+        <v>4.483</v>
       </c>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="R23" t="s">
         <v>50</v>
       </c>
       <c r="S23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>44585</v>
@@ -4477,8 +4509,12 @@
       <c r="M24" t="n">
         <v>0.015</v>
       </c>
-      <c r="N24"/>
-      <c r="O24"/>
+      <c r="N24" t="n">
+        <v>0.1147</v>
+      </c>
+      <c r="O24" t="n">
+        <v>8.7</v>
+      </c>
       <c r="P24" t="s">
         <v>36</v>
       </c>
@@ -4489,18 +4525,18 @@
         <v>24</v>
       </c>
       <c r="S24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -4510,24 +4546,32 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>1330294</v>
+        <v>1336688</v>
       </c>
       <c r="I25" t="n">
-        <v>108.547</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25"/>
+        <v>109.069</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6394</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.522</v>
+      </c>
       <c r="L25" t="n">
-        <v>3038</v>
+        <v>3371</v>
       </c>
       <c r="M25" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="N25"/>
-      <c r="O25"/>
+        <v>0.275</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="O25" t="n">
+        <v>58.7</v>
+      </c>
       <c r="P25" t="s">
         <v>36</v>
       </c>
@@ -4538,24 +4582,24 @@
         <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>44449</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
@@ -4582,33 +4626,33 @@
         <v>22</v>
       </c>
       <c r="P26" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" t="s">
         <v>160</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>159</v>
       </c>
       <c r="R26" t="s">
         <v>24</v>
       </c>
       <c r="S26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>44227</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
@@ -4639,126 +4683,126 @@
         <v>13.9</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="R27" t="s">
         <v>31</v>
       </c>
       <c r="S27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44583</v>
+        <v>44585</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H28" t="n">
-        <v>55770366</v>
+        <v>55992406</v>
       </c>
       <c r="I28" t="n">
-        <v>1465.023</v>
+        <v>1470.856</v>
       </c>
       <c r="J28" t="n">
-        <v>59867</v>
+        <v>211030</v>
       </c>
       <c r="K28" t="n">
-        <v>1.573</v>
+        <v>5.544</v>
       </c>
       <c r="L28" t="n">
-        <v>116402</v>
+        <v>108249</v>
       </c>
       <c r="M28" t="n">
-        <v>3.058</v>
+        <v>2.844</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1655</v>
+        <v>0.1139</v>
       </c>
       <c r="O28" t="n">
-        <v>6</v>
+        <v>8.8</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="R28" t="s">
         <v>50</v>
       </c>
       <c r="S28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44580</v>
+        <v>44585</v>
       </c>
       <c r="D29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="n">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="K29" t="n">
-        <v>1.79</v>
+        <v>1.801</v>
       </c>
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R29" t="s">
         <v>50</v>
       </c>
       <c r="S29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>44585</v>
@@ -4787,8 +4831,12 @@
       <c r="M30" t="n">
         <v>0.051</v>
       </c>
-      <c r="N30"/>
-      <c r="O30"/>
+      <c r="N30" t="n">
+        <v>0.1649</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6.1</v>
+      </c>
       <c r="P30" t="s">
         <v>36</v>
       </c>
@@ -4799,15 +4847,15 @@
         <v>24</v>
       </c>
       <c r="S30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>44585</v>
@@ -4836,8 +4884,12 @@
       <c r="M31" t="n">
         <v>0.032</v>
       </c>
-      <c r="N31"/>
-      <c r="O31"/>
+      <c r="N31" t="n">
+        <v>0.0499</v>
+      </c>
+      <c r="O31" t="n">
+        <v>20.1</v>
+      </c>
       <c r="P31" t="s">
         <v>36</v>
       </c>
@@ -4848,77 +4900,77 @@
         <v>24</v>
       </c>
       <c r="S31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H32" t="n">
-        <v>28905541</v>
+        <v>29077102</v>
       </c>
       <c r="I32" t="n">
-        <v>1504.528</v>
+        <v>1513.458</v>
       </c>
       <c r="J32" t="n">
-        <v>96154</v>
+        <v>91398</v>
       </c>
       <c r="K32" t="n">
-        <v>5.005</v>
+        <v>4.757</v>
       </c>
       <c r="L32" t="n">
-        <v>87806</v>
+        <v>93678</v>
       </c>
       <c r="M32" t="n">
-        <v>4.57</v>
+        <v>4.876</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R32" t="s">
         <v>50</v>
       </c>
       <c r="S32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>44049</v>
       </c>
       <c r="D33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
@@ -4945,141 +4997,141 @@
         <v>41741.2</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R33" t="s">
         <v>50</v>
       </c>
       <c r="S33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="H34" t="n">
-        <v>31676327</v>
+        <v>31815726</v>
       </c>
       <c r="I34" t="n">
-        <v>617.884</v>
+        <v>620.603</v>
       </c>
       <c r="J34" t="n">
-        <v>87483</v>
+        <v>66955</v>
       </c>
       <c r="K34" t="n">
-        <v>1.706</v>
+        <v>1.306</v>
       </c>
       <c r="L34" t="n">
-        <v>80602</v>
+        <v>74251</v>
       </c>
       <c r="M34" t="n">
-        <v>1.572</v>
+        <v>1.448</v>
       </c>
       <c r="N34" t="n">
-        <v>0.416</v>
+        <v>0.415</v>
       </c>
       <c r="O34" t="n">
         <v>2.4</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R34" t="s">
         <v>50</v>
       </c>
       <c r="S34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44579</v>
+        <v>44581</v>
       </c>
       <c r="D35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E35" t="s">
         <v>42</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H35" t="n">
-        <v>2450829</v>
+        <v>2546621</v>
       </c>
       <c r="I35" t="n">
-        <v>476.903</v>
+        <v>495.543</v>
       </c>
       <c r="J35" t="n">
-        <v>12845</v>
+        <v>87518</v>
       </c>
       <c r="K35" t="n">
-        <v>2.499</v>
+        <v>17.03</v>
       </c>
       <c r="L35" t="n">
-        <v>12766</v>
+        <v>22530</v>
       </c>
       <c r="M35" t="n">
-        <v>2.484</v>
+        <v>4.384</v>
       </c>
       <c r="N35" t="n">
-        <v>0.321</v>
+        <v>0.193</v>
       </c>
       <c r="O35" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="P35" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q35" t="s">
         <v>204</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>203</v>
       </c>
       <c r="R35" t="s">
         <v>31</v>
       </c>
       <c r="S35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="D36" t="s">
         <v>35</v>
@@ -5089,24 +5141,32 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H36" t="n">
-        <v>1341052</v>
+        <v>1342440</v>
       </c>
       <c r="I36" t="n">
-        <v>49.57</v>
-      </c>
-      <c r="J36"/>
-      <c r="K36"/>
+        <v>49.621</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1388</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.051</v>
+      </c>
       <c r="L36" t="n">
-        <v>2781</v>
+        <v>2650</v>
       </c>
       <c r="M36" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="N36"/>
-      <c r="O36"/>
+        <v>0.098</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O36" t="n">
+        <v>20</v>
+      </c>
       <c r="P36" t="s">
         <v>36</v>
       </c>
@@ -5117,84 +5177,80 @@
         <v>24</v>
       </c>
       <c r="S36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44584</v>
+        <v>44587</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H37" t="n">
-        <v>4109897</v>
+        <v>4155056</v>
       </c>
       <c r="I37" t="n">
-        <v>1006.919</v>
+        <v>1017.983</v>
       </c>
       <c r="J37" t="n">
-        <v>14525</v>
+        <v>22524</v>
       </c>
       <c r="K37" t="n">
-        <v>3.559</v>
+        <v>5.518</v>
       </c>
       <c r="L37" t="n">
-        <v>18413</v>
+        <v>17250</v>
       </c>
       <c r="M37" t="n">
-        <v>4.511</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.4626</v>
-      </c>
-      <c r="O37" t="n">
-        <v>2.2</v>
-      </c>
+        <v>4.226</v>
+      </c>
+      <c r="N37"/>
+      <c r="O37"/>
       <c r="P37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R37" t="s">
         <v>31</v>
       </c>
       <c r="S37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>44381</v>
       </c>
       <c r="D38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G38" t="n">
         <v>470</v>
@@ -5224,30 +5280,30 @@
         <v>11.4</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="R38" t="s">
         <v>50</v>
       </c>
       <c r="S38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>44583</v>
       </c>
       <c r="D39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E39" t="s">
         <v>42</v>
@@ -5284,87 +5340,87 @@
         <v>42</v>
       </c>
       <c r="Q39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R39" t="s">
         <v>50</v>
       </c>
       <c r="S39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="D40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E40" t="s">
         <v>42</v>
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H40" t="n">
-        <v>48100824</v>
+        <v>48421474</v>
       </c>
       <c r="I40" t="n">
-        <v>4485.112</v>
+        <v>4515.011</v>
       </c>
       <c r="J40" t="n">
-        <v>51819</v>
+        <v>131137</v>
       </c>
       <c r="K40" t="n">
-        <v>4.832</v>
+        <v>12.228</v>
       </c>
       <c r="L40" t="n">
-        <v>122024</v>
+        <v>125622</v>
       </c>
       <c r="M40" t="n">
-        <v>11.378</v>
+        <v>11.713</v>
       </c>
       <c r="N40" t="n">
-        <v>0.187</v>
+        <v>0.206</v>
       </c>
       <c r="O40" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="P40" t="s">
         <v>42</v>
       </c>
       <c r="Q40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R40" t="s">
         <v>50</v>
       </c>
       <c r="S40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>44428</v>
       </c>
       <c r="D41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
@@ -5391,90 +5447,90 @@
         <v>15.7</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q41" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44583</v>
+        <v>44585</v>
       </c>
       <c r="D42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H42" t="n">
-        <v>57770408</v>
+        <v>58211241</v>
       </c>
       <c r="I42" t="n">
-        <v>9937.624</v>
+        <v>10013.456</v>
       </c>
       <c r="J42" t="n">
-        <v>172194</v>
+        <v>257002</v>
       </c>
       <c r="K42" t="n">
-        <v>29.621</v>
+        <v>44.209</v>
       </c>
       <c r="L42" t="n">
-        <v>218263</v>
+        <v>221706</v>
       </c>
       <c r="M42" t="n">
-        <v>37.545</v>
+        <v>38.138</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1641</v>
+        <v>0.1793</v>
       </c>
       <c r="O42" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="P42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R42" t="s">
         <v>50</v>
       </c>
       <c r="S42" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>44495</v>
       </c>
       <c r="D43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
@@ -5501,36 +5557,36 @@
         <v>6.4</v>
       </c>
       <c r="P43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S43" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>44584</v>
       </c>
       <c r="D44" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E44" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F44" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G44" t="n">
         <v>650</v>
@@ -5556,33 +5612,33 @@
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q44" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R44" t="s">
         <v>31</v>
       </c>
       <c r="S44" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B45" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>44308</v>
       </c>
       <c r="D45" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
@@ -5613,137 +5669,133 @@
         <v>15.2</v>
       </c>
       <c r="P45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q45" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R45" t="s">
         <v>50</v>
       </c>
       <c r="S45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B46" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E46" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H46" t="n">
-        <v>276422</v>
+        <v>277129</v>
       </c>
       <c r="I46" t="n">
-        <v>190.65</v>
-      </c>
-      <c r="J46" t="n">
-        <v>501</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.346</v>
-      </c>
+        <v>191.138</v>
+      </c>
+      <c r="J46"/>
+      <c r="K46"/>
       <c r="L46" t="n">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="M46" t="n">
-        <v>0.166</v>
+        <v>0.2</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R46" t="s">
         <v>24</v>
       </c>
       <c r="S46" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B47" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="D47" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E47" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H47" t="n">
-        <v>2750749</v>
+        <v>2776090</v>
       </c>
       <c r="I47" t="n">
-        <v>2075.742</v>
+        <v>2094.865</v>
       </c>
       <c r="J47" t="n">
-        <v>12125</v>
+        <v>12981</v>
       </c>
       <c r="K47" t="n">
-        <v>9.15</v>
+        <v>9.796</v>
       </c>
       <c r="L47" t="n">
-        <v>11566</v>
+        <v>12281</v>
       </c>
       <c r="M47" t="n">
-        <v>8.728</v>
+        <v>9.267</v>
       </c>
       <c r="N47" t="n">
-        <v>0.3005</v>
+        <v>0.3502</v>
       </c>
       <c r="O47" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P47" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q47" t="s">
         <v>271</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>270</v>
       </c>
       <c r="R47" t="s">
         <v>50</v>
       </c>
       <c r="S47" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B48" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="D48" t="s">
         <v>35</v>
@@ -5753,52 +5805,60 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H48" t="n">
-        <v>4297866</v>
+        <v>4303868</v>
       </c>
       <c r="I48" t="n">
-        <v>36.461</v>
-      </c>
-      <c r="J48"/>
-      <c r="K48"/>
+        <v>36.512</v>
+      </c>
+      <c r="J48" t="n">
+        <v>6002</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.051</v>
+      </c>
       <c r="L48" t="n">
-        <v>7733</v>
+        <v>7486</v>
       </c>
       <c r="M48" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="N48"/>
-      <c r="O48"/>
+        <v>0.064</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="O48" t="n">
+        <v>14.7</v>
+      </c>
       <c r="P48" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q48" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="R48" t="s">
         <v>50</v>
       </c>
       <c r="S48" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44579</v>
+        <v>44581</v>
       </c>
       <c r="D49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E49" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F49"/>
       <c r="G49"/>
@@ -5807,7 +5867,7 @@
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>7195674</v>
+        <v>7331660</v>
       </c>
       <c r="M49"/>
       <c r="N49"/>
@@ -5819,72 +5879,72 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B50" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="D50" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E50" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H50" t="n">
-        <v>725621</v>
+        <v>733561</v>
       </c>
       <c r="I50" t="n">
-        <v>14792.592</v>
+        <v>14954.457</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>3917</v>
+        <v>4029</v>
       </c>
       <c r="M50" t="n">
-        <v>79.852</v>
+        <v>82.136</v>
       </c>
       <c r="N50" t="n">
-        <v>0.1521</v>
+        <v>0.1583</v>
       </c>
       <c r="O50" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="P50" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q50" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R50" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S50" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B51" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>44402</v>
       </c>
       <c r="D51" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E51" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
@@ -5915,147 +5975,147 @@
         <v>4.2</v>
       </c>
       <c r="P51" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q51" t="s">
         <v>292</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>291</v>
       </c>
       <c r="R51" t="s">
         <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B52" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44580</v>
+        <v>44585</v>
       </c>
       <c r="D52" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E52" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="H52" t="n">
-        <v>9239308</v>
+        <v>9346985</v>
       </c>
       <c r="I52" t="n">
-        <v>1665.232</v>
+        <v>1684.639</v>
       </c>
       <c r="J52" t="n">
-        <v>21842</v>
+        <v>13594</v>
       </c>
       <c r="K52" t="n">
-        <v>3.937</v>
+        <v>2.45</v>
       </c>
       <c r="L52" t="n">
-        <v>24335</v>
+        <v>22334</v>
       </c>
       <c r="M52" t="n">
-        <v>4.386</v>
+        <v>4.025</v>
       </c>
       <c r="N52" t="n">
-        <v>0.309</v>
+        <v>0.314</v>
       </c>
       <c r="O52" t="n">
         <v>3.2</v>
       </c>
       <c r="P52" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q52" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R52" t="s">
         <v>50</v>
       </c>
       <c r="S52" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B53" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="D53" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E53" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H53" t="n">
-        <v>224532675</v>
+        <v>225573602</v>
       </c>
       <c r="I53" t="n">
-        <v>3330.258</v>
+        <v>3345.697</v>
       </c>
       <c r="J53" t="n">
-        <v>1356264</v>
+        <v>1022880</v>
       </c>
       <c r="K53" t="n">
-        <v>20.116</v>
+        <v>15.171</v>
       </c>
       <c r="L53" t="n">
-        <v>1279428</v>
+        <v>1276629</v>
       </c>
       <c r="M53" t="n">
-        <v>18.976</v>
+        <v>18.935</v>
       </c>
       <c r="N53" t="n">
-        <v>0.31</v>
+        <v>0.316</v>
       </c>
       <c r="O53" t="n">
         <v>3.2</v>
       </c>
       <c r="P53" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q53" t="s">
         <v>304</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>303</v>
       </c>
       <c r="R53" t="s">
         <v>31</v>
       </c>
       <c r="S53" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B54" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>44573</v>
       </c>
       <c r="D54" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E54" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
@@ -6082,13 +6142,13 @@
         <v>15.5</v>
       </c>
       <c r="P54" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q54" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R54" t="s">
-        <v>311</v>
+        <v>24</v>
       </c>
       <c r="S54" t="s">
         <v>312</v>
@@ -6112,7 +6172,7 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H55" t="n">
         <v>132861</v>
@@ -6141,7 +6201,7 @@
         <v>317</v>
       </c>
       <c r="R55" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S55" t="s">
         <v>318</v>
@@ -6155,7 +6215,7 @@
         <v>320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D56" t="s">
         <v>321</v>
@@ -6165,25 +6225,25 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H56" t="n">
-        <v>12087355</v>
+        <v>12165527</v>
       </c>
       <c r="I56" t="n">
-        <v>3037.197</v>
+        <v>3056.839</v>
       </c>
       <c r="J56" t="n">
-        <v>35082</v>
+        <v>78172</v>
       </c>
       <c r="K56" t="n">
-        <v>8.815</v>
+        <v>19.642</v>
       </c>
       <c r="L56" t="n">
-        <v>35678</v>
+        <v>29707</v>
       </c>
       <c r="M56" t="n">
-        <v>8.965</v>
+        <v>7.464</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
@@ -6287,8 +6347,12 @@
       <c r="M58" t="n">
         <v>0.111</v>
       </c>
-      <c r="N58"/>
-      <c r="O58"/>
+      <c r="N58" t="n">
+        <v>0.0875</v>
+      </c>
+      <c r="O58" t="n">
+        <v>11.4</v>
+      </c>
       <c r="P58" t="s">
         <v>36</v>
       </c>
@@ -6310,7 +6374,7 @@
         <v>335</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D59" t="s">
         <v>336</v>
@@ -6320,25 +6384,25 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H59" t="n">
-        <v>55203840</v>
+        <v>55754145</v>
       </c>
       <c r="I59" t="n">
-        <v>5323.034</v>
+        <v>5376.097</v>
       </c>
       <c r="J59" t="n">
-        <v>107004</v>
+        <v>190200</v>
       </c>
       <c r="K59" t="n">
-        <v>10.318</v>
+        <v>18.34</v>
       </c>
       <c r="L59" t="n">
-        <v>330607</v>
+        <v>289875</v>
       </c>
       <c r="M59" t="n">
-        <v>31.879</v>
+        <v>27.951</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
@@ -6349,7 +6413,7 @@
         <v>339</v>
       </c>
       <c r="R59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S59" t="s">
         <v>340</v>
@@ -6567,7 +6631,7 @@
         <v>368</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D64" t="s">
         <v>369</v>
@@ -6579,25 +6643,25 @@
         <v>371</v>
       </c>
       <c r="G64" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H64" t="n">
-        <v>9343917</v>
+        <v>9388322</v>
       </c>
       <c r="I64" t="n">
-        <v>969.873</v>
+        <v>974.482</v>
       </c>
       <c r="J64" t="n">
-        <v>132824</v>
+        <v>26378</v>
       </c>
       <c r="K64" t="n">
-        <v>13.787</v>
+        <v>2.738</v>
       </c>
       <c r="L64" t="n">
-        <v>37772</v>
+        <v>38144</v>
       </c>
       <c r="M64" t="n">
-        <v>3.921</v>
+        <v>3.959</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
@@ -6608,7 +6672,7 @@
         <v>372</v>
       </c>
       <c r="R64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S64" t="s">
         <v>373</v>
@@ -6675,7 +6739,7 @@
         <v>380</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D66" t="s">
         <v>381</v>
@@ -6687,25 +6751,25 @@
         <v>383</v>
       </c>
       <c r="G66" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H66" t="n">
-        <v>716995333</v>
+        <v>720572178</v>
       </c>
       <c r="I66" t="n">
-        <v>514.562</v>
+        <v>517.129</v>
       </c>
       <c r="J66" t="n">
-        <v>1474753</v>
+        <v>1769745</v>
       </c>
       <c r="K66" t="n">
-        <v>1.058</v>
+        <v>1.27</v>
       </c>
       <c r="L66" t="n">
-        <v>1890436</v>
+        <v>1878647</v>
       </c>
       <c r="M66" t="n">
-        <v>1.357</v>
+        <v>1.348</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
@@ -6716,7 +6780,7 @@
         <v>381</v>
       </c>
       <c r="R66" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S66" t="s">
         <v>384</v>
@@ -6730,7 +6794,7 @@
         <v>386</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D67" t="s">
         <v>387</v>
@@ -6740,25 +6804,25 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H67" t="n">
-        <v>46960977</v>
+        <v>47381797</v>
       </c>
       <c r="I67" t="n">
-        <v>169.926</v>
+        <v>171.448</v>
       </c>
       <c r="J67" t="n">
-        <v>175763</v>
+        <v>244413</v>
       </c>
       <c r="K67" t="n">
-        <v>0.636</v>
+        <v>0.884</v>
       </c>
       <c r="L67" t="n">
-        <v>180589</v>
+        <v>191231</v>
       </c>
       <c r="M67" t="n">
-        <v>0.653</v>
+        <v>0.692</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
@@ -6783,7 +6847,7 @@
         <v>392</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D68" t="s">
         <v>393</v>
@@ -6793,21 +6857,21 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H68" t="n">
-        <v>44138128</v>
+        <v>44323800</v>
       </c>
       <c r="I68" t="n">
-        <v>519.096</v>
+        <v>521.28</v>
       </c>
       <c r="J68"/>
       <c r="K68"/>
       <c r="L68" t="n">
-        <v>91256</v>
+        <v>91853</v>
       </c>
       <c r="M68" t="n">
-        <v>1.073</v>
+        <v>1.08</v>
       </c>
       <c r="N68"/>
       <c r="O68"/>
@@ -6832,7 +6896,7 @@
         <v>399</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44581</v>
+        <v>44586</v>
       </c>
       <c r="D69" t="s">
         <v>400</v>
@@ -6842,31 +6906,31 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="H69" t="n">
-        <v>17144299</v>
+        <v>17267129</v>
       </c>
       <c r="I69" t="n">
-        <v>416.332</v>
+        <v>419.315</v>
       </c>
       <c r="J69" t="n">
-        <v>25246</v>
+        <v>28281</v>
       </c>
       <c r="K69" t="n">
-        <v>0.613</v>
+        <v>0.687</v>
       </c>
       <c r="L69" t="n">
-        <v>22098</v>
+        <v>24236</v>
       </c>
       <c r="M69" t="n">
-        <v>0.537</v>
+        <v>0.589</v>
       </c>
       <c r="N69" t="n">
-        <v>0.209</v>
+        <v>0.25</v>
       </c>
       <c r="O69" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="P69" t="s">
         <v>402</v>
@@ -6875,7 +6939,7 @@
         <v>403</v>
       </c>
       <c r="R69" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S69" t="s">
         <v>404</v>
@@ -6889,7 +6953,7 @@
         <v>406</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D70" t="s">
         <v>407</v>
@@ -6899,25 +6963,25 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H70" t="n">
-        <v>10821839</v>
+        <v>10856331</v>
       </c>
       <c r="I70" t="n">
-        <v>2171.794</v>
+        <v>2178.716</v>
       </c>
       <c r="J70" t="n">
-        <v>12740</v>
+        <v>17681</v>
       </c>
       <c r="K70" t="n">
-        <v>2.557</v>
+        <v>3.548</v>
       </c>
       <c r="L70" t="n">
-        <v>19008</v>
+        <v>17655</v>
       </c>
       <c r="M70" t="n">
-        <v>3.815</v>
+        <v>3.543</v>
       </c>
       <c r="N70"/>
       <c r="O70"/>
@@ -6942,7 +7006,7 @@
         <v>412</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44584</v>
+        <v>44587</v>
       </c>
       <c r="D71" t="s">
         <v>413</v>
@@ -6952,25 +7016,25 @@
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="H71" t="n">
-        <v>42989022</v>
+        <v>44063635</v>
       </c>
       <c r="I71" t="n">
-        <v>4626.953</v>
+        <v>4742.615</v>
       </c>
       <c r="J71" t="n">
-        <v>413933</v>
+        <v>216321</v>
       </c>
       <c r="K71" t="n">
-        <v>44.552</v>
+        <v>23.283</v>
       </c>
       <c r="L71" t="n">
-        <v>404825</v>
+        <v>357135</v>
       </c>
       <c r="M71" t="n">
-        <v>43.572</v>
+        <v>38.439</v>
       </c>
       <c r="N71"/>
       <c r="O71"/>
@@ -6995,7 +7059,7 @@
         <v>417</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D72" t="s">
         <v>418</v>
@@ -7007,25 +7071,25 @@
         <v>420</v>
       </c>
       <c r="G72" t="n">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H72" t="n">
-        <v>163725878</v>
+        <v>166244710</v>
       </c>
       <c r="I72" t="n">
-        <v>2712.154</v>
+        <v>2753.879</v>
       </c>
       <c r="J72" t="n">
-        <v>519293</v>
+        <v>1097287</v>
       </c>
       <c r="K72" t="n">
-        <v>8.602</v>
+        <v>18.177</v>
       </c>
       <c r="L72" t="n">
-        <v>1055340</v>
+        <v>1034711</v>
       </c>
       <c r="M72" t="n">
-        <v>17.482</v>
+        <v>17.14</v>
       </c>
       <c r="N72"/>
       <c r="O72"/>
@@ -7050,7 +7114,7 @@
         <v>425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44583</v>
+        <v>44585</v>
       </c>
       <c r="D73" t="s">
         <v>426</v>
@@ -7060,27 +7124,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H73" t="n">
-        <v>777018</v>
+        <v>783185</v>
       </c>
       <c r="I73" t="n">
-        <v>261.318</v>
-      </c>
-      <c r="J73"/>
-      <c r="K73"/>
+        <v>263.392</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2812</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.946</v>
+      </c>
       <c r="L73" t="n">
-        <v>3127</v>
+        <v>2800</v>
       </c>
       <c r="M73" t="n">
-        <v>1.052</v>
+        <v>0.942</v>
       </c>
       <c r="N73" t="n">
-        <v>0.3873</v>
+        <v>0.3696</v>
       </c>
       <c r="O73" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P73" t="s">
         <v>427</v>
@@ -7089,7 +7157,7 @@
         <v>428</v>
       </c>
       <c r="R73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S73" t="s">
         <v>429</v>
@@ -7103,7 +7171,7 @@
         <v>431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="D74" t="s">
         <v>432</v>
@@ -7113,31 +7181,31 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H74" t="n">
-        <v>30387432</v>
+        <v>30857520</v>
       </c>
       <c r="I74" t="n">
-        <v>241.073</v>
+        <v>244.802</v>
       </c>
       <c r="J74" t="n">
-        <v>84039</v>
+        <v>223773</v>
       </c>
       <c r="K74" t="n">
-        <v>0.667</v>
+        <v>1.775</v>
       </c>
       <c r="L74" t="n">
-        <v>176132</v>
+        <v>194920</v>
       </c>
       <c r="M74" t="n">
-        <v>1.397</v>
+        <v>1.546</v>
       </c>
       <c r="N74" t="n">
-        <v>0.2387</v>
+        <v>0.2554</v>
       </c>
       <c r="O74" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="P74" t="s">
         <v>433</v>
@@ -7190,8 +7258,12 @@
       <c r="M75" t="n">
         <v>3.611</v>
       </c>
-      <c r="N75"/>
-      <c r="O75"/>
+      <c r="N75" t="n">
+        <v>0.1792</v>
+      </c>
+      <c r="O75" t="n">
+        <v>5.6</v>
+      </c>
       <c r="P75" t="s">
         <v>439</v>
       </c>
@@ -7270,7 +7342,7 @@
         <v>448</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="D77" t="s">
         <v>35</v>
@@ -7280,24 +7352,32 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H77" t="n">
-        <v>3186286</v>
+        <v>3189945</v>
       </c>
       <c r="I77" t="n">
-        <v>57.948</v>
-      </c>
-      <c r="J77"/>
-      <c r="K77"/>
+        <v>58.014</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3659</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.067</v>
+      </c>
       <c r="L77" t="n">
-        <v>5307</v>
+        <v>4799</v>
       </c>
       <c r="M77" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="N77"/>
-      <c r="O77"/>
+        <v>0.087</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.0695</v>
+      </c>
+      <c r="O77" t="n">
+        <v>14.4</v>
+      </c>
       <c r="P77" t="s">
         <v>36</v>
       </c>
@@ -7376,7 +7456,7 @@
         <v>457</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44581</v>
+        <v>44586</v>
       </c>
       <c r="D79" t="s">
         <v>458</v>
@@ -7386,31 +7466,31 @@
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="H79" t="n">
-        <v>6574401</v>
+        <v>6718482</v>
       </c>
       <c r="I79" t="n">
-        <v>1518.845</v>
+        <v>1552.131</v>
       </c>
       <c r="J79" t="n">
-        <v>33957</v>
+        <v>29164</v>
       </c>
       <c r="K79" t="n">
-        <v>7.845</v>
+        <v>6.738</v>
       </c>
       <c r="L79" t="n">
-        <v>32520</v>
+        <v>29888</v>
       </c>
       <c r="M79" t="n">
-        <v>7.513</v>
+        <v>6.905</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1437</v>
+        <v>0.1581</v>
       </c>
       <c r="O79" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="P79" t="s">
         <v>459</v>
@@ -7433,121 +7513,121 @@
         <v>463</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44570</v>
+        <v>44587</v>
       </c>
       <c r="D80" t="s">
         <v>464</v>
       </c>
       <c r="E80" t="s">
-        <v>465</v>
+        <v>42</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="H80" t="n">
-        <v>990520</v>
+        <v>940523</v>
       </c>
       <c r="I80" t="n">
-        <v>134.228</v>
-      </c>
-      <c r="J80"/>
-      <c r="K80"/>
+        <v>127.453</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3556</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.482</v>
+      </c>
       <c r="L80" t="n">
-        <v>2201</v>
+        <v>2660</v>
       </c>
       <c r="M80" t="n">
-        <v>0.298</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.3968</v>
-      </c>
-      <c r="O80" t="n">
-        <v>2.5</v>
-      </c>
+        <v>0.36</v>
+      </c>
+      <c r="N80"/>
+      <c r="O80"/>
       <c r="P80" t="s">
         <v>465</v>
       </c>
       <c r="Q80" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="R80" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S80" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B81" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D81" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E81" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F81" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G81" t="n">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H81" t="n">
-        <v>5892807</v>
+        <v>5944320</v>
       </c>
       <c r="I81" t="n">
-        <v>3156.409</v>
+        <v>3184.001</v>
       </c>
       <c r="J81" t="n">
-        <v>14510</v>
+        <v>28009</v>
       </c>
       <c r="K81" t="n">
-        <v>7.772</v>
+        <v>15.003</v>
       </c>
       <c r="L81" t="n">
-        <v>21727</v>
+        <v>23200</v>
       </c>
       <c r="M81" t="n">
-        <v>11.638</v>
+        <v>12.427</v>
       </c>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q81" t="s">
         <v>470</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>469</v>
       </c>
       <c r="R81" t="s">
         <v>50</v>
       </c>
       <c r="S81" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B82" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>44370</v>
       </c>
       <c r="D82" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E82" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
@@ -7570,78 +7650,78 @@
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q82" t="s">
         <v>476</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>475</v>
       </c>
       <c r="R82" t="s">
         <v>24</v>
       </c>
       <c r="S82" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B83" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="D83" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E83" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83" t="n">
-        <v>7934</v>
+        <v>8754</v>
       </c>
       <c r="K83" t="n">
-        <v>1.14</v>
+        <v>1.258</v>
       </c>
       <c r="L83"/>
       <c r="M83"/>
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q83" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="R83" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S83" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B84" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>44571</v>
       </c>
       <c r="D84" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E84" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
@@ -7672,143 +7752,147 @@
         <v>2.9</v>
       </c>
       <c r="P84" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q84" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="R84" t="s">
         <v>50</v>
       </c>
       <c r="S84" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B85" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44582</v>
+        <v>44586</v>
       </c>
       <c r="D85" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E85" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="H85" t="n">
-        <v>7357387</v>
+        <v>7434111</v>
       </c>
       <c r="I85" t="n">
-        <v>2735.228</v>
+        <v>2763.752</v>
       </c>
       <c r="J85" t="n">
-        <v>21578</v>
+        <v>30557</v>
       </c>
       <c r="K85" t="n">
-        <v>8.022</v>
+        <v>11.36</v>
       </c>
       <c r="L85" t="n">
-        <v>22682</v>
+        <v>24135</v>
       </c>
       <c r="M85" t="n">
-        <v>8.432</v>
+        <v>8.973</v>
       </c>
       <c r="N85" t="n">
-        <v>0.276</v>
+        <v>0.328</v>
       </c>
       <c r="O85" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P85" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q85" t="s">
         <v>493</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>492</v>
       </c>
       <c r="R85" t="s">
         <v>50</v>
       </c>
       <c r="S85" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B86" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44583</v>
+        <v>44586</v>
       </c>
       <c r="D86" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E86" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="H86" t="n">
-        <v>3940155</v>
+        <v>3953828</v>
       </c>
       <c r="I86" t="n">
-        <v>6206.787</v>
+        <v>6228.325</v>
       </c>
       <c r="J86" t="n">
-        <v>6719</v>
+        <v>7894</v>
       </c>
       <c r="K86" t="n">
-        <v>10.584</v>
+        <v>12.435</v>
       </c>
       <c r="L86" t="n">
-        <v>6116</v>
+        <v>6308</v>
       </c>
       <c r="M86" t="n">
-        <v>9.634</v>
-      </c>
-      <c r="N86"/>
-      <c r="O86"/>
+        <v>9.937</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.3553</v>
+      </c>
+      <c r="O86" t="n">
+        <v>2.8</v>
+      </c>
       <c r="P86" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q86" t="s">
         <v>498</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>497</v>
       </c>
       <c r="R86" t="s">
         <v>50</v>
       </c>
       <c r="S86" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B87" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>44575</v>
       </c>
       <c r="D87" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E87" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
@@ -7844,15 +7928,15 @@
         <v>24</v>
       </c>
       <c r="S87" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B88" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>44585</v>
@@ -7881,8 +7965,12 @@
       <c r="M88" t="n">
         <v>0.065</v>
       </c>
-      <c r="N88"/>
-      <c r="O88"/>
+      <c r="N88" t="n">
+        <v>0.1262</v>
+      </c>
+      <c r="O88" t="n">
+        <v>7.9</v>
+      </c>
       <c r="P88" t="s">
         <v>36</v>
       </c>
@@ -7893,187 +7981,187 @@
         <v>50</v>
       </c>
       <c r="S88" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B89" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44583</v>
+        <v>44585</v>
       </c>
       <c r="D89" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E89" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F89" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G89" t="n">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H89" t="n">
-        <v>44308922</v>
+        <v>44555966</v>
       </c>
       <c r="I89" t="n">
-        <v>1351.863</v>
+        <v>1359.4</v>
       </c>
       <c r="J89" t="n">
-        <v>95131</v>
+        <v>150638</v>
       </c>
       <c r="K89" t="n">
-        <v>2.902</v>
+        <v>4.596</v>
       </c>
       <c r="L89" t="n">
-        <v>113020</v>
+        <v>115219</v>
       </c>
       <c r="M89" t="n">
-        <v>3.448</v>
+        <v>3.515</v>
       </c>
       <c r="N89" t="n">
-        <v>0.03</v>
+        <v>0.0316</v>
       </c>
       <c r="O89" t="n">
-        <v>33.3</v>
+        <v>31.7</v>
       </c>
       <c r="P89" t="s">
         <v>42</v>
       </c>
       <c r="Q89" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="R89" t="s">
         <v>31</v>
       </c>
       <c r="S89" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B90" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44580</v>
+        <v>44586</v>
       </c>
       <c r="D90" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E90" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="H90" t="n">
-        <v>1973268</v>
+        <v>2017504</v>
       </c>
       <c r="I90" t="n">
-        <v>3629.866</v>
+        <v>3711.239</v>
       </c>
       <c r="J90" t="n">
-        <v>7171</v>
+        <v>7584</v>
       </c>
       <c r="K90" t="n">
-        <v>13.191</v>
+        <v>13.951</v>
       </c>
       <c r="L90" t="n">
-        <v>6620</v>
+        <v>7344</v>
       </c>
       <c r="M90" t="n">
-        <v>12.178</v>
+        <v>13.509</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1963</v>
+        <v>0.3148</v>
       </c>
       <c r="O90" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="P90" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q90" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="R90" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S90" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B91" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D91" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E91" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H91" t="n">
-        <v>1666273</v>
+        <v>1672329</v>
       </c>
       <c r="I91" t="n">
-        <v>3228.586</v>
+        <v>3240.32</v>
       </c>
       <c r="J91" t="n">
-        <v>2909</v>
+        <v>3022</v>
       </c>
       <c r="K91" t="n">
-        <v>5.637</v>
+        <v>5.855</v>
       </c>
       <c r="L91" t="n">
-        <v>3530</v>
+        <v>3278</v>
       </c>
       <c r="M91" t="n">
-        <v>6.84</v>
+        <v>6.351</v>
       </c>
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q91" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="R91" t="s">
         <v>50</v>
       </c>
       <c r="S91" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B92" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="D92" t="s">
         <v>35</v>
@@ -8083,176 +8171,180 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H92" t="n">
-        <v>811083</v>
+        <v>813897</v>
       </c>
       <c r="I92" t="n">
-        <v>169.856</v>
-      </c>
-      <c r="J92"/>
-      <c r="K92"/>
+        <v>170.446</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2814</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.589</v>
+      </c>
       <c r="L92" t="n">
-        <v>4450</v>
+        <v>4055</v>
       </c>
       <c r="M92" t="n">
-        <v>0.932</v>
-      </c>
-      <c r="N92"/>
-      <c r="O92"/>
+        <v>0.849</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.0631</v>
+      </c>
+      <c r="O92" t="n">
+        <v>15.9</v>
+      </c>
       <c r="P92" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q92" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="R92" t="s">
         <v>50</v>
       </c>
       <c r="S92" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B93" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44583</v>
+        <v>44585</v>
       </c>
       <c r="D93" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E93" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H93" t="n">
-        <v>13036631</v>
+        <v>13130612</v>
       </c>
       <c r="I93" t="n">
-        <v>100.08</v>
+        <v>100.801</v>
       </c>
       <c r="J93" t="n">
-        <v>7155</v>
+        <v>21629</v>
       </c>
       <c r="K93" t="n">
-        <v>0.055</v>
+        <v>0.166</v>
       </c>
       <c r="L93" t="n">
-        <v>37279</v>
+        <v>35163</v>
       </c>
       <c r="M93" t="n">
-        <v>0.286</v>
+        <v>0.27</v>
       </c>
       <c r="N93" t="n">
-        <v>0.6665</v>
+        <v>0.6611</v>
       </c>
       <c r="O93" t="n">
         <v>1.5</v>
       </c>
       <c r="P93" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Q93" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="R93" t="s">
         <v>31</v>
       </c>
       <c r="S93" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B94" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D94" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E94" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="n">
-        <v>10976</v>
+        <v>19808</v>
       </c>
       <c r="K94" t="n">
-        <v>2.728</v>
-      </c>
-      <c r="L94" t="n">
-        <v>12754</v>
-      </c>
-      <c r="M94" t="n">
-        <v>3.169</v>
-      </c>
+        <v>4.922</v>
+      </c>
+      <c r="L94"/>
+      <c r="M94"/>
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q94" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="R94" t="s">
         <v>24</v>
       </c>
       <c r="S94" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B95" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D95" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E95" t="s">
         <v>42</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H95" t="n">
-        <v>6752497</v>
+        <v>6800692</v>
       </c>
       <c r="I95" t="n">
-        <v>2028.214</v>
+        <v>2042.69</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
       <c r="L95" t="n">
-        <v>21619</v>
+        <v>21383</v>
       </c>
       <c r="M95" t="n">
-        <v>6.494</v>
+        <v>6.423</v>
       </c>
       <c r="N95"/>
       <c r="O95"/>
@@ -8260,81 +8352,81 @@
         <v>42</v>
       </c>
       <c r="Q95" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="R95" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S95" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B96" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44581</v>
+        <v>44586</v>
       </c>
       <c r="D96" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E96" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="H96" t="n">
-        <v>10381144</v>
+        <v>10504353</v>
       </c>
       <c r="I96" t="n">
-        <v>277.981</v>
+        <v>281.28</v>
       </c>
       <c r="J96" t="n">
-        <v>40211</v>
+        <v>28876</v>
       </c>
       <c r="K96" t="n">
-        <v>1.077</v>
+        <v>0.773</v>
       </c>
       <c r="L96" t="n">
-        <v>30536</v>
+        <v>28362</v>
       </c>
       <c r="M96" t="n">
-        <v>0.818</v>
+        <v>0.759</v>
       </c>
       <c r="N96" t="n">
-        <v>0.2438</v>
+        <v>0.2415</v>
       </c>
       <c r="O96" t="n">
         <v>4.1</v>
       </c>
       <c r="P96" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Q96" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="R96" t="s">
         <v>31</v>
       </c>
       <c r="S96" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B97" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="D97" t="s">
         <v>35</v>
@@ -8344,24 +8436,32 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H97" t="n">
-        <v>1206427</v>
+        <v>1209826</v>
       </c>
       <c r="I97" t="n">
-        <v>37.51</v>
-      </c>
-      <c r="J97"/>
-      <c r="K97"/>
+        <v>37.615</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3399</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.106</v>
+      </c>
       <c r="L97" t="n">
-        <v>3893</v>
+        <v>3580</v>
       </c>
       <c r="M97" t="n">
-        <v>0.121</v>
-      </c>
-      <c r="N97"/>
-      <c r="O97"/>
+        <v>0.111</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.1058</v>
+      </c>
+      <c r="O97" t="n">
+        <v>9.5</v>
+      </c>
       <c r="P97" t="s">
         <v>36</v>
       </c>
@@ -8372,293 +8472,301 @@
         <v>24</v>
       </c>
       <c r="S97" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B98" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="D98" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E98" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H98" t="n">
-        <v>6283060</v>
+        <v>6294296</v>
       </c>
       <c r="I98" t="n">
-        <v>114.642</v>
-      </c>
-      <c r="J98"/>
-      <c r="K98"/>
+        <v>114.847</v>
+      </c>
+      <c r="J98" t="n">
+        <v>11236</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.205</v>
+      </c>
       <c r="L98" t="n">
-        <v>10026</v>
+        <v>10118</v>
       </c>
       <c r="M98" t="n">
-        <v>0.183</v>
-      </c>
-      <c r="N98"/>
-      <c r="O98"/>
+        <v>0.185</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.0138</v>
+      </c>
+      <c r="O98" t="n">
+        <v>72.6</v>
+      </c>
       <c r="P98" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q98" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="R98" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S98" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B99" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44580</v>
+        <v>44584</v>
       </c>
       <c r="D99" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E99" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="H99" t="n">
-        <v>907241</v>
+        <v>910702</v>
       </c>
       <c r="I99" t="n">
-        <v>350.646</v>
+        <v>351.983</v>
       </c>
       <c r="J99" t="n">
-        <v>1737</v>
+        <v>801</v>
       </c>
       <c r="K99" t="n">
-        <v>0.671</v>
+        <v>0.31</v>
       </c>
       <c r="L99" t="n">
-        <v>1684</v>
+        <v>1135</v>
       </c>
       <c r="M99" t="n">
-        <v>0.651</v>
+        <v>0.439</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1244</v>
+        <v>0.1104</v>
       </c>
       <c r="O99" t="n">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="P99" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q99" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="R99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S99" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B100" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44582</v>
+        <v>44586</v>
       </c>
       <c r="D100" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E100" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="H100" t="n">
-        <v>5093823</v>
+        <v>5156419</v>
       </c>
       <c r="I100" t="n">
-        <v>171.654</v>
+        <v>173.764</v>
       </c>
       <c r="J100" t="n">
-        <v>18618</v>
+        <v>18103</v>
       </c>
       <c r="K100" t="n">
-        <v>0.627</v>
+        <v>0.61</v>
       </c>
       <c r="L100" t="n">
-        <v>16080</v>
+        <v>17186</v>
       </c>
       <c r="M100" t="n">
-        <v>0.542</v>
+        <v>0.579</v>
       </c>
       <c r="N100" t="n">
-        <v>0.4538</v>
+        <v>0.496</v>
       </c>
       <c r="O100" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="P100" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q100" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="R100" t="s">
         <v>50</v>
       </c>
       <c r="S100" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B101" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44583</v>
+        <v>44585</v>
       </c>
       <c r="D101" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E101" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="H101" t="n">
-        <v>24290193</v>
+        <v>24574754</v>
       </c>
       <c r="I101" t="n">
-        <v>1414.433</v>
+        <v>1431.003</v>
       </c>
       <c r="J101" t="n">
-        <v>132418</v>
+        <v>150653</v>
       </c>
       <c r="K101" t="n">
-        <v>7.711</v>
+        <v>8.773</v>
       </c>
       <c r="L101" t="n">
-        <v>130305</v>
+        <v>139364</v>
       </c>
       <c r="M101" t="n">
-        <v>7.588</v>
+        <v>8.115</v>
       </c>
       <c r="N101" t="n">
-        <v>0.3202</v>
+        <v>0.3521</v>
       </c>
       <c r="O101" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P101" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Q101" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="R101" t="s">
         <v>31</v>
       </c>
       <c r="S101" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B102" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D102" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E102" t="s">
         <v>42</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H102" t="n">
-        <v>5894156</v>
+        <v>5934769</v>
       </c>
       <c r="I102" t="n">
-        <v>1149.788</v>
+        <v>1157.71</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
       <c r="L102" t="n">
-        <v>13607</v>
+        <v>15309</v>
       </c>
       <c r="M102" t="n">
-        <v>2.654</v>
+        <v>2.986</v>
       </c>
       <c r="N102"/>
       <c r="O102"/>
       <c r="P102" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Q102" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R102" t="s">
         <v>50</v>
       </c>
       <c r="S102" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B103" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>44584</v>
       </c>
       <c r="D103" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E103" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
@@ -8685,30 +8793,30 @@
         <v>50.1</v>
       </c>
       <c r="P103" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q103" t="s">
         <v>594</v>
       </c>
-      <c r="Q103" t="s">
-        <v>593</v>
-      </c>
       <c r="R103" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S103" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B104" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C104" s="1" t="n">
         <v>44571</v>
       </c>
       <c r="D104" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E104" t="s">
         <v>42</v>
@@ -8741,87 +8849,87 @@
         <v>42</v>
       </c>
       <c r="Q104" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="R104" t="s">
         <v>50</v>
       </c>
       <c r="S104" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B105" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44583</v>
+        <v>44585</v>
       </c>
       <c r="D105" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E105" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H105" t="n">
-        <v>9836884</v>
+        <v>9907992</v>
       </c>
       <c r="I105" t="n">
-        <v>1799.772</v>
+        <v>1812.782</v>
       </c>
       <c r="J105" t="n">
-        <v>11437</v>
+        <v>37520</v>
       </c>
       <c r="K105" t="n">
-        <v>2.093</v>
+        <v>6.865</v>
       </c>
       <c r="L105" t="n">
-        <v>33361</v>
+        <v>34750</v>
       </c>
       <c r="M105" t="n">
-        <v>6.104</v>
+        <v>6.358</v>
       </c>
       <c r="N105" t="n">
-        <v>0.4503</v>
+        <v>0.4839</v>
       </c>
       <c r="O105" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P105" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q105" t="s">
         <v>604</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>603</v>
       </c>
       <c r="R105" t="s">
         <v>31</v>
       </c>
       <c r="S105" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B106" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="D106" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E106" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
@@ -8840,191 +8948,193 @@
       <c r="N106"/>
       <c r="O106"/>
       <c r="P106" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Q106" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="R106" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S106" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B107" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D107" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E107" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H107" t="n">
-        <v>24590353</v>
+        <v>24691005</v>
       </c>
       <c r="I107" t="n">
-        <v>109.193</v>
+        <v>109.64</v>
       </c>
       <c r="J107" t="n">
-        <v>57401</v>
+        <v>51063</v>
       </c>
       <c r="K107" t="n">
-        <v>0.255</v>
+        <v>0.227</v>
       </c>
       <c r="L107" t="n">
-        <v>57692</v>
+        <v>56225</v>
       </c>
       <c r="M107" t="n">
-        <v>0.256</v>
+        <v>0.25</v>
       </c>
       <c r="N107"/>
       <c r="O107"/>
       <c r="P107" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q107" t="s">
         <v>615</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>614</v>
       </c>
       <c r="R107" t="s">
         <v>50</v>
       </c>
       <c r="S107" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B108" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D108" t="s">
-        <v>619</v>
-      </c>
-      <c r="E108"/>
+        <v>620</v>
+      </c>
+      <c r="E108" t="s">
+        <v>42</v>
+      </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108" t="n">
-        <v>6577</v>
+        <v>12648</v>
       </c>
       <c r="K108" t="n">
-        <v>1.259</v>
+        <v>2.422</v>
       </c>
       <c r="L108" t="n">
-        <v>5686</v>
+        <v>7305</v>
       </c>
       <c r="M108" t="n">
-        <v>1.089</v>
+        <v>1.399</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1284</v>
+        <v>0.1692</v>
       </c>
       <c r="O108" t="n">
-        <v>7.8</v>
+        <v>5.9</v>
       </c>
       <c r="P108" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Q108" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="R108" t="s">
         <v>50</v>
       </c>
       <c r="S108" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B109" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D109" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E109" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="H109" t="n">
-        <v>4937497</v>
+        <v>5033905</v>
       </c>
       <c r="I109" t="n">
-        <v>1126.875</v>
+        <v>1148.878</v>
       </c>
       <c r="J109" t="n">
-        <v>36057</v>
+        <v>14472</v>
       </c>
       <c r="K109" t="n">
-        <v>8.229</v>
+        <v>3.303</v>
       </c>
       <c r="L109" t="n">
-        <v>27021</v>
+        <v>28127</v>
       </c>
       <c r="M109" t="n">
-        <v>6.167</v>
+        <v>6.419</v>
       </c>
       <c r="N109" t="n">
-        <v>0.3959</v>
+        <v>0.3269</v>
       </c>
       <c r="O109" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="P109" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Q109" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="R109" t="s">
         <v>50</v>
       </c>
       <c r="S109" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B110" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>44304</v>
       </c>
       <c r="D110" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E110" t="s">
         <v>363</v>
@@ -9057,144 +9167,144 @@
         <v>363</v>
       </c>
       <c r="Q110" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="R110" t="s">
         <v>24</v>
       </c>
       <c r="S110" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B111" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D111" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E111" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="H111" t="n">
-        <v>2226517</v>
+        <v>2275561</v>
       </c>
       <c r="I111" t="n">
-        <v>308.397</v>
+        <v>315.19</v>
       </c>
       <c r="J111" t="n">
-        <v>13729</v>
+        <v>11380</v>
       </c>
       <c r="K111" t="n">
-        <v>1.902</v>
+        <v>1.576</v>
       </c>
       <c r="L111" t="n">
-        <v>12433</v>
+        <v>12553</v>
       </c>
       <c r="M111" t="n">
-        <v>1.722</v>
+        <v>1.739</v>
       </c>
       <c r="N111" t="n">
-        <v>0.4696</v>
+        <v>0.4689</v>
       </c>
       <c r="O111" t="n">
         <v>2.1</v>
       </c>
       <c r="P111" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="Q111" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="R111" t="s">
         <v>50</v>
       </c>
       <c r="S111" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B112" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44557</v>
+        <v>44585</v>
       </c>
       <c r="D112" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E112" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="H112" t="n">
-        <v>6808992</v>
+        <v>7181133</v>
       </c>
       <c r="I112" t="n">
-        <v>204.11</v>
+        <v>215.266</v>
       </c>
       <c r="J112" t="n">
-        <v>8770</v>
+        <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>0.263</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>10948</v>
+        <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>0.328</v>
+        <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09</v>
+        <v>0.313</v>
       </c>
       <c r="O112" t="n">
-        <v>11.1</v>
+        <v>3.2</v>
       </c>
       <c r="P112" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q112" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="R112" t="s">
         <v>50</v>
       </c>
       <c r="S112" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B113" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>44570</v>
       </c>
       <c r="D113" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E113" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
@@ -9228,201 +9338,201 @@
         <v>363</v>
       </c>
       <c r="Q113" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="R113" t="s">
         <v>31</v>
       </c>
       <c r="S113" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B114" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44582</v>
+        <v>44586</v>
       </c>
       <c r="D114" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E114" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="H114" t="n">
-        <v>28473025</v>
+        <v>28960037</v>
       </c>
       <c r="I114" t="n">
-        <v>753.314</v>
+        <v>766.199</v>
       </c>
       <c r="J114" t="n">
-        <v>131210</v>
+        <v>136514</v>
       </c>
       <c r="K114" t="n">
-        <v>3.471</v>
+        <v>3.612</v>
       </c>
       <c r="L114" t="n">
-        <v>98950</v>
+        <v>122591</v>
       </c>
       <c r="M114" t="n">
-        <v>2.618</v>
+        <v>3.243</v>
       </c>
       <c r="N114" t="n">
-        <v>0.2335</v>
+        <v>0.2811</v>
       </c>
       <c r="O114" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="P114" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="Q114" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="R114" t="s">
         <v>31</v>
       </c>
       <c r="S114" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B115" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D115" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E115" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="H115" t="n">
-        <v>29075044</v>
+        <v>29576604</v>
       </c>
       <c r="I115" t="n">
-        <v>769.242</v>
+        <v>782.512</v>
       </c>
       <c r="J115" t="n">
-        <v>135321</v>
+        <v>141880</v>
       </c>
       <c r="K115" t="n">
-        <v>3.58</v>
+        <v>3.754</v>
       </c>
       <c r="L115" t="n">
-        <v>102277</v>
+        <v>126330</v>
       </c>
       <c r="M115" t="n">
-        <v>2.706</v>
+        <v>3.342</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1971</v>
+        <v>0.2531</v>
       </c>
       <c r="O115" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="P115" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="Q115" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="R115" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S115" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B116" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="D116" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E116" t="s">
         <v>42</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H116" t="n">
-        <v>32450789</v>
+        <v>33091055</v>
       </c>
       <c r="I116" t="n">
-        <v>3191.487</v>
+        <v>3254.456</v>
       </c>
       <c r="J116" t="n">
-        <v>156704</v>
+        <v>327386</v>
       </c>
       <c r="K116" t="n">
-        <v>15.412</v>
+        <v>32.198</v>
       </c>
       <c r="L116" t="n">
-        <v>290814</v>
+        <v>299372</v>
       </c>
       <c r="M116" t="n">
-        <v>28.601</v>
+        <v>29.443</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1655</v>
+        <v>0.1726</v>
       </c>
       <c r="O116" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="P116" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q116" t="s">
         <v>661</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>660</v>
       </c>
       <c r="R116" t="s">
         <v>50</v>
       </c>
       <c r="S116" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B117" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>44496</v>
       </c>
       <c r="D117" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E117" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
@@ -9449,206 +9559,202 @@
       <c r="N117"/>
       <c r="O117"/>
       <c r="P117" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="Q117" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="R117" t="s">
         <v>31</v>
       </c>
       <c r="S117" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B118" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D118" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E118" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H118" t="n">
-        <v>18527882</v>
+        <v>18698882</v>
       </c>
       <c r="I118" t="n">
-        <v>968.638</v>
+        <v>977.578</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118" t="n">
-        <v>79044</v>
+        <v>75279</v>
       </c>
       <c r="M118" t="n">
-        <v>4.132</v>
+        <v>3.936</v>
       </c>
       <c r="N118"/>
       <c r="O118"/>
       <c r="P118" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Q118" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="R118" t="s">
         <v>50</v>
       </c>
       <c r="S118" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B119" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44584</v>
+        <v>44587</v>
       </c>
       <c r="D119" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E119" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H119" t="n">
-        <v>250691974</v>
+        <v>251685602</v>
       </c>
       <c r="I119" t="n">
-        <v>1718.104</v>
-      </c>
-      <c r="J119"/>
-      <c r="K119"/>
+        <v>1724.913</v>
+      </c>
+      <c r="J119" t="n">
+        <v>543339</v>
+      </c>
+      <c r="K119" t="n">
+        <v>3.724</v>
+      </c>
       <c r="L119" t="n">
-        <v>543107</v>
+        <v>482456</v>
       </c>
       <c r="M119" t="n">
-        <v>3.722</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.0795</v>
-      </c>
-      <c r="O119" t="n">
-        <v>12.6</v>
-      </c>
+        <v>3.306</v>
+      </c>
+      <c r="N119"/>
+      <c r="O119"/>
       <c r="P119" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Q119" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="R119" t="s">
         <v>50</v>
       </c>
       <c r="S119" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B120" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D120" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E120" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H120" t="n">
-        <v>4407343</v>
+        <v>4429703</v>
       </c>
       <c r="I120" t="n">
-        <v>331.965</v>
-      </c>
-      <c r="J120" t="n">
-        <v>9309</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.701</v>
-      </c>
+        <v>333.649</v>
+      </c>
+      <c r="J120"/>
+      <c r="K120"/>
       <c r="L120" t="n">
-        <v>13642</v>
+        <v>12773</v>
       </c>
       <c r="M120" t="n">
-        <v>1.028</v>
+        <v>0.962</v>
       </c>
       <c r="N120"/>
       <c r="O120"/>
       <c r="P120" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Q120" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="R120" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S120" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B121" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D121" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E121" t="s">
         <v>42</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H121" t="n">
-        <v>64597</v>
+        <v>64708</v>
       </c>
       <c r="I121" t="n">
-        <v>1206.383</v>
+        <v>1208.456</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121" t="n">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="M121" t="n">
-        <v>2.465</v>
+        <v>2.092</v>
       </c>
       <c r="N121"/>
       <c r="O121"/>
@@ -9656,30 +9762,30 @@
         <v>42</v>
       </c>
       <c r="Q121" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="R121" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S121" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B122" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>44558</v>
       </c>
       <c r="D122" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E122" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
@@ -9706,167 +9812,167 @@
         <v>7.9</v>
       </c>
       <c r="P122" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="Q122" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="R122" t="s">
         <v>24</v>
       </c>
       <c r="S122" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B123" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="D123" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E123" t="s">
         <v>42</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H123" t="n">
-        <v>36791838</v>
+        <v>37149074</v>
       </c>
       <c r="I123" t="n">
-        <v>1041.062</v>
+        <v>1051.17</v>
       </c>
       <c r="J123" t="n">
-        <v>165134</v>
+        <v>189347</v>
       </c>
       <c r="K123" t="n">
-        <v>4.673</v>
+        <v>5.358</v>
       </c>
       <c r="L123" t="n">
-        <v>180189</v>
+        <v>173415</v>
       </c>
       <c r="M123" t="n">
-        <v>5.099</v>
+        <v>4.907</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0293</v>
+        <v>0.0288</v>
       </c>
       <c r="O123" t="n">
-        <v>34.2</v>
+        <v>34.8</v>
       </c>
       <c r="P123" t="s">
         <v>42</v>
       </c>
       <c r="Q123" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="R123" t="s">
         <v>50</v>
       </c>
       <c r="S123" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B124" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D124" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E124" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H124" t="n">
-        <v>983880</v>
+        <v>986776</v>
       </c>
       <c r="I124" t="n">
-        <v>57.215</v>
+        <v>57.383</v>
       </c>
       <c r="J124" t="n">
-        <v>1442</v>
+        <v>1885</v>
       </c>
       <c r="K124" t="n">
-        <v>0.084</v>
+        <v>0.11</v>
       </c>
       <c r="L124" t="n">
-        <v>1837</v>
+        <v>1704</v>
       </c>
       <c r="M124" t="n">
-        <v>0.107</v>
+        <v>0.099</v>
       </c>
       <c r="N124"/>
       <c r="O124"/>
       <c r="P124" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q124" t="s">
         <v>706</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>705</v>
       </c>
       <c r="R124" t="s">
         <v>50</v>
       </c>
       <c r="S124" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B125" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D125" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E125" t="s">
         <v>42</v>
       </c>
       <c r="F125" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G125" t="n">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H125" t="n">
-        <v>7897262</v>
+        <v>7974355</v>
       </c>
       <c r="I125" t="n">
-        <v>1149.27</v>
+        <v>1160.489</v>
       </c>
       <c r="J125" t="n">
-        <v>30998</v>
+        <v>37811</v>
       </c>
       <c r="K125" t="n">
-        <v>4.511</v>
+        <v>5.503</v>
       </c>
       <c r="L125" t="n">
-        <v>33328</v>
+        <v>33460</v>
       </c>
       <c r="M125" t="n">
-        <v>4.85</v>
+        <v>4.869</v>
       </c>
       <c r="N125"/>
       <c r="O125"/>
@@ -9874,302 +9980,302 @@
         <v>42</v>
       </c>
       <c r="Q125" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="R125" t="s">
         <v>31</v>
       </c>
       <c r="S125" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B126" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44578</v>
+        <v>44585</v>
       </c>
       <c r="D126" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E126" t="s">
-        <v>42</v>
+        <v>718</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>85</v>
-      </c>
-      <c r="H126" t="n">
-        <v>22536079</v>
-      </c>
-      <c r="I126" t="n">
-        <v>4132.331</v>
-      </c>
-      <c r="J126"/>
-      <c r="K126"/>
+        <v>70</v>
+      </c>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126" t="n">
+        <v>224700</v>
+      </c>
+      <c r="K126" t="n">
+        <v>41.202</v>
+      </c>
       <c r="L126" t="n">
-        <v>18288</v>
+        <v>224700</v>
       </c>
       <c r="M126" t="n">
-        <v>3.353</v>
+        <v>41.202</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0517</v>
+        <v>0.0151</v>
       </c>
       <c r="O126" t="n">
-        <v>19.3</v>
+        <v>66.2</v>
       </c>
       <c r="P126" t="s">
         <v>42</v>
       </c>
       <c r="Q126" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="R126" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S126" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B127" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="D127" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E127" t="s">
         <v>42</v>
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="H127" t="n">
-        <v>47331497</v>
+        <v>47387798</v>
       </c>
       <c r="I127" t="n">
-        <v>8685.842</v>
+        <v>8696.174</v>
       </c>
       <c r="J127" t="n">
-        <v>25114</v>
+        <v>32328</v>
       </c>
       <c r="K127" t="n">
-        <v>4.609</v>
+        <v>5.933</v>
       </c>
       <c r="L127" t="n">
-        <v>46361</v>
+        <v>36825</v>
       </c>
       <c r="M127" t="n">
-        <v>8.508</v>
+        <v>6.758</v>
       </c>
       <c r="N127" t="n">
-        <v>0.148</v>
+        <v>0.224</v>
       </c>
       <c r="O127" t="n">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
       <c r="P127" t="s">
         <v>42</v>
       </c>
       <c r="Q127" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="R127" t="s">
         <v>50</v>
       </c>
       <c r="S127" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B128" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="D128" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E128" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H128" t="n">
-        <v>2343421</v>
+        <v>2383368</v>
       </c>
       <c r="I128" t="n">
-        <v>1127.337</v>
+        <v>1146.554</v>
       </c>
       <c r="J128" t="n">
-        <v>11104</v>
+        <v>22924</v>
       </c>
       <c r="K128" t="n">
-        <v>5.342</v>
+        <v>11.028</v>
       </c>
       <c r="L128" t="n">
-        <v>15695</v>
+        <v>16650</v>
       </c>
       <c r="M128" t="n">
-        <v>7.55</v>
+        <v>8.01</v>
       </c>
       <c r="N128" t="n">
-        <v>0.67</v>
+        <v>0.712</v>
       </c>
       <c r="O128" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P128" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="Q128" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="R128" t="s">
         <v>50</v>
       </c>
       <c r="S128" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B129" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D129" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E129" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F129" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G129" t="n">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H129" t="n">
-        <v>22041433</v>
+        <v>22120335</v>
       </c>
       <c r="I129" t="n">
-        <v>367.1</v>
+        <v>368.414</v>
       </c>
       <c r="J129" t="n">
-        <v>17187</v>
+        <v>42686</v>
       </c>
       <c r="K129" t="n">
-        <v>0.286</v>
+        <v>0.711</v>
       </c>
       <c r="L129" t="n">
-        <v>32281</v>
+        <v>32081</v>
       </c>
       <c r="M129" t="n">
-        <v>0.538</v>
+        <v>0.534</v>
       </c>
       <c r="N129"/>
       <c r="O129"/>
       <c r="P129" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="Q129" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="R129" t="s">
         <v>31</v>
       </c>
       <c r="S129" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B130" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="D130" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E130" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="F130" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G130" t="n">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H130" t="n">
-        <v>49636120</v>
+        <v>50103976</v>
       </c>
       <c r="I130" t="n">
-        <v>967.468</v>
+        <v>976.587</v>
       </c>
       <c r="J130" t="n">
-        <v>177246</v>
+        <v>276338</v>
       </c>
       <c r="K130" t="n">
-        <v>3.455</v>
+        <v>5.386</v>
       </c>
       <c r="L130" t="n">
-        <v>192701</v>
+        <v>213850</v>
       </c>
       <c r="M130" t="n">
-        <v>3.756</v>
+        <v>4.168</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0336</v>
+        <v>0.0381</v>
       </c>
       <c r="O130" t="n">
-        <v>29.7</v>
+        <v>26.2</v>
       </c>
       <c r="P130" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="Q130" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="R130" t="s">
         <v>31</v>
       </c>
       <c r="S130" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B131" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C131" s="1" t="n">
         <v>44585</v>
@@ -10198,8 +10304,12 @@
       <c r="M131" t="n">
         <v>0.097</v>
       </c>
-      <c r="N131"/>
-      <c r="O131"/>
+      <c r="N131" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="O131" t="n">
+        <v>42.3</v>
+      </c>
       <c r="P131" t="s">
         <v>36</v>
       </c>
@@ -10210,141 +10320,145 @@
         <v>24</v>
       </c>
       <c r="S131" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B132" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44582</v>
+        <v>44584</v>
       </c>
       <c r="D132" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="E132" t="s">
         <v>42</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H132" t="n">
-        <v>80038801</v>
+        <v>80393214</v>
       </c>
       <c r="I132" t="n">
-        <v>1712.235</v>
+        <v>1719.817</v>
       </c>
       <c r="J132" t="n">
-        <v>256902</v>
+        <v>105741</v>
       </c>
       <c r="K132" t="n">
-        <v>5.496</v>
+        <v>2.262</v>
       </c>
       <c r="L132" t="n">
-        <v>298728</v>
+        <v>295064</v>
       </c>
       <c r="M132" t="n">
-        <v>6.391</v>
+        <v>6.312</v>
       </c>
       <c r="N132" t="n">
-        <v>0.375</v>
+        <v>0.37</v>
       </c>
       <c r="O132" t="n">
         <v>2.7</v>
       </c>
       <c r="P132" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="Q132" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="R132" t="s">
         <v>50</v>
       </c>
       <c r="S132" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B133" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D133" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E133" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H133" t="n">
-        <v>6057121</v>
+        <v>6074148</v>
       </c>
       <c r="I133" t="n">
-        <v>281.762</v>
+        <v>282.554</v>
       </c>
       <c r="J133" t="n">
-        <v>8383</v>
+        <v>8980</v>
       </c>
       <c r="K133" t="n">
-        <v>0.39</v>
+        <v>0.418</v>
       </c>
       <c r="L133" t="n">
-        <v>7745</v>
+        <v>8092</v>
       </c>
       <c r="M133" t="n">
-        <v>0.36</v>
+        <v>0.376</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
       <c r="P133" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="Q133" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="R133" t="s">
         <v>50</v>
       </c>
       <c r="S133" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B134" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C134" s="1" t="n">
         <v>44577</v>
       </c>
       <c r="D134" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E134" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>553</v>
-      </c>
-      <c r="H134"/>
-      <c r="I134"/>
+        <v>700</v>
+      </c>
+      <c r="H134" t="n">
+        <v>16740563</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1647.667</v>
+      </c>
       <c r="J134" t="n">
         <v>74876</v>
       </c>
@@ -10364,143 +10478,143 @@
         <v>3.6</v>
       </c>
       <c r="P134" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="Q134" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="R134" t="s">
         <v>50</v>
       </c>
       <c r="S134" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B135" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44583</v>
+        <v>44586</v>
       </c>
       <c r="D135" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E135" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="H135" t="n">
-        <v>16267467</v>
+        <v>16449241</v>
       </c>
       <c r="I135" t="n">
-        <v>1866.5</v>
+        <v>1887.356</v>
       </c>
       <c r="J135" t="n">
-        <v>74013</v>
+        <v>87158</v>
       </c>
       <c r="K135" t="n">
-        <v>8.492</v>
+        <v>10</v>
       </c>
       <c r="L135" t="n">
-        <v>92404</v>
+        <v>92003</v>
       </c>
       <c r="M135" t="n">
-        <v>10.602</v>
+        <v>10.556</v>
       </c>
       <c r="N135" t="n">
-        <v>0.406</v>
+        <v>0.412</v>
       </c>
       <c r="O135" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P135" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q135" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="R135" t="s">
         <v>50</v>
       </c>
       <c r="S135" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B136" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D136" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E136" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="H136" t="n">
-        <v>5501288</v>
+        <v>5581517</v>
       </c>
       <c r="I136" t="n">
-        <v>230.614</v>
+        <v>233.977</v>
       </c>
       <c r="J136" t="n">
-        <v>21861</v>
+        <v>19621</v>
       </c>
       <c r="K136" t="n">
-        <v>0.916</v>
+        <v>0.823</v>
       </c>
       <c r="L136" t="n">
-        <v>25946</v>
+        <v>28581</v>
       </c>
       <c r="M136" t="n">
-        <v>1.088</v>
+        <v>1.198</v>
       </c>
       <c r="N136"/>
       <c r="O136"/>
       <c r="P136" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="Q136" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="R136" t="s">
         <v>31</v>
       </c>
       <c r="S136" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B137" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>44576</v>
       </c>
       <c r="D137" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E137" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
@@ -10531,30 +10645,30 @@
         <v>9.3</v>
       </c>
       <c r="P137" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="Q137" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="R137" t="s">
         <v>50</v>
       </c>
       <c r="S137" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B138" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>44489</v>
       </c>
       <c r="D138" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E138" t="s">
         <v>42</v>
@@ -10587,84 +10701,84 @@
         <v>42</v>
       </c>
       <c r="Q138" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="R138" t="s">
         <v>24</v>
       </c>
       <c r="S138" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B139" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44581</v>
+        <v>44586</v>
       </c>
       <c r="D139"/>
       <c r="E139" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="F139" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="G139" t="n">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="H139" t="n">
-        <v>651730</v>
+        <v>657474</v>
       </c>
       <c r="I139" t="n">
-        <v>76.871</v>
+        <v>77.548</v>
       </c>
       <c r="J139" t="n">
-        <v>1333</v>
+        <v>1179</v>
       </c>
       <c r="K139" t="n">
-        <v>0.157</v>
+        <v>0.139</v>
       </c>
       <c r="L139" t="n">
-        <v>1561</v>
+        <v>1227</v>
       </c>
       <c r="M139" t="n">
-        <v>0.184</v>
+        <v>0.145</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0687</v>
+        <v>0.0368</v>
       </c>
       <c r="O139" t="n">
-        <v>14.5</v>
+        <v>27.2</v>
       </c>
       <c r="P139" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="Q139" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="R139" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="S139" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B140" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>44475</v>
       </c>
       <c r="D140" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="E140" t="s">
         <v>42</v>
@@ -10701,470 +10815,470 @@
         <v>42</v>
       </c>
       <c r="Q140" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="R140" t="s">
         <v>31</v>
       </c>
       <c r="S140" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B141" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>44583</v>
+        <v>44585</v>
       </c>
       <c r="D141" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="E141" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H141" t="n">
-        <v>3868881</v>
+        <v>3908255</v>
       </c>
       <c r="I141" t="n">
-        <v>324.142</v>
+        <v>327.441</v>
       </c>
       <c r="J141"/>
       <c r="K141"/>
       <c r="L141" t="n">
-        <v>29781</v>
+        <v>26587</v>
       </c>
       <c r="M141" t="n">
-        <v>2.495</v>
+        <v>2.228</v>
       </c>
       <c r="N141" t="n">
-        <v>0.3167</v>
+        <v>0.3541</v>
       </c>
       <c r="O141" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P141" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="Q141" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="R141" t="s">
         <v>31</v>
       </c>
       <c r="S141" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B142" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D142" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E142" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H142" t="n">
-        <v>128596836</v>
+        <v>129431799</v>
       </c>
       <c r="I142" t="n">
-        <v>1512.144</v>
+        <v>1521.962</v>
       </c>
       <c r="J142" t="n">
-        <v>401636</v>
+        <v>416536</v>
       </c>
       <c r="K142" t="n">
-        <v>4.723</v>
+        <v>4.898</v>
       </c>
       <c r="L142" t="n">
-        <v>410304</v>
+        <v>410972</v>
       </c>
       <c r="M142" t="n">
-        <v>4.825</v>
+        <v>4.833</v>
       </c>
       <c r="N142"/>
       <c r="O142"/>
       <c r="P142" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="Q142" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="R142" t="s">
         <v>50</v>
       </c>
       <c r="S142" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B143" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="D143" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E143" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H143" t="n">
-        <v>2313681</v>
+        <v>2318408</v>
       </c>
       <c r="I143" t="n">
-        <v>49.098</v>
+        <v>49.199</v>
       </c>
       <c r="J143" t="n">
-        <v>6249</v>
+        <v>4727</v>
       </c>
       <c r="K143" t="n">
-        <v>0.133</v>
+        <v>0.1</v>
       </c>
       <c r="L143" t="n">
-        <v>5757</v>
+        <v>5596</v>
       </c>
       <c r="M143" t="n">
-        <v>0.122</v>
+        <v>0.119</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0594</v>
+        <v>0.054</v>
       </c>
       <c r="O143" t="n">
-        <v>16.8</v>
+        <v>18.5</v>
       </c>
       <c r="P143" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="Q143" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="R143" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S143" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B144" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D144" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E144" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H144" t="n">
-        <v>17523330</v>
+        <v>17661202</v>
       </c>
       <c r="I144" t="n">
-        <v>403.143</v>
+        <v>406.315</v>
       </c>
       <c r="J144" t="n">
-        <v>26131</v>
+        <v>79688</v>
       </c>
       <c r="K144" t="n">
-        <v>0.601</v>
+        <v>1.833</v>
       </c>
       <c r="L144" t="n">
-        <v>48645</v>
+        <v>55773</v>
       </c>
       <c r="M144" t="n">
-        <v>1.119</v>
+        <v>1.283</v>
       </c>
       <c r="N144"/>
       <c r="O144"/>
       <c r="P144" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="Q144" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="R144" t="s">
         <v>50</v>
       </c>
       <c r="S144" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B145" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D145" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E145" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="F145"/>
       <c r="G145" t="n">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H145" t="n">
-        <v>121612435</v>
+        <v>122675911</v>
       </c>
       <c r="I145" t="n">
-        <v>12172.097</v>
+        <v>12278.54</v>
       </c>
       <c r="J145" t="n">
-        <v>499001</v>
+        <v>500146</v>
       </c>
       <c r="K145" t="n">
-        <v>49.945</v>
+        <v>50.059</v>
       </c>
       <c r="L145" t="n">
-        <v>485705</v>
+        <v>493908</v>
       </c>
       <c r="M145" t="n">
-        <v>48.614</v>
+        <v>49.435</v>
       </c>
       <c r="N145"/>
       <c r="O145"/>
       <c r="P145" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="Q145" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="R145" t="s">
         <v>50</v>
       </c>
       <c r="S145" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B146" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="D146" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="E146" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H146" t="n">
-        <v>428535107</v>
+        <v>431317684</v>
       </c>
       <c r="I146" t="n">
-        <v>6282.851</v>
+        <v>6323.647</v>
       </c>
       <c r="J146" t="n">
-        <v>1278946</v>
+        <v>1344695</v>
       </c>
       <c r="K146" t="n">
-        <v>18.751</v>
+        <v>19.715</v>
       </c>
       <c r="L146" t="n">
-        <v>1366036</v>
+        <v>1355257</v>
       </c>
       <c r="M146" t="n">
-        <v>20.028</v>
+        <v>19.87</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0674</v>
+        <v>0.0686</v>
       </c>
       <c r="O146" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="P146" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="Q146" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="R146" t="s">
         <v>50</v>
       </c>
       <c r="S146" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B147" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44579</v>
+        <v>44581</v>
       </c>
       <c r="D147" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="E147" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F147"/>
       <c r="G147" t="n">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="H147" t="n">
-        <v>762950814</v>
+        <v>766854911</v>
       </c>
       <c r="I147" t="n">
-        <v>2291.728</v>
+        <v>2303.455</v>
       </c>
       <c r="J147" t="n">
-        <v>2069358</v>
+        <v>1625787</v>
       </c>
       <c r="K147" t="n">
-        <v>6.216</v>
+        <v>4.883</v>
       </c>
       <c r="L147" t="n">
-        <v>2142899</v>
+        <v>1896975</v>
       </c>
       <c r="M147" t="n">
-        <v>6.437</v>
+        <v>5.698</v>
       </c>
       <c r="N147" t="n">
-        <v>0.3488</v>
+        <v>0.258</v>
       </c>
       <c r="O147" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="P147" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="Q147" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="R147" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="S147" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B148" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="D148" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E148" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H148" t="n">
-        <v>5018294</v>
+        <v>5072194</v>
       </c>
       <c r="I148" t="n">
-        <v>1439.907</v>
+        <v>1455.372</v>
       </c>
       <c r="J148" t="n">
-        <v>25231</v>
+        <v>30662</v>
       </c>
       <c r="K148" t="n">
-        <v>7.24</v>
+        <v>8.798</v>
       </c>
       <c r="L148" t="n">
-        <v>30987</v>
+        <v>29836</v>
       </c>
       <c r="M148" t="n">
-        <v>8.891</v>
+        <v>8.561</v>
       </c>
       <c r="N148" t="n">
-        <v>0.3511</v>
+        <v>0.3751</v>
       </c>
       <c r="O148" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P148" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q148" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="R148" t="s">
         <v>50</v>
       </c>
       <c r="S148" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B149" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C149" s="1" t="n">
         <v>44581</v>
       </c>
       <c r="D149" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="E149" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
@@ -11195,33 +11309,33 @@
         <v>3.3</v>
       </c>
       <c r="P149" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="Q149" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="R149" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S149" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B150" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C150" s="1" t="n">
         <v>44585</v>
       </c>
       <c r="D150" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E150" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F150"/>
       <c r="G150" t="n">
@@ -11245,76 +11359,80 @@
       <c r="M150" t="n">
         <v>0.26</v>
       </c>
-      <c r="N150"/>
-      <c r="O150"/>
+      <c r="N150" t="n">
+        <v>0.1481</v>
+      </c>
+      <c r="O150" t="n">
+        <v>6.8</v>
+      </c>
       <c r="P150" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q150" t="s">
         <v>852</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>850</v>
       </c>
       <c r="R150" t="s">
         <v>50</v>
       </c>
       <c r="S150" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B151" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
       <c r="D151" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E151" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="F151"/>
       <c r="G151" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="H151" t="n">
-        <v>1816276</v>
+        <v>1829333</v>
       </c>
       <c r="I151" t="n">
-        <v>120.346</v>
+        <v>121.211</v>
       </c>
       <c r="J151" t="n">
-        <v>4422</v>
+        <v>4913</v>
       </c>
       <c r="K151" t="n">
-        <v>0.293</v>
+        <v>0.326</v>
       </c>
       <c r="L151" t="n">
-        <v>4675</v>
+        <v>4043</v>
       </c>
       <c r="M151" t="n">
-        <v>0.31</v>
+        <v>0.268</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0754</v>
+        <v>0.0735</v>
       </c>
       <c r="O151" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="P151" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="Q151" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="R151" t="s">
         <v>50</v>
       </c>
       <c r="S151" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="857">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-7067-testime-2156-qytetare-te-infektuar-5-humbje-jete-dhe-1685-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-5662-testime-1549-qytetare-te-infektuar-6-humbje-jete-dhe-1794-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -186,7 +186,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4758</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4786</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -261,7 +261,7 @@
     <t xml:space="preserve">Bahamas - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/8a4aca97-8ef2-43bf-94e4-5d5389762fca/Update+%23668+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%2869%29.pdf?MOD=AJPERES</t>
+    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/c3392258-88eb-4f91-9b6c-a61b9ee794b6/Update+%23670+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%2844%29.pdf?MOD=AJPERES</t>
   </si>
   <si>
     <t xml:space="preserve">Bahamas Ministry of Health and Wellness</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1403-new-cases-1074-recoveries_i_0000139903.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1974-new-cases-1833-recoveries_i_0000139993.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -405,7 +405,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/posts/4976069302454646</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/posts/4994204717307771</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-25-de-janeiro-de-2022/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-27-de-janeiro-de-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -626,10 +626,7 @@
     <t xml:space="preserve">https://github.com/MinCiencia/Datos-COVID19/tree/master/output/producto49</t>
   </si>
   <si>
-    <t xml:space="preserve">Chile Ministry of Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Science, Technology, Knowledge and Innovation</t>
+    <t xml:space="preserve">Ministry of Health, via Ministry of Science GitHub repository</t>
   </si>
   <si>
     <t xml:space="preserve">The Ministry of Science, Technology, Knowledge and Innovation publishes COVID-19 data in its official [GitHub repository](https://github.com/MinCiencia/Datos-COVID19).
@@ -806,7 +803,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-26012022-iahy</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-28012022-7lnq</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -843,7 +840,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2022/01/23.pdf</t>
+    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2022/01/MSP_cvd19_infografia_diaria_20220127.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -1033,9 +1030,6 @@
     <t xml:space="preserve">Gabon - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://monitoring-covid19gabon.ga</t>
-  </si>
-  <si>
     <t xml:space="preserve">Government of Gabon</t>
   </si>
   <si>
@@ -1053,9 +1047,6 @@
     <t xml:space="preserve">Gambia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/12/GMB-COVID-19-Situational-Report_2021_25_26th_December_No-413.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ministry of Health, The Gambia</t>
   </si>
   <si>
@@ -1072,7 +1063,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2022/179</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2022/200</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1337,7 +1328,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1486031434607476741</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1486723896569073670?cxt=HHwWjMCs4bjg86EpAAAA</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1424,7 +1415,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-monday-january-24-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-january-26-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1528,7 +1519,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1486006074532577280</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1486715634612195342?cxt=HHwWnMCiscT_76EpAAAA</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1727,7 +1718,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1486027654667337728</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1486748186119081986?cxt=HHwWhMCsgaTm_qEpAAAA</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1810,7 +1801,7 @@
     <t xml:space="preserve">Moldova - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://msmps.gov.md/comunicare/6199-cazuri-de-covid-19-raportate-in-ultimele-24-de-ore/</t>
+    <t xml:space="preserve">https://msmps.gov.md/comunicare/5366-cazuri-de-covid-19-raportate-in-ultimele-24-de-ore/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of the Republic of Moldova</t>
@@ -1847,7 +1838,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1486001389721595914</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1486729276929941514?cxt=HHwWlICpyc-Z9qEpAAAA</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1902,12 +1893,6 @@
     <t xml:space="preserve">Namibia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/posts/232953715695636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Health and Social Services</t>
-  </si>
-  <si>
     <t xml:space="preserve">Namibia Ministry of Health and Social Services</t>
   </si>
   <si>
@@ -1926,7 +1911,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1cdeXk2sIjGOhga89aRftBu7Vsg7k6APt</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1MhXC5M-FJcLZqF4JW5fPElspxMGfJDPw</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -2076,7 +2061,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/282799773946992</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/285384060355230</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -2098,7 +2083,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1485831576684482563</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1486863605668757505</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2132,7 +2117,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1485733986764791813</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1486821062583148547?cxt=HHwWhoCz_Z_4n6IpAAAA</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2190,7 +2175,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1485911571641556992</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1486998735536017409?cxt=HHwWgsCi0Zbe8KIpAAAA</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2253,7 +2238,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESA_26_IANUARIE.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/28-01_BULETIN_DE_PRESA_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2335,7 +2320,7 @@
     <t xml:space="preserve">Saint Vincent and the Grenadines - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/SVGHEALTH/posts/5206415906085457</t>
+    <t xml:space="preserve">https://www.facebook.com/SVGHEALTH/posts/401406055115475</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Vincent and the Grenadines Ministry of Health, Wellness and the Environment</t>
@@ -2550,7 +2535,7 @@
     <t xml:space="preserve">Sweden - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.folkhalsomyndigheten.se/smittskydd-beredskap/utbrott/aktuella-utbrott/covid-19/statistik-och-analyser/antalet-testade-for-covid-19/tidigare-data/vecka-46-2021</t>
+    <t xml:space="preserve">https://www.folkhalsomyndigheten.se/smittskydd-beredskap/utbrott/aktuella-utbrott/covid-19/statistik-och-analyser/antalet-testade-for-covid-19/</t>
   </si>
   <si>
     <t xml:space="preserve">Swedish Public Health Agency</t>
@@ -2721,7 +2706,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1485918908934729728</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1487000590538452997?cxt=HHwWisC5vZPK8aIpAAAA</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2841,7 +2826,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-98-bc-byt-bo-y-te-216084-d6.html</t>
+    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-128-bc-byt-bo-y-te-216331-d6.html</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam Ministry of Health</t>
@@ -2887,7 +2872,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1485760831539322881</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1486856744127111171?cxt=HHwWhoC5mZiVsKIpAAAA</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -3307,7 +3292,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3317,31 +3302,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H2" t="n">
-        <v>1550588</v>
+        <v>1556250</v>
       </c>
       <c r="I2" t="n">
-        <v>539.723</v>
+        <v>541.694</v>
       </c>
       <c r="J2" t="n">
-        <v>7067</v>
+        <v>5662</v>
       </c>
       <c r="K2" t="n">
-        <v>2.46</v>
+        <v>1.971</v>
       </c>
       <c r="L2" t="n">
-        <v>3990</v>
+        <v>2585</v>
       </c>
       <c r="M2" t="n">
-        <v>1.389</v>
+        <v>0.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.443</v>
+        <v>0.6115</v>
       </c>
       <c r="O2" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -3364,7 +3349,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44578</v>
+        <v>44585</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -3374,27 +3359,27 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H3" t="n">
-        <v>287926</v>
+        <v>295208</v>
       </c>
       <c r="I3" t="n">
-        <v>3722.186</v>
+        <v>3816.325</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>975</v>
+        <v>1040</v>
       </c>
       <c r="M3" t="n">
-        <v>12.604</v>
+        <v>13.445</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2791</v>
+        <v>0.4309</v>
       </c>
       <c r="O3" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -3417,7 +3402,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3427,31 +3412,27 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>1360920</v>
+        <v>1364783</v>
       </c>
       <c r="I4" t="n">
-        <v>40.105</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13038</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.384</v>
-      </c>
+        <v>40.219</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
       <c r="L4" t="n">
-        <v>4261</v>
+        <v>3862</v>
       </c>
       <c r="M4" t="n">
-        <v>0.126</v>
+        <v>0.114</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1113</v>
+        <v>0.0992</v>
       </c>
       <c r="O4" t="n">
-        <v>9</v>
+        <v>10.1</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -3519,7 +3500,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3529,31 +3510,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="H6" t="n">
-        <v>31955052</v>
+        <v>32228310</v>
       </c>
       <c r="I6" t="n">
-        <v>700.679</v>
+        <v>706.671</v>
       </c>
       <c r="J6" t="n">
-        <v>99402</v>
+        <v>75469</v>
       </c>
       <c r="K6" t="n">
-        <v>2.18</v>
+        <v>1.655</v>
       </c>
       <c r="L6" t="n">
-        <v>109231</v>
+        <v>96038</v>
       </c>
       <c r="M6" t="n">
-        <v>2.395</v>
+        <v>2.106</v>
       </c>
       <c r="N6" t="n">
-        <v>0.667</v>
+        <v>0.636</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="P6" t="s">
         <v>49</v>
@@ -3576,7 +3557,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44582</v>
+        <v>44589</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -3586,32 +3567,28 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="H7" t="n">
-        <v>2663980</v>
+        <v>2709073</v>
       </c>
       <c r="I7" t="n">
-        <v>897.529</v>
+        <v>912.721</v>
       </c>
       <c r="J7" t="n">
-        <v>3605</v>
+        <v>8707</v>
       </c>
       <c r="K7" t="n">
-        <v>1.215</v>
+        <v>2.933</v>
       </c>
       <c r="L7" t="n">
-        <v>4745</v>
+        <v>6442</v>
       </c>
       <c r="M7" t="n">
-        <v>1.599</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.0865</v>
-      </c>
-      <c r="O7" t="n">
-        <v>11.6</v>
-      </c>
+        <v>2.17</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7"/>
       <c r="P7" t="s">
         <v>42</v>
       </c>
@@ -3633,7 +3610,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3645,25 +3622,25 @@
         <v>61</v>
       </c>
       <c r="G8" t="n">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H8" t="n">
-        <v>60459462</v>
+        <v>60702677</v>
       </c>
       <c r="I8" t="n">
-        <v>2344.461</v>
+        <v>2353.892</v>
       </c>
       <c r="J8" t="n">
-        <v>161570</v>
+        <v>102759</v>
       </c>
       <c r="K8" t="n">
-        <v>6.265</v>
+        <v>3.985</v>
       </c>
       <c r="L8" t="n">
-        <v>156675</v>
+        <v>138036</v>
       </c>
       <c r="M8" t="n">
-        <v>6.075</v>
+        <v>5.353</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -3688,7 +3665,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="D9" t="s">
         <v>66</v>
@@ -3698,25 +3675,21 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H9" t="n">
-        <v>138357196</v>
+        <v>140735023</v>
       </c>
       <c r="I9" t="n">
-        <v>15299.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>791137</v>
-      </c>
-      <c r="K9" t="n">
-        <v>87.485</v>
-      </c>
+        <v>15562.745</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
       <c r="L9" t="n">
-        <v>684604</v>
+        <v>737857</v>
       </c>
       <c r="M9" t="n">
-        <v>75.705</v>
+        <v>81.594</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3741,7 +3714,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
@@ -3751,24 +3724,32 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H10" t="n">
-        <v>6094493</v>
+        <v>6119861</v>
       </c>
       <c r="I10" t="n">
-        <v>596.135</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10"/>
+        <v>598.616</v>
+      </c>
+      <c r="J10" t="n">
+        <v>25368</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.481</v>
+      </c>
       <c r="L10" t="n">
-        <v>8645</v>
+        <v>10611</v>
       </c>
       <c r="M10" t="n">
-        <v>0.846</v>
-      </c>
-      <c r="N10"/>
-      <c r="O10"/>
+        <v>1.038</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1906</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5.2</v>
+      </c>
       <c r="P10" t="s">
         <v>72</v>
       </c>
@@ -3790,7 +3771,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3800,31 +3781,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H11" t="n">
-        <v>205879</v>
+        <v>207347</v>
       </c>
       <c r="I11" t="n">
-        <v>518.699</v>
+        <v>522.398</v>
       </c>
       <c r="J11" t="n">
-        <v>429</v>
+        <v>882</v>
       </c>
       <c r="K11" t="n">
-        <v>1.081</v>
+        <v>2.222</v>
       </c>
       <c r="L11" t="n">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="M11" t="n">
-        <v>1.469</v>
+        <v>1.421</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2985</v>
+        <v>0.287</v>
       </c>
       <c r="O11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3847,7 +3828,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3857,21 +3838,21 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H12" t="n">
-        <v>8638049</v>
+        <v>8666060</v>
       </c>
       <c r="I12" t="n">
-        <v>4940.842</v>
+        <v>4956.864</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>26150</v>
+        <v>23584</v>
       </c>
       <c r="M12" t="n">
-        <v>14.957</v>
+        <v>13.49</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -3896,7 +3877,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
@@ -3906,32 +3887,28 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="H13" t="n">
-        <v>12143237</v>
+        <v>12337495</v>
       </c>
       <c r="I13" t="n">
-        <v>73.019</v>
+        <v>74.187</v>
       </c>
       <c r="J13" t="n">
-        <v>45807</v>
+        <v>46268</v>
       </c>
       <c r="K13" t="n">
-        <v>0.275</v>
+        <v>0.278</v>
       </c>
       <c r="L13" t="n">
-        <v>38469</v>
+        <v>44176</v>
       </c>
       <c r="M13" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.2807</v>
-      </c>
-      <c r="O13" t="n">
-        <v>3.6</v>
-      </c>
+        <v>0.266</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13"/>
       <c r="P13" t="s">
         <v>90</v>
       </c>
@@ -3953,7 +3930,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="D14" t="s">
         <v>94</v>
@@ -3963,27 +3940,27 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H14" t="n">
-        <v>11509291</v>
+        <v>11571634</v>
       </c>
       <c r="I14" t="n">
-        <v>1218.834</v>
+        <v>1225.437</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>19838</v>
+        <v>23210</v>
       </c>
       <c r="M14" t="n">
-        <v>2.101</v>
+        <v>2.458</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0872</v>
+        <v>0.0799</v>
       </c>
       <c r="O14" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="P14" t="s">
         <v>96</v>
@@ -4006,7 +3983,7 @@
         <v>100</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
@@ -4016,28 +3993,28 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H15" t="n">
-        <v>29572551</v>
+        <v>29867771</v>
       </c>
       <c r="I15" t="n">
-        <v>2542.271</v>
+        <v>2567.651</v>
       </c>
       <c r="J15" t="n">
-        <v>110080</v>
+        <v>141480</v>
       </c>
       <c r="K15" t="n">
-        <v>9.463</v>
+        <v>12.163</v>
       </c>
       <c r="L15" t="n">
-        <v>117598</v>
+        <v>120286</v>
       </c>
       <c r="M15" t="n">
-        <v>10.11</v>
+        <v>10.341</v>
       </c>
       <c r="N15" t="n">
-        <v>0.461</v>
+        <v>0.463</v>
       </c>
       <c r="O15" t="n">
         <v>2.2</v>
@@ -4063,7 +4040,7 @@
         <v>107</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44575</v>
+        <v>44587</v>
       </c>
       <c r="D16" t="s">
         <v>108</v>
@@ -4073,27 +4050,27 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" t="n">
-        <v>418748</v>
+        <v>450406</v>
       </c>
       <c r="I16" t="n">
-        <v>1034.163</v>
+        <v>1112.347</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16" t="n">
-        <v>2993</v>
+        <v>2638</v>
       </c>
       <c r="M16" t="n">
-        <v>7.392</v>
+        <v>6.515</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2296</v>
+        <v>0.2661</v>
       </c>
       <c r="O16" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="P16" t="s">
         <v>109</v>
@@ -4161,7 +4138,7 @@
         <v>118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="D18" t="s">
         <v>119</v>
@@ -4171,32 +4148,28 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H18" t="n">
-        <v>2077195</v>
+        <v>1407254</v>
       </c>
       <c r="I18" t="n">
-        <v>2663.412</v>
+        <v>1804.403</v>
       </c>
       <c r="J18" t="n">
-        <v>91287</v>
+        <v>6203</v>
       </c>
       <c r="K18" t="n">
-        <v>117.05</v>
+        <v>7.954</v>
       </c>
       <c r="L18" t="n">
-        <v>69118</v>
+        <v>6668</v>
       </c>
       <c r="M18" t="n">
-        <v>88.624</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="O18" t="n">
-        <v>652.1</v>
-      </c>
+        <v>8.55</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18"/>
       <c r="P18" t="s">
         <v>42</v>
       </c>
@@ -4330,7 +4303,7 @@
         <v>137</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44582</v>
+        <v>44588</v>
       </c>
       <c r="D21" t="s">
         <v>35</v>
@@ -4340,27 +4313,27 @@
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H21" t="n">
-        <v>2081962</v>
+        <v>2108285</v>
       </c>
       <c r="I21" t="n">
-        <v>868.483</v>
+        <v>879.463</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21" t="n">
-        <v>7185</v>
+        <v>4787</v>
       </c>
       <c r="M21" t="n">
-        <v>2.997</v>
+        <v>1.997</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1246</v>
+        <v>0.2029</v>
       </c>
       <c r="O21" t="n">
-        <v>8</v>
+        <v>4.9</v>
       </c>
       <c r="P21" t="s">
         <v>36</v>
@@ -4434,7 +4407,7 @@
         <v>146</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="D23" t="s">
         <v>147</v>
@@ -4444,24 +4417,32 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H23" t="n">
-        <v>8284060</v>
+        <v>8359584</v>
       </c>
       <c r="I23" t="n">
-        <v>1201.171</v>
-      </c>
-      <c r="J23"/>
-      <c r="K23"/>
+        <v>1212.122</v>
+      </c>
+      <c r="J23" t="n">
+        <v>75524</v>
+      </c>
+      <c r="K23" t="n">
+        <v>10.951</v>
+      </c>
       <c r="L23" t="n">
-        <v>30918</v>
+        <v>35579</v>
       </c>
       <c r="M23" t="n">
-        <v>4.483</v>
-      </c>
-      <c r="N23"/>
-      <c r="O23"/>
+        <v>5.159</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4</v>
+      </c>
       <c r="P23" t="s">
         <v>149</v>
       </c>
@@ -4483,7 +4464,7 @@
         <v>153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -4493,27 +4474,27 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
-        <v>307832</v>
+        <v>308041</v>
       </c>
       <c r="I24" t="n">
-        <v>14.32</v>
+        <v>14.329</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M24" t="n">
         <v>0.015</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1147</v>
+        <v>0.0696</v>
       </c>
       <c r="O24" t="n">
-        <v>8.7</v>
+        <v>14.4</v>
       </c>
       <c r="P24" t="s">
         <v>36</v>
@@ -4536,7 +4517,7 @@
         <v>156</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -4546,31 +4527,27 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
-        <v>1336688</v>
+        <v>1340190</v>
       </c>
       <c r="I25" t="n">
-        <v>109.069</v>
-      </c>
-      <c r="J25" t="n">
-        <v>6394</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.522</v>
-      </c>
+        <v>109.355</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
       <c r="L25" t="n">
-        <v>3371</v>
+        <v>2712</v>
       </c>
       <c r="M25" t="n">
-        <v>0.275</v>
+        <v>0.221</v>
       </c>
       <c r="N25" t="n">
-        <v>0.017</v>
+        <v>0.0209</v>
       </c>
       <c r="O25" t="n">
-        <v>58.7</v>
+        <v>47.8</v>
       </c>
       <c r="P25" t="s">
         <v>36</v>
@@ -4677,7 +4654,7 @@
         <v>1.624</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0721</v>
+        <v>0.072</v>
       </c>
       <c r="O27" t="n">
         <v>13.9</v>
@@ -4703,7 +4680,7 @@
         <v>169</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="D28" t="s">
         <v>165</v>
@@ -4713,31 +4690,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="H28" t="n">
-        <v>55992406</v>
+        <v>56237733</v>
       </c>
       <c r="I28" t="n">
-        <v>1470.856</v>
+        <v>1477.3</v>
       </c>
       <c r="J28" t="n">
-        <v>211030</v>
+        <v>98748</v>
       </c>
       <c r="K28" t="n">
-        <v>5.544</v>
+        <v>2.594</v>
       </c>
       <c r="L28" t="n">
-        <v>108249</v>
+        <v>90707</v>
       </c>
       <c r="M28" t="n">
-        <v>2.844</v>
+        <v>2.383</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1139</v>
+        <v>0.2044</v>
       </c>
       <c r="O28" t="n">
-        <v>8.8</v>
+        <v>4.9</v>
       </c>
       <c r="P28" t="s">
         <v>166</v>
@@ -4760,7 +4737,7 @@
         <v>172</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D29" t="s">
         <v>173</v>
@@ -4770,15 +4747,15 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="n">
-        <v>1012</v>
+        <v>913</v>
       </c>
       <c r="K29" t="n">
-        <v>1.801</v>
+        <v>1.625</v>
       </c>
       <c r="L29"/>
       <c r="M29"/>
@@ -4911,7 +4888,7 @@
         <v>184</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="D32" t="s">
         <v>185</v>
@@ -4921,30 +4898,30 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H32" t="n">
-        <v>29077102</v>
+        <v>29316380</v>
       </c>
       <c r="I32" t="n">
-        <v>1513.458</v>
+        <v>1525.912</v>
       </c>
       <c r="J32" t="n">
-        <v>91398</v>
+        <v>125215</v>
       </c>
       <c r="K32" t="n">
-        <v>4.757</v>
+        <v>6.517</v>
       </c>
       <c r="L32" t="n">
-        <v>93678</v>
+        <v>99327</v>
       </c>
       <c r="M32" t="n">
-        <v>4.876</v>
+        <v>5.17</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q32" t="s">
         <v>185</v>
@@ -4953,24 +4930,24 @@
         <v>50</v>
       </c>
       <c r="S32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" t="s">
         <v>189</v>
-      </c>
-      <c r="B33" t="s">
-        <v>190</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>44049</v>
       </c>
       <c r="D33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" t="s">
         <v>191</v>
-      </c>
-      <c r="E33" t="s">
-        <v>192</v>
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
@@ -4997,141 +4974,141 @@
         <v>41741.2</v>
       </c>
       <c r="P33" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q33" t="s">
         <v>193</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>194</v>
       </c>
       <c r="R33" t="s">
         <v>50</v>
       </c>
       <c r="S33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" t="s">
         <v>196</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D34" t="s">
         <v>197</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>44587</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>198</v>
-      </c>
-      <c r="E34" t="s">
-        <v>199</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H34" t="n">
-        <v>31815726</v>
+        <v>31882163</v>
       </c>
       <c r="I34" t="n">
-        <v>620.603</v>
+        <v>621.899</v>
       </c>
       <c r="J34" t="n">
-        <v>66955</v>
+        <v>66437</v>
       </c>
       <c r="K34" t="n">
-        <v>1.306</v>
+        <v>1.296</v>
       </c>
       <c r="L34" t="n">
-        <v>74251</v>
+        <v>70574</v>
       </c>
       <c r="M34" t="n">
-        <v>1.448</v>
+        <v>1.377</v>
       </c>
       <c r="N34" t="n">
-        <v>0.415</v>
+        <v>0.416</v>
       </c>
       <c r="O34" t="n">
         <v>2.4</v>
       </c>
       <c r="P34" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q34" t="s">
         <v>199</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>200</v>
       </c>
       <c r="R34" t="s">
         <v>50</v>
       </c>
       <c r="S34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" t="s">
         <v>202</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D35" t="s">
         <v>203</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>44581</v>
-      </c>
-      <c r="D35" t="s">
-        <v>204</v>
       </c>
       <c r="E35" t="s">
         <v>42</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H35" t="n">
-        <v>2546621</v>
+        <v>2498483</v>
       </c>
       <c r="I35" t="n">
-        <v>495.543</v>
+        <v>486.176</v>
       </c>
       <c r="J35" t="n">
-        <v>87518</v>
+        <v>11691</v>
       </c>
       <c r="K35" t="n">
-        <v>17.03</v>
+        <v>2.275</v>
       </c>
       <c r="L35" t="n">
-        <v>22530</v>
+        <v>11669</v>
       </c>
       <c r="M35" t="n">
-        <v>4.384</v>
+        <v>2.271</v>
       </c>
       <c r="N35" t="n">
-        <v>0.193</v>
+        <v>0.399</v>
       </c>
       <c r="O35" t="n">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R35" t="s">
         <v>31</v>
       </c>
       <c r="S35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s">
         <v>207</v>
       </c>
-      <c r="B36" t="s">
-        <v>208</v>
-      </c>
       <c r="C36" s="1" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="D36" t="s">
         <v>35</v>
@@ -5141,31 +5118,27 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H36" t="n">
-        <v>1342440</v>
+        <v>1344834</v>
       </c>
       <c r="I36" t="n">
-        <v>49.621</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1388</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.051</v>
-      </c>
+        <v>49.71</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36"/>
       <c r="L36" t="n">
-        <v>2650</v>
+        <v>2333</v>
       </c>
       <c r="M36" t="n">
-        <v>0.098</v>
+        <v>0.086</v>
       </c>
       <c r="N36" t="n">
-        <v>0.05</v>
+        <v>0.0569</v>
       </c>
       <c r="O36" t="n">
-        <v>20</v>
+        <v>17.6</v>
       </c>
       <c r="P36" t="s">
         <v>36</v>
@@ -5177,80 +5150,80 @@
         <v>24</v>
       </c>
       <c r="S36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" t="s">
         <v>210</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D37" t="s">
         <v>211</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>44587</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>212</v>
-      </c>
-      <c r="E37" t="s">
-        <v>213</v>
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H37" t="n">
-        <v>4155056</v>
+        <v>4195015</v>
       </c>
       <c r="I37" t="n">
-        <v>1017.983</v>
+        <v>1027.773</v>
       </c>
       <c r="J37" t="n">
-        <v>22524</v>
+        <v>19161</v>
       </c>
       <c r="K37" t="n">
-        <v>5.518</v>
+        <v>4.694</v>
       </c>
       <c r="L37" t="n">
-        <v>17250</v>
+        <v>17219</v>
       </c>
       <c r="M37" t="n">
-        <v>4.226</v>
+        <v>4.219</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q37" t="s">
         <v>213</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>214</v>
       </c>
       <c r="R37" t="s">
         <v>31</v>
       </c>
       <c r="S37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" t="s">
         <v>216</v>
-      </c>
-      <c r="B38" t="s">
-        <v>217</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>44381</v>
       </c>
       <c r="D38" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38" t="s">
         <v>218</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>219</v>
-      </c>
-      <c r="F38" t="s">
-        <v>220</v>
       </c>
       <c r="G38" t="n">
         <v>470</v>
@@ -5280,147 +5253,147 @@
         <v>11.4</v>
       </c>
       <c r="P38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R38" t="s">
         <v>50</v>
       </c>
       <c r="S38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
         <v>223</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D39" t="s">
         <v>224</v>
-      </c>
-      <c r="C39" s="1" t="n">
-        <v>44583</v>
-      </c>
-      <c r="D39" t="s">
-        <v>225</v>
       </c>
       <c r="E39" t="s">
         <v>42</v>
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="H39" t="n">
-        <v>21887209</v>
+        <v>22222146</v>
       </c>
       <c r="I39" t="n">
-        <v>24427.552</v>
+        <v>24801.364</v>
       </c>
       <c r="J39" t="n">
-        <v>82187</v>
+        <v>92276</v>
       </c>
       <c r="K39" t="n">
-        <v>91.726</v>
+        <v>102.986</v>
       </c>
       <c r="L39" t="n">
-        <v>104876</v>
+        <v>90320</v>
       </c>
       <c r="M39" t="n">
-        <v>117.048</v>
+        <v>100.803</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0184</v>
+        <v>0.017</v>
       </c>
       <c r="O39" t="n">
-        <v>54.4</v>
+        <v>58.9</v>
       </c>
       <c r="P39" t="s">
         <v>42</v>
       </c>
       <c r="Q39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R39" t="s">
         <v>50</v>
       </c>
       <c r="S39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40" t="s">
         <v>227</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D40" t="s">
         <v>228</v>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>44586</v>
-      </c>
-      <c r="D40" t="s">
-        <v>229</v>
       </c>
       <c r="E40" t="s">
         <v>42</v>
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H40" t="n">
-        <v>48421474</v>
+        <v>48778657</v>
       </c>
       <c r="I40" t="n">
-        <v>4515.011</v>
+        <v>4548.316</v>
       </c>
       <c r="J40" t="n">
-        <v>131137</v>
+        <v>142900</v>
       </c>
       <c r="K40" t="n">
-        <v>12.228</v>
+        <v>13.325</v>
       </c>
       <c r="L40" t="n">
-        <v>125622</v>
+        <v>138034</v>
       </c>
       <c r="M40" t="n">
-        <v>11.713</v>
+        <v>12.871</v>
       </c>
       <c r="N40" t="n">
-        <v>0.206</v>
+        <v>0.225</v>
       </c>
       <c r="O40" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="P40" t="s">
         <v>42</v>
       </c>
       <c r="Q40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R40" t="s">
         <v>50</v>
       </c>
       <c r="S40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" t="s">
         <v>231</v>
-      </c>
-      <c r="B41" t="s">
-        <v>232</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>44428</v>
       </c>
       <c r="D41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" t="s">
         <v>233</v>
-      </c>
-      <c r="E41" t="s">
-        <v>234</v>
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
@@ -5447,90 +5420,90 @@
         <v>15.7</v>
       </c>
       <c r="P41" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q41" t="s">
         <v>234</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>235</v>
       </c>
       <c r="R41" t="s">
         <v>121</v>
       </c>
       <c r="S41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" t="s">
         <v>237</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D42" t="s">
         <v>238</v>
       </c>
-      <c r="C42" s="1" t="n">
-        <v>44585</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>239</v>
-      </c>
-      <c r="E42" t="s">
-        <v>240</v>
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H42" t="n">
-        <v>58211241</v>
+        <v>58643556</v>
       </c>
       <c r="I42" t="n">
-        <v>10013.456</v>
+        <v>10087.822</v>
       </c>
       <c r="J42" t="n">
-        <v>257002</v>
+        <v>200620</v>
       </c>
       <c r="K42" t="n">
-        <v>44.209</v>
+        <v>34.511</v>
       </c>
       <c r="L42" t="n">
-        <v>221706</v>
+        <v>217695</v>
       </c>
       <c r="M42" t="n">
-        <v>38.138</v>
+        <v>37.448</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1793</v>
+        <v>0.1964</v>
       </c>
       <c r="O42" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="P42" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q42" t="s">
         <v>240</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>241</v>
       </c>
       <c r="R42" t="s">
         <v>50</v>
       </c>
       <c r="S42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B43" t="s">
         <v>243</v>
-      </c>
-      <c r="B43" t="s">
-        <v>244</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>44495</v>
       </c>
       <c r="D43" t="s">
+        <v>244</v>
+      </c>
+      <c r="E43" t="s">
         <v>245</v>
-      </c>
-      <c r="E43" t="s">
-        <v>246</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
@@ -5557,88 +5530,88 @@
         <v>6.4</v>
       </c>
       <c r="P43" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q43" t="s">
         <v>246</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>247</v>
       </c>
       <c r="R43" t="s">
         <v>121</v>
       </c>
       <c r="S43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>248</v>
+      </c>
+      <c r="B44" t="s">
         <v>249</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D44" t="s">
         <v>250</v>
       </c>
-      <c r="C44" s="1" t="n">
-        <v>44584</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>251</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>252</v>
       </c>
-      <c r="F44" t="s">
-        <v>253</v>
-      </c>
       <c r="G44" t="n">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="H44" t="n">
-        <v>2257495</v>
+        <v>2296176</v>
       </c>
       <c r="I44" t="n">
-        <v>126.198</v>
+        <v>128.361</v>
       </c>
       <c r="J44" t="n">
-        <v>9720</v>
+        <v>14893</v>
       </c>
       <c r="K44" t="n">
-        <v>0.543</v>
+        <v>0.833</v>
       </c>
       <c r="L44" t="n">
-        <v>12058</v>
+        <v>10587</v>
       </c>
       <c r="M44" t="n">
-        <v>0.674</v>
+        <v>0.592</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q44" t="s">
         <v>254</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>255</v>
       </c>
       <c r="R44" t="s">
         <v>31</v>
       </c>
       <c r="S44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" t="s">
         <v>257</v>
-      </c>
-      <c r="B45" t="s">
-        <v>258</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>44308</v>
       </c>
       <c r="D45" t="s">
+        <v>258</v>
+      </c>
+      <c r="E45" t="s">
         <v>259</v>
-      </c>
-      <c r="E45" t="s">
-        <v>260</v>
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
@@ -5669,133 +5642,133 @@
         <v>15.2</v>
       </c>
       <c r="P45" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q45" t="s">
         <v>260</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>261</v>
       </c>
       <c r="R45" t="s">
         <v>50</v>
       </c>
       <c r="S45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>262</v>
+      </c>
+      <c r="B46" t="s">
         <v>263</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D46" t="s">
         <v>264</v>
       </c>
-      <c r="C46" s="1" t="n">
-        <v>44587</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>265</v>
-      </c>
-      <c r="E46" t="s">
-        <v>266</v>
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H46" t="n">
-        <v>277129</v>
+        <v>277571</v>
       </c>
       <c r="I46" t="n">
-        <v>191.138</v>
+        <v>191.443</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="n">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M46" t="n">
-        <v>0.2</v>
+        <v>0.208</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R46" t="s">
         <v>24</v>
       </c>
       <c r="S46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47" t="s">
         <v>269</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D47" t="s">
         <v>270</v>
       </c>
-      <c r="C47" s="1" t="n">
-        <v>44586</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>271</v>
-      </c>
-      <c r="E47" t="s">
-        <v>272</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H47" t="n">
-        <v>2776090</v>
+        <v>2801791</v>
       </c>
       <c r="I47" t="n">
-        <v>2094.865</v>
+        <v>2114.259</v>
       </c>
       <c r="J47" t="n">
-        <v>12981</v>
+        <v>12584</v>
       </c>
       <c r="K47" t="n">
-        <v>9.796</v>
+        <v>9.496</v>
       </c>
       <c r="L47" t="n">
-        <v>12281</v>
+        <v>12292</v>
       </c>
       <c r="M47" t="n">
-        <v>9.267</v>
+        <v>9.276</v>
       </c>
       <c r="N47" t="n">
-        <v>0.3502</v>
+        <v>0.4089</v>
       </c>
       <c r="O47" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="P47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R47" t="s">
         <v>50</v>
       </c>
       <c r="S47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>273</v>
+      </c>
+      <c r="B48" t="s">
         <v>274</v>
       </c>
-      <c r="B48" t="s">
-        <v>275</v>
-      </c>
       <c r="C48" s="1" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="D48" t="s">
         <v>35</v>
@@ -5805,60 +5778,56 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H48" t="n">
-        <v>4303868</v>
+        <v>4317909</v>
       </c>
       <c r="I48" t="n">
-        <v>36.512</v>
-      </c>
-      <c r="J48" t="n">
-        <v>6002</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.051</v>
-      </c>
+        <v>36.631</v>
+      </c>
+      <c r="J48"/>
+      <c r="K48"/>
       <c r="L48" t="n">
-        <v>7486</v>
+        <v>7282</v>
       </c>
       <c r="M48" t="n">
-        <v>0.064</v>
+        <v>0.062</v>
       </c>
       <c r="N48" t="n">
-        <v>0.068</v>
+        <v>0.0651</v>
       </c>
       <c r="O48" t="n">
-        <v>14.7</v>
+        <v>15.4</v>
       </c>
       <c r="P48" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q48" t="s">
         <v>276</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>277</v>
       </c>
       <c r="R48" t="s">
         <v>50</v>
       </c>
       <c r="S48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>278</v>
+      </c>
+      <c r="B49" t="s">
         <v>279</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="1" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D49" t="s">
         <v>280</v>
       </c>
-      <c r="C49" s="1" t="n">
-        <v>44581</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>281</v>
-      </c>
-      <c r="E49" t="s">
-        <v>282</v>
       </c>
       <c r="F49"/>
       <c r="G49"/>
@@ -5867,7 +5836,7 @@
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>7331660</v>
+        <v>7855612</v>
       </c>
       <c r="M49"/>
       <c r="N49"/>
@@ -5879,72 +5848,72 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50" t="s">
         <v>283</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D50" t="s">
         <v>284</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>44586</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>285</v>
-      </c>
-      <c r="E50" t="s">
-        <v>286</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H50" t="n">
-        <v>733561</v>
+        <v>737450</v>
       </c>
       <c r="I50" t="n">
-        <v>14954.457</v>
+        <v>15033.739</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>4029</v>
+        <v>3563</v>
       </c>
       <c r="M50" t="n">
-        <v>82.136</v>
+        <v>72.636</v>
       </c>
       <c r="N50" t="n">
-        <v>0.1583</v>
+        <v>0.2187</v>
       </c>
       <c r="O50" t="n">
-        <v>6.3</v>
+        <v>4.6</v>
       </c>
       <c r="P50" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q50" t="s">
         <v>286</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>287</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>288</v>
-      </c>
-      <c r="S50" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>289</v>
+      </c>
+      <c r="B51" t="s">
         <v>290</v>
-      </c>
-      <c r="B51" t="s">
-        <v>291</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>44402</v>
       </c>
       <c r="D51" t="s">
+        <v>291</v>
+      </c>
+      <c r="E51" t="s">
         <v>292</v>
-      </c>
-      <c r="E51" t="s">
-        <v>293</v>
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
@@ -5975,353 +5944,347 @@
         <v>4.2</v>
       </c>
       <c r="P51" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q51" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R51" t="s">
         <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>294</v>
+      </c>
+      <c r="B52" t="s">
         <v>295</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D52" t="s">
         <v>296</v>
       </c>
-      <c r="C52" s="1" t="n">
-        <v>44585</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>297</v>
-      </c>
-      <c r="E52" t="s">
-        <v>298</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H52" t="n">
-        <v>9346985</v>
+        <v>9396666</v>
       </c>
       <c r="I52" t="n">
-        <v>1684.639</v>
+        <v>1693.593</v>
       </c>
       <c r="J52" t="n">
-        <v>13594</v>
+        <v>19810</v>
       </c>
       <c r="K52" t="n">
-        <v>2.45</v>
+        <v>3.57</v>
       </c>
       <c r="L52" t="n">
-        <v>22334</v>
+        <v>20853</v>
       </c>
       <c r="M52" t="n">
-        <v>4.025</v>
+        <v>3.758</v>
       </c>
       <c r="N52" t="n">
-        <v>0.314</v>
+        <v>0.299</v>
       </c>
       <c r="O52" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P52" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q52" t="s">
         <v>299</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>300</v>
       </c>
       <c r="R52" t="s">
         <v>50</v>
       </c>
       <c r="S52" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>301</v>
+      </c>
+      <c r="B53" t="s">
         <v>302</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D53" t="s">
         <v>303</v>
       </c>
-      <c r="C53" s="1" t="n">
-        <v>44583</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>304</v>
-      </c>
-      <c r="E53" t="s">
-        <v>305</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H53" t="n">
-        <v>225573602</v>
+        <v>227619208</v>
       </c>
       <c r="I53" t="n">
-        <v>3345.697</v>
+        <v>3376.038</v>
       </c>
       <c r="J53" t="n">
-        <v>1022880</v>
+        <v>1691584</v>
       </c>
       <c r="K53" t="n">
-        <v>15.171</v>
+        <v>25.089</v>
       </c>
       <c r="L53" t="n">
-        <v>1276629</v>
+        <v>1259594</v>
       </c>
       <c r="M53" t="n">
-        <v>18.935</v>
+        <v>18.682</v>
       </c>
       <c r="N53" t="n">
-        <v>0.316</v>
+        <v>0.327</v>
       </c>
       <c r="O53" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q53" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R53" t="s">
         <v>31</v>
       </c>
       <c r="S53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>306</v>
+      </c>
+      <c r="B54" t="s">
         <v>307</v>
       </c>
-      <c r="B54" t="s">
-        <v>308</v>
-      </c>
       <c r="C54" s="1" t="n">
-        <v>44573</v>
+        <v>44588</v>
       </c>
       <c r="D54" t="s">
-        <v>309</v>
+        <v>35</v>
       </c>
       <c r="E54" t="s">
-        <v>310</v>
+        <v>36</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="n">
-        <v>1503932</v>
+        <v>1533345</v>
       </c>
       <c r="I54" t="n">
-        <v>659.958</v>
+        <v>672.865</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54" t="n">
-        <v>4802</v>
+        <v>1961</v>
       </c>
       <c r="M54" t="n">
-        <v>2.107</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0.0644</v>
-      </c>
-      <c r="O54" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0.861</v>
+      </c>
+      <c r="N54"/>
+      <c r="O54"/>
       <c r="P54" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q54" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R54" t="s">
         <v>24</v>
       </c>
       <c r="S54" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B55" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44556</v>
+        <v>44588</v>
       </c>
       <c r="D55" t="s">
-        <v>315</v>
+        <v>35</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H55" t="n">
-        <v>132861</v>
+        <v>138255</v>
       </c>
       <c r="I55" t="n">
-        <v>53.424</v>
+        <v>55.592</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55" t="n">
-        <v>287</v>
+        <v>169</v>
       </c>
       <c r="M55" t="n">
-        <v>0.115</v>
+        <v>0.068</v>
       </c>
       <c r="N55" t="n">
-        <v>0.0179</v>
-      </c>
-      <c r="O55" t="n">
-        <v>55.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O55"/>
       <c r="P55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q55" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R55" t="s">
         <v>121</v>
       </c>
       <c r="S55" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>316</v>
+      </c>
+      <c r="B56" t="s">
+        <v>317</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D56" t="s">
+        <v>318</v>
+      </c>
+      <c r="E56" t="s">
         <v>319</v>
-      </c>
-      <c r="B56" t="s">
-        <v>320</v>
-      </c>
-      <c r="C56" s="1" t="n">
-        <v>44587</v>
-      </c>
-      <c r="D56" t="s">
-        <v>321</v>
-      </c>
-      <c r="E56" t="s">
-        <v>322</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H56" t="n">
-        <v>12165527</v>
+        <v>12229939</v>
       </c>
       <c r="I56" t="n">
-        <v>3056.839</v>
+        <v>3073.024</v>
       </c>
       <c r="J56" t="n">
-        <v>78172</v>
+        <v>64412</v>
       </c>
       <c r="K56" t="n">
-        <v>19.642</v>
+        <v>16.185</v>
       </c>
       <c r="L56" t="n">
-        <v>29707</v>
+        <v>25381</v>
       </c>
       <c r="M56" t="n">
-        <v>7.464</v>
+        <v>6.377</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Q56" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="R56" t="s">
         <v>24</v>
       </c>
       <c r="S56" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>322</v>
+      </c>
+      <c r="B57" t="s">
+        <v>323</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D57" t="s">
+        <v>324</v>
+      </c>
+      <c r="E57" t="s">
         <v>325</v>
-      </c>
-      <c r="B57" t="s">
-        <v>326</v>
-      </c>
-      <c r="C57" s="1" t="n">
-        <v>44577</v>
-      </c>
-      <c r="D57" t="s">
-        <v>327</v>
-      </c>
-      <c r="E57" t="s">
-        <v>328</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H57" t="n">
-        <v>96957944</v>
+        <v>99456413</v>
       </c>
       <c r="I57" t="n">
-        <v>1155.631</v>
+        <v>1185.409</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57" t="n">
-        <v>292963</v>
+        <v>356699</v>
       </c>
       <c r="M57" t="n">
-        <v>3.492</v>
+        <v>4.251</v>
       </c>
       <c r="N57" t="n">
-        <v>0.244</v>
+        <v>0.323</v>
       </c>
       <c r="O57" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="P57" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q57" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="R57" t="s">
         <v>50</v>
       </c>
       <c r="S57" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="D58" t="s">
         <v>35</v>
@@ -6331,27 +6294,27 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H58" t="n">
-        <v>2215094</v>
+        <v>2222501</v>
       </c>
       <c r="I58" t="n">
-        <v>69.806</v>
+        <v>70.039</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58" t="n">
-        <v>3511</v>
+        <v>3945</v>
       </c>
       <c r="M58" t="n">
-        <v>0.111</v>
+        <v>0.124</v>
       </c>
       <c r="N58" t="n">
-        <v>0.0875</v>
+        <v>0.0544</v>
       </c>
       <c r="O58" t="n">
-        <v>11.4</v>
+        <v>18.4</v>
       </c>
       <c r="P58" t="s">
         <v>36</v>
@@ -6363,134 +6326,138 @@
         <v>24</v>
       </c>
       <c r="S58" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>331</v>
+      </c>
+      <c r="B59" t="s">
+        <v>332</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D59" t="s">
+        <v>333</v>
+      </c>
+      <c r="E59" t="s">
         <v>334</v>
-      </c>
-      <c r="B59" t="s">
-        <v>335</v>
-      </c>
-      <c r="C59" s="1" t="n">
-        <v>44587</v>
-      </c>
-      <c r="D59" t="s">
-        <v>336</v>
-      </c>
-      <c r="E59" t="s">
-        <v>337</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H59" t="n">
-        <v>55754145</v>
+        <v>55990083</v>
       </c>
       <c r="I59" t="n">
-        <v>5376.097</v>
+        <v>5398.848</v>
       </c>
       <c r="J59" t="n">
-        <v>190200</v>
+        <v>235938</v>
       </c>
       <c r="K59" t="n">
-        <v>18.34</v>
+        <v>22.75</v>
       </c>
       <c r="L59" t="n">
-        <v>289875</v>
+        <v>263906</v>
       </c>
       <c r="M59" t="n">
-        <v>27.951</v>
-      </c>
-      <c r="N59"/>
-      <c r="O59"/>
+        <v>25.447</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="O59" t="n">
+        <v>14.7</v>
+      </c>
       <c r="P59" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q59" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R59" t="s">
         <v>121</v>
       </c>
       <c r="S59" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>338</v>
+      </c>
+      <c r="B60" t="s">
+        <v>339</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D60" t="s">
+        <v>340</v>
+      </c>
+      <c r="E60" t="s">
         <v>341</v>
-      </c>
-      <c r="B60" t="s">
-        <v>342</v>
-      </c>
-      <c r="C60" s="1" t="n">
-        <v>44582</v>
-      </c>
-      <c r="D60" t="s">
-        <v>343</v>
-      </c>
-      <c r="E60" t="s">
-        <v>344</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="H60" t="n">
-        <v>3498120</v>
+        <v>3553975</v>
       </c>
       <c r="I60" t="n">
-        <v>191.679</v>
+        <v>194.74</v>
       </c>
       <c r="J60" t="n">
-        <v>16715</v>
+        <v>14440</v>
       </c>
       <c r="K60" t="n">
-        <v>0.916</v>
+        <v>0.791</v>
       </c>
       <c r="L60" t="n">
-        <v>12155</v>
+        <v>12605</v>
       </c>
       <c r="M60" t="n">
-        <v>0.666</v>
+        <v>0.691</v>
       </c>
       <c r="N60" t="n">
-        <v>0.2006</v>
+        <v>0.199</v>
       </c>
       <c r="O60" t="n">
         <v>5</v>
       </c>
       <c r="P60" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q60" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="R60" t="s">
         <v>31</v>
       </c>
       <c r="S60" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B61" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>44582</v>
       </c>
       <c r="D61" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E61" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
@@ -6517,33 +6484,33 @@
         <v>3</v>
       </c>
       <c r="P61" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q61" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="R61" t="s">
         <v>24</v>
       </c>
       <c r="S61" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B62" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>44568</v>
       </c>
       <c r="D62" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E62" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
@@ -6562,33 +6529,33 @@
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q62" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="R62" t="s">
         <v>24</v>
       </c>
       <c r="S62" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B63" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>44579</v>
       </c>
       <c r="D63" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E63" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
@@ -6608,91 +6575,95 @@
       <c r="M63" t="n">
         <v>14.725</v>
       </c>
-      <c r="N63"/>
-      <c r="O63"/>
+      <c r="N63" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="O63" t="n">
+        <v>4761.9</v>
+      </c>
       <c r="P63" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Q63" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="R63" t="s">
         <v>50</v>
       </c>
       <c r="S63" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>364</v>
+      </c>
+      <c r="B64" t="s">
+        <v>365</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D64" t="s">
+        <v>366</v>
+      </c>
+      <c r="E64" t="s">
         <v>367</v>
       </c>
-      <c r="B64" t="s">
+      <c r="F64" t="s">
         <v>368</v>
       </c>
-      <c r="C64" s="1" t="n">
-        <v>44587</v>
-      </c>
-      <c r="D64" t="s">
-        <v>369</v>
-      </c>
-      <c r="E64" t="s">
-        <v>370</v>
-      </c>
-      <c r="F64" t="s">
-        <v>371</v>
-      </c>
       <c r="G64" t="n">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="H64" t="n">
-        <v>9388322</v>
+        <v>9485888</v>
       </c>
       <c r="I64" t="n">
-        <v>974.482</v>
+        <v>984.61</v>
       </c>
       <c r="J64" t="n">
-        <v>26378</v>
+        <v>48756</v>
       </c>
       <c r="K64" t="n">
-        <v>2.738</v>
+        <v>5.061</v>
       </c>
       <c r="L64" t="n">
-        <v>38144</v>
+        <v>39256</v>
       </c>
       <c r="M64" t="n">
-        <v>3.959</v>
+        <v>4.075</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q64" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="R64" t="s">
         <v>121</v>
       </c>
       <c r="S64" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B65" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>44566</v>
       </c>
       <c r="D65" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E65" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
@@ -6719,141 +6690,141 @@
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Q65" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="R65" t="s">
         <v>50</v>
       </c>
       <c r="S65" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>376</v>
+      </c>
+      <c r="B66" t="s">
+        <v>377</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D66" t="s">
+        <v>378</v>
+      </c>
+      <c r="E66" t="s">
         <v>379</v>
       </c>
-      <c r="B66" t="s">
+      <c r="F66" t="s">
         <v>380</v>
       </c>
-      <c r="C66" s="1" t="n">
-        <v>44587</v>
-      </c>
-      <c r="D66" t="s">
-        <v>381</v>
-      </c>
-      <c r="E66" t="s">
-        <v>382</v>
-      </c>
-      <c r="F66" t="s">
-        <v>383</v>
-      </c>
       <c r="G66" t="n">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H66" t="n">
-        <v>720572178</v>
+        <v>723748555</v>
       </c>
       <c r="I66" t="n">
-        <v>517.129</v>
+        <v>519.409</v>
       </c>
       <c r="J66" t="n">
-        <v>1769745</v>
+        <v>1582307</v>
       </c>
       <c r="K66" t="n">
-        <v>1.27</v>
+        <v>1.136</v>
       </c>
       <c r="L66" t="n">
-        <v>1878647</v>
+        <v>1744231</v>
       </c>
       <c r="M66" t="n">
-        <v>1.348</v>
+        <v>1.252</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
       <c r="P66" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q66" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="R66" t="s">
         <v>121</v>
       </c>
       <c r="S66" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>382</v>
+      </c>
+      <c r="B67" t="s">
+        <v>383</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D67" t="s">
+        <v>384</v>
+      </c>
+      <c r="E67" t="s">
         <v>385</v>
-      </c>
-      <c r="B67" t="s">
-        <v>386</v>
-      </c>
-      <c r="C67" s="1" t="n">
-        <v>44587</v>
-      </c>
-      <c r="D67" t="s">
-        <v>387</v>
-      </c>
-      <c r="E67" t="s">
-        <v>388</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H67" t="n">
-        <v>47381797</v>
+        <v>47876593</v>
       </c>
       <c r="I67" t="n">
-        <v>171.448</v>
+        <v>173.239</v>
       </c>
       <c r="J67" t="n">
-        <v>244413</v>
+        <v>258145</v>
       </c>
       <c r="K67" t="n">
-        <v>0.884</v>
+        <v>0.934</v>
       </c>
       <c r="L67" t="n">
-        <v>191231</v>
+        <v>207101</v>
       </c>
       <c r="M67" t="n">
-        <v>0.692</v>
+        <v>0.749</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q67" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="R67" t="s">
         <v>31</v>
       </c>
       <c r="S67" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B68" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>44587</v>
       </c>
       <c r="D68" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E68" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
@@ -6873,425 +6844,433 @@
       <c r="M68" t="n">
         <v>1.08</v>
       </c>
-      <c r="N68"/>
-      <c r="O68"/>
+      <c r="N68" t="n">
+        <v>0.0739</v>
+      </c>
+      <c r="O68" t="n">
+        <v>13.5</v>
+      </c>
       <c r="P68" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q68" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="R68" t="s">
         <v>50</v>
       </c>
       <c r="S68" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>395</v>
+      </c>
+      <c r="B69" t="s">
+        <v>396</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D69" t="s">
+        <v>397</v>
+      </c>
+      <c r="E69" t="s">
         <v>398</v>
-      </c>
-      <c r="B69" t="s">
-        <v>399</v>
-      </c>
-      <c r="C69" s="1" t="n">
-        <v>44586</v>
-      </c>
-      <c r="D69" t="s">
-        <v>400</v>
-      </c>
-      <c r="E69" t="s">
-        <v>401</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H69" t="n">
-        <v>17267129</v>
+        <v>17324974</v>
       </c>
       <c r="I69" t="n">
-        <v>419.315</v>
+        <v>420.72</v>
       </c>
       <c r="J69" t="n">
-        <v>28281</v>
+        <v>28509</v>
       </c>
       <c r="K69" t="n">
-        <v>0.687</v>
+        <v>0.692</v>
       </c>
       <c r="L69" t="n">
-        <v>24236</v>
+        <v>25811</v>
       </c>
       <c r="M69" t="n">
-        <v>0.589</v>
+        <v>0.627</v>
       </c>
       <c r="N69" t="n">
-        <v>0.25</v>
+        <v>0.2553</v>
       </c>
       <c r="O69" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="P69" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q69" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="R69" t="s">
         <v>121</v>
       </c>
       <c r="S69" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>402</v>
+      </c>
+      <c r="B70" t="s">
+        <v>403</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D70" t="s">
+        <v>404</v>
+      </c>
+      <c r="E70" t="s">
         <v>405</v>
-      </c>
-      <c r="B70" t="s">
-        <v>406</v>
-      </c>
-      <c r="C70" s="1" t="n">
-        <v>44587</v>
-      </c>
-      <c r="D70" t="s">
-        <v>407</v>
-      </c>
-      <c r="E70" t="s">
-        <v>408</v>
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H70" t="n">
-        <v>10856331</v>
+        <v>10893689</v>
       </c>
       <c r="I70" t="n">
-        <v>2178.716</v>
+        <v>2186.213</v>
       </c>
       <c r="J70" t="n">
-        <v>17681</v>
+        <v>16573</v>
       </c>
       <c r="K70" t="n">
-        <v>3.548</v>
+        <v>3.326</v>
       </c>
       <c r="L70" t="n">
-        <v>17655</v>
+        <v>17113</v>
       </c>
       <c r="M70" t="n">
-        <v>3.543</v>
+        <v>3.434</v>
       </c>
       <c r="N70"/>
       <c r="O70"/>
       <c r="P70" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q70" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="R70" t="s">
         <v>50</v>
       </c>
       <c r="S70" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>408</v>
+      </c>
+      <c r="B71" t="s">
+        <v>409</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D71" t="s">
+        <v>410</v>
+      </c>
+      <c r="E71" t="s">
         <v>411</v>
-      </c>
-      <c r="B71" t="s">
-        <v>412</v>
-      </c>
-      <c r="C71" s="1" t="n">
-        <v>44587</v>
-      </c>
-      <c r="D71" t="s">
-        <v>413</v>
-      </c>
-      <c r="E71" t="s">
-        <v>414</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H71" t="n">
-        <v>44063635</v>
+        <v>44393791</v>
       </c>
       <c r="I71" t="n">
-        <v>4742.615</v>
+        <v>4778.15</v>
       </c>
       <c r="J71" t="n">
-        <v>216321</v>
+        <v>247337</v>
       </c>
       <c r="K71" t="n">
-        <v>23.283</v>
+        <v>26.621</v>
       </c>
       <c r="L71" t="n">
-        <v>357135</v>
+        <v>348095</v>
       </c>
       <c r="M71" t="n">
-        <v>38.439</v>
-      </c>
-      <c r="N71"/>
-      <c r="O71"/>
+        <v>37.466</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.2281</v>
+      </c>
+      <c r="O71" t="n">
+        <v>4.4</v>
+      </c>
       <c r="P71" t="s">
         <v>42</v>
       </c>
       <c r="Q71" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="R71" t="s">
         <v>50</v>
       </c>
       <c r="S71" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>413</v>
+      </c>
+      <c r="B72" t="s">
+        <v>414</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D72" t="s">
+        <v>415</v>
+      </c>
+      <c r="E72" t="s">
         <v>416</v>
       </c>
-      <c r="B72" t="s">
+      <c r="F72" t="s">
         <v>417</v>
       </c>
-      <c r="C72" s="1" t="n">
-        <v>44587</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="G72" t="n">
+        <v>703</v>
+      </c>
+      <c r="H72" t="n">
+        <v>167284466</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2771.103</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1039756</v>
+      </c>
+      <c r="K72" t="n">
+        <v>17.224</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1024638</v>
+      </c>
+      <c r="M72" t="n">
+        <v>16.973</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.1563</v>
+      </c>
+      <c r="O72" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="P72" t="s">
         <v>418</v>
       </c>
-      <c r="E72" t="s">
+      <c r="Q72" t="s">
         <v>419</v>
-      </c>
-      <c r="F72" t="s">
-        <v>420</v>
-      </c>
-      <c r="G72" t="n">
-        <v>702</v>
-      </c>
-      <c r="H72" t="n">
-        <v>166244710</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2753.879</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1097287</v>
-      </c>
-      <c r="K72" t="n">
-        <v>18.177</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1034711</v>
-      </c>
-      <c r="M72" t="n">
-        <v>17.14</v>
-      </c>
-      <c r="N72"/>
-      <c r="O72"/>
-      <c r="P72" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>422</v>
       </c>
       <c r="R72" t="s">
         <v>50</v>
       </c>
       <c r="S72" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>421</v>
+      </c>
+      <c r="B73" t="s">
+        <v>422</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D73" t="s">
+        <v>423</v>
+      </c>
+      <c r="E73" t="s">
         <v>424</v>
-      </c>
-      <c r="B73" t="s">
-        <v>425</v>
-      </c>
-      <c r="C73" s="1" t="n">
-        <v>44585</v>
-      </c>
-      <c r="D73" t="s">
-        <v>426</v>
-      </c>
-      <c r="E73" t="s">
-        <v>427</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H73" t="n">
-        <v>783185</v>
+        <v>788072</v>
       </c>
       <c r="I73" t="n">
-        <v>263.392</v>
+        <v>265.035</v>
       </c>
       <c r="J73" t="n">
-        <v>2812</v>
+        <v>2262</v>
       </c>
       <c r="K73" t="n">
-        <v>0.946</v>
+        <v>0.761</v>
       </c>
       <c r="L73" t="n">
-        <v>2800</v>
+        <v>2729</v>
       </c>
       <c r="M73" t="n">
-        <v>0.942</v>
+        <v>0.918</v>
       </c>
       <c r="N73" t="n">
-        <v>0.3696</v>
+        <v>0.3078</v>
       </c>
       <c r="O73" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="P73" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Q73" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="R73" t="s">
         <v>121</v>
       </c>
       <c r="S73" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>427</v>
+      </c>
+      <c r="B74" t="s">
+        <v>428</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D74" t="s">
+        <v>429</v>
+      </c>
+      <c r="E74" t="s">
         <v>430</v>
-      </c>
-      <c r="B74" t="s">
-        <v>431</v>
-      </c>
-      <c r="C74" s="1" t="n">
-        <v>44586</v>
-      </c>
-      <c r="D74" t="s">
-        <v>432</v>
-      </c>
-      <c r="E74" t="s">
-        <v>433</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H74" t="n">
-        <v>30857520</v>
+        <v>31361308</v>
       </c>
       <c r="I74" t="n">
-        <v>244.802</v>
+        <v>248.799</v>
       </c>
       <c r="J74" t="n">
-        <v>223773</v>
+        <v>214817</v>
       </c>
       <c r="K74" t="n">
-        <v>1.775</v>
+        <v>1.704</v>
       </c>
       <c r="L74" t="n">
-        <v>194920</v>
+        <v>207927</v>
       </c>
       <c r="M74" t="n">
-        <v>1.546</v>
+        <v>1.65</v>
       </c>
       <c r="N74" t="n">
-        <v>0.2554</v>
+        <v>0.2826</v>
       </c>
       <c r="O74" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="P74" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q74" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="R74" t="s">
         <v>31</v>
       </c>
       <c r="S74" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>433</v>
+      </c>
+      <c r="B75" t="s">
+        <v>434</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D75" t="s">
+        <v>435</v>
+      </c>
+      <c r="E75" t="s">
         <v>436</v>
-      </c>
-      <c r="B75" t="s">
-        <v>437</v>
-      </c>
-      <c r="C75" s="1" t="n">
-        <v>44585</v>
-      </c>
-      <c r="D75" t="s">
-        <v>438</v>
-      </c>
-      <c r="E75" t="s">
-        <v>439</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H75" t="n">
-        <v>14393752</v>
+        <v>14557578</v>
       </c>
       <c r="I75" t="n">
-        <v>1401.667</v>
+        <v>1417.621</v>
       </c>
       <c r="J75" t="n">
-        <v>49956</v>
+        <v>20171</v>
       </c>
       <c r="K75" t="n">
-        <v>4.865</v>
+        <v>1.964</v>
       </c>
       <c r="L75" t="n">
-        <v>37081</v>
+        <v>39737</v>
       </c>
       <c r="M75" t="n">
-        <v>3.611</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0.1792</v>
-      </c>
-      <c r="O75" t="n">
-        <v>5.6</v>
-      </c>
+        <v>3.87</v>
+      </c>
+      <c r="N75"/>
+      <c r="O75"/>
       <c r="P75" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Q75" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="R75" t="s">
         <v>50</v>
       </c>
       <c r="S75" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B76" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>44355</v>
       </c>
       <c r="D76" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E76" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
@@ -7322,27 +7301,27 @@
         <v>33.4</v>
       </c>
       <c r="P76" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="Q76" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="R76" t="s">
         <v>50</v>
       </c>
       <c r="S76" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B77" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="D77" t="s">
         <v>35</v>
@@ -7352,31 +7331,27 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H77" t="n">
-        <v>3189945</v>
+        <v>3200937</v>
       </c>
       <c r="I77" t="n">
-        <v>58.014</v>
-      </c>
-      <c r="J77" t="n">
-        <v>3659</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.067</v>
-      </c>
+        <v>58.214</v>
+      </c>
+      <c r="J77"/>
+      <c r="K77"/>
       <c r="L77" t="n">
-        <v>4799</v>
+        <v>4306</v>
       </c>
       <c r="M77" t="n">
-        <v>0.087</v>
+        <v>0.078</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0695</v>
+        <v>0.0511</v>
       </c>
       <c r="O77" t="n">
-        <v>14.4</v>
+        <v>19.6</v>
       </c>
       <c r="P77" t="s">
         <v>36</v>
@@ -7388,246 +7363,250 @@
         <v>50</v>
       </c>
       <c r="S77" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>447</v>
+      </c>
+      <c r="B78" t="s">
+        <v>448</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D78" t="s">
+        <v>449</v>
+      </c>
+      <c r="E78" t="s">
         <v>450</v>
-      </c>
-      <c r="B78" t="s">
-        <v>451</v>
-      </c>
-      <c r="C78" s="1" t="n">
-        <v>44584</v>
-      </c>
-      <c r="D78" t="s">
-        <v>452</v>
-      </c>
-      <c r="E78" t="s">
-        <v>453</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H78" t="n">
-        <v>1549089</v>
+        <v>1605736</v>
       </c>
       <c r="I78" t="n">
-        <v>869.242</v>
+        <v>901.028</v>
       </c>
       <c r="J78" t="n">
-        <v>8416</v>
+        <v>13928</v>
       </c>
       <c r="K78" t="n">
-        <v>4.722</v>
+        <v>7.815</v>
       </c>
       <c r="L78" t="n">
-        <v>9798</v>
+        <v>12694</v>
       </c>
       <c r="M78" t="n">
-        <v>5.498</v>
+        <v>7.123</v>
       </c>
       <c r="N78" t="n">
-        <v>0.2233</v>
+        <v>0.2517</v>
       </c>
       <c r="O78" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P78" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="Q78" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="R78" t="s">
         <v>24</v>
       </c>
       <c r="S78" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>453</v>
+      </c>
+      <c r="B79" t="s">
+        <v>454</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D79" t="s">
+        <v>455</v>
+      </c>
+      <c r="E79" t="s">
         <v>456</v>
-      </c>
-      <c r="B79" t="s">
-        <v>457</v>
-      </c>
-      <c r="C79" s="1" t="n">
-        <v>44586</v>
-      </c>
-      <c r="D79" t="s">
-        <v>458</v>
-      </c>
-      <c r="E79" t="s">
-        <v>459</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H79" t="n">
-        <v>6718482</v>
+        <v>6786442</v>
       </c>
       <c r="I79" t="n">
-        <v>1552.131</v>
+        <v>1567.832</v>
       </c>
       <c r="J79" t="n">
-        <v>29164</v>
+        <v>36377</v>
       </c>
       <c r="K79" t="n">
-        <v>6.738</v>
+        <v>8.404</v>
       </c>
       <c r="L79" t="n">
-        <v>29888</v>
+        <v>30292</v>
       </c>
       <c r="M79" t="n">
-        <v>6.905</v>
+        <v>6.998</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1581</v>
+        <v>0.1754</v>
       </c>
       <c r="O79" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="P79" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q79" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="R79" t="s">
         <v>50</v>
       </c>
       <c r="S79" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B80" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="D80" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E80" t="s">
         <v>42</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H80" t="n">
-        <v>940523</v>
+        <v>945425</v>
       </c>
       <c r="I80" t="n">
-        <v>127.453</v>
+        <v>128.118</v>
       </c>
       <c r="J80" t="n">
-        <v>3556</v>
+        <v>4902</v>
       </c>
       <c r="K80" t="n">
-        <v>0.482</v>
+        <v>0.664</v>
       </c>
       <c r="L80" t="n">
-        <v>2660</v>
+        <v>2718</v>
       </c>
       <c r="M80" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="N80"/>
-      <c r="O80"/>
+        <v>0.368</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="O80" t="n">
+        <v>4.9</v>
+      </c>
       <c r="P80" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Q80" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="R80" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S80" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>465</v>
+      </c>
+      <c r="B81" t="s">
+        <v>466</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D81" t="s">
+        <v>467</v>
+      </c>
+      <c r="E81" t="s">
         <v>468</v>
       </c>
-      <c r="B81" t="s">
+      <c r="F81" t="s">
         <v>469</v>
       </c>
-      <c r="C81" s="1" t="n">
-        <v>44587</v>
-      </c>
-      <c r="D81" t="s">
-        <v>470</v>
-      </c>
-      <c r="E81" t="s">
-        <v>471</v>
-      </c>
-      <c r="F81" t="s">
-        <v>472</v>
-      </c>
       <c r="G81" t="n">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H81" t="n">
-        <v>5944320</v>
+        <v>5995727</v>
       </c>
       <c r="I81" t="n">
-        <v>3184.001</v>
+        <v>3211.537</v>
       </c>
       <c r="J81" t="n">
-        <v>28009</v>
+        <v>25514</v>
       </c>
       <c r="K81" t="n">
-        <v>15.003</v>
+        <v>13.666</v>
       </c>
       <c r="L81" t="n">
-        <v>23200</v>
+        <v>23534</v>
       </c>
       <c r="M81" t="n">
-        <v>12.427</v>
+        <v>12.606</v>
       </c>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Q81" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="R81" t="s">
         <v>50</v>
       </c>
       <c r="S81" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B82" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>44370</v>
       </c>
       <c r="D82" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E82" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
@@ -7650,78 +7629,78 @@
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Q82" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="R82" t="s">
         <v>24</v>
       </c>
       <c r="S82" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>476</v>
+      </c>
+      <c r="B83" t="s">
+        <v>477</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D83" t="s">
+        <v>478</v>
+      </c>
+      <c r="E83" t="s">
         <v>479</v>
-      </c>
-      <c r="B83" t="s">
-        <v>480</v>
-      </c>
-      <c r="C83" s="1" t="n">
-        <v>44586</v>
-      </c>
-      <c r="D83" t="s">
-        <v>481</v>
-      </c>
-      <c r="E83" t="s">
-        <v>482</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83" t="n">
-        <v>8754</v>
+        <v>10894</v>
       </c>
       <c r="K83" t="n">
-        <v>1.258</v>
+        <v>1.566</v>
       </c>
       <c r="L83"/>
       <c r="M83"/>
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="Q83" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="R83" t="s">
         <v>121</v>
       </c>
       <c r="S83" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B84" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>44571</v>
       </c>
       <c r="D84" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E84" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
@@ -7752,33 +7731,33 @@
         <v>2.9</v>
       </c>
       <c r="P84" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Q84" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="R84" t="s">
         <v>50</v>
       </c>
       <c r="S84" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B85" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>44586</v>
       </c>
       <c r="D85" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E85" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
@@ -7809,90 +7788,90 @@
         <v>3</v>
       </c>
       <c r="P85" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="Q85" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="R85" t="s">
         <v>50</v>
       </c>
       <c r="S85" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>493</v>
+      </c>
+      <c r="B86" t="s">
+        <v>494</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D86" t="s">
+        <v>495</v>
+      </c>
+      <c r="E86" t="s">
         <v>496</v>
-      </c>
-      <c r="B86" t="s">
-        <v>497</v>
-      </c>
-      <c r="C86" s="1" t="n">
-        <v>44586</v>
-      </c>
-      <c r="D86" t="s">
-        <v>498</v>
-      </c>
-      <c r="E86" t="s">
-        <v>499</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H86" t="n">
-        <v>3953828</v>
+        <v>3961528</v>
       </c>
       <c r="I86" t="n">
-        <v>6228.325</v>
+        <v>6240.455</v>
       </c>
       <c r="J86" t="n">
-        <v>7894</v>
+        <v>7698</v>
       </c>
       <c r="K86" t="n">
-        <v>12.435</v>
+        <v>12.126</v>
       </c>
       <c r="L86" t="n">
-        <v>6308</v>
+        <v>6063</v>
       </c>
       <c r="M86" t="n">
-        <v>9.937</v>
+        <v>9.551</v>
       </c>
       <c r="N86" t="n">
-        <v>0.3553</v>
+        <v>0.3819</v>
       </c>
       <c r="O86" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="P86" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="Q86" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="R86" t="s">
         <v>50</v>
       </c>
       <c r="S86" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B87" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>44575</v>
       </c>
       <c r="D87" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E87" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
@@ -7928,18 +7907,18 @@
         <v>24</v>
       </c>
       <c r="S87" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B88" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="D88" t="s">
         <v>35</v>
@@ -7949,27 +7928,27 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H88" t="n">
-        <v>522048</v>
+        <v>524181</v>
       </c>
       <c r="I88" t="n">
-        <v>26.57</v>
+        <v>26.679</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88" t="n">
-        <v>1285</v>
+        <v>992</v>
       </c>
       <c r="M88" t="n">
-        <v>0.065</v>
+        <v>0.05</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1262</v>
+        <v>0.1182</v>
       </c>
       <c r="O88" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="P88" t="s">
         <v>36</v>
@@ -7981,187 +7960,187 @@
         <v>50</v>
       </c>
       <c r="S88" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>506</v>
+      </c>
+      <c r="B89" t="s">
+        <v>507</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D89" t="s">
+        <v>508</v>
+      </c>
+      <c r="E89" t="s">
         <v>509</v>
       </c>
-      <c r="B89" t="s">
+      <c r="F89" t="s">
         <v>510</v>
       </c>
-      <c r="C89" s="1" t="n">
-        <v>44585</v>
-      </c>
-      <c r="D89" t="s">
-        <v>511</v>
-      </c>
-      <c r="E89" t="s">
-        <v>512</v>
-      </c>
-      <c r="F89" t="s">
-        <v>513</v>
-      </c>
       <c r="G89" t="n">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H89" t="n">
-        <v>44555966</v>
+        <v>44679817</v>
       </c>
       <c r="I89" t="n">
-        <v>1359.4</v>
+        <v>1363.179</v>
       </c>
       <c r="J89" t="n">
-        <v>150638</v>
+        <v>123851</v>
       </c>
       <c r="K89" t="n">
-        <v>4.596</v>
+        <v>3.779</v>
       </c>
       <c r="L89" t="n">
-        <v>115219</v>
+        <v>117860</v>
       </c>
       <c r="M89" t="n">
-        <v>3.515</v>
+        <v>3.596</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0316</v>
+        <v>0.0319</v>
       </c>
       <c r="O89" t="n">
-        <v>31.7</v>
+        <v>31.4</v>
       </c>
       <c r="P89" t="s">
         <v>42</v>
       </c>
       <c r="Q89" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R89" t="s">
         <v>31</v>
       </c>
       <c r="S89" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>513</v>
+      </c>
+      <c r="B90" t="s">
+        <v>514</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D90" t="s">
+        <v>515</v>
+      </c>
+      <c r="E90" t="s">
         <v>516</v>
-      </c>
-      <c r="B90" t="s">
-        <v>517</v>
-      </c>
-      <c r="C90" s="1" t="n">
-        <v>44586</v>
-      </c>
-      <c r="D90" t="s">
-        <v>518</v>
-      </c>
-      <c r="E90" t="s">
-        <v>519</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H90" t="n">
-        <v>2017504</v>
+        <v>2031866</v>
       </c>
       <c r="I90" t="n">
-        <v>3711.239</v>
+        <v>3737.659</v>
       </c>
       <c r="J90" t="n">
-        <v>7584</v>
+        <v>7019</v>
       </c>
       <c r="K90" t="n">
-        <v>13.951</v>
+        <v>12.912</v>
       </c>
       <c r="L90" t="n">
-        <v>7344</v>
+        <v>7429</v>
       </c>
       <c r="M90" t="n">
-        <v>13.509</v>
+        <v>13.666</v>
       </c>
       <c r="N90" t="n">
-        <v>0.3148</v>
+        <v>0.3299</v>
       </c>
       <c r="O90" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P90" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="Q90" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="R90" t="s">
         <v>121</v>
       </c>
       <c r="S90" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>519</v>
+      </c>
+      <c r="B91" t="s">
+        <v>520</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="D91" t="s">
+        <v>521</v>
+      </c>
+      <c r="E91" t="s">
         <v>522</v>
-      </c>
-      <c r="B91" t="s">
-        <v>523</v>
-      </c>
-      <c r="C91" s="1" t="n">
-        <v>44587</v>
-      </c>
-      <c r="D91" t="s">
-        <v>524</v>
-      </c>
-      <c r="E91" t="s">
-        <v>525</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H91" t="n">
-        <v>1672329</v>
+        <v>1678499</v>
       </c>
       <c r="I91" t="n">
-        <v>3240.32</v>
+        <v>3252.275</v>
       </c>
       <c r="J91" t="n">
-        <v>3022</v>
+        <v>2812</v>
       </c>
       <c r="K91" t="n">
-        <v>5.855</v>
+        <v>5.449</v>
       </c>
       <c r="L91" t="n">
-        <v>3278</v>
+        <v>3115</v>
       </c>
       <c r="M91" t="n">
-        <v>6.351</v>
+        <v>6.036</v>
       </c>
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Q91" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="R91" t="s">
         <v>50</v>
       </c>
       <c r="S91" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B92" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="D92" t="s">
         <v>35</v>
@@ -8171,180 +8150,176 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H92" t="n">
-        <v>813897</v>
+        <v>820383</v>
       </c>
       <c r="I92" t="n">
-        <v>170.446</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2814</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.589</v>
-      </c>
+        <v>171.804</v>
+      </c>
+      <c r="J92"/>
+      <c r="K92"/>
       <c r="L92" t="n">
-        <v>4055</v>
+        <v>3388</v>
       </c>
       <c r="M92" t="n">
-        <v>0.849</v>
+        <v>0.71</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0631</v>
+        <v>0.0528</v>
       </c>
       <c r="O92" t="n">
-        <v>15.9</v>
+        <v>18.9</v>
       </c>
       <c r="P92" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Q92" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="R92" t="s">
         <v>50</v>
       </c>
       <c r="S92" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>531</v>
+      </c>
+      <c r="B93" t="s">
+        <v>532</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>44587</v>
+      </c>
+      <c r="D93" t="s">
+        <v>533</v>
+      </c>
+      <c r="E93" t="s">
         <v>534</v>
-      </c>
-      <c r="B93" t="s">
-        <v>535</v>
-      </c>
-      <c r="C93" s="1" t="n">
-        <v>44585</v>
-      </c>
-      <c r="D93" t="s">
-        <v>536</v>
-      </c>
-      <c r="E93" t="s">
-        <v>537</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H93" t="n">
-        <v>13130612</v>
+        <v>13276085</v>
       </c>
       <c r="I93" t="n">
-        <v>100.801</v>
+        <v>101.918</v>
       </c>
       <c r="J93" t="n">
-        <v>21629</v>
+        <v>19373</v>
       </c>
       <c r="K93" t="n">
-        <v>0.166</v>
+        <v>0.149</v>
       </c>
       <c r="L93" t="n">
-        <v>35163</v>
+        <v>32451</v>
       </c>
       <c r="M93" t="n">
-        <v>0.27</v>
+        <v>0.249</v>
       </c>
       <c r="N93" t="n">
-        <v>0.6611</v>
+        <v>0.65</v>
       </c>
       <c r="O93" t="n">
         <v>1.5</v>
       </c>
       <c r="P93" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="Q93" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="R93" t="s">
         <v>31</v>
       </c>
       <c r="S93" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>537</v>
+      </c>
+      <c r="B94" t="s">
+        <v>538</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D94" t="s">
+        <v>539</v>
+      </c>
+      <c r="E94" t="s">
         <v>540</v>
-      </c>
-      <c r="B94" t="s">
-        <v>541</v>
-      </c>
-      <c r="C94" s="1" t="n">
-        <v>44587</v>
-      </c>
-      <c r="D94" t="s">
-        <v>542</v>
-      </c>
-      <c r="E94" t="s">
-        <v>543</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="n">
-        <v>19808</v>
+        <v>17065</v>
       </c>
       <c r="K94" t="n">
-        <v>4.922</v>
+        <v>4.241</v>
       </c>
       <c r="L94"/>
       <c r="M94"/>
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="Q94" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="R94" t="s">
         <v>24</v>
       </c>
       <c r="S94" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B95" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="D95" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E95" t="s">
         <v>42</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H95" t="n">
-        <v>6800692</v>
+        <v>6839716</v>
       </c>
       <c r="I95" t="n">
-        <v>2042.69</v>
+        <v>2054.412</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
       <c r="L95" t="n">
-        <v>21383</v>
+        <v>19837</v>
       </c>
       <c r="M95" t="n">
-        <v>6.423</v>
+        <v>5.958</v>
       </c>
       <c r="N95"/>
       <c r="O95"/>
@@ -8352,81 +8327,81 @@
         <v>42</v>
       </c>
       <c r="Q95" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="R95" t="s">
         <v>121</v>
       </c>
       <c r="S95" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>549</v>
+      </c>
+      <c r="B96" t="s">
+        <v>550</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D96" t="s">
+        <v>551</v>
+      </c>
+      <c r="E96" t="s">
         <v>552</v>
-      </c>
-      <c r="B96" t="s">
-        <v>553</v>
-      </c>
-      <c r="C96" s="1" t="n">
-        <v>44586</v>
-      </c>
-      <c r="D96" t="s">
-        <v>554</v>
-      </c>
-      <c r="E96" t="s">
-        <v>555</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H96" t="n">
-        <v>10504353</v>
+        <v>10558046</v>
       </c>
       <c r="I96" t="n">
-        <v>281.28</v>
+        <v>282.718</v>
       </c>
       <c r="J96" t="n">
-        <v>28876</v>
+        <v>25036</v>
       </c>
       <c r="K96" t="n">
-        <v>0.773</v>
+        <v>0.67</v>
       </c>
       <c r="L96" t="n">
-        <v>28362</v>
+        <v>25272</v>
       </c>
       <c r="M96" t="n">
-        <v>0.759</v>
+        <v>0.677</v>
       </c>
       <c r="N96" t="n">
-        <v>0.2415</v>
+        <v>0.2379</v>
       </c>
       <c r="O96" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="P96" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="Q96" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="R96" t="s">
         <v>31</v>
       </c>
       <c r="S96" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B97" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="D97" t="s">
         <v>35</v>
@@ -8436,31 +8411,27 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H97" t="n">
-        <v>1209826</v>
+        <v>1216700</v>
       </c>
       <c r="I97" t="n">
-        <v>37.615</v>
-      </c>
-      <c r="J97" t="n">
-        <v>3399</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.106</v>
-      </c>
+        <v>37.829</v>
+      </c>
+      <c r="J97"/>
+      <c r="K97"/>
       <c r="L97" t="n">
-        <v>3580</v>
+        <v>2964</v>
       </c>
       <c r="M97" t="n">
-        <v>0.111</v>
+        <v>0.092</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1058</v>
+        <v>0.0955</v>
       </c>
       <c r="O97" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="P97" t="s">
         <v>36</v>
@@ -8472,301 +8443,289 @@
         <v>24</v>
       </c>
       <c r="S97" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>558</v>
+      </c>
+      <c r="B98" t="s">
+        <v>559</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D98" t="s">
+        <v>560</v>
+      </c>
+      <c r="E98" t="s">
         <v>561</v>
-      </c>
-      <c r="B98" t="s">
-        <v>562</v>
-      </c>
-      <c r="C98" s="1" t="n">
-        <v>44586</v>
-      </c>
-      <c r="D98" t="s">
-        <v>563</v>
-      </c>
-      <c r="E98" t="s">
-        <v>564</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H98" t="n">
-        <v>6294296</v>
+        <v>6327278</v>
       </c>
       <c r="I98" t="n">
-        <v>114.847</v>
-      </c>
-      <c r="J98" t="n">
-        <v>11236</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.205</v>
-      </c>
+        <v>115.449</v>
+      </c>
+      <c r="J98"/>
+      <c r="K98"/>
       <c r="L98" t="n">
-        <v>10118</v>
+        <v>11802</v>
       </c>
       <c r="M98" t="n">
-        <v>0.185</v>
+        <v>0.215</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0138</v>
+        <v>0.0114</v>
       </c>
       <c r="O98" t="n">
-        <v>72.6</v>
+        <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="Q98" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="R98" t="s">
         <v>121</v>
       </c>
       <c r="S98" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B99" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44584</v>
+        <v>44588</v>
       </c>
       <c r="D99" t="s">
-        <v>569</v>
+        <v>35</v>
       </c>
       <c r="E99" t="s">
-        <v>570</v>
+        <v>36</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H99" t="n">
-        <v>910702</v>
+        <v>916464</v>
       </c>
       <c r="I99" t="n">
-        <v>351.983</v>
-      </c>
-      <c r="J99" t="n">
-        <v>801</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.31</v>
-      </c>
+        <v>354.21</v>
+      </c>
+      <c r="J99"/>
+      <c r="K99"/>
       <c r="L99" t="n">
-        <v>1135</v>
+        <v>1223</v>
       </c>
       <c r="M99" t="n">
-        <v>0.439</v>
+        <v>0.473</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1104</v>
+        <v>0.0848</v>
       </c>
       <c r="O99" t="n">
-        <v>9.1</v>
+        <v>11.8</v>
       </c>
       <c r="P99" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="Q99" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="R99" t="s">
         <v>121</v>
       </c>
       <c r="S99" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B100" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="D100" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E100" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="H100" t="n">
-        <v>5156419</v>
+        <v>5199495</v>
       </c>
       <c r="I100" t="n">
-        <v>173.764</v>
+        <v>175.215</v>
       </c>
       <c r="J100" t="n">
-        <v>18103</v>
+        <v>13791</v>
       </c>
       <c r="K100" t="n">
-        <v>0.61</v>
+        <v>0.465</v>
       </c>
       <c r="L100" t="n">
-        <v>17186</v>
+        <v>15096</v>
       </c>
       <c r="M100" t="n">
-        <v>0.579</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.496</v>
-      </c>
-      <c r="O100" t="n">
-        <v>2</v>
-      </c>
+        <v>0.509</v>
+      </c>
+      <c r="N100"/>
+      <c r="O100"/>
       <c r="P100" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="Q100" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="R100" t="s">
         <v>50</v>
       </c>
       <c r="S100" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D101" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="H101" t="n">
-        <v>24574754</v>
+        <v>24880629</v>
       </c>
       <c r="I101" t="n">
-        <v>1431.003</v>
+        <v>1448.815</v>
       </c>
       <c r="J101" t="n">
-        <v>150653</v>
+        <v>150516</v>
       </c>
       <c r="K101" t="n">
-        <v>8.773</v>
+        <v>8.765</v>
       </c>
       <c r="L101" t="n">
-        <v>139364</v>
+        <v>143758</v>
       </c>
       <c r="M101" t="n">
-        <v>8.115</v>
+        <v>8.371</v>
       </c>
       <c r="N101" t="n">
-        <v>0.3521</v>
+        <v>0.3841</v>
       </c>
       <c r="O101" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="P101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="Q101" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="R101" t="s">
         <v>31</v>
       </c>
       <c r="S101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B102" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="D102" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E102" t="s">
         <v>42</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H102" t="n">
-        <v>5934769</v>
+        <v>5978896</v>
       </c>
       <c r="I102" t="n">
-        <v>1157.71</v>
+        <v>1166.318</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
       <c r="L102" t="n">
-        <v>15309</v>
+        <v>17513</v>
       </c>
       <c r="M102" t="n">
-        <v>2.986</v>
+        <v>3.416</v>
       </c>
       <c r="N102"/>
       <c r="O102"/>
       <c r="P102" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="Q102" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="R102" t="s">
         <v>50</v>
       </c>
       <c r="S102" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B103" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>44584</v>
       </c>
       <c r="D103" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E103" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
@@ -8793,30 +8752,30 @@
         <v>50.1</v>
       </c>
       <c r="P103" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="Q103" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="R103" t="s">
         <v>121</v>
       </c>
       <c r="S103" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B104" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C104" s="1" t="n">
         <v>44571</v>
       </c>
       <c r="D104" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E104" t="s">
         <v>42</v>
@@ -8849,87 +8808,87 @@
         <v>42</v>
       </c>
       <c r="Q104" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="R104" t="s">
         <v>50</v>
       </c>
       <c r="S104" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B105" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D105" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="E105" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H105" t="n">
-        <v>9907992</v>
+        <v>9994320</v>
       </c>
       <c r="I105" t="n">
-        <v>1812.782</v>
+        <v>1828.576</v>
       </c>
       <c r="J105" t="n">
-        <v>37520</v>
+        <v>33436</v>
       </c>
       <c r="K105" t="n">
-        <v>6.865</v>
+        <v>6.118</v>
       </c>
       <c r="L105" t="n">
-        <v>34750</v>
+        <v>35883</v>
       </c>
       <c r="M105" t="n">
-        <v>6.358</v>
+        <v>6.565</v>
       </c>
       <c r="N105" t="n">
-        <v>0.4839</v>
+        <v>0.5393</v>
       </c>
       <c r="O105" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="P105" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="Q105" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="R105" t="s">
         <v>31</v>
       </c>
       <c r="S105" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B106" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="D106" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E106" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
@@ -8948,196 +8907,184 @@
       <c r="N106"/>
       <c r="O106"/>
       <c r="P106" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="Q106" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="R106" t="s">
         <v>85</v>
       </c>
       <c r="S106" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B107" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="D107" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E107" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H107" t="n">
-        <v>24691005</v>
+        <v>24822901</v>
       </c>
       <c r="I107" t="n">
-        <v>109.64</v>
-      </c>
-      <c r="J107" t="n">
-        <v>51063</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.227</v>
-      </c>
+        <v>110.226</v>
+      </c>
+      <c r="J107"/>
+      <c r="K107"/>
       <c r="L107" t="n">
-        <v>56225</v>
+        <v>58169</v>
       </c>
       <c r="M107" t="n">
-        <v>0.25</v>
+        <v>0.258</v>
       </c>
       <c r="N107"/>
       <c r="O107"/>
       <c r="P107" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="Q107" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="R107" t="s">
         <v>50</v>
       </c>
       <c r="S107" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B108" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="D108" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E108" t="s">
         <v>42</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108" t="n">
-        <v>12648</v>
+        <v>7103</v>
       </c>
       <c r="K108" t="n">
-        <v>2.422</v>
-      </c>
-      <c r="L108" t="n">
-        <v>7305</v>
-      </c>
-      <c r="M108" t="n">
-        <v>1.399</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0.1692</v>
-      </c>
-      <c r="O108" t="n">
-        <v>5.9</v>
-      </c>
+        <v>1.36</v>
+      </c>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
       <c r="P108" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="Q108" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="R108" t="s">
         <v>50</v>
       </c>
       <c r="S108" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B109" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="D109" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E109" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H109" t="n">
-        <v>5033905</v>
+        <v>5115700</v>
       </c>
       <c r="I109" t="n">
-        <v>1148.878</v>
+        <v>1167.546</v>
       </c>
       <c r="J109" t="n">
-        <v>14472</v>
+        <v>26743</v>
       </c>
       <c r="K109" t="n">
-        <v>3.303</v>
+        <v>6.104</v>
       </c>
       <c r="L109" t="n">
-        <v>28127</v>
+        <v>25458</v>
       </c>
       <c r="M109" t="n">
-        <v>6.419</v>
+        <v>5.81</v>
       </c>
       <c r="N109" t="n">
-        <v>0.3269</v>
+        <v>0.3545</v>
       </c>
       <c r="O109" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P109" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="Q109" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="R109" t="s">
         <v>50</v>
       </c>
       <c r="S109" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B110" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>44304</v>
       </c>
       <c r="D110" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E110" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
@@ -9164,90 +9111,90 @@
         <v>5.1</v>
       </c>
       <c r="P110" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q110" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="R110" t="s">
         <v>24</v>
       </c>
       <c r="S110" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B111" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="D111" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E111" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H111" t="n">
-        <v>2275561</v>
+        <v>2313757</v>
       </c>
       <c r="I111" t="n">
-        <v>315.19</v>
+        <v>320.481</v>
       </c>
       <c r="J111" t="n">
-        <v>11380</v>
+        <v>13010</v>
       </c>
       <c r="K111" t="n">
-        <v>1.576</v>
+        <v>1.802</v>
       </c>
       <c r="L111" t="n">
-        <v>12553</v>
+        <v>12463</v>
       </c>
       <c r="M111" t="n">
-        <v>1.739</v>
+        <v>1.726</v>
       </c>
       <c r="N111" t="n">
-        <v>0.4689</v>
+        <v>0.4969</v>
       </c>
       <c r="O111" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P111" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="Q111" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="R111" t="s">
         <v>50</v>
       </c>
       <c r="S111" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B112" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>44585</v>
       </c>
       <c r="D112" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
@@ -9278,33 +9225,33 @@
         <v>3.2</v>
       </c>
       <c r="P112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q112" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="R112" t="s">
         <v>50</v>
       </c>
       <c r="S112" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B113" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>44570</v>
       </c>
       <c r="D113" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E113" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
@@ -9335,204 +9282,200 @@
         <v>4.2</v>
       </c>
       <c r="P113" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q113" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="R113" t="s">
         <v>31</v>
       </c>
       <c r="S113" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B114" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="D114" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E114" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="H114" t="n">
-        <v>28960037</v>
+        <v>29477211</v>
       </c>
       <c r="I114" t="n">
-        <v>766.199</v>
+        <v>779.882</v>
       </c>
       <c r="J114" t="n">
-        <v>136514</v>
+        <v>173747</v>
       </c>
       <c r="K114" t="n">
-        <v>3.612</v>
+        <v>4.597</v>
       </c>
       <c r="L114" t="n">
-        <v>122591</v>
+        <v>143455</v>
       </c>
       <c r="M114" t="n">
-        <v>3.243</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.2811</v>
-      </c>
-      <c r="O114" t="n">
-        <v>3.6</v>
-      </c>
+        <v>3.795</v>
+      </c>
+      <c r="N114"/>
+      <c r="O114"/>
       <c r="P114" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="Q114" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="R114" t="s">
         <v>31</v>
       </c>
       <c r="S114" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B115" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="D115" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E115" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="H115" t="n">
-        <v>29576604</v>
+        <v>30107897</v>
       </c>
       <c r="I115" t="n">
-        <v>782.512</v>
+        <v>796.568</v>
       </c>
       <c r="J115" t="n">
-        <v>141880</v>
+        <v>178308</v>
       </c>
       <c r="K115" t="n">
-        <v>3.754</v>
+        <v>4.718</v>
       </c>
       <c r="L115" t="n">
-        <v>126330</v>
+        <v>147550</v>
       </c>
       <c r="M115" t="n">
-        <v>3.342</v>
+        <v>3.904</v>
       </c>
       <c r="N115" t="n">
-        <v>0.2531</v>
+        <v>0.2797</v>
       </c>
       <c r="O115" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P115" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="Q115" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="R115" t="s">
         <v>121</v>
       </c>
       <c r="S115" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B116" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="D116" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E116" t="s">
         <v>42</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H116" t="n">
-        <v>33091055</v>
+        <v>33409187</v>
       </c>
       <c r="I116" t="n">
-        <v>3254.456</v>
+        <v>3285.744</v>
       </c>
       <c r="J116" t="n">
-        <v>327386</v>
+        <v>318132</v>
       </c>
       <c r="K116" t="n">
-        <v>32.198</v>
+        <v>31.288</v>
       </c>
       <c r="L116" t="n">
-        <v>299372</v>
+        <v>300364</v>
       </c>
       <c r="M116" t="n">
-        <v>29.443</v>
+        <v>29.54</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1726</v>
+        <v>0.1782</v>
       </c>
       <c r="O116" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="P116" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="Q116" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="R116" t="s">
         <v>50</v>
       </c>
       <c r="S116" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B117" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>44496</v>
       </c>
       <c r="D117" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E117" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
@@ -9559,82 +9502,82 @@
       <c r="N117"/>
       <c r="O117"/>
       <c r="P117" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q117" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="R117" t="s">
         <v>31</v>
       </c>
       <c r="S117" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B118" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="D118" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E118" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H118" t="n">
-        <v>18698882</v>
+        <v>18900824</v>
       </c>
       <c r="I118" t="n">
-        <v>977.578</v>
+        <v>988.135</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118" t="n">
-        <v>75279</v>
+        <v>75934</v>
       </c>
       <c r="M118" t="n">
-        <v>3.936</v>
+        <v>3.97</v>
       </c>
       <c r="N118"/>
       <c r="O118"/>
       <c r="P118" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Q118" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="R118" t="s">
         <v>50</v>
       </c>
       <c r="S118" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B119" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C119" s="1" t="n">
         <v>44587</v>
       </c>
       <c r="D119" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E119" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
@@ -9658,103 +9601,115 @@
       <c r="M119" t="n">
         <v>3.306</v>
       </c>
-      <c r="N119"/>
-      <c r="O119"/>
+      <c r="N119" t="n">
+        <v>0.1223</v>
+      </c>
+      <c r="O119" t="n">
+        <v>8.2</v>
+      </c>
       <c r="P119" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="Q119" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="R119" t="s">
         <v>50</v>
       </c>
       <c r="S119" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B120" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="D120" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E120" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H120" t="n">
-        <v>4429703</v>
+        <v>4455633</v>
       </c>
       <c r="I120" t="n">
-        <v>333.649</v>
-      </c>
-      <c r="J120"/>
-      <c r="K120"/>
+        <v>335.603</v>
+      </c>
+      <c r="J120" t="n">
+        <v>13157</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.991</v>
+      </c>
       <c r="L120" t="n">
-        <v>12773</v>
+        <v>12635</v>
       </c>
       <c r="M120" t="n">
-        <v>0.962</v>
+        <v>0.952</v>
       </c>
       <c r="N120"/>
       <c r="O120"/>
       <c r="P120" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="Q120" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="R120" t="s">
         <v>121</v>
       </c>
       <c r="S120" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B121" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="D121" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E121" t="s">
         <v>42</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H121" t="n">
-        <v>64708</v>
+        <v>64996</v>
       </c>
       <c r="I121" t="n">
-        <v>1208.456</v>
-      </c>
-      <c r="J121"/>
-      <c r="K121"/>
+        <v>1213.835</v>
+      </c>
+      <c r="J121" t="n">
+        <v>177</v>
+      </c>
+      <c r="K121" t="n">
+        <v>3.306</v>
+      </c>
       <c r="L121" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M121" t="n">
-        <v>2.092</v>
+        <v>2.204</v>
       </c>
       <c r="N121"/>
       <c r="O121"/>
@@ -9762,248 +9717,248 @@
         <v>42</v>
       </c>
       <c r="Q121" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="R121" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S121" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B122" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44558</v>
+        <v>44589</v>
       </c>
       <c r="D122" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E122" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H122" t="n">
-        <v>93855</v>
+        <v>97022</v>
       </c>
       <c r="I122" t="n">
-        <v>843.496</v>
+        <v>871.959</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
       <c r="L122" t="n">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="M122" t="n">
-        <v>0.602</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0.1258</v>
-      </c>
-      <c r="O122" t="n">
-        <v>7.9</v>
-      </c>
+        <v>0.917</v>
+      </c>
+      <c r="N122"/>
+      <c r="O122"/>
       <c r="P122" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="Q122" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="R122" t="s">
         <v>24</v>
       </c>
       <c r="S122" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B123" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="D123" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="E123" t="s">
         <v>42</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H123" t="n">
-        <v>37149074</v>
+        <v>37465280</v>
       </c>
       <c r="I123" t="n">
-        <v>1051.17</v>
+        <v>1060.118</v>
       </c>
       <c r="J123" t="n">
-        <v>189347</v>
+        <v>152429</v>
       </c>
       <c r="K123" t="n">
-        <v>5.358</v>
+        <v>4.313</v>
       </c>
       <c r="L123" t="n">
-        <v>173415</v>
+        <v>159032</v>
       </c>
       <c r="M123" t="n">
-        <v>4.907</v>
+        <v>4.5</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0288</v>
+        <v>0.0293</v>
       </c>
       <c r="O123" t="n">
-        <v>34.8</v>
+        <v>34.1</v>
       </c>
       <c r="P123" t="s">
         <v>42</v>
       </c>
       <c r="Q123" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="R123" t="s">
         <v>50</v>
       </c>
       <c r="S123" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B124" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="D124" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E124" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H124" t="n">
-        <v>986776</v>
+        <v>989801</v>
       </c>
       <c r="I124" t="n">
-        <v>57.383</v>
+        <v>57.559</v>
       </c>
       <c r="J124" t="n">
-        <v>1885</v>
+        <v>1506</v>
       </c>
       <c r="K124" t="n">
-        <v>0.11</v>
+        <v>0.088</v>
       </c>
       <c r="L124" t="n">
-        <v>1704</v>
+        <v>1613</v>
       </c>
       <c r="M124" t="n">
-        <v>0.099</v>
+        <v>0.094</v>
       </c>
       <c r="N124"/>
       <c r="O124"/>
       <c r="P124" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="Q124" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="R124" t="s">
         <v>50</v>
       </c>
       <c r="S124" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B125" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="D125" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E125" t="s">
         <v>42</v>
       </c>
       <c r="F125" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G125" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H125" t="n">
-        <v>7974355</v>
+        <v>8010329</v>
       </c>
       <c r="I125" t="n">
-        <v>1160.489</v>
+        <v>1165.724</v>
       </c>
       <c r="J125" t="n">
-        <v>37811</v>
+        <v>35974</v>
       </c>
       <c r="K125" t="n">
-        <v>5.503</v>
+        <v>5.235</v>
       </c>
       <c r="L125" t="n">
-        <v>33460</v>
+        <v>33337</v>
       </c>
       <c r="M125" t="n">
-        <v>4.869</v>
-      </c>
-      <c r="N125"/>
-      <c r="O125"/>
+        <v>4.851</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.4926</v>
+      </c>
+      <c r="O125" t="n">
+        <v>2</v>
+      </c>
       <c r="P125" t="s">
         <v>42</v>
       </c>
       <c r="Q125" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="R125" t="s">
         <v>31</v>
       </c>
       <c r="S125" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B126" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>44585</v>
       </c>
       <c r="D126" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="E126" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
@@ -10033,252 +9988,256 @@
         <v>42</v>
       </c>
       <c r="Q126" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="R126" t="s">
         <v>121</v>
       </c>
       <c r="S126" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B127" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="D127" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="E127" t="s">
         <v>42</v>
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H127" t="n">
-        <v>47387798</v>
+        <v>47598528</v>
       </c>
       <c r="I127" t="n">
-        <v>8696.174</v>
+        <v>8734.845</v>
       </c>
       <c r="J127" t="n">
-        <v>32328</v>
+        <v>31846</v>
       </c>
       <c r="K127" t="n">
-        <v>5.933</v>
+        <v>5.844</v>
       </c>
       <c r="L127" t="n">
-        <v>36825</v>
+        <v>52275</v>
       </c>
       <c r="M127" t="n">
-        <v>6.758</v>
+        <v>9.593</v>
       </c>
       <c r="N127" t="n">
-        <v>0.224</v>
+        <v>0.216</v>
       </c>
       <c r="O127" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="P127" t="s">
         <v>42</v>
       </c>
       <c r="Q127" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="R127" t="s">
         <v>50</v>
       </c>
       <c r="S127" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B128" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="D128" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E128" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H128" t="n">
-        <v>2383368</v>
+        <v>2425386</v>
       </c>
       <c r="I128" t="n">
-        <v>1146.554</v>
+        <v>1166.767</v>
       </c>
       <c r="J128" t="n">
-        <v>22924</v>
+        <v>22270</v>
       </c>
       <c r="K128" t="n">
-        <v>11.028</v>
+        <v>10.713</v>
       </c>
       <c r="L128" t="n">
-        <v>16650</v>
+        <v>18079</v>
       </c>
       <c r="M128" t="n">
-        <v>8.01</v>
+        <v>8.697</v>
       </c>
       <c r="N128" t="n">
-        <v>0.712</v>
+        <v>0.74</v>
       </c>
       <c r="O128" t="n">
         <v>1.4</v>
       </c>
       <c r="P128" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="Q128" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="R128" t="s">
         <v>50</v>
       </c>
       <c r="S128" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>725</v>
+      </c>
+      <c r="B129" t="s">
+        <v>726</v>
+      </c>
+      <c r="C129" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D129" t="s">
+        <v>727</v>
+      </c>
+      <c r="E129" t="s">
+        <v>728</v>
+      </c>
+      <c r="F129" t="s">
+        <v>729</v>
+      </c>
+      <c r="G129" t="n">
+        <v>689</v>
+      </c>
+      <c r="H129" t="n">
+        <v>22159247</v>
+      </c>
+      <c r="I129" t="n">
+        <v>369.062</v>
+      </c>
+      <c r="J129" t="n">
+        <v>38912</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="L129" t="n">
+        <v>32285</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.0957</v>
+      </c>
+      <c r="O129" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="P129" t="s">
         <v>730</v>
       </c>
-      <c r="B129" t="s">
-        <v>731</v>
-      </c>
-      <c r="C129" s="1" t="n">
-        <v>44587</v>
-      </c>
-      <c r="D129" t="s">
-        <v>732</v>
-      </c>
-      <c r="E129" t="s">
-        <v>733</v>
-      </c>
-      <c r="F129" t="s">
-        <v>734</v>
-      </c>
-      <c r="G129" t="n">
-        <v>688</v>
-      </c>
-      <c r="H129" t="n">
-        <v>22120335</v>
-      </c>
-      <c r="I129" t="n">
-        <v>368.414</v>
-      </c>
-      <c r="J129" t="n">
-        <v>42686</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.711</v>
-      </c>
-      <c r="L129" t="n">
-        <v>32081</v>
-      </c>
-      <c r="M129" t="n">
-        <v>0.534</v>
-      </c>
-      <c r="N129"/>
-      <c r="O129"/>
-      <c r="P129" t="s">
-        <v>735</v>
-      </c>
       <c r="Q129" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="R129" t="s">
         <v>31</v>
       </c>
       <c r="S129" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>732</v>
+      </c>
+      <c r="B130" t="s">
+        <v>733</v>
+      </c>
+      <c r="C130" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D130" t="s">
+        <v>734</v>
+      </c>
+      <c r="E130" t="s">
+        <v>735</v>
+      </c>
+      <c r="F130" t="s">
+        <v>736</v>
+      </c>
+      <c r="G130" t="n">
+        <v>720</v>
+      </c>
+      <c r="H130" t="n">
+        <v>50673944</v>
+      </c>
+      <c r="I130" t="n">
+        <v>987.696</v>
+      </c>
+      <c r="J130" t="n">
+        <v>292189</v>
+      </c>
+      <c r="K130" t="n">
+        <v>5.695</v>
+      </c>
+      <c r="L130" t="n">
+        <v>238571</v>
+      </c>
+      <c r="M130" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.0445</v>
+      </c>
+      <c r="O130" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="P130" t="s">
         <v>737</v>
       </c>
-      <c r="B130" t="s">
+      <c r="Q130" t="s">
         <v>738</v>
-      </c>
-      <c r="C130" s="1" t="n">
-        <v>44586</v>
-      </c>
-      <c r="D130" t="s">
-        <v>739</v>
-      </c>
-      <c r="E130" t="s">
-        <v>740</v>
-      </c>
-      <c r="F130" t="s">
-        <v>741</v>
-      </c>
-      <c r="G130" t="n">
-        <v>718</v>
-      </c>
-      <c r="H130" t="n">
-        <v>50103976</v>
-      </c>
-      <c r="I130" t="n">
-        <v>976.587</v>
-      </c>
-      <c r="J130" t="n">
-        <v>276338</v>
-      </c>
-      <c r="K130" t="n">
-        <v>5.386</v>
-      </c>
-      <c r="L130" t="n">
-        <v>213850</v>
-      </c>
-      <c r="M130" t="n">
-        <v>4.168</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0.0381</v>
-      </c>
-      <c r="O130" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="P130" t="s">
-        <v>742</v>
-      </c>
-      <c r="Q130" t="s">
-        <v>743</v>
       </c>
       <c r="R130" t="s">
         <v>31</v>
       </c>
       <c r="S130" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B131" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="D131" t="s">
         <v>35</v>
@@ -10288,27 +10247,27 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H131" t="n">
-        <v>317051</v>
+        <v>318930</v>
       </c>
       <c r="I131" t="n">
-        <v>27.857</v>
+        <v>28.022</v>
       </c>
       <c r="J131"/>
       <c r="K131"/>
       <c r="L131" t="n">
-        <v>1101</v>
+        <v>1172</v>
       </c>
       <c r="M131" t="n">
-        <v>0.097</v>
+        <v>0.103</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0236</v>
+        <v>0.0171</v>
       </c>
       <c r="O131" t="n">
-        <v>42.3</v>
+        <v>58.6</v>
       </c>
       <c r="P131" t="s">
         <v>36</v>
@@ -10320,301 +10279,309 @@
         <v>24</v>
       </c>
       <c r="S131" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B132" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="D132" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E132" t="s">
         <v>42</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H132" t="n">
-        <v>80393214</v>
+        <v>81081723</v>
       </c>
       <c r="I132" t="n">
-        <v>1719.817</v>
+        <v>1734.546</v>
       </c>
       <c r="J132" t="n">
-        <v>105741</v>
+        <v>271103</v>
       </c>
       <c r="K132" t="n">
-        <v>2.262</v>
+        <v>5.8</v>
       </c>
       <c r="L132" t="n">
-        <v>295064</v>
+        <v>278156</v>
       </c>
       <c r="M132" t="n">
-        <v>6.312</v>
+        <v>5.95</v>
       </c>
       <c r="N132" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="O132" t="n">
         <v>2.7</v>
       </c>
       <c r="P132" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="Q132" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="R132" t="s">
         <v>50</v>
       </c>
       <c r="S132" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B133" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="D133" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E133" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H133" t="n">
-        <v>6074148</v>
+        <v>6082104</v>
       </c>
       <c r="I133" t="n">
-        <v>282.554</v>
+        <v>282.924</v>
       </c>
       <c r="J133" t="n">
-        <v>8980</v>
+        <v>7956</v>
       </c>
       <c r="K133" t="n">
-        <v>0.418</v>
+        <v>0.37</v>
       </c>
       <c r="L133" t="n">
-        <v>8092</v>
+        <v>8051</v>
       </c>
       <c r="M133" t="n">
-        <v>0.376</v>
-      </c>
-      <c r="N133"/>
-      <c r="O133"/>
+        <v>0.375</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.1374</v>
+      </c>
+      <c r="O133" t="n">
+        <v>7.3</v>
+      </c>
       <c r="P133" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="Q133" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="R133" t="s">
         <v>50</v>
       </c>
       <c r="S133" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B134" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44577</v>
+        <v>44584</v>
       </c>
       <c r="D134" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E134" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>700</v>
+        <v>574</v>
       </c>
       <c r="H134" t="n">
-        <v>16740563</v>
+        <v>16817451</v>
       </c>
       <c r="I134" t="n">
-        <v>1647.667</v>
+        <v>1655.235</v>
       </c>
       <c r="J134" t="n">
-        <v>74876</v>
+        <v>87153</v>
       </c>
       <c r="K134" t="n">
-        <v>7.37</v>
+        <v>8.578</v>
       </c>
       <c r="L134" t="n">
-        <v>74876</v>
+        <v>87153</v>
       </c>
       <c r="M134" t="n">
-        <v>7.37</v>
+        <v>8.578</v>
       </c>
       <c r="N134" t="n">
-        <v>0.2742</v>
+        <v>0.3666</v>
       </c>
       <c r="O134" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P134" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="Q134" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="R134" t="s">
         <v>50</v>
       </c>
       <c r="S134" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B135" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="D135" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E135" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="H135" t="n">
-        <v>16449241</v>
+        <v>16694256</v>
       </c>
       <c r="I135" t="n">
-        <v>1887.356</v>
+        <v>1915.469</v>
       </c>
       <c r="J135" t="n">
-        <v>87158</v>
+        <v>84327</v>
       </c>
       <c r="K135" t="n">
-        <v>10</v>
+        <v>9.676</v>
       </c>
       <c r="L135" t="n">
-        <v>92003</v>
+        <v>95087</v>
       </c>
       <c r="M135" t="n">
-        <v>10.556</v>
+        <v>10.91</v>
       </c>
       <c r="N135" t="n">
-        <v>0.412</v>
+        <v>0.409</v>
       </c>
       <c r="O135" t="n">
         <v>2.4</v>
       </c>
       <c r="P135" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Q135" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="R135" t="s">
         <v>50</v>
       </c>
       <c r="S135" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B136" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="D136" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E136" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H136" t="n">
-        <v>5581517</v>
+        <v>5613922</v>
       </c>
       <c r="I136" t="n">
-        <v>233.977</v>
+        <v>235.335</v>
       </c>
       <c r="J136" t="n">
-        <v>19621</v>
+        <v>17111</v>
       </c>
       <c r="K136" t="n">
-        <v>0.823</v>
+        <v>0.717</v>
       </c>
       <c r="L136" t="n">
-        <v>28581</v>
+        <v>29806</v>
       </c>
       <c r="M136" t="n">
-        <v>1.198</v>
-      </c>
-      <c r="N136"/>
-      <c r="O136"/>
+        <v>1.249</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="O136" t="n">
+        <v>397.4</v>
+      </c>
       <c r="P136" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="Q136" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="R136" t="s">
         <v>31</v>
       </c>
       <c r="S136" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B137" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>44576</v>
       </c>
       <c r="D137" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E137" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
@@ -10645,30 +10612,30 @@
         <v>9.3</v>
       </c>
       <c r="P137" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="Q137" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="R137" t="s">
         <v>50</v>
       </c>
       <c r="S137" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B138" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>44489</v>
       </c>
       <c r="D138" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="E138" t="s">
         <v>42</v>
@@ -10701,84 +10668,84 @@
         <v>42</v>
       </c>
       <c r="Q138" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="R138" t="s">
         <v>24</v>
       </c>
       <c r="S138" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B139" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="D139"/>
       <c r="E139" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="F139" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="G139" t="n">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H139" t="n">
-        <v>657474</v>
+        <v>659667</v>
       </c>
       <c r="I139" t="n">
-        <v>77.548</v>
+        <v>77.807</v>
       </c>
       <c r="J139" t="n">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="K139" t="n">
-        <v>0.139</v>
+        <v>0.138</v>
       </c>
       <c r="L139" t="n">
-        <v>1227</v>
+        <v>1134</v>
       </c>
       <c r="M139" t="n">
-        <v>0.145</v>
+        <v>0.134</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0368</v>
+        <v>0.0348</v>
       </c>
       <c r="O139" t="n">
-        <v>27.2</v>
+        <v>28.8</v>
       </c>
       <c r="P139" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="Q139" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="R139" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="S139" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B140" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>44475</v>
       </c>
       <c r="D140" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E140" t="s">
         <v>42</v>
@@ -10815,624 +10782,620 @@
         <v>42</v>
       </c>
       <c r="Q140" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="R140" t="s">
         <v>31</v>
       </c>
       <c r="S140" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B141" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D141" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E141" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H141" t="n">
-        <v>3908255</v>
+        <v>3962119</v>
       </c>
       <c r="I141" t="n">
-        <v>327.441</v>
+        <v>331.954</v>
       </c>
       <c r="J141"/>
       <c r="K141"/>
       <c r="L141" t="n">
-        <v>26587</v>
+        <v>25463</v>
       </c>
       <c r="M141" t="n">
-        <v>2.228</v>
+        <v>2.133</v>
       </c>
       <c r="N141" t="n">
-        <v>0.3541</v>
+        <v>0.3484</v>
       </c>
       <c r="O141" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P141" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="Q141" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="R141" t="s">
         <v>31</v>
       </c>
       <c r="S141" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B142" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="D142" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E142" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H142" t="n">
-        <v>129431799</v>
+        <v>129855963</v>
       </c>
       <c r="I142" t="n">
-        <v>1521.962</v>
+        <v>1526.949</v>
       </c>
       <c r="J142" t="n">
-        <v>416536</v>
+        <v>424164</v>
       </c>
       <c r="K142" t="n">
-        <v>4.898</v>
+        <v>4.988</v>
       </c>
       <c r="L142" t="n">
-        <v>410972</v>
+        <v>412380</v>
       </c>
       <c r="M142" t="n">
-        <v>4.833</v>
-      </c>
-      <c r="N142"/>
-      <c r="O142"/>
+        <v>4.849</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="O142" t="n">
+        <v>5.6</v>
+      </c>
       <c r="P142" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="Q142" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="R142" t="s">
         <v>50</v>
       </c>
       <c r="S142" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B143" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44584</v>
+        <v>44587</v>
       </c>
       <c r="D143" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="E143" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H143" t="n">
-        <v>2318408</v>
+        <v>2334756</v>
       </c>
       <c r="I143" t="n">
-        <v>49.199</v>
+        <v>49.545</v>
       </c>
       <c r="J143" t="n">
-        <v>4727</v>
+        <v>4599</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1</v>
+        <v>0.098</v>
       </c>
       <c r="L143" t="n">
-        <v>5596</v>
+        <v>5594</v>
       </c>
       <c r="M143" t="n">
         <v>0.119</v>
       </c>
       <c r="N143" t="n">
-        <v>0.054</v>
+        <v>0.0435</v>
       </c>
       <c r="O143" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="P143" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="Q143" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="R143" t="s">
         <v>121</v>
       </c>
       <c r="S143" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B144" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="D144" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="E144" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H144" t="n">
-        <v>17661202</v>
+        <v>17848132</v>
       </c>
       <c r="I144" t="n">
-        <v>406.315</v>
+        <v>410.615</v>
       </c>
       <c r="J144" t="n">
-        <v>79688</v>
+        <v>91934</v>
       </c>
       <c r="K144" t="n">
-        <v>1.833</v>
+        <v>2.115</v>
       </c>
       <c r="L144" t="n">
-        <v>55773</v>
+        <v>65472</v>
       </c>
       <c r="M144" t="n">
-        <v>1.283</v>
+        <v>1.506</v>
       </c>
       <c r="N144"/>
       <c r="O144"/>
       <c r="P144" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="Q144" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="R144" t="s">
         <v>50</v>
       </c>
       <c r="S144" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B145" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="D145" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="E145" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="F145"/>
       <c r="G145" t="n">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H145" t="n">
-        <v>122675911</v>
+        <v>123694899</v>
       </c>
       <c r="I145" t="n">
-        <v>12278.54</v>
+        <v>12380.53</v>
       </c>
       <c r="J145" t="n">
-        <v>500146</v>
+        <v>490562</v>
       </c>
       <c r="K145" t="n">
-        <v>50.059</v>
+        <v>49.1</v>
       </c>
       <c r="L145" t="n">
-        <v>493908</v>
+        <v>510023</v>
       </c>
       <c r="M145" t="n">
-        <v>49.435</v>
+        <v>51.048</v>
       </c>
       <c r="N145"/>
       <c r="O145"/>
       <c r="P145" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="Q145" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="R145" t="s">
         <v>50</v>
       </c>
       <c r="S145" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B146" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="D146" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E146" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H146" t="n">
-        <v>431317684</v>
+        <v>432822845</v>
       </c>
       <c r="I146" t="n">
-        <v>6323.647</v>
+        <v>6345.714</v>
       </c>
       <c r="J146" t="n">
-        <v>1344695</v>
+        <v>1505161</v>
       </c>
       <c r="K146" t="n">
-        <v>19.715</v>
+        <v>22.068</v>
       </c>
       <c r="L146" t="n">
-        <v>1355257</v>
+        <v>1342302</v>
       </c>
       <c r="M146" t="n">
-        <v>19.87</v>
+        <v>19.68</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0686</v>
+        <v>0.0687</v>
       </c>
       <c r="O146" t="n">
         <v>14.6</v>
       </c>
       <c r="P146" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="Q146" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="R146" t="s">
         <v>50</v>
       </c>
       <c r="S146" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B147" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="D147" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="E147" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="F147"/>
       <c r="G147" t="n">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H147" t="n">
-        <v>766854911</v>
+        <v>771818090</v>
       </c>
       <c r="I147" t="n">
-        <v>2303.455</v>
+        <v>2318.363</v>
       </c>
       <c r="J147" t="n">
-        <v>1625787</v>
+        <v>1264597</v>
       </c>
       <c r="K147" t="n">
-        <v>4.883</v>
+        <v>3.799</v>
       </c>
       <c r="L147" t="n">
-        <v>1896975</v>
+        <v>1937989</v>
       </c>
       <c r="M147" t="n">
-        <v>5.698</v>
+        <v>5.821</v>
       </c>
       <c r="N147" t="n">
-        <v>0.258</v>
+        <v>0.25</v>
       </c>
       <c r="O147" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="P147" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="Q147" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="R147" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="S147" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B148" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="D148" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E148" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H148" t="n">
-        <v>5072194</v>
+        <v>5119795</v>
       </c>
       <c r="I148" t="n">
-        <v>1455.372</v>
+        <v>1469.031</v>
       </c>
       <c r="J148" t="n">
-        <v>30662</v>
+        <v>23944</v>
       </c>
       <c r="K148" t="n">
-        <v>8.798</v>
+        <v>6.87</v>
       </c>
       <c r="L148" t="n">
-        <v>29836</v>
+        <v>27018</v>
       </c>
       <c r="M148" t="n">
-        <v>8.561</v>
+        <v>7.752</v>
       </c>
       <c r="N148" t="n">
-        <v>0.3751</v>
+        <v>0.3958</v>
       </c>
       <c r="O148" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P148" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q148" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="R148" t="s">
         <v>50</v>
       </c>
       <c r="S148" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B149" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44581</v>
+        <v>44586</v>
       </c>
       <c r="D149" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="E149" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H149" t="n">
-        <v>37453951</v>
+        <v>37744856</v>
       </c>
       <c r="I149" t="n">
-        <v>381.526</v>
-      </c>
-      <c r="J149" t="n">
-        <v>56388</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.574</v>
-      </c>
+        <v>384.489</v>
+      </c>
+      <c r="J149"/>
+      <c r="K149"/>
       <c r="L149" t="n">
-        <v>55961</v>
+        <v>57208</v>
       </c>
       <c r="M149" t="n">
-        <v>0.57</v>
+        <v>0.583</v>
       </c>
       <c r="N149" t="n">
-        <v>0.3047</v>
+        <v>0.2732</v>
       </c>
       <c r="O149" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="P149" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="Q149" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="R149" t="s">
         <v>121</v>
       </c>
       <c r="S149" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B150" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="D150" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="E150" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="F150"/>
       <c r="G150" t="n">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="H150" t="n">
-        <v>3151487</v>
+        <v>3172652</v>
       </c>
       <c r="I150" t="n">
-        <v>166.563</v>
+        <v>167.682</v>
       </c>
       <c r="J150" t="n">
-        <v>2119</v>
+        <v>3941</v>
       </c>
       <c r="K150" t="n">
-        <v>0.112</v>
+        <v>0.208</v>
       </c>
       <c r="L150" t="n">
-        <v>4925</v>
+        <v>4564</v>
       </c>
       <c r="M150" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0.1481</v>
-      </c>
-      <c r="O150" t="n">
-        <v>6.8</v>
-      </c>
+        <v>0.241</v>
+      </c>
+      <c r="N150"/>
+      <c r="O150"/>
       <c r="P150" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="Q150" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R150" t="s">
         <v>50</v>
       </c>
       <c r="S150" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B151" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="D151" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="E151" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="F151"/>
       <c r="G151" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="H151" t="n">
-        <v>1829333</v>
+        <v>1839994</v>
       </c>
       <c r="I151" t="n">
-        <v>121.211</v>
+        <v>121.917</v>
       </c>
       <c r="J151" t="n">
-        <v>4913</v>
+        <v>3882</v>
       </c>
       <c r="K151" t="n">
-        <v>0.326</v>
+        <v>0.257</v>
       </c>
       <c r="L151" t="n">
-        <v>4043</v>
+        <v>3388</v>
       </c>
       <c r="M151" t="n">
-        <v>0.268</v>
+        <v>0.224</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0735</v>
+        <v>0.0651</v>
       </c>
       <c r="O151" t="n">
-        <v>13.6</v>
+        <v>15.4</v>
       </c>
       <c r="P151" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="Q151" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="R151" t="s">
         <v>50</v>
       </c>
       <c r="S151" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-5662-testime-1549-qytetare-te-infektuar-6-humbje-jete-dhe-1794-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-3500-testime-939-qytetare-te-infektuar-5-humbje-jete-dhe-1825-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -186,7 +186,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4786</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4791</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -261,7 +261,7 @@
     <t xml:space="preserve">Bahamas - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/c3392258-88eb-4f91-9b6c-a61b9ee794b6/Update+%23670+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%2844%29.pdf?MOD=AJPERES</t>
+    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/24d706d2-1b26-4715-bea8-f73a7697fe4f/Update+%23674+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%2826%29.pdf?MOD=AJPERES</t>
   </si>
   <si>
     <t xml:space="preserve">Bahamas Ministry of Health and Wellness</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1974-new-cases-1833-recoveries_i_0000139993.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-2221-new-cases-1922-recoveries_i_0000140081.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -405,7 +405,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/posts/4994204717307771</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/posts/5004240329637543</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-27-de-janeiro-de-2022/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-30-de-janeiro-de-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-28012022-7lnq</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-31012022-40ip</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-admin/admin-ajax.php?juwpfisadmin=false&amp;action=wpfd&amp;task=file.download&amp;wpfd_category_id=59&amp;wpfd_file_id=13801</t>
+    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/01/Bolet%C3%ADn-especial-683-COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -868,13 +868,10 @@
     <t xml:space="preserve">El Salvador - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://diario.innovacion.gob.sv/?fechaMostrar=22-04-2021</t>
+    <t xml:space="preserve">https://covid19.gob.sv/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of El Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://covid19.gob.sv/</t>
   </si>
   <si>
     <t xml:space="preserve">The Government of El Salvador publishes an [online dashboard](https://covid19.gob.sv/) that reports the cumulative number of tests performed to date ("pruebas COVID19 realizadas hasta hoy").
@@ -973,10 +970,13 @@
     <t xml:space="preserve">Fiji - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.health.gov.fj/31-01-2022/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://www.health.gov.fj/covid-19-updates/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
   </si>
   <si>
     <t xml:space="preserve">The Fiji Ministry of Health &amp; Medical Services provides a series for the number of tests per day, the number of tests per week, and the cumulative number of tests conducted to date.
@@ -1063,7 +1063,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2022/200</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2022/215</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/378891</t>
+    <t xml:space="preserve">https://irangov.ir/detail/379231</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1486723896569073670?cxt=HHwWjMCs4bjg86EpAAAA</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1487475525090254848?cxt=HHwWgIC90f3GyaQpAAAA</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-january-26-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-saturday-january-29-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1519,7 +1519,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1486715634612195342?cxt=HHwWnMCiscT_76EpAAAA</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1488158224146747393?cxt=HHwWgsC-_aWBgKcpAAAA</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1486748186119081986?cxt=HHwWhMCsgaTm_qEpAAAA</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1488198109893050369?cxt=HHwWgoCq-fmSkqcpAAAA</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1801,7 +1801,7 @@
     <t xml:space="preserve">Moldova - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://msmps.gov.md/comunicare/5366-cazuri-de-covid-19-raportate-in-ultimele-24-de-ore/</t>
+    <t xml:space="preserve">https://msmps.gov.md/comunicare/comunicate/3700-cazuri-de-covid-19-raportate-in-ultimele-24-de-ore/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of the Republic of Moldova</t>
@@ -1838,7 +1838,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1486729276929941514?cxt=HHwWlICpyc-Z9qEpAAAA</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1488185479304470528</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1911,7 +1911,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1MhXC5M-FJcLZqF4JW5fPElspxMGfJDPw</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1Bmn8Jr32s1RrPcwNTE04zRuzl9MtD8R0</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -2061,7 +2061,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/285384060355230</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/287167133510256</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -2083,7 +2083,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1486863605668757505</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1487944765983313926</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1486821062583148547?cxt=HHwWhoCz_Z_4n6IpAAAA</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1487915142604107781</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2175,7 +2175,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1486998735536017409?cxt=HHwWgsCi0Zbe8KIpAAAA</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1488085898793295881</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2238,7 +2238,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/28-01_BULETIN_DE_PRESA_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_-_31_ianuarie_2022,_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20474</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20517</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2320,7 +2320,7 @@
     <t xml:space="preserve">Saint Vincent and the Grenadines - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/SVGHEALTH/posts/401406055115475</t>
+    <t xml:space="preserve">https://www.facebook.com/SVGHEALTH/posts/403003314955749</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Vincent and the Grenadines Ministry of Health, Wellness and the Environment</t>
@@ -2706,7 +2706,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1487000590538452997?cxt=HHwWisC5vZPK8aIpAAAA</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1488072894911553536</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2826,7 +2826,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-128-bc-byt-bo-y-te-216331-d6.html</t>
+    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-142-bc-byt-2022-tinh-hinh-dich-va-cong-tac-phong-chong-dich-covid-19-ngay-29-01-2022-216452-d6.html</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam Ministry of Health</t>
@@ -2872,7 +2872,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1486856744127111171?cxt=HHwWhoC5mZiVsKIpAAAA</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1488241789995728899</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -3292,7 +3292,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3302,31 +3302,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H2" t="n">
-        <v>1556250</v>
+        <v>1559750</v>
       </c>
       <c r="I2" t="n">
-        <v>541.694</v>
+        <v>542.912</v>
       </c>
       <c r="J2" t="n">
-        <v>5662</v>
+        <v>3500</v>
       </c>
       <c r="K2" t="n">
-        <v>1.971</v>
+        <v>1.218</v>
       </c>
       <c r="L2" t="n">
-        <v>2585</v>
+        <v>2318</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9</v>
+        <v>0.807</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6115</v>
+        <v>0.4728</v>
       </c>
       <c r="O2" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -3402,7 +3402,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3412,27 +3412,27 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>1364783</v>
+        <v>1368254</v>
       </c>
       <c r="I4" t="n">
-        <v>40.219</v>
+        <v>40.321</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4" t="n">
-        <v>3862</v>
+        <v>3073</v>
       </c>
       <c r="M4" t="n">
-        <v>0.114</v>
+        <v>0.091</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0992</v>
+        <v>0.0695</v>
       </c>
       <c r="O4" t="n">
-        <v>10.1</v>
+        <v>14.4</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -3500,7 +3500,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44587</v>
+        <v>44590</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3510,31 +3510,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="H6" t="n">
-        <v>32228310</v>
+        <v>32484485</v>
       </c>
       <c r="I6" t="n">
-        <v>706.671</v>
+        <v>712.288</v>
       </c>
       <c r="J6" t="n">
-        <v>75469</v>
+        <v>33615</v>
       </c>
       <c r="K6" t="n">
-        <v>1.655</v>
+        <v>0.737</v>
       </c>
       <c r="L6" t="n">
-        <v>96038</v>
+        <v>76003</v>
       </c>
       <c r="M6" t="n">
-        <v>2.106</v>
+        <v>1.667</v>
       </c>
       <c r="N6" t="n">
-        <v>0.636</v>
+        <v>0.575</v>
       </c>
       <c r="O6" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="P6" t="s">
         <v>49</v>
@@ -3557,7 +3557,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -3567,25 +3567,25 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H7" t="n">
-        <v>2709073</v>
+        <v>2726988</v>
       </c>
       <c r="I7" t="n">
-        <v>912.721</v>
+        <v>918.757</v>
       </c>
       <c r="J7" t="n">
-        <v>8707</v>
+        <v>4673</v>
       </c>
       <c r="K7" t="n">
-        <v>2.933</v>
+        <v>1.574</v>
       </c>
       <c r="L7" t="n">
-        <v>6442</v>
+        <v>6780</v>
       </c>
       <c r="M7" t="n">
-        <v>2.17</v>
+        <v>2.284</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
@@ -3610,7 +3610,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3622,25 +3622,25 @@
         <v>61</v>
       </c>
       <c r="G8" t="n">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="H8" t="n">
-        <v>60702677</v>
+        <v>61043259</v>
       </c>
       <c r="I8" t="n">
-        <v>2353.892</v>
+        <v>2367.099</v>
       </c>
       <c r="J8" t="n">
-        <v>102759</v>
+        <v>83826</v>
       </c>
       <c r="K8" t="n">
-        <v>3.985</v>
+        <v>3.251</v>
       </c>
       <c r="L8" t="n">
-        <v>138036</v>
+        <v>125668</v>
       </c>
       <c r="M8" t="n">
-        <v>5.353</v>
+        <v>4.873</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -3665,7 +3665,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D9" t="s">
         <v>66</v>
@@ -3675,21 +3675,25 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="H9" t="n">
-        <v>140735023</v>
+        <v>142080341</v>
       </c>
       <c r="I9" t="n">
-        <v>15562.745</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9"/>
+        <v>15711.513</v>
+      </c>
+      <c r="J9" t="n">
+        <v>292063</v>
+      </c>
+      <c r="K9" t="n">
+        <v>32.297</v>
+      </c>
       <c r="L9" t="n">
-        <v>737857</v>
+        <v>721183</v>
       </c>
       <c r="M9" t="n">
-        <v>81.594</v>
+        <v>79.75</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3714,7 +3718,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
@@ -3724,32 +3728,28 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H10" t="n">
-        <v>6119861</v>
+        <v>6156388</v>
       </c>
       <c r="I10" t="n">
-        <v>598.616</v>
+        <v>602.189</v>
       </c>
       <c r="J10" t="n">
-        <v>25368</v>
+        <v>7232</v>
       </c>
       <c r="K10" t="n">
-        <v>2.481</v>
+        <v>0.707</v>
       </c>
       <c r="L10" t="n">
-        <v>10611</v>
+        <v>12281</v>
       </c>
       <c r="M10" t="n">
-        <v>1.038</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.1906</v>
-      </c>
-      <c r="O10" t="n">
-        <v>5.2</v>
-      </c>
+        <v>1.201</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
       <c r="P10" t="s">
         <v>72</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44586</v>
+        <v>44590</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3781,31 +3781,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H11" t="n">
-        <v>207347</v>
+        <v>209172</v>
       </c>
       <c r="I11" t="n">
-        <v>522.398</v>
+        <v>526.996</v>
       </c>
       <c r="J11" t="n">
-        <v>882</v>
+        <v>329</v>
       </c>
       <c r="K11" t="n">
-        <v>2.222</v>
+        <v>0.829</v>
       </c>
       <c r="L11" t="n">
-        <v>564</v>
+        <v>532</v>
       </c>
       <c r="M11" t="n">
-        <v>1.421</v>
+        <v>1.34</v>
       </c>
       <c r="N11" t="n">
-        <v>0.287</v>
+        <v>0.1308</v>
       </c>
       <c r="O11" t="n">
-        <v>3.5</v>
+        <v>7.6</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3828,7 +3828,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3838,21 +3838,25 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H12" t="n">
-        <v>8666060</v>
+        <v>8780381</v>
       </c>
       <c r="I12" t="n">
-        <v>4956.864</v>
-      </c>
-      <c r="J12"/>
-      <c r="K12"/>
+        <v>5022.254</v>
+      </c>
+      <c r="J12" t="n">
+        <v>28903</v>
+      </c>
+      <c r="K12" t="n">
+        <v>16.532</v>
+      </c>
       <c r="L12" t="n">
-        <v>23584</v>
+        <v>27019</v>
       </c>
       <c r="M12" t="n">
-        <v>13.49</v>
+        <v>15.454</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -3877,7 +3881,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
@@ -3887,25 +3891,25 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="H13" t="n">
-        <v>12337495</v>
+        <v>12459232</v>
       </c>
       <c r="I13" t="n">
-        <v>74.187</v>
+        <v>74.919</v>
       </c>
       <c r="J13" t="n">
-        <v>46268</v>
+        <v>45358</v>
       </c>
       <c r="K13" t="n">
-        <v>0.278</v>
+        <v>0.273</v>
       </c>
       <c r="L13" t="n">
-        <v>44176</v>
+        <v>45142</v>
       </c>
       <c r="M13" t="n">
-        <v>0.266</v>
+        <v>0.271</v>
       </c>
       <c r="N13"/>
       <c r="O13"/>
@@ -3930,7 +3934,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="D14" t="s">
         <v>94</v>
@@ -3940,27 +3944,31 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H14" t="n">
-        <v>11571634</v>
+        <v>11608146</v>
       </c>
       <c r="I14" t="n">
-        <v>1225.437</v>
-      </c>
-      <c r="J14"/>
-      <c r="K14"/>
+        <v>1229.303</v>
+      </c>
+      <c r="J14" t="n">
+        <v>36512</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.867</v>
+      </c>
       <c r="L14" t="n">
-        <v>23210</v>
+        <v>25565</v>
       </c>
       <c r="M14" t="n">
-        <v>2.458</v>
+        <v>2.707</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0799</v>
+        <v>0.0747</v>
       </c>
       <c r="O14" t="n">
-        <v>12.5</v>
+        <v>13.4</v>
       </c>
       <c r="P14" t="s">
         <v>96</v>
@@ -3983,7 +3991,7 @@
         <v>100</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
@@ -3993,28 +4001,28 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H15" t="n">
-        <v>29867771</v>
+        <v>29980263</v>
       </c>
       <c r="I15" t="n">
-        <v>2567.651</v>
+        <v>2577.321</v>
       </c>
       <c r="J15" t="n">
-        <v>141480</v>
+        <v>111505</v>
       </c>
       <c r="K15" t="n">
-        <v>12.163</v>
+        <v>9.586</v>
       </c>
       <c r="L15" t="n">
-        <v>120286</v>
+        <v>116646</v>
       </c>
       <c r="M15" t="n">
-        <v>10.341</v>
+        <v>10.028</v>
       </c>
       <c r="N15" t="n">
-        <v>0.463</v>
+        <v>0.465</v>
       </c>
       <c r="O15" t="n">
         <v>2.2</v>
@@ -4138,7 +4146,7 @@
         <v>118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D18" t="s">
         <v>119</v>
@@ -4148,25 +4156,25 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="H18" t="n">
-        <v>1407254</v>
+        <v>1447115</v>
       </c>
       <c r="I18" t="n">
-        <v>1804.403</v>
+        <v>1855.514</v>
       </c>
       <c r="J18" t="n">
-        <v>6203</v>
+        <v>15241</v>
       </c>
       <c r="K18" t="n">
-        <v>7.954</v>
+        <v>19.542</v>
       </c>
       <c r="L18" t="n">
-        <v>6668</v>
+        <v>9565</v>
       </c>
       <c r="M18" t="n">
-        <v>8.55</v>
+        <v>12.264</v>
       </c>
       <c r="N18"/>
       <c r="O18"/>
@@ -4191,7 +4199,7 @@
         <v>124</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44581</v>
+        <v>44588</v>
       </c>
       <c r="D19" t="s">
         <v>125</v>
@@ -4203,31 +4211,31 @@
         <v>127</v>
       </c>
       <c r="G19" t="n">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="H19" t="n">
-        <v>3480473</v>
+        <v>3577264</v>
       </c>
       <c r="I19" t="n">
-        <v>294.134</v>
+        <v>302.314</v>
       </c>
       <c r="J19" t="n">
-        <v>24637</v>
+        <v>19845</v>
       </c>
       <c r="K19" t="n">
-        <v>2.082</v>
+        <v>1.677</v>
       </c>
       <c r="L19" t="n">
-        <v>22161</v>
+        <v>17783</v>
       </c>
       <c r="M19" t="n">
-        <v>1.873</v>
+        <v>1.503</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5401</v>
+        <v>0.3749</v>
       </c>
       <c r="O19" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="P19" t="s">
         <v>42</v>
@@ -4407,7 +4415,7 @@
         <v>146</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D23" t="s">
         <v>147</v>
@@ -4417,31 +4425,27 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H23" t="n">
-        <v>8359584</v>
+        <v>8440034</v>
       </c>
       <c r="I23" t="n">
-        <v>1212.122</v>
-      </c>
-      <c r="J23" t="n">
-        <v>75524</v>
-      </c>
-      <c r="K23" t="n">
-        <v>10.951</v>
-      </c>
+        <v>1223.787</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
       <c r="L23" t="n">
-        <v>35579</v>
+        <v>37014</v>
       </c>
       <c r="M23" t="n">
-        <v>5.159</v>
+        <v>5.367</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2513</v>
+        <v>0.2377</v>
       </c>
       <c r="O23" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P23" t="s">
         <v>149</v>
@@ -4464,7 +4468,7 @@
         <v>153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -4474,27 +4478,27 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H24" t="n">
-        <v>308041</v>
+        <v>309604</v>
       </c>
       <c r="I24" t="n">
-        <v>14.329</v>
+        <v>14.402</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24" t="n">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M24" t="n">
         <v>0.015</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0696</v>
+        <v>0.0425</v>
       </c>
       <c r="O24" t="n">
-        <v>14.4</v>
+        <v>23.5</v>
       </c>
       <c r="P24" t="s">
         <v>36</v>
@@ -4517,7 +4521,7 @@
         <v>156</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -4527,28 +4531,28 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H25" t="n">
-        <v>1340190</v>
+        <v>1350109</v>
       </c>
       <c r="I25" t="n">
-        <v>109.355</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25"/>
+        <v>110.164</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2473</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.202</v>
+      </c>
       <c r="L25" t="n">
-        <v>2712</v>
+        <v>2831</v>
       </c>
       <c r="M25" t="n">
-        <v>0.221</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.0209</v>
-      </c>
-      <c r="O25" t="n">
-        <v>47.8</v>
-      </c>
+        <v>0.231</v>
+      </c>
+      <c r="N25"/>
+      <c r="O25"/>
       <c r="P25" t="s">
         <v>36</v>
       </c>
@@ -4680,7 +4684,7 @@
         <v>169</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44588</v>
+        <v>44590</v>
       </c>
       <c r="D28" t="s">
         <v>165</v>
@@ -4690,31 +4694,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H28" t="n">
-        <v>56237733</v>
+        <v>56382732</v>
       </c>
       <c r="I28" t="n">
-        <v>1477.3</v>
+        <v>1481.109</v>
       </c>
       <c r="J28" t="n">
-        <v>98748</v>
+        <v>57054</v>
       </c>
       <c r="K28" t="n">
-        <v>2.594</v>
+        <v>1.499</v>
       </c>
       <c r="L28" t="n">
-        <v>90707</v>
+        <v>87481</v>
       </c>
       <c r="M28" t="n">
-        <v>2.383</v>
+        <v>2.298</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2044</v>
+        <v>0.1957</v>
       </c>
       <c r="O28" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="P28" t="s">
         <v>166</v>
@@ -4737,7 +4741,7 @@
         <v>172</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44587</v>
+        <v>44590</v>
       </c>
       <c r="D29" t="s">
         <v>173</v>
@@ -4747,15 +4751,15 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="n">
-        <v>913</v>
+        <v>427</v>
       </c>
       <c r="K29" t="n">
-        <v>1.625</v>
+        <v>0.76</v>
       </c>
       <c r="L29"/>
       <c r="M29"/>
@@ -4835,7 +4839,7 @@
         <v>181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44585</v>
+        <v>44591</v>
       </c>
       <c r="D31" t="s">
         <v>35</v>
@@ -4845,27 +4849,27 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>196620</v>
+        <v>196852</v>
       </c>
       <c r="I31" t="n">
-        <v>11.624</v>
+        <v>11.638</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31" t="n">
-        <v>533</v>
+        <v>111</v>
       </c>
       <c r="M31" t="n">
-        <v>0.032</v>
+        <v>0.007</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0499</v>
+        <v>0.2394</v>
       </c>
       <c r="O31" t="n">
-        <v>20.1</v>
+        <v>4.2</v>
       </c>
       <c r="P31" t="s">
         <v>36</v>
@@ -4888,7 +4892,7 @@
         <v>184</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D32" t="s">
         <v>185</v>
@@ -4898,25 +4902,25 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="H32" t="n">
-        <v>29316380</v>
+        <v>29699065</v>
       </c>
       <c r="I32" t="n">
-        <v>1525.912</v>
+        <v>1545.831</v>
       </c>
       <c r="J32" t="n">
-        <v>125215</v>
+        <v>119417</v>
       </c>
       <c r="K32" t="n">
-        <v>6.517</v>
+        <v>6.216</v>
       </c>
       <c r="L32" t="n">
-        <v>99327</v>
+        <v>113361</v>
       </c>
       <c r="M32" t="n">
-        <v>5.17</v>
+        <v>5.9</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
@@ -4994,7 +4998,7 @@
         <v>196</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D34" t="s">
         <v>197</v>
@@ -5004,31 +5008,31 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="H34" t="n">
-        <v>31882163</v>
+        <v>32096717</v>
       </c>
       <c r="I34" t="n">
-        <v>621.899</v>
+        <v>626.084</v>
       </c>
       <c r="J34" t="n">
-        <v>66437</v>
+        <v>46384</v>
       </c>
       <c r="K34" t="n">
-        <v>1.296</v>
+        <v>0.905</v>
       </c>
       <c r="L34" t="n">
-        <v>70574</v>
+        <v>60056</v>
       </c>
       <c r="M34" t="n">
-        <v>1.377</v>
+        <v>1.171</v>
       </c>
       <c r="N34" t="n">
-        <v>0.416</v>
+        <v>0.402</v>
       </c>
       <c r="O34" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P34" t="s">
         <v>198</v>
@@ -5051,7 +5055,7 @@
         <v>202</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44583</v>
+        <v>44585</v>
       </c>
       <c r="D35" t="s">
         <v>203</v>
@@ -5061,31 +5065,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H35" t="n">
-        <v>2498483</v>
+        <v>2515891</v>
       </c>
       <c r="I35" t="n">
-        <v>486.176</v>
+        <v>489.563</v>
       </c>
       <c r="J35" t="n">
-        <v>11691</v>
+        <v>7704</v>
       </c>
       <c r="K35" t="n">
-        <v>2.275</v>
+        <v>1.499</v>
       </c>
       <c r="L35" t="n">
-        <v>11669</v>
+        <v>11521</v>
       </c>
       <c r="M35" t="n">
-        <v>2.271</v>
+        <v>2.242</v>
       </c>
       <c r="N35" t="n">
-        <v>0.399</v>
+        <v>0.42</v>
       </c>
       <c r="O35" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P35" t="s">
         <v>204</v>
@@ -5108,7 +5112,7 @@
         <v>207</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D36" t="s">
         <v>35</v>
@@ -5118,28 +5122,28 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H36" t="n">
-        <v>1344834</v>
+        <v>1357001</v>
       </c>
       <c r="I36" t="n">
-        <v>49.71</v>
-      </c>
-      <c r="J36"/>
-      <c r="K36"/>
+        <v>50.16</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2791</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.103</v>
+      </c>
       <c r="L36" t="n">
-        <v>2333</v>
+        <v>2278</v>
       </c>
       <c r="M36" t="n">
-        <v>0.086</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.0569</v>
-      </c>
-      <c r="O36" t="n">
-        <v>17.6</v>
-      </c>
+        <v>0.084</v>
+      </c>
+      <c r="N36"/>
+      <c r="O36"/>
       <c r="P36" t="s">
         <v>36</v>
       </c>
@@ -5161,7 +5165,7 @@
         <v>210</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44589</v>
+        <v>44591</v>
       </c>
       <c r="D37" t="s">
         <v>211</v>
@@ -5171,28 +5175,32 @@
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H37" t="n">
-        <v>4195015</v>
+        <v>4227562</v>
       </c>
       <c r="I37" t="n">
-        <v>1027.773</v>
+        <v>1035.747</v>
       </c>
       <c r="J37" t="n">
-        <v>19161</v>
+        <v>13062</v>
       </c>
       <c r="K37" t="n">
-        <v>4.694</v>
+        <v>3.2</v>
       </c>
       <c r="L37" t="n">
-        <v>17219</v>
+        <v>16809</v>
       </c>
       <c r="M37" t="n">
-        <v>4.219</v>
-      </c>
-      <c r="N37"/>
-      <c r="O37"/>
+        <v>4.118</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
       <c r="P37" t="s">
         <v>212</v>
       </c>
@@ -5273,7 +5281,7 @@
         <v>223</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44587</v>
+        <v>44591</v>
       </c>
       <c r="D39" t="s">
         <v>224</v>
@@ -5283,31 +5291,31 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="H39" t="n">
-        <v>22222146</v>
+        <v>22608306</v>
       </c>
       <c r="I39" t="n">
-        <v>24801.364</v>
+        <v>25232.344</v>
       </c>
       <c r="J39" t="n">
-        <v>92276</v>
+        <v>85303</v>
       </c>
       <c r="K39" t="n">
-        <v>102.986</v>
+        <v>95.204</v>
       </c>
       <c r="L39" t="n">
-        <v>90320</v>
+        <v>101173</v>
       </c>
       <c r="M39" t="n">
-        <v>100.803</v>
+        <v>112.916</v>
       </c>
       <c r="N39" t="n">
-        <v>0.017</v>
+        <v>0.0202</v>
       </c>
       <c r="O39" t="n">
-        <v>58.9</v>
+        <v>49.6</v>
       </c>
       <c r="P39" t="s">
         <v>42</v>
@@ -5330,7 +5338,7 @@
         <v>227</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D40" t="s">
         <v>228</v>
@@ -5340,31 +5348,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="H40" t="n">
-        <v>48778657</v>
+        <v>49171214</v>
       </c>
       <c r="I40" t="n">
-        <v>4548.316</v>
+        <v>4584.92</v>
       </c>
       <c r="J40" t="n">
-        <v>142900</v>
+        <v>63977</v>
       </c>
       <c r="K40" t="n">
-        <v>13.325</v>
+        <v>5.965</v>
       </c>
       <c r="L40" t="n">
-        <v>138034</v>
+        <v>149984</v>
       </c>
       <c r="M40" t="n">
-        <v>12.871</v>
+        <v>13.985</v>
       </c>
       <c r="N40" t="n">
-        <v>0.225</v>
+        <v>0.237</v>
       </c>
       <c r="O40" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="P40" t="s">
         <v>42</v>
@@ -5440,7 +5448,7 @@
         <v>237</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44587</v>
+        <v>44590</v>
       </c>
       <c r="D42" t="s">
         <v>238</v>
@@ -5450,31 +5458,31 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="H42" t="n">
-        <v>58643556</v>
+        <v>59140765</v>
       </c>
       <c r="I42" t="n">
-        <v>10087.822</v>
+        <v>10173.352</v>
       </c>
       <c r="J42" t="n">
-        <v>200620</v>
+        <v>114428</v>
       </c>
       <c r="K42" t="n">
-        <v>34.511</v>
+        <v>19.684</v>
       </c>
       <c r="L42" t="n">
-        <v>217695</v>
+        <v>195612</v>
       </c>
       <c r="M42" t="n">
-        <v>37.448</v>
+        <v>33.649</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1964</v>
+        <v>0.2348</v>
       </c>
       <c r="O42" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="P42" t="s">
         <v>239</v>
@@ -5497,7 +5505,7 @@
         <v>243</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44495</v>
+        <v>44591</v>
       </c>
       <c r="D43" t="s">
         <v>244</v>
@@ -5507,27 +5515,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H43" t="n">
-        <v>2191882</v>
+        <v>2952303</v>
       </c>
       <c r="I43" t="n">
-        <v>200.104</v>
-      </c>
-      <c r="J43"/>
-      <c r="K43"/>
+        <v>269.525</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4483</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L43" t="n">
-        <v>4826</v>
+        <v>6588</v>
       </c>
       <c r="M43" t="n">
-        <v>0.441</v>
+        <v>0.601</v>
       </c>
       <c r="N43" t="n">
-        <v>0.1571</v>
+        <v>0.3138</v>
       </c>
       <c r="O43" t="n">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="P43" t="s">
         <v>245</v>
@@ -5605,7 +5617,7 @@
         <v>257</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44308</v>
+        <v>44591</v>
       </c>
       <c r="D45" t="s">
         <v>258</v>
@@ -5615,60 +5627,60 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>376</v>
+        <v>514</v>
       </c>
       <c r="H45" t="n">
-        <v>892564</v>
+        <v>1264644</v>
       </c>
       <c r="I45" t="n">
-        <v>136.928</v>
+        <v>194.008</v>
       </c>
       <c r="J45" t="n">
-        <v>2487</v>
+        <v>4697</v>
       </c>
       <c r="K45" t="n">
-        <v>0.382</v>
+        <v>0.721</v>
       </c>
       <c r="L45" t="n">
-        <v>2308</v>
+        <v>4688</v>
       </c>
       <c r="M45" t="n">
-        <v>0.354</v>
+        <v>0.719</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0657</v>
+        <v>0.184</v>
       </c>
       <c r="O45" t="n">
-        <v>15.2</v>
+        <v>5.4</v>
       </c>
       <c r="P45" t="s">
         <v>259</v>
       </c>
       <c r="Q45" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="R45" t="s">
         <v>50</v>
       </c>
       <c r="S45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>261</v>
+      </c>
+      <c r="B46" t="s">
         <v>262</v>
-      </c>
-      <c r="B46" t="s">
-        <v>263</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>44589</v>
       </c>
       <c r="D46" t="s">
+        <v>263</v>
+      </c>
+      <c r="E46" t="s">
         <v>264</v>
-      </c>
-      <c r="E46" t="s">
-        <v>265</v>
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
@@ -5688,87 +5700,91 @@
       <c r="M46" t="n">
         <v>0.208</v>
       </c>
-      <c r="N46"/>
-      <c r="O46"/>
+      <c r="N46" t="n">
+        <v>0.1158</v>
+      </c>
+      <c r="O46" t="n">
+        <v>8.6</v>
+      </c>
       <c r="P46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R46" t="s">
         <v>24</v>
       </c>
       <c r="S46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>267</v>
+      </c>
+      <c r="B47" t="s">
         <v>268</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="1" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D47" t="s">
         <v>269</v>
       </c>
-      <c r="C47" s="1" t="n">
-        <v>44588</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>270</v>
-      </c>
-      <c r="E47" t="s">
-        <v>271</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H47" t="n">
-        <v>2801791</v>
+        <v>2827608</v>
       </c>
       <c r="I47" t="n">
-        <v>2114.259</v>
+        <v>2133.741</v>
       </c>
       <c r="J47" t="n">
-        <v>12584</v>
+        <v>11340</v>
       </c>
       <c r="K47" t="n">
-        <v>9.496</v>
+        <v>8.557</v>
       </c>
       <c r="L47" t="n">
-        <v>12292</v>
+        <v>12714</v>
       </c>
       <c r="M47" t="n">
-        <v>9.276</v>
+        <v>9.594</v>
       </c>
       <c r="N47" t="n">
-        <v>0.4089</v>
+        <v>0.4368</v>
       </c>
       <c r="O47" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="P47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R47" t="s">
         <v>50</v>
       </c>
       <c r="S47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" t="s">
         <v>273</v>
       </c>
-      <c r="B48" t="s">
-        <v>274</v>
-      </c>
       <c r="C48" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D48" t="s">
         <v>35</v>
@@ -5778,56 +5794,56 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H48" t="n">
-        <v>4317909</v>
+        <v>4341818</v>
       </c>
       <c r="I48" t="n">
-        <v>36.631</v>
-      </c>
-      <c r="J48"/>
-      <c r="K48"/>
+        <v>36.834</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3511</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.03</v>
+      </c>
       <c r="L48" t="n">
-        <v>7282</v>
+        <v>6279</v>
       </c>
       <c r="M48" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0.0651</v>
-      </c>
-      <c r="O48" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0.053</v>
+      </c>
+      <c r="N48"/>
+      <c r="O48"/>
       <c r="P48" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q48" t="s">
         <v>275</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>276</v>
       </c>
       <c r="R48" t="s">
         <v>50</v>
       </c>
       <c r="S48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" t="s">
         <v>278</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="1" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D49" t="s">
         <v>279</v>
       </c>
-      <c r="C49" s="1" t="n">
-        <v>44583</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>280</v>
-      </c>
-      <c r="E49" t="s">
-        <v>281</v>
       </c>
       <c r="F49"/>
       <c r="G49"/>
@@ -5836,7 +5852,7 @@
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>7855612</v>
+        <v>7276908</v>
       </c>
       <c r="M49"/>
       <c r="N49"/>
@@ -5848,106 +5864,102 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>281</v>
+      </c>
+      <c r="B50" t="s">
         <v>282</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="1" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D50" t="s">
         <v>283</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>44588</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>284</v>
-      </c>
-      <c r="E50" t="s">
-        <v>285</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" t="n">
-        <v>737450</v>
+        <v>747243</v>
       </c>
       <c r="I50" t="n">
-        <v>15033.739</v>
-      </c>
-      <c r="J50"/>
-      <c r="K50"/>
+        <v>15233.38</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2092</v>
+      </c>
+      <c r="K50" t="n">
+        <v>42.648</v>
+      </c>
       <c r="L50" t="n">
-        <v>3563</v>
+        <v>3089</v>
       </c>
       <c r="M50" t="n">
-        <v>72.636</v>
+        <v>62.973</v>
       </c>
       <c r="N50" t="n">
-        <v>0.2187</v>
+        <v>0.2201</v>
       </c>
       <c r="O50" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="P50" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q50" t="s">
         <v>285</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>286</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>287</v>
-      </c>
-      <c r="S50" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>288</v>
+      </c>
+      <c r="B51" t="s">
         <v>289</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" s="1" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D51" t="s">
         <v>290</v>
       </c>
-      <c r="C51" s="1" t="n">
-        <v>44402</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>291</v>
-      </c>
-      <c r="E51" t="s">
-        <v>292</v>
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="H51" t="n">
-        <v>299637</v>
+        <v>492136</v>
       </c>
       <c r="I51" t="n">
-        <v>331.861</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2831</v>
-      </c>
-      <c r="K51" t="n">
-        <v>3.135</v>
-      </c>
+        <v>545.062</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51"/>
       <c r="L51" t="n">
-        <v>3401</v>
+        <v>303</v>
       </c>
       <c r="M51" t="n">
-        <v>3.767</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0.2363</v>
-      </c>
-      <c r="O51" t="n">
-        <v>4.2</v>
-      </c>
+        <v>0.336</v>
+      </c>
+      <c r="N51"/>
+      <c r="O51"/>
       <c r="P51" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q51" t="s">
         <v>292</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>291</v>
       </c>
       <c r="R51" t="s">
         <v>50</v>
@@ -5964,7 +5976,7 @@
         <v>295</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44587</v>
+        <v>44590</v>
       </c>
       <c r="D52" t="s">
         <v>296</v>
@@ -5974,31 +5986,31 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="H52" t="n">
-        <v>9396666</v>
+        <v>9421918</v>
       </c>
       <c r="I52" t="n">
-        <v>1693.593</v>
+        <v>1698.144</v>
       </c>
       <c r="J52" t="n">
-        <v>19810</v>
+        <v>3377</v>
       </c>
       <c r="K52" t="n">
-        <v>3.57</v>
+        <v>0.609</v>
       </c>
       <c r="L52" t="n">
-        <v>20853</v>
+        <v>14271</v>
       </c>
       <c r="M52" t="n">
-        <v>3.758</v>
+        <v>2.572</v>
       </c>
       <c r="N52" t="n">
-        <v>0.299</v>
+        <v>0.383</v>
       </c>
       <c r="O52" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="P52" t="s">
         <v>298</v>
@@ -6021,7 +6033,7 @@
         <v>302</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="D53" t="s">
         <v>303</v>
@@ -6031,32 +6043,28 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="H53" t="n">
-        <v>227619208</v>
+        <v>232405268</v>
       </c>
       <c r="I53" t="n">
-        <v>3376.038</v>
+        <v>3447.024</v>
       </c>
       <c r="J53" t="n">
-        <v>1691584</v>
+        <v>1087140</v>
       </c>
       <c r="K53" t="n">
-        <v>25.089</v>
+        <v>16.124</v>
       </c>
       <c r="L53" t="n">
-        <v>1259594</v>
+        <v>1120210</v>
       </c>
       <c r="M53" t="n">
-        <v>18.682</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.327</v>
-      </c>
-      <c r="O53" t="n">
-        <v>3.1</v>
-      </c>
+        <v>16.615</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53"/>
       <c r="P53" t="s">
         <v>304</v>
       </c>
@@ -6078,7 +6086,7 @@
         <v>307</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D54" t="s">
         <v>35</v>
@@ -6088,21 +6096,21 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="n">
-        <v>1533345</v>
+        <v>1538075</v>
       </c>
       <c r="I54" t="n">
-        <v>672.865</v>
+        <v>674.941</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54" t="n">
-        <v>1961</v>
+        <v>1796</v>
       </c>
       <c r="M54" t="n">
-        <v>0.861</v>
+        <v>0.788</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
@@ -6127,7 +6135,7 @@
         <v>312</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D55" t="s">
         <v>35</v>
@@ -6137,25 +6145,23 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H55" t="n">
-        <v>138255</v>
+        <v>138597</v>
       </c>
       <c r="I55" t="n">
-        <v>55.592</v>
+        <v>55.73</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55" t="n">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="M55" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
+        <v>0.058</v>
+      </c>
+      <c r="N55"/>
       <c r="O55"/>
       <c r="P55" t="s">
         <v>313</v>
@@ -6178,7 +6184,7 @@
         <v>317</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D56" t="s">
         <v>318</v>
@@ -6188,25 +6194,25 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H56" t="n">
-        <v>12229939</v>
+        <v>12344752</v>
       </c>
       <c r="I56" t="n">
-        <v>3073.024</v>
+        <v>3101.873</v>
       </c>
       <c r="J56" t="n">
-        <v>64412</v>
+        <v>45623</v>
       </c>
       <c r="K56" t="n">
-        <v>16.185</v>
+        <v>11.464</v>
       </c>
       <c r="L56" t="n">
-        <v>25381</v>
+        <v>36771</v>
       </c>
       <c r="M56" t="n">
-        <v>6.377</v>
+        <v>9.239</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
@@ -6284,7 +6290,7 @@
         <v>329</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D58" t="s">
         <v>35</v>
@@ -6294,28 +6300,28 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H58" t="n">
-        <v>2222501</v>
+        <v>2241487</v>
       </c>
       <c r="I58" t="n">
-        <v>70.039</v>
-      </c>
-      <c r="J58"/>
-      <c r="K58"/>
+        <v>70.638</v>
+      </c>
+      <c r="J58" t="n">
+        <v>6253</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.197</v>
+      </c>
       <c r="L58" t="n">
-        <v>3945</v>
+        <v>3770</v>
       </c>
       <c r="M58" t="n">
-        <v>0.124</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.0544</v>
-      </c>
-      <c r="O58" t="n">
-        <v>18.4</v>
-      </c>
+        <v>0.119</v>
+      </c>
+      <c r="N58"/>
+      <c r="O58"/>
       <c r="P58" t="s">
         <v>36</v>
       </c>
@@ -6337,7 +6343,7 @@
         <v>332</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D59" t="s">
         <v>333</v>
@@ -6347,32 +6353,28 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="H59" t="n">
-        <v>55990083</v>
+        <v>56947277</v>
       </c>
       <c r="I59" t="n">
-        <v>5398.848</v>
+        <v>5491.145</v>
       </c>
       <c r="J59" t="n">
-        <v>235938</v>
+        <v>112991</v>
       </c>
       <c r="K59" t="n">
-        <v>22.75</v>
+        <v>10.895</v>
       </c>
       <c r="L59" t="n">
-        <v>263906</v>
+        <v>249062</v>
       </c>
       <c r="M59" t="n">
-        <v>25.447</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="O59" t="n">
-        <v>14.7</v>
-      </c>
+        <v>24.016</v>
+      </c>
+      <c r="N59"/>
+      <c r="O59"/>
       <c r="P59" t="s">
         <v>335</v>
       </c>
@@ -6394,7 +6396,7 @@
         <v>339</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44587</v>
+        <v>44591</v>
       </c>
       <c r="D60" t="s">
         <v>340</v>
@@ -6404,31 +6406,31 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="H60" t="n">
-        <v>3553975</v>
+        <v>3589175</v>
       </c>
       <c r="I60" t="n">
-        <v>194.74</v>
+        <v>196.669</v>
       </c>
       <c r="J60" t="n">
-        <v>14440</v>
+        <v>3534</v>
       </c>
       <c r="K60" t="n">
-        <v>0.791</v>
+        <v>0.194</v>
       </c>
       <c r="L60" t="n">
-        <v>12605</v>
+        <v>11305</v>
       </c>
       <c r="M60" t="n">
-        <v>0.691</v>
+        <v>0.619</v>
       </c>
       <c r="N60" t="n">
-        <v>0.199</v>
+        <v>0.2499</v>
       </c>
       <c r="O60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P60" t="s">
         <v>342</v>
@@ -6602,7 +6604,7 @@
         <v>365</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D64" t="s">
         <v>366</v>
@@ -6614,25 +6616,25 @@
         <v>368</v>
       </c>
       <c r="G64" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H64" t="n">
-        <v>9485888</v>
+        <v>9620513</v>
       </c>
       <c r="I64" t="n">
-        <v>984.61</v>
+        <v>998.583</v>
       </c>
       <c r="J64" t="n">
-        <v>48756</v>
+        <v>134625</v>
       </c>
       <c r="K64" t="n">
-        <v>5.061</v>
+        <v>13.974</v>
       </c>
       <c r="L64" t="n">
-        <v>39256</v>
+        <v>39514</v>
       </c>
       <c r="M64" t="n">
-        <v>4.075</v>
+        <v>4.101</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
@@ -6710,7 +6712,7 @@
         <v>377</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D66" t="s">
         <v>378</v>
@@ -6722,25 +6724,25 @@
         <v>380</v>
       </c>
       <c r="G66" t="n">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="H66" t="n">
-        <v>723748555</v>
+        <v>728997813</v>
       </c>
       <c r="I66" t="n">
-        <v>519.409</v>
+        <v>523.176</v>
       </c>
       <c r="J66" t="n">
-        <v>1582307</v>
+        <v>1607115</v>
       </c>
       <c r="K66" t="n">
-        <v>1.136</v>
+        <v>1.153</v>
       </c>
       <c r="L66" t="n">
-        <v>1744231</v>
+        <v>1714640</v>
       </c>
       <c r="M66" t="n">
-        <v>1.252</v>
+        <v>1.231</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
@@ -6795,8 +6797,12 @@
       <c r="M67" t="n">
         <v>0.749</v>
       </c>
-      <c r="N67"/>
-      <c r="O67"/>
+      <c r="N67" t="n">
+        <v>0.0269</v>
+      </c>
+      <c r="O67" t="n">
+        <v>37.2</v>
+      </c>
       <c r="P67" t="s">
         <v>385</v>
       </c>
@@ -6818,7 +6824,7 @@
         <v>389</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44587</v>
+        <v>44592</v>
       </c>
       <c r="D68" t="s">
         <v>390</v>
@@ -6828,28 +6834,28 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H68" t="n">
-        <v>44323800</v>
+        <v>44789344</v>
       </c>
       <c r="I68" t="n">
-        <v>521.28</v>
-      </c>
-      <c r="J68"/>
-      <c r="K68"/>
+        <v>526.755</v>
+      </c>
+      <c r="J68" t="n">
+        <v>95000</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1.117</v>
+      </c>
       <c r="L68" t="n">
-        <v>91853</v>
+        <v>93031</v>
       </c>
       <c r="M68" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0.0739</v>
-      </c>
-      <c r="O68" t="n">
-        <v>13.5</v>
-      </c>
+        <v>1.094</v>
+      </c>
+      <c r="N68"/>
+      <c r="O68"/>
       <c r="P68" t="s">
         <v>392</v>
       </c>
@@ -6871,7 +6877,7 @@
         <v>396</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44588</v>
+        <v>44590</v>
       </c>
       <c r="D69" t="s">
         <v>397</v>
@@ -6881,31 +6887,27 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H69" t="n">
-        <v>17324974</v>
+        <v>17374475</v>
       </c>
       <c r="I69" t="n">
-        <v>420.72</v>
-      </c>
-      <c r="J69" t="n">
-        <v>28509</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.692</v>
-      </c>
+        <v>421.922</v>
+      </c>
+      <c r="J69"/>
+      <c r="K69"/>
       <c r="L69" t="n">
-        <v>25811</v>
+        <v>25879</v>
       </c>
       <c r="M69" t="n">
-        <v>0.627</v>
+        <v>0.628</v>
       </c>
       <c r="N69" t="n">
-        <v>0.2553</v>
+        <v>0.2676</v>
       </c>
       <c r="O69" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="P69" t="s">
         <v>399</v>
@@ -6928,7 +6930,7 @@
         <v>403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D70" t="s">
         <v>404</v>
@@ -6938,25 +6940,25 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="H70" t="n">
-        <v>10893689</v>
+        <v>10938159</v>
       </c>
       <c r="I70" t="n">
-        <v>2186.213</v>
+        <v>2195.137</v>
       </c>
       <c r="J70" t="n">
-        <v>16573</v>
+        <v>12062</v>
       </c>
       <c r="K70" t="n">
-        <v>3.326</v>
+        <v>2.421</v>
       </c>
       <c r="L70" t="n">
-        <v>17113</v>
+        <v>16359</v>
       </c>
       <c r="M70" t="n">
-        <v>3.434</v>
+        <v>3.283</v>
       </c>
       <c r="N70"/>
       <c r="O70"/>
@@ -6981,7 +6983,7 @@
         <v>409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D71" t="s">
         <v>410</v>
@@ -6991,32 +6993,28 @@
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="H71" t="n">
-        <v>44393791</v>
+        <v>45242044</v>
       </c>
       <c r="I71" t="n">
-        <v>4778.15</v>
+        <v>4869.448</v>
       </c>
       <c r="J71" t="n">
-        <v>247337</v>
+        <v>193519</v>
       </c>
       <c r="K71" t="n">
-        <v>26.621</v>
+        <v>20.829</v>
       </c>
       <c r="L71" t="n">
-        <v>348095</v>
+        <v>251350</v>
       </c>
       <c r="M71" t="n">
-        <v>37.466</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.2281</v>
-      </c>
-      <c r="O71" t="n">
-        <v>4.4</v>
-      </c>
+        <v>27.053</v>
+      </c>
+      <c r="N71"/>
+      <c r="O71"/>
       <c r="P71" t="s">
         <v>42</v>
       </c>
@@ -7038,7 +7036,7 @@
         <v>414</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D72" t="s">
         <v>415</v>
@@ -7050,32 +7048,28 @@
         <v>417</v>
       </c>
       <c r="G72" t="n">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="H72" t="n">
-        <v>167284466</v>
+        <v>170631727</v>
       </c>
       <c r="I72" t="n">
-        <v>2771.103</v>
+        <v>2826.551</v>
       </c>
       <c r="J72" t="n">
-        <v>1039756</v>
+        <v>478314</v>
       </c>
       <c r="K72" t="n">
-        <v>17.224</v>
+        <v>7.923</v>
       </c>
       <c r="L72" t="n">
-        <v>1024638</v>
+        <v>986550</v>
       </c>
       <c r="M72" t="n">
-        <v>16.973</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0.1563</v>
-      </c>
-      <c r="O72" t="n">
-        <v>6.4</v>
-      </c>
+        <v>16.342</v>
+      </c>
+      <c r="N72"/>
+      <c r="O72"/>
       <c r="P72" t="s">
         <v>418</v>
       </c>
@@ -7097,7 +7091,7 @@
         <v>422</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44587</v>
+        <v>44590</v>
       </c>
       <c r="D73" t="s">
         <v>423</v>
@@ -7107,31 +7101,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H73" t="n">
-        <v>788072</v>
+        <v>794202</v>
       </c>
       <c r="I73" t="n">
-        <v>265.035</v>
+        <v>267.097</v>
       </c>
       <c r="J73" t="n">
-        <v>2262</v>
+        <v>2469</v>
       </c>
       <c r="K73" t="n">
-        <v>0.761</v>
+        <v>0.83</v>
       </c>
       <c r="L73" t="n">
-        <v>2729</v>
+        <v>2455</v>
       </c>
       <c r="M73" t="n">
-        <v>0.918</v>
+        <v>0.826</v>
       </c>
       <c r="N73" t="n">
-        <v>0.3078</v>
+        <v>0.2514</v>
       </c>
       <c r="O73" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P73" t="s">
         <v>424</v>
@@ -7154,7 +7148,7 @@
         <v>428</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D74" t="s">
         <v>429</v>
@@ -7164,31 +7158,31 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="H74" t="n">
-        <v>31361308</v>
+        <v>31928900</v>
       </c>
       <c r="I74" t="n">
-        <v>248.799</v>
+        <v>253.302</v>
       </c>
       <c r="J74" t="n">
-        <v>214817</v>
+        <v>118792</v>
       </c>
       <c r="K74" t="n">
-        <v>1.704</v>
+        <v>0.942</v>
       </c>
       <c r="L74" t="n">
-        <v>207927</v>
+        <v>220210</v>
       </c>
       <c r="M74" t="n">
-        <v>1.65</v>
+        <v>1.747</v>
       </c>
       <c r="N74" t="n">
-        <v>0.2826</v>
+        <v>0.3256</v>
       </c>
       <c r="O74" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P74" t="s">
         <v>430</v>
@@ -7211,7 +7205,7 @@
         <v>434</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D75" t="s">
         <v>435</v>
@@ -7221,25 +7215,25 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H75" t="n">
-        <v>14557578</v>
+        <v>14696240</v>
       </c>
       <c r="I75" t="n">
-        <v>1417.621</v>
+        <v>1431.124</v>
       </c>
       <c r="J75" t="n">
-        <v>20171</v>
+        <v>56399</v>
       </c>
       <c r="K75" t="n">
-        <v>1.964</v>
+        <v>5.492</v>
       </c>
       <c r="L75" t="n">
-        <v>39737</v>
+        <v>43213</v>
       </c>
       <c r="M75" t="n">
-        <v>3.87</v>
+        <v>4.208</v>
       </c>
       <c r="N75"/>
       <c r="O75"/>
@@ -7321,7 +7315,7 @@
         <v>445</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D77" t="s">
         <v>35</v>
@@ -7331,28 +7325,28 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H77" t="n">
-        <v>3200937</v>
+        <v>3222886</v>
       </c>
       <c r="I77" t="n">
-        <v>58.214</v>
-      </c>
-      <c r="J77"/>
-      <c r="K77"/>
+        <v>58.613</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2324</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.042</v>
+      </c>
       <c r="L77" t="n">
-        <v>4306</v>
+        <v>5229</v>
       </c>
       <c r="M77" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.0511</v>
-      </c>
-      <c r="O77" t="n">
-        <v>19.6</v>
-      </c>
+        <v>0.095</v>
+      </c>
+      <c r="N77"/>
+      <c r="O77"/>
       <c r="P77" t="s">
         <v>36</v>
       </c>
@@ -7374,7 +7368,7 @@
         <v>448</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D78" t="s">
         <v>449</v>
@@ -7384,31 +7378,31 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H78" t="n">
-        <v>1605736</v>
+        <v>1637388</v>
       </c>
       <c r="I78" t="n">
-        <v>901.028</v>
+        <v>918.789</v>
       </c>
       <c r="J78" t="n">
-        <v>13928</v>
+        <v>6837</v>
       </c>
       <c r="K78" t="n">
-        <v>7.815</v>
+        <v>3.836</v>
       </c>
       <c r="L78" t="n">
-        <v>12694</v>
+        <v>12614</v>
       </c>
       <c r="M78" t="n">
-        <v>7.123</v>
+        <v>7.078</v>
       </c>
       <c r="N78" t="n">
-        <v>0.2517</v>
+        <v>0.2593</v>
       </c>
       <c r="O78" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="P78" t="s">
         <v>451</v>
@@ -7431,7 +7425,7 @@
         <v>454</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D79" t="s">
         <v>455</v>
@@ -7441,32 +7435,28 @@
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="H79" t="n">
-        <v>6786442</v>
+        <v>6913124</v>
       </c>
       <c r="I79" t="n">
-        <v>1567.832</v>
+        <v>1597.098</v>
       </c>
       <c r="J79" t="n">
-        <v>36377</v>
+        <v>29304</v>
       </c>
       <c r="K79" t="n">
-        <v>8.404</v>
+        <v>6.77</v>
       </c>
       <c r="L79" t="n">
-        <v>30292</v>
+        <v>31972</v>
       </c>
       <c r="M79" t="n">
-        <v>6.998</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.1754</v>
-      </c>
-      <c r="O79" t="n">
-        <v>5.7</v>
-      </c>
+        <v>7.386</v>
+      </c>
+      <c r="N79"/>
+      <c r="O79"/>
       <c r="P79" t="s">
         <v>456</v>
       </c>
@@ -7488,7 +7478,7 @@
         <v>460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D80" t="s">
         <v>461</v>
@@ -7498,32 +7488,28 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H80" t="n">
-        <v>945425</v>
+        <v>948082</v>
       </c>
       <c r="I80" t="n">
-        <v>128.118</v>
+        <v>128.478</v>
       </c>
       <c r="J80" t="n">
-        <v>4902</v>
+        <v>2657</v>
       </c>
       <c r="K80" t="n">
-        <v>0.664</v>
+        <v>0.36</v>
       </c>
       <c r="L80" t="n">
-        <v>2718</v>
+        <v>2145</v>
       </c>
       <c r="M80" t="n">
-        <v>0.368</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.204</v>
-      </c>
-      <c r="O80" t="n">
-        <v>4.9</v>
-      </c>
+        <v>0.291</v>
+      </c>
+      <c r="N80"/>
+      <c r="O80"/>
       <c r="P80" t="s">
         <v>462</v>
       </c>
@@ -7531,7 +7517,7 @@
         <v>463</v>
       </c>
       <c r="R80" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S80" t="s">
         <v>464</v>
@@ -7545,7 +7531,7 @@
         <v>466</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D81" t="s">
         <v>467</v>
@@ -7557,25 +7543,25 @@
         <v>469</v>
       </c>
       <c r="G81" t="n">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="H81" t="n">
-        <v>5995727</v>
+        <v>6050839</v>
       </c>
       <c r="I81" t="n">
-        <v>3211.537</v>
+        <v>3241.057</v>
       </c>
       <c r="J81" t="n">
-        <v>25514</v>
+        <v>9411</v>
       </c>
       <c r="K81" t="n">
-        <v>13.666</v>
+        <v>5.041</v>
       </c>
       <c r="L81" t="n">
-        <v>23534</v>
+        <v>22576</v>
       </c>
       <c r="M81" t="n">
-        <v>12.606</v>
+        <v>12.093</v>
       </c>
       <c r="N81"/>
       <c r="O81"/>
@@ -7649,7 +7635,7 @@
         <v>477</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44587</v>
+        <v>44591</v>
       </c>
       <c r="D83" t="s">
         <v>478</v>
@@ -7659,15 +7645,15 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83" t="n">
-        <v>10894</v>
+        <v>12071</v>
       </c>
       <c r="K83" t="n">
-        <v>1.566</v>
+        <v>1.735</v>
       </c>
       <c r="L83"/>
       <c r="M83"/>
@@ -7751,7 +7737,7 @@
         <v>489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="D85" t="s">
         <v>490</v>
@@ -7761,31 +7747,31 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H85" t="n">
-        <v>7434111</v>
+        <v>7502699</v>
       </c>
       <c r="I85" t="n">
-        <v>2763.752</v>
+        <v>2789.251</v>
       </c>
       <c r="J85" t="n">
-        <v>30557</v>
+        <v>33839</v>
       </c>
       <c r="K85" t="n">
-        <v>11.36</v>
+        <v>12.58</v>
       </c>
       <c r="L85" t="n">
-        <v>24135</v>
+        <v>25776</v>
       </c>
       <c r="M85" t="n">
-        <v>8.973</v>
+        <v>9.583</v>
       </c>
       <c r="N85" t="n">
-        <v>0.328</v>
+        <v>0.369</v>
       </c>
       <c r="O85" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P85" t="s">
         <v>491</v>
@@ -7808,7 +7794,7 @@
         <v>494</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44587</v>
+        <v>44590</v>
       </c>
       <c r="D86" t="s">
         <v>495</v>
@@ -7818,32 +7804,28 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="H86" t="n">
-        <v>3961528</v>
+        <v>3979564</v>
       </c>
       <c r="I86" t="n">
-        <v>6240.455</v>
+        <v>6268.866</v>
       </c>
       <c r="J86" t="n">
-        <v>7698</v>
+        <v>5481</v>
       </c>
       <c r="K86" t="n">
-        <v>12.126</v>
+        <v>8.634</v>
       </c>
       <c r="L86" t="n">
-        <v>6063</v>
+        <v>5629</v>
       </c>
       <c r="M86" t="n">
-        <v>9.551</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0.3819</v>
-      </c>
-      <c r="O86" t="n">
-        <v>2.6</v>
-      </c>
+        <v>8.867</v>
+      </c>
+      <c r="N86"/>
+      <c r="O86"/>
       <c r="P86" t="s">
         <v>496</v>
       </c>
@@ -7918,7 +7900,7 @@
         <v>504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D88" t="s">
         <v>35</v>
@@ -7928,28 +7910,28 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H88" t="n">
-        <v>524181</v>
+        <v>527860</v>
       </c>
       <c r="I88" t="n">
-        <v>26.679</v>
-      </c>
-      <c r="J88"/>
-      <c r="K88"/>
+        <v>26.866</v>
+      </c>
+      <c r="J88" t="n">
+        <v>356</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.018</v>
+      </c>
       <c r="L88" t="n">
-        <v>992</v>
+        <v>830</v>
       </c>
       <c r="M88" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0.1182</v>
-      </c>
-      <c r="O88" t="n">
-        <v>8.5</v>
-      </c>
+        <v>0.042</v>
+      </c>
+      <c r="N88"/>
+      <c r="O88"/>
       <c r="P88" t="s">
         <v>36</v>
       </c>
@@ -7971,7 +7953,7 @@
         <v>507</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44586</v>
+        <v>44590</v>
       </c>
       <c r="D89" t="s">
         <v>508</v>
@@ -7983,31 +7965,31 @@
         <v>510</v>
       </c>
       <c r="G89" t="n">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="H89" t="n">
-        <v>44679817</v>
+        <v>45140728</v>
       </c>
       <c r="I89" t="n">
-        <v>1363.179</v>
+        <v>1377.241</v>
       </c>
       <c r="J89" t="n">
-        <v>123851</v>
+        <v>91864</v>
       </c>
       <c r="K89" t="n">
-        <v>3.779</v>
+        <v>2.803</v>
       </c>
       <c r="L89" t="n">
-        <v>117860</v>
+        <v>118829</v>
       </c>
       <c r="M89" t="n">
-        <v>3.596</v>
+        <v>3.625</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0319</v>
+        <v>0.0384</v>
       </c>
       <c r="O89" t="n">
-        <v>31.4</v>
+        <v>26</v>
       </c>
       <c r="P89" t="s">
         <v>42</v>
@@ -8030,7 +8012,7 @@
         <v>514</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D90" t="s">
         <v>515</v>
@@ -8040,32 +8022,28 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="H90" t="n">
-        <v>2031866</v>
+        <v>2061186</v>
       </c>
       <c r="I90" t="n">
-        <v>3737.659</v>
+        <v>3791.593</v>
       </c>
       <c r="J90" t="n">
-        <v>7019</v>
+        <v>7852</v>
       </c>
       <c r="K90" t="n">
-        <v>12.912</v>
+        <v>14.444</v>
       </c>
       <c r="L90" t="n">
-        <v>7429</v>
+        <v>7324</v>
       </c>
       <c r="M90" t="n">
-        <v>13.666</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0.3299</v>
-      </c>
-      <c r="O90" t="n">
-        <v>3</v>
-      </c>
+        <v>13.473</v>
+      </c>
+      <c r="N90"/>
+      <c r="O90"/>
       <c r="P90" t="s">
         <v>516</v>
       </c>
@@ -8087,7 +8065,7 @@
         <v>520</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D91" t="s">
         <v>521</v>
@@ -8097,25 +8075,25 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="H91" t="n">
-        <v>1678499</v>
+        <v>1686534</v>
       </c>
       <c r="I91" t="n">
-        <v>3252.275</v>
+        <v>3267.843</v>
       </c>
       <c r="J91" t="n">
-        <v>2812</v>
+        <v>2475</v>
       </c>
       <c r="K91" t="n">
-        <v>5.449</v>
+        <v>4.796</v>
       </c>
       <c r="L91" t="n">
-        <v>3115</v>
+        <v>2894</v>
       </c>
       <c r="M91" t="n">
-        <v>6.036</v>
+        <v>5.607</v>
       </c>
       <c r="N91"/>
       <c r="O91"/>
@@ -8140,7 +8118,7 @@
         <v>527</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D92" t="s">
         <v>35</v>
@@ -8150,28 +8128,28 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H92" t="n">
-        <v>820383</v>
+        <v>831368</v>
       </c>
       <c r="I92" t="n">
-        <v>171.804</v>
-      </c>
-      <c r="J92"/>
-      <c r="K92"/>
+        <v>174.104</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.524</v>
+      </c>
       <c r="L92" t="n">
-        <v>3388</v>
+        <v>2898</v>
       </c>
       <c r="M92" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.0528</v>
-      </c>
-      <c r="O92" t="n">
-        <v>18.9</v>
-      </c>
+        <v>0.607</v>
+      </c>
+      <c r="N92"/>
+      <c r="O92"/>
       <c r="P92" t="s">
         <v>528</v>
       </c>
@@ -8193,7 +8171,7 @@
         <v>532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44587</v>
+        <v>44590</v>
       </c>
       <c r="D93" t="s">
         <v>533</v>
@@ -8203,31 +8181,31 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="H93" t="n">
-        <v>13276085</v>
+        <v>13433527</v>
       </c>
       <c r="I93" t="n">
-        <v>101.918</v>
+        <v>103.127</v>
       </c>
       <c r="J93" t="n">
-        <v>19373</v>
+        <v>5705</v>
       </c>
       <c r="K93" t="n">
-        <v>0.149</v>
+        <v>0.044</v>
       </c>
       <c r="L93" t="n">
-        <v>32451</v>
+        <v>29213</v>
       </c>
       <c r="M93" t="n">
-        <v>0.249</v>
+        <v>0.224</v>
       </c>
       <c r="N93" t="n">
-        <v>0.65</v>
+        <v>0.6405</v>
       </c>
       <c r="O93" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="P93" t="s">
         <v>535</v>
@@ -8250,7 +8228,7 @@
         <v>538</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44588</v>
+        <v>44590</v>
       </c>
       <c r="D94" t="s">
         <v>539</v>
@@ -8260,15 +8238,15 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="n">
-        <v>17065</v>
+        <v>13270</v>
       </c>
       <c r="K94" t="n">
-        <v>4.241</v>
+        <v>3.298</v>
       </c>
       <c r="L94"/>
       <c r="M94"/>
@@ -8295,7 +8273,7 @@
         <v>545</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D95" t="s">
         <v>546</v>
@@ -8305,21 +8283,25 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H95" t="n">
-        <v>6839716</v>
+        <v>6879126</v>
       </c>
       <c r="I95" t="n">
-        <v>2054.412</v>
-      </c>
-      <c r="J95"/>
-      <c r="K95"/>
+        <v>2066.249</v>
+      </c>
+      <c r="J95" t="n">
+        <v>9499</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2.853</v>
+      </c>
       <c r="L95" t="n">
-        <v>19837</v>
+        <v>18090</v>
       </c>
       <c r="M95" t="n">
-        <v>5.958</v>
+        <v>5.434</v>
       </c>
       <c r="N95"/>
       <c r="O95"/>
@@ -8344,7 +8326,7 @@
         <v>550</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D96" t="s">
         <v>551</v>
@@ -8354,32 +8336,24 @@
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="H96" t="n">
-        <v>10558046</v>
+        <v>10623022</v>
       </c>
       <c r="I96" t="n">
-        <v>282.718</v>
-      </c>
-      <c r="J96" t="n">
-        <v>25036</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.67</v>
-      </c>
+        <v>284.458</v>
+      </c>
+      <c r="J96"/>
+      <c r="K96"/>
       <c r="L96" t="n">
-        <v>25272</v>
+        <v>21078</v>
       </c>
       <c r="M96" t="n">
-        <v>0.677</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0.2379</v>
-      </c>
-      <c r="O96" t="n">
-        <v>4.2</v>
-      </c>
+        <v>0.564</v>
+      </c>
+      <c r="N96"/>
+      <c r="O96"/>
       <c r="P96" t="s">
         <v>552</v>
       </c>
@@ -8401,7 +8375,7 @@
         <v>556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D97" t="s">
         <v>35</v>
@@ -8411,28 +8385,28 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H97" t="n">
-        <v>1216700</v>
+        <v>1223311</v>
       </c>
       <c r="I97" t="n">
-        <v>37.829</v>
-      </c>
-      <c r="J97"/>
-      <c r="K97"/>
+        <v>38.035</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1176</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.037</v>
+      </c>
       <c r="L97" t="n">
-        <v>2964</v>
+        <v>2412</v>
       </c>
       <c r="M97" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.0955</v>
-      </c>
-      <c r="O97" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0.075</v>
+      </c>
+      <c r="N97"/>
+      <c r="O97"/>
       <c r="P97" t="s">
         <v>36</v>
       </c>
@@ -8454,7 +8428,7 @@
         <v>559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D98" t="s">
         <v>560</v>
@@ -8464,28 +8438,24 @@
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H98" t="n">
-        <v>6327278</v>
+        <v>6353638</v>
       </c>
       <c r="I98" t="n">
-        <v>115.449</v>
+        <v>115.93</v>
       </c>
       <c r="J98"/>
       <c r="K98"/>
       <c r="L98" t="n">
-        <v>11802</v>
+        <v>10083</v>
       </c>
       <c r="M98" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.0114</v>
-      </c>
-      <c r="O98" t="n">
-        <v>88</v>
-      </c>
+        <v>0.184</v>
+      </c>
+      <c r="N98"/>
+      <c r="O98"/>
       <c r="P98" t="s">
         <v>561</v>
       </c>
@@ -8507,7 +8477,7 @@
         <v>565</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D99" t="s">
         <v>35</v>
@@ -8517,28 +8487,28 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="H99" t="n">
-        <v>916464</v>
+        <v>921467</v>
       </c>
       <c r="I99" t="n">
-        <v>354.21</v>
-      </c>
-      <c r="J99"/>
-      <c r="K99"/>
+        <v>356.144</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1214</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.469</v>
+      </c>
       <c r="L99" t="n">
-        <v>1223</v>
+        <v>1332</v>
       </c>
       <c r="M99" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.0848</v>
-      </c>
-      <c r="O99" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0.515</v>
+      </c>
+      <c r="N99"/>
+      <c r="O99"/>
       <c r="P99" t="s">
         <v>566</v>
       </c>
@@ -8560,7 +8530,7 @@
         <v>570</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D100" t="s">
         <v>571</v>
@@ -8570,25 +8540,25 @@
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="H100" t="n">
-        <v>5199495</v>
+        <v>5229874</v>
       </c>
       <c r="I100" t="n">
-        <v>175.215</v>
+        <v>176.239</v>
       </c>
       <c r="J100" t="n">
-        <v>13791</v>
+        <v>10368</v>
       </c>
       <c r="K100" t="n">
-        <v>0.465</v>
+        <v>0.349</v>
       </c>
       <c r="L100" t="n">
-        <v>15096</v>
+        <v>13080</v>
       </c>
       <c r="M100" t="n">
-        <v>0.509</v>
+        <v>0.441</v>
       </c>
       <c r="N100"/>
       <c r="O100"/>
@@ -8613,7 +8583,7 @@
         <v>576</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44587</v>
+        <v>44590</v>
       </c>
       <c r="D101" t="s">
         <v>577</v>
@@ -8623,31 +8593,31 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="H101" t="n">
-        <v>24880629</v>
+        <v>25312020</v>
       </c>
       <c r="I101" t="n">
-        <v>1448.815</v>
+        <v>1473.935</v>
       </c>
       <c r="J101" t="n">
-        <v>150516</v>
+        <v>129469</v>
       </c>
       <c r="K101" t="n">
-        <v>8.765</v>
+        <v>7.539</v>
       </c>
       <c r="L101" t="n">
-        <v>143758</v>
+        <v>145962</v>
       </c>
       <c r="M101" t="n">
-        <v>8.371</v>
+        <v>8.499</v>
       </c>
       <c r="N101" t="n">
-        <v>0.3841</v>
+        <v>0.412</v>
       </c>
       <c r="O101" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="P101" t="s">
         <v>578</v>
@@ -8670,7 +8640,7 @@
         <v>582</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D102" t="s">
         <v>583</v>
@@ -8680,21 +8650,25 @@
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H102" t="n">
-        <v>5978896</v>
+        <v>6033669</v>
       </c>
       <c r="I102" t="n">
-        <v>1166.318</v>
-      </c>
-      <c r="J102"/>
-      <c r="K102"/>
+        <v>1177.003</v>
+      </c>
+      <c r="J102" t="n">
+        <v>13281</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2.591</v>
+      </c>
       <c r="L102" t="n">
-        <v>17513</v>
+        <v>19930</v>
       </c>
       <c r="M102" t="n">
-        <v>3.416</v>
+        <v>3.888</v>
       </c>
       <c r="N102"/>
       <c r="O102"/>
@@ -8719,7 +8693,7 @@
         <v>588</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44584</v>
+        <v>44591</v>
       </c>
       <c r="D103" t="s">
         <v>589</v>
@@ -8729,27 +8703,27 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H103" t="n">
-        <v>4055877</v>
+        <v>4116369</v>
       </c>
       <c r="I103" t="n">
-        <v>19.186</v>
+        <v>19.472</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
       <c r="L103" t="n">
-        <v>9004</v>
+        <v>8642</v>
       </c>
       <c r="M103" t="n">
-        <v>0.043</v>
+        <v>0.041</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02</v>
+        <v>0.0138</v>
       </c>
       <c r="O103" t="n">
-        <v>50.1</v>
+        <v>72.4</v>
       </c>
       <c r="P103" t="s">
         <v>590</v>
@@ -8825,7 +8799,7 @@
         <v>598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44587</v>
+        <v>44590</v>
       </c>
       <c r="D105" t="s">
         <v>599</v>
@@ -8835,31 +8809,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="H105" t="n">
-        <v>9994320</v>
+        <v>10079423</v>
       </c>
       <c r="I105" t="n">
-        <v>1828.576</v>
+        <v>1844.147</v>
       </c>
       <c r="J105" t="n">
-        <v>33436</v>
+        <v>15450</v>
       </c>
       <c r="K105" t="n">
-        <v>6.118</v>
+        <v>2.827</v>
       </c>
       <c r="L105" t="n">
-        <v>35883</v>
+        <v>33967</v>
       </c>
       <c r="M105" t="n">
-        <v>6.565</v>
+        <v>6.215</v>
       </c>
       <c r="N105" t="n">
-        <v>0.5393</v>
+        <v>0.5933</v>
       </c>
       <c r="O105" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="P105" t="s">
         <v>600</v>
@@ -8927,7 +8901,7 @@
         <v>609</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D107" t="s">
         <v>610</v>
@@ -8937,21 +8911,25 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H107" t="n">
-        <v>24822901</v>
+        <v>25018383</v>
       </c>
       <c r="I107" t="n">
-        <v>110.226</v>
-      </c>
-      <c r="J107"/>
-      <c r="K107"/>
+        <v>111.094</v>
+      </c>
+      <c r="J107" t="n">
+        <v>61077</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.271</v>
+      </c>
       <c r="L107" t="n">
-        <v>58169</v>
+        <v>61705</v>
       </c>
       <c r="M107" t="n">
-        <v>0.258</v>
+        <v>0.274</v>
       </c>
       <c r="N107"/>
       <c r="O107"/>
@@ -8976,7 +8954,7 @@
         <v>614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D108" t="s">
         <v>615</v>
@@ -8986,15 +8964,15 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108" t="n">
-        <v>7103</v>
+        <v>19704</v>
       </c>
       <c r="K108" t="n">
-        <v>1.36</v>
+        <v>3.773</v>
       </c>
       <c r="L108"/>
       <c r="M108"/>
@@ -9021,7 +8999,7 @@
         <v>620</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D109" t="s">
         <v>621</v>
@@ -9031,31 +9009,31 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="H109" t="n">
-        <v>5115700</v>
+        <v>5181126</v>
       </c>
       <c r="I109" t="n">
-        <v>1167.546</v>
+        <v>1182.478</v>
       </c>
       <c r="J109" t="n">
-        <v>26743</v>
+        <v>16505</v>
       </c>
       <c r="K109" t="n">
-        <v>6.104</v>
+        <v>3.767</v>
       </c>
       <c r="L109" t="n">
-        <v>25458</v>
+        <v>23099</v>
       </c>
       <c r="M109" t="n">
-        <v>5.81</v>
+        <v>5.272</v>
       </c>
       <c r="N109" t="n">
-        <v>0.3545</v>
+        <v>0.3243</v>
       </c>
       <c r="O109" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P109" t="s">
         <v>622</v>
@@ -9131,7 +9109,7 @@
         <v>631</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D111" t="s">
         <v>632</v>
@@ -9141,32 +9119,28 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="H111" t="n">
-        <v>2313757</v>
+        <v>2348561</v>
       </c>
       <c r="I111" t="n">
-        <v>320.481</v>
+        <v>325.302</v>
       </c>
       <c r="J111" t="n">
-        <v>13010</v>
+        <v>11023</v>
       </c>
       <c r="K111" t="n">
-        <v>1.802</v>
+        <v>1.527</v>
       </c>
       <c r="L111" t="n">
-        <v>12463</v>
+        <v>12054</v>
       </c>
       <c r="M111" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.4969</v>
-      </c>
-      <c r="O111" t="n">
-        <v>2</v>
-      </c>
+        <v>1.67</v>
+      </c>
+      <c r="N111"/>
+      <c r="O111"/>
       <c r="P111" t="s">
         <v>633</v>
       </c>
@@ -9245,7 +9219,7 @@
         <v>642</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44570</v>
+        <v>44582</v>
       </c>
       <c r="D113" t="s">
         <v>643</v>
@@ -9255,31 +9229,31 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="H113" t="n">
-        <v>24297953</v>
+        <v>25196245</v>
       </c>
       <c r="I113" t="n">
-        <v>218.808</v>
+        <v>226.897</v>
       </c>
       <c r="J113" t="n">
-        <v>55394</v>
+        <v>64860</v>
       </c>
       <c r="K113" t="n">
-        <v>0.499</v>
+        <v>0.584</v>
       </c>
       <c r="L113" t="n">
-        <v>67818</v>
+        <v>68771</v>
       </c>
       <c r="M113" t="n">
-        <v>0.611</v>
+        <v>0.619</v>
       </c>
       <c r="N113" t="n">
-        <v>0.2391</v>
+        <v>0.4727</v>
       </c>
       <c r="O113" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="P113" t="s">
         <v>360</v>
@@ -9302,7 +9276,7 @@
         <v>648</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D114" t="s">
         <v>649</v>
@@ -9312,25 +9286,25 @@
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="H114" t="n">
-        <v>29477211</v>
+        <v>29893487</v>
       </c>
       <c r="I114" t="n">
-        <v>779.882</v>
+        <v>790.896</v>
       </c>
       <c r="J114" t="n">
-        <v>173747</v>
+        <v>103855</v>
       </c>
       <c r="K114" t="n">
-        <v>4.597</v>
+        <v>2.748</v>
       </c>
       <c r="L114" t="n">
-        <v>143455</v>
+        <v>152852</v>
       </c>
       <c r="M114" t="n">
-        <v>3.795</v>
+        <v>4.044</v>
       </c>
       <c r="N114"/>
       <c r="O114"/>
@@ -9355,7 +9329,7 @@
         <v>653</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D115" t="s">
         <v>649</v>
@@ -9365,31 +9339,31 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="H115" t="n">
-        <v>30107897</v>
+        <v>30534442</v>
       </c>
       <c r="I115" t="n">
-        <v>796.568</v>
+        <v>807.854</v>
       </c>
       <c r="J115" t="n">
-        <v>178308</v>
+        <v>106663</v>
       </c>
       <c r="K115" t="n">
-        <v>4.718</v>
+        <v>2.822</v>
       </c>
       <c r="L115" t="n">
-        <v>147550</v>
+        <v>157103</v>
       </c>
       <c r="M115" t="n">
-        <v>3.904</v>
+        <v>4.156</v>
       </c>
       <c r="N115" t="n">
-        <v>0.2797</v>
+        <v>0.3041</v>
       </c>
       <c r="O115" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P115" t="s">
         <v>650</v>
@@ -9412,7 +9386,7 @@
         <v>655</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44587</v>
+        <v>44591</v>
       </c>
       <c r="D116" t="s">
         <v>656</v>
@@ -9422,31 +9396,31 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="H116" t="n">
-        <v>33409187</v>
+        <v>34498930</v>
       </c>
       <c r="I116" t="n">
-        <v>3285.744</v>
+        <v>3392.918</v>
       </c>
       <c r="J116" t="n">
-        <v>318132</v>
+        <v>138914</v>
       </c>
       <c r="K116" t="n">
-        <v>31.288</v>
+        <v>13.662</v>
       </c>
       <c r="L116" t="n">
-        <v>300364</v>
+        <v>292592</v>
       </c>
       <c r="M116" t="n">
-        <v>29.54</v>
+        <v>28.776</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1782</v>
+        <v>0.1904</v>
       </c>
       <c r="O116" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="P116" t="s">
         <v>657</v>
@@ -9522,7 +9496,7 @@
         <v>666</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D118" t="s">
         <v>667</v>
@@ -9532,21 +9506,25 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H118" t="n">
-        <v>18900824</v>
+        <v>19109032</v>
       </c>
       <c r="I118" t="n">
-        <v>988.135</v>
-      </c>
-      <c r="J118"/>
-      <c r="K118"/>
+        <v>999.02</v>
+      </c>
+      <c r="J118" t="n">
+        <v>52482</v>
+      </c>
+      <c r="K118" t="n">
+        <v>2.744</v>
+      </c>
       <c r="L118" t="n">
-        <v>75934</v>
+        <v>83021</v>
       </c>
       <c r="M118" t="n">
-        <v>3.97</v>
+        <v>4.34</v>
       </c>
       <c r="N118"/>
       <c r="O118"/>
@@ -9571,7 +9549,7 @@
         <v>673</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44587</v>
+        <v>44592</v>
       </c>
       <c r="D119" t="s">
         <v>674</v>
@@ -9581,32 +9559,28 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="H119" t="n">
-        <v>251685602</v>
+        <v>256163244</v>
       </c>
       <c r="I119" t="n">
-        <v>1724.913</v>
+        <v>1755.601</v>
       </c>
       <c r="J119" t="n">
-        <v>543339</v>
+        <v>866584</v>
       </c>
       <c r="K119" t="n">
-        <v>3.724</v>
+        <v>5.939</v>
       </c>
       <c r="L119" t="n">
-        <v>482456</v>
+        <v>749446</v>
       </c>
       <c r="M119" t="n">
-        <v>3.306</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.1223</v>
-      </c>
-      <c r="O119" t="n">
-        <v>8.2</v>
-      </c>
+        <v>5.136</v>
+      </c>
+      <c r="N119"/>
+      <c r="O119"/>
       <c r="P119" t="s">
         <v>675</v>
       </c>
@@ -9628,7 +9602,7 @@
         <v>679</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D120" t="s">
         <v>680</v>
@@ -9638,25 +9612,25 @@
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H120" t="n">
-        <v>4455633</v>
+        <v>4495157</v>
       </c>
       <c r="I120" t="n">
-        <v>335.603</v>
+        <v>338.58</v>
       </c>
       <c r="J120" t="n">
-        <v>13157</v>
+        <v>12406</v>
       </c>
       <c r="K120" t="n">
-        <v>0.991</v>
+        <v>0.934</v>
       </c>
       <c r="L120" t="n">
-        <v>12635</v>
+        <v>12545</v>
       </c>
       <c r="M120" t="n">
-        <v>0.952</v>
+        <v>0.945</v>
       </c>
       <c r="N120"/>
       <c r="O120"/>
@@ -9681,7 +9655,7 @@
         <v>685</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D121" t="s">
         <v>686</v>
@@ -9691,25 +9665,21 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H121" t="n">
-        <v>64996</v>
+        <v>65198</v>
       </c>
       <c r="I121" t="n">
-        <v>1213.835</v>
-      </c>
-      <c r="J121" t="n">
-        <v>177</v>
-      </c>
-      <c r="K121" t="n">
-        <v>3.306</v>
-      </c>
+        <v>1217.607</v>
+      </c>
+      <c r="J121"/>
+      <c r="K121"/>
       <c r="L121" t="n">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="M121" t="n">
-        <v>2.204</v>
+        <v>1.606</v>
       </c>
       <c r="N121"/>
       <c r="O121"/>
@@ -9720,7 +9690,7 @@
         <v>687</v>
       </c>
       <c r="R121" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S121" t="s">
         <v>688</v>
@@ -9734,7 +9704,7 @@
         <v>690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44589</v>
+        <v>44591</v>
       </c>
       <c r="D122" t="s">
         <v>691</v>
@@ -9744,21 +9714,21 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H122" t="n">
-        <v>97022</v>
+        <v>97148</v>
       </c>
       <c r="I122" t="n">
-        <v>871.959</v>
+        <v>873.091</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
       <c r="L122" t="n">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M122" t="n">
-        <v>0.917</v>
+        <v>0.818</v>
       </c>
       <c r="N122"/>
       <c r="O122"/>
@@ -9783,7 +9753,7 @@
         <v>696</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D123" t="s">
         <v>697</v>
@@ -9793,31 +9763,31 @@
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="H123" t="n">
-        <v>37465280</v>
+        <v>37872209</v>
       </c>
       <c r="I123" t="n">
-        <v>1060.118</v>
+        <v>1071.632</v>
       </c>
       <c r="J123" t="n">
-        <v>152429</v>
+        <v>145645</v>
       </c>
       <c r="K123" t="n">
-        <v>4.313</v>
+        <v>4.121</v>
       </c>
       <c r="L123" t="n">
-        <v>159032</v>
+        <v>154339</v>
       </c>
       <c r="M123" t="n">
-        <v>4.5</v>
+        <v>4.367</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0293</v>
+        <v>0.0284</v>
       </c>
       <c r="O123" t="n">
-        <v>34.1</v>
+        <v>35.2</v>
       </c>
       <c r="P123" t="s">
         <v>42</v>
@@ -9840,7 +9810,7 @@
         <v>700</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D124" t="s">
         <v>701</v>
@@ -9850,25 +9820,25 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="H124" t="n">
-        <v>989801</v>
+        <v>994447</v>
       </c>
       <c r="I124" t="n">
-        <v>57.559</v>
+        <v>57.829</v>
       </c>
       <c r="J124" t="n">
-        <v>1506</v>
+        <v>1265</v>
       </c>
       <c r="K124" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1510</v>
+      </c>
+      <c r="M124" t="n">
         <v>0.088</v>
-      </c>
-      <c r="L124" t="n">
-        <v>1613</v>
-      </c>
-      <c r="M124" t="n">
-        <v>0.094</v>
       </c>
       <c r="N124"/>
       <c r="O124"/>
@@ -9893,7 +9863,7 @@
         <v>705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D125" t="s">
         <v>706</v>
@@ -9905,32 +9875,28 @@
         <v>707</v>
       </c>
       <c r="G125" t="n">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="H125" t="n">
-        <v>8010329</v>
+        <v>8132088</v>
       </c>
       <c r="I125" t="n">
-        <v>1165.724</v>
+        <v>1183.444</v>
       </c>
       <c r="J125" t="n">
-        <v>35974</v>
+        <v>31521</v>
       </c>
       <c r="K125" t="n">
-        <v>5.235</v>
+        <v>4.587</v>
       </c>
       <c r="L125" t="n">
-        <v>33337</v>
+        <v>33547</v>
       </c>
       <c r="M125" t="n">
-        <v>4.851</v>
-      </c>
-      <c r="N125" t="n">
-        <v>0.4926</v>
-      </c>
-      <c r="O125" t="n">
-        <v>2</v>
-      </c>
+        <v>4.882</v>
+      </c>
+      <c r="N125"/>
+      <c r="O125"/>
       <c r="P125" t="s">
         <v>42</v>
       </c>
@@ -10005,7 +9971,7 @@
         <v>717</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D127" t="s">
         <v>718</v>
@@ -10015,31 +9981,31 @@
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="H127" t="n">
-        <v>47598528</v>
+        <v>47795900</v>
       </c>
       <c r="I127" t="n">
-        <v>8734.845</v>
+        <v>8771.065</v>
       </c>
       <c r="J127" t="n">
-        <v>31846</v>
+        <v>33247</v>
       </c>
       <c r="K127" t="n">
-        <v>5.844</v>
+        <v>6.101</v>
       </c>
       <c r="L127" t="n">
-        <v>52275</v>
+        <v>62110</v>
       </c>
       <c r="M127" t="n">
-        <v>9.593</v>
+        <v>11.398</v>
       </c>
       <c r="N127" t="n">
-        <v>0.216</v>
+        <v>0.239</v>
       </c>
       <c r="O127" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="P127" t="s">
         <v>42</v>
@@ -10062,7 +10028,7 @@
         <v>721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D128" t="s">
         <v>722</v>
@@ -10072,31 +10038,31 @@
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="H128" t="n">
-        <v>2425386</v>
+        <v>2475428</v>
       </c>
       <c r="I128" t="n">
-        <v>1166.767</v>
+        <v>1190.841</v>
       </c>
       <c r="J128" t="n">
-        <v>22270</v>
+        <v>11067</v>
       </c>
       <c r="K128" t="n">
-        <v>10.713</v>
+        <v>5.324</v>
       </c>
       <c r="L128" t="n">
-        <v>18079</v>
+        <v>18851</v>
       </c>
       <c r="M128" t="n">
-        <v>8.697</v>
+        <v>9.069</v>
       </c>
       <c r="N128" t="n">
-        <v>0.74</v>
+        <v>0.748</v>
       </c>
       <c r="O128" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="P128" t="s">
         <v>723</v>
@@ -10119,7 +10085,7 @@
         <v>726</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D129" t="s">
         <v>727</v>
@@ -10131,32 +10097,28 @@
         <v>729</v>
       </c>
       <c r="G129" t="n">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="H129" t="n">
-        <v>22159247</v>
+        <v>22268519</v>
       </c>
       <c r="I129" t="n">
-        <v>369.062</v>
+        <v>370.882</v>
       </c>
       <c r="J129" t="n">
-        <v>38912</v>
+        <v>16930</v>
       </c>
       <c r="K129" t="n">
-        <v>0.648</v>
+        <v>0.282</v>
       </c>
       <c r="L129" t="n">
-        <v>32285</v>
+        <v>32441</v>
       </c>
       <c r="M129" t="n">
-        <v>0.538</v>
-      </c>
-      <c r="N129" t="n">
-        <v>0.0957</v>
-      </c>
-      <c r="O129" t="n">
-        <v>10.4</v>
-      </c>
+        <v>0.54</v>
+      </c>
+      <c r="N129"/>
+      <c r="O129"/>
       <c r="P129" t="s">
         <v>730</v>
       </c>
@@ -10178,7 +10140,7 @@
         <v>733</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D130" t="s">
         <v>734</v>
@@ -10190,31 +10152,31 @@
         <v>736</v>
       </c>
       <c r="G130" t="n">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="H130" t="n">
-        <v>50673944</v>
+        <v>51527756</v>
       </c>
       <c r="I130" t="n">
-        <v>987.696</v>
+        <v>1004.338</v>
       </c>
       <c r="J130" t="n">
-        <v>292189</v>
+        <v>218716</v>
       </c>
       <c r="K130" t="n">
-        <v>5.695</v>
+        <v>4.263</v>
       </c>
       <c r="L130" t="n">
-        <v>238571</v>
+        <v>266946</v>
       </c>
       <c r="M130" t="n">
-        <v>4.65</v>
+        <v>5.203</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0445</v>
+        <v>0.0558</v>
       </c>
       <c r="O130" t="n">
-        <v>22.5</v>
+        <v>17.9</v>
       </c>
       <c r="P130" t="s">
         <v>737</v>
@@ -10237,7 +10199,7 @@
         <v>741</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D131" t="s">
         <v>35</v>
@@ -10247,28 +10209,28 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H131" t="n">
-        <v>318930</v>
+        <v>321540</v>
       </c>
       <c r="I131" t="n">
-        <v>28.022</v>
-      </c>
-      <c r="J131"/>
-      <c r="K131"/>
+        <v>28.251</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1150</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.101</v>
+      </c>
       <c r="L131" t="n">
-        <v>1172</v>
+        <v>641</v>
       </c>
       <c r="M131" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="N131" t="n">
-        <v>0.0171</v>
-      </c>
-      <c r="O131" t="n">
-        <v>58.6</v>
-      </c>
+        <v>0.056</v>
+      </c>
+      <c r="N131"/>
+      <c r="O131"/>
       <c r="P131" t="s">
         <v>36</v>
       </c>
@@ -10290,7 +10252,7 @@
         <v>744</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="D132" t="s">
         <v>745</v>
@@ -10300,31 +10262,31 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="H132" t="n">
-        <v>81081723</v>
+        <v>81955832</v>
       </c>
       <c r="I132" t="n">
-        <v>1734.546</v>
+        <v>1753.246</v>
       </c>
       <c r="J132" t="n">
-        <v>271103</v>
+        <v>214730</v>
       </c>
       <c r="K132" t="n">
-        <v>5.8</v>
+        <v>4.594</v>
       </c>
       <c r="L132" t="n">
-        <v>278156</v>
+        <v>248694</v>
       </c>
       <c r="M132" t="n">
-        <v>5.95</v>
+        <v>5.32</v>
       </c>
       <c r="N132" t="n">
-        <v>0.369</v>
+        <v>0.359</v>
       </c>
       <c r="O132" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P132" t="s">
         <v>746</v>
@@ -10347,7 +10309,7 @@
         <v>749</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D133" t="s">
         <v>750</v>
@@ -10357,31 +10319,31 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="H133" t="n">
-        <v>6082104</v>
+        <v>6109282</v>
       </c>
       <c r="I133" t="n">
-        <v>282.924</v>
+        <v>284.188</v>
       </c>
       <c r="J133" t="n">
-        <v>7956</v>
+        <v>8207</v>
       </c>
       <c r="K133" t="n">
-        <v>0.37</v>
+        <v>0.382</v>
       </c>
       <c r="L133" t="n">
-        <v>8051</v>
+        <v>8649</v>
       </c>
       <c r="M133" t="n">
-        <v>0.375</v>
+        <v>0.402</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1374</v>
+        <v>0.1357</v>
       </c>
       <c r="O133" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="P133" t="s">
         <v>751</v>
@@ -10461,7 +10423,7 @@
         <v>761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D135" t="s">
         <v>484</v>
@@ -10471,31 +10433,31 @@
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="H135" t="n">
-        <v>16694256</v>
+        <v>16950646</v>
       </c>
       <c r="I135" t="n">
-        <v>1915.469</v>
+        <v>1944.886</v>
       </c>
       <c r="J135" t="n">
-        <v>84327</v>
+        <v>35785</v>
       </c>
       <c r="K135" t="n">
-        <v>9.676</v>
+        <v>4.106</v>
       </c>
       <c r="L135" t="n">
-        <v>95087</v>
+        <v>98106</v>
       </c>
       <c r="M135" t="n">
-        <v>10.91</v>
+        <v>11.257</v>
       </c>
       <c r="N135" t="n">
-        <v>0.409</v>
+        <v>0.402</v>
       </c>
       <c r="O135" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P135" t="s">
         <v>485</v>
@@ -10518,7 +10480,7 @@
         <v>764</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D136" t="s">
         <v>765</v>
@@ -10528,31 +10490,31 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="H136" t="n">
-        <v>5613922</v>
+        <v>5678564</v>
       </c>
       <c r="I136" t="n">
-        <v>235.335</v>
+        <v>238.045</v>
       </c>
       <c r="J136" t="n">
-        <v>17111</v>
+        <v>12659</v>
       </c>
       <c r="K136" t="n">
-        <v>0.717</v>
+        <v>0.531</v>
       </c>
       <c r="L136" t="n">
-        <v>29806</v>
+        <v>27680</v>
       </c>
       <c r="M136" t="n">
-        <v>1.249</v>
+        <v>1.16</v>
       </c>
       <c r="N136" t="n">
-        <v>0.0025</v>
+        <v>0.0021</v>
       </c>
       <c r="O136" t="n">
-        <v>397.4</v>
+        <v>472.6</v>
       </c>
       <c r="P136" t="s">
         <v>766</v>
@@ -10685,7 +10647,7 @@
         <v>780</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D139"/>
       <c r="E139" t="s">
@@ -10695,32 +10657,28 @@
         <v>782</v>
       </c>
       <c r="G139" t="n">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="H139" t="n">
-        <v>659667</v>
+        <v>663422</v>
       </c>
       <c r="I139" t="n">
-        <v>77.807</v>
+        <v>78.25</v>
       </c>
       <c r="J139" t="n">
-        <v>1172</v>
+        <v>770</v>
       </c>
       <c r="K139" t="n">
-        <v>0.138</v>
+        <v>0.091</v>
       </c>
       <c r="L139" t="n">
-        <v>1134</v>
+        <v>1018</v>
       </c>
       <c r="M139" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="N139" t="n">
-        <v>0.0348</v>
-      </c>
-      <c r="O139" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0.12</v>
+      </c>
+      <c r="N139"/>
+      <c r="O139"/>
       <c r="P139" t="s">
         <v>781</v>
       </c>
@@ -10799,7 +10757,7 @@
         <v>792</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>44587</v>
+        <v>44590</v>
       </c>
       <c r="D141" t="s">
         <v>793</v>
@@ -10809,24 +10767,28 @@
       </c>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H141" t="n">
-        <v>3962119</v>
+        <v>4026806</v>
       </c>
       <c r="I141" t="n">
-        <v>331.954</v>
-      </c>
-      <c r="J141"/>
-      <c r="K141"/>
+        <v>337.373</v>
+      </c>
+      <c r="J141" t="n">
+        <v>20166</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1.69</v>
+      </c>
       <c r="L141" t="n">
-        <v>25463</v>
+        <v>22561</v>
       </c>
       <c r="M141" t="n">
-        <v>2.133</v>
+        <v>1.89</v>
       </c>
       <c r="N141" t="n">
-        <v>0.3484</v>
+        <v>0.3441</v>
       </c>
       <c r="O141" t="n">
         <v>2.9</v>
@@ -10852,7 +10814,7 @@
         <v>799</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D142" t="s">
         <v>800</v>
@@ -10862,32 +10824,28 @@
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="H142" t="n">
-        <v>129855963</v>
+        <v>131597959</v>
       </c>
       <c r="I142" t="n">
-        <v>1526.949</v>
+        <v>1547.433</v>
       </c>
       <c r="J142" t="n">
-        <v>424164</v>
+        <v>435513</v>
       </c>
       <c r="K142" t="n">
-        <v>4.988</v>
+        <v>5.121</v>
       </c>
       <c r="L142" t="n">
-        <v>412380</v>
+        <v>428732</v>
       </c>
       <c r="M142" t="n">
-        <v>4.849</v>
-      </c>
-      <c r="N142" t="n">
-        <v>0.178</v>
-      </c>
-      <c r="O142" t="n">
-        <v>5.6</v>
-      </c>
+        <v>5.041</v>
+      </c>
+      <c r="N142"/>
+      <c r="O142"/>
       <c r="P142" t="s">
         <v>801</v>
       </c>
@@ -10909,7 +10867,7 @@
         <v>805</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44587</v>
+        <v>44590</v>
       </c>
       <c r="D143" t="s">
         <v>806</v>
@@ -10919,31 +10877,31 @@
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H143" t="n">
-        <v>2334756</v>
+        <v>2350819</v>
       </c>
       <c r="I143" t="n">
-        <v>49.545</v>
+        <v>49.886</v>
       </c>
       <c r="J143" t="n">
-        <v>4599</v>
+        <v>4740</v>
       </c>
       <c r="K143" t="n">
-        <v>0.098</v>
+        <v>0.101</v>
       </c>
       <c r="L143" t="n">
-        <v>5594</v>
+        <v>5305</v>
       </c>
       <c r="M143" t="n">
-        <v>0.119</v>
+        <v>0.113</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0435</v>
+        <v>0.0365</v>
       </c>
       <c r="O143" t="n">
-        <v>23</v>
+        <v>27.4</v>
       </c>
       <c r="P143" t="s">
         <v>807</v>
@@ -10966,7 +10924,7 @@
         <v>811</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D144" t="s">
         <v>812</v>
@@ -10976,25 +10934,25 @@
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H144" t="n">
-        <v>17848132</v>
+        <v>18045688</v>
       </c>
       <c r="I144" t="n">
-        <v>410.615</v>
+        <v>415.16</v>
       </c>
       <c r="J144" t="n">
-        <v>91934</v>
+        <v>36354</v>
       </c>
       <c r="K144" t="n">
-        <v>2.115</v>
+        <v>0.836</v>
       </c>
       <c r="L144" t="n">
-        <v>65472</v>
+        <v>74623</v>
       </c>
       <c r="M144" t="n">
-        <v>1.506</v>
+        <v>1.717</v>
       </c>
       <c r="N144"/>
       <c r="O144"/>
@@ -11019,7 +10977,7 @@
         <v>817</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D145" t="s">
         <v>818</v>
@@ -11029,25 +10987,25 @@
       </c>
       <c r="F145"/>
       <c r="G145" t="n">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="H145" t="n">
-        <v>123694899</v>
+        <v>125131564</v>
       </c>
       <c r="I145" t="n">
-        <v>12380.53</v>
+        <v>12524.324</v>
       </c>
       <c r="J145" t="n">
-        <v>490562</v>
+        <v>492099</v>
       </c>
       <c r="K145" t="n">
-        <v>49.1</v>
+        <v>49.254</v>
       </c>
       <c r="L145" t="n">
-        <v>510023</v>
+        <v>502733</v>
       </c>
       <c r="M145" t="n">
-        <v>51.048</v>
+        <v>50.318</v>
       </c>
       <c r="N145"/>
       <c r="O145"/>
@@ -11072,7 +11030,7 @@
         <v>822</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="D146" t="s">
         <v>823</v>
@@ -11082,31 +11040,31 @@
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H146" t="n">
-        <v>432822845</v>
+        <v>434202494</v>
       </c>
       <c r="I146" t="n">
-        <v>6345.714</v>
+        <v>6365.941</v>
       </c>
       <c r="J146" t="n">
-        <v>1505161</v>
+        <v>1379649</v>
       </c>
       <c r="K146" t="n">
-        <v>22.068</v>
+        <v>20.227</v>
       </c>
       <c r="L146" t="n">
-        <v>1342302</v>
+        <v>1329906</v>
       </c>
       <c r="M146" t="n">
-        <v>19.68</v>
+        <v>19.498</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0687</v>
+        <v>0.0682</v>
       </c>
       <c r="O146" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="P146" t="s">
         <v>825</v>
@@ -11129,7 +11087,7 @@
         <v>829</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44583</v>
+        <v>44586</v>
       </c>
       <c r="D147" t="s">
         <v>830</v>
@@ -11139,31 +11097,31 @@
       </c>
       <c r="F147"/>
       <c r="G147" t="n">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="H147" t="n">
-        <v>771818090</v>
+        <v>776785623</v>
       </c>
       <c r="I147" t="n">
-        <v>2318.363</v>
+        <v>2333.285</v>
       </c>
       <c r="J147" t="n">
-        <v>1264597</v>
+        <v>1376333</v>
       </c>
       <c r="K147" t="n">
-        <v>3.799</v>
+        <v>4.134</v>
       </c>
       <c r="L147" t="n">
-        <v>1937989</v>
+        <v>1850098</v>
       </c>
       <c r="M147" t="n">
-        <v>5.821</v>
+        <v>5.557</v>
       </c>
       <c r="N147" t="n">
-        <v>0.25</v>
+        <v>0.236</v>
       </c>
       <c r="O147" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P147" t="s">
         <v>831</v>
@@ -11186,7 +11144,7 @@
         <v>835</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D148" t="s">
         <v>836</v>
@@ -11196,28 +11154,28 @@
       </c>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="H148" t="n">
-        <v>5119795</v>
+        <v>5198327</v>
       </c>
       <c r="I148" t="n">
-        <v>1469.031</v>
+        <v>1491.564</v>
       </c>
       <c r="J148" t="n">
-        <v>23944</v>
+        <v>19241</v>
       </c>
       <c r="K148" t="n">
-        <v>6.87</v>
+        <v>5.521</v>
       </c>
       <c r="L148" t="n">
-        <v>27018</v>
+        <v>25719</v>
       </c>
       <c r="M148" t="n">
-        <v>7.752</v>
+        <v>7.38</v>
       </c>
       <c r="N148" t="n">
-        <v>0.3958</v>
+        <v>0.4024</v>
       </c>
       <c r="O148" t="n">
         <v>2.5</v>
@@ -11243,7 +11201,7 @@
         <v>839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44586</v>
+        <v>44590</v>
       </c>
       <c r="D149" t="s">
         <v>840</v>
@@ -11253,27 +11211,27 @@
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H149" t="n">
-        <v>37744856</v>
+        <v>37895065</v>
       </c>
       <c r="I149" t="n">
-        <v>384.489</v>
+        <v>386.019</v>
       </c>
       <c r="J149"/>
       <c r="K149"/>
       <c r="L149" t="n">
-        <v>57208</v>
+        <v>46393</v>
       </c>
       <c r="M149" t="n">
-        <v>0.583</v>
+        <v>0.473</v>
       </c>
       <c r="N149" t="n">
-        <v>0.2732</v>
+        <v>0.329</v>
       </c>
       <c r="O149" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="P149" t="s">
         <v>842</v>
@@ -11326,8 +11284,12 @@
       <c r="M150" t="n">
         <v>0.241</v>
       </c>
-      <c r="N150"/>
-      <c r="O150"/>
+      <c r="N150" t="n">
+        <v>0.1179</v>
+      </c>
+      <c r="O150" t="n">
+        <v>8.5</v>
+      </c>
       <c r="P150" t="s">
         <v>849</v>
       </c>
@@ -11349,7 +11311,7 @@
         <v>852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D151" t="s">
         <v>853</v>
@@ -11359,32 +11321,28 @@
       </c>
       <c r="F151"/>
       <c r="G151" t="n">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="H151" t="n">
-        <v>1839994</v>
+        <v>1850756</v>
       </c>
       <c r="I151" t="n">
-        <v>121.917</v>
+        <v>122.63</v>
       </c>
       <c r="J151" t="n">
-        <v>3882</v>
+        <v>3653</v>
       </c>
       <c r="K151" t="n">
-        <v>0.257</v>
+        <v>0.242</v>
       </c>
       <c r="L151" t="n">
-        <v>3388</v>
+        <v>3060</v>
       </c>
       <c r="M151" t="n">
-        <v>0.224</v>
-      </c>
-      <c r="N151" t="n">
-        <v>0.0651</v>
-      </c>
-      <c r="O151" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0.203</v>
+      </c>
+      <c r="N151"/>
+      <c r="O151"/>
       <c r="P151" t="s">
         <v>854</v>
       </c>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-3500-testime-939-qytetare-te-infektuar-5-humbje-jete-dhe-1825-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-3030-testime-522-qytetare-te-infektuar-4-humbje-jete-dhe-2259-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-2221-new-cases-1922-recoveries_i_0000140081.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1918-new-cases-1359-recoveries_i_0000140176.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-31012022-40ip</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-02022022-1kju</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -1063,7 +1063,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2022/215</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2022/230</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/379231</t>
+    <t xml:space="preserve">https://irangov.ir/detail/379400</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -1801,7 +1801,7 @@
     <t xml:space="preserve">Moldova - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://msmps.gov.md/comunicare/comunicate/3700-cazuri-de-covid-19-raportate-in-ultimele-24-de-ore/</t>
+    <t xml:space="preserve">https://msmps.gov.md/comunicare/comunicate/alte-4-794-de-cazuri-noi-de-covid-19-raportate-pentru-1-februarie-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of the Republic of Moldova</t>
@@ -2238,7 +2238,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_-_31_ianuarie_2022,_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRES%C4%82_-_2_februarie_2022,_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20517</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20541</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -3292,7 +3292,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3302,31 +3302,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H2" t="n">
-        <v>1559750</v>
+        <v>1562780</v>
       </c>
       <c r="I2" t="n">
-        <v>542.912</v>
+        <v>543.967</v>
       </c>
       <c r="J2" t="n">
-        <v>3500</v>
+        <v>3030</v>
       </c>
       <c r="K2" t="n">
-        <v>1.218</v>
+        <v>1.055</v>
       </c>
       <c r="L2" t="n">
-        <v>2318</v>
+        <v>2246</v>
       </c>
       <c r="M2" t="n">
-        <v>0.807</v>
+        <v>0.782</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4728</v>
+        <v>0.6661</v>
       </c>
       <c r="O2" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -3500,7 +3500,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3510,31 +3510,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H6" t="n">
-        <v>32484485</v>
+        <v>32649362</v>
       </c>
       <c r="I6" t="n">
-        <v>712.288</v>
+        <v>715.903</v>
       </c>
       <c r="J6" t="n">
-        <v>33615</v>
+        <v>62169</v>
       </c>
       <c r="K6" t="n">
-        <v>0.737</v>
+        <v>1.363</v>
       </c>
       <c r="L6" t="n">
-        <v>76003</v>
+        <v>69151</v>
       </c>
       <c r="M6" t="n">
-        <v>1.667</v>
+        <v>1.516</v>
       </c>
       <c r="N6" t="n">
-        <v>0.575</v>
+        <v>0.528</v>
       </c>
       <c r="O6" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="P6" t="s">
         <v>49</v>
@@ -3587,8 +3587,12 @@
       <c r="M7" t="n">
         <v>2.284</v>
       </c>
-      <c r="N7"/>
-      <c r="O7"/>
+      <c r="N7" t="n">
+        <v>0.3244</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.1</v>
+      </c>
       <c r="P7" t="s">
         <v>42</v>
       </c>
@@ -3610,7 +3614,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3622,25 +3626,25 @@
         <v>61</v>
       </c>
       <c r="G8" t="n">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H8" t="n">
-        <v>61043259</v>
+        <v>61281383</v>
       </c>
       <c r="I8" t="n">
-        <v>2367.099</v>
+        <v>2376.333</v>
       </c>
       <c r="J8" t="n">
-        <v>83826</v>
+        <v>130347</v>
       </c>
       <c r="K8" t="n">
-        <v>3.251</v>
+        <v>5.055</v>
       </c>
       <c r="L8" t="n">
-        <v>125668</v>
+        <v>117417</v>
       </c>
       <c r="M8" t="n">
-        <v>4.873</v>
+        <v>4.553</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -3665,7 +3669,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D9" t="s">
         <v>66</v>
@@ -3675,25 +3679,25 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H9" t="n">
-        <v>142080341</v>
+        <v>144013076</v>
       </c>
       <c r="I9" t="n">
-        <v>15711.513</v>
+        <v>15925.238</v>
       </c>
       <c r="J9" t="n">
-        <v>292063</v>
+        <v>1223923</v>
       </c>
       <c r="K9" t="n">
-        <v>32.297</v>
+        <v>135.344</v>
       </c>
       <c r="L9" t="n">
-        <v>721183</v>
+        <v>807983</v>
       </c>
       <c r="M9" t="n">
-        <v>79.75</v>
+        <v>89.348</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3718,7 +3722,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
@@ -3728,25 +3732,25 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H10" t="n">
-        <v>6156388</v>
+        <v>6191130</v>
       </c>
       <c r="I10" t="n">
-        <v>602.189</v>
+        <v>605.588</v>
       </c>
       <c r="J10" t="n">
-        <v>7232</v>
+        <v>18797</v>
       </c>
       <c r="K10" t="n">
-        <v>0.707</v>
+        <v>1.839</v>
       </c>
       <c r="L10" t="n">
-        <v>12281</v>
+        <v>13805</v>
       </c>
       <c r="M10" t="n">
-        <v>1.201</v>
+        <v>1.35</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -3828,7 +3832,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3838,25 +3842,21 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H12" t="n">
-        <v>8780381</v>
+        <v>8808927</v>
       </c>
       <c r="I12" t="n">
-        <v>5022.254</v>
-      </c>
-      <c r="J12" t="n">
-        <v>28903</v>
-      </c>
-      <c r="K12" t="n">
-        <v>16.532</v>
-      </c>
+        <v>5038.582</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
       <c r="L12" t="n">
-        <v>27019</v>
+        <v>24411</v>
       </c>
       <c r="M12" t="n">
-        <v>15.454</v>
+        <v>13.963</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -3911,8 +3911,12 @@
       <c r="M13" t="n">
         <v>0.271</v>
       </c>
-      <c r="N13"/>
-      <c r="O13"/>
+      <c r="N13" t="n">
+        <v>0.3129</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3.2</v>
+      </c>
       <c r="P13" t="s">
         <v>90</v>
       </c>
@@ -3934,7 +3938,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44589</v>
+        <v>44593</v>
       </c>
       <c r="D14" t="s">
         <v>94</v>
@@ -3944,31 +3948,27 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H14" t="n">
-        <v>11608146</v>
+        <v>11731354</v>
       </c>
       <c r="I14" t="n">
-        <v>1229.303</v>
-      </c>
-      <c r="J14" t="n">
-        <v>36512</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.867</v>
-      </c>
+        <v>1242.351</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
       <c r="L14" t="n">
-        <v>25565</v>
+        <v>31723</v>
       </c>
       <c r="M14" t="n">
-        <v>2.707</v>
+        <v>3.359</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0747</v>
+        <v>0.066</v>
       </c>
       <c r="O14" t="n">
-        <v>13.4</v>
+        <v>15.1</v>
       </c>
       <c r="P14" t="s">
         <v>96</v>
@@ -3991,7 +3991,7 @@
         <v>100</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
@@ -4001,28 +4001,28 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="H15" t="n">
-        <v>29980263</v>
+        <v>30309376</v>
       </c>
       <c r="I15" t="n">
-        <v>2577.321</v>
+        <v>2605.614</v>
       </c>
       <c r="J15" t="n">
-        <v>111505</v>
+        <v>70247</v>
       </c>
       <c r="K15" t="n">
-        <v>9.586</v>
+        <v>6.039</v>
       </c>
       <c r="L15" t="n">
-        <v>116646</v>
+        <v>104676</v>
       </c>
       <c r="M15" t="n">
-        <v>10.028</v>
+        <v>8.999</v>
       </c>
       <c r="N15" t="n">
-        <v>0.465</v>
+        <v>0.451</v>
       </c>
       <c r="O15" t="n">
         <v>2.2</v>
@@ -4176,8 +4176,12 @@
       <c r="M18" t="n">
         <v>12.264</v>
       </c>
-      <c r="N18"/>
-      <c r="O18"/>
+      <c r="N18" t="n">
+        <v>0.0161</v>
+      </c>
+      <c r="O18" t="n">
+        <v>62</v>
+      </c>
       <c r="P18" t="s">
         <v>42</v>
       </c>
@@ -4199,7 +4203,7 @@
         <v>124</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44588</v>
+        <v>44593</v>
       </c>
       <c r="D19" t="s">
         <v>125</v>
@@ -4211,31 +4215,31 @@
         <v>127</v>
       </c>
       <c r="G19" t="n">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="H19" t="n">
-        <v>3577264</v>
+        <v>3642315</v>
       </c>
       <c r="I19" t="n">
-        <v>302.314</v>
+        <v>307.812</v>
       </c>
       <c r="J19" t="n">
-        <v>19845</v>
+        <v>15396</v>
       </c>
       <c r="K19" t="n">
-        <v>1.677</v>
+        <v>1.301</v>
       </c>
       <c r="L19" t="n">
-        <v>17783</v>
+        <v>14991</v>
       </c>
       <c r="M19" t="n">
-        <v>1.503</v>
+        <v>1.267</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3749</v>
+        <v>0.2983</v>
       </c>
       <c r="O19" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="P19" t="s">
         <v>42</v>
@@ -4364,7 +4368,7 @@
         <v>140</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>44585</v>
+        <v>44593</v>
       </c>
       <c r="D22" t="s">
         <v>141</v>
@@ -4376,21 +4380,21 @@
         <v>143</v>
       </c>
       <c r="G22" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H22" t="n">
-        <v>66606202</v>
+        <v>67204366</v>
       </c>
       <c r="I22" t="n">
-        <v>311.253</v>
+        <v>314.049</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22" t="n">
-        <v>69453</v>
+        <v>74770</v>
       </c>
       <c r="M22" t="n">
-        <v>0.325</v>
+        <v>0.349</v>
       </c>
       <c r="N22"/>
       <c r="O22"/>
@@ -4415,7 +4419,7 @@
         <v>146</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="D23" t="s">
         <v>147</v>
@@ -4425,27 +4429,27 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H23" t="n">
-        <v>8440034</v>
+        <v>8523133</v>
       </c>
       <c r="I23" t="n">
-        <v>1223.787</v>
+        <v>1235.836</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23" t="n">
-        <v>37014</v>
+        <v>40572</v>
       </c>
       <c r="M23" t="n">
-        <v>5.367</v>
+        <v>5.883</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2377</v>
+        <v>0.2093</v>
       </c>
       <c r="O23" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="P23" t="s">
         <v>149</v>
@@ -4521,7 +4525,7 @@
         <v>156</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -4531,25 +4535,25 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H25" t="n">
-        <v>1350109</v>
+        <v>1353187</v>
       </c>
       <c r="I25" t="n">
-        <v>110.164</v>
+        <v>110.415</v>
       </c>
       <c r="J25" t="n">
-        <v>2473</v>
+        <v>3078</v>
       </c>
       <c r="K25" t="n">
-        <v>0.202</v>
+        <v>0.251</v>
       </c>
       <c r="L25" t="n">
-        <v>2831</v>
+        <v>2357</v>
       </c>
       <c r="M25" t="n">
-        <v>0.231</v>
+        <v>0.192</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
@@ -4684,7 +4688,7 @@
         <v>169</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="D28" t="s">
         <v>165</v>
@@ -4694,31 +4698,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H28" t="n">
-        <v>56382732</v>
+        <v>56587195</v>
       </c>
       <c r="I28" t="n">
-        <v>1481.109</v>
+        <v>1486.48</v>
       </c>
       <c r="J28" t="n">
-        <v>57054</v>
+        <v>197205</v>
       </c>
       <c r="K28" t="n">
-        <v>1.499</v>
+        <v>5.18</v>
       </c>
       <c r="L28" t="n">
-        <v>87481</v>
+        <v>84970</v>
       </c>
       <c r="M28" t="n">
-        <v>2.298</v>
+        <v>2.232</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1957</v>
+        <v>0.2077</v>
       </c>
       <c r="O28" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="P28" t="s">
         <v>166</v>
@@ -4839,7 +4843,7 @@
         <v>181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="D31" t="s">
         <v>35</v>
@@ -4849,27 +4853,27 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H31" t="n">
-        <v>196852</v>
+        <v>198518</v>
       </c>
       <c r="I31" t="n">
-        <v>11.638</v>
+        <v>11.736</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31" t="n">
-        <v>111</v>
+        <v>266</v>
       </c>
       <c r="M31" t="n">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
       <c r="N31" t="n">
-        <v>0.2394</v>
+        <v>0.043</v>
       </c>
       <c r="O31" t="n">
-        <v>4.2</v>
+        <v>23.3</v>
       </c>
       <c r="P31" t="s">
         <v>36</v>
@@ -4892,7 +4896,7 @@
         <v>184</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D32" t="s">
         <v>185</v>
@@ -4902,25 +4906,25 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H32" t="n">
-        <v>29699065</v>
+        <v>29903399</v>
       </c>
       <c r="I32" t="n">
-        <v>1545.831</v>
+        <v>1556.467</v>
       </c>
       <c r="J32" t="n">
-        <v>119417</v>
+        <v>111306</v>
       </c>
       <c r="K32" t="n">
-        <v>6.216</v>
+        <v>5.793</v>
       </c>
       <c r="L32" t="n">
-        <v>113361</v>
+        <v>118042</v>
       </c>
       <c r="M32" t="n">
-        <v>5.9</v>
+        <v>6.144</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
@@ -4998,7 +5002,7 @@
         <v>196</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="D34" t="s">
         <v>197</v>
@@ -5008,31 +5012,31 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H34" t="n">
-        <v>32096717</v>
+        <v>32155328</v>
       </c>
       <c r="I34" t="n">
-        <v>626.084</v>
+        <v>627.227</v>
       </c>
       <c r="J34" t="n">
-        <v>46384</v>
+        <v>58611</v>
       </c>
       <c r="K34" t="n">
-        <v>0.905</v>
+        <v>1.143</v>
       </c>
       <c r="L34" t="n">
-        <v>60056</v>
+        <v>58080</v>
       </c>
       <c r="M34" t="n">
-        <v>1.171</v>
+        <v>1.133</v>
       </c>
       <c r="N34" t="n">
-        <v>0.402</v>
+        <v>0.392</v>
       </c>
       <c r="O34" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P34" t="s">
         <v>198</v>
@@ -5142,8 +5146,12 @@
       <c r="M36" t="n">
         <v>0.084</v>
       </c>
-      <c r="N36"/>
-      <c r="O36"/>
+      <c r="N36" t="n">
+        <v>0.0294</v>
+      </c>
+      <c r="O36" t="n">
+        <v>34</v>
+      </c>
       <c r="P36" t="s">
         <v>36</v>
       </c>
@@ -5165,7 +5173,7 @@
         <v>210</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44591</v>
+        <v>44594</v>
       </c>
       <c r="D37" t="s">
         <v>211</v>
@@ -5175,32 +5183,28 @@
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="H37" t="n">
-        <v>4227562</v>
+        <v>4267694</v>
       </c>
       <c r="I37" t="n">
-        <v>1035.747</v>
+        <v>1045.579</v>
       </c>
       <c r="J37" t="n">
-        <v>13062</v>
+        <v>19734</v>
       </c>
       <c r="K37" t="n">
-        <v>3.2</v>
+        <v>4.835</v>
       </c>
       <c r="L37" t="n">
-        <v>16809</v>
+        <v>16091</v>
       </c>
       <c r="M37" t="n">
-        <v>4.118</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="O37" t="n">
-        <v>2</v>
-      </c>
+        <v>3.942</v>
+      </c>
+      <c r="N37"/>
+      <c r="O37"/>
       <c r="P37" t="s">
         <v>212</v>
       </c>
@@ -5281,7 +5285,7 @@
         <v>223</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="D39" t="s">
         <v>224</v>
@@ -5291,31 +5295,31 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H39" t="n">
-        <v>22608306</v>
+        <v>22859848</v>
       </c>
       <c r="I39" t="n">
-        <v>25232.344</v>
+        <v>25513.081</v>
       </c>
       <c r="J39" t="n">
-        <v>85303</v>
+        <v>113862</v>
       </c>
       <c r="K39" t="n">
-        <v>95.204</v>
+        <v>127.077</v>
       </c>
       <c r="L39" t="n">
-        <v>101173</v>
+        <v>104283</v>
       </c>
       <c r="M39" t="n">
-        <v>112.916</v>
+        <v>116.387</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0202</v>
+        <v>0.0245</v>
       </c>
       <c r="O39" t="n">
-        <v>49.6</v>
+        <v>40.8</v>
       </c>
       <c r="P39" t="s">
         <v>42</v>
@@ -5338,7 +5342,7 @@
         <v>227</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="D40" t="s">
         <v>228</v>
@@ -5348,31 +5352,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H40" t="n">
-        <v>49171214</v>
+        <v>49527923</v>
       </c>
       <c r="I40" t="n">
-        <v>4584.92</v>
+        <v>4618.181</v>
       </c>
       <c r="J40" t="n">
-        <v>63977</v>
+        <v>171393</v>
       </c>
       <c r="K40" t="n">
-        <v>5.965</v>
+        <v>15.981</v>
       </c>
       <c r="L40" t="n">
-        <v>149984</v>
+        <v>149933</v>
       </c>
       <c r="M40" t="n">
-        <v>13.985</v>
+        <v>13.98</v>
       </c>
       <c r="N40" t="n">
-        <v>0.237</v>
+        <v>0.253</v>
       </c>
       <c r="O40" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P40" t="s">
         <v>42</v>
@@ -5448,7 +5452,7 @@
         <v>237</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="D42" t="s">
         <v>238</v>
@@ -5458,31 +5462,31 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H42" t="n">
-        <v>59140765</v>
+        <v>59463709</v>
       </c>
       <c r="I42" t="n">
-        <v>10173.352</v>
+        <v>10228.904</v>
       </c>
       <c r="J42" t="n">
-        <v>114428</v>
+        <v>202955</v>
       </c>
       <c r="K42" t="n">
-        <v>19.684</v>
+        <v>34.912</v>
       </c>
       <c r="L42" t="n">
-        <v>195612</v>
+        <v>178497</v>
       </c>
       <c r="M42" t="n">
-        <v>33.649</v>
+        <v>30.705</v>
       </c>
       <c r="N42" t="n">
-        <v>0.2348</v>
+        <v>0.2436</v>
       </c>
       <c r="O42" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="P42" t="s">
         <v>239</v>
@@ -5594,8 +5598,12 @@
       <c r="M44" t="n">
         <v>0.592</v>
       </c>
-      <c r="N44"/>
-      <c r="O44"/>
+      <c r="N44" t="n">
+        <v>0.8419</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.2</v>
+      </c>
       <c r="P44" t="s">
         <v>253</v>
       </c>
@@ -5674,7 +5682,7 @@
         <v>262</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44589</v>
+        <v>44594</v>
       </c>
       <c r="D46" t="s">
         <v>263</v>
@@ -5684,28 +5692,24 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H46" t="n">
-        <v>277571</v>
+        <v>278380</v>
       </c>
       <c r="I46" t="n">
-        <v>191.443</v>
+        <v>192.001</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="n">
-        <v>301</v>
+        <v>179</v>
       </c>
       <c r="M46" t="n">
-        <v>0.208</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0.1158</v>
-      </c>
-      <c r="O46" t="n">
-        <v>8.6</v>
-      </c>
+        <v>0.123</v>
+      </c>
+      <c r="N46"/>
+      <c r="O46"/>
       <c r="P46" t="s">
         <v>265</v>
       </c>
@@ -5727,7 +5731,7 @@
         <v>268</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="D47" t="s">
         <v>269</v>
@@ -5737,31 +5741,31 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H47" t="n">
-        <v>2827608</v>
+        <v>2850865</v>
       </c>
       <c r="I47" t="n">
-        <v>2133.741</v>
+        <v>2151.291</v>
       </c>
       <c r="J47" t="n">
-        <v>11340</v>
+        <v>13417</v>
       </c>
       <c r="K47" t="n">
-        <v>8.557</v>
+        <v>10.125</v>
       </c>
       <c r="L47" t="n">
-        <v>12714</v>
+        <v>12538</v>
       </c>
       <c r="M47" t="n">
-        <v>9.594</v>
+        <v>9.461</v>
       </c>
       <c r="N47" t="n">
-        <v>0.4368</v>
+        <v>0.468</v>
       </c>
       <c r="O47" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P47" t="s">
         <v>270</v>
@@ -5784,7 +5788,7 @@
         <v>273</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="D48" t="s">
         <v>35</v>
@@ -5794,28 +5798,32 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H48" t="n">
-        <v>4341818</v>
+        <v>4346658</v>
       </c>
       <c r="I48" t="n">
-        <v>36.834</v>
+        <v>36.875</v>
       </c>
       <c r="J48" t="n">
-        <v>3511</v>
+        <v>4840</v>
       </c>
       <c r="K48" t="n">
-        <v>0.03</v>
+        <v>0.041</v>
       </c>
       <c r="L48" t="n">
-        <v>6279</v>
+        <v>6113</v>
       </c>
       <c r="M48" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="N48"/>
-      <c r="O48"/>
+        <v>0.052</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.0568</v>
+      </c>
+      <c r="O48" t="n">
+        <v>17.6</v>
+      </c>
       <c r="P48" t="s">
         <v>274</v>
       </c>
@@ -5837,7 +5845,7 @@
         <v>278</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="D49" t="s">
         <v>279</v>
@@ -5852,7 +5860,7 @@
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>7276908</v>
+        <v>7246958</v>
       </c>
       <c r="M49"/>
       <c r="N49"/>
@@ -5870,7 +5878,7 @@
         <v>282</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="D50" t="s">
         <v>283</v>
@@ -5880,31 +5888,27 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H50" t="n">
-        <v>747243</v>
+        <v>752902</v>
       </c>
       <c r="I50" t="n">
-        <v>15233.38</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2092</v>
-      </c>
-      <c r="K50" t="n">
-        <v>42.648</v>
-      </c>
+        <v>15348.745</v>
+      </c>
+      <c r="J50"/>
+      <c r="K50"/>
       <c r="L50" t="n">
-        <v>3089</v>
+        <v>2763</v>
       </c>
       <c r="M50" t="n">
-        <v>62.973</v>
+        <v>56.327</v>
       </c>
       <c r="N50" t="n">
-        <v>0.2201</v>
+        <v>0.257</v>
       </c>
       <c r="O50" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="P50" t="s">
         <v>284</v>
@@ -5953,8 +5957,12 @@
       <c r="M51" t="n">
         <v>0.336</v>
       </c>
-      <c r="N51"/>
-      <c r="O51"/>
+      <c r="N51" t="n">
+        <v>0.6799</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.5</v>
+      </c>
       <c r="P51" t="s">
         <v>291</v>
       </c>
@@ -5976,7 +5984,7 @@
         <v>295</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="D52" t="s">
         <v>296</v>
@@ -5986,31 +5994,31 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H52" t="n">
-        <v>9421918</v>
+        <v>9501234</v>
       </c>
       <c r="I52" t="n">
-        <v>1698.144</v>
+        <v>1712.44</v>
       </c>
       <c r="J52" t="n">
-        <v>3377</v>
+        <v>14220</v>
       </c>
       <c r="K52" t="n">
-        <v>0.609</v>
+        <v>2.563</v>
       </c>
       <c r="L52" t="n">
-        <v>14271</v>
+        <v>18813</v>
       </c>
       <c r="M52" t="n">
-        <v>2.572</v>
+        <v>3.391</v>
       </c>
       <c r="N52" t="n">
-        <v>0.383</v>
+        <v>0.269</v>
       </c>
       <c r="O52" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="P52" t="s">
         <v>298</v>
@@ -6033,7 +6041,7 @@
         <v>302</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="D53" t="s">
         <v>303</v>
@@ -6043,28 +6051,32 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H53" t="n">
-        <v>232405268</v>
+        <v>233218592</v>
       </c>
       <c r="I53" t="n">
-        <v>3447.024</v>
+        <v>3459.087</v>
       </c>
       <c r="J53" t="n">
-        <v>1087140</v>
+        <v>803861</v>
       </c>
       <c r="K53" t="n">
-        <v>16.124</v>
+        <v>11.923</v>
       </c>
       <c r="L53" t="n">
-        <v>1120210</v>
+        <v>1089713</v>
       </c>
       <c r="M53" t="n">
-        <v>16.615</v>
-      </c>
-      <c r="N53"/>
-      <c r="O53"/>
+        <v>16.163</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2.9</v>
+      </c>
       <c r="P53" t="s">
         <v>304</v>
       </c>
@@ -6086,7 +6098,7 @@
         <v>307</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="D54" t="s">
         <v>35</v>
@@ -6096,21 +6108,21 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H54" t="n">
-        <v>1538075</v>
+        <v>1541274</v>
       </c>
       <c r="I54" t="n">
-        <v>674.941</v>
+        <v>676.345</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54" t="n">
-        <v>1796</v>
+        <v>1693</v>
       </c>
       <c r="M54" t="n">
-        <v>0.788</v>
+        <v>0.743</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
@@ -6135,7 +6147,7 @@
         <v>312</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="D55" t="s">
         <v>35</v>
@@ -6145,24 +6157,28 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H55" t="n">
-        <v>138597</v>
+        <v>139940</v>
       </c>
       <c r="I55" t="n">
-        <v>55.73</v>
+        <v>56.27</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55" t="n">
-        <v>145</v>
+        <v>289</v>
       </c>
       <c r="M55" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="N55"/>
-      <c r="O55"/>
+        <v>0.116</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.1438</v>
+      </c>
+      <c r="O55" t="n">
+        <v>7</v>
+      </c>
       <c r="P55" t="s">
         <v>313</v>
       </c>
@@ -6184,7 +6200,7 @@
         <v>317</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D56" t="s">
         <v>318</v>
@@ -6194,25 +6210,25 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H56" t="n">
-        <v>12344752</v>
+        <v>12429410</v>
       </c>
       <c r="I56" t="n">
-        <v>3101.873</v>
+        <v>3123.145</v>
       </c>
       <c r="J56" t="n">
-        <v>45623</v>
+        <v>84658</v>
       </c>
       <c r="K56" t="n">
-        <v>11.464</v>
+        <v>21.272</v>
       </c>
       <c r="L56" t="n">
-        <v>36771</v>
+        <v>37698</v>
       </c>
       <c r="M56" t="n">
-        <v>9.239</v>
+        <v>9.472</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
@@ -6320,8 +6336,12 @@
       <c r="M58" t="n">
         <v>0.119</v>
       </c>
-      <c r="N58"/>
-      <c r="O58"/>
+      <c r="N58" t="n">
+        <v>0.0476</v>
+      </c>
+      <c r="O58" t="n">
+        <v>21</v>
+      </c>
       <c r="P58" t="s">
         <v>36</v>
       </c>
@@ -6343,7 +6363,7 @@
         <v>332</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D59" t="s">
         <v>333</v>
@@ -6353,25 +6373,25 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H59" t="n">
-        <v>56947277</v>
+        <v>57755330</v>
       </c>
       <c r="I59" t="n">
-        <v>5491.145</v>
+        <v>5569.062</v>
       </c>
       <c r="J59" t="n">
-        <v>112991</v>
+        <v>311547</v>
       </c>
       <c r="K59" t="n">
-        <v>10.895</v>
+        <v>30.041</v>
       </c>
       <c r="L59" t="n">
-        <v>249062</v>
+        <v>285884</v>
       </c>
       <c r="M59" t="n">
-        <v>24.016</v>
+        <v>27.566</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
@@ -6396,7 +6416,7 @@
         <v>339</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="D60" t="s">
         <v>340</v>
@@ -6406,28 +6426,28 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H60" t="n">
-        <v>3589175</v>
+        <v>3603800</v>
       </c>
       <c r="I60" t="n">
-        <v>196.669</v>
+        <v>197.47</v>
       </c>
       <c r="J60" t="n">
-        <v>3534</v>
+        <v>14625</v>
       </c>
       <c r="K60" t="n">
-        <v>0.194</v>
+        <v>0.801</v>
       </c>
       <c r="L60" t="n">
-        <v>11305</v>
+        <v>11274</v>
       </c>
       <c r="M60" t="n">
-        <v>0.619</v>
+        <v>0.618</v>
       </c>
       <c r="N60" t="n">
-        <v>0.2499</v>
+        <v>0.2509</v>
       </c>
       <c r="O60" t="n">
         <v>4</v>
@@ -6604,7 +6624,7 @@
         <v>365</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D64" t="s">
         <v>366</v>
@@ -6616,25 +6636,25 @@
         <v>368</v>
       </c>
       <c r="G64" t="n">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H64" t="n">
-        <v>9620513</v>
+        <v>9665239</v>
       </c>
       <c r="I64" t="n">
-        <v>998.583</v>
+        <v>1003.226</v>
       </c>
       <c r="J64" t="n">
-        <v>134625</v>
+        <v>26535</v>
       </c>
       <c r="K64" t="n">
-        <v>13.974</v>
+        <v>2.754</v>
       </c>
       <c r="L64" t="n">
-        <v>39514</v>
+        <v>39560</v>
       </c>
       <c r="M64" t="n">
-        <v>4.101</v>
+        <v>4.106</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
@@ -6659,7 +6679,7 @@
         <v>372</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44566</v>
+        <v>44590</v>
       </c>
       <c r="D65" t="s">
         <v>373</v>
@@ -6669,25 +6689,25 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>679</v>
+        <v>702</v>
       </c>
       <c r="H65" t="n">
-        <v>874583</v>
+        <v>1031915</v>
       </c>
       <c r="I65" t="n">
-        <v>2371.48</v>
+        <v>2798.095</v>
       </c>
       <c r="J65" t="n">
-        <v>6583</v>
+        <v>3194</v>
       </c>
       <c r="K65" t="n">
-        <v>17.85</v>
+        <v>8.661</v>
       </c>
       <c r="L65" t="n">
-        <v>5954</v>
+        <v>6135</v>
       </c>
       <c r="M65" t="n">
-        <v>16.145</v>
+        <v>16.635</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
@@ -6712,7 +6732,7 @@
         <v>377</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="D66" t="s">
         <v>378</v>
@@ -6724,28 +6744,32 @@
         <v>380</v>
       </c>
       <c r="G66" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H66" t="n">
-        <v>728997813</v>
+        <v>730697193</v>
       </c>
       <c r="I66" t="n">
-        <v>523.176</v>
+        <v>524.395</v>
       </c>
       <c r="J66" t="n">
-        <v>1607115</v>
+        <v>1699380</v>
       </c>
       <c r="K66" t="n">
-        <v>1.153</v>
+        <v>1.22</v>
       </c>
       <c r="L66" t="n">
-        <v>1714640</v>
+        <v>1699251</v>
       </c>
       <c r="M66" t="n">
-        <v>1.231</v>
-      </c>
-      <c r="N66"/>
-      <c r="O66"/>
+        <v>1.219</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O66" t="n">
+        <v>7.7</v>
+      </c>
       <c r="P66" t="s">
         <v>379</v>
       </c>
@@ -6824,7 +6848,7 @@
         <v>389</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D68" t="s">
         <v>390</v>
@@ -6834,25 +6858,25 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H68" t="n">
-        <v>44789344</v>
+        <v>44988940</v>
       </c>
       <c r="I68" t="n">
-        <v>526.755</v>
+        <v>529.103</v>
       </c>
       <c r="J68" t="n">
-        <v>95000</v>
+        <v>102306</v>
       </c>
       <c r="K68" t="n">
-        <v>1.117</v>
+        <v>1.203</v>
       </c>
       <c r="L68" t="n">
-        <v>93031</v>
+        <v>95020</v>
       </c>
       <c r="M68" t="n">
-        <v>1.094</v>
+        <v>1.118</v>
       </c>
       <c r="N68"/>
       <c r="O68"/>
@@ -6930,7 +6954,7 @@
         <v>403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D70" t="s">
         <v>404</v>
@@ -6940,25 +6964,25 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H70" t="n">
-        <v>10938159</v>
+        <v>10974971</v>
       </c>
       <c r="I70" t="n">
-        <v>2195.137</v>
+        <v>2202.525</v>
       </c>
       <c r="J70" t="n">
-        <v>12062</v>
+        <v>18655</v>
       </c>
       <c r="K70" t="n">
-        <v>2.421</v>
+        <v>3.744</v>
       </c>
       <c r="L70" t="n">
-        <v>16359</v>
+        <v>16481</v>
       </c>
       <c r="M70" t="n">
-        <v>3.283</v>
+        <v>3.308</v>
       </c>
       <c r="N70"/>
       <c r="O70"/>
@@ -6983,7 +7007,7 @@
         <v>409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="D71" t="s">
         <v>410</v>
@@ -6993,28 +7017,32 @@
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H71" t="n">
-        <v>45242044</v>
+        <v>45570414</v>
       </c>
       <c r="I71" t="n">
-        <v>4869.448</v>
+        <v>4904.791</v>
       </c>
       <c r="J71" t="n">
-        <v>193519</v>
+        <v>245457</v>
       </c>
       <c r="K71" t="n">
-        <v>20.829</v>
+        <v>26.419</v>
       </c>
       <c r="L71" t="n">
-        <v>251350</v>
+        <v>245115</v>
       </c>
       <c r="M71" t="n">
-        <v>27.053</v>
-      </c>
-      <c r="N71"/>
-      <c r="O71"/>
+        <v>26.382</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.2687</v>
+      </c>
+      <c r="O71" t="n">
+        <v>3.7</v>
+      </c>
       <c r="P71" t="s">
         <v>42</v>
       </c>
@@ -7036,7 +7064,7 @@
         <v>414</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D72" t="s">
         <v>415</v>
@@ -7048,25 +7076,25 @@
         <v>417</v>
       </c>
       <c r="G72" t="n">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H72" t="n">
-        <v>170631727</v>
+        <v>172843235</v>
       </c>
       <c r="I72" t="n">
-        <v>2826.551</v>
+        <v>2863.185</v>
       </c>
       <c r="J72" t="n">
-        <v>478314</v>
+        <v>964521</v>
       </c>
       <c r="K72" t="n">
-        <v>7.923</v>
+        <v>15.977</v>
       </c>
       <c r="L72" t="n">
-        <v>986550</v>
+        <v>942646</v>
       </c>
       <c r="M72" t="n">
-        <v>16.342</v>
+        <v>15.615</v>
       </c>
       <c r="N72"/>
       <c r="O72"/>
@@ -7235,8 +7263,12 @@
       <c r="M75" t="n">
         <v>4.208</v>
       </c>
-      <c r="N75"/>
-      <c r="O75"/>
+      <c r="N75" t="n">
+        <v>0.2406</v>
+      </c>
+      <c r="O75" t="n">
+        <v>4.2</v>
+      </c>
       <c r="P75" t="s">
         <v>436</v>
       </c>
@@ -7315,7 +7347,7 @@
         <v>445</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="D77" t="s">
         <v>35</v>
@@ -7325,28 +7357,32 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H77" t="n">
-        <v>3222886</v>
+        <v>3229023</v>
       </c>
       <c r="I77" t="n">
-        <v>58.613</v>
+        <v>58.725</v>
       </c>
       <c r="J77" t="n">
-        <v>2324</v>
+        <v>6137</v>
       </c>
       <c r="K77" t="n">
-        <v>0.042</v>
+        <v>0.112</v>
       </c>
       <c r="L77" t="n">
-        <v>5229</v>
+        <v>5583</v>
       </c>
       <c r="M77" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="N77"/>
-      <c r="O77"/>
+        <v>0.102</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.0248</v>
+      </c>
+      <c r="O77" t="n">
+        <v>40.4</v>
+      </c>
       <c r="P77" t="s">
         <v>36</v>
       </c>
@@ -7455,8 +7491,12 @@
       <c r="M79" t="n">
         <v>7.386</v>
       </c>
-      <c r="N79"/>
-      <c r="O79"/>
+      <c r="N79" t="n">
+        <v>0.1925</v>
+      </c>
+      <c r="O79" t="n">
+        <v>5.2</v>
+      </c>
       <c r="P79" t="s">
         <v>456</v>
       </c>
@@ -7478,7 +7518,7 @@
         <v>460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="D80" t="s">
         <v>461</v>
@@ -7488,28 +7528,32 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H80" t="n">
-        <v>948082</v>
+        <v>951932</v>
       </c>
       <c r="I80" t="n">
-        <v>128.478</v>
+        <v>128.999</v>
       </c>
       <c r="J80" t="n">
-        <v>2657</v>
+        <v>3850</v>
       </c>
       <c r="K80" t="n">
-        <v>0.36</v>
+        <v>0.522</v>
       </c>
       <c r="L80" t="n">
-        <v>2145</v>
+        <v>2138</v>
       </c>
       <c r="M80" t="n">
-        <v>0.291</v>
-      </c>
-      <c r="N80"/>
-      <c r="O80"/>
+        <v>0.29</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.2395</v>
+      </c>
+      <c r="O80" t="n">
+        <v>4.2</v>
+      </c>
       <c r="P80" t="s">
         <v>462</v>
       </c>
@@ -7563,8 +7607,12 @@
       <c r="M81" t="n">
         <v>12.093</v>
       </c>
-      <c r="N81"/>
-      <c r="O81"/>
+      <c r="N81" t="n">
+        <v>0.3371</v>
+      </c>
+      <c r="O81" t="n">
+        <v>3</v>
+      </c>
       <c r="P81" t="s">
         <v>468</v>
       </c>
@@ -7635,7 +7683,7 @@
         <v>477</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="D83" t="s">
         <v>478</v>
@@ -7645,15 +7693,15 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83" t="n">
-        <v>12071</v>
+        <v>11270</v>
       </c>
       <c r="K83" t="n">
-        <v>1.735</v>
+        <v>1.62</v>
       </c>
       <c r="L83"/>
       <c r="M83"/>
@@ -7794,7 +7842,7 @@
         <v>494</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44590</v>
+        <v>44593</v>
       </c>
       <c r="D86" t="s">
         <v>495</v>
@@ -7804,28 +7852,32 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="H86" t="n">
-        <v>3979564</v>
+        <v>3991423</v>
       </c>
       <c r="I86" t="n">
-        <v>6268.866</v>
+        <v>6287.547</v>
       </c>
       <c r="J86" t="n">
-        <v>5481</v>
+        <v>6806</v>
       </c>
       <c r="K86" t="n">
-        <v>8.634</v>
+        <v>10.721</v>
       </c>
       <c r="L86" t="n">
-        <v>5629</v>
+        <v>5370</v>
       </c>
       <c r="M86" t="n">
-        <v>8.867</v>
-      </c>
-      <c r="N86"/>
-      <c r="O86"/>
+        <v>8.459</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="O86" t="n">
+        <v>2.7</v>
+      </c>
       <c r="P86" t="s">
         <v>496</v>
       </c>
@@ -7900,7 +7952,7 @@
         <v>504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="D88" t="s">
         <v>35</v>
@@ -7910,28 +7962,32 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H88" t="n">
-        <v>527860</v>
+        <v>528593</v>
       </c>
       <c r="I88" t="n">
-        <v>26.866</v>
+        <v>26.904</v>
       </c>
       <c r="J88" t="n">
-        <v>356</v>
+        <v>733</v>
       </c>
       <c r="K88" t="n">
-        <v>0.018</v>
+        <v>0.037</v>
       </c>
       <c r="L88" t="n">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="M88" t="n">
         <v>0.042</v>
       </c>
-      <c r="N88"/>
-      <c r="O88"/>
+      <c r="N88" t="n">
+        <v>0.0959</v>
+      </c>
+      <c r="O88" t="n">
+        <v>10.4</v>
+      </c>
       <c r="P88" t="s">
         <v>36</v>
       </c>
@@ -7953,7 +8009,7 @@
         <v>507</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="D89" t="s">
         <v>508</v>
@@ -7965,31 +8021,31 @@
         <v>510</v>
       </c>
       <c r="G89" t="n">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="H89" t="n">
-        <v>45140728</v>
+        <v>45334920</v>
       </c>
       <c r="I89" t="n">
-        <v>1377.241</v>
+        <v>1383.166</v>
       </c>
       <c r="J89" t="n">
-        <v>91864</v>
+        <v>106726</v>
       </c>
       <c r="K89" t="n">
-        <v>2.803</v>
+        <v>3.256</v>
       </c>
       <c r="L89" t="n">
-        <v>118829</v>
+        <v>111279</v>
       </c>
       <c r="M89" t="n">
-        <v>3.625</v>
+        <v>3.395</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0384</v>
+        <v>0.0444</v>
       </c>
       <c r="O89" t="n">
-        <v>26</v>
+        <v>22.5</v>
       </c>
       <c r="P89" t="s">
         <v>42</v>
@@ -8042,8 +8098,12 @@
       <c r="M90" t="n">
         <v>13.473</v>
       </c>
-      <c r="N90"/>
-      <c r="O90"/>
+      <c r="N90" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="O90" t="n">
+        <v>2.7</v>
+      </c>
       <c r="P90" t="s">
         <v>516</v>
       </c>
@@ -8065,7 +8125,7 @@
         <v>520</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D91" t="s">
         <v>521</v>
@@ -8075,25 +8135,25 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H91" t="n">
-        <v>1686534</v>
+        <v>1691625</v>
       </c>
       <c r="I91" t="n">
-        <v>3267.843</v>
+        <v>3277.708</v>
       </c>
       <c r="J91" t="n">
-        <v>2475</v>
+        <v>2634</v>
       </c>
       <c r="K91" t="n">
-        <v>4.796</v>
+        <v>5.104</v>
       </c>
       <c r="L91" t="n">
-        <v>2894</v>
+        <v>2757</v>
       </c>
       <c r="M91" t="n">
-        <v>5.607</v>
+        <v>5.342</v>
       </c>
       <c r="N91"/>
       <c r="O91"/>
@@ -8118,7 +8178,7 @@
         <v>527</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="D92" t="s">
         <v>35</v>
@@ -8128,28 +8188,32 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H92" t="n">
-        <v>831368</v>
+        <v>833828</v>
       </c>
       <c r="I92" t="n">
-        <v>174.104</v>
+        <v>174.62</v>
       </c>
       <c r="J92" t="n">
-        <v>2500</v>
+        <v>2460</v>
       </c>
       <c r="K92" t="n">
-        <v>0.524</v>
+        <v>0.515</v>
       </c>
       <c r="L92" t="n">
-        <v>2898</v>
+        <v>2847</v>
       </c>
       <c r="M92" t="n">
-        <v>0.607</v>
-      </c>
-      <c r="N92"/>
-      <c r="O92"/>
+        <v>0.596</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.0326</v>
+      </c>
+      <c r="O92" t="n">
+        <v>30.7</v>
+      </c>
       <c r="P92" t="s">
         <v>528</v>
       </c>
@@ -8171,7 +8235,7 @@
         <v>532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="D93" t="s">
         <v>533</v>
@@ -8181,28 +8245,28 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H93" t="n">
-        <v>13433527</v>
+        <v>13515724</v>
       </c>
       <c r="I93" t="n">
-        <v>103.127</v>
+        <v>103.758</v>
       </c>
       <c r="J93" t="n">
-        <v>5705</v>
+        <v>15931</v>
       </c>
       <c r="K93" t="n">
-        <v>0.044</v>
+        <v>0.122</v>
       </c>
       <c r="L93" t="n">
-        <v>29213</v>
+        <v>26644</v>
       </c>
       <c r="M93" t="n">
-        <v>0.224</v>
+        <v>0.205</v>
       </c>
       <c r="N93" t="n">
-        <v>0.6405</v>
+        <v>0.6309</v>
       </c>
       <c r="O93" t="n">
         <v>1.6</v>
@@ -8228,7 +8292,7 @@
         <v>538</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="D94" t="s">
         <v>539</v>
@@ -8238,15 +8302,15 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="n">
-        <v>13270</v>
+        <v>17</v>
       </c>
       <c r="K94" t="n">
-        <v>3.298</v>
+        <v>0.004</v>
       </c>
       <c r="L94"/>
       <c r="M94"/>
@@ -8273,7 +8337,7 @@
         <v>545</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D95" t="s">
         <v>546</v>
@@ -8283,25 +8347,21 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H95" t="n">
-        <v>6879126</v>
+        <v>6907479</v>
       </c>
       <c r="I95" t="n">
-        <v>2066.249</v>
-      </c>
-      <c r="J95" t="n">
-        <v>9499</v>
-      </c>
-      <c r="K95" t="n">
-        <v>2.853</v>
-      </c>
+        <v>2074.765</v>
+      </c>
+      <c r="J95"/>
+      <c r="K95"/>
       <c r="L95" t="n">
-        <v>18090</v>
+        <v>15255</v>
       </c>
       <c r="M95" t="n">
-        <v>5.434</v>
+        <v>4.582</v>
       </c>
       <c r="N95"/>
       <c r="O95"/>
@@ -8352,8 +8412,12 @@
       <c r="M96" t="n">
         <v>0.564</v>
       </c>
-      <c r="N96"/>
-      <c r="O96"/>
+      <c r="N96" t="n">
+        <v>0.2139</v>
+      </c>
+      <c r="O96" t="n">
+        <v>4.7</v>
+      </c>
       <c r="P96" t="s">
         <v>552</v>
       </c>
@@ -8375,7 +8439,7 @@
         <v>556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="D97" t="s">
         <v>35</v>
@@ -8385,28 +8449,32 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H97" t="n">
-        <v>1223311</v>
+        <v>1226683</v>
       </c>
       <c r="I97" t="n">
-        <v>38.035</v>
+        <v>38.14</v>
       </c>
       <c r="J97" t="n">
-        <v>1176</v>
+        <v>3372</v>
       </c>
       <c r="K97" t="n">
-        <v>0.037</v>
+        <v>0.105</v>
       </c>
       <c r="L97" t="n">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="M97" t="n">
         <v>0.075</v>
       </c>
-      <c r="N97"/>
-      <c r="O97"/>
+      <c r="N97" t="n">
+        <v>0.0627</v>
+      </c>
+      <c r="O97" t="n">
+        <v>15.9</v>
+      </c>
       <c r="P97" t="s">
         <v>36</v>
       </c>
@@ -8454,8 +8522,12 @@
       <c r="M98" t="n">
         <v>0.184</v>
       </c>
-      <c r="N98"/>
-      <c r="O98"/>
+      <c r="N98" t="n">
+        <v>0.0194</v>
+      </c>
+      <c r="O98" t="n">
+        <v>51.6</v>
+      </c>
       <c r="P98" t="s">
         <v>561</v>
       </c>
@@ -8477,7 +8549,7 @@
         <v>565</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="D99" t="s">
         <v>35</v>
@@ -8487,28 +8559,32 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H99" t="n">
-        <v>921467</v>
+        <v>922167</v>
       </c>
       <c r="I99" t="n">
-        <v>356.144</v>
+        <v>356.415</v>
       </c>
       <c r="J99" t="n">
-        <v>1214</v>
+        <v>700</v>
       </c>
       <c r="K99" t="n">
-        <v>0.469</v>
+        <v>0.271</v>
       </c>
       <c r="L99" t="n">
-        <v>1332</v>
+        <v>1226</v>
       </c>
       <c r="M99" t="n">
-        <v>0.515</v>
-      </c>
-      <c r="N99"/>
-      <c r="O99"/>
+        <v>0.474</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.0604</v>
+      </c>
+      <c r="O99" t="n">
+        <v>16.6</v>
+      </c>
       <c r="P99" t="s">
         <v>566</v>
       </c>
@@ -8560,8 +8636,12 @@
       <c r="M100" t="n">
         <v>0.441</v>
       </c>
-      <c r="N100"/>
-      <c r="O100"/>
+      <c r="N100" t="n">
+        <v>0.3873</v>
+      </c>
+      <c r="O100" t="n">
+        <v>2.6</v>
+      </c>
       <c r="P100" t="s">
         <v>572</v>
       </c>
@@ -8583,7 +8663,7 @@
         <v>576</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="D101" t="s">
         <v>577</v>
@@ -8593,31 +8673,31 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H101" t="n">
-        <v>25312020</v>
+        <v>25584138</v>
       </c>
       <c r="I101" t="n">
-        <v>1473.935</v>
+        <v>1489.78</v>
       </c>
       <c r="J101" t="n">
-        <v>129469</v>
+        <v>140065</v>
       </c>
       <c r="K101" t="n">
-        <v>7.539</v>
+        <v>8.156</v>
       </c>
       <c r="L101" t="n">
-        <v>145962</v>
+        <v>144121</v>
       </c>
       <c r="M101" t="n">
-        <v>8.499</v>
+        <v>8.392</v>
       </c>
       <c r="N101" t="n">
-        <v>0.412</v>
+        <v>0.4742</v>
       </c>
       <c r="O101" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="P101" t="s">
         <v>578</v>
@@ -8640,7 +8720,7 @@
         <v>582</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D102" t="s">
         <v>583</v>
@@ -8650,25 +8730,21 @@
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H102" t="n">
-        <v>6033669</v>
+        <v>6071954</v>
       </c>
       <c r="I102" t="n">
-        <v>1177.003</v>
-      </c>
-      <c r="J102" t="n">
-        <v>13281</v>
-      </c>
-      <c r="K102" t="n">
-        <v>2.591</v>
-      </c>
+        <v>1184.471</v>
+      </c>
+      <c r="J102"/>
+      <c r="K102"/>
       <c r="L102" t="n">
-        <v>19930</v>
+        <v>19598</v>
       </c>
       <c r="M102" t="n">
-        <v>3.888</v>
+        <v>3.823</v>
       </c>
       <c r="N102"/>
       <c r="O102"/>
@@ -8799,7 +8875,7 @@
         <v>598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="D105" t="s">
         <v>599</v>
@@ -8809,31 +8885,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H105" t="n">
-        <v>10079423</v>
+        <v>10138943</v>
       </c>
       <c r="I105" t="n">
-        <v>1844.147</v>
+        <v>1855.037</v>
       </c>
       <c r="J105" t="n">
-        <v>15450</v>
+        <v>40348</v>
       </c>
       <c r="K105" t="n">
-        <v>2.827</v>
+        <v>7.382</v>
       </c>
       <c r="L105" t="n">
-        <v>33967</v>
+        <v>32133</v>
       </c>
       <c r="M105" t="n">
-        <v>6.215</v>
+        <v>5.879</v>
       </c>
       <c r="N105" t="n">
-        <v>0.5933</v>
+        <v>0.622</v>
       </c>
       <c r="O105" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="P105" t="s">
         <v>600</v>
@@ -8901,7 +8977,7 @@
         <v>609</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D107" t="s">
         <v>610</v>
@@ -8911,25 +8987,21 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H107" t="n">
-        <v>25018383</v>
+        <v>25134775</v>
       </c>
       <c r="I107" t="n">
-        <v>111.094</v>
-      </c>
-      <c r="J107" t="n">
-        <v>61077</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.271</v>
-      </c>
+        <v>111.611</v>
+      </c>
+      <c r="J107"/>
+      <c r="K107"/>
       <c r="L107" t="n">
-        <v>61705</v>
+        <v>63396</v>
       </c>
       <c r="M107" t="n">
-        <v>0.274</v>
+        <v>0.282</v>
       </c>
       <c r="N107"/>
       <c r="O107"/>
@@ -9139,8 +9211,12 @@
       <c r="M111" t="n">
         <v>1.67</v>
       </c>
-      <c r="N111"/>
-      <c r="O111"/>
+      <c r="N111" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1.6</v>
+      </c>
       <c r="P111" t="s">
         <v>633</v>
       </c>
@@ -9306,8 +9382,12 @@
       <c r="M114" t="n">
         <v>4.044</v>
       </c>
-      <c r="N114"/>
-      <c r="O114"/>
+      <c r="N114" t="n">
+        <v>0.3167</v>
+      </c>
+      <c r="O114" t="n">
+        <v>3.2</v>
+      </c>
       <c r="P114" t="s">
         <v>650</v>
       </c>
@@ -9386,7 +9466,7 @@
         <v>655</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="D116" t="s">
         <v>656</v>
@@ -9396,31 +9476,31 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H116" t="n">
-        <v>34498930</v>
+        <v>35021584</v>
       </c>
       <c r="I116" t="n">
-        <v>3392.918</v>
+        <v>3444.32</v>
       </c>
       <c r="J116" t="n">
-        <v>138914</v>
+        <v>249400</v>
       </c>
       <c r="K116" t="n">
-        <v>13.662</v>
+        <v>24.528</v>
       </c>
       <c r="L116" t="n">
-        <v>292592</v>
+        <v>275790</v>
       </c>
       <c r="M116" t="n">
-        <v>28.776</v>
+        <v>27.124</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1904</v>
+        <v>0.196</v>
       </c>
       <c r="O116" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="P116" t="s">
         <v>657</v>
@@ -9496,7 +9576,7 @@
         <v>666</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D118" t="s">
         <v>667</v>
@@ -9506,25 +9586,25 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H118" t="n">
-        <v>19109032</v>
+        <v>19341513</v>
       </c>
       <c r="I118" t="n">
-        <v>999.02</v>
+        <v>1011.174</v>
       </c>
       <c r="J118" t="n">
-        <v>52482</v>
+        <v>109841</v>
       </c>
       <c r="K118" t="n">
-        <v>2.744</v>
+        <v>5.742</v>
       </c>
       <c r="L118" t="n">
-        <v>83021</v>
+        <v>91804</v>
       </c>
       <c r="M118" t="n">
-        <v>4.34</v>
+        <v>4.8</v>
       </c>
       <c r="N118"/>
       <c r="O118"/>
@@ -9549,7 +9629,7 @@
         <v>673</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D119" t="s">
         <v>674</v>
@@ -9559,25 +9639,25 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H119" t="n">
-        <v>256163244</v>
+        <v>257640418</v>
       </c>
       <c r="I119" t="n">
-        <v>1755.601</v>
+        <v>1765.724</v>
       </c>
       <c r="J119" t="n">
-        <v>866584</v>
+        <v>738376</v>
       </c>
       <c r="K119" t="n">
-        <v>5.939</v>
+        <v>5.06</v>
       </c>
       <c r="L119" t="n">
-        <v>749446</v>
+        <v>850688</v>
       </c>
       <c r="M119" t="n">
-        <v>5.136</v>
+        <v>5.83</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
@@ -9602,7 +9682,7 @@
         <v>679</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D120" t="s">
         <v>680</v>
@@ -9612,25 +9692,21 @@
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H120" t="n">
-        <v>4495157</v>
+        <v>4514830</v>
       </c>
       <c r="I120" t="n">
-        <v>338.58</v>
-      </c>
-      <c r="J120" t="n">
-        <v>12406</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.934</v>
-      </c>
+        <v>340.061</v>
+      </c>
+      <c r="J120"/>
+      <c r="K120"/>
       <c r="L120" t="n">
-        <v>12545</v>
+        <v>12161</v>
       </c>
       <c r="M120" t="n">
-        <v>0.945</v>
+        <v>0.916</v>
       </c>
       <c r="N120"/>
       <c r="O120"/>
@@ -9655,7 +9731,7 @@
         <v>685</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D121" t="s">
         <v>686</v>
@@ -9665,21 +9741,21 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H121" t="n">
-        <v>65198</v>
+        <v>65271</v>
       </c>
       <c r="I121" t="n">
-        <v>1217.607</v>
+        <v>1218.971</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M121" t="n">
-        <v>1.606</v>
+        <v>1.494</v>
       </c>
       <c r="N121"/>
       <c r="O121"/>
@@ -9753,7 +9829,7 @@
         <v>696</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="D123" t="s">
         <v>697</v>
@@ -9763,31 +9839,31 @@
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H123" t="n">
-        <v>37872209</v>
+        <v>38166414</v>
       </c>
       <c r="I123" t="n">
-        <v>1071.632</v>
+        <v>1079.957</v>
       </c>
       <c r="J123" t="n">
-        <v>145645</v>
+        <v>148670</v>
       </c>
       <c r="K123" t="n">
-        <v>4.121</v>
+        <v>4.207</v>
       </c>
       <c r="L123" t="n">
-        <v>154339</v>
+        <v>145334</v>
       </c>
       <c r="M123" t="n">
-        <v>4.367</v>
+        <v>4.112</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0284</v>
+        <v>0.0289</v>
       </c>
       <c r="O123" t="n">
-        <v>35.2</v>
+        <v>34.6</v>
       </c>
       <c r="P123" t="s">
         <v>42</v>
@@ -9810,7 +9886,7 @@
         <v>700</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D124" t="s">
         <v>701</v>
@@ -9820,25 +9896,25 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H124" t="n">
-        <v>994447</v>
+        <v>996875</v>
       </c>
       <c r="I124" t="n">
-        <v>57.829</v>
+        <v>57.97</v>
       </c>
       <c r="J124" t="n">
-        <v>1265</v>
+        <v>1392</v>
       </c>
       <c r="K124" t="n">
-        <v>0.074</v>
+        <v>0.081</v>
       </c>
       <c r="L124" t="n">
-        <v>1510</v>
+        <v>1443</v>
       </c>
       <c r="M124" t="n">
-        <v>0.088</v>
+        <v>0.084</v>
       </c>
       <c r="N124"/>
       <c r="O124"/>
@@ -9863,7 +9939,7 @@
         <v>705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D125" t="s">
         <v>706</v>
@@ -9875,25 +9951,25 @@
         <v>707</v>
       </c>
       <c r="G125" t="n">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H125" t="n">
-        <v>8132088</v>
+        <v>8208435</v>
       </c>
       <c r="I125" t="n">
-        <v>1183.444</v>
+        <v>1194.554</v>
       </c>
       <c r="J125" t="n">
-        <v>31521</v>
+        <v>36874</v>
       </c>
       <c r="K125" t="n">
-        <v>4.587</v>
+        <v>5.366</v>
       </c>
       <c r="L125" t="n">
-        <v>33547</v>
+        <v>33440</v>
       </c>
       <c r="M125" t="n">
-        <v>4.882</v>
+        <v>4.866</v>
       </c>
       <c r="N125"/>
       <c r="O125"/>
@@ -9918,7 +9994,7 @@
         <v>711</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44585</v>
+        <v>44592</v>
       </c>
       <c r="D126" t="s">
         <v>712</v>
@@ -9933,22 +10009,22 @@
       <c r="H126"/>
       <c r="I126"/>
       <c r="J126" t="n">
-        <v>224700</v>
+        <v>228300</v>
       </c>
       <c r="K126" t="n">
-        <v>41.202</v>
+        <v>41.862</v>
       </c>
       <c r="L126" t="n">
-        <v>224700</v>
+        <v>228300</v>
       </c>
       <c r="M126" t="n">
-        <v>41.202</v>
+        <v>41.862</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0151</v>
+        <v>0.0225</v>
       </c>
       <c r="O126" t="n">
-        <v>66.2</v>
+        <v>44.3</v>
       </c>
       <c r="P126" t="s">
         <v>42</v>
@@ -9971,7 +10047,7 @@
         <v>717</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="D127" t="s">
         <v>718</v>
@@ -9981,31 +10057,31 @@
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H127" t="n">
-        <v>47795900</v>
+        <v>47827860</v>
       </c>
       <c r="I127" t="n">
-        <v>8771.065</v>
+        <v>8776.93</v>
       </c>
       <c r="J127" t="n">
-        <v>33247</v>
+        <v>31960</v>
       </c>
       <c r="K127" t="n">
-        <v>6.101</v>
+        <v>5.865</v>
       </c>
       <c r="L127" t="n">
-        <v>62110</v>
+        <v>54468</v>
       </c>
       <c r="M127" t="n">
-        <v>11.398</v>
+        <v>9.995</v>
       </c>
       <c r="N127" t="n">
-        <v>0.239</v>
+        <v>0.282</v>
       </c>
       <c r="O127" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P127" t="s">
         <v>42</v>
@@ -10028,7 +10104,7 @@
         <v>721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="D128" t="s">
         <v>722</v>
@@ -10038,28 +10114,28 @@
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H128" t="n">
-        <v>2475428</v>
+        <v>2508176</v>
       </c>
       <c r="I128" t="n">
-        <v>1190.841</v>
+        <v>1206.595</v>
       </c>
       <c r="J128" t="n">
-        <v>11067</v>
+        <v>17143</v>
       </c>
       <c r="K128" t="n">
-        <v>5.324</v>
+        <v>8.247</v>
       </c>
       <c r="L128" t="n">
-        <v>18851</v>
+        <v>17823</v>
       </c>
       <c r="M128" t="n">
-        <v>9.069</v>
+        <v>8.574</v>
       </c>
       <c r="N128" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="O128" t="n">
         <v>1.3</v>
@@ -10085,7 +10161,7 @@
         <v>726</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D129" t="s">
         <v>727</v>
@@ -10097,25 +10173,25 @@
         <v>729</v>
       </c>
       <c r="G129" t="n">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H129" t="n">
-        <v>22268519</v>
+        <v>22343478</v>
       </c>
       <c r="I129" t="n">
-        <v>370.882</v>
+        <v>372.131</v>
       </c>
       <c r="J129" t="n">
-        <v>16930</v>
+        <v>39892</v>
       </c>
       <c r="K129" t="n">
-        <v>0.282</v>
+        <v>0.664</v>
       </c>
       <c r="L129" t="n">
-        <v>32441</v>
+        <v>31878</v>
       </c>
       <c r="M129" t="n">
-        <v>0.54</v>
+        <v>0.531</v>
       </c>
       <c r="N129"/>
       <c r="O129"/>
@@ -10140,7 +10216,7 @@
         <v>733</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="D130" t="s">
         <v>734</v>
@@ -10152,31 +10228,31 @@
         <v>736</v>
       </c>
       <c r="G130" t="n">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H130" t="n">
-        <v>51527756</v>
+        <v>51952902</v>
       </c>
       <c r="I130" t="n">
-        <v>1004.338</v>
+        <v>1012.625</v>
       </c>
       <c r="J130" t="n">
-        <v>218716</v>
+        <v>226535</v>
       </c>
       <c r="K130" t="n">
-        <v>4.263</v>
+        <v>4.415</v>
       </c>
       <c r="L130" t="n">
-        <v>266946</v>
+        <v>264132</v>
       </c>
       <c r="M130" t="n">
-        <v>5.203</v>
+        <v>5.148</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0558</v>
+        <v>0.0656</v>
       </c>
       <c r="O130" t="n">
-        <v>17.9</v>
+        <v>15.2</v>
       </c>
       <c r="P130" t="s">
         <v>737</v>
@@ -10229,8 +10305,12 @@
       <c r="M131" t="n">
         <v>0.056</v>
       </c>
-      <c r="N131"/>
-      <c r="O131"/>
+      <c r="N131" t="n">
+        <v>0.0176</v>
+      </c>
+      <c r="O131" t="n">
+        <v>56.8</v>
+      </c>
       <c r="P131" t="s">
         <v>36</v>
       </c>
@@ -10252,7 +10332,7 @@
         <v>744</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44589</v>
+        <v>44591</v>
       </c>
       <c r="D132" t="s">
         <v>745</v>
@@ -10262,31 +10342,31 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H132" t="n">
-        <v>81955832</v>
+        <v>82178681</v>
       </c>
       <c r="I132" t="n">
-        <v>1753.246</v>
+        <v>1758.013</v>
       </c>
       <c r="J132" t="n">
-        <v>214730</v>
+        <v>66217</v>
       </c>
       <c r="K132" t="n">
-        <v>4.594</v>
+        <v>1.417</v>
       </c>
       <c r="L132" t="n">
-        <v>248694</v>
+        <v>236184</v>
       </c>
       <c r="M132" t="n">
-        <v>5.32</v>
+        <v>5.053</v>
       </c>
       <c r="N132" t="n">
-        <v>0.359</v>
+        <v>0.345</v>
       </c>
       <c r="O132" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P132" t="s">
         <v>746</v>
@@ -10309,7 +10389,7 @@
         <v>749</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="D133" t="s">
         <v>750</v>
@@ -10319,31 +10399,31 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H133" t="n">
-        <v>6109282</v>
+        <v>6118718</v>
       </c>
       <c r="I133" t="n">
-        <v>284.188</v>
+        <v>284.627</v>
       </c>
       <c r="J133" t="n">
-        <v>8207</v>
+        <v>7697</v>
       </c>
       <c r="K133" t="n">
-        <v>0.382</v>
+        <v>0.358</v>
       </c>
       <c r="L133" t="n">
-        <v>8649</v>
+        <v>7650</v>
       </c>
       <c r="M133" t="n">
-        <v>0.402</v>
+        <v>0.356</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1357</v>
+        <v>0.1619</v>
       </c>
       <c r="O133" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="P133" t="s">
         <v>751</v>
@@ -10423,7 +10503,7 @@
         <v>761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="D135" t="s">
         <v>484</v>
@@ -10433,28 +10513,28 @@
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H135" t="n">
-        <v>16950646</v>
+        <v>17150613</v>
       </c>
       <c r="I135" t="n">
-        <v>1944.886</v>
+        <v>1967.83</v>
       </c>
       <c r="J135" t="n">
-        <v>35785</v>
+        <v>86423</v>
       </c>
       <c r="K135" t="n">
-        <v>4.106</v>
+        <v>9.916</v>
       </c>
       <c r="L135" t="n">
-        <v>98106</v>
+        <v>93829</v>
       </c>
       <c r="M135" t="n">
-        <v>11.257</v>
+        <v>10.766</v>
       </c>
       <c r="N135" t="n">
-        <v>0.402</v>
+        <v>0.399</v>
       </c>
       <c r="O135" t="n">
         <v>2.5</v>
@@ -10480,7 +10560,7 @@
         <v>764</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44591</v>
+        <v>44594</v>
       </c>
       <c r="D136" t="s">
         <v>765</v>
@@ -10490,32 +10570,28 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="H136" t="n">
-        <v>5678564</v>
+        <v>5706264</v>
       </c>
       <c r="I136" t="n">
-        <v>238.045</v>
+        <v>239.206</v>
       </c>
       <c r="J136" t="n">
-        <v>12659</v>
+        <v>6731</v>
       </c>
       <c r="K136" t="n">
-        <v>0.531</v>
+        <v>0.282</v>
       </c>
       <c r="L136" t="n">
-        <v>27680</v>
+        <v>15470</v>
       </c>
       <c r="M136" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N136" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="O136" t="n">
-        <v>472.6</v>
-      </c>
+        <v>0.649</v>
+      </c>
+      <c r="N136"/>
+      <c r="O136"/>
       <c r="P136" t="s">
         <v>766</v>
       </c>
@@ -10568,10 +10644,10 @@
         <v>0.903</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1076</v>
+        <v>0.1435</v>
       </c>
       <c r="O137" t="n">
-        <v>9.3</v>
+        <v>7</v>
       </c>
       <c r="P137" t="s">
         <v>772</v>
@@ -10677,8 +10753,12 @@
       <c r="M139" t="n">
         <v>0.12</v>
       </c>
-      <c r="N139"/>
-      <c r="O139"/>
+      <c r="N139" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="O139" t="n">
+        <v>42.4</v>
+      </c>
       <c r="P139" t="s">
         <v>781</v>
       </c>
@@ -10757,7 +10837,7 @@
         <v>792</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="D141" t="s">
         <v>793</v>
@@ -10767,31 +10847,27 @@
       </c>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H141" t="n">
-        <v>4026806</v>
+        <v>4057762</v>
       </c>
       <c r="I141" t="n">
-        <v>337.373</v>
-      </c>
-      <c r="J141" t="n">
-        <v>20166</v>
-      </c>
-      <c r="K141" t="n">
-        <v>1.69</v>
-      </c>
+        <v>339.967</v>
+      </c>
+      <c r="J141"/>
+      <c r="K141"/>
       <c r="L141" t="n">
-        <v>22561</v>
+        <v>21358</v>
       </c>
       <c r="M141" t="n">
-        <v>1.89</v>
+        <v>1.789</v>
       </c>
       <c r="N141" t="n">
-        <v>0.3441</v>
+        <v>0.374</v>
       </c>
       <c r="O141" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P141" t="s">
         <v>795</v>
@@ -10814,7 +10890,7 @@
         <v>799</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D142" t="s">
         <v>800</v>
@@ -10824,25 +10900,25 @@
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H142" t="n">
-        <v>131597959</v>
+        <v>132508017</v>
       </c>
       <c r="I142" t="n">
-        <v>1547.433</v>
+        <v>1558.134</v>
       </c>
       <c r="J142" t="n">
-        <v>435513</v>
+        <v>457885</v>
       </c>
       <c r="K142" t="n">
-        <v>5.121</v>
+        <v>5.384</v>
       </c>
       <c r="L142" t="n">
-        <v>428732</v>
+        <v>439460</v>
       </c>
       <c r="M142" t="n">
-        <v>5.041</v>
+        <v>5.168</v>
       </c>
       <c r="N142"/>
       <c r="O142"/>
@@ -10924,7 +11000,7 @@
         <v>811</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D144" t="s">
         <v>812</v>
@@ -10934,25 +11010,21 @@
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H144" t="n">
-        <v>18045688</v>
+        <v>18206854</v>
       </c>
       <c r="I144" t="n">
-        <v>415.16</v>
-      </c>
-      <c r="J144" t="n">
-        <v>36354</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.836</v>
-      </c>
+        <v>418.868</v>
+      </c>
+      <c r="J144"/>
+      <c r="K144"/>
       <c r="L144" t="n">
-        <v>74623</v>
+        <v>77950</v>
       </c>
       <c r="M144" t="n">
-        <v>1.717</v>
+        <v>1.793</v>
       </c>
       <c r="N144"/>
       <c r="O144"/>
@@ -10977,7 +11049,7 @@
         <v>817</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D145" t="s">
         <v>818</v>
@@ -10987,25 +11059,25 @@
       </c>
       <c r="F145"/>
       <c r="G145" t="n">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H145" t="n">
-        <v>125131564</v>
+        <v>126129227</v>
       </c>
       <c r="I145" t="n">
-        <v>12524.324</v>
+        <v>12624.18</v>
       </c>
       <c r="J145" t="n">
-        <v>492099</v>
+        <v>497827</v>
       </c>
       <c r="K145" t="n">
-        <v>49.254</v>
+        <v>49.827</v>
       </c>
       <c r="L145" t="n">
-        <v>502733</v>
+        <v>493331</v>
       </c>
       <c r="M145" t="n">
-        <v>50.318</v>
+        <v>49.377</v>
       </c>
       <c r="N145"/>
       <c r="O145"/>
@@ -11030,7 +11102,7 @@
         <v>822</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>44588</v>
+        <v>44593</v>
       </c>
       <c r="D146" t="s">
         <v>823</v>
@@ -11040,31 +11112,31 @@
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="H146" t="n">
-        <v>434202494</v>
+        <v>440183667</v>
       </c>
       <c r="I146" t="n">
-        <v>6365.941</v>
+        <v>6453.633</v>
       </c>
       <c r="J146" t="n">
-        <v>1379649</v>
+        <v>1221150</v>
       </c>
       <c r="K146" t="n">
-        <v>20.227</v>
+        <v>17.904</v>
       </c>
       <c r="L146" t="n">
-        <v>1329906</v>
+        <v>1266569</v>
       </c>
       <c r="M146" t="n">
-        <v>19.498</v>
+        <v>18.569</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0682</v>
+        <v>0.0603</v>
       </c>
       <c r="O146" t="n">
-        <v>14.7</v>
+        <v>16.6</v>
       </c>
       <c r="P146" t="s">
         <v>825</v>
@@ -11087,7 +11159,7 @@
         <v>829</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="D147" t="s">
         <v>830</v>
@@ -11097,31 +11169,31 @@
       </c>
       <c r="F147"/>
       <c r="G147" t="n">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H147" t="n">
-        <v>776785623</v>
+        <v>780582351</v>
       </c>
       <c r="I147" t="n">
-        <v>2333.285</v>
+        <v>2344.689</v>
       </c>
       <c r="J147" t="n">
-        <v>1376333</v>
+        <v>1280975</v>
       </c>
       <c r="K147" t="n">
-        <v>4.134</v>
+        <v>3.848</v>
       </c>
       <c r="L147" t="n">
-        <v>1850098</v>
+        <v>1594815</v>
       </c>
       <c r="M147" t="n">
-        <v>5.557</v>
+        <v>4.79</v>
       </c>
       <c r="N147" t="n">
-        <v>0.236</v>
+        <v>0.222</v>
       </c>
       <c r="O147" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P147" t="s">
         <v>831</v>
@@ -11144,7 +11216,7 @@
         <v>835</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="D148" t="s">
         <v>836</v>
@@ -11154,31 +11226,31 @@
       </c>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H148" t="n">
-        <v>5198327</v>
+        <v>5243143</v>
       </c>
       <c r="I148" t="n">
-        <v>1491.564</v>
+        <v>1504.423</v>
       </c>
       <c r="J148" t="n">
-        <v>19241</v>
+        <v>25044</v>
       </c>
       <c r="K148" t="n">
-        <v>5.521</v>
+        <v>7.186</v>
       </c>
       <c r="L148" t="n">
-        <v>25719</v>
+        <v>24421</v>
       </c>
       <c r="M148" t="n">
-        <v>7.38</v>
+        <v>7.007</v>
       </c>
       <c r="N148" t="n">
-        <v>0.4024</v>
+        <v>0.41</v>
       </c>
       <c r="O148" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P148" t="s">
         <v>218</v>
@@ -11341,8 +11413,12 @@
       <c r="M151" t="n">
         <v>0.203</v>
       </c>
-      <c r="N151"/>
-      <c r="O151"/>
+      <c r="N151" t="n">
+        <v>0.0525</v>
+      </c>
+      <c r="O151" t="n">
+        <v>19</v>
+      </c>
       <c r="P151" t="s">
         <v>854</v>
       </c>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="855">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-3030-testime-522-qytetare-te-infektuar-4-humbje-jete-dhe-2259-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-7554-testime-1164-qytetare-te-infektuar-9-humbje-jete-dhe-1987-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -186,7 +186,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4791</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4807</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -261,7 +261,7 @@
     <t xml:space="preserve">Bahamas - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/24d706d2-1b26-4715-bea8-f73a7697fe4f/Update+%23674+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%2826%29.pdf?MOD=AJPERES</t>
+    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/2c199965-23c5-4b42-aca9-7e3374f9e981/Update+%23677-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%2839%29.pdf?MOD=AJPERES</t>
   </si>
   <si>
     <t xml:space="preserve">Bahamas Ministry of Health and Wellness</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1918-new-cases-1359-recoveries_i_0000140176.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-7350-new-cases-1114-recoveries_i_0000140313.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -405,7 +405,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/posts/5004240329637543</t>
+    <t xml:space="preserve">https://www.facebook.com/permalink.php?story_fbid=5010841665644076&amp;id=755187864542832</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -803,15 +803,12 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-02022022-1kju</t>
+    <t xml:space="preserve">https://covid19.ssi.dk/overvagningsdata/download-fil-med-overvaagningdata</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.ssi.dk/overvagningsdata/download-fil-med-overvaagningdata</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Danish Statum Serum Institute provides epidemiological update reports on confirmed cases, deaths, testing and demographic details. An archive of .zip files is available [on its website](https://covid19.ssi.dk/overvagningsdata/download-fil-med-overvaagningdata). Each contains a .csv file (Test_pos_over_time.csv) with the time series of daily ("Tested") and cumulative ("Tested_kumulativ") tests performed, going back to 27 January 2020.</t>
   </si>
   <si>
@@ -821,7 +818,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/01/Bolet%C3%ADn-especial-683-COVID-19.pdf</t>
+    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/02/Bolet%C3%ADn-especial-686-COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -840,7 +837,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2022/01/MSP_cvd19_infografia_diaria_20220127.pdf</t>
+    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2022/02/MSP_cvd19_infografia_diaria_20220201.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -1001,7 +998,7 @@
     <t xml:space="preserve">https://www.thl.fi/episeuranta/tautitapaukset/coronamap.html</t>
   </si>
   <si>
-    <t xml:space="preserve">The Finnish Institute for Health and Welfare reports the number of tests performed via an [open data API](https://sampo.thl.fi/pivot/prod/en/epirapo/covid19case/fact_epirapo_covid19case?row=dateweek20200101-509093L&amp;column=measure-444833.445356.492118.&amp;&amp;fo=1). The source states that testing figures include all tests "reported independently by laboratories", suggesting that home antigen tests are not included.</t>
+    <t xml:space="preserve">The Finnish Institute for Health and Welfare reports the number of tests performed via an [open data API](https://sampo.thl.fi/pivot/prod/en/epirapo/covid19case/fact_epirapo_covid19case?row=dateweek20200101-509093L&amp;column=measure-444833.445356.492118.&amp;&amp;fo=1). The source states that testing figures include all tests "reported independently by laboratories", suggesting that home antigen tests are not included; the Finnish Institute for Health and Welfare have confirmed via private correspondence that "in Finland, after a positive antigen test, the result is confirmed by a PCR test. Therefore, all test results included are PCR tests."</t>
   </si>
   <si>
     <t xml:space="preserve">FRA</t>
@@ -1063,7 +1060,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2022/230</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2022/251</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1104,7 +1101,7 @@
     <t xml:space="preserve">Ghana - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">"The Africa Centres for Disease Control and Prevention maintains a [dashboard]https://africacdc.maps.arcgis.com/apps/dashboards/a5603222b29c49539df3af45bac16bcc reporting the number of tests performed for every country in the continent. We query the API to produce a time series of the cumulative number of tests performed in Ghana.
+    <t xml:space="preserve">The Africa Centres for Disease Control and Prevention maintains a [dashboard]https://africacdc.maps.arcgis.com/apps/dashboards/a5603222b29c49539df3af45bac16bcc reporting the number of tests performed for every country in the continent. We query the API to produce a time series of the cumulative number of tests performed in Ghana.
 Ghana's Outbreak Response Management provides [daily situation updates](https://www.ghanahealthservice.org/covid19/archive.php) reporting the total number of samples tested; this was our source from 2020-03-17 until 2022-01-10.
 Between 10 and 26 May 2020, the daily situation updates provide figures for both the number of samples tested and the number of persons tested. Over this period the two figures differ from one another by exactly 981 tests on each day, which is due to persons under mandatory quarantine undergoing multiple test (2,022 samples tested on 1,041 persons). This discrepancy of 981 tests is small, representing less than 1% of cumulative samples tested at the time. In contrast, the cumulative number of samples tested through routine surveillance and contact tracing are exactly equal to the cumulative number of persons tested on each day in these respective categories. 
 Prior to 10 May 2020, the daily situation updates provide testing figures using inconsistent terminology, varying between "samples tested", "persons tested", "suspected cases tested", and similar language. Nevertheless, we choose to include all of these figures within our constructed time series, since the variation in terminology does not appear to correspond to large breaks in the time series. In addition, based on the fact that the number of samples tested differs only slightly from the number of persons tested over the 10 May to 26 May 2020 period, we have no reason to believe that the variation in terminology prior to 10 May has any serious ramifications for the interpretation of the time series as the cumulative number of samples tested. From 10 May 2020 onwards, the daily situation updates consistently report the cumulative number of samples tested. 
@@ -1304,7 +1301,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/379400</t>
+    <t xml:space="preserve">https://irangov.ir/detail/379464</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -1328,7 +1325,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1487475525090254848?cxt=HHwWgIC90f3GyaQpAAAA</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1489233325105586178</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1415,7 +1412,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-saturday-january-29-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-february-2-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1519,7 +1516,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1488158224146747393?cxt=HHwWgsC-_aWBgKcpAAAA</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1489588368363204610</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1718,7 +1715,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1488198109893050369?cxt=HHwWgoCq-fmSkqcpAAAA</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1489284342530527233</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1801,7 +1798,7 @@
     <t xml:space="preserve">Moldova - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://msmps.gov.md/comunicare/comunicate/alte-4-794-de-cazuri-noi-de-covid-19-raportate-pentru-1-februarie-2022/</t>
+    <t xml:space="preserve">https://msmps.gov.md/comunicare/alte-5-212-de-cazuri-noi-de-covid-19-raportate-pentru-3-februarie-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of the Republic of Moldova</t>
@@ -1911,7 +1908,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1Bmn8Jr32s1RrPcwNTE04zRuzl9MtD8R0</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1j9Dsso8c9IDqzY4SKzcE3q0FJkOj1oMT</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -2083,7 +2080,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1487944765983313926</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1489422003878649856</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2117,7 +2114,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1487915142604107781</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1489355865719283712</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2175,7 +2172,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1488085898793295881</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1489535450159017986</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2238,7 +2235,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRES%C4%82_-_2_februarie_2022,_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRES%C4%82_-_3_februarie_2022,_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2261,7 +2258,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20541</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20557</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2529,6 +2526,21 @@
     <t xml:space="preserve">The Sri Lankan Health Promotion Bureau provides a time series of the number of PCR tests performed every day since 18 February 2020. This data is available via [the Health Promotion Bureau's API](https://www.hpb.health.gov.lk/en/api-documentation). It is unclear whether the data includes pending test results.</t>
   </si>
   <si>
+    <t xml:space="preserve">SUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://covid-19.sr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Directorate National Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Suriname Directorate National Security maintains a [dashboard] https://covid-19.sr/ the number of tests performed in the last 24 hours ('Totaal Testen (24 uur*)'), as well as the number of which were negative ('Totaal negatieve Resultaten'). We collect these daily figures in order to construct a time series of tests performed, as well as a positive rate.</t>
+  </si>
+  <si>
     <t xml:space="preserve">SWE</t>
   </si>
   <si>
@@ -2703,19 +2715,11 @@
     <t xml:space="preserve">UGA</t>
   </si>
   <si>
-    <t xml:space="preserve">Uganda - samples tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1488072894911553536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda Ministry of Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Uganda Ministry of Health publishes a daily press releases on their official Twitter account ([@MinofHealthUG])("https://twitter.com/MinofHealthUG") detailing the cumulative and daily number of samples tested. Data is available from [1 April 2020](https://www.health.go.ug/document/update-on-the-covid-19-outbreak-in-uganda-3/).
+    <t xml:space="preserve">Uganda - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Africa Centres for Disease Control and Prevention maintains a [dashboard]https://africacdc.maps.arcgis.com/apps/dashboards/a5603222b29c49539df3af45bac16bcc reporting the number of tests performed for every country in the continent. We query the API to produce a time series of the cumulative number of tests performed in Uganda.
+The Uganda Ministry of Health also publishes a daily press releases on their official Twitter account ([@MinofHealthUG])("https://twitter.com/MinofHealthUG") detailing the cumulative and daily number of samples tested, which was our source until 04-02-2022. Data is available from [1 April 2020](https://www.health.go.ug/document/update-on-the-covid-19-outbreak-in-uganda-3/).
 According to a [press release](https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;ved=2ahUKEwi-qf-Y3dPuAhWDjlkKHeDWA3gQFjABegQIAxAC&amp;url=https%3A%2F%2Fwww.health.go.ug%2Fdownload-attachment%2FHm_WTW-rTxIrXNEeBm-h-rhU9IyaxOFwrXyrWhrvIlk%2C&amp;usg=AOvVaw3tavEmv7NIF8koJVYq-EDs) published by the Ministry of Health on 5 June 2020, "the PCR is the only single, dependable and WHO recommended test used for diagnostic purposes in Uganda". As such, we conclude that testing and case figures refer to PCR tests.
 The earliest press release we could find that lists the cumulative and daily figures is for 1 April 2020. However, we cannot say with certainty when testing began and the precise date from which cumulative totals begin.
 According to Oxford University's [Coronavirus Government Response Tracker](https://github.com/OxCGRT/covid-policy-tracker/tree/master/data), government policy currently covers "testing of anyone showing COVID-19 symptoms".</t>
@@ -2826,7 +2830,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-142-bc-byt-2022-tinh-hinh-dich-va-cong-tac-phong-chong-dich-covid-19-ngay-29-01-2022-216452-d6.html</t>
+    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-149-bc-byt-2022-tinh-hinh-dich-va-ket-qua-trien-khai-cong-tac-phong-chong-dich-covid-19-tu-16h00-ngay-31-01-2022-den-16h00-ngay-01-02-2022-216476-d6.html</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam Ministry of Health</t>
@@ -2872,16 +2876,8 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1488241789995728899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.mohcc.gov.zw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Zimbabwe Ministry of Health and Child Care provides daily press releases on its website and Twitter account ([@MoHCCZim](https://twitter.com/MoHCCZim)) that report the cumulative number of tests performed to date. The reported figures include positive, negative, and pending test results.
+    <t xml:space="preserve">The Africa Centres for Disease Control and Prevention maintains a [dashboard]https://africacdc.maps.arcgis.com/apps/dashboards/a5603222b29c49539df3af45bac16bcc reporting the number of tests performed for every country in the continent. We query the API to produce a time series of the cumulative number of tests performed in Zimbabwe.
+The Zimbabwe Ministry of Health and Child Care provides daily press releases on its website and Twitter account ([@MoHCCZim](https://twitter.com/MoHCCZim)) that report the cumulative number of tests performed to date, which was our source until 04-02-2022. The reported figures include positive, negative, and pending test results.
 The press release for 6 May 2020 reported that 7,808 PCR and 8,244 "rapid screening" tests had been conducted to date. We exclude rapid screening tests from the daily time series that we construct, since we assume that these are antibody tests.
 Prior to 6 May 2020, the press releases either: (a) reported a combined cumulative total of PCR and rapid screening tests without providing a breakdown between the two types of tests; or (b) did not clearly specify whether the reported cumulative total was in reference to PCR tests, antibody tests, or both. For this reason, the daily time series we construct begins on 6 May 2020, at which point the press releases began to clearly indicate that the reported cumulative totals only include PCR tests.
 Since [19 Jan 2021](https://twitter.com/MoHCCZim/status/1351632194033360903/photo/1), the press releases report a combined cumualtive total of PCR and rapid antigen tests. According to a [United Nations report](https://zimbabwe.un.org/en/111012-capacitating-rural-health-facilities-rapid-covid-19-testing), published on 27 January 2021, antigen tests can be used to diagnose cases of COVID-19 in Zimbabwe.
@@ -3292,7 +3288,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3302,31 +3298,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H2" t="n">
-        <v>1562780</v>
+        <v>1570334</v>
       </c>
       <c r="I2" t="n">
-        <v>543.967</v>
+        <v>546.596</v>
       </c>
       <c r="J2" t="n">
-        <v>3030</v>
+        <v>7554</v>
       </c>
       <c r="K2" t="n">
-        <v>1.055</v>
+        <v>2.629</v>
       </c>
       <c r="L2" t="n">
-        <v>2246</v>
+        <v>2416</v>
       </c>
       <c r="M2" t="n">
-        <v>0.782</v>
+        <v>0.841</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6661</v>
+        <v>0.6046</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -3349,7 +3345,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44585</v>
+        <v>44592</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -3359,28 +3355,24 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>295208</v>
+        <v>297098</v>
       </c>
       <c r="I3" t="n">
-        <v>3816.325</v>
+        <v>3840.758</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>1040</v>
+        <v>270</v>
       </c>
       <c r="M3" t="n">
-        <v>13.445</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.4309</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2.3</v>
-      </c>
+        <v>3.49</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3"/>
       <c r="P3" t="s">
         <v>30</v>
       </c>
@@ -3402,7 +3394,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44591</v>
+        <v>44595</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3412,27 +3404,27 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>1368254</v>
+        <v>1384080</v>
       </c>
       <c r="I4" t="n">
-        <v>40.321</v>
+        <v>40.788</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4" t="n">
-        <v>3073</v>
+        <v>2757</v>
       </c>
       <c r="M4" t="n">
-        <v>0.091</v>
+        <v>0.081</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0695</v>
+        <v>0.0217</v>
       </c>
       <c r="O4" t="n">
-        <v>14.4</v>
+        <v>46.2</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -3500,7 +3492,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3510,31 +3502,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H6" t="n">
-        <v>32649362</v>
+        <v>32815997</v>
       </c>
       <c r="I6" t="n">
-        <v>715.903</v>
+        <v>719.557</v>
       </c>
       <c r="J6" t="n">
-        <v>62169</v>
+        <v>46527</v>
       </c>
       <c r="K6" t="n">
-        <v>1.363</v>
+        <v>1.02</v>
       </c>
       <c r="L6" t="n">
-        <v>69151</v>
+        <v>58223</v>
       </c>
       <c r="M6" t="n">
-        <v>1.516</v>
+        <v>1.277</v>
       </c>
       <c r="N6" t="n">
-        <v>0.528</v>
+        <v>0.479</v>
       </c>
       <c r="O6" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="P6" t="s">
         <v>49</v>
@@ -3557,7 +3549,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44592</v>
+        <v>44596</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -3567,32 +3559,24 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H7" t="n">
-        <v>2726988</v>
+        <v>2762988</v>
       </c>
       <c r="I7" t="n">
-        <v>918.757</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4673</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.574</v>
-      </c>
+        <v>930.886</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
       <c r="L7" t="n">
-        <v>6780</v>
+        <v>7702</v>
       </c>
       <c r="M7" t="n">
-        <v>2.284</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.3244</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3.1</v>
-      </c>
+        <v>2.595</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7"/>
       <c r="P7" t="s">
         <v>42</v>
       </c>
@@ -3614,7 +3598,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3626,25 +3610,25 @@
         <v>61</v>
       </c>
       <c r="G8" t="n">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H8" t="n">
-        <v>61281383</v>
+        <v>61491811</v>
       </c>
       <c r="I8" t="n">
-        <v>2376.333</v>
+        <v>2384.493</v>
       </c>
       <c r="J8" t="n">
-        <v>130347</v>
+        <v>100240</v>
       </c>
       <c r="K8" t="n">
-        <v>5.055</v>
+        <v>3.887</v>
       </c>
       <c r="L8" t="n">
-        <v>117417</v>
+        <v>112733</v>
       </c>
       <c r="M8" t="n">
-        <v>4.553</v>
+        <v>4.371</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -3669,7 +3653,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="D9" t="s">
         <v>66</v>
@@ -3679,25 +3663,25 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H9" t="n">
-        <v>144013076</v>
+        <v>145771011</v>
       </c>
       <c r="I9" t="n">
-        <v>15925.238</v>
+        <v>16119.634</v>
       </c>
       <c r="J9" t="n">
-        <v>1223923</v>
+        <v>596739</v>
       </c>
       <c r="K9" t="n">
-        <v>135.344</v>
+        <v>65.989</v>
       </c>
       <c r="L9" t="n">
-        <v>807983</v>
+        <v>710950</v>
       </c>
       <c r="M9" t="n">
-        <v>89.348</v>
+        <v>78.618</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3722,7 +3706,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
@@ -3732,25 +3716,25 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H10" t="n">
-        <v>6191130</v>
+        <v>6227883</v>
       </c>
       <c r="I10" t="n">
-        <v>605.588</v>
+        <v>609.183</v>
       </c>
       <c r="J10" t="n">
-        <v>18797</v>
+        <v>19481</v>
       </c>
       <c r="K10" t="n">
-        <v>1.839</v>
+        <v>1.906</v>
       </c>
       <c r="L10" t="n">
-        <v>13805</v>
+        <v>14037</v>
       </c>
       <c r="M10" t="n">
-        <v>1.35</v>
+        <v>1.373</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -3775,7 +3759,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44590</v>
+        <v>44593</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3785,31 +3769,27 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H11" t="n">
-        <v>209172</v>
+        <v>210442</v>
       </c>
       <c r="I11" t="n">
-        <v>526.996</v>
-      </c>
-      <c r="J11" t="n">
-        <v>329</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.829</v>
-      </c>
+        <v>530.195</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
       <c r="L11" t="n">
-        <v>532</v>
+        <v>442</v>
       </c>
       <c r="M11" t="n">
-        <v>1.34</v>
+        <v>1.114</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1308</v>
+        <v>0.1189</v>
       </c>
       <c r="O11" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3832,7 +3812,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3842,21 +3822,25 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H12" t="n">
-        <v>8808927</v>
+        <v>8873645</v>
       </c>
       <c r="I12" t="n">
-        <v>5038.582</v>
-      </c>
-      <c r="J12"/>
-      <c r="K12"/>
+        <v>5075.599</v>
+      </c>
+      <c r="J12" t="n">
+        <v>33630</v>
+      </c>
+      <c r="K12" t="n">
+        <v>19.236</v>
+      </c>
       <c r="L12" t="n">
-        <v>24411</v>
+        <v>29655</v>
       </c>
       <c r="M12" t="n">
-        <v>13.963</v>
+        <v>16.962</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -3881,7 +3865,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44592</v>
+        <v>44595</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
@@ -3891,31 +3875,31 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="H13" t="n">
-        <v>12459232</v>
+        <v>12593619</v>
       </c>
       <c r="I13" t="n">
-        <v>74.919</v>
+        <v>75.727</v>
       </c>
       <c r="J13" t="n">
-        <v>45358</v>
+        <v>44843</v>
       </c>
       <c r="K13" t="n">
-        <v>0.273</v>
+        <v>0.27</v>
       </c>
       <c r="L13" t="n">
-        <v>45142</v>
+        <v>43199</v>
       </c>
       <c r="M13" t="n">
-        <v>0.271</v>
+        <v>0.26</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3129</v>
+        <v>0.2925</v>
       </c>
       <c r="O13" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P13" t="s">
         <v>90</v>
@@ -3938,7 +3922,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44593</v>
+        <v>44596</v>
       </c>
       <c r="D14" t="s">
         <v>94</v>
@@ -3948,28 +3932,28 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H14" t="n">
-        <v>11731354</v>
+        <v>11870801</v>
       </c>
       <c r="I14" t="n">
-        <v>1242.351</v>
-      </c>
-      <c r="J14"/>
-      <c r="K14"/>
+        <v>1257.118</v>
+      </c>
+      <c r="J14" t="n">
+        <v>47324</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.012</v>
+      </c>
       <c r="L14" t="n">
-        <v>31723</v>
+        <v>37522</v>
       </c>
       <c r="M14" t="n">
-        <v>3.359</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="O14" t="n">
-        <v>15.1</v>
-      </c>
+        <v>3.974</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14"/>
       <c r="P14" t="s">
         <v>96</v>
       </c>
@@ -3991,7 +3975,7 @@
         <v>100</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
@@ -4001,31 +3985,31 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H15" t="n">
-        <v>30309376</v>
+        <v>30530212</v>
       </c>
       <c r="I15" t="n">
-        <v>2605.614</v>
+        <v>2624.599</v>
       </c>
       <c r="J15" t="n">
-        <v>70247</v>
+        <v>92896</v>
       </c>
       <c r="K15" t="n">
-        <v>6.039</v>
+        <v>7.986</v>
       </c>
       <c r="L15" t="n">
-        <v>104676</v>
+        <v>94334</v>
       </c>
       <c r="M15" t="n">
-        <v>8.999</v>
+        <v>8.11</v>
       </c>
       <c r="N15" t="n">
-        <v>0.451</v>
+        <v>0.427</v>
       </c>
       <c r="O15" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P15" t="s">
         <v>103</v>
@@ -4146,7 +4130,7 @@
         <v>118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44592</v>
+        <v>44595</v>
       </c>
       <c r="D18" t="s">
         <v>119</v>
@@ -4156,31 +4140,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="H18" t="n">
-        <v>1447115</v>
+        <v>1476108</v>
       </c>
       <c r="I18" t="n">
-        <v>1855.514</v>
+        <v>1892.689</v>
       </c>
       <c r="J18" t="n">
-        <v>15241</v>
+        <v>7213</v>
       </c>
       <c r="K18" t="n">
-        <v>19.542</v>
+        <v>9.249</v>
       </c>
       <c r="L18" t="n">
-        <v>9565</v>
+        <v>10722</v>
       </c>
       <c r="M18" t="n">
-        <v>12.264</v>
+        <v>13.748</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0161</v>
+        <v>0.0174</v>
       </c>
       <c r="O18" t="n">
-        <v>62</v>
+        <v>57.4</v>
       </c>
       <c r="P18" t="s">
         <v>42</v>
@@ -4203,7 +4187,7 @@
         <v>124</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="D19" t="s">
         <v>125</v>
@@ -4215,31 +4199,31 @@
         <v>127</v>
       </c>
       <c r="G19" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H19" t="n">
-        <v>3642315</v>
+        <v>3658461</v>
       </c>
       <c r="I19" t="n">
-        <v>307.812</v>
+        <v>309.176</v>
       </c>
       <c r="J19" t="n">
-        <v>15396</v>
+        <v>16146</v>
       </c>
       <c r="K19" t="n">
-        <v>1.301</v>
+        <v>1.364</v>
       </c>
       <c r="L19" t="n">
-        <v>14991</v>
+        <v>14435</v>
       </c>
       <c r="M19" t="n">
-        <v>1.267</v>
+        <v>1.22</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2983</v>
+        <v>0.2821</v>
       </c>
       <c r="O19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P19" t="s">
         <v>42</v>
@@ -4315,7 +4299,7 @@
         <v>137</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44588</v>
+        <v>44595</v>
       </c>
       <c r="D21" t="s">
         <v>35</v>
@@ -4336,16 +4320,16 @@
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21" t="n">
-        <v>4787</v>
+        <v>2025</v>
       </c>
       <c r="M21" t="n">
-        <v>1.997</v>
+        <v>0.845</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2029</v>
+        <v>0.3735</v>
       </c>
       <c r="O21" t="n">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="P21" t="s">
         <v>36</v>
@@ -4419,7 +4403,7 @@
         <v>146</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="D23" t="s">
         <v>147</v>
@@ -4429,27 +4413,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H23" t="n">
-        <v>8523133</v>
+        <v>8595169</v>
       </c>
       <c r="I23" t="n">
-        <v>1235.836</v>
-      </c>
-      <c r="J23"/>
-      <c r="K23"/>
+        <v>1246.281</v>
+      </c>
+      <c r="J23" t="n">
+        <v>37005</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5.366</v>
+      </c>
       <c r="L23" t="n">
-        <v>40572</v>
+        <v>33655</v>
       </c>
       <c r="M23" t="n">
-        <v>5.883</v>
+        <v>4.88</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2093</v>
+        <v>0.2417</v>
       </c>
       <c r="O23" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="P23" t="s">
         <v>149</v>
@@ -4472,7 +4460,7 @@
         <v>153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44591</v>
+        <v>44595</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -4482,27 +4470,27 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H24" t="n">
-        <v>309604</v>
+        <v>309986</v>
       </c>
       <c r="I24" t="n">
-        <v>14.402</v>
+        <v>14.42</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24" t="n">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="M24" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0425</v>
+        <v>0.0375</v>
       </c>
       <c r="O24" t="n">
-        <v>23.5</v>
+        <v>26.7</v>
       </c>
       <c r="P24" t="s">
         <v>36</v>
@@ -4525,7 +4513,7 @@
         <v>156</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -4535,28 +4523,28 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
-        <v>1353187</v>
+        <v>1360036</v>
       </c>
       <c r="I25" t="n">
-        <v>110.415</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3078</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.251</v>
-      </c>
+        <v>110.974</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
       <c r="L25" t="n">
-        <v>2357</v>
+        <v>2835</v>
       </c>
       <c r="M25" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="N25"/>
-      <c r="O25"/>
+        <v>0.231</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="O25" t="n">
+        <v>66.8</v>
+      </c>
       <c r="P25" t="s">
         <v>36</v>
       </c>
@@ -4688,7 +4676,7 @@
         <v>169</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44592</v>
+        <v>44595</v>
       </c>
       <c r="D28" t="s">
         <v>165</v>
@@ -4698,31 +4686,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="H28" t="n">
-        <v>56587195</v>
+        <v>56795249</v>
       </c>
       <c r="I28" t="n">
-        <v>1486.48</v>
+        <v>1491.945</v>
       </c>
       <c r="J28" t="n">
-        <v>197205</v>
+        <v>84728</v>
       </c>
       <c r="K28" t="n">
-        <v>5.18</v>
+        <v>2.226</v>
       </c>
       <c r="L28" t="n">
-        <v>84970</v>
+        <v>79645</v>
       </c>
       <c r="M28" t="n">
-        <v>2.232</v>
+        <v>2.092</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2077</v>
+        <v>0.1756</v>
       </c>
       <c r="O28" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="P28" t="s">
         <v>166</v>
@@ -4790,7 +4778,7 @@
         <v>178</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44585</v>
+        <v>44595</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -4800,28 +4788,24 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
-        <v>81294</v>
+        <v>82526</v>
       </c>
       <c r="I30" t="n">
-        <v>16.523</v>
+        <v>16.774</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>253</v>
+        <v>123</v>
       </c>
       <c r="M30" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.1649</v>
-      </c>
-      <c r="O30" t="n">
-        <v>6.1</v>
-      </c>
+        <v>0.025</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30"/>
       <c r="P30" t="s">
         <v>36</v>
       </c>
@@ -4896,7 +4880,7 @@
         <v>184</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="D32" t="s">
         <v>185</v>
@@ -4906,28 +4890,32 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H32" t="n">
-        <v>29903399</v>
+        <v>30040412</v>
       </c>
       <c r="I32" t="n">
-        <v>1556.467</v>
+        <v>1563.598</v>
       </c>
       <c r="J32" t="n">
-        <v>111306</v>
+        <v>137013</v>
       </c>
       <c r="K32" t="n">
-        <v>5.793</v>
+        <v>7.132</v>
       </c>
       <c r="L32" t="n">
-        <v>118042</v>
+        <v>121321</v>
       </c>
       <c r="M32" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="N32"/>
-      <c r="O32"/>
+        <v>6.315</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.2498</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4</v>
+      </c>
       <c r="P32" t="s">
         <v>186</v>
       </c>
@@ -5002,7 +4990,7 @@
         <v>196</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="D34" t="s">
         <v>197</v>
@@ -5012,31 +5000,31 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H34" t="n">
-        <v>32155328</v>
+        <v>32270008</v>
       </c>
       <c r="I34" t="n">
-        <v>627.227</v>
+        <v>629.464</v>
       </c>
       <c r="J34" t="n">
-        <v>58611</v>
+        <v>52384</v>
       </c>
       <c r="K34" t="n">
-        <v>1.143</v>
+        <v>1.022</v>
       </c>
       <c r="L34" t="n">
-        <v>58080</v>
+        <v>55406</v>
       </c>
       <c r="M34" t="n">
-        <v>1.133</v>
+        <v>1.081</v>
       </c>
       <c r="N34" t="n">
-        <v>0.392</v>
+        <v>0.362</v>
       </c>
       <c r="O34" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="P34" t="s">
         <v>198</v>
@@ -5116,7 +5104,7 @@
         <v>207</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="D36" t="s">
         <v>35</v>
@@ -5126,31 +5114,27 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H36" t="n">
-        <v>1357001</v>
+        <v>1354210</v>
       </c>
       <c r="I36" t="n">
-        <v>50.16</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2791</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.103</v>
-      </c>
+        <v>50.057</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36"/>
       <c r="L36" t="n">
-        <v>2278</v>
+        <v>2295</v>
       </c>
       <c r="M36" t="n">
-        <v>0.084</v>
+        <v>0.085</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0294</v>
+        <v>0.0323</v>
       </c>
       <c r="O36" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P36" t="s">
         <v>36</v>
@@ -5173,7 +5157,7 @@
         <v>210</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="D37" t="s">
         <v>211</v>
@@ -5183,25 +5167,25 @@
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H37" t="n">
-        <v>4267694</v>
+        <v>4301921</v>
       </c>
       <c r="I37" t="n">
-        <v>1045.579</v>
+        <v>1053.964</v>
       </c>
       <c r="J37" t="n">
-        <v>19734</v>
+        <v>16085</v>
       </c>
       <c r="K37" t="n">
-        <v>4.835</v>
+        <v>3.941</v>
       </c>
       <c r="L37" t="n">
-        <v>16091</v>
+        <v>15272</v>
       </c>
       <c r="M37" t="n">
-        <v>3.942</v>
+        <v>3.742</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -5285,7 +5269,7 @@
         <v>223</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="D39" t="s">
         <v>224</v>
@@ -5295,31 +5279,31 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H39" t="n">
-        <v>22859848</v>
+        <v>23076080</v>
       </c>
       <c r="I39" t="n">
-        <v>25513.081</v>
+        <v>25754.41</v>
       </c>
       <c r="J39" t="n">
-        <v>113862</v>
+        <v>115470</v>
       </c>
       <c r="K39" t="n">
-        <v>127.077</v>
+        <v>128.872</v>
       </c>
       <c r="L39" t="n">
-        <v>104283</v>
+        <v>106721</v>
       </c>
       <c r="M39" t="n">
-        <v>116.387</v>
+        <v>119.108</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0245</v>
+        <v>0.0262</v>
       </c>
       <c r="O39" t="n">
-        <v>40.8</v>
+        <v>38.1</v>
       </c>
       <c r="P39" t="s">
         <v>42</v>
@@ -5342,7 +5326,7 @@
         <v>227</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="D40" t="s">
         <v>228</v>
@@ -5352,28 +5336,28 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H40" t="n">
-        <v>49527923</v>
+        <v>49848567</v>
       </c>
       <c r="I40" t="n">
-        <v>4618.181</v>
+        <v>4648.079</v>
       </c>
       <c r="J40" t="n">
-        <v>171393</v>
+        <v>150326</v>
       </c>
       <c r="K40" t="n">
-        <v>15.981</v>
+        <v>14.017</v>
       </c>
       <c r="L40" t="n">
-        <v>149933</v>
+        <v>146321</v>
       </c>
       <c r="M40" t="n">
-        <v>13.98</v>
+        <v>13.644</v>
       </c>
       <c r="N40" t="n">
-        <v>0.253</v>
+        <v>0.251</v>
       </c>
       <c r="O40" t="n">
         <v>4</v>
@@ -5452,7 +5436,7 @@
         <v>237</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44592</v>
+        <v>44595</v>
       </c>
       <c r="D42" t="s">
         <v>238</v>
@@ -5462,176 +5446,172 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="H42" t="n">
-        <v>59463709</v>
+        <v>59859785</v>
       </c>
       <c r="I42" t="n">
-        <v>10228.904</v>
+        <v>10297.037</v>
       </c>
       <c r="J42" t="n">
-        <v>202955</v>
+        <v>78360</v>
       </c>
       <c r="K42" t="n">
-        <v>34.912</v>
+        <v>13.479</v>
       </c>
       <c r="L42" t="n">
-        <v>178497</v>
+        <v>143792</v>
       </c>
       <c r="M42" t="n">
-        <v>30.705</v>
+        <v>24.735</v>
       </c>
       <c r="N42" t="n">
-        <v>0.2436</v>
+        <v>0.3026</v>
       </c>
       <c r="O42" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="P42" t="s">
         <v>239</v>
       </c>
       <c r="Q42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="R42" t="s">
         <v>50</v>
       </c>
       <c r="S42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" t="s">
         <v>242</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="1" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D43" t="s">
         <v>243</v>
       </c>
-      <c r="C43" s="1" t="n">
-        <v>44591</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>244</v>
-      </c>
-      <c r="E43" t="s">
-        <v>245</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H43" t="n">
-        <v>2952303</v>
+        <v>2973479</v>
       </c>
       <c r="I43" t="n">
-        <v>269.525</v>
+        <v>271.459</v>
       </c>
       <c r="J43" t="n">
-        <v>4483</v>
+        <v>6187</v>
       </c>
       <c r="K43" t="n">
-        <v>0.409</v>
+        <v>0.565</v>
       </c>
       <c r="L43" t="n">
-        <v>6588</v>
+        <v>6174</v>
       </c>
       <c r="M43" t="n">
-        <v>0.601</v>
+        <v>0.564</v>
       </c>
       <c r="N43" t="n">
-        <v>0.3138</v>
+        <v>0.2505</v>
       </c>
       <c r="O43" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P43" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q43" t="s">
         <v>245</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>246</v>
       </c>
       <c r="R43" t="s">
         <v>121</v>
       </c>
       <c r="S43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>247</v>
+      </c>
+      <c r="B44" t="s">
         <v>248</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D44" t="s">
         <v>249</v>
       </c>
-      <c r="C44" s="1" t="n">
-        <v>44588</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>250</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>251</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="n">
+        <v>659</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2346485</v>
+      </c>
+      <c r="I44" t="n">
+        <v>131.173</v>
+      </c>
+      <c r="J44" t="n">
+        <v>12378</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.692</v>
+      </c>
+      <c r="L44" t="n">
+        <v>10503</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44" t="s">
         <v>252</v>
       </c>
-      <c r="G44" t="n">
-        <v>654</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2296176</v>
-      </c>
-      <c r="I44" t="n">
-        <v>128.361</v>
-      </c>
-      <c r="J44" t="n">
-        <v>14893</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="L44" t="n">
-        <v>10587</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.592</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.8419</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>253</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>254</v>
       </c>
       <c r="R44" t="s">
         <v>31</v>
       </c>
       <c r="S44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45" t="s">
         <v>256</v>
-      </c>
-      <c r="B45" t="s">
-        <v>257</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>44591</v>
       </c>
       <c r="D45" t="s">
+        <v>257</v>
+      </c>
+      <c r="E45" t="s">
         <v>258</v>
-      </c>
-      <c r="E45" t="s">
-        <v>259</v>
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
@@ -5662,133 +5642,133 @@
         <v>5.4</v>
       </c>
       <c r="P45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R45" t="s">
         <v>50</v>
       </c>
       <c r="S45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>260</v>
+      </c>
+      <c r="B46" t="s">
         <v>261</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D46" t="s">
         <v>262</v>
       </c>
-      <c r="C46" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>263</v>
-      </c>
-      <c r="E46" t="s">
-        <v>264</v>
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H46" t="n">
-        <v>278380</v>
+        <v>279764</v>
       </c>
       <c r="I46" t="n">
-        <v>192.001</v>
+        <v>192.955</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="n">
-        <v>179</v>
+        <v>313</v>
       </c>
       <c r="M46" t="n">
-        <v>0.123</v>
+        <v>0.216</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R46" t="s">
         <v>24</v>
       </c>
       <c r="S46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>266</v>
+      </c>
+      <c r="B47" t="s">
         <v>267</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="1" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D47" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="1" t="n">
-        <v>44592</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>269</v>
-      </c>
-      <c r="E47" t="s">
-        <v>270</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H47" t="n">
-        <v>2850865</v>
+        <v>2876493</v>
       </c>
       <c r="I47" t="n">
-        <v>2151.291</v>
+        <v>2170.63</v>
       </c>
       <c r="J47" t="n">
-        <v>13417</v>
+        <v>12322</v>
       </c>
       <c r="K47" t="n">
-        <v>10.125</v>
+        <v>9.298</v>
       </c>
       <c r="L47" t="n">
-        <v>12538</v>
+        <v>12471</v>
       </c>
       <c r="M47" t="n">
-        <v>9.461</v>
+        <v>9.411</v>
       </c>
       <c r="N47" t="n">
-        <v>0.468</v>
+        <v>0.5016</v>
       </c>
       <c r="O47" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R47" t="s">
         <v>50</v>
       </c>
       <c r="S47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>271</v>
+      </c>
+      <c r="B48" t="s">
         <v>272</v>
       </c>
-      <c r="B48" t="s">
-        <v>273</v>
-      </c>
       <c r="C48" s="1" t="n">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="D48" t="s">
         <v>35</v>
@@ -5798,60 +5778,56 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H48" t="n">
-        <v>4346658</v>
+        <v>4360900</v>
       </c>
       <c r="I48" t="n">
-        <v>36.875</v>
-      </c>
-      <c r="J48" t="n">
-        <v>4840</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.041</v>
-      </c>
+        <v>36.996</v>
+      </c>
+      <c r="J48"/>
+      <c r="K48"/>
       <c r="L48" t="n">
-        <v>6113</v>
+        <v>6142</v>
       </c>
       <c r="M48" t="n">
         <v>0.052</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0568</v>
+        <v>0.0513</v>
       </c>
       <c r="O48" t="n">
-        <v>17.6</v>
+        <v>19.5</v>
       </c>
       <c r="P48" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q48" t="s">
         <v>274</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>275</v>
       </c>
       <c r="R48" t="s">
         <v>50</v>
       </c>
       <c r="S48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>276</v>
+      </c>
+      <c r="B49" t="s">
         <v>277</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="1" t="n">
+        <v>44590</v>
+      </c>
+      <c r="D49" t="s">
         <v>278</v>
       </c>
-      <c r="C49" s="1" t="n">
-        <v>44588</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>279</v>
-      </c>
-      <c r="E49" t="s">
-        <v>280</v>
       </c>
       <c r="F49"/>
       <c r="G49"/>
@@ -5860,7 +5836,7 @@
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>7246958</v>
+        <v>7661242</v>
       </c>
       <c r="M49"/>
       <c r="N49"/>
@@ -5872,72 +5848,68 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>280</v>
+      </c>
+      <c r="B50" t="s">
         <v>281</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D50" t="s">
         <v>282</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>44593</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>283</v>
-      </c>
-      <c r="E50" t="s">
-        <v>284</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H50" t="n">
-        <v>752902</v>
+        <v>754980</v>
       </c>
       <c r="I50" t="n">
-        <v>15348.745</v>
+        <v>15391.108</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>2763</v>
+        <v>2504</v>
       </c>
       <c r="M50" t="n">
-        <v>56.327</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="O50" t="n">
-        <v>3.9</v>
-      </c>
+        <v>51.047</v>
+      </c>
+      <c r="N50"/>
+      <c r="O50"/>
       <c r="P50" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q50" t="s">
         <v>284</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>285</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>286</v>
-      </c>
-      <c r="S50" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B51" t="s">
         <v>288</v>
-      </c>
-      <c r="B51" t="s">
-        <v>289</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>44591</v>
       </c>
       <c r="D51" t="s">
+        <v>289</v>
+      </c>
+      <c r="E51" t="s">
         <v>290</v>
-      </c>
-      <c r="E51" t="s">
-        <v>291</v>
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
@@ -5964,112 +5936,112 @@
         <v>1.5</v>
       </c>
       <c r="P51" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q51" t="s">
         <v>291</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>292</v>
       </c>
       <c r="R51" t="s">
         <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>293</v>
+      </c>
+      <c r="B52" t="s">
         <v>294</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D52" t="s">
         <v>295</v>
       </c>
-      <c r="C52" s="1" t="n">
-        <v>44592</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>296</v>
-      </c>
-      <c r="E52" t="s">
-        <v>297</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H52" t="n">
-        <v>9501234</v>
+        <v>9530885</v>
       </c>
       <c r="I52" t="n">
-        <v>1712.44</v>
+        <v>1717.784</v>
       </c>
       <c r="J52" t="n">
-        <v>14220</v>
+        <v>13969</v>
       </c>
       <c r="K52" t="n">
-        <v>2.563</v>
+        <v>2.518</v>
       </c>
       <c r="L52" t="n">
-        <v>18813</v>
+        <v>15640</v>
       </c>
       <c r="M52" t="n">
-        <v>3.391</v>
+        <v>2.819</v>
       </c>
       <c r="N52" t="n">
-        <v>0.269</v>
+        <v>0.345</v>
       </c>
       <c r="O52" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="P52" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q52" t="s">
         <v>298</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>299</v>
       </c>
       <c r="R52" t="s">
         <v>50</v>
       </c>
       <c r="S52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>300</v>
+      </c>
+      <c r="B53" t="s">
         <v>301</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="1" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D53" t="s">
         <v>302</v>
       </c>
-      <c r="C53" s="1" t="n">
-        <v>44590</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>303</v>
-      </c>
-      <c r="E53" t="s">
-        <v>304</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H53" t="n">
-        <v>233218592</v>
+        <v>234830173</v>
       </c>
       <c r="I53" t="n">
-        <v>3459.087</v>
+        <v>3482.99</v>
       </c>
       <c r="J53" t="n">
-        <v>803861</v>
+        <v>1330794</v>
       </c>
       <c r="K53" t="n">
-        <v>11.923</v>
+        <v>19.738</v>
       </c>
       <c r="L53" t="n">
-        <v>1089713</v>
+        <v>1026960</v>
       </c>
       <c r="M53" t="n">
-        <v>16.163</v>
+        <v>15.232</v>
       </c>
       <c r="N53" t="n">
         <v>0.343</v>
@@ -6078,24 +6050,24 @@
         <v>2.9</v>
       </c>
       <c r="P53" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q53" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R53" t="s">
         <v>31</v>
       </c>
       <c r="S53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>305</v>
+      </c>
+      <c r="B54" t="s">
         <v>306</v>
-      </c>
-      <c r="B54" t="s">
-        <v>307</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>44593</v>
@@ -6124,27 +6096,31 @@
       <c r="M54" t="n">
         <v>0.743</v>
       </c>
-      <c r="N54"/>
-      <c r="O54"/>
+      <c r="N54" t="n">
+        <v>0.0613</v>
+      </c>
+      <c r="O54" t="n">
+        <v>16.3</v>
+      </c>
       <c r="P54" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q54" t="s">
         <v>308</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>309</v>
       </c>
       <c r="R54" t="s">
         <v>24</v>
       </c>
       <c r="S54" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>310</v>
+      </c>
+      <c r="B55" t="s">
         <v>311</v>
-      </c>
-      <c r="B55" t="s">
-        <v>312</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>44593</v>
@@ -6180,133 +6156,133 @@
         <v>7</v>
       </c>
       <c r="P55" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q55" t="s">
         <v>313</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>314</v>
       </c>
       <c r="R55" t="s">
         <v>121</v>
       </c>
       <c r="S55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>315</v>
+      </c>
+      <c r="B56" t="s">
         <v>316</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D56" t="s">
         <v>317</v>
       </c>
-      <c r="C56" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>318</v>
-      </c>
-      <c r="E56" t="s">
-        <v>319</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H56" t="n">
-        <v>12429410</v>
+        <v>12580815</v>
       </c>
       <c r="I56" t="n">
-        <v>3123.145</v>
+        <v>3161.189</v>
       </c>
       <c r="J56" t="n">
-        <v>84658</v>
+        <v>73821</v>
       </c>
       <c r="K56" t="n">
-        <v>21.272</v>
+        <v>18.549</v>
       </c>
       <c r="L56" t="n">
-        <v>37698</v>
+        <v>50125</v>
       </c>
       <c r="M56" t="n">
-        <v>9.472</v>
+        <v>12.595</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q56" t="s">
         <v>319</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>320</v>
       </c>
       <c r="R56" t="s">
         <v>24</v>
       </c>
       <c r="S56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>321</v>
+      </c>
+      <c r="B57" t="s">
         <v>322</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="1" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D57" t="s">
         <v>323</v>
       </c>
-      <c r="C57" s="1" t="n">
-        <v>44584</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>324</v>
-      </c>
-      <c r="E57" t="s">
-        <v>325</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H57" t="n">
-        <v>99456413</v>
+        <v>102009068</v>
       </c>
       <c r="I57" t="n">
-        <v>1185.409</v>
+        <v>1215.834</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57" t="n">
-        <v>356699</v>
+        <v>362625</v>
       </c>
       <c r="M57" t="n">
-        <v>4.251</v>
+        <v>4.322</v>
       </c>
       <c r="N57" t="n">
-        <v>0.323</v>
+        <v>0.406</v>
       </c>
       <c r="O57" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="P57" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q57" t="s">
         <v>325</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>326</v>
       </c>
       <c r="R57" t="s">
         <v>50</v>
       </c>
       <c r="S57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>327</v>
+      </c>
+      <c r="B58" t="s">
         <v>328</v>
       </c>
-      <c r="B58" t="s">
-        <v>329</v>
-      </c>
       <c r="C58" s="1" t="n">
-        <v>44592</v>
+        <v>44595</v>
       </c>
       <c r="D58" t="s">
         <v>35</v>
@@ -6316,31 +6292,27 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H58" t="n">
-        <v>2241487</v>
+        <v>2250718</v>
       </c>
       <c r="I58" t="n">
-        <v>70.638</v>
-      </c>
-      <c r="J58" t="n">
-        <v>6253</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.197</v>
-      </c>
+        <v>70.929</v>
+      </c>
+      <c r="J58"/>
+      <c r="K58"/>
       <c r="L58" t="n">
-        <v>3770</v>
+        <v>4031</v>
       </c>
       <c r="M58" t="n">
-        <v>0.119</v>
+        <v>0.127</v>
       </c>
       <c r="N58" t="n">
-        <v>0.0476</v>
+        <v>0.0293</v>
       </c>
       <c r="O58" t="n">
-        <v>21</v>
+        <v>34.1</v>
       </c>
       <c r="P58" t="s">
         <v>36</v>
@@ -6352,134 +6324,138 @@
         <v>24</v>
       </c>
       <c r="S58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>330</v>
+      </c>
+      <c r="B59" t="s">
         <v>331</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D59" t="s">
         <v>332</v>
       </c>
-      <c r="C59" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>333</v>
-      </c>
-      <c r="E59" t="s">
-        <v>334</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H59" t="n">
-        <v>57755330</v>
+        <v>58032400</v>
       </c>
       <c r="I59" t="n">
-        <v>5569.062</v>
+        <v>5595.778</v>
       </c>
       <c r="J59" t="n">
-        <v>311547</v>
+        <v>277070</v>
       </c>
       <c r="K59" t="n">
-        <v>30.041</v>
+        <v>26.716</v>
       </c>
       <c r="L59" t="n">
-        <v>285884</v>
+        <v>291760</v>
       </c>
       <c r="M59" t="n">
-        <v>27.566</v>
-      </c>
-      <c r="N59"/>
-      <c r="O59"/>
+        <v>28.133</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.0657</v>
+      </c>
+      <c r="O59" t="n">
+        <v>15.2</v>
+      </c>
       <c r="P59" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q59" t="s">
         <v>335</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>336</v>
       </c>
       <c r="R59" t="s">
         <v>121</v>
       </c>
       <c r="S59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>337</v>
+      </c>
+      <c r="B60" t="s">
         <v>338</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="1" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D60" t="s">
         <v>339</v>
       </c>
-      <c r="C60" s="1" t="n">
-        <v>44592</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>340</v>
-      </c>
-      <c r="E60" t="s">
-        <v>341</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H60" t="n">
-        <v>3603800</v>
+        <v>3633506</v>
       </c>
       <c r="I60" t="n">
-        <v>197.47</v>
+        <v>199.098</v>
       </c>
       <c r="J60" t="n">
-        <v>14625</v>
+        <v>13173</v>
       </c>
       <c r="K60" t="n">
-        <v>0.801</v>
+        <v>0.722</v>
       </c>
       <c r="L60" t="n">
-        <v>11274</v>
+        <v>11362</v>
       </c>
       <c r="M60" t="n">
-        <v>0.618</v>
+        <v>0.623</v>
       </c>
       <c r="N60" t="n">
-        <v>0.2509</v>
+        <v>0.2662</v>
       </c>
       <c r="O60" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P60" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q60" t="s">
         <v>342</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>343</v>
       </c>
       <c r="R60" t="s">
         <v>31</v>
       </c>
       <c r="S60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>344</v>
+      </c>
+      <c r="B61" t="s">
         <v>345</v>
-      </c>
-      <c r="B61" t="s">
-        <v>346</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>44582</v>
       </c>
       <c r="D61" t="s">
+        <v>346</v>
+      </c>
+      <c r="E61" t="s">
         <v>347</v>
-      </c>
-      <c r="E61" t="s">
-        <v>348</v>
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
@@ -6506,33 +6482,33 @@
         <v>3</v>
       </c>
       <c r="P61" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q61" t="s">
         <v>348</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>349</v>
       </c>
       <c r="R61" t="s">
         <v>24</v>
       </c>
       <c r="S61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>350</v>
+      </c>
+      <c r="B62" t="s">
         <v>351</v>
-      </c>
-      <c r="B62" t="s">
-        <v>352</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>44568</v>
       </c>
       <c r="D62" t="s">
+        <v>352</v>
+      </c>
+      <c r="E62" t="s">
         <v>353</v>
-      </c>
-      <c r="E62" t="s">
-        <v>354</v>
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
@@ -6551,253 +6527,249 @@
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q62" t="s">
         <v>354</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>355</v>
       </c>
       <c r="R62" t="s">
         <v>24</v>
       </c>
       <c r="S62" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>356</v>
+      </c>
+      <c r="B63" t="s">
         <v>357</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" s="1" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D63" t="s">
         <v>358</v>
       </c>
-      <c r="C63" s="1" t="n">
-        <v>44579</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>359</v>
-      </c>
-      <c r="E63" t="s">
-        <v>360</v>
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
         <v>27</v>
       </c>
       <c r="H63" t="n">
-        <v>32291326</v>
+        <v>33413705</v>
       </c>
       <c r="I63" t="n">
-        <v>4275.411</v>
+        <v>4424.016</v>
       </c>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63" t="n">
-        <v>111213</v>
+        <v>124969</v>
       </c>
       <c r="M63" t="n">
-        <v>14.725</v>
+        <v>16.546</v>
       </c>
       <c r="N63" t="n">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="O63" t="n">
-        <v>4761.9</v>
+        <v>3571.4</v>
       </c>
       <c r="P63" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q63" t="s">
         <v>361</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>362</v>
       </c>
       <c r="R63" t="s">
         <v>50</v>
       </c>
       <c r="S63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>363</v>
+      </c>
+      <c r="B64" t="s">
         <v>364</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D64" t="s">
         <v>365</v>
       </c>
-      <c r="C64" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>366</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>367</v>
       </c>
-      <c r="F64" t="s">
-        <v>368</v>
-      </c>
       <c r="G64" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H64" t="n">
-        <v>9665239</v>
+        <v>9756608</v>
       </c>
       <c r="I64" t="n">
-        <v>1003.226</v>
+        <v>1012.71</v>
       </c>
       <c r="J64" t="n">
-        <v>26535</v>
+        <v>45533</v>
       </c>
       <c r="K64" t="n">
-        <v>2.754</v>
+        <v>4.726</v>
       </c>
       <c r="L64" t="n">
-        <v>39560</v>
+        <v>38674</v>
       </c>
       <c r="M64" t="n">
-        <v>4.106</v>
+        <v>4.014</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q64" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R64" t="s">
         <v>121</v>
       </c>
       <c r="S64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>370</v>
+      </c>
+      <c r="B65" t="s">
         <v>371</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="1" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D65" t="s">
         <v>372</v>
       </c>
-      <c r="C65" s="1" t="n">
-        <v>44590</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>373</v>
-      </c>
-      <c r="E65" t="s">
-        <v>374</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H65" t="n">
-        <v>1031915</v>
+        <v>1039741</v>
       </c>
       <c r="I65" t="n">
-        <v>2798.095</v>
+        <v>2819.315</v>
       </c>
       <c r="J65" t="n">
-        <v>3194</v>
+        <v>4885</v>
       </c>
       <c r="K65" t="n">
-        <v>8.661</v>
+        <v>13.246</v>
       </c>
       <c r="L65" t="n">
-        <v>6135</v>
+        <v>5174</v>
       </c>
       <c r="M65" t="n">
-        <v>16.635</v>
+        <v>14.03</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q65" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R65" t="s">
         <v>50</v>
       </c>
       <c r="S65" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>375</v>
+      </c>
+      <c r="B66" t="s">
         <v>376</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D66" t="s">
         <v>377</v>
       </c>
-      <c r="C66" s="1" t="n">
-        <v>44593</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>378</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>379</v>
       </c>
-      <c r="F66" t="s">
-        <v>380</v>
-      </c>
       <c r="G66" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="H66" t="n">
-        <v>730697193</v>
+        <v>735804280</v>
       </c>
       <c r="I66" t="n">
-        <v>524.395</v>
+        <v>528.061</v>
       </c>
       <c r="J66" t="n">
-        <v>1699380</v>
+        <v>1611666</v>
       </c>
       <c r="K66" t="n">
-        <v>1.22</v>
+        <v>1.157</v>
       </c>
       <c r="L66" t="n">
-        <v>1699251</v>
+        <v>1722246</v>
       </c>
       <c r="M66" t="n">
-        <v>1.219</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O66" t="n">
-        <v>7.7</v>
-      </c>
+        <v>1.236</v>
+      </c>
+      <c r="N66"/>
+      <c r="O66"/>
       <c r="P66" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q66" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R66" t="s">
         <v>121</v>
       </c>
       <c r="S66" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>381</v>
+      </c>
+      <c r="B67" t="s">
         <v>382</v>
-      </c>
-      <c r="B67" t="s">
-        <v>383</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>44589</v>
       </c>
       <c r="D67" t="s">
+        <v>383</v>
+      </c>
+      <c r="E67" t="s">
         <v>384</v>
-      </c>
-      <c r="E67" t="s">
-        <v>385</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
@@ -6828,361 +6800,365 @@
         <v>37.2</v>
       </c>
       <c r="P67" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q67" t="s">
         <v>385</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>386</v>
       </c>
       <c r="R67" t="s">
         <v>31</v>
       </c>
       <c r="S67" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>387</v>
+      </c>
+      <c r="B68" t="s">
         <v>388</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D68" t="s">
         <v>389</v>
       </c>
-      <c r="C68" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>390</v>
-      </c>
-      <c r="E68" t="s">
-        <v>391</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H68" t="n">
-        <v>44988940</v>
+        <v>45095250</v>
       </c>
       <c r="I68" t="n">
-        <v>529.103</v>
+        <v>530.353</v>
       </c>
       <c r="J68" t="n">
-        <v>102306</v>
+        <v>106310</v>
       </c>
       <c r="K68" t="n">
-        <v>1.203</v>
+        <v>1.25</v>
       </c>
       <c r="L68" t="n">
-        <v>95020</v>
+        <v>96973</v>
       </c>
       <c r="M68" t="n">
-        <v>1.118</v>
-      </c>
-      <c r="N68"/>
-      <c r="O68"/>
+        <v>1.14</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.2801</v>
+      </c>
+      <c r="O68" t="n">
+        <v>3.6</v>
+      </c>
       <c r="P68" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q68" t="s">
         <v>392</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>393</v>
       </c>
       <c r="R68" t="s">
         <v>50</v>
       </c>
       <c r="S68" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>394</v>
+      </c>
+      <c r="B69" t="s">
         <v>395</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D69" t="s">
         <v>396</v>
       </c>
-      <c r="C69" s="1" t="n">
-        <v>44590</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>397</v>
-      </c>
-      <c r="E69" t="s">
-        <v>398</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H69" t="n">
-        <v>17374475</v>
+        <v>17508647</v>
       </c>
       <c r="I69" t="n">
-        <v>421.922</v>
+        <v>425.18</v>
       </c>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69" t="n">
-        <v>25879</v>
+        <v>26239</v>
       </c>
       <c r="M69" t="n">
-        <v>0.628</v>
+        <v>0.637</v>
       </c>
       <c r="N69" t="n">
-        <v>0.2676</v>
+        <v>0.274</v>
       </c>
       <c r="O69" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="P69" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q69" t="s">
         <v>399</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>400</v>
       </c>
       <c r="R69" t="s">
         <v>121</v>
       </c>
       <c r="S69" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>401</v>
+      </c>
+      <c r="B70" t="s">
         <v>402</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D70" t="s">
         <v>403</v>
       </c>
-      <c r="C70" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>404</v>
-      </c>
-      <c r="E70" t="s">
-        <v>405</v>
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H70" t="n">
-        <v>10974971</v>
+        <v>11015471</v>
       </c>
       <c r="I70" t="n">
-        <v>2202.525</v>
+        <v>2210.653</v>
       </c>
       <c r="J70" t="n">
-        <v>18655</v>
+        <v>19251</v>
       </c>
       <c r="K70" t="n">
-        <v>3.744</v>
+        <v>3.863</v>
       </c>
       <c r="L70" t="n">
-        <v>16481</v>
+        <v>17170</v>
       </c>
       <c r="M70" t="n">
-        <v>3.308</v>
+        <v>3.446</v>
       </c>
       <c r="N70"/>
       <c r="O70"/>
       <c r="P70" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q70" t="s">
         <v>405</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>406</v>
       </c>
       <c r="R70" t="s">
         <v>50</v>
       </c>
       <c r="S70" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>407</v>
+      </c>
+      <c r="B71" t="s">
         <v>408</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D71" t="s">
         <v>409</v>
       </c>
-      <c r="C71" s="1" t="n">
-        <v>44593</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>410</v>
-      </c>
-      <c r="E71" t="s">
-        <v>411</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H71" t="n">
-        <v>45570414</v>
+        <v>46075163</v>
       </c>
       <c r="I71" t="n">
-        <v>4904.791</v>
+        <v>4959.118</v>
       </c>
       <c r="J71" t="n">
-        <v>245457</v>
+        <v>193857</v>
       </c>
       <c r="K71" t="n">
-        <v>26.419</v>
+        <v>20.865</v>
       </c>
       <c r="L71" t="n">
-        <v>245115</v>
+        <v>234681</v>
       </c>
       <c r="M71" t="n">
-        <v>26.382</v>
+        <v>25.259</v>
       </c>
       <c r="N71" t="n">
-        <v>0.2687</v>
+        <v>0.2655</v>
       </c>
       <c r="O71" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="P71" t="s">
         <v>42</v>
       </c>
       <c r="Q71" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="R71" t="s">
         <v>50</v>
       </c>
       <c r="S71" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>412</v>
+      </c>
+      <c r="B72" t="s">
         <v>413</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D72" t="s">
         <v>414</v>
       </c>
-      <c r="C72" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>415</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>416</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="n">
+        <v>710</v>
+      </c>
+      <c r="H72" t="n">
+        <v>173758572</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2878.348</v>
+      </c>
+      <c r="J72" t="n">
+        <v>915337</v>
+      </c>
+      <c r="K72" t="n">
+        <v>15.163</v>
+      </c>
+      <c r="L72" t="n">
+        <v>924872</v>
+      </c>
+      <c r="M72" t="n">
+        <v>15.321</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="O72" t="n">
+        <v>8</v>
+      </c>
+      <c r="P72" t="s">
         <v>417</v>
       </c>
-      <c r="G72" t="n">
-        <v>709</v>
-      </c>
-      <c r="H72" t="n">
-        <v>172843235</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2863.185</v>
-      </c>
-      <c r="J72" t="n">
-        <v>964521</v>
-      </c>
-      <c r="K72" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="L72" t="n">
-        <v>942646</v>
-      </c>
-      <c r="M72" t="n">
-        <v>15.615</v>
-      </c>
-      <c r="N72"/>
-      <c r="O72"/>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>418</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>419</v>
       </c>
       <c r="R72" t="s">
         <v>50</v>
       </c>
       <c r="S72" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>420</v>
+      </c>
+      <c r="B73" t="s">
         <v>421</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="1" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D73" t="s">
         <v>422</v>
       </c>
-      <c r="C73" s="1" t="n">
-        <v>44590</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>423</v>
-      </c>
-      <c r="E73" t="s">
-        <v>424</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="H73" t="n">
-        <v>794202</v>
+        <v>802621</v>
       </c>
       <c r="I73" t="n">
-        <v>267.097</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.83</v>
-      </c>
+        <v>269.928</v>
+      </c>
+      <c r="J73"/>
+      <c r="K73"/>
       <c r="L73" t="n">
-        <v>2455</v>
+        <v>2078</v>
       </c>
       <c r="M73" t="n">
-        <v>0.826</v>
+        <v>0.699</v>
       </c>
       <c r="N73" t="n">
-        <v>0.2514</v>
+        <v>0.2065</v>
       </c>
       <c r="O73" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="P73" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q73" t="s">
         <v>424</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>425</v>
       </c>
       <c r="R73" t="s">
         <v>121</v>
       </c>
       <c r="S73" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>426</v>
+      </c>
+      <c r="B74" t="s">
         <v>427</v>
-      </c>
-      <c r="B74" t="s">
-        <v>428</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>44591</v>
       </c>
       <c r="D74" t="s">
+        <v>428</v>
+      </c>
+      <c r="E74" t="s">
         <v>429</v>
-      </c>
-      <c r="E74" t="s">
-        <v>430</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
@@ -7213,90 +7189,90 @@
         <v>3.1</v>
       </c>
       <c r="P74" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q74" t="s">
         <v>430</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>431</v>
       </c>
       <c r="R74" t="s">
         <v>31</v>
       </c>
       <c r="S74" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>432</v>
+      </c>
+      <c r="B75" t="s">
         <v>433</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D75" t="s">
         <v>434</v>
       </c>
-      <c r="C75" s="1" t="n">
-        <v>44592</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>435</v>
-      </c>
-      <c r="E75" t="s">
-        <v>436</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H75" t="n">
-        <v>14696240</v>
+        <v>14888936</v>
       </c>
       <c r="I75" t="n">
-        <v>1431.124</v>
+        <v>1449.888</v>
       </c>
       <c r="J75" t="n">
-        <v>56399</v>
+        <v>68047</v>
       </c>
       <c r="K75" t="n">
-        <v>5.492</v>
+        <v>6.626</v>
       </c>
       <c r="L75" t="n">
-        <v>43213</v>
+        <v>50218</v>
       </c>
       <c r="M75" t="n">
-        <v>4.208</v>
+        <v>4.89</v>
       </c>
       <c r="N75" t="n">
-        <v>0.2406</v>
+        <v>0.271</v>
       </c>
       <c r="O75" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="P75" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q75" t="s">
         <v>436</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>437</v>
       </c>
       <c r="R75" t="s">
         <v>50</v>
       </c>
       <c r="S75" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>438</v>
+      </c>
+      <c r="B76" t="s">
         <v>439</v>
-      </c>
-      <c r="B76" t="s">
-        <v>440</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>44355</v>
       </c>
       <c r="D76" t="s">
+        <v>440</v>
+      </c>
+      <c r="E76" t="s">
         <v>441</v>
-      </c>
-      <c r="E76" t="s">
-        <v>442</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
@@ -7327,27 +7303,27 @@
         <v>33.4</v>
       </c>
       <c r="P76" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q76" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="R76" t="s">
         <v>50</v>
       </c>
       <c r="S76" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>443</v>
+      </c>
+      <c r="B77" t="s">
         <v>444</v>
       </c>
-      <c r="B77" t="s">
-        <v>445</v>
-      </c>
       <c r="C77" s="1" t="n">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="D77" t="s">
         <v>35</v>
@@ -7357,31 +7333,27 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H77" t="n">
-        <v>3229023</v>
+        <v>3233831</v>
       </c>
       <c r="I77" t="n">
-        <v>58.725</v>
-      </c>
-      <c r="J77" t="n">
-        <v>6137</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.112</v>
-      </c>
+        <v>58.812</v>
+      </c>
+      <c r="J77"/>
+      <c r="K77"/>
       <c r="L77" t="n">
-        <v>5583</v>
+        <v>4699</v>
       </c>
       <c r="M77" t="n">
-        <v>0.102</v>
+        <v>0.085</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0248</v>
+        <v>0.0257</v>
       </c>
       <c r="O77" t="n">
-        <v>40.4</v>
+        <v>38.9</v>
       </c>
       <c r="P77" t="s">
         <v>36</v>
@@ -7393,254 +7365,242 @@
         <v>50</v>
       </c>
       <c r="S77" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>446</v>
+      </c>
+      <c r="B78" t="s">
         <v>447</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="1" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D78" t="s">
         <v>448</v>
       </c>
-      <c r="C78" s="1" t="n">
-        <v>44591</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>449</v>
-      </c>
-      <c r="E78" t="s">
-        <v>450</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H78" t="n">
-        <v>1637388</v>
+        <v>1678438</v>
       </c>
       <c r="I78" t="n">
-        <v>918.789</v>
+        <v>941.824</v>
       </c>
       <c r="J78" t="n">
-        <v>6837</v>
+        <v>9253</v>
       </c>
       <c r="K78" t="n">
-        <v>3.836</v>
+        <v>5.192</v>
       </c>
       <c r="L78" t="n">
-        <v>12614</v>
+        <v>12376</v>
       </c>
       <c r="M78" t="n">
-        <v>7.078</v>
+        <v>6.945</v>
       </c>
       <c r="N78" t="n">
-        <v>0.2593</v>
+        <v>0.2282</v>
       </c>
       <c r="O78" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="P78" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q78" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="R78" t="s">
         <v>24</v>
       </c>
       <c r="S78" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>452</v>
+      </c>
+      <c r="B79" t="s">
         <v>453</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D79" t="s">
         <v>454</v>
       </c>
-      <c r="C79" s="1" t="n">
-        <v>44592</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>455</v>
-      </c>
-      <c r="E79" t="s">
-        <v>456</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H79" t="n">
-        <v>6913124</v>
+        <v>7052139</v>
       </c>
       <c r="I79" t="n">
-        <v>1597.098</v>
+        <v>1629.214</v>
       </c>
       <c r="J79" t="n">
-        <v>29304</v>
+        <v>33807</v>
       </c>
       <c r="K79" t="n">
-        <v>6.77</v>
+        <v>7.81</v>
       </c>
       <c r="L79" t="n">
-        <v>31972</v>
+        <v>32843</v>
       </c>
       <c r="M79" t="n">
-        <v>7.386</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.1925</v>
-      </c>
-      <c r="O79" t="n">
-        <v>5.2</v>
-      </c>
+        <v>7.588</v>
+      </c>
+      <c r="N79"/>
+      <c r="O79"/>
       <c r="P79" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q79" t="s">
         <v>456</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>457</v>
       </c>
       <c r="R79" t="s">
         <v>50</v>
       </c>
       <c r="S79" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>458</v>
+      </c>
+      <c r="B80" t="s">
         <v>459</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D80" t="s">
         <v>460</v>
-      </c>
-      <c r="C80" s="1" t="n">
-        <v>44593</v>
-      </c>
-      <c r="D80" t="s">
-        <v>461</v>
       </c>
       <c r="E80" t="s">
         <v>42</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H80" t="n">
-        <v>951932</v>
+        <v>958084</v>
       </c>
       <c r="I80" t="n">
-        <v>128.999</v>
+        <v>129.833</v>
       </c>
       <c r="J80" t="n">
-        <v>3850</v>
+        <v>2918</v>
       </c>
       <c r="K80" t="n">
-        <v>0.522</v>
+        <v>0.395</v>
       </c>
       <c r="L80" t="n">
-        <v>2138</v>
+        <v>1714</v>
       </c>
       <c r="M80" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.2395</v>
-      </c>
-      <c r="O80" t="n">
-        <v>4.2</v>
-      </c>
+        <v>0.232</v>
+      </c>
+      <c r="N80"/>
+      <c r="O80"/>
       <c r="P80" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q80" t="s">
         <v>462</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="R80" t="s">
+        <v>285</v>
+      </c>
+      <c r="S80" t="s">
         <v>463</v>
-      </c>
-      <c r="R80" t="s">
-        <v>286</v>
-      </c>
-      <c r="S80" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>464</v>
+      </c>
+      <c r="B81" t="s">
         <v>465</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D81" t="s">
         <v>466</v>
       </c>
-      <c r="C81" s="1" t="n">
-        <v>44592</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>467</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>468</v>
       </c>
-      <c r="F81" t="s">
-        <v>469</v>
-      </c>
       <c r="G81" t="n">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="H81" t="n">
-        <v>6050839</v>
+        <v>6153933</v>
       </c>
       <c r="I81" t="n">
-        <v>3241.057</v>
+        <v>3296.278</v>
       </c>
       <c r="J81" t="n">
-        <v>9411</v>
+        <v>26767</v>
       </c>
       <c r="K81" t="n">
-        <v>5.041</v>
+        <v>14.337</v>
       </c>
       <c r="L81" t="n">
-        <v>22576</v>
+        <v>22601</v>
       </c>
       <c r="M81" t="n">
-        <v>12.093</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.3371</v>
-      </c>
-      <c r="O81" t="n">
-        <v>3</v>
-      </c>
+        <v>12.106</v>
+      </c>
+      <c r="N81"/>
+      <c r="O81"/>
       <c r="P81" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Q81" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R81" t="s">
         <v>50</v>
       </c>
       <c r="S81" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>470</v>
+      </c>
+      <c r="B82" t="s">
         <v>471</v>
-      </c>
-      <c r="B82" t="s">
-        <v>472</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>44370</v>
       </c>
       <c r="D82" t="s">
+        <v>472</v>
+      </c>
+      <c r="E82" t="s">
         <v>473</v>
-      </c>
-      <c r="E82" t="s">
-        <v>474</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
@@ -7663,78 +7623,78 @@
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q82" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R82" t="s">
         <v>24</v>
       </c>
       <c r="S82" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>475</v>
+      </c>
+      <c r="B83" t="s">
         <v>476</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D83" t="s">
         <v>477</v>
       </c>
-      <c r="C83" s="1" t="n">
-        <v>44593</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>478</v>
-      </c>
-      <c r="E83" t="s">
-        <v>479</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83" t="n">
-        <v>11270</v>
+        <v>11053</v>
       </c>
       <c r="K83" t="n">
-        <v>1.62</v>
+        <v>1.588</v>
       </c>
       <c r="L83"/>
       <c r="M83"/>
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q83" t="s">
         <v>479</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>480</v>
       </c>
       <c r="R83" t="s">
         <v>121</v>
       </c>
       <c r="S83" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>481</v>
+      </c>
+      <c r="B84" t="s">
         <v>482</v>
-      </c>
-      <c r="B84" t="s">
-        <v>483</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>44571</v>
       </c>
       <c r="D84" t="s">
+        <v>483</v>
+      </c>
+      <c r="E84" t="s">
         <v>484</v>
-      </c>
-      <c r="E84" t="s">
-        <v>485</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
@@ -7765,147 +7725,147 @@
         <v>2.9</v>
       </c>
       <c r="P84" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q84" t="s">
         <v>485</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>486</v>
       </c>
       <c r="R84" t="s">
         <v>50</v>
       </c>
       <c r="S84" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>487</v>
+      </c>
+      <c r="B85" t="s">
         <v>488</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="1" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D85" t="s">
         <v>489</v>
       </c>
-      <c r="C85" s="1" t="n">
-        <v>44588</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>490</v>
-      </c>
-      <c r="E85" t="s">
-        <v>491</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="H85" t="n">
-        <v>7502699</v>
+        <v>7681569</v>
       </c>
       <c r="I85" t="n">
-        <v>2789.251</v>
+        <v>2855.748</v>
       </c>
       <c r="J85" t="n">
-        <v>33839</v>
+        <v>32599</v>
       </c>
       <c r="K85" t="n">
-        <v>12.58</v>
+        <v>12.119</v>
       </c>
       <c r="L85" t="n">
-        <v>25776</v>
+        <v>29526</v>
       </c>
       <c r="M85" t="n">
-        <v>9.583</v>
+        <v>10.977</v>
       </c>
       <c r="N85" t="n">
-        <v>0.369</v>
+        <v>0.432</v>
       </c>
       <c r="O85" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="P85" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Q85" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="R85" t="s">
         <v>50</v>
       </c>
       <c r="S85" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>492</v>
+      </c>
+      <c r="B86" t="s">
         <v>493</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" s="1" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D86" t="s">
         <v>494</v>
       </c>
-      <c r="C86" s="1" t="n">
-        <v>44593</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>495</v>
-      </c>
-      <c r="E86" t="s">
-        <v>496</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H86" t="n">
-        <v>3991423</v>
+        <v>3997645</v>
       </c>
       <c r="I86" t="n">
-        <v>6287.547</v>
+        <v>6297.349</v>
       </c>
       <c r="J86" t="n">
-        <v>6806</v>
+        <v>6222</v>
       </c>
       <c r="K86" t="n">
-        <v>10.721</v>
+        <v>9.801</v>
       </c>
       <c r="L86" t="n">
-        <v>5370</v>
+        <v>5159</v>
       </c>
       <c r="M86" t="n">
-        <v>8.459</v>
+        <v>8.127</v>
       </c>
       <c r="N86" t="n">
-        <v>0.376</v>
+        <v>0.363</v>
       </c>
       <c r="O86" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P86" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q86" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="R86" t="s">
         <v>50</v>
       </c>
       <c r="S86" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>497</v>
+      </c>
+      <c r="B87" t="s">
         <v>498</v>
-      </c>
-      <c r="B87" t="s">
-        <v>499</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>44575</v>
       </c>
       <c r="D87" t="s">
+        <v>499</v>
+      </c>
+      <c r="E87" t="s">
         <v>500</v>
-      </c>
-      <c r="E87" t="s">
-        <v>501</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
@@ -7941,18 +7901,18 @@
         <v>24</v>
       </c>
       <c r="S87" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>502</v>
+      </c>
+      <c r="B88" t="s">
         <v>503</v>
       </c>
-      <c r="B88" t="s">
-        <v>504</v>
-      </c>
       <c r="C88" s="1" t="n">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="D88" t="s">
         <v>35</v>
@@ -7962,31 +7922,27 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H88" t="n">
-        <v>528593</v>
+        <v>530456</v>
       </c>
       <c r="I88" t="n">
-        <v>26.904</v>
-      </c>
-      <c r="J88" t="n">
-        <v>733</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.037</v>
-      </c>
+        <v>26.998</v>
+      </c>
+      <c r="J88"/>
+      <c r="K88"/>
       <c r="L88" t="n">
-        <v>833</v>
+        <v>896</v>
       </c>
       <c r="M88" t="n">
-        <v>0.042</v>
+        <v>0.046</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0959</v>
+        <v>0.0748</v>
       </c>
       <c r="O88" t="n">
-        <v>10.4</v>
+        <v>13.4</v>
       </c>
       <c r="P88" t="s">
         <v>36</v>
@@ -7998,187 +7954,187 @@
         <v>50</v>
       </c>
       <c r="S88" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>505</v>
+      </c>
+      <c r="B89" t="s">
         <v>506</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D89" t="s">
         <v>507</v>
       </c>
-      <c r="C89" s="1" t="n">
-        <v>44592</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>508</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>509</v>
       </c>
-      <c r="F89" t="s">
-        <v>510</v>
-      </c>
       <c r="G89" t="n">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H89" t="n">
-        <v>45334920</v>
+        <v>45412566</v>
       </c>
       <c r="I89" t="n">
-        <v>1383.166</v>
+        <v>1385.535</v>
       </c>
       <c r="J89" t="n">
-        <v>106726</v>
+        <v>77646</v>
       </c>
       <c r="K89" t="n">
-        <v>3.256</v>
+        <v>2.369</v>
       </c>
       <c r="L89" t="n">
-        <v>111279</v>
+        <v>104678</v>
       </c>
       <c r="M89" t="n">
-        <v>3.395</v>
+        <v>3.194</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0444</v>
+        <v>0.0493</v>
       </c>
       <c r="O89" t="n">
-        <v>22.5</v>
+        <v>20.3</v>
       </c>
       <c r="P89" t="s">
         <v>42</v>
       </c>
       <c r="Q89" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="R89" t="s">
         <v>31</v>
       </c>
       <c r="S89" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>512</v>
+      </c>
+      <c r="B90" t="s">
         <v>513</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D90" t="s">
         <v>514</v>
       </c>
-      <c r="C90" s="1" t="n">
-        <v>44592</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>515</v>
-      </c>
-      <c r="E90" t="s">
-        <v>516</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="H90" t="n">
-        <v>2061186</v>
+        <v>2079231</v>
       </c>
       <c r="I90" t="n">
-        <v>3791.593</v>
+        <v>3824.788</v>
       </c>
       <c r="J90" t="n">
-        <v>7852</v>
+        <v>5657</v>
       </c>
       <c r="K90" t="n">
-        <v>14.444</v>
+        <v>10.406</v>
       </c>
       <c r="L90" t="n">
-        <v>7324</v>
+        <v>6766</v>
       </c>
       <c r="M90" t="n">
-        <v>13.473</v>
+        <v>12.446</v>
       </c>
       <c r="N90" t="n">
-        <v>0.365</v>
+        <v>0.3578</v>
       </c>
       <c r="O90" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P90" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q90" t="s">
         <v>516</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>517</v>
       </c>
       <c r="R90" t="s">
         <v>121</v>
       </c>
       <c r="S90" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>518</v>
+      </c>
+      <c r="B91" t="s">
         <v>519</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D91" t="s">
         <v>520</v>
       </c>
-      <c r="C91" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>521</v>
-      </c>
-      <c r="E91" t="s">
-        <v>522</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H91" t="n">
-        <v>1691625</v>
+        <v>1696546</v>
       </c>
       <c r="I91" t="n">
-        <v>3277.708</v>
+        <v>3287.243</v>
       </c>
       <c r="J91" t="n">
-        <v>2634</v>
+        <v>2538</v>
       </c>
       <c r="K91" t="n">
-        <v>5.104</v>
+        <v>4.918</v>
       </c>
       <c r="L91" t="n">
-        <v>2757</v>
+        <v>2578</v>
       </c>
       <c r="M91" t="n">
-        <v>5.342</v>
+        <v>4.995</v>
       </c>
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q91" t="s">
         <v>523</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>524</v>
       </c>
       <c r="R91" t="s">
         <v>50</v>
       </c>
       <c r="S91" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>525</v>
+      </c>
+      <c r="B92" t="s">
         <v>526</v>
       </c>
-      <c r="B92" t="s">
-        <v>527</v>
-      </c>
       <c r="C92" s="1" t="n">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="D92" t="s">
         <v>35</v>
@@ -8188,60 +8144,56 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H92" t="n">
-        <v>833828</v>
+        <v>839404</v>
       </c>
       <c r="I92" t="n">
-        <v>174.62</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2460</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.515</v>
-      </c>
+        <v>175.787</v>
+      </c>
+      <c r="J92"/>
+      <c r="K92"/>
       <c r="L92" t="n">
-        <v>2847</v>
+        <v>2717</v>
       </c>
       <c r="M92" t="n">
-        <v>0.596</v>
+        <v>0.569</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0326</v>
+        <v>0.0243</v>
       </c>
       <c r="O92" t="n">
-        <v>30.7</v>
+        <v>41.2</v>
       </c>
       <c r="P92" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q92" t="s">
         <v>528</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>529</v>
       </c>
       <c r="R92" t="s">
         <v>50</v>
       </c>
       <c r="S92" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>530</v>
+      </c>
+      <c r="B93" t="s">
         <v>531</v>
-      </c>
-      <c r="B93" t="s">
-        <v>532</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>44592</v>
       </c>
       <c r="D93" t="s">
+        <v>532</v>
+      </c>
+      <c r="E93" t="s">
         <v>533</v>
-      </c>
-      <c r="E93" t="s">
-        <v>534</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
@@ -8272,37 +8224,37 @@
         <v>1.6</v>
       </c>
       <c r="P93" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q93" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="R93" t="s">
         <v>31</v>
       </c>
       <c r="S93" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>536</v>
+      </c>
+      <c r="B94" t="s">
         <v>537</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D94" t="s">
         <v>538</v>
       </c>
-      <c r="C94" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>539</v>
-      </c>
-      <c r="E94" t="s">
-        <v>540</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H94"/>
       <c r="I94"/>
@@ -8317,51 +8269,55 @@
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q94" t="s">
         <v>541</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>542</v>
       </c>
       <c r="R94" t="s">
         <v>24</v>
       </c>
       <c r="S94" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>543</v>
+      </c>
+      <c r="B95" t="s">
         <v>544</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D95" t="s">
         <v>545</v>
-      </c>
-      <c r="C95" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D95" t="s">
-        <v>546</v>
       </c>
       <c r="E95" t="s">
         <v>42</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H95" t="n">
-        <v>6907479</v>
+        <v>6917587</v>
       </c>
       <c r="I95" t="n">
-        <v>2074.765</v>
-      </c>
-      <c r="J95"/>
-      <c r="K95"/>
+        <v>2077.801</v>
+      </c>
+      <c r="J95" t="n">
+        <v>6082</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.827</v>
+      </c>
       <c r="L95" t="n">
-        <v>15255</v>
+        <v>11124</v>
       </c>
       <c r="M95" t="n">
-        <v>4.582</v>
+        <v>3.341</v>
       </c>
       <c r="N95"/>
       <c r="O95"/>
@@ -8369,30 +8325,30 @@
         <v>42</v>
       </c>
       <c r="Q95" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="R95" t="s">
         <v>121</v>
       </c>
       <c r="S95" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>548</v>
+      </c>
+      <c r="B96" t="s">
         <v>549</v>
-      </c>
-      <c r="B96" t="s">
-        <v>550</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>44592</v>
       </c>
       <c r="D96" t="s">
+        <v>550</v>
+      </c>
+      <c r="E96" t="s">
         <v>551</v>
-      </c>
-      <c r="E96" t="s">
-        <v>552</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
@@ -8419,27 +8375,27 @@
         <v>4.7</v>
       </c>
       <c r="P96" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q96" t="s">
         <v>552</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>553</v>
       </c>
       <c r="R96" t="s">
         <v>31</v>
       </c>
       <c r="S96" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>554</v>
+      </c>
+      <c r="B97" t="s">
         <v>555</v>
       </c>
-      <c r="B97" t="s">
-        <v>556</v>
-      </c>
       <c r="C97" s="1" t="n">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="D97" t="s">
         <v>35</v>
@@ -8449,31 +8405,27 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H97" t="n">
-        <v>1226683</v>
+        <v>1229425</v>
       </c>
       <c r="I97" t="n">
-        <v>38.14</v>
-      </c>
-      <c r="J97" t="n">
-        <v>3372</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.105</v>
-      </c>
+        <v>38.225</v>
+      </c>
+      <c r="J97"/>
+      <c r="K97"/>
       <c r="L97" t="n">
-        <v>2408</v>
+        <v>1818</v>
       </c>
       <c r="M97" t="n">
-        <v>0.075</v>
+        <v>0.057</v>
       </c>
       <c r="N97" t="n">
-        <v>0.0627</v>
+        <v>0.0574</v>
       </c>
       <c r="O97" t="n">
-        <v>15.9</v>
+        <v>17.4</v>
       </c>
       <c r="P97" t="s">
         <v>36</v>
@@ -8485,71 +8437,71 @@
         <v>24</v>
       </c>
       <c r="S97" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>557</v>
+      </c>
+      <c r="B98" t="s">
         <v>558</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" s="1" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D98" t="s">
         <v>559</v>
       </c>
-      <c r="C98" s="1" t="n">
-        <v>44592</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>560</v>
-      </c>
-      <c r="E98" t="s">
-        <v>561</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H98" t="n">
-        <v>6353638</v>
+        <v>6445899</v>
       </c>
       <c r="I98" t="n">
-        <v>115.93</v>
+        <v>117.613</v>
       </c>
       <c r="J98"/>
       <c r="K98"/>
       <c r="L98" t="n">
-        <v>10083</v>
+        <v>19302</v>
       </c>
       <c r="M98" t="n">
-        <v>0.184</v>
+        <v>0.352</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0194</v>
+        <v>0.015</v>
       </c>
       <c r="O98" t="n">
-        <v>51.6</v>
+        <v>66.5</v>
       </c>
       <c r="P98" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q98" t="s">
         <v>561</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>562</v>
       </c>
       <c r="R98" t="s">
         <v>121</v>
       </c>
       <c r="S98" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>563</v>
+      </c>
+      <c r="B99" t="s">
         <v>564</v>
       </c>
-      <c r="B99" t="s">
-        <v>565</v>
-      </c>
       <c r="C99" s="1" t="n">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="D99" t="s">
         <v>35</v>
@@ -8559,223 +8511,219 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H99" t="n">
-        <v>922167</v>
+        <v>925250</v>
       </c>
       <c r="I99" t="n">
-        <v>356.415</v>
-      </c>
-      <c r="J99" t="n">
-        <v>700</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.271</v>
-      </c>
+        <v>357.606</v>
+      </c>
+      <c r="J99"/>
+      <c r="K99"/>
       <c r="L99" t="n">
-        <v>1226</v>
+        <v>1255</v>
       </c>
       <c r="M99" t="n">
-        <v>0.474</v>
+        <v>0.485</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0604</v>
+        <v>0.0545</v>
       </c>
       <c r="O99" t="n">
-        <v>16.6</v>
+        <v>18.3</v>
       </c>
       <c r="P99" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q99" t="s">
         <v>566</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>567</v>
       </c>
       <c r="R99" t="s">
         <v>121</v>
       </c>
       <c r="S99" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>568</v>
+      </c>
+      <c r="B100" t="s">
         <v>569</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D100" t="s">
         <v>570</v>
       </c>
-      <c r="C100" s="1" t="n">
-        <v>44592</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>571</v>
-      </c>
-      <c r="E100" t="s">
-        <v>572</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="H100" t="n">
-        <v>5229874</v>
+        <v>5263830</v>
       </c>
       <c r="I100" t="n">
-        <v>176.239</v>
+        <v>177.383</v>
       </c>
       <c r="J100" t="n">
-        <v>10368</v>
+        <v>6655</v>
       </c>
       <c r="K100" t="n">
-        <v>0.349</v>
+        <v>0.224</v>
       </c>
       <c r="L100" t="n">
-        <v>13080</v>
+        <v>9191</v>
       </c>
       <c r="M100" t="n">
-        <v>0.441</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.3873</v>
-      </c>
-      <c r="O100" t="n">
-        <v>2.6</v>
-      </c>
+        <v>0.31</v>
+      </c>
+      <c r="N100"/>
+      <c r="O100"/>
       <c r="P100" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q100" t="s">
         <v>572</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>573</v>
       </c>
       <c r="R100" t="s">
         <v>50</v>
       </c>
       <c r="S100" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>574</v>
+      </c>
+      <c r="B101" t="s">
         <v>575</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" s="1" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D101" t="s">
         <v>576</v>
       </c>
-      <c r="C101" s="1" t="n">
-        <v>44592</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>577</v>
-      </c>
-      <c r="E101" t="s">
-        <v>578</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="H101" t="n">
-        <v>25584138</v>
+        <v>25887168</v>
       </c>
       <c r="I101" t="n">
-        <v>1489.78</v>
+        <v>1507.426</v>
       </c>
       <c r="J101" t="n">
-        <v>140065</v>
+        <v>151234</v>
       </c>
       <c r="K101" t="n">
-        <v>8.156</v>
+        <v>8.806</v>
       </c>
       <c r="L101" t="n">
-        <v>144121</v>
+        <v>143756</v>
       </c>
       <c r="M101" t="n">
-        <v>8.392</v>
+        <v>8.371</v>
       </c>
       <c r="N101" t="n">
-        <v>0.4742</v>
+        <v>0.535</v>
       </c>
       <c r="O101" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="P101" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q101" t="s">
         <v>578</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>579</v>
       </c>
       <c r="R101" t="s">
         <v>31</v>
       </c>
       <c r="S101" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>580</v>
+      </c>
+      <c r="B102" t="s">
         <v>581</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D102" t="s">
         <v>582</v>
-      </c>
-      <c r="C102" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D102" t="s">
-        <v>583</v>
       </c>
       <c r="E102" t="s">
         <v>42</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H102" t="n">
-        <v>6071954</v>
+        <v>6117388</v>
       </c>
       <c r="I102" t="n">
-        <v>1184.471</v>
-      </c>
-      <c r="J102"/>
-      <c r="K102"/>
+        <v>1193.334</v>
+      </c>
+      <c r="J102" t="n">
+        <v>20526</v>
+      </c>
+      <c r="K102" t="n">
+        <v>4.004</v>
+      </c>
       <c r="L102" t="n">
-        <v>19598</v>
+        <v>19785</v>
       </c>
       <c r="M102" t="n">
-        <v>3.823</v>
+        <v>3.86</v>
       </c>
       <c r="N102"/>
       <c r="O102"/>
       <c r="P102" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q102" t="s">
         <v>584</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>585</v>
       </c>
       <c r="R102" t="s">
         <v>50</v>
       </c>
       <c r="S102" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>586</v>
+      </c>
+      <c r="B103" t="s">
         <v>587</v>
-      </c>
-      <c r="B103" t="s">
-        <v>588</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>44591</v>
       </c>
       <c r="D103" t="s">
+        <v>588</v>
+      </c>
+      <c r="E103" t="s">
         <v>589</v>
-      </c>
-      <c r="E103" t="s">
-        <v>590</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
@@ -8802,30 +8750,30 @@
         <v>72.4</v>
       </c>
       <c r="P103" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q103" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R103" t="s">
         <v>121</v>
       </c>
       <c r="S103" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>591</v>
+      </c>
+      <c r="B104" t="s">
         <v>592</v>
-      </c>
-      <c r="B104" t="s">
-        <v>593</v>
       </c>
       <c r="C104" s="1" t="n">
         <v>44571</v>
       </c>
       <c r="D104" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E104" t="s">
         <v>42</v>
@@ -8858,87 +8806,87 @@
         <v>42</v>
       </c>
       <c r="Q104" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R104" t="s">
         <v>50</v>
       </c>
       <c r="S104" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>596</v>
+      </c>
+      <c r="B105" t="s">
         <v>597</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" s="1" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D105" t="s">
         <v>598</v>
       </c>
-      <c r="C105" s="1" t="n">
-        <v>44592</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>599</v>
-      </c>
-      <c r="E105" t="s">
-        <v>600</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H105" t="n">
-        <v>10138943</v>
+        <v>10210795</v>
       </c>
       <c r="I105" t="n">
-        <v>1855.037</v>
+        <v>1868.183</v>
       </c>
       <c r="J105" t="n">
-        <v>40348</v>
+        <v>31131</v>
       </c>
       <c r="K105" t="n">
-        <v>7.382</v>
+        <v>5.696</v>
       </c>
       <c r="L105" t="n">
-        <v>32133</v>
+        <v>30930</v>
       </c>
       <c r="M105" t="n">
-        <v>5.879</v>
+        <v>5.659</v>
       </c>
       <c r="N105" t="n">
-        <v>0.622</v>
+        <v>0.6343</v>
       </c>
       <c r="O105" t="n">
         <v>1.6</v>
       </c>
       <c r="P105" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="Q105" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="R105" t="s">
         <v>31</v>
       </c>
       <c r="S105" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>601</v>
+      </c>
+      <c r="B106" t="s">
         <v>602</v>
-      </c>
-      <c r="B106" t="s">
-        <v>603</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="D106" t="s">
+        <v>603</v>
+      </c>
+      <c r="E106" t="s">
         <v>604</v>
-      </c>
-      <c r="E106" t="s">
-        <v>605</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
@@ -8957,79 +8905,83 @@
       <c r="N106"/>
       <c r="O106"/>
       <c r="P106" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q106" t="s">
         <v>605</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>606</v>
       </c>
       <c r="R106" t="s">
         <v>85</v>
       </c>
       <c r="S106" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>607</v>
+      </c>
+      <c r="B107" t="s">
         <v>608</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D107" t="s">
         <v>609</v>
       </c>
-      <c r="C107" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>610</v>
-      </c>
-      <c r="E107" t="s">
-        <v>611</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H107" t="n">
-        <v>25134775</v>
+        <v>25258723</v>
       </c>
       <c r="I107" t="n">
-        <v>111.611</v>
-      </c>
-      <c r="J107"/>
-      <c r="K107"/>
+        <v>112.161</v>
+      </c>
+      <c r="J107" t="n">
+        <v>64162</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.285</v>
+      </c>
       <c r="L107" t="n">
-        <v>63396</v>
+        <v>62260</v>
       </c>
       <c r="M107" t="n">
-        <v>0.282</v>
+        <v>0.276</v>
       </c>
       <c r="N107"/>
       <c r="O107"/>
       <c r="P107" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="Q107" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="R107" t="s">
         <v>50</v>
       </c>
       <c r="S107" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>612</v>
+      </c>
+      <c r="B108" t="s">
         <v>613</v>
-      </c>
-      <c r="B108" t="s">
-        <v>614</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>44592</v>
       </c>
       <c r="D108" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E108" t="s">
         <v>42</v>
@@ -9051,90 +9003,90 @@
       <c r="N108"/>
       <c r="O108"/>
       <c r="P108" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q108" t="s">
         <v>616</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>617</v>
       </c>
       <c r="R108" t="s">
         <v>50</v>
       </c>
       <c r="S108" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>618</v>
+      </c>
+      <c r="B109" t="s">
         <v>619</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D109" t="s">
         <v>620</v>
       </c>
-      <c r="C109" s="1" t="n">
-        <v>44591</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>621</v>
-      </c>
-      <c r="E109" t="s">
-        <v>622</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="H109" t="n">
-        <v>5181126</v>
+        <v>5263461</v>
       </c>
       <c r="I109" t="n">
-        <v>1182.478</v>
+        <v>1201.269</v>
       </c>
       <c r="J109" t="n">
-        <v>16505</v>
+        <v>21790</v>
       </c>
       <c r="K109" t="n">
-        <v>3.767</v>
+        <v>4.973</v>
       </c>
       <c r="L109" t="n">
-        <v>23099</v>
+        <v>21109</v>
       </c>
       <c r="M109" t="n">
-        <v>5.272</v>
+        <v>4.818</v>
       </c>
       <c r="N109" t="n">
-        <v>0.3243</v>
+        <v>0.2642</v>
       </c>
       <c r="O109" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P109" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q109" t="s">
         <v>622</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>623</v>
       </c>
       <c r="R109" t="s">
         <v>50</v>
       </c>
       <c r="S109" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>624</v>
+      </c>
+      <c r="B110" t="s">
         <v>625</v>
-      </c>
-      <c r="B110" t="s">
-        <v>626</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>44304</v>
       </c>
       <c r="D110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E110" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
@@ -9161,87 +9113,87 @@
         <v>5.1</v>
       </c>
       <c r="P110" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R110" t="s">
         <v>24</v>
       </c>
       <c r="S110" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>629</v>
+      </c>
+      <c r="B111" t="s">
         <v>630</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D111" t="s">
         <v>631</v>
       </c>
-      <c r="C111" s="1" t="n">
-        <v>44591</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>632</v>
-      </c>
-      <c r="E111" t="s">
-        <v>633</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="H111" t="n">
-        <v>2348561</v>
+        <v>2397663</v>
       </c>
       <c r="I111" t="n">
-        <v>325.302</v>
+        <v>332.103</v>
       </c>
       <c r="J111" t="n">
-        <v>11023</v>
+        <v>12481</v>
       </c>
       <c r="K111" t="n">
-        <v>1.527</v>
+        <v>1.729</v>
       </c>
       <c r="L111" t="n">
-        <v>12054</v>
+        <v>11987</v>
       </c>
       <c r="M111" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="N111" t="n">
-        <v>0.639</v>
+        <v>0.456</v>
       </c>
       <c r="O111" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="P111" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q111" t="s">
         <v>633</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>634</v>
       </c>
       <c r="R111" t="s">
         <v>50</v>
       </c>
       <c r="S111" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>635</v>
+      </c>
+      <c r="B112" t="s">
         <v>636</v>
-      </c>
-      <c r="B112" t="s">
-        <v>637</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>44585</v>
       </c>
       <c r="D112" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E112" t="s">
         <v>198</v>
@@ -9278,30 +9230,30 @@
         <v>198</v>
       </c>
       <c r="Q112" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="R112" t="s">
         <v>50</v>
       </c>
       <c r="S112" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>640</v>
+      </c>
+      <c r="B113" t="s">
         <v>641</v>
-      </c>
-      <c r="B113" t="s">
-        <v>642</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>44582</v>
       </c>
       <c r="D113" t="s">
+        <v>642</v>
+      </c>
+      <c r="E113" t="s">
         <v>643</v>
-      </c>
-      <c r="E113" t="s">
-        <v>644</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
@@ -9332,204 +9284,196 @@
         <v>2.1</v>
       </c>
       <c r="P113" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q113" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="R113" t="s">
         <v>31</v>
       </c>
       <c r="S113" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>646</v>
+      </c>
+      <c r="B114" t="s">
         <v>647</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D114" t="s">
         <v>648</v>
       </c>
-      <c r="C114" s="1" t="n">
-        <v>44592</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>649</v>
-      </c>
-      <c r="E114" t="s">
-        <v>650</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="H114" t="n">
-        <v>29893487</v>
+        <v>30536793</v>
       </c>
       <c r="I114" t="n">
-        <v>790.896</v>
+        <v>807.916</v>
       </c>
       <c r="J114" t="n">
-        <v>103855</v>
+        <v>158865</v>
       </c>
       <c r="K114" t="n">
-        <v>2.748</v>
+        <v>4.203</v>
       </c>
       <c r="L114" t="n">
-        <v>152852</v>
+        <v>151369</v>
       </c>
       <c r="M114" t="n">
-        <v>4.044</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.3167</v>
-      </c>
-      <c r="O114" t="n">
-        <v>3.2</v>
-      </c>
+        <v>4.005</v>
+      </c>
+      <c r="N114"/>
+      <c r="O114"/>
       <c r="P114" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q114" t="s">
         <v>650</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>651</v>
       </c>
       <c r="R114" t="s">
         <v>31</v>
       </c>
       <c r="S114" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B115" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44591</v>
-      </c>
-      <c r="D115" t="s">
-        <v>649</v>
-      </c>
-      <c r="E115" t="s">
-        <v>650</v>
-      </c>
+        <v>44595</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115"/>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="H115" t="n">
-        <v>30534442</v>
+        <v>31197805</v>
       </c>
       <c r="I115" t="n">
-        <v>807.854</v>
+        <v>825.404</v>
       </c>
       <c r="J115" t="n">
-        <v>106663</v>
+        <v>164121</v>
       </c>
       <c r="K115" t="n">
-        <v>2.822</v>
+        <v>4.342</v>
       </c>
       <c r="L115" t="n">
-        <v>157103</v>
+        <v>155701</v>
       </c>
       <c r="M115" t="n">
-        <v>4.156</v>
+        <v>4.119</v>
       </c>
       <c r="N115" t="n">
-        <v>0.3041</v>
+        <v>0.3123</v>
       </c>
       <c r="O115" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P115" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q115" t="s">
         <v>650</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>651</v>
       </c>
       <c r="R115" t="s">
         <v>121</v>
       </c>
       <c r="S115" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>653</v>
+      </c>
+      <c r="B116" t="s">
         <v>654</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" s="1" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D116" t="s">
         <v>655</v>
-      </c>
-      <c r="C116" s="1" t="n">
-        <v>44593</v>
-      </c>
-      <c r="D116" t="s">
-        <v>656</v>
       </c>
       <c r="E116" t="s">
         <v>42</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H116" t="n">
-        <v>35021584</v>
+        <v>35261065</v>
       </c>
       <c r="I116" t="n">
-        <v>3444.32</v>
+        <v>3467.873</v>
       </c>
       <c r="J116" t="n">
-        <v>249400</v>
+        <v>239481</v>
       </c>
       <c r="K116" t="n">
-        <v>24.528</v>
+        <v>23.553</v>
       </c>
       <c r="L116" t="n">
-        <v>275790</v>
+        <v>264554</v>
       </c>
       <c r="M116" t="n">
-        <v>27.124</v>
+        <v>26.018</v>
       </c>
       <c r="N116" t="n">
-        <v>0.196</v>
+        <v>0.1985</v>
       </c>
       <c r="O116" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="P116" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Q116" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="R116" t="s">
         <v>50</v>
       </c>
       <c r="S116" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>658</v>
+      </c>
+      <c r="B117" t="s">
         <v>659</v>
-      </c>
-      <c r="B117" t="s">
-        <v>660</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>44496</v>
       </c>
       <c r="D117" t="s">
+        <v>660</v>
+      </c>
+      <c r="E117" t="s">
         <v>661</v>
-      </c>
-      <c r="E117" t="s">
-        <v>662</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
@@ -9556,206 +9500,218 @@
       <c r="N117"/>
       <c r="O117"/>
       <c r="P117" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Q117" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R117" t="s">
         <v>31</v>
       </c>
       <c r="S117" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>664</v>
+      </c>
+      <c r="B118" t="s">
         <v>665</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D118" t="s">
         <v>666</v>
       </c>
-      <c r="C118" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>667</v>
-      </c>
-      <c r="E118" t="s">
-        <v>668</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H118" t="n">
-        <v>19341513</v>
+        <v>19443558</v>
       </c>
       <c r="I118" t="n">
-        <v>1011.174</v>
+        <v>1016.509</v>
       </c>
       <c r="J118" t="n">
-        <v>109841</v>
+        <v>102045</v>
       </c>
       <c r="K118" t="n">
-        <v>5.742</v>
+        <v>5.335</v>
       </c>
       <c r="L118" t="n">
-        <v>91804</v>
+        <v>91958</v>
       </c>
       <c r="M118" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="N118"/>
-      <c r="O118"/>
+        <v>4.808</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.3265</v>
+      </c>
+      <c r="O118" t="n">
+        <v>3.1</v>
+      </c>
       <c r="P118" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q118" t="s">
         <v>669</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>670</v>
       </c>
       <c r="R118" t="s">
         <v>50</v>
       </c>
       <c r="S118" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>671</v>
+      </c>
+      <c r="B119" t="s">
         <v>672</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D119" t="s">
         <v>673</v>
       </c>
-      <c r="C119" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>674</v>
-      </c>
-      <c r="E119" t="s">
-        <v>675</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H119" t="n">
-        <v>257640418</v>
+        <v>259770678</v>
       </c>
       <c r="I119" t="n">
-        <v>1765.724</v>
+        <v>1780.324</v>
       </c>
       <c r="J119" t="n">
-        <v>738376</v>
+        <v>1118115</v>
       </c>
       <c r="K119" t="n">
-        <v>5.06</v>
+        <v>7.663</v>
       </c>
       <c r="L119" t="n">
-        <v>850688</v>
+        <v>910759</v>
       </c>
       <c r="M119" t="n">
-        <v>5.83</v>
+        <v>6.242</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
       <c r="P119" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q119" t="s">
         <v>675</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>676</v>
       </c>
       <c r="R119" t="s">
         <v>50</v>
       </c>
       <c r="S119" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>677</v>
+      </c>
+      <c r="B120" t="s">
         <v>678</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D120" t="s">
         <v>679</v>
       </c>
-      <c r="C120" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>680</v>
-      </c>
-      <c r="E120" t="s">
-        <v>681</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H120" t="n">
-        <v>4514830</v>
+        <v>4532257</v>
       </c>
       <c r="I120" t="n">
-        <v>340.061</v>
-      </c>
-      <c r="J120"/>
-      <c r="K120"/>
+        <v>341.374</v>
+      </c>
+      <c r="J120" t="n">
+        <v>10048</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.757</v>
+      </c>
       <c r="L120" t="n">
-        <v>12161</v>
+        <v>10946</v>
       </c>
       <c r="M120" t="n">
-        <v>0.916</v>
+        <v>0.824</v>
       </c>
       <c r="N120"/>
       <c r="O120"/>
       <c r="P120" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q120" t="s">
         <v>681</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>682</v>
       </c>
       <c r="R120" t="s">
         <v>121</v>
       </c>
       <c r="S120" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>683</v>
+      </c>
+      <c r="B121" t="s">
         <v>684</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D121" t="s">
         <v>685</v>
-      </c>
-      <c r="C121" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D121" t="s">
-        <v>686</v>
       </c>
       <c r="E121" t="s">
         <v>42</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H121" t="n">
-        <v>65271</v>
+        <v>65435</v>
       </c>
       <c r="I121" t="n">
-        <v>1218.971</v>
-      </c>
-      <c r="J121"/>
-      <c r="K121"/>
+        <v>1222.033</v>
+      </c>
+      <c r="J121" t="n">
+        <v>87</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1.625</v>
+      </c>
       <c r="L121" t="n">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="M121" t="n">
-        <v>1.494</v>
+        <v>1.177</v>
       </c>
       <c r="N121"/>
       <c r="O121"/>
@@ -9763,30 +9719,30 @@
         <v>42</v>
       </c>
       <c r="Q121" t="s">
+        <v>686</v>
+      </c>
+      <c r="R121" t="s">
+        <v>285</v>
+      </c>
+      <c r="S121" t="s">
         <v>687</v>
-      </c>
-      <c r="R121" t="s">
-        <v>286</v>
-      </c>
-      <c r="S121" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>688</v>
+      </c>
+      <c r="B122" t="s">
         <v>689</v>
-      </c>
-      <c r="B122" t="s">
-        <v>690</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>44591</v>
       </c>
       <c r="D122" t="s">
+        <v>690</v>
+      </c>
+      <c r="E122" t="s">
         <v>691</v>
-      </c>
-      <c r="E122" t="s">
-        <v>692</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
@@ -9809,198 +9765,206 @@
       <c r="N122"/>
       <c r="O122"/>
       <c r="P122" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q122" t="s">
         <v>692</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>693</v>
       </c>
       <c r="R122" t="s">
         <v>24</v>
       </c>
       <c r="S122" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>694</v>
+      </c>
+      <c r="B123" t="s">
         <v>695</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D123" t="s">
         <v>696</v>
-      </c>
-      <c r="C123" s="1" t="n">
-        <v>44593</v>
-      </c>
-      <c r="D123" t="s">
-        <v>697</v>
       </c>
       <c r="E123" t="s">
         <v>42</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H123" t="n">
-        <v>38166414</v>
+        <v>38442632</v>
       </c>
       <c r="I123" t="n">
-        <v>1079.957</v>
+        <v>1087.773</v>
       </c>
       <c r="J123" t="n">
-        <v>148670</v>
+        <v>133542</v>
       </c>
       <c r="K123" t="n">
-        <v>4.207</v>
+        <v>3.779</v>
       </c>
       <c r="L123" t="n">
-        <v>145334</v>
+        <v>139622</v>
       </c>
       <c r="M123" t="n">
-        <v>4.112</v>
+        <v>3.951</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0289</v>
+        <v>0.0287</v>
       </c>
       <c r="O123" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="P123" t="s">
         <v>42</v>
       </c>
       <c r="Q123" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="R123" t="s">
         <v>50</v>
       </c>
       <c r="S123" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>698</v>
+      </c>
+      <c r="B124" t="s">
         <v>699</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D124" t="s">
         <v>700</v>
       </c>
-      <c r="C124" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>701</v>
-      </c>
-      <c r="E124" t="s">
-        <v>702</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H124" t="n">
-        <v>996875</v>
+        <v>998162</v>
       </c>
       <c r="I124" t="n">
-        <v>57.97</v>
+        <v>58.045</v>
       </c>
       <c r="J124" t="n">
-        <v>1392</v>
+        <v>1287</v>
       </c>
       <c r="K124" t="n">
-        <v>0.081</v>
+        <v>0.075</v>
       </c>
       <c r="L124" t="n">
-        <v>1443</v>
+        <v>1410</v>
       </c>
       <c r="M124" t="n">
-        <v>0.084</v>
-      </c>
-      <c r="N124"/>
-      <c r="O124"/>
+        <v>0.082</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.0413</v>
+      </c>
+      <c r="O124" t="n">
+        <v>24.2</v>
+      </c>
       <c r="P124" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q124" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="R124" t="s">
         <v>50</v>
       </c>
       <c r="S124" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>703</v>
+      </c>
+      <c r="B125" t="s">
         <v>704</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D125" t="s">
         <v>705</v>
-      </c>
-      <c r="C125" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D125" t="s">
-        <v>706</v>
       </c>
       <c r="E125" t="s">
         <v>42</v>
       </c>
       <c r="F125" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G125" t="n">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H125" t="n">
-        <v>8208435</v>
+        <v>8242567</v>
       </c>
       <c r="I125" t="n">
-        <v>1194.554</v>
+        <v>1199.521</v>
       </c>
       <c r="J125" t="n">
-        <v>36874</v>
+        <v>34132</v>
       </c>
       <c r="K125" t="n">
-        <v>5.366</v>
+        <v>4.967</v>
       </c>
       <c r="L125" t="n">
-        <v>33440</v>
+        <v>33177</v>
       </c>
       <c r="M125" t="n">
-        <v>4.866</v>
-      </c>
-      <c r="N125"/>
-      <c r="O125"/>
+        <v>4.828</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.4905</v>
+      </c>
+      <c r="O125" t="n">
+        <v>2</v>
+      </c>
       <c r="P125" t="s">
         <v>42</v>
       </c>
       <c r="Q125" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="R125" t="s">
         <v>31</v>
       </c>
       <c r="S125" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>709</v>
+      </c>
+      <c r="B126" t="s">
         <v>710</v>
-      </c>
-      <c r="B126" t="s">
-        <v>711</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>44592</v>
       </c>
       <c r="D126" t="s">
+        <v>711</v>
+      </c>
+      <c r="E126" t="s">
         <v>712</v>
-      </c>
-      <c r="E126" t="s">
-        <v>713</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
@@ -10030,27 +9994,27 @@
         <v>42</v>
       </c>
       <c r="Q126" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="R126" t="s">
         <v>121</v>
       </c>
       <c r="S126" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>715</v>
+      </c>
+      <c r="B127" t="s">
         <v>716</v>
-      </c>
-      <c r="B127" t="s">
-        <v>717</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>44592</v>
       </c>
       <c r="D127" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E127" t="s">
         <v>42</v>
@@ -10087,195 +10051,199 @@
         <v>42</v>
       </c>
       <c r="Q127" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="R127" t="s">
         <v>50</v>
       </c>
       <c r="S127" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>719</v>
+      </c>
+      <c r="B128" t="s">
         <v>720</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" s="1" t="n">
+        <v>44594</v>
+      </c>
+      <c r="D128" t="s">
         <v>721</v>
       </c>
-      <c r="C128" s="1" t="n">
-        <v>44593</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>722</v>
-      </c>
-      <c r="E128" t="s">
-        <v>723</v>
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H128" t="n">
-        <v>2508176</v>
+        <v>2516935</v>
       </c>
       <c r="I128" t="n">
-        <v>1206.595</v>
+        <v>1210.808</v>
       </c>
       <c r="J128" t="n">
-        <v>17143</v>
+        <v>8719</v>
       </c>
       <c r="K128" t="n">
-        <v>8.247</v>
+        <v>4.194</v>
       </c>
       <c r="L128" t="n">
-        <v>17823</v>
+        <v>16256</v>
       </c>
       <c r="M128" t="n">
-        <v>8.574</v>
+        <v>7.82</v>
       </c>
       <c r="N128" t="n">
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="O128" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P128" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Q128" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="R128" t="s">
         <v>50</v>
       </c>
       <c r="S128" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>724</v>
+      </c>
+      <c r="B129" t="s">
         <v>725</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D129" t="s">
         <v>726</v>
       </c>
-      <c r="C129" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>727</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>728</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="n">
+        <v>696</v>
+      </c>
+      <c r="H129" t="n">
+        <v>22374263</v>
+      </c>
+      <c r="I129" t="n">
+        <v>372.644</v>
+      </c>
+      <c r="J129" t="n">
+        <v>30785</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="L129" t="n">
+        <v>30717</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.1003</v>
+      </c>
+      <c r="O129" t="n">
+        <v>10</v>
+      </c>
+      <c r="P129" t="s">
         <v>729</v>
       </c>
-      <c r="G129" t="n">
-        <v>695</v>
-      </c>
-      <c r="H129" t="n">
-        <v>22343478</v>
-      </c>
-      <c r="I129" t="n">
-        <v>372.131</v>
-      </c>
-      <c r="J129" t="n">
-        <v>39892</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.664</v>
-      </c>
-      <c r="L129" t="n">
-        <v>31878</v>
-      </c>
-      <c r="M129" t="n">
-        <v>0.531</v>
-      </c>
-      <c r="N129"/>
-      <c r="O129"/>
-      <c r="P129" t="s">
-        <v>730</v>
-      </c>
       <c r="Q129" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="R129" t="s">
         <v>31</v>
       </c>
       <c r="S129" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>731</v>
+      </c>
+      <c r="B130" t="s">
         <v>732</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D130" t="s">
         <v>733</v>
       </c>
-      <c r="C130" s="1" t="n">
-        <v>44593</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>734</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>735</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="n">
+        <v>727</v>
+      </c>
+      <c r="H130" t="n">
+        <v>52448304</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1022.281</v>
+      </c>
+      <c r="J130" t="n">
+        <v>286476</v>
+      </c>
+      <c r="K130" t="n">
+        <v>5.584</v>
+      </c>
+      <c r="L130" t="n">
+        <v>253479</v>
+      </c>
+      <c r="M130" t="n">
+        <v>4.941</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.0795</v>
+      </c>
+      <c r="O130" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="P130" t="s">
         <v>736</v>
       </c>
-      <c r="G130" t="n">
-        <v>725</v>
-      </c>
-      <c r="H130" t="n">
-        <v>51952902</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1012.625</v>
-      </c>
-      <c r="J130" t="n">
-        <v>226535</v>
-      </c>
-      <c r="K130" t="n">
-        <v>4.415</v>
-      </c>
-      <c r="L130" t="n">
-        <v>264132</v>
-      </c>
-      <c r="M130" t="n">
-        <v>5.148</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0.0656</v>
-      </c>
-      <c r="O130" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="P130" t="s">
+      <c r="Q130" t="s">
         <v>737</v>
-      </c>
-      <c r="Q130" t="s">
-        <v>738</v>
       </c>
       <c r="R130" t="s">
         <v>31</v>
       </c>
       <c r="S130" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>739</v>
+      </c>
+      <c r="B131" t="s">
         <v>740</v>
       </c>
-      <c r="B131" t="s">
-        <v>741</v>
-      </c>
       <c r="C131" s="1" t="n">
-        <v>44592</v>
+        <v>44595</v>
       </c>
       <c r="D131" t="s">
         <v>35</v>
@@ -10285,31 +10253,27 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H131" t="n">
-        <v>321540</v>
+        <v>324354</v>
       </c>
       <c r="I131" t="n">
-        <v>28.251</v>
-      </c>
-      <c r="J131" t="n">
-        <v>1150</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.101</v>
-      </c>
+        <v>28.499</v>
+      </c>
+      <c r="J131"/>
+      <c r="K131"/>
       <c r="L131" t="n">
-        <v>641</v>
+        <v>775</v>
       </c>
       <c r="M131" t="n">
-        <v>0.056</v>
+        <v>0.068</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0176</v>
+        <v>0.0098</v>
       </c>
       <c r="O131" t="n">
-        <v>56.8</v>
+        <v>102.4</v>
       </c>
       <c r="P131" t="s">
         <v>36</v>
@@ -10321,395 +10285,399 @@
         <v>24</v>
       </c>
       <c r="S131" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>742</v>
+      </c>
+      <c r="B132" t="s">
         <v>743</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D132" t="s">
         <v>744</v>
-      </c>
-      <c r="C132" s="1" t="n">
-        <v>44591</v>
-      </c>
-      <c r="D132" t="s">
-        <v>745</v>
       </c>
       <c r="E132" t="s">
         <v>42</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H132" t="n">
-        <v>82178681</v>
+        <v>82706689</v>
       </c>
       <c r="I132" t="n">
-        <v>1758.013</v>
+        <v>1769.308</v>
       </c>
       <c r="J132" t="n">
-        <v>66217</v>
+        <v>202777</v>
       </c>
       <c r="K132" t="n">
-        <v>1.417</v>
+        <v>4.338</v>
       </c>
       <c r="L132" t="n">
-        <v>236184</v>
+        <v>213507</v>
       </c>
       <c r="M132" t="n">
-        <v>5.053</v>
+        <v>4.567</v>
       </c>
       <c r="N132" t="n">
-        <v>0.345</v>
+        <v>0.33</v>
       </c>
       <c r="O132" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P132" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q132" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R132" t="s">
         <v>50</v>
       </c>
       <c r="S132" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>747</v>
+      </c>
+      <c r="B133" t="s">
         <v>748</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D133" t="s">
         <v>749</v>
       </c>
-      <c r="C133" s="1" t="n">
-        <v>44593</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>750</v>
-      </c>
-      <c r="E133" t="s">
-        <v>751</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H133" t="n">
-        <v>6118718</v>
+        <v>6137352</v>
       </c>
       <c r="I133" t="n">
-        <v>284.627</v>
+        <v>285.494</v>
       </c>
       <c r="J133" t="n">
-        <v>7697</v>
+        <v>9662</v>
       </c>
       <c r="K133" t="n">
-        <v>0.358</v>
+        <v>0.449</v>
       </c>
       <c r="L133" t="n">
-        <v>7650</v>
+        <v>7893</v>
       </c>
       <c r="M133" t="n">
-        <v>0.356</v>
+        <v>0.367</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1619</v>
+        <v>0.1367</v>
       </c>
       <c r="O133" t="n">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="P133" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="Q133" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="R133" t="s">
         <v>50</v>
       </c>
       <c r="S133" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>752</v>
+      </c>
+      <c r="B134" t="s">
         <v>753</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D134" t="s">
         <v>754</v>
       </c>
-      <c r="C134" s="1" t="n">
-        <v>44584</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>755</v>
-      </c>
-      <c r="E134" t="s">
-        <v>756</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>574</v>
+        <v>181</v>
       </c>
       <c r="H134" t="n">
-        <v>16817451</v>
+        <v>74221</v>
       </c>
       <c r="I134" t="n">
-        <v>1655.235</v>
+        <v>125.416</v>
       </c>
       <c r="J134" t="n">
-        <v>87153</v>
+        <v>774</v>
       </c>
       <c r="K134" t="n">
-        <v>8.578</v>
+        <v>1.308</v>
       </c>
       <c r="L134" t="n">
-        <v>87153</v>
+        <v>555</v>
       </c>
       <c r="M134" t="n">
-        <v>8.578</v>
+        <v>0.938</v>
       </c>
       <c r="N134" t="n">
-        <v>0.3666</v>
+        <v>0.417</v>
       </c>
       <c r="O134" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="P134" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="Q134" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="R134" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S134" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>757</v>
+      </c>
+      <c r="B135" t="s">
+        <v>758</v>
+      </c>
+      <c r="C135" s="1" t="n">
+        <v>44591</v>
+      </c>
+      <c r="D135" t="s">
+        <v>759</v>
+      </c>
+      <c r="E135" t="s">
         <v>760</v>
-      </c>
-      <c r="B135" t="s">
-        <v>761</v>
-      </c>
-      <c r="C135" s="1" t="n">
-        <v>44593</v>
-      </c>
-      <c r="D135" t="s">
-        <v>484</v>
-      </c>
-      <c r="E135" t="s">
-        <v>485</v>
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>620</v>
+        <v>581</v>
       </c>
       <c r="H135" t="n">
-        <v>17150613</v>
+        <v>17362408</v>
       </c>
       <c r="I135" t="n">
-        <v>1967.83</v>
+        <v>1708.872</v>
       </c>
       <c r="J135" t="n">
-        <v>86423</v>
+        <v>77851</v>
       </c>
       <c r="K135" t="n">
-        <v>9.916</v>
+        <v>7.662</v>
       </c>
       <c r="L135" t="n">
-        <v>93829</v>
+        <v>77851</v>
       </c>
       <c r="M135" t="n">
-        <v>10.766</v>
+        <v>7.662</v>
       </c>
       <c r="N135" t="n">
-        <v>0.399</v>
+        <v>0.5256</v>
       </c>
       <c r="O135" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="P135" t="s">
-        <v>485</v>
+        <v>761</v>
       </c>
       <c r="Q135" t="s">
-        <v>486</v>
+        <v>762</v>
       </c>
       <c r="R135" t="s">
         <v>50</v>
       </c>
       <c r="S135" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B136" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="D136" t="s">
-        <v>765</v>
+        <v>483</v>
       </c>
       <c r="E136" t="s">
-        <v>766</v>
+        <v>484</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>748</v>
+        <v>622</v>
       </c>
       <c r="H136" t="n">
-        <v>5706264</v>
+        <v>17353304</v>
       </c>
       <c r="I136" t="n">
-        <v>239.206</v>
+        <v>1991.087</v>
       </c>
       <c r="J136" t="n">
-        <v>6731</v>
+        <v>75919</v>
       </c>
       <c r="K136" t="n">
-        <v>0.282</v>
+        <v>8.711</v>
       </c>
       <c r="L136" t="n">
-        <v>15470</v>
+        <v>88133</v>
       </c>
       <c r="M136" t="n">
-        <v>0.649</v>
-      </c>
-      <c r="N136"/>
-      <c r="O136"/>
+        <v>10.112</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O136" t="n">
+        <v>2.5</v>
+      </c>
       <c r="P136" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>485</v>
+      </c>
+      <c r="R136" t="s">
+        <v>50</v>
+      </c>
+      <c r="S136" t="s">
         <v>766</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>765</v>
-      </c>
-      <c r="R136" t="s">
-        <v>31</v>
-      </c>
-      <c r="S136" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>767</v>
+      </c>
+      <c r="B137" t="s">
         <v>768</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D137" t="s">
         <v>769</v>
       </c>
-      <c r="C137" s="1" t="n">
-        <v>44576</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>770</v>
-      </c>
-      <c r="E137" t="s">
-        <v>771</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="H137" t="n">
-        <v>18593564</v>
+        <v>5736511</v>
       </c>
       <c r="I137" t="n">
-        <v>265.809</v>
+        <v>240.474</v>
       </c>
       <c r="J137" t="n">
-        <v>47053</v>
+        <v>12260</v>
       </c>
       <c r="K137" t="n">
-        <v>0.673</v>
+        <v>0.514</v>
       </c>
       <c r="L137" t="n">
-        <v>63144</v>
+        <v>12301</v>
       </c>
       <c r="M137" t="n">
-        <v>0.903</v>
-      </c>
-      <c r="N137" t="n">
-        <v>0.1435</v>
-      </c>
-      <c r="O137" t="n">
-        <v>7</v>
-      </c>
+        <v>0.516</v>
+      </c>
+      <c r="N137"/>
+      <c r="O137"/>
       <c r="P137" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="Q137" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="R137" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S137" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>772</v>
+      </c>
+      <c r="B138" t="s">
+        <v>773</v>
+      </c>
+      <c r="C138" s="1" t="n">
+        <v>44576</v>
+      </c>
+      <c r="D138" t="s">
+        <v>774</v>
+      </c>
+      <c r="E138" t="s">
         <v>775</v>
-      </c>
-      <c r="B138" t="s">
-        <v>776</v>
-      </c>
-      <c r="C138" s="1" t="n">
-        <v>44489</v>
-      </c>
-      <c r="D138" t="s">
-        <v>777</v>
-      </c>
-      <c r="E138" t="s">
-        <v>42</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>24</v>
+        <v>742</v>
       </c>
       <c r="H138" t="n">
-        <v>211166</v>
+        <v>18593564</v>
       </c>
       <c r="I138" t="n">
-        <v>157.132</v>
-      </c>
-      <c r="J138"/>
-      <c r="K138"/>
+        <v>265.809</v>
+      </c>
+      <c r="J138" t="n">
+        <v>47053</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.673</v>
+      </c>
       <c r="L138" t="n">
-        <v>227</v>
+        <v>63144</v>
       </c>
       <c r="M138" t="n">
-        <v>0.169</v>
+        <v>0.903</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0352</v>
+        <v>0.1435</v>
       </c>
       <c r="O138" t="n">
-        <v>28.4</v>
+        <v>7</v>
       </c>
       <c r="P138" t="s">
-        <v>42</v>
+        <v>776</v>
       </c>
       <c r="Q138" t="s">
         <v>777</v>
       </c>
       <c r="R138" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="S138" t="s">
         <v>778</v>
@@ -10723,713 +10691,774 @@
         <v>780</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44592</v>
-      </c>
-      <c r="D139"/>
+        <v>44489</v>
+      </c>
+      <c r="D139" t="s">
+        <v>781</v>
+      </c>
       <c r="E139" t="s">
+        <v>42</v>
+      </c>
+      <c r="F139"/>
+      <c r="G139" t="n">
+        <v>24</v>
+      </c>
+      <c r="H139" t="n">
+        <v>211166</v>
+      </c>
+      <c r="I139" t="n">
+        <v>157.132</v>
+      </c>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139" t="n">
+        <v>227</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.0352</v>
+      </c>
+      <c r="O139" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="P139" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q139" t="s">
         <v>781</v>
       </c>
-      <c r="F139" t="s">
+      <c r="R139" t="s">
+        <v>24</v>
+      </c>
+      <c r="S139" t="s">
         <v>782</v>
-      </c>
-      <c r="G139" t="n">
-        <v>693</v>
-      </c>
-      <c r="H139" t="n">
-        <v>663422</v>
-      </c>
-      <c r="I139" t="n">
-        <v>78.25</v>
-      </c>
-      <c r="J139" t="n">
-        <v>770</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.091</v>
-      </c>
-      <c r="L139" t="n">
-        <v>1018</v>
-      </c>
-      <c r="M139" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="N139" t="n">
-        <v>0.0236</v>
-      </c>
-      <c r="O139" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="P139" t="s">
-        <v>781</v>
-      </c>
-      <c r="Q139" t="s">
-        <v>783</v>
-      </c>
-      <c r="R139" t="s">
-        <v>784</v>
-      </c>
-      <c r="S139" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>783</v>
+      </c>
+      <c r="B140" t="s">
+        <v>784</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D140"/>
+      <c r="E140" t="s">
+        <v>785</v>
+      </c>
+      <c r="F140" t="s">
         <v>786</v>
       </c>
-      <c r="B140" t="s">
+      <c r="G140" t="n">
+        <v>696</v>
+      </c>
+      <c r="H140" t="n">
+        <v>666105</v>
+      </c>
+      <c r="I140" t="n">
+        <v>78.566</v>
+      </c>
+      <c r="J140" t="n">
+        <v>974</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="L140" t="n">
+        <v>920</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.0152</v>
+      </c>
+      <c r="O140" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="P140" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q140" t="s">
         <v>787</v>
       </c>
-      <c r="C140" s="1" t="n">
-        <v>44475</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="R140" t="s">
         <v>788</v>
       </c>
-      <c r="E140" t="s">
-        <v>42</v>
-      </c>
-      <c r="F140"/>
-      <c r="G140" t="n">
-        <v>504</v>
-      </c>
-      <c r="H140" t="n">
-        <v>357432</v>
-      </c>
-      <c r="I140" t="n">
-        <v>254.695</v>
-      </c>
-      <c r="J140" t="n">
-        <v>954</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="L140" t="n">
-        <v>825</v>
-      </c>
-      <c r="M140" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="N140" t="n">
-        <v>0.2345</v>
-      </c>
-      <c r="O140" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="P140" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q140" t="s">
+      <c r="S140" t="s">
         <v>789</v>
-      </c>
-      <c r="R140" t="s">
-        <v>31</v>
-      </c>
-      <c r="S140" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>790</v>
+      </c>
+      <c r="B141" t="s">
         <v>791</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" s="1" t="n">
+        <v>44475</v>
+      </c>
+      <c r="D141" t="s">
         <v>792</v>
       </c>
-      <c r="C141" s="1" t="n">
-        <v>44592</v>
-      </c>
-      <c r="D141" t="s">
-        <v>793</v>
-      </c>
       <c r="E141" t="s">
-        <v>794</v>
+        <v>42</v>
       </c>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>153</v>
+        <v>504</v>
       </c>
       <c r="H141" t="n">
-        <v>4057762</v>
+        <v>357432</v>
       </c>
       <c r="I141" t="n">
-        <v>339.967</v>
-      </c>
-      <c r="J141"/>
-      <c r="K141"/>
+        <v>254.695</v>
+      </c>
+      <c r="J141" t="n">
+        <v>954</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.68</v>
+      </c>
       <c r="L141" t="n">
-        <v>21358</v>
+        <v>825</v>
       </c>
       <c r="M141" t="n">
-        <v>1.789</v>
+        <v>0.588</v>
       </c>
       <c r="N141" t="n">
-        <v>0.374</v>
+        <v>0.2345</v>
       </c>
       <c r="O141" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="P141" t="s">
-        <v>795</v>
+        <v>42</v>
       </c>
       <c r="Q141" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="R141" t="s">
         <v>31</v>
       </c>
       <c r="S141" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B142" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>44594</v>
       </c>
       <c r="D142" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E142" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>678</v>
+        <v>155</v>
       </c>
       <c r="H142" t="n">
-        <v>132508017</v>
+        <v>4092366</v>
       </c>
       <c r="I142" t="n">
-        <v>1558.134</v>
+        <v>342.866</v>
       </c>
       <c r="J142" t="n">
-        <v>457885</v>
+        <v>15066</v>
       </c>
       <c r="K142" t="n">
-        <v>5.384</v>
+        <v>1.262</v>
       </c>
       <c r="L142" t="n">
-        <v>439460</v>
+        <v>18607</v>
       </c>
       <c r="M142" t="n">
-        <v>5.168</v>
-      </c>
-      <c r="N142"/>
-      <c r="O142"/>
+        <v>1.559</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.3944</v>
+      </c>
+      <c r="O142" t="n">
+        <v>2.5</v>
+      </c>
       <c r="P142" t="s">
+        <v>799</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>800</v>
+      </c>
+      <c r="R142" t="s">
+        <v>31</v>
+      </c>
+      <c r="S142" t="s">
         <v>801</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>802</v>
-      </c>
-      <c r="R142" t="s">
-        <v>50</v>
-      </c>
-      <c r="S142" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>802</v>
+      </c>
+      <c r="B143" t="s">
+        <v>803</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D143" t="s">
         <v>804</v>
       </c>
-      <c r="B143" t="s">
+      <c r="E143" t="s">
         <v>805</v>
-      </c>
-      <c r="C143" s="1" t="n">
-        <v>44590</v>
-      </c>
-      <c r="D143" t="s">
-        <v>806</v>
-      </c>
-      <c r="E143" t="s">
-        <v>807</v>
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>535</v>
+        <v>679</v>
       </c>
       <c r="H143" t="n">
-        <v>2350819</v>
+        <v>132963480</v>
       </c>
       <c r="I143" t="n">
-        <v>49.886</v>
+        <v>1563.49</v>
       </c>
       <c r="J143" t="n">
-        <v>4740</v>
+        <v>455463</v>
       </c>
       <c r="K143" t="n">
-        <v>0.101</v>
+        <v>5.356</v>
       </c>
       <c r="L143" t="n">
-        <v>5305</v>
+        <v>443931</v>
       </c>
       <c r="M143" t="n">
-        <v>0.113</v>
+        <v>5.22</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0365</v>
+        <v>0.2222</v>
       </c>
       <c r="O143" t="n">
-        <v>27.4</v>
+        <v>4.5</v>
       </c>
       <c r="P143" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>806</v>
+      </c>
+      <c r="R143" t="s">
+        <v>50</v>
+      </c>
+      <c r="S143" t="s">
         <v>807</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>808</v>
-      </c>
-      <c r="R143" t="s">
-        <v>121</v>
-      </c>
-      <c r="S143" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B144" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="D144" t="s">
-        <v>812</v>
+        <v>35</v>
       </c>
       <c r="E144" t="s">
-        <v>813</v>
+        <v>36</v>
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="H144" t="n">
-        <v>18206854</v>
+        <v>2364426</v>
       </c>
       <c r="I144" t="n">
-        <v>418.868</v>
+        <v>50.175</v>
       </c>
       <c r="J144"/>
       <c r="K144"/>
       <c r="L144" t="n">
-        <v>77950</v>
+        <v>3431</v>
       </c>
       <c r="M144" t="n">
-        <v>1.793</v>
-      </c>
-      <c r="N144"/>
-      <c r="O144"/>
+        <v>0.073</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.0329</v>
+      </c>
+      <c r="O144" t="n">
+        <v>30.4</v>
+      </c>
       <c r="P144" t="s">
-        <v>813</v>
+        <v>36</v>
       </c>
       <c r="Q144" t="s">
-        <v>814</v>
+        <v>37</v>
       </c>
       <c r="R144" t="s">
         <v>50</v>
       </c>
       <c r="S144" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B145" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="D145" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="E145" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F145"/>
       <c r="G145" t="n">
-        <v>705</v>
+        <v>551</v>
       </c>
       <c r="H145" t="n">
-        <v>126129227</v>
+        <v>18404417</v>
       </c>
       <c r="I145" t="n">
-        <v>12624.18</v>
+        <v>423.413</v>
       </c>
       <c r="J145" t="n">
-        <v>497827</v>
+        <v>96361</v>
       </c>
       <c r="K145" t="n">
-        <v>49.827</v>
+        <v>2.217</v>
       </c>
       <c r="L145" t="n">
-        <v>493331</v>
+        <v>79469</v>
       </c>
       <c r="M145" t="n">
-        <v>49.377</v>
+        <v>1.828</v>
       </c>
       <c r="N145"/>
       <c r="O145"/>
       <c r="P145" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="Q145" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="R145" t="s">
         <v>50</v>
       </c>
       <c r="S145" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B146" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="D146" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E146" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>671</v>
+        <v>706</v>
       </c>
       <c r="H146" t="n">
-        <v>440183667</v>
+        <v>126620885</v>
       </c>
       <c r="I146" t="n">
-        <v>6453.633</v>
+        <v>12673.389</v>
       </c>
       <c r="J146" t="n">
-        <v>1221150</v>
+        <v>491658</v>
       </c>
       <c r="K146" t="n">
-        <v>17.904</v>
+        <v>49.21</v>
       </c>
       <c r="L146" t="n">
-        <v>1266569</v>
+        <v>488078</v>
       </c>
       <c r="M146" t="n">
-        <v>18.569</v>
+        <v>48.851</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0603</v>
+        <v>0.0046</v>
       </c>
       <c r="O146" t="n">
-        <v>16.6</v>
+        <v>217.6</v>
       </c>
       <c r="P146" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="Q146" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="R146" t="s">
         <v>50</v>
       </c>
       <c r="S146" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B147" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44588</v>
+        <v>44594</v>
       </c>
       <c r="D147" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="E147" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F147"/>
       <c r="G147" t="n">
-        <v>698</v>
+        <v>672</v>
       </c>
       <c r="H147" t="n">
-        <v>780582351</v>
+        <v>441603933</v>
       </c>
       <c r="I147" t="n">
-        <v>2344.689</v>
+        <v>6474.456</v>
       </c>
       <c r="J147" t="n">
-        <v>1280975</v>
+        <v>1388657</v>
       </c>
       <c r="K147" t="n">
-        <v>3.848</v>
+        <v>20.359</v>
       </c>
       <c r="L147" t="n">
-        <v>1594815</v>
+        <v>1254441</v>
       </c>
       <c r="M147" t="n">
-        <v>4.79</v>
+        <v>18.392</v>
       </c>
       <c r="N147" t="n">
-        <v>0.222</v>
+        <v>0.0593</v>
       </c>
       <c r="O147" t="n">
-        <v>4.5</v>
+        <v>16.9</v>
       </c>
       <c r="P147" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="Q147" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="R147" t="s">
-        <v>832</v>
+        <v>50</v>
       </c>
       <c r="S147" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B148" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>44593</v>
+        <v>44590</v>
       </c>
       <c r="D148" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E148" t="s">
-        <v>218</v>
+        <v>832</v>
       </c>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="H148" t="n">
-        <v>5243143</v>
+        <v>783967326</v>
       </c>
       <c r="I148" t="n">
-        <v>1504.423</v>
+        <v>2354.857</v>
       </c>
       <c r="J148" t="n">
-        <v>25044</v>
+        <v>972253</v>
       </c>
       <c r="K148" t="n">
-        <v>7.186</v>
+        <v>2.92</v>
       </c>
       <c r="L148" t="n">
-        <v>24421</v>
+        <v>1498650</v>
       </c>
       <c r="M148" t="n">
-        <v>7.007</v>
+        <v>4.502</v>
       </c>
       <c r="N148" t="n">
-        <v>0.41</v>
+        <v>0.201</v>
       </c>
       <c r="O148" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="P148" t="s">
-        <v>218</v>
+        <v>832</v>
       </c>
       <c r="Q148" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="R148" t="s">
-        <v>50</v>
+        <v>833</v>
       </c>
       <c r="S148" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B149" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44590</v>
+        <v>44595</v>
       </c>
       <c r="D149" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E149" t="s">
-        <v>841</v>
+        <v>218</v>
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>236</v>
+        <v>684</v>
       </c>
       <c r="H149" t="n">
-        <v>37895065</v>
+        <v>5298718</v>
       </c>
       <c r="I149" t="n">
-        <v>386.019</v>
-      </c>
-      <c r="J149"/>
-      <c r="K149"/>
+        <v>1520.369</v>
+      </c>
+      <c r="J149" t="n">
+        <v>27460</v>
+      </c>
+      <c r="K149" t="n">
+        <v>7.879</v>
+      </c>
       <c r="L149" t="n">
-        <v>46393</v>
+        <v>25560</v>
       </c>
       <c r="M149" t="n">
-        <v>0.473</v>
+        <v>7.334</v>
       </c>
       <c r="N149" t="n">
-        <v>0.329</v>
+        <v>0.3884</v>
       </c>
       <c r="O149" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="P149" t="s">
-        <v>842</v>
+        <v>218</v>
       </c>
       <c r="Q149" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="R149" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="S149" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B150" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D150" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="E150" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="F150"/>
       <c r="G150" t="n">
-        <v>655</v>
+        <v>237</v>
       </c>
       <c r="H150" t="n">
-        <v>3172652</v>
+        <v>37957209</v>
       </c>
       <c r="I150" t="n">
-        <v>167.682</v>
-      </c>
-      <c r="J150" t="n">
-        <v>3941</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.208</v>
-      </c>
+        <v>386.652</v>
+      </c>
+      <c r="J150"/>
+      <c r="K150"/>
       <c r="L150" t="n">
-        <v>4564</v>
+        <v>38648</v>
       </c>
       <c r="M150" t="n">
-        <v>0.241</v>
+        <v>0.394</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1179</v>
+        <v>0.4434</v>
       </c>
       <c r="O150" t="n">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="P150" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="Q150" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="R150" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="S150" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B151" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>44592</v>
+        <v>44595</v>
       </c>
       <c r="D151" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="E151" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="F151"/>
       <c r="G151" t="n">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="H151" t="n">
-        <v>1850756</v>
+        <v>3193875</v>
       </c>
       <c r="I151" t="n">
-        <v>122.63</v>
+        <v>168.804</v>
       </c>
       <c r="J151" t="n">
-        <v>3653</v>
+        <v>3969</v>
       </c>
       <c r="K151" t="n">
-        <v>0.242</v>
+        <v>0.21</v>
       </c>
       <c r="L151" t="n">
-        <v>3060</v>
+        <v>3595</v>
       </c>
       <c r="M151" t="n">
-        <v>0.203</v>
+        <v>0.19</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0525</v>
+        <v>0.0932</v>
       </c>
       <c r="O151" t="n">
-        <v>19</v>
+        <v>10.7</v>
       </c>
       <c r="P151" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="Q151" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="R151" t="s">
         <v>50</v>
       </c>
       <c r="S151" t="s">
-        <v>856</v>
+        <v>851</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>852</v>
+      </c>
+      <c r="B152" t="s">
+        <v>853</v>
+      </c>
+      <c r="C152" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="D152" t="s">
+        <v>35</v>
+      </c>
+      <c r="E152" t="s">
+        <v>36</v>
+      </c>
+      <c r="F152"/>
+      <c r="G152" t="n">
+        <v>634</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1994516</v>
+      </c>
+      <c r="I152" t="n">
+        <v>132.156</v>
+      </c>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152" t="n">
+        <v>22075</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1.463</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O152" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="P152" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>37</v>
+      </c>
+      <c r="R152" t="s">
+        <v>50</v>
+      </c>
+      <c r="S152" t="s">
+        <v>854</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="848">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -186,7 +186,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4807</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4816</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -405,7 +405,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/permalink.php?story_fbid=5010841665644076&amp;id=755187864542832</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/posts/373632511256254</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -553,7 +553,7 @@
     <t xml:space="preserve">CAN</t>
   </si>
   <si>
-    <t xml:space="preserve">Canada - people tested</t>
+    <t xml:space="preserve">Canada - tests performed</t>
   </si>
   <si>
     <t xml:space="preserve">https://health-infobase.canada.ca/src/data/covidLive/covid19-download.csv</t>
@@ -565,26 +565,18 @@
     <t xml:space="preserve">https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
-    <t xml:space="preserve">The Government of Canada provides a complete time series of data related to the COVID-19 outbreak [here](https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html), which includes the cumulative number of people tested from 11 March 2020 to 31 January 2021. As this time series is no longer updated by the Canadian government, it is no longer shown our main COVID-19 data explorer, but it is still available for download in [our public testing dataset](https://github.com/owid/covid-19-data/tree/master/public/data/testing).
+    <t xml:space="preserve">The Government of Canada provides a complete time series of data related to the COVID-19 outbreak [here](https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html), which includes the cumulative number of tests performed since 31 January 2021. Data on tests performed is not available before that date, as the Canadian government used to publish data on the number of people tested rather than tests performed; data on people tested is accessbile [here](https://github.com/owid/covid-19-data/blob/master/scripts/output/testing/main_data/Canada%20-%20people%20tested.csv).
 It is unclear from the source whether or not the cumulative figure repeatedly counts people that have gone through more than one round of testing over the course of the pandemic. Since we derive a count of the daily number of people tested from the change in this cumulative number, if people undergoing multiple rounds of testing are not counted repeatedly in the cumulative, repeat testers will not appear in our daily testing figures.
 The total number of cases includes publicly-reported confirmed and probable cases (which include positive results of rapid antigen testing). The figures include positive and negative test results, while excluding pending test results.</t>
   </si>
   <si>
-    <t xml:space="preserve">Canada - tests performed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Government of Canada provides a complete time series of data related to the COVID-19 outbreak [here](https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html), which includes the cumulative number of tests performed since 31 January 2021. Data on tests performed is not available before that date, as the Canadian government used to publish data on the number of people tested rather than tests performed; data on people tested is accessbile [here](https://github.com/owid/covid-19-data/blob/master/scripts/scripts/testing/automated_sheets/Canada%20-%20people%20tested.csv).
-It is unclear from the source whether or not the cumulative figure repeatedly counts people that have gone through more than one round of testing over the course of the pandemic. Since we derive a count of the daily number of people tested from the change in this cumulative number, if people undergoing multiple rounds of testing are not counted repeatedly in the cumulative, repeat testers will not appear in our daily testing figures.
-The total number of cases includes publicly-reported confirmed and probable cases (which include positive results of rapid antigen testing). The figures include positive and negative test results, while excluding pending test results.</t>
-  </si>
-  <si>
     <t xml:space="preserve">CPV</t>
   </si>
   <si>
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-30-de-janeiro-de-2022/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-03-de-fevereiro-de-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -837,7 +829,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2022/02/MSP_cvd19_infografia_diaria_20220201.pdf</t>
+    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2022/02/MSP_cvd19_infografia_diaria_20220205.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -928,18 +920,6 @@
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source. See our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
-    <t xml:space="preserve">OWID_EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/owid/covid-19-data/tree/master/public/data/testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Our World in Data</t>
-  </si>
-  <si>
     <t xml:space="preserve">FRO</t>
   </si>
   <si>
@@ -967,7 +947,7 @@
     <t xml:space="preserve">Fiji - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.fj/31-01-2022/</t>
+    <t xml:space="preserve">https://www.health.gov.fj/04-02-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
@@ -1325,7 +1305,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1489233325105586178</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1490323366632464389</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1412,7 +1392,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-february-2-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-saturday-february-5-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1516,7 +1496,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1489588368363204610</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1490671714895806468</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1715,7 +1695,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1489284342530527233</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1490371608292507652</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1835,7 +1815,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1488185479304470528</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1490361419593928708</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1870,7 +1850,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/Main/content/publication/2019-ncov</t>
+    <t xml:space="preserve">http://web.archive.org/web/20220207132656/https://mohs.gov.mm/Main/content/publication/2019-ncov</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1908,7 +1888,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1j9Dsso8c9IDqzY4SKzcE3q0FJkOj1oMT</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/12acB5Q5qz_6WrzheD3enegmvPD_Q3-R3</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -2058,7 +2038,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/287167133510256</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/291611666399136</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -2080,7 +2060,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1489422003878649856</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1490166273363304448</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2114,7 +2094,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1489355865719283712</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1490450632486309891</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2172,7 +2152,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1489535450159017986</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1490622613856600070</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2185,9 +2165,6 @@
 It is unclear if the cumulative number of people tested repeatedly counts people who have gone through more than one round of testing over the course of the pandemic. Since we derive a count of the daily number of people tested from the change in this cumulative number, if people undergoing multiple rounds of testing are not counted repeatedly in the cumulative testing figures, then they will not appear in our daily testing figures. It is also unclear if pending results are included in the testing figures.
 On 31 October 2020, the Ministry of Health changed the [case definition](https://www.gov.pl/web/wsse-krakow/definicja-przypadku-covid19-na-potrzeby-nadzoru-epidemiologicznego-nad-zakazeniami-wirusem-sars-cov-2-definicja-z-dnia-31102020-) to include detection with rapid antigen tests. However, we have not been able to establish whether or not rapid antigen tests are now also included in the testing figures; if not, then the true positive rate will be lower than that indicated in our figures.
 For more information about how these details may impact the time series, refer to our [FAQ](https://ourworldindata.org/coronavirus-testing#frequently-asked-questions-about-our-covid-19-testing-dataset) on our COVID-19 testing dataset.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
     <t xml:space="preserve">PRT</t>
@@ -2235,7 +2212,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRES%C4%82_-_3_februarie_2022,_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRES%C4%82_-_4_februarie_2022,_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2317,7 +2294,7 @@
     <t xml:space="preserve">Saint Vincent and the Grenadines - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/SVGHEALTH/posts/403003314955749</t>
+    <t xml:space="preserve">https://www.facebook.com/SVGHEALTH/posts/407264297862984</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Vincent and the Grenadines Ministry of Health, Wellness and the Environment</t>
@@ -3549,7 +3526,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44596</v>
+        <v>44599</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -3559,21 +3536,21 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H7" t="n">
-        <v>2762988</v>
+        <v>2783288</v>
       </c>
       <c r="I7" t="n">
-        <v>930.886</v>
+        <v>937.725</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" t="n">
-        <v>7702</v>
+        <v>8043</v>
       </c>
       <c r="M7" t="n">
-        <v>2.595</v>
+        <v>2.71</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
@@ -3630,8 +3607,12 @@
       <c r="M8" t="n">
         <v>4.371</v>
       </c>
-      <c r="N8"/>
-      <c r="O8"/>
+      <c r="N8" t="n">
+        <v>0.2294</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.4</v>
+      </c>
       <c r="P8" t="s">
         <v>60</v>
       </c>
@@ -3683,8 +3664,12 @@
       <c r="M9" t="n">
         <v>78.618</v>
       </c>
-      <c r="N9"/>
-      <c r="O9"/>
+      <c r="N9" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="O9" t="n">
+        <v>21.7</v>
+      </c>
       <c r="P9" t="s">
         <v>67</v>
       </c>
@@ -3736,8 +3721,12 @@
       <c r="M10" t="n">
         <v>1.373</v>
       </c>
-      <c r="N10"/>
-      <c r="O10"/>
+      <c r="N10" t="n">
+        <v>0.3705</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.7</v>
+      </c>
       <c r="P10" t="s">
         <v>72</v>
       </c>
@@ -3842,8 +3831,12 @@
       <c r="M12" t="n">
         <v>16.962</v>
       </c>
-      <c r="N12"/>
-      <c r="O12"/>
+      <c r="N12" t="n">
+        <v>0.2439</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4.1</v>
+      </c>
       <c r="P12" t="s">
         <v>83</v>
       </c>
@@ -3865,7 +3858,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44595</v>
+        <v>44599</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
@@ -3875,32 +3868,28 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="H13" t="n">
-        <v>12593619</v>
+        <v>12751430</v>
       </c>
       <c r="I13" t="n">
-        <v>75.727</v>
+        <v>76.676</v>
       </c>
       <c r="J13" t="n">
-        <v>44843</v>
+        <v>44471</v>
       </c>
       <c r="K13" t="n">
-        <v>0.27</v>
+        <v>0.267</v>
       </c>
       <c r="L13" t="n">
-        <v>43199</v>
+        <v>41743</v>
       </c>
       <c r="M13" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.2925</v>
-      </c>
-      <c r="O13" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0.251</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13"/>
       <c r="P13" t="s">
         <v>90</v>
       </c>
@@ -3952,8 +3941,12 @@
       <c r="M14" t="n">
         <v>3.974</v>
       </c>
-      <c r="N14"/>
-      <c r="O14"/>
+      <c r="N14" t="n">
+        <v>0.0935</v>
+      </c>
+      <c r="O14" t="n">
+        <v>10.7</v>
+      </c>
       <c r="P14" t="s">
         <v>96</v>
       </c>
@@ -4130,7 +4123,7 @@
         <v>118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44595</v>
+        <v>44599</v>
       </c>
       <c r="D18" t="s">
         <v>119</v>
@@ -4140,32 +4133,28 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="H18" t="n">
-        <v>1476108</v>
+        <v>1499657</v>
       </c>
       <c r="I18" t="n">
-        <v>1892.689</v>
+        <v>1922.884</v>
       </c>
       <c r="J18" t="n">
-        <v>7213</v>
+        <v>6353</v>
       </c>
       <c r="K18" t="n">
-        <v>9.249</v>
+        <v>8.146</v>
       </c>
       <c r="L18" t="n">
-        <v>10722</v>
+        <v>7506</v>
       </c>
       <c r="M18" t="n">
-        <v>13.748</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.0174</v>
-      </c>
-      <c r="O18" t="n">
-        <v>57.4</v>
-      </c>
+        <v>9.624</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18"/>
       <c r="P18" t="s">
         <v>42</v>
       </c>
@@ -4619,7 +4608,7 @@
         <v>164</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44227</v>
+        <v>44597</v>
       </c>
       <c r="D27" t="s">
         <v>165</v>
@@ -4629,31 +4618,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>325</v>
+        <v>713</v>
       </c>
       <c r="H27" t="n">
-        <v>17483364</v>
+        <v>56922667</v>
       </c>
       <c r="I27" t="n">
-        <v>459.268</v>
+        <v>1495.293</v>
       </c>
       <c r="J27" t="n">
-        <v>50138</v>
+        <v>46235</v>
       </c>
       <c r="K27" t="n">
-        <v>1.317</v>
+        <v>1.215</v>
       </c>
       <c r="L27" t="n">
-        <v>61832</v>
+        <v>77134</v>
       </c>
       <c r="M27" t="n">
-        <v>1.624</v>
+        <v>2.026</v>
       </c>
       <c r="N27" t="n">
-        <v>0.072</v>
+        <v>0.1703</v>
       </c>
       <c r="O27" t="n">
-        <v>13.9</v>
+        <v>5.9</v>
       </c>
       <c r="P27" t="s">
         <v>166</v>
@@ -4662,7 +4651,7 @@
         <v>167</v>
       </c>
       <c r="R27" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S27" t="s">
         <v>168</v>
@@ -4670,115 +4659,107 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>711</v>
-      </c>
-      <c r="H28" t="n">
-        <v>56795249</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1491.945</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28"/>
       <c r="J28" t="n">
-        <v>84728</v>
+        <v>608</v>
       </c>
       <c r="K28" t="n">
-        <v>2.226</v>
-      </c>
-      <c r="L28" t="n">
-        <v>79645</v>
-      </c>
-      <c r="M28" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.1756</v>
-      </c>
-      <c r="O28" t="n">
-        <v>5.7</v>
-      </c>
+        <v>1.082</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q28" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="R28" t="s">
         <v>50</v>
       </c>
       <c r="S28" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44590</v>
+        <v>44595</v>
       </c>
       <c r="D29" t="s">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>437</v>
-      </c>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29" t="n">
-        <v>427</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="L29"/>
-      <c r="M29"/>
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>82526</v>
+      </c>
+      <c r="I29" t="n">
+        <v>16.774</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29" t="n">
+        <v>123</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.025</v>
+      </c>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29" t="s">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="Q29" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="R29" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -4788,24 +4769,28 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
-        <v>82526</v>
+        <v>198518</v>
       </c>
       <c r="I30" t="n">
-        <v>16.774</v>
+        <v>11.736</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>123</v>
+        <v>266</v>
       </c>
       <c r="M30" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="N30"/>
-      <c r="O30"/>
+        <v>0.016</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="O30" t="n">
+        <v>23.3</v>
+      </c>
       <c r="P30" t="s">
         <v>36</v>
       </c>
@@ -4816,3583 +4801,3651 @@
         <v>24</v>
       </c>
       <c r="S30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>681</v>
       </c>
       <c r="H31" t="n">
-        <v>198518</v>
+        <v>30040412</v>
       </c>
       <c r="I31" t="n">
-        <v>11.736</v>
-      </c>
-      <c r="J31"/>
-      <c r="K31"/>
+        <v>1563.598</v>
+      </c>
+      <c r="J31" t="n">
+        <v>137013</v>
+      </c>
+      <c r="K31" t="n">
+        <v>7.132</v>
+      </c>
       <c r="L31" t="n">
-        <v>266</v>
+        <v>121321</v>
       </c>
       <c r="M31" t="n">
-        <v>0.016</v>
+        <v>6.315</v>
       </c>
       <c r="N31" t="n">
-        <v>0.043</v>
+        <v>0.2498</v>
       </c>
       <c r="O31" t="n">
-        <v>23.3</v>
+        <v>4</v>
       </c>
       <c r="P31" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="Q31" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="R31" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="S31" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44595</v>
+        <v>44049</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>681</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>30040412</v>
+        <v>160000000</v>
       </c>
       <c r="I32" t="n">
-        <v>1563.598</v>
-      </c>
-      <c r="J32" t="n">
-        <v>137013</v>
-      </c>
-      <c r="K32" t="n">
-        <v>7.132</v>
-      </c>
+        <v>110.787</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32"/>
       <c r="L32" t="n">
-        <v>121321</v>
+        <v>1627907</v>
       </c>
       <c r="M32" t="n">
-        <v>6.315</v>
+        <v>1.127</v>
       </c>
       <c r="N32" t="n">
-        <v>0.2498</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>4</v>
+        <v>41741.2</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q32" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="R32" t="s">
         <v>50</v>
       </c>
       <c r="S32" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44049</v>
+        <v>44595</v>
       </c>
       <c r="D33" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E33" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>611</v>
       </c>
       <c r="H33" t="n">
-        <v>160000000</v>
+        <v>32270008</v>
       </c>
       <c r="I33" t="n">
-        <v>110.787</v>
-      </c>
-      <c r="J33"/>
-      <c r="K33"/>
+        <v>629.464</v>
+      </c>
+      <c r="J33" t="n">
+        <v>52384</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.022</v>
+      </c>
       <c r="L33" t="n">
-        <v>1627907</v>
+        <v>55406</v>
       </c>
       <c r="M33" t="n">
-        <v>1.127</v>
+        <v>1.081</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.362</v>
       </c>
       <c r="O33" t="n">
-        <v>41741.2</v>
+        <v>2.8</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q33" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="R33" t="s">
         <v>50</v>
       </c>
       <c r="S33" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44595</v>
+        <v>44590</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>611</v>
+        <v>695</v>
       </c>
       <c r="H34" t="n">
-        <v>32270008</v>
+        <v>2595067</v>
       </c>
       <c r="I34" t="n">
-        <v>629.464</v>
+        <v>504.97</v>
       </c>
       <c r="J34" t="n">
-        <v>52384</v>
+        <v>12261</v>
       </c>
       <c r="K34" t="n">
-        <v>1.022</v>
+        <v>2.386</v>
       </c>
       <c r="L34" t="n">
-        <v>55406</v>
+        <v>13053</v>
       </c>
       <c r="M34" t="n">
-        <v>1.081</v>
+        <v>2.54</v>
       </c>
       <c r="N34" t="n">
-        <v>0.362</v>
+        <v>0.399</v>
       </c>
       <c r="O34" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="R34" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S34" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44585</v>
+        <v>44591</v>
       </c>
       <c r="D35" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>690</v>
+        <v>618</v>
       </c>
       <c r="H35" t="n">
-        <v>2515891</v>
+        <v>1354210</v>
       </c>
       <c r="I35" t="n">
-        <v>489.563</v>
-      </c>
-      <c r="J35" t="n">
-        <v>7704</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1.499</v>
-      </c>
+        <v>50.057</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35"/>
       <c r="L35" t="n">
-        <v>11521</v>
+        <v>2295</v>
       </c>
       <c r="M35" t="n">
-        <v>2.242</v>
+        <v>0.085</v>
       </c>
       <c r="N35" t="n">
-        <v>0.42</v>
+        <v>0.0323</v>
       </c>
       <c r="O35" t="n">
-        <v>2.4</v>
+        <v>31</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="Q35" t="s">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="R35" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44591</v>
+        <v>44596</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>618</v>
+        <v>580</v>
       </c>
       <c r="H36" t="n">
-        <v>1354210</v>
+        <v>4301921</v>
       </c>
       <c r="I36" t="n">
-        <v>50.057</v>
-      </c>
-      <c r="J36"/>
-      <c r="K36"/>
+        <v>1053.964</v>
+      </c>
+      <c r="J36" t="n">
+        <v>16085</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.941</v>
+      </c>
       <c r="L36" t="n">
-        <v>2295</v>
+        <v>15272</v>
       </c>
       <c r="M36" t="n">
-        <v>0.085</v>
+        <v>3.742</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0323</v>
+        <v>0.4852</v>
       </c>
       <c r="O36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>211</v>
+      </c>
+      <c r="R36" t="s">
         <v>31</v>
       </c>
-      <c r="P36" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>37</v>
-      </c>
-      <c r="R36" t="s">
-        <v>24</v>
-      </c>
       <c r="S36" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44596</v>
+        <v>44381</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>212</v>
-      </c>
-      <c r="F37"/>
+        <v>216</v>
+      </c>
+      <c r="F37" t="s">
+        <v>217</v>
+      </c>
       <c r="G37" t="n">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="H37" t="n">
-        <v>4301921</v>
+        <v>5296762</v>
       </c>
       <c r="I37" t="n">
-        <v>1053.964</v>
+        <v>468.015</v>
       </c>
       <c r="J37" t="n">
-        <v>16085</v>
+        <v>38826</v>
       </c>
       <c r="K37" t="n">
-        <v>3.941</v>
+        <v>3.431</v>
       </c>
       <c r="L37" t="n">
-        <v>15272</v>
+        <v>35601</v>
       </c>
       <c r="M37" t="n">
-        <v>3.742</v>
-      </c>
-      <c r="N37"/>
-      <c r="O37"/>
+        <v>3.146</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.0879</v>
+      </c>
+      <c r="O37" t="n">
+        <v>11.4</v>
+      </c>
       <c r="P37" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q37" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="R37" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S37" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44381</v>
+        <v>44595</v>
       </c>
       <c r="D38" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E38" t="s">
-        <v>218</v>
-      </c>
-      <c r="F38" t="s">
-        <v>219</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F38"/>
       <c r="G38" t="n">
-        <v>470</v>
+        <v>678</v>
       </c>
       <c r="H38" t="n">
-        <v>5296762</v>
+        <v>23076080</v>
       </c>
       <c r="I38" t="n">
-        <v>468.015</v>
+        <v>25754.41</v>
       </c>
       <c r="J38" t="n">
-        <v>38826</v>
+        <v>115470</v>
       </c>
       <c r="K38" t="n">
-        <v>3.431</v>
+        <v>128.872</v>
       </c>
       <c r="L38" t="n">
-        <v>35601</v>
+        <v>106721</v>
       </c>
       <c r="M38" t="n">
-        <v>3.146</v>
+        <v>119.108</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0879</v>
+        <v>0.0262</v>
       </c>
       <c r="O38" t="n">
-        <v>11.4</v>
+        <v>38.1</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="Q38" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="R38" t="s">
         <v>50</v>
       </c>
       <c r="S38" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B39" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>44595</v>
       </c>
       <c r="D39" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E39" t="s">
         <v>42</v>
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>678</v>
+        <v>613</v>
       </c>
       <c r="H39" t="n">
-        <v>23076080</v>
+        <v>49848567</v>
       </c>
       <c r="I39" t="n">
-        <v>25754.41</v>
+        <v>4648.079</v>
       </c>
       <c r="J39" t="n">
-        <v>115470</v>
+        <v>150326</v>
       </c>
       <c r="K39" t="n">
-        <v>128.872</v>
+        <v>14.017</v>
       </c>
       <c r="L39" t="n">
-        <v>106721</v>
+        <v>146321</v>
       </c>
       <c r="M39" t="n">
-        <v>119.108</v>
+        <v>13.644</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0262</v>
+        <v>0.251</v>
       </c>
       <c r="O39" t="n">
-        <v>38.1</v>
+        <v>4</v>
       </c>
       <c r="P39" t="s">
         <v>42</v>
       </c>
       <c r="Q39" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="R39" t="s">
         <v>50</v>
       </c>
       <c r="S39" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44595</v>
+        <v>44428</v>
       </c>
       <c r="D40" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>613</v>
-      </c>
-      <c r="H40" t="n">
-        <v>49848567</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4648.079</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40"/>
       <c r="J40" t="n">
-        <v>150326</v>
+        <v>2098</v>
       </c>
       <c r="K40" t="n">
-        <v>14.017</v>
+        <v>0.023</v>
       </c>
       <c r="L40" t="n">
-        <v>146321</v>
+        <v>2085</v>
       </c>
       <c r="M40" t="n">
-        <v>13.644</v>
+        <v>0.023</v>
       </c>
       <c r="N40" t="n">
-        <v>0.251</v>
+        <v>0.0636</v>
       </c>
       <c r="O40" t="n">
-        <v>4</v>
+        <v>15.7</v>
       </c>
       <c r="P40" t="s">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="Q40" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="R40" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="S40" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B41" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44428</v>
+        <v>44595</v>
       </c>
       <c r="D41" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E41" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>466</v>
-      </c>
-      <c r="H41"/>
-      <c r="I41"/>
+        <v>717</v>
+      </c>
+      <c r="H41" t="n">
+        <v>59859785</v>
+      </c>
+      <c r="I41" t="n">
+        <v>10297.037</v>
+      </c>
       <c r="J41" t="n">
-        <v>2098</v>
+        <v>78360</v>
       </c>
       <c r="K41" t="n">
-        <v>0.023</v>
+        <v>13.479</v>
       </c>
       <c r="L41" t="n">
-        <v>2085</v>
+        <v>143792</v>
       </c>
       <c r="M41" t="n">
-        <v>0.023</v>
+        <v>24.735</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0636</v>
+        <v>0.3026</v>
       </c>
       <c r="O41" t="n">
-        <v>15.7</v>
+        <v>3.3</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q41" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="R41" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="S41" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B42" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="D42" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E42" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>717</v>
+        <v>427</v>
       </c>
       <c r="H42" t="n">
-        <v>59859785</v>
+        <v>2973479</v>
       </c>
       <c r="I42" t="n">
-        <v>10297.037</v>
+        <v>271.459</v>
       </c>
       <c r="J42" t="n">
-        <v>78360</v>
+        <v>6187</v>
       </c>
       <c r="K42" t="n">
-        <v>13.479</v>
+        <v>0.565</v>
       </c>
       <c r="L42" t="n">
-        <v>143792</v>
+        <v>6174</v>
       </c>
       <c r="M42" t="n">
-        <v>24.735</v>
+        <v>0.564</v>
       </c>
       <c r="N42" t="n">
-        <v>0.3026</v>
+        <v>0.2505</v>
       </c>
       <c r="O42" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q42" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="R42" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="S42" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44594</v>
+        <v>44597</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E43" t="s">
-        <v>244</v>
-      </c>
-      <c r="F43"/>
+        <v>248</v>
+      </c>
+      <c r="F43" t="s">
+        <v>249</v>
+      </c>
       <c r="G43" t="n">
-        <v>427</v>
+        <v>663</v>
       </c>
       <c r="H43" t="n">
-        <v>2973479</v>
+        <v>2390090</v>
       </c>
       <c r="I43" t="n">
-        <v>271.459</v>
+        <v>133.611</v>
       </c>
       <c r="J43" t="n">
-        <v>6187</v>
+        <v>8799</v>
       </c>
       <c r="K43" t="n">
-        <v>0.565</v>
+        <v>0.492</v>
       </c>
       <c r="L43" t="n">
-        <v>6174</v>
+        <v>9420</v>
       </c>
       <c r="M43" t="n">
-        <v>0.564</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="O43" t="n">
-        <v>4</v>
-      </c>
+        <v>0.527</v>
+      </c>
+      <c r="N43"/>
+      <c r="O43"/>
       <c r="P43" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q43" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="R43" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="S43" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B44" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44593</v>
+        <v>44591</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E44" t="s">
-        <v>250</v>
-      </c>
-      <c r="F44" t="s">
-        <v>251</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="F44"/>
       <c r="G44" t="n">
-        <v>659</v>
+        <v>514</v>
       </c>
       <c r="H44" t="n">
-        <v>2346485</v>
+        <v>1264644</v>
       </c>
       <c r="I44" t="n">
-        <v>131.173</v>
+        <v>194.008</v>
       </c>
       <c r="J44" t="n">
-        <v>12378</v>
+        <v>4697</v>
       </c>
       <c r="K44" t="n">
-        <v>0.692</v>
+        <v>0.721</v>
       </c>
       <c r="L44" t="n">
-        <v>10503</v>
+        <v>4688</v>
       </c>
       <c r="M44" t="n">
-        <v>0.587</v>
-      </c>
-      <c r="N44"/>
-      <c r="O44"/>
+        <v>0.719</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="O44" t="n">
+        <v>5.4</v>
+      </c>
       <c r="P44" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q44" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="R44" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S44" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B45" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44591</v>
+        <v>44596</v>
       </c>
       <c r="D45" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E45" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>514</v>
+        <v>65</v>
       </c>
       <c r="H45" t="n">
-        <v>1264644</v>
+        <v>279764</v>
       </c>
       <c r="I45" t="n">
-        <v>194.008</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4697</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.721</v>
-      </c>
+        <v>192.955</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45"/>
       <c r="L45" t="n">
-        <v>4688</v>
+        <v>313</v>
       </c>
       <c r="M45" t="n">
-        <v>0.719</v>
+        <v>0.216</v>
       </c>
       <c r="N45" t="n">
-        <v>0.184</v>
+        <v>0.0196</v>
       </c>
       <c r="O45" t="n">
-        <v>5.4</v>
+        <v>51</v>
       </c>
       <c r="P45" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q45" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="R45" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S45" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B46" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44596</v>
+        <v>44594</v>
       </c>
       <c r="D46" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E46" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>65</v>
+        <v>713</v>
       </c>
       <c r="H46" t="n">
-        <v>279764</v>
+        <v>2876493</v>
       </c>
       <c r="I46" t="n">
-        <v>192.955</v>
-      </c>
-      <c r="J46"/>
-      <c r="K46"/>
+        <v>2170.63</v>
+      </c>
+      <c r="J46" t="n">
+        <v>12322</v>
+      </c>
+      <c r="K46" t="n">
+        <v>9.298</v>
+      </c>
       <c r="L46" t="n">
-        <v>313</v>
+        <v>12471</v>
       </c>
       <c r="M46" t="n">
-        <v>0.216</v>
-      </c>
-      <c r="N46"/>
-      <c r="O46"/>
+        <v>9.411</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.5016</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2</v>
+      </c>
       <c r="P46" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q46" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="R46" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="S46" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B47" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="D47" t="s">
-        <v>268</v>
+        <v>35</v>
       </c>
       <c r="E47" t="s">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>713</v>
+        <v>587</v>
       </c>
       <c r="H47" t="n">
-        <v>2876493</v>
+        <v>4360900</v>
       </c>
       <c r="I47" t="n">
-        <v>2170.63</v>
-      </c>
-      <c r="J47" t="n">
-        <v>12322</v>
-      </c>
-      <c r="K47" t="n">
-        <v>9.298</v>
-      </c>
+        <v>36.996</v>
+      </c>
+      <c r="J47"/>
+      <c r="K47"/>
       <c r="L47" t="n">
-        <v>12471</v>
+        <v>6142</v>
       </c>
       <c r="M47" t="n">
-        <v>9.411</v>
+        <v>0.052</v>
       </c>
       <c r="N47" t="n">
-        <v>0.5016</v>
+        <v>0.0513</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>19.5</v>
       </c>
       <c r="P47" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q47" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="R47" t="s">
         <v>50</v>
       </c>
       <c r="S47" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B48" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>44595</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>276</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>587</v>
+        <v>21</v>
       </c>
       <c r="H48" t="n">
-        <v>4360900</v>
+        <v>754980</v>
       </c>
       <c r="I48" t="n">
-        <v>36.996</v>
+        <v>15391.108</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>6142</v>
+        <v>2504</v>
       </c>
       <c r="M48" t="n">
-        <v>0.052</v>
+        <v>51.047</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0513</v>
+        <v>0.2313</v>
       </c>
       <c r="O48" t="n">
-        <v>19.5</v>
+        <v>4.3</v>
       </c>
       <c r="P48" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q48" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="R48" t="s">
-        <v>50</v>
+        <v>279</v>
       </c>
       <c r="S48" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B49" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44590</v>
+        <v>44595</v>
       </c>
       <c r="D49" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E49" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
+      <c r="G49" t="n">
+        <v>544</v>
+      </c>
+      <c r="H49" t="n">
+        <v>492980</v>
+      </c>
+      <c r="I49" t="n">
+        <v>545.997</v>
+      </c>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>7661242</v>
-      </c>
-      <c r="M49"/>
+        <v>281</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.311</v>
+      </c>
       <c r="N49"/>
       <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
-      <c r="S49"/>
+      <c r="P49" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>285</v>
+      </c>
+      <c r="R49" t="s">
+        <v>50</v>
+      </c>
+      <c r="S49" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B50" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="D50" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E50" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>21</v>
+        <v>707</v>
       </c>
       <c r="H50" t="n">
-        <v>754980</v>
+        <v>9530885</v>
       </c>
       <c r="I50" t="n">
-        <v>15391.108</v>
-      </c>
-      <c r="J50"/>
-      <c r="K50"/>
+        <v>1717.784</v>
+      </c>
+      <c r="J50" t="n">
+        <v>13969</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2.518</v>
+      </c>
       <c r="L50" t="n">
-        <v>2504</v>
+        <v>15640</v>
       </c>
       <c r="M50" t="n">
-        <v>51.047</v>
-      </c>
-      <c r="N50"/>
-      <c r="O50"/>
+        <v>2.819</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2.9</v>
+      </c>
       <c r="P50" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q50" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="R50" t="s">
-        <v>285</v>
+        <v>50</v>
       </c>
       <c r="S50" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B51" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="D51" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E51" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>542</v>
+        <v>629</v>
       </c>
       <c r="H51" t="n">
-        <v>492136</v>
+        <v>234830173</v>
       </c>
       <c r="I51" t="n">
-        <v>545.062</v>
-      </c>
-      <c r="J51"/>
-      <c r="K51"/>
+        <v>3482.99</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1330794</v>
+      </c>
+      <c r="K51" t="n">
+        <v>19.738</v>
+      </c>
       <c r="L51" t="n">
-        <v>303</v>
+        <v>1026960</v>
       </c>
       <c r="M51" t="n">
-        <v>0.336</v>
+        <v>15.232</v>
       </c>
       <c r="N51" t="n">
-        <v>0.6799</v>
+        <v>0.343</v>
       </c>
       <c r="O51" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="P51" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q51" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="R51" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S51" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B52" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="D52" t="s">
-        <v>295</v>
+        <v>35</v>
       </c>
       <c r="E52" t="s">
-        <v>296</v>
+        <v>36</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>707</v>
+        <v>48</v>
       </c>
       <c r="H52" t="n">
-        <v>9530885</v>
+        <v>1541274</v>
       </c>
       <c r="I52" t="n">
-        <v>1717.784</v>
-      </c>
-      <c r="J52" t="n">
-        <v>13969</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2.518</v>
-      </c>
+        <v>676.345</v>
+      </c>
+      <c r="J52"/>
+      <c r="K52"/>
       <c r="L52" t="n">
-        <v>15640</v>
+        <v>1693</v>
       </c>
       <c r="M52" t="n">
-        <v>2.819</v>
+        <v>0.743</v>
       </c>
       <c r="N52" t="n">
-        <v>0.345</v>
+        <v>0.0613</v>
       </c>
       <c r="O52" t="n">
-        <v>2.9</v>
+        <v>16.3</v>
       </c>
       <c r="P52" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q52" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="R52" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S52" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B53" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="D53" t="s">
-        <v>302</v>
+        <v>35</v>
       </c>
       <c r="E53" t="s">
-        <v>303</v>
+        <v>36</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>629</v>
+        <v>70</v>
       </c>
       <c r="H53" t="n">
-        <v>234830173</v>
+        <v>139940</v>
       </c>
       <c r="I53" t="n">
-        <v>3482.99</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1330794</v>
-      </c>
-      <c r="K53" t="n">
-        <v>19.738</v>
-      </c>
+        <v>56.27</v>
+      </c>
+      <c r="J53"/>
+      <c r="K53"/>
       <c r="L53" t="n">
-        <v>1026960</v>
+        <v>289</v>
       </c>
       <c r="M53" t="n">
-        <v>15.232</v>
+        <v>0.116</v>
       </c>
       <c r="N53" t="n">
-        <v>0.343</v>
+        <v>0.1438</v>
       </c>
       <c r="O53" t="n">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="P53" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q53" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="R53" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="S53" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B54" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44593</v>
+        <v>44596</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
+        <v>311</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>312</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>48</v>
+        <v>408</v>
       </c>
       <c r="H54" t="n">
-        <v>1541274</v>
+        <v>12580815</v>
       </c>
       <c r="I54" t="n">
-        <v>676.345</v>
-      </c>
-      <c r="J54"/>
-      <c r="K54"/>
+        <v>3161.189</v>
+      </c>
+      <c r="J54" t="n">
+        <v>73821</v>
+      </c>
+      <c r="K54" t="n">
+        <v>18.549</v>
+      </c>
       <c r="L54" t="n">
-        <v>1693</v>
+        <v>50125</v>
       </c>
       <c r="M54" t="n">
-        <v>0.743</v>
+        <v>12.595</v>
       </c>
       <c r="N54" t="n">
-        <v>0.0613</v>
+        <v>0.4136</v>
       </c>
       <c r="O54" t="n">
-        <v>16.3</v>
+        <v>2.4</v>
       </c>
       <c r="P54" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q54" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="R54" t="s">
         <v>24</v>
       </c>
       <c r="S54" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B55" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44593</v>
+        <v>44591</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>317</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>318</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="H55" t="n">
-        <v>139940</v>
+        <v>102009068</v>
       </c>
       <c r="I55" t="n">
-        <v>56.27</v>
+        <v>1215.834</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55" t="n">
-        <v>289</v>
+        <v>362625</v>
       </c>
       <c r="M55" t="n">
-        <v>0.116</v>
+        <v>4.322</v>
       </c>
       <c r="N55" t="n">
-        <v>0.1438</v>
+        <v>0.406</v>
       </c>
       <c r="O55" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="P55" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q55" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="R55" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="S55" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B56" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="D56" t="s">
-        <v>317</v>
+        <v>35</v>
       </c>
       <c r="E56" t="s">
-        <v>318</v>
+        <v>36</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>408</v>
+        <v>492</v>
       </c>
       <c r="H56" t="n">
-        <v>12580815</v>
+        <v>2250718</v>
       </c>
       <c r="I56" t="n">
-        <v>3161.189</v>
-      </c>
-      <c r="J56" t="n">
-        <v>73821</v>
-      </c>
-      <c r="K56" t="n">
-        <v>18.549</v>
-      </c>
+        <v>70.929</v>
+      </c>
+      <c r="J56"/>
+      <c r="K56"/>
       <c r="L56" t="n">
-        <v>50125</v>
+        <v>4031</v>
       </c>
       <c r="M56" t="n">
-        <v>12.595</v>
-      </c>
-      <c r="N56"/>
-      <c r="O56"/>
+        <v>0.127</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.0293</v>
+      </c>
+      <c r="O56" t="n">
+        <v>34.1</v>
+      </c>
       <c r="P56" t="s">
-        <v>318</v>
+        <v>36</v>
       </c>
       <c r="Q56" t="s">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="R56" t="s">
         <v>24</v>
       </c>
       <c r="S56" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B57" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44591</v>
+        <v>44595</v>
       </c>
       <c r="D57" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E57" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>99</v>
+        <v>630</v>
       </c>
       <c r="H57" t="n">
-        <v>102009068</v>
+        <v>58032400</v>
       </c>
       <c r="I57" t="n">
-        <v>1215.834</v>
-      </c>
-      <c r="J57"/>
-      <c r="K57"/>
+        <v>5595.778</v>
+      </c>
+      <c r="J57" t="n">
+        <v>277070</v>
+      </c>
+      <c r="K57" t="n">
+        <v>26.716</v>
+      </c>
       <c r="L57" t="n">
-        <v>362625</v>
+        <v>291760</v>
       </c>
       <c r="M57" t="n">
-        <v>4.322</v>
+        <v>28.133</v>
       </c>
       <c r="N57" t="n">
-        <v>0.406</v>
+        <v>0.0657</v>
       </c>
       <c r="O57" t="n">
-        <v>2.5</v>
+        <v>15.2</v>
       </c>
       <c r="P57" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q57" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="R57" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="S57" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B58" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>333</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>334</v>
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>492</v>
+        <v>703</v>
       </c>
       <c r="H58" t="n">
-        <v>2250718</v>
+        <v>3633506</v>
       </c>
       <c r="I58" t="n">
-        <v>70.929</v>
-      </c>
-      <c r="J58"/>
-      <c r="K58"/>
+        <v>199.098</v>
+      </c>
+      <c r="J58" t="n">
+        <v>13173</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.722</v>
+      </c>
       <c r="L58" t="n">
-        <v>4031</v>
+        <v>11362</v>
       </c>
       <c r="M58" t="n">
-        <v>0.127</v>
+        <v>0.623</v>
       </c>
       <c r="N58" t="n">
-        <v>0.0293</v>
+        <v>0.2662</v>
       </c>
       <c r="O58" t="n">
-        <v>34.1</v>
+        <v>3.8</v>
       </c>
       <c r="P58" t="s">
-        <v>36</v>
+        <v>335</v>
       </c>
       <c r="Q58" t="s">
-        <v>37</v>
+        <v>336</v>
       </c>
       <c r="R58" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S58" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B59" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44595</v>
+        <v>44582</v>
       </c>
       <c r="D59" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="E59" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
-        <v>58032400</v>
+        <v>442695</v>
       </c>
       <c r="I59" t="n">
-        <v>5595.778</v>
-      </c>
-      <c r="J59" t="n">
-        <v>277070</v>
-      </c>
-      <c r="K59" t="n">
-        <v>26.716</v>
-      </c>
+        <v>560.14</v>
+      </c>
+      <c r="J59"/>
+      <c r="K59"/>
       <c r="L59" t="n">
-        <v>291760</v>
+        <v>2771</v>
       </c>
       <c r="M59" t="n">
-        <v>28.133</v>
+        <v>3.506</v>
       </c>
       <c r="N59" t="n">
-        <v>0.0657</v>
+        <v>0.3388</v>
       </c>
       <c r="O59" t="n">
-        <v>15.2</v>
+        <v>3</v>
       </c>
       <c r="P59" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q59" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="R59" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="S59" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B60" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44594</v>
+        <v>44568</v>
       </c>
       <c r="D60" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="E60" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>703</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>3633506</v>
+        <v>155805</v>
       </c>
       <c r="I60" t="n">
-        <v>199.098</v>
-      </c>
-      <c r="J60" t="n">
-        <v>13173</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="L60" t="n">
-        <v>11362</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.623</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.2662</v>
-      </c>
-      <c r="O60" t="n">
-        <v>3.8</v>
-      </c>
+        <v>13.499</v>
+      </c>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
       <c r="P60" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q60" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="R60" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S60" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B61" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44582</v>
+        <v>44586</v>
       </c>
       <c r="D61" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E61" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="H61" t="n">
-        <v>442695</v>
+        <v>33413705</v>
       </c>
       <c r="I61" t="n">
-        <v>560.14</v>
+        <v>4424.016</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61" t="n">
-        <v>2771</v>
+        <v>124969</v>
       </c>
       <c r="M61" t="n">
-        <v>3.506</v>
+        <v>16.546</v>
       </c>
       <c r="N61" t="n">
-        <v>0.3388</v>
+        <v>0.0003</v>
       </c>
       <c r="O61" t="n">
-        <v>3</v>
+        <v>3571.4</v>
       </c>
       <c r="P61" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="Q61" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="R61" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="S61" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B62" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44568</v>
+        <v>44596</v>
       </c>
       <c r="D62" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="E62" t="s">
-        <v>353</v>
-      </c>
-      <c r="F62"/>
+        <v>360</v>
+      </c>
+      <c r="F62" t="s">
+        <v>361</v>
+      </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>630</v>
       </c>
       <c r="H62" t="n">
-        <v>155805</v>
+        <v>9756608</v>
       </c>
       <c r="I62" t="n">
-        <v>13.499</v>
-      </c>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="O62"/>
+        <v>1012.71</v>
+      </c>
+      <c r="J62" t="n">
+        <v>45533</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4.726</v>
+      </c>
+      <c r="L62" t="n">
+        <v>38674</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4.014</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.4007</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.5</v>
+      </c>
       <c r="P62" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q62" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="R62" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="S62" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B63" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44586</v>
+        <v>44592</v>
       </c>
       <c r="D63" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E63" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>27</v>
+        <v>704</v>
       </c>
       <c r="H63" t="n">
-        <v>33413705</v>
+        <v>1039741</v>
       </c>
       <c r="I63" t="n">
-        <v>4424.016</v>
-      </c>
-      <c r="J63"/>
-      <c r="K63"/>
+        <v>2819.315</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4885</v>
+      </c>
+      <c r="K63" t="n">
+        <v>13.246</v>
+      </c>
       <c r="L63" t="n">
-        <v>124969</v>
+        <v>5174</v>
       </c>
       <c r="M63" t="n">
-        <v>16.546</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="O63" t="n">
-        <v>3571.4</v>
-      </c>
+        <v>14.03</v>
+      </c>
+      <c r="N63"/>
+      <c r="O63"/>
       <c r="P63" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q63" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="R63" t="s">
         <v>50</v>
       </c>
       <c r="S63" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B64" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>44596</v>
       </c>
       <c r="D64" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E64" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F64" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="G64" t="n">
-        <v>630</v>
+        <v>676</v>
       </c>
       <c r="H64" t="n">
-        <v>9756608</v>
+        <v>735804280</v>
       </c>
       <c r="I64" t="n">
-        <v>1012.71</v>
+        <v>528.061</v>
       </c>
       <c r="J64" t="n">
-        <v>45533</v>
+        <v>1611666</v>
       </c>
       <c r="K64" t="n">
-        <v>4.726</v>
+        <v>1.157</v>
       </c>
       <c r="L64" t="n">
-        <v>38674</v>
+        <v>1722246</v>
       </c>
       <c r="M64" t="n">
-        <v>4.014</v>
-      </c>
-      <c r="N64"/>
-      <c r="O64"/>
+        <v>1.236</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.1014</v>
+      </c>
+      <c r="O64" t="n">
+        <v>9.9</v>
+      </c>
       <c r="P64" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q64" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="R64" t="s">
         <v>121</v>
       </c>
       <c r="S64" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B65" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44592</v>
+        <v>44589</v>
       </c>
       <c r="D65" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E65" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>704</v>
+        <v>319</v>
       </c>
       <c r="H65" t="n">
-        <v>1039741</v>
+        <v>47876593</v>
       </c>
       <c r="I65" t="n">
-        <v>2819.315</v>
+        <v>173.239</v>
       </c>
       <c r="J65" t="n">
-        <v>4885</v>
+        <v>258145</v>
       </c>
       <c r="K65" t="n">
-        <v>13.246</v>
+        <v>0.934</v>
       </c>
       <c r="L65" t="n">
-        <v>5174</v>
+        <v>207101</v>
       </c>
       <c r="M65" t="n">
-        <v>14.03</v>
-      </c>
-      <c r="N65"/>
-      <c r="O65"/>
+        <v>0.749</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.0269</v>
+      </c>
+      <c r="O65" t="n">
+        <v>37.2</v>
+      </c>
       <c r="P65" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q65" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="R65" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S65" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B66" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="D66" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E66" t="s">
-        <v>378</v>
-      </c>
-      <c r="F66" t="s">
-        <v>379</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="F66"/>
       <c r="G66" t="n">
-        <v>676</v>
+        <v>427</v>
       </c>
       <c r="H66" t="n">
-        <v>735804280</v>
+        <v>45095250</v>
       </c>
       <c r="I66" t="n">
-        <v>528.061</v>
+        <v>530.353</v>
       </c>
       <c r="J66" t="n">
-        <v>1611666</v>
+        <v>106310</v>
       </c>
       <c r="K66" t="n">
-        <v>1.157</v>
+        <v>1.25</v>
       </c>
       <c r="L66" t="n">
-        <v>1722246</v>
+        <v>96973</v>
       </c>
       <c r="M66" t="n">
-        <v>1.236</v>
-      </c>
-      <c r="N66"/>
-      <c r="O66"/>
+        <v>1.14</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.2801</v>
+      </c>
+      <c r="O66" t="n">
+        <v>3.6</v>
+      </c>
       <c r="P66" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="Q66" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="R66" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="S66" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B67" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44589</v>
+        <v>44598</v>
       </c>
       <c r="D67" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E67" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>319</v>
+        <v>550</v>
       </c>
       <c r="H67" t="n">
-        <v>47876593</v>
+        <v>17571087</v>
       </c>
       <c r="I67" t="n">
-        <v>173.239</v>
+        <v>426.697</v>
       </c>
       <c r="J67" t="n">
-        <v>258145</v>
+        <v>17791</v>
       </c>
       <c r="K67" t="n">
-        <v>0.934</v>
+        <v>0.432</v>
       </c>
       <c r="L67" t="n">
-        <v>207101</v>
+        <v>24254</v>
       </c>
       <c r="M67" t="n">
-        <v>0.749</v>
+        <v>0.589</v>
       </c>
       <c r="N67" t="n">
-        <v>0.0269</v>
+        <v>0.2641</v>
       </c>
       <c r="O67" t="n">
-        <v>37.2</v>
+        <v>3.8</v>
       </c>
       <c r="P67" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="Q67" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="R67" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="S67" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B68" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="D68" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E68" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>427</v>
+        <v>689</v>
       </c>
       <c r="H68" t="n">
-        <v>45095250</v>
+        <v>11015471</v>
       </c>
       <c r="I68" t="n">
-        <v>530.353</v>
+        <v>2210.653</v>
       </c>
       <c r="J68" t="n">
-        <v>106310</v>
+        <v>19251</v>
       </c>
       <c r="K68" t="n">
-        <v>1.25</v>
+        <v>3.863</v>
       </c>
       <c r="L68" t="n">
-        <v>96973</v>
+        <v>17170</v>
       </c>
       <c r="M68" t="n">
-        <v>1.14</v>
+        <v>3.446</v>
       </c>
       <c r="N68" t="n">
-        <v>0.2801</v>
+        <v>0.3018</v>
       </c>
       <c r="O68" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P68" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Q68" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="R68" t="s">
         <v>50</v>
       </c>
       <c r="S68" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B69" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>44595</v>
       </c>
       <c r="D69" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="E69" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>547</v>
+        <v>715</v>
       </c>
       <c r="H69" t="n">
-        <v>17508647</v>
+        <v>46075163</v>
       </c>
       <c r="I69" t="n">
-        <v>425.18</v>
-      </c>
-      <c r="J69"/>
-      <c r="K69"/>
+        <v>4959.118</v>
+      </c>
+      <c r="J69" t="n">
+        <v>193857</v>
+      </c>
+      <c r="K69" t="n">
+        <v>20.865</v>
+      </c>
       <c r="L69" t="n">
-        <v>26239</v>
+        <v>234681</v>
       </c>
       <c r="M69" t="n">
-        <v>0.637</v>
+        <v>25.259</v>
       </c>
       <c r="N69" t="n">
-        <v>0.274</v>
+        <v>0.2655</v>
       </c>
       <c r="O69" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P69" t="s">
-        <v>398</v>
+        <v>42</v>
       </c>
       <c r="Q69" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="R69" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="S69" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B70" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="D70" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="E70" t="s">
-        <v>404</v>
-      </c>
-      <c r="F70"/>
+        <v>409</v>
+      </c>
+      <c r="F70" t="s">
+        <v>410</v>
+      </c>
       <c r="G70" t="n">
-        <v>689</v>
+        <v>710</v>
       </c>
       <c r="H70" t="n">
-        <v>11015471</v>
+        <v>173758572</v>
       </c>
       <c r="I70" t="n">
-        <v>2210.653</v>
+        <v>2878.348</v>
       </c>
       <c r="J70" t="n">
-        <v>19251</v>
+        <v>915337</v>
       </c>
       <c r="K70" t="n">
-        <v>3.863</v>
+        <v>15.163</v>
       </c>
       <c r="L70" t="n">
-        <v>17170</v>
+        <v>924872</v>
       </c>
       <c r="M70" t="n">
-        <v>3.446</v>
-      </c>
-      <c r="N70"/>
-      <c r="O70"/>
+        <v>15.321</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="O70" t="n">
+        <v>8</v>
+      </c>
       <c r="P70" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="Q70" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="R70" t="s">
         <v>50</v>
       </c>
       <c r="S70" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B71" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44595</v>
+        <v>44597</v>
       </c>
       <c r="D71" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="E71" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>715</v>
+        <v>478</v>
       </c>
       <c r="H71" t="n">
-        <v>46075163</v>
+        <v>808366</v>
       </c>
       <c r="I71" t="n">
-        <v>4959.118</v>
+        <v>271.86</v>
       </c>
       <c r="J71" t="n">
-        <v>193857</v>
+        <v>2058</v>
       </c>
       <c r="K71" t="n">
-        <v>20.865</v>
+        <v>0.692</v>
       </c>
       <c r="L71" t="n">
-        <v>234681</v>
+        <v>2023</v>
       </c>
       <c r="M71" t="n">
-        <v>25.259</v>
+        <v>0.68</v>
       </c>
       <c r="N71" t="n">
-        <v>0.2655</v>
+        <v>0.1931</v>
       </c>
       <c r="O71" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="P71" t="s">
-        <v>42</v>
+        <v>417</v>
       </c>
       <c r="Q71" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="R71" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="S71" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B72" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>44595</v>
       </c>
       <c r="D72" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="E72" t="s">
-        <v>415</v>
-      </c>
-      <c r="F72" t="s">
-        <v>416</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="F72"/>
       <c r="G72" t="n">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="H72" t="n">
-        <v>173758572</v>
+        <v>32963234</v>
       </c>
       <c r="I72" t="n">
-        <v>2878.348</v>
+        <v>261.508</v>
       </c>
       <c r="J72" t="n">
-        <v>915337</v>
+        <v>266034</v>
       </c>
       <c r="K72" t="n">
-        <v>15.163</v>
+        <v>2.111</v>
       </c>
       <c r="L72" t="n">
-        <v>924872</v>
+        <v>228847</v>
       </c>
       <c r="M72" t="n">
-        <v>15.321</v>
+        <v>1.816</v>
       </c>
       <c r="N72" t="n">
-        <v>0.125</v>
+        <v>0.3659</v>
       </c>
       <c r="O72" t="n">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="P72" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="Q72" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="R72" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S72" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B73" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44594</v>
+        <v>44599</v>
       </c>
       <c r="D73" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="E73" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>475</v>
+        <v>319</v>
       </c>
       <c r="H73" t="n">
-        <v>802621</v>
+        <v>15072131</v>
       </c>
       <c r="I73" t="n">
-        <v>269.928</v>
-      </c>
-      <c r="J73"/>
-      <c r="K73"/>
+        <v>1467.728</v>
+      </c>
+      <c r="J73" t="n">
+        <v>58025</v>
+      </c>
+      <c r="K73" t="n">
+        <v>5.65</v>
+      </c>
       <c r="L73" t="n">
-        <v>2078</v>
+        <v>53699</v>
       </c>
       <c r="M73" t="n">
-        <v>0.699</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0.2065</v>
-      </c>
-      <c r="O73" t="n">
-        <v>4.8</v>
-      </c>
+        <v>5.229</v>
+      </c>
+      <c r="N73"/>
+      <c r="O73"/>
       <c r="P73" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="Q73" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="R73" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="S73" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B74" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44591</v>
+        <v>44355</v>
       </c>
       <c r="D74" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E74" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>723</v>
+        <v>447</v>
       </c>
       <c r="H74" t="n">
-        <v>31928900</v>
+        <v>11965068</v>
       </c>
       <c r="I74" t="n">
-        <v>253.302</v>
+        <v>629.908</v>
       </c>
       <c r="J74" t="n">
-        <v>118792</v>
+        <v>52729</v>
       </c>
       <c r="K74" t="n">
-        <v>0.942</v>
+        <v>2.776</v>
       </c>
       <c r="L74" t="n">
-        <v>220210</v>
+        <v>39955</v>
       </c>
       <c r="M74" t="n">
-        <v>1.747</v>
+        <v>2.103</v>
       </c>
       <c r="N74" t="n">
-        <v>0.3256</v>
+        <v>0.03</v>
       </c>
       <c r="O74" t="n">
-        <v>3.1</v>
+        <v>33.4</v>
       </c>
       <c r="P74" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="Q74" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="R74" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S74" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B75" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>44595</v>
       </c>
       <c r="D75" t="s">
-        <v>434</v>
+        <v>35</v>
       </c>
       <c r="E75" t="s">
-        <v>435</v>
+        <v>36</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="H75" t="n">
-        <v>14888936</v>
+        <v>3233831</v>
       </c>
       <c r="I75" t="n">
-        <v>1449.888</v>
-      </c>
-      <c r="J75" t="n">
-        <v>68047</v>
-      </c>
-      <c r="K75" t="n">
-        <v>6.626</v>
-      </c>
+        <v>58.812</v>
+      </c>
+      <c r="J75"/>
+      <c r="K75"/>
       <c r="L75" t="n">
-        <v>50218</v>
+        <v>4699</v>
       </c>
       <c r="M75" t="n">
-        <v>4.89</v>
+        <v>0.085</v>
       </c>
       <c r="N75" t="n">
-        <v>0.271</v>
+        <v>0.0257</v>
       </c>
       <c r="O75" t="n">
-        <v>3.7</v>
+        <v>38.9</v>
       </c>
       <c r="P75" t="s">
-        <v>435</v>
+        <v>36</v>
       </c>
       <c r="Q75" t="s">
-        <v>436</v>
+        <v>37</v>
       </c>
       <c r="R75" t="s">
         <v>50</v>
       </c>
       <c r="S75" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B76" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44355</v>
+        <v>44597</v>
       </c>
       <c r="D76" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E76" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>447</v>
+        <v>145</v>
       </c>
       <c r="H76" t="n">
-        <v>11965068</v>
+        <v>1697491</v>
       </c>
       <c r="I76" t="n">
-        <v>629.908</v>
+        <v>952.515</v>
       </c>
       <c r="J76" t="n">
-        <v>52729</v>
+        <v>6969</v>
       </c>
       <c r="K76" t="n">
-        <v>2.776</v>
+        <v>3.911</v>
       </c>
       <c r="L76" t="n">
-        <v>39955</v>
+        <v>9563</v>
       </c>
       <c r="M76" t="n">
-        <v>2.103</v>
+        <v>5.366</v>
       </c>
       <c r="N76" t="n">
-        <v>0.03</v>
+        <v>0.2135</v>
       </c>
       <c r="O76" t="n">
-        <v>33.4</v>
+        <v>4.7</v>
       </c>
       <c r="P76" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q76" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="R76" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S76" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B77" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44595</v>
+        <v>44599</v>
       </c>
       <c r="D77" t="s">
-        <v>35</v>
+        <v>448</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>449</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>232</v>
+        <v>632</v>
       </c>
       <c r="H77" t="n">
-        <v>3233831</v>
+        <v>7142068</v>
       </c>
       <c r="I77" t="n">
-        <v>58.812</v>
-      </c>
-      <c r="J77"/>
-      <c r="K77"/>
+        <v>1649.99</v>
+      </c>
+      <c r="J77" t="n">
+        <v>31464</v>
+      </c>
+      <c r="K77" t="n">
+        <v>7.269</v>
+      </c>
       <c r="L77" t="n">
-        <v>4699</v>
+        <v>32706</v>
       </c>
       <c r="M77" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.0257</v>
-      </c>
-      <c r="O77" t="n">
-        <v>38.9</v>
-      </c>
+        <v>7.556</v>
+      </c>
+      <c r="N77"/>
+      <c r="O77"/>
       <c r="P77" t="s">
-        <v>36</v>
+        <v>449</v>
       </c>
       <c r="Q77" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="R77" t="s">
         <v>50</v>
       </c>
       <c r="S77" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B78" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="D78" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="E78" t="s">
-        <v>449</v>
+        <v>42</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="H78" t="n">
-        <v>1678438</v>
+        <v>958084</v>
       </c>
       <c r="I78" t="n">
-        <v>941.824</v>
+        <v>129.833</v>
       </c>
       <c r="J78" t="n">
-        <v>9253</v>
+        <v>2918</v>
       </c>
       <c r="K78" t="n">
-        <v>5.192</v>
+        <v>0.395</v>
       </c>
       <c r="L78" t="n">
-        <v>12376</v>
+        <v>1714</v>
       </c>
       <c r="M78" t="n">
-        <v>6.945</v>
+        <v>0.232</v>
       </c>
       <c r="N78" t="n">
-        <v>0.2282</v>
+        <v>0.2483</v>
       </c>
       <c r="O78" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="P78" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="Q78" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="R78" t="s">
-        <v>24</v>
+        <v>279</v>
       </c>
       <c r="S78" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B79" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>44596</v>
       </c>
       <c r="D79" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="E79" t="s">
-        <v>455</v>
-      </c>
-      <c r="F79"/>
+        <v>461</v>
+      </c>
+      <c r="F79" t="s">
+        <v>462</v>
+      </c>
       <c r="G79" t="n">
-        <v>629</v>
+        <v>707</v>
       </c>
       <c r="H79" t="n">
-        <v>7052139</v>
+        <v>6153933</v>
       </c>
       <c r="I79" t="n">
-        <v>1629.214</v>
+        <v>3296.278</v>
       </c>
       <c r="J79" t="n">
-        <v>33807</v>
+        <v>26767</v>
       </c>
       <c r="K79" t="n">
-        <v>7.81</v>
+        <v>14.337</v>
       </c>
       <c r="L79" t="n">
-        <v>32843</v>
+        <v>22601</v>
       </c>
       <c r="M79" t="n">
-        <v>7.588</v>
-      </c>
-      <c r="N79"/>
-      <c r="O79"/>
+        <v>12.106</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.3784</v>
+      </c>
+      <c r="O79" t="n">
+        <v>2.6</v>
+      </c>
       <c r="P79" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="Q79" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="R79" t="s">
         <v>50</v>
       </c>
       <c r="S79" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B80" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44596</v>
+        <v>44370</v>
       </c>
       <c r="D80" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="E80" t="s">
-        <v>42</v>
+        <v>467</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="H80" t="n">
-        <v>958084</v>
+        <v>4731376</v>
       </c>
       <c r="I80" t="n">
-        <v>129.833</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2918</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.395</v>
-      </c>
+        <v>698.962</v>
+      </c>
+      <c r="J80"/>
+      <c r="K80"/>
       <c r="L80" t="n">
-        <v>1714</v>
+        <v>14688</v>
       </c>
       <c r="M80" t="n">
-        <v>0.232</v>
+        <v>2.17</v>
       </c>
       <c r="N80"/>
       <c r="O80"/>
       <c r="P80" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="Q80" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="R80" t="s">
-        <v>285</v>
+        <v>24</v>
       </c>
       <c r="S80" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B81" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="D81" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="E81" t="s">
-        <v>467</v>
-      </c>
-      <c r="F81" t="s">
-        <v>468</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="F81"/>
       <c r="G81" t="n">
-        <v>707</v>
-      </c>
-      <c r="H81" t="n">
-        <v>6153933</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3296.278</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="H81"/>
+      <c r="I81"/>
       <c r="J81" t="n">
-        <v>26767</v>
+        <v>11053</v>
       </c>
       <c r="K81" t="n">
-        <v>14.337</v>
-      </c>
-      <c r="L81" t="n">
-        <v>22601</v>
-      </c>
-      <c r="M81" t="n">
-        <v>12.106</v>
-      </c>
+        <v>1.588</v>
+      </c>
+      <c r="L81"/>
+      <c r="M81"/>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="Q81" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="R81" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="S81" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B82" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44370</v>
+        <v>44571</v>
       </c>
       <c r="D82" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="E82" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>26</v>
+        <v>598</v>
       </c>
       <c r="H82" t="n">
-        <v>4731376</v>
+        <v>90632</v>
       </c>
       <c r="I82" t="n">
-        <v>698.962</v>
-      </c>
-      <c r="J82"/>
-      <c r="K82"/>
+        <v>2369.216</v>
+      </c>
+      <c r="J82" t="n">
+        <v>248</v>
+      </c>
+      <c r="K82" t="n">
+        <v>6.483</v>
+      </c>
       <c r="L82" t="n">
-        <v>14688</v>
+        <v>220</v>
       </c>
       <c r="M82" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="N82"/>
-      <c r="O82"/>
+        <v>5.751</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="O82" t="n">
+        <v>2.9</v>
+      </c>
       <c r="P82" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="Q82" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R82" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="S82" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B83" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="D83" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="E83" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>533</v>
-      </c>
-      <c r="H83"/>
-      <c r="I83"/>
+        <v>685</v>
+      </c>
+      <c r="H83" t="n">
+        <v>7681569</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2855.748</v>
+      </c>
       <c r="J83" t="n">
-        <v>11053</v>
+        <v>32599</v>
       </c>
       <c r="K83" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
-      <c r="O83"/>
+        <v>12.119</v>
+      </c>
+      <c r="L83" t="n">
+        <v>29526</v>
+      </c>
+      <c r="M83" t="n">
+        <v>10.977</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="O83" t="n">
+        <v>2.3</v>
+      </c>
       <c r="P83" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="Q83" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="R83" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="S83" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B84" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44571</v>
+        <v>44594</v>
       </c>
       <c r="D84" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="E84" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>598</v>
+        <v>708</v>
       </c>
       <c r="H84" t="n">
-        <v>90632</v>
+        <v>3997645</v>
       </c>
       <c r="I84" t="n">
-        <v>2369.216</v>
+        <v>6297.349</v>
       </c>
       <c r="J84" t="n">
-        <v>248</v>
+        <v>6222</v>
       </c>
       <c r="K84" t="n">
-        <v>6.483</v>
+        <v>9.801</v>
       </c>
       <c r="L84" t="n">
-        <v>220</v>
+        <v>5159</v>
       </c>
       <c r="M84" t="n">
-        <v>5.751</v>
+        <v>8.127</v>
       </c>
       <c r="N84" t="n">
-        <v>0.344</v>
+        <v>0.363</v>
       </c>
       <c r="O84" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P84" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="Q84" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="R84" t="s">
         <v>50</v>
       </c>
       <c r="S84" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B85" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44594</v>
+        <v>44575</v>
       </c>
       <c r="D85" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E85" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>685</v>
+        <v>271</v>
       </c>
       <c r="H85" t="n">
-        <v>7681569</v>
+        <v>352115</v>
       </c>
       <c r="I85" t="n">
-        <v>2855.748</v>
-      </c>
-      <c r="J85" t="n">
-        <v>32599</v>
-      </c>
-      <c r="K85" t="n">
-        <v>12.119</v>
-      </c>
+        <v>12.386</v>
+      </c>
+      <c r="J85"/>
+      <c r="K85"/>
       <c r="L85" t="n">
-        <v>29526</v>
+        <v>1538</v>
       </c>
       <c r="M85" t="n">
-        <v>10.977</v>
+        <v>0.054</v>
       </c>
       <c r="N85" t="n">
-        <v>0.432</v>
+        <v>0.1548</v>
       </c>
       <c r="O85" t="n">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="P85" t="s">
-        <v>490</v>
+        <v>36</v>
       </c>
       <c r="Q85" t="s">
-        <v>489</v>
+        <v>37</v>
       </c>
       <c r="R85" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S85" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B86" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="D86" t="s">
-        <v>494</v>
+        <v>35</v>
       </c>
       <c r="E86" t="s">
-        <v>495</v>
+        <v>36</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>708</v>
+        <v>268</v>
       </c>
       <c r="H86" t="n">
-        <v>3997645</v>
+        <v>530456</v>
       </c>
       <c r="I86" t="n">
-        <v>6297.349</v>
-      </c>
-      <c r="J86" t="n">
-        <v>6222</v>
-      </c>
-      <c r="K86" t="n">
-        <v>9.801</v>
-      </c>
+        <v>26.998</v>
+      </c>
+      <c r="J86"/>
+      <c r="K86"/>
       <c r="L86" t="n">
-        <v>5159</v>
+        <v>896</v>
       </c>
       <c r="M86" t="n">
-        <v>8.127</v>
+        <v>0.046</v>
       </c>
       <c r="N86" t="n">
-        <v>0.363</v>
+        <v>0.0748</v>
       </c>
       <c r="O86" t="n">
-        <v>2.8</v>
+        <v>13.4</v>
       </c>
       <c r="P86" t="s">
-        <v>495</v>
+        <v>36</v>
       </c>
       <c r="Q86" t="s">
-        <v>494</v>
+        <v>37</v>
       </c>
       <c r="R86" t="s">
         <v>50</v>
       </c>
       <c r="S86" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B87" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44575</v>
+        <v>44593</v>
       </c>
       <c r="D87" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E87" t="s">
-        <v>500</v>
-      </c>
-      <c r="F87"/>
+        <v>502</v>
+      </c>
+      <c r="F87" t="s">
+        <v>503</v>
+      </c>
       <c r="G87" t="n">
-        <v>271</v>
+        <v>740</v>
       </c>
       <c r="H87" t="n">
-        <v>352115</v>
+        <v>45412566</v>
       </c>
       <c r="I87" t="n">
-        <v>12.386</v>
-      </c>
-      <c r="J87"/>
-      <c r="K87"/>
+        <v>1385.535</v>
+      </c>
+      <c r="J87" t="n">
+        <v>77646</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2.369</v>
+      </c>
       <c r="L87" t="n">
-        <v>1538</v>
+        <v>104678</v>
       </c>
       <c r="M87" t="n">
-        <v>0.054</v>
+        <v>3.194</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1548</v>
+        <v>0.0493</v>
       </c>
       <c r="O87" t="n">
-        <v>6.5</v>
+        <v>20.3</v>
       </c>
       <c r="P87" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q87" t="s">
-        <v>37</v>
+        <v>504</v>
       </c>
       <c r="R87" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S87" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B88" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44595</v>
+        <v>44598</v>
       </c>
       <c r="D88" t="s">
-        <v>35</v>
+        <v>508</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>509</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>268</v>
+        <v>674</v>
       </c>
       <c r="H88" t="n">
-        <v>530456</v>
+        <v>2096109</v>
       </c>
       <c r="I88" t="n">
-        <v>26.998</v>
-      </c>
-      <c r="J88"/>
-      <c r="K88"/>
+        <v>3855.835</v>
+      </c>
+      <c r="J88" t="n">
+        <v>5792</v>
+      </c>
+      <c r="K88" t="n">
+        <v>10.655</v>
+      </c>
       <c r="L88" t="n">
-        <v>896</v>
+        <v>6111</v>
       </c>
       <c r="M88" t="n">
-        <v>0.046</v>
+        <v>11.241</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0748</v>
+        <v>0.3322</v>
       </c>
       <c r="O88" t="n">
-        <v>13.4</v>
+        <v>3</v>
       </c>
       <c r="P88" t="s">
-        <v>36</v>
+        <v>509</v>
       </c>
       <c r="Q88" t="s">
-        <v>37</v>
+        <v>510</v>
       </c>
       <c r="R88" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="S88" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B89" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44593</v>
+        <v>44596</v>
       </c>
       <c r="D89" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="E89" t="s">
-        <v>508</v>
-      </c>
-      <c r="F89" t="s">
-        <v>509</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="F89"/>
       <c r="G89" t="n">
-        <v>740</v>
+        <v>565</v>
       </c>
       <c r="H89" t="n">
-        <v>45412566</v>
+        <v>1696546</v>
       </c>
       <c r="I89" t="n">
-        <v>1385.535</v>
+        <v>3287.243</v>
       </c>
       <c r="J89" t="n">
-        <v>77646</v>
+        <v>2538</v>
       </c>
       <c r="K89" t="n">
-        <v>2.369</v>
+        <v>4.918</v>
       </c>
       <c r="L89" t="n">
-        <v>104678</v>
+        <v>2578</v>
       </c>
       <c r="M89" t="n">
-        <v>3.194</v>
+        <v>4.995</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0493</v>
+        <v>0.082</v>
       </c>
       <c r="O89" t="n">
-        <v>20.3</v>
+        <v>12.2</v>
       </c>
       <c r="P89" t="s">
-        <v>42</v>
+        <v>516</v>
       </c>
       <c r="Q89" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="R89" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S89" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="B90" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>44595</v>
       </c>
       <c r="D90" t="s">
-        <v>514</v>
+        <v>35</v>
       </c>
       <c r="E90" t="s">
-        <v>515</v>
+        <v>36</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>671</v>
+        <v>135</v>
       </c>
       <c r="H90" t="n">
-        <v>2079231</v>
+        <v>839404</v>
       </c>
       <c r="I90" t="n">
-        <v>3824.788</v>
-      </c>
-      <c r="J90" t="n">
-        <v>5657</v>
-      </c>
-      <c r="K90" t="n">
-        <v>10.406</v>
-      </c>
+        <v>175.787</v>
+      </c>
+      <c r="J90"/>
+      <c r="K90"/>
       <c r="L90" t="n">
-        <v>6766</v>
+        <v>2717</v>
       </c>
       <c r="M90" t="n">
-        <v>12.446</v>
+        <v>0.569</v>
       </c>
       <c r="N90" t="n">
-        <v>0.3578</v>
+        <v>0.0243</v>
       </c>
       <c r="O90" t="n">
-        <v>2.8</v>
+        <v>41.2</v>
       </c>
       <c r="P90" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="Q90" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="R90" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="S90" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B91" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44596</v>
+        <v>44594</v>
       </c>
       <c r="D91" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E91" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>565</v>
+        <v>764</v>
       </c>
       <c r="H91" t="n">
-        <v>1696546</v>
+        <v>13643464</v>
       </c>
       <c r="I91" t="n">
-        <v>3287.243</v>
+        <v>104.738</v>
       </c>
       <c r="J91" t="n">
-        <v>2538</v>
+        <v>14117</v>
       </c>
       <c r="K91" t="n">
-        <v>4.918</v>
+        <v>0.108</v>
       </c>
       <c r="L91" t="n">
-        <v>2578</v>
+        <v>23991</v>
       </c>
       <c r="M91" t="n">
-        <v>4.995</v>
-      </c>
-      <c r="N91"/>
-      <c r="O91"/>
+        <v>0.184</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1.6</v>
+      </c>
       <c r="P91" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="Q91" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="R91" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S91" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B92" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="D92" t="s">
-        <v>35</v>
+        <v>532</v>
       </c>
       <c r="E92" t="s">
-        <v>36</v>
+        <v>533</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>135</v>
-      </c>
-      <c r="H92" t="n">
-        <v>839404</v>
-      </c>
-      <c r="I92" t="n">
-        <v>175.787</v>
-      </c>
-      <c r="J92"/>
-      <c r="K92"/>
-      <c r="L92" t="n">
-        <v>2717</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.569</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.0243</v>
-      </c>
-      <c r="O92" t="n">
-        <v>41.2</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92" t="n">
+        <v>17</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
       <c r="P92" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="Q92" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="R92" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S92" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="B93" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44592</v>
+        <v>44596</v>
       </c>
       <c r="D93" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="E93" t="s">
-        <v>533</v>
+        <v>42</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>762</v>
+        <v>328</v>
       </c>
       <c r="H93" t="n">
-        <v>13515724</v>
+        <v>6917587</v>
       </c>
       <c r="I93" t="n">
-        <v>103.758</v>
+        <v>2077.801</v>
       </c>
       <c r="J93" t="n">
-        <v>15931</v>
+        <v>6082</v>
       </c>
       <c r="K93" t="n">
-        <v>0.122</v>
+        <v>1.827</v>
       </c>
       <c r="L93" t="n">
-        <v>26644</v>
+        <v>11124</v>
       </c>
       <c r="M93" t="n">
-        <v>0.205</v>
+        <v>3.341</v>
       </c>
       <c r="N93" t="n">
-        <v>0.6309</v>
+        <v>0.0987</v>
       </c>
       <c r="O93" t="n">
-        <v>1.6</v>
+        <v>10.1</v>
       </c>
       <c r="P93" t="s">
-        <v>534</v>
+        <v>42</v>
       </c>
       <c r="Q93" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="R93" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="S93" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B94" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44596</v>
+        <v>44598</v>
       </c>
       <c r="D94" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="E94" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>460</v>
-      </c>
-      <c r="H94"/>
-      <c r="I94"/>
+        <v>693</v>
+      </c>
+      <c r="H94" t="n">
+        <v>10721328</v>
+      </c>
+      <c r="I94" t="n">
+        <v>287.09</v>
+      </c>
       <c r="J94" t="n">
-        <v>17</v>
+        <v>11189</v>
       </c>
       <c r="K94" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="L94"/>
-      <c r="M94"/>
-      <c r="N94"/>
-      <c r="O94"/>
+        <v>0.3</v>
+      </c>
+      <c r="L94" t="n">
+        <v>15503</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="O94" t="n">
+        <v>6.8</v>
+      </c>
       <c r="P94" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="Q94" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="R94" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S94" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B95" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="D95" t="s">
-        <v>545</v>
+        <v>35</v>
       </c>
       <c r="E95" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>328</v>
+        <v>575</v>
       </c>
       <c r="H95" t="n">
-        <v>6917587</v>
+        <v>1229425</v>
       </c>
       <c r="I95" t="n">
-        <v>2077.801</v>
-      </c>
-      <c r="J95" t="n">
-        <v>6082</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1.827</v>
-      </c>
+        <v>38.225</v>
+      </c>
+      <c r="J95"/>
+      <c r="K95"/>
       <c r="L95" t="n">
-        <v>11124</v>
+        <v>1818</v>
       </c>
       <c r="M95" t="n">
-        <v>3.341</v>
-      </c>
-      <c r="N95"/>
-      <c r="O95"/>
+        <v>0.057</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.0574</v>
+      </c>
+      <c r="O95" t="n">
+        <v>17.4</v>
+      </c>
       <c r="P95" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q95" t="s">
-        <v>546</v>
+        <v>37</v>
       </c>
       <c r="R95" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="S95" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B96" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44592</v>
+        <v>44598</v>
       </c>
       <c r="D96" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E96" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>687</v>
+        <v>496</v>
       </c>
       <c r="H96" t="n">
-        <v>10623022</v>
+        <v>6521501</v>
       </c>
       <c r="I96" t="n">
-        <v>284.458</v>
+        <v>118.992</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
       <c r="L96" t="n">
-        <v>21078</v>
+        <v>24922</v>
       </c>
       <c r="M96" t="n">
-        <v>0.564</v>
+        <v>0.455</v>
       </c>
       <c r="N96" t="n">
-        <v>0.2139</v>
+        <v>0.0152</v>
       </c>
       <c r="O96" t="n">
-        <v>4.7</v>
+        <v>65.9</v>
       </c>
       <c r="P96" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="Q96" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="R96" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="S96" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B97" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>44595</v>
@@ -8405,3060 +8458,2937 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="H97" t="n">
-        <v>1229425</v>
+        <v>925250</v>
       </c>
       <c r="I97" t="n">
-        <v>38.225</v>
+        <v>357.606</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97" t="n">
-        <v>1818</v>
+        <v>1255</v>
       </c>
       <c r="M97" t="n">
-        <v>0.057</v>
+        <v>0.485</v>
       </c>
       <c r="N97" t="n">
-        <v>0.0574</v>
+        <v>0.0545</v>
       </c>
       <c r="O97" t="n">
-        <v>17.4</v>
+        <v>18.3</v>
       </c>
       <c r="P97" t="s">
-        <v>36</v>
+        <v>559</v>
       </c>
       <c r="Q97" t="s">
-        <v>37</v>
+        <v>560</v>
       </c>
       <c r="R97" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="S97" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B98" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44594</v>
+        <v>44599</v>
       </c>
       <c r="D98" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="E98" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>495</v>
+        <v>707</v>
       </c>
       <c r="H98" t="n">
-        <v>6445899</v>
+        <v>5283372</v>
       </c>
       <c r="I98" t="n">
-        <v>117.613</v>
-      </c>
-      <c r="J98"/>
-      <c r="K98"/>
+        <v>178.042</v>
+      </c>
+      <c r="J98" t="n">
+        <v>7874</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.265</v>
+      </c>
       <c r="L98" t="n">
-        <v>19302</v>
+        <v>7643</v>
       </c>
       <c r="M98" t="n">
-        <v>0.352</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="O98" t="n">
-        <v>66.5</v>
-      </c>
+        <v>0.258</v>
+      </c>
+      <c r="N98"/>
+      <c r="O98"/>
       <c r="P98" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="Q98" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="R98" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="S98" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B99" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="D99" t="s">
-        <v>35</v>
+        <v>570</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>571</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="H99" t="n">
-        <v>925250</v>
+        <v>25887168</v>
       </c>
       <c r="I99" t="n">
-        <v>357.606</v>
-      </c>
-      <c r="J99"/>
-      <c r="K99"/>
+        <v>1507.426</v>
+      </c>
+      <c r="J99" t="n">
+        <v>151234</v>
+      </c>
+      <c r="K99" t="n">
+        <v>8.806</v>
+      </c>
       <c r="L99" t="n">
-        <v>1255</v>
+        <v>143756</v>
       </c>
       <c r="M99" t="n">
-        <v>0.485</v>
+        <v>8.371</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0545</v>
+        <v>0.535</v>
       </c>
       <c r="O99" t="n">
-        <v>18.3</v>
+        <v>1.9</v>
       </c>
       <c r="P99" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="Q99" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="R99" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="S99" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B100" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>44596</v>
       </c>
       <c r="D100" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="E100" t="s">
-        <v>571</v>
+        <v>42</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>704</v>
+        <v>585</v>
       </c>
       <c r="H100" t="n">
-        <v>5263830</v>
+        <v>6117388</v>
       </c>
       <c r="I100" t="n">
-        <v>177.383</v>
+        <v>1193.334</v>
       </c>
       <c r="J100" t="n">
-        <v>6655</v>
+        <v>20526</v>
       </c>
       <c r="K100" t="n">
-        <v>0.224</v>
+        <v>4.004</v>
       </c>
       <c r="L100" t="n">
-        <v>9191</v>
+        <v>19785</v>
       </c>
       <c r="M100" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="N100"/>
-      <c r="O100"/>
+        <v>3.86</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="O100" t="n">
+        <v>98.9</v>
+      </c>
       <c r="P100" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="Q100" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="R100" t="s">
         <v>50</v>
       </c>
       <c r="S100" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B101" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44594</v>
+        <v>44591</v>
       </c>
       <c r="D101" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="E101" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>612</v>
+        <v>268</v>
       </c>
       <c r="H101" t="n">
-        <v>25887168</v>
+        <v>4116369</v>
       </c>
       <c r="I101" t="n">
-        <v>1507.426</v>
-      </c>
-      <c r="J101" t="n">
-        <v>151234</v>
-      </c>
-      <c r="K101" t="n">
-        <v>8.806</v>
-      </c>
+        <v>19.472</v>
+      </c>
+      <c r="J101"/>
+      <c r="K101"/>
       <c r="L101" t="n">
-        <v>143756</v>
+        <v>8642</v>
       </c>
       <c r="M101" t="n">
-        <v>8.371</v>
+        <v>0.041</v>
       </c>
       <c r="N101" t="n">
-        <v>0.535</v>
+        <v>0.0138</v>
       </c>
       <c r="O101" t="n">
-        <v>1.9</v>
+        <v>72.4</v>
       </c>
       <c r="P101" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="Q101" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="R101" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="S101" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B102" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44596</v>
+        <v>44571</v>
       </c>
       <c r="D102" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="E102" t="s">
         <v>42</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>585</v>
+        <v>438</v>
       </c>
       <c r="H102" t="n">
-        <v>6117388</v>
+        <v>1630947</v>
       </c>
       <c r="I102" t="n">
-        <v>1193.334</v>
-      </c>
-      <c r="J102" t="n">
-        <v>20526</v>
-      </c>
-      <c r="K102" t="n">
-        <v>4.004</v>
-      </c>
+        <v>783.107</v>
+      </c>
+      <c r="J102"/>
+      <c r="K102"/>
       <c r="L102" t="n">
-        <v>19785</v>
+        <v>5177</v>
       </c>
       <c r="M102" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="N102"/>
-      <c r="O102"/>
+        <v>2.486</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.2292</v>
+      </c>
+      <c r="O102" t="n">
+        <v>4.4</v>
+      </c>
       <c r="P102" t="s">
-        <v>583</v>
+        <v>42</v>
       </c>
       <c r="Q102" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="R102" t="s">
         <v>50</v>
       </c>
       <c r="S102" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B103" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44591</v>
+        <v>44594</v>
       </c>
       <c r="D103" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E103" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>268</v>
+        <v>672</v>
       </c>
       <c r="H103" t="n">
-        <v>4116369</v>
+        <v>10210795</v>
       </c>
       <c r="I103" t="n">
-        <v>19.472</v>
-      </c>
-      <c r="J103"/>
-      <c r="K103"/>
+        <v>1868.183</v>
+      </c>
+      <c r="J103" t="n">
+        <v>31131</v>
+      </c>
+      <c r="K103" t="n">
+        <v>5.696</v>
+      </c>
       <c r="L103" t="n">
-        <v>8642</v>
+        <v>30930</v>
       </c>
       <c r="M103" t="n">
-        <v>0.041</v>
+        <v>5.659</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0138</v>
+        <v>0.6343</v>
       </c>
       <c r="O103" t="n">
-        <v>72.4</v>
+        <v>1.6</v>
       </c>
       <c r="P103" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="Q103" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="R103" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="S103" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B104" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44571</v>
+        <v>44048</v>
       </c>
       <c r="D104" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E104" t="s">
-        <v>42</v>
+        <v>598</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>438</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1630947</v>
-      </c>
-      <c r="I104" t="n">
-        <v>783.107</v>
-      </c>
-      <c r="J104"/>
-      <c r="K104"/>
-      <c r="L104" t="n">
-        <v>5177</v>
-      </c>
-      <c r="M104" t="n">
-        <v>2.486</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0.2292</v>
-      </c>
-      <c r="O104" t="n">
-        <v>4.4</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104" t="n">
+        <v>2682</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
       <c r="P104" t="s">
-        <v>42</v>
+        <v>598</v>
       </c>
       <c r="Q104" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="R104" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="S104" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="B105" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="D105" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="E105" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>672</v>
+        <v>632</v>
       </c>
       <c r="H105" t="n">
-        <v>10210795</v>
+        <v>25258723</v>
       </c>
       <c r="I105" t="n">
-        <v>1868.183</v>
+        <v>112.161</v>
       </c>
       <c r="J105" t="n">
-        <v>31131</v>
+        <v>64162</v>
       </c>
       <c r="K105" t="n">
-        <v>5.696</v>
+        <v>0.285</v>
       </c>
       <c r="L105" t="n">
-        <v>30930</v>
+        <v>62260</v>
       </c>
       <c r="M105" t="n">
-        <v>5.659</v>
+        <v>0.276</v>
       </c>
       <c r="N105" t="n">
-        <v>0.6343</v>
+        <v>0.1027</v>
       </c>
       <c r="O105" t="n">
-        <v>1.6</v>
+        <v>9.7</v>
       </c>
       <c r="P105" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Q105" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="R105" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S105" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B106" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44048</v>
+        <v>44599</v>
       </c>
       <c r="D106" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="E106" t="s">
-        <v>604</v>
+        <v>42</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>58</v>
+        <v>517</v>
       </c>
       <c r="H106"/>
       <c r="I106"/>
       <c r="J106" t="n">
-        <v>2682</v>
+        <v>17245</v>
       </c>
       <c r="K106" t="n">
-        <v>0.513</v>
-      </c>
-      <c r="L106"/>
-      <c r="M106"/>
+        <v>3.302</v>
+      </c>
+      <c r="L106" t="n">
+        <v>19067</v>
+      </c>
+      <c r="M106" t="n">
+        <v>3.651</v>
+      </c>
       <c r="N106"/>
       <c r="O106"/>
       <c r="P106" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="Q106" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="R106" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="S106" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B107" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="D107" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="E107" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>632</v>
+        <v>686</v>
       </c>
       <c r="H107" t="n">
-        <v>25258723</v>
+        <v>5298400</v>
       </c>
       <c r="I107" t="n">
-        <v>112.161</v>
+        <v>1209.243</v>
       </c>
       <c r="J107" t="n">
-        <v>64162</v>
+        <v>17066</v>
       </c>
       <c r="K107" t="n">
-        <v>0.285</v>
+        <v>3.895</v>
       </c>
       <c r="L107" t="n">
-        <v>62260</v>
+        <v>19111</v>
       </c>
       <c r="M107" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="N107"/>
-      <c r="O107"/>
+        <v>4.362</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.2156</v>
+      </c>
+      <c r="O107" t="n">
+        <v>4.6</v>
+      </c>
       <c r="P107" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="Q107" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="R107" t="s">
         <v>50</v>
       </c>
       <c r="S107" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="B108" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44592</v>
+        <v>44304</v>
       </c>
       <c r="D108" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="E108" t="s">
-        <v>42</v>
+        <v>353</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>510</v>
-      </c>
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="J108" t="n">
-        <v>19704</v>
-      </c>
-      <c r="K108" t="n">
-        <v>3.773</v>
-      </c>
-      <c r="L108"/>
-      <c r="M108"/>
-      <c r="N108"/>
-      <c r="O108"/>
+        <v>7</v>
+      </c>
+      <c r="H108" t="n">
+        <v>82516</v>
+      </c>
+      <c r="I108" t="n">
+        <v>9.049</v>
+      </c>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108" t="n">
+        <v>943</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.1963</v>
+      </c>
+      <c r="O108" t="n">
+        <v>5.1</v>
+      </c>
       <c r="P108" t="s">
-        <v>615</v>
+        <v>353</v>
       </c>
       <c r="Q108" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="R108" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S108" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="B109" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44595</v>
+        <v>44598</v>
       </c>
       <c r="D109" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="E109" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="H109" t="n">
-        <v>5263461</v>
+        <v>2433613</v>
       </c>
       <c r="I109" t="n">
-        <v>1201.269</v>
+        <v>337.082</v>
       </c>
       <c r="J109" t="n">
-        <v>21790</v>
+        <v>11715</v>
       </c>
       <c r="K109" t="n">
-        <v>4.973</v>
+        <v>1.623</v>
       </c>
       <c r="L109" t="n">
-        <v>21109</v>
+        <v>12150</v>
       </c>
       <c r="M109" t="n">
-        <v>4.818</v>
+        <v>1.683</v>
       </c>
       <c r="N109" t="n">
-        <v>0.2642</v>
+        <v>0.4407</v>
       </c>
       <c r="O109" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="P109" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="Q109" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="R109" t="s">
         <v>50</v>
       </c>
       <c r="S109" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="B110" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44304</v>
+        <v>44585</v>
       </c>
       <c r="D110" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="E110" t="s">
-        <v>359</v>
+        <v>196</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>7</v>
+        <v>724</v>
       </c>
       <c r="H110" t="n">
-        <v>82516</v>
+        <v>7181133</v>
       </c>
       <c r="I110" t="n">
-        <v>9.049</v>
-      </c>
-      <c r="J110"/>
-      <c r="K110"/>
+        <v>215.266</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
       <c r="L110" t="n">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>0.103</v>
+        <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1963</v>
+        <v>0.313</v>
       </c>
       <c r="O110" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="P110" t="s">
-        <v>359</v>
+        <v>196</v>
       </c>
       <c r="Q110" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="R110" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="S110" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B111" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44595</v>
+        <v>44582</v>
       </c>
       <c r="D111" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="E111" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>696</v>
+        <v>659</v>
       </c>
       <c r="H111" t="n">
-        <v>2397663</v>
+        <v>25196245</v>
       </c>
       <c r="I111" t="n">
-        <v>332.103</v>
+        <v>226.897</v>
       </c>
       <c r="J111" t="n">
-        <v>12481</v>
+        <v>64860</v>
       </c>
       <c r="K111" t="n">
-        <v>1.729</v>
+        <v>0.584</v>
       </c>
       <c r="L111" t="n">
-        <v>11987</v>
+        <v>68771</v>
       </c>
       <c r="M111" t="n">
-        <v>1.66</v>
+        <v>0.619</v>
       </c>
       <c r="N111" t="n">
-        <v>0.456</v>
+        <v>0.4727</v>
       </c>
       <c r="O111" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P111" t="s">
-        <v>632</v>
+        <v>353</v>
       </c>
       <c r="Q111" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="R111" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S111" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B112" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44585</v>
+        <v>44599</v>
       </c>
       <c r="D112" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="E112" t="s">
-        <v>198</v>
+        <v>643</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>724</v>
+        <v>645</v>
       </c>
       <c r="H112" t="n">
-        <v>7181133</v>
+        <v>30889566</v>
       </c>
       <c r="I112" t="n">
-        <v>215.266</v>
+        <v>817.249</v>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>80345</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>2.126</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>142297</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0.313</v>
-      </c>
-      <c r="O112" t="n">
-        <v>3.2</v>
-      </c>
+        <v>3.765</v>
+      </c>
+      <c r="N112"/>
+      <c r="O112"/>
       <c r="P112" t="s">
-        <v>198</v>
+        <v>643</v>
       </c>
       <c r="Q112" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="R112" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S112" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B113" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44582</v>
+        <v>44594</v>
       </c>
       <c r="D113" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="E113" t="s">
-        <v>643</v>
+        <v>42</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>659</v>
+        <v>704</v>
       </c>
       <c r="H113" t="n">
-        <v>25196245</v>
+        <v>35261065</v>
       </c>
       <c r="I113" t="n">
-        <v>226.897</v>
+        <v>3467.873</v>
       </c>
       <c r="J113" t="n">
-        <v>64860</v>
+        <v>239481</v>
       </c>
       <c r="K113" t="n">
-        <v>0.584</v>
+        <v>23.553</v>
       </c>
       <c r="L113" t="n">
-        <v>68771</v>
+        <v>264554</v>
       </c>
       <c r="M113" t="n">
-        <v>0.619</v>
+        <v>26.018</v>
       </c>
       <c r="N113" t="n">
-        <v>0.4727</v>
+        <v>0.1985</v>
       </c>
       <c r="O113" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="P113" t="s">
-        <v>359</v>
+        <v>649</v>
       </c>
       <c r="Q113" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="R113" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S113" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="B114" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44596</v>
+        <v>44496</v>
       </c>
       <c r="D114" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="E114" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>642</v>
+        <v>588</v>
       </c>
       <c r="H114" t="n">
-        <v>30536793</v>
+        <v>2809592</v>
       </c>
       <c r="I114" t="n">
-        <v>807.916</v>
+        <v>958.734</v>
       </c>
       <c r="J114" t="n">
-        <v>158865</v>
+        <v>4616</v>
       </c>
       <c r="K114" t="n">
-        <v>4.203</v>
+        <v>1.575</v>
       </c>
       <c r="L114" t="n">
-        <v>151369</v>
+        <v>5304</v>
       </c>
       <c r="M114" t="n">
-        <v>4.005</v>
+        <v>1.81</v>
       </c>
       <c r="N114"/>
       <c r="O114"/>
       <c r="P114" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="Q114" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="R114" t="s">
         <v>31</v>
       </c>
       <c r="S114" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="B115" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44595</v>
-      </c>
-      <c r="D115"/>
-      <c r="E115"/>
+        <v>44596</v>
+      </c>
+      <c r="D115" t="s">
+        <v>659</v>
+      </c>
+      <c r="E115" t="s">
+        <v>660</v>
+      </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>673</v>
+        <v>412</v>
       </c>
       <c r="H115" t="n">
-        <v>31197805</v>
+        <v>19544993</v>
       </c>
       <c r="I115" t="n">
-        <v>825.404</v>
+        <v>1021.812</v>
       </c>
       <c r="J115" t="n">
-        <v>164121</v>
+        <v>101435</v>
       </c>
       <c r="K115" t="n">
-        <v>4.342</v>
+        <v>5.303</v>
       </c>
       <c r="L115" t="n">
-        <v>155701</v>
+        <v>92024</v>
       </c>
       <c r="M115" t="n">
-        <v>4.119</v>
+        <v>4.811</v>
       </c>
       <c r="N115" t="n">
-        <v>0.3123</v>
+        <v>0.3264</v>
       </c>
       <c r="O115" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P115" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="Q115" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="R115" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="S115" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="B116" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="D116" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="E116" t="s">
-        <v>42</v>
+        <v>667</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="H116" t="n">
-        <v>35261065</v>
+        <v>259770678</v>
       </c>
       <c r="I116" t="n">
-        <v>3467.873</v>
+        <v>1780.324</v>
       </c>
       <c r="J116" t="n">
-        <v>239481</v>
+        <v>1118115</v>
       </c>
       <c r="K116" t="n">
-        <v>23.553</v>
+        <v>7.663</v>
       </c>
       <c r="L116" t="n">
-        <v>264554</v>
+        <v>910759</v>
       </c>
       <c r="M116" t="n">
-        <v>26.018</v>
+        <v>6.242</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1985</v>
+        <v>0.1479</v>
       </c>
       <c r="O116" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="P116" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="Q116" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="R116" t="s">
         <v>50</v>
       </c>
       <c r="S116" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="B117" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44496</v>
+        <v>44596</v>
       </c>
       <c r="D117" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="E117" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>588</v>
+        <v>543</v>
       </c>
       <c r="H117" t="n">
-        <v>2809592</v>
+        <v>4532257</v>
       </c>
       <c r="I117" t="n">
-        <v>958.734</v>
+        <v>341.374</v>
       </c>
       <c r="J117" t="n">
-        <v>4616</v>
+        <v>10048</v>
       </c>
       <c r="K117" t="n">
-        <v>1.575</v>
+        <v>0.757</v>
       </c>
       <c r="L117" t="n">
-        <v>5304</v>
+        <v>10946</v>
       </c>
       <c r="M117" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="N117"/>
-      <c r="O117"/>
+        <v>0.824</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="O117" t="n">
+        <v>203.8</v>
+      </c>
       <c r="P117" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="Q117" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="R117" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="S117" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="B118" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="D118" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="E118" t="s">
-        <v>667</v>
+        <v>42</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>411</v>
+        <v>119</v>
       </c>
       <c r="H118" t="n">
-        <v>19443558</v>
+        <v>65435</v>
       </c>
       <c r="I118" t="n">
-        <v>1016.509</v>
+        <v>1222.033</v>
       </c>
       <c r="J118" t="n">
-        <v>102045</v>
+        <v>87</v>
       </c>
       <c r="K118" t="n">
-        <v>5.335</v>
+        <v>1.625</v>
       </c>
       <c r="L118" t="n">
-        <v>91958</v>
+        <v>63</v>
       </c>
       <c r="M118" t="n">
-        <v>4.808</v>
+        <v>1.177</v>
       </c>
       <c r="N118" t="n">
-        <v>0.3265</v>
+        <v>0.1723</v>
       </c>
       <c r="O118" t="n">
-        <v>3.1</v>
+        <v>5.8</v>
       </c>
       <c r="P118" t="s">
-        <v>668</v>
+        <v>42</v>
       </c>
       <c r="Q118" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="R118" t="s">
-        <v>50</v>
+        <v>279</v>
       </c>
       <c r="S118" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="B119" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44596</v>
+        <v>44598</v>
       </c>
       <c r="D119" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="E119" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>541</v>
+        <v>34</v>
       </c>
       <c r="H119" t="n">
-        <v>259770678</v>
+        <v>97377</v>
       </c>
       <c r="I119" t="n">
-        <v>1780.324</v>
+        <v>875.149</v>
       </c>
       <c r="J119" t="n">
-        <v>1118115</v>
+        <v>28</v>
       </c>
       <c r="K119" t="n">
-        <v>7.663</v>
+        <v>0.252</v>
       </c>
       <c r="L119" t="n">
-        <v>910759</v>
+        <v>33</v>
       </c>
       <c r="M119" t="n">
-        <v>6.242</v>
+        <v>0.297</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
       <c r="P119" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="Q119" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="R119" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S119" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="B120" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="D120" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="E120" t="s">
-        <v>680</v>
+        <v>42</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>543</v>
+        <v>704</v>
       </c>
       <c r="H120" t="n">
-        <v>4532257</v>
+        <v>38442632</v>
       </c>
       <c r="I120" t="n">
-        <v>341.374</v>
+        <v>1087.773</v>
       </c>
       <c r="J120" t="n">
-        <v>10048</v>
+        <v>133542</v>
       </c>
       <c r="K120" t="n">
-        <v>0.757</v>
+        <v>3.779</v>
       </c>
       <c r="L120" t="n">
-        <v>10946</v>
+        <v>139622</v>
       </c>
       <c r="M120" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="N120"/>
-      <c r="O120"/>
+        <v>3.951</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.0287</v>
+      </c>
+      <c r="O120" t="n">
+        <v>34.8</v>
+      </c>
       <c r="P120" t="s">
-        <v>680</v>
+        <v>42</v>
       </c>
       <c r="Q120" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="R120" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="S120" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="B121" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="D121" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="E121" t="s">
-        <v>42</v>
+        <v>694</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>119</v>
+        <v>703</v>
       </c>
       <c r="H121" t="n">
-        <v>65435</v>
+        <v>998162</v>
       </c>
       <c r="I121" t="n">
-        <v>1222.033</v>
+        <v>58.045</v>
       </c>
       <c r="J121" t="n">
-        <v>87</v>
+        <v>1287</v>
       </c>
       <c r="K121" t="n">
-        <v>1.625</v>
+        <v>0.075</v>
       </c>
       <c r="L121" t="n">
-        <v>63</v>
+        <v>1410</v>
       </c>
       <c r="M121" t="n">
-        <v>1.177</v>
-      </c>
-      <c r="N121"/>
-      <c r="O121"/>
+        <v>0.082</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.0413</v>
+      </c>
+      <c r="O121" t="n">
+        <v>24.2</v>
+      </c>
       <c r="P121" t="s">
-        <v>42</v>
+        <v>694</v>
       </c>
       <c r="Q121" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="R121" t="s">
-        <v>285</v>
+        <v>50</v>
       </c>
       <c r="S121" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="B122" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44591</v>
+        <v>44595</v>
       </c>
       <c r="D122" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="E122" t="s">
-        <v>691</v>
-      </c>
-      <c r="F122"/>
+        <v>42</v>
+      </c>
+      <c r="F122" t="s">
+        <v>699</v>
+      </c>
       <c r="G122" t="n">
-        <v>28</v>
+        <v>708</v>
       </c>
       <c r="H122" t="n">
-        <v>97148</v>
+        <v>8242567</v>
       </c>
       <c r="I122" t="n">
-        <v>873.091</v>
-      </c>
-      <c r="J122"/>
-      <c r="K122"/>
+        <v>1199.521</v>
+      </c>
+      <c r="J122" t="n">
+        <v>34132</v>
+      </c>
+      <c r="K122" t="n">
+        <v>4.967</v>
+      </c>
       <c r="L122" t="n">
-        <v>91</v>
+        <v>33177</v>
       </c>
       <c r="M122" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="N122"/>
-      <c r="O122"/>
+        <v>4.828</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.4905</v>
+      </c>
+      <c r="O122" t="n">
+        <v>2</v>
+      </c>
       <c r="P122" t="s">
-        <v>691</v>
+        <v>42</v>
       </c>
       <c r="Q122" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="R122" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S122" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="B123" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44595</v>
+        <v>44592</v>
       </c>
       <c r="D123" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="E123" t="s">
-        <v>42</v>
+        <v>705</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>704</v>
-      </c>
-      <c r="H123" t="n">
-        <v>38442632</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1087.773</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H123"/>
+      <c r="I123"/>
       <c r="J123" t="n">
-        <v>133542</v>
+        <v>228300</v>
       </c>
       <c r="K123" t="n">
-        <v>3.779</v>
+        <v>41.862</v>
       </c>
       <c r="L123" t="n">
-        <v>139622</v>
+        <v>228300</v>
       </c>
       <c r="M123" t="n">
-        <v>3.951</v>
+        <v>41.862</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0287</v>
+        <v>0.0225</v>
       </c>
       <c r="O123" t="n">
-        <v>34.8</v>
+        <v>44.3</v>
       </c>
       <c r="P123" t="s">
         <v>42</v>
       </c>
       <c r="Q123" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="R123" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="S123" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="B124" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44595</v>
+        <v>44592</v>
       </c>
       <c r="D124" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="E124" t="s">
-        <v>701</v>
+        <v>42</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="H124" t="n">
-        <v>998162</v>
+        <v>47827860</v>
       </c>
       <c r="I124" t="n">
-        <v>58.045</v>
+        <v>8776.93</v>
       </c>
       <c r="J124" t="n">
-        <v>1287</v>
+        <v>31960</v>
       </c>
       <c r="K124" t="n">
-        <v>0.075</v>
+        <v>5.865</v>
       </c>
       <c r="L124" t="n">
-        <v>1410</v>
+        <v>54468</v>
       </c>
       <c r="M124" t="n">
-        <v>0.082</v>
+        <v>9.995</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0413</v>
+        <v>0.282</v>
       </c>
       <c r="O124" t="n">
-        <v>24.2</v>
+        <v>3.5</v>
       </c>
       <c r="P124" t="s">
-        <v>701</v>
+        <v>42</v>
       </c>
       <c r="Q124" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="R124" t="s">
         <v>50</v>
       </c>
       <c r="S124" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="B125" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="D125" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="E125" t="s">
-        <v>42</v>
-      </c>
-      <c r="F125" t="s">
-        <v>706</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="F125"/>
       <c r="G125" t="n">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="H125" t="n">
-        <v>8242567</v>
+        <v>2516935</v>
       </c>
       <c r="I125" t="n">
-        <v>1199.521</v>
+        <v>1210.808</v>
       </c>
       <c r="J125" t="n">
-        <v>34132</v>
+        <v>8719</v>
       </c>
       <c r="K125" t="n">
-        <v>4.967</v>
+        <v>4.194</v>
       </c>
       <c r="L125" t="n">
-        <v>33177</v>
+        <v>16256</v>
       </c>
       <c r="M125" t="n">
-        <v>4.828</v>
+        <v>7.82</v>
       </c>
       <c r="N125" t="n">
-        <v>0.4905</v>
+        <v>0.74</v>
       </c>
       <c r="O125" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="P125" t="s">
-        <v>42</v>
+        <v>715</v>
       </c>
       <c r="Q125" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="R125" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S125" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="B126" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44592</v>
+        <v>44595</v>
       </c>
       <c r="D126" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="E126" t="s">
-        <v>712</v>
-      </c>
-      <c r="F126"/>
+        <v>720</v>
+      </c>
+      <c r="F126" t="s">
+        <v>721</v>
+      </c>
       <c r="G126" t="n">
-        <v>70</v>
-      </c>
-      <c r="H126"/>
-      <c r="I126"/>
+        <v>696</v>
+      </c>
+      <c r="H126" t="n">
+        <v>22374263</v>
+      </c>
+      <c r="I126" t="n">
+        <v>372.644</v>
+      </c>
       <c r="J126" t="n">
-        <v>228300</v>
+        <v>30785</v>
       </c>
       <c r="K126" t="n">
-        <v>41.862</v>
+        <v>0.513</v>
       </c>
       <c r="L126" t="n">
-        <v>228300</v>
+        <v>30717</v>
       </c>
       <c r="M126" t="n">
-        <v>41.862</v>
+        <v>0.512</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0225</v>
+        <v>0.1003</v>
       </c>
       <c r="O126" t="n">
-        <v>44.3</v>
+        <v>10</v>
       </c>
       <c r="P126" t="s">
-        <v>42</v>
+        <v>722</v>
       </c>
       <c r="Q126" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="R126" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="S126" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="B127" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44592</v>
+        <v>44595</v>
       </c>
       <c r="D127" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="E127" t="s">
-        <v>42</v>
-      </c>
-      <c r="F127"/>
+        <v>727</v>
+      </c>
+      <c r="F127" t="s">
+        <v>728</v>
+      </c>
       <c r="G127" t="n">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="H127" t="n">
-        <v>47827860</v>
+        <v>52448304</v>
       </c>
       <c r="I127" t="n">
-        <v>8776.93</v>
+        <v>1022.281</v>
       </c>
       <c r="J127" t="n">
-        <v>31960</v>
+        <v>286476</v>
       </c>
       <c r="K127" t="n">
-        <v>5.865</v>
+        <v>5.584</v>
       </c>
       <c r="L127" t="n">
-        <v>54468</v>
+        <v>253479</v>
       </c>
       <c r="M127" t="n">
-        <v>9.995</v>
+        <v>4.941</v>
       </c>
       <c r="N127" t="n">
-        <v>0.282</v>
+        <v>0.0795</v>
       </c>
       <c r="O127" t="n">
-        <v>3.5</v>
+        <v>12.6</v>
       </c>
       <c r="P127" t="s">
-        <v>42</v>
+        <v>729</v>
       </c>
       <c r="Q127" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="R127" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S127" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="B128" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="D128" t="s">
-        <v>721</v>
+        <v>35</v>
       </c>
       <c r="E128" t="s">
-        <v>722</v>
+        <v>36</v>
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>714</v>
+        <v>150</v>
       </c>
       <c r="H128" t="n">
-        <v>2516935</v>
+        <v>324354</v>
       </c>
       <c r="I128" t="n">
-        <v>1210.808</v>
-      </c>
-      <c r="J128" t="n">
-        <v>8719</v>
-      </c>
-      <c r="K128" t="n">
-        <v>4.194</v>
-      </c>
+        <v>28.499</v>
+      </c>
+      <c r="J128"/>
+      <c r="K128"/>
       <c r="L128" t="n">
-        <v>16256</v>
+        <v>775</v>
       </c>
       <c r="M128" t="n">
-        <v>7.82</v>
+        <v>0.068</v>
       </c>
       <c r="N128" t="n">
-        <v>0.74</v>
+        <v>0.0098</v>
       </c>
       <c r="O128" t="n">
-        <v>1.4</v>
+        <v>102.4</v>
       </c>
       <c r="P128" t="s">
-        <v>722</v>
+        <v>36</v>
       </c>
       <c r="Q128" t="s">
-        <v>721</v>
+        <v>37</v>
       </c>
       <c r="R128" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S128" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="B129" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="D129" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="E129" t="s">
-        <v>727</v>
-      </c>
-      <c r="F129" t="s">
-        <v>728</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F129"/>
       <c r="G129" t="n">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="H129" t="n">
-        <v>22374263</v>
+        <v>82706689</v>
       </c>
       <c r="I129" t="n">
-        <v>372.644</v>
+        <v>1769.308</v>
       </c>
       <c r="J129" t="n">
-        <v>30785</v>
+        <v>202777</v>
       </c>
       <c r="K129" t="n">
-        <v>0.513</v>
+        <v>4.338</v>
       </c>
       <c r="L129" t="n">
-        <v>30717</v>
+        <v>213507</v>
       </c>
       <c r="M129" t="n">
-        <v>0.512</v>
+        <v>4.567</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1003</v>
+        <v>0.33</v>
       </c>
       <c r="O129" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P129" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="Q129" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="R129" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S129" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="B130" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>44595</v>
       </c>
       <c r="D130" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="E130" t="s">
-        <v>734</v>
-      </c>
-      <c r="F130" t="s">
-        <v>735</v>
-      </c>
+        <v>743</v>
+      </c>
+      <c r="F130"/>
       <c r="G130" t="n">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="H130" t="n">
-        <v>52448304</v>
+        <v>6137352</v>
       </c>
       <c r="I130" t="n">
-        <v>1022.281</v>
+        <v>285.494</v>
       </c>
       <c r="J130" t="n">
-        <v>286476</v>
+        <v>9662</v>
       </c>
       <c r="K130" t="n">
-        <v>5.584</v>
+        <v>0.449</v>
       </c>
       <c r="L130" t="n">
-        <v>253479</v>
+        <v>7893</v>
       </c>
       <c r="M130" t="n">
-        <v>4.941</v>
+        <v>0.367</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0795</v>
+        <v>0.1367</v>
       </c>
       <c r="O130" t="n">
-        <v>12.6</v>
+        <v>7.3</v>
       </c>
       <c r="P130" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="Q130" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="R130" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S130" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="B131" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="D131" t="s">
-        <v>35</v>
+        <v>747</v>
       </c>
       <c r="E131" t="s">
-        <v>36</v>
+        <v>748</v>
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="H131" t="n">
-        <v>324354</v>
+        <v>74221</v>
       </c>
       <c r="I131" t="n">
-        <v>28.499</v>
-      </c>
-      <c r="J131"/>
-      <c r="K131"/>
+        <v>125.416</v>
+      </c>
+      <c r="J131" t="n">
+        <v>774</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1.308</v>
+      </c>
       <c r="L131" t="n">
-        <v>775</v>
+        <v>555</v>
       </c>
       <c r="M131" t="n">
-        <v>0.068</v>
+        <v>0.938</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0098</v>
+        <v>0.417</v>
       </c>
       <c r="O131" t="n">
-        <v>102.4</v>
+        <v>2.4</v>
       </c>
       <c r="P131" t="s">
-        <v>36</v>
+        <v>748</v>
       </c>
       <c r="Q131" t="s">
-        <v>37</v>
+        <v>747</v>
       </c>
       <c r="R131" t="s">
         <v>24</v>
       </c>
       <c r="S131" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="B132" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44593</v>
+        <v>44591</v>
       </c>
       <c r="D132" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="E132" t="s">
-        <v>42</v>
+        <v>753</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>689</v>
+        <v>581</v>
       </c>
       <c r="H132" t="n">
-        <v>82706689</v>
+        <v>17362408</v>
       </c>
       <c r="I132" t="n">
-        <v>1769.308</v>
+        <v>1708.872</v>
       </c>
       <c r="J132" t="n">
-        <v>202777</v>
+        <v>77851</v>
       </c>
       <c r="K132" t="n">
-        <v>4.338</v>
+        <v>7.662</v>
       </c>
       <c r="L132" t="n">
-        <v>213507</v>
+        <v>77851</v>
       </c>
       <c r="M132" t="n">
-        <v>4.567</v>
+        <v>7.662</v>
       </c>
       <c r="N132" t="n">
-        <v>0.33</v>
+        <v>0.5256</v>
       </c>
       <c r="O132" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="P132" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="Q132" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="R132" t="s">
         <v>50</v>
       </c>
       <c r="S132" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="B133" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>44595</v>
       </c>
       <c r="D133" t="s">
-        <v>749</v>
+        <v>477</v>
       </c>
       <c r="E133" t="s">
-        <v>750</v>
+        <v>478</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>711</v>
+        <v>622</v>
       </c>
       <c r="H133" t="n">
-        <v>6137352</v>
+        <v>17353304</v>
       </c>
       <c r="I133" t="n">
-        <v>285.494</v>
+        <v>1991.087</v>
       </c>
       <c r="J133" t="n">
-        <v>9662</v>
+        <v>75919</v>
       </c>
       <c r="K133" t="n">
-        <v>0.449</v>
+        <v>8.711</v>
       </c>
       <c r="L133" t="n">
-        <v>7893</v>
+        <v>88133</v>
       </c>
       <c r="M133" t="n">
-        <v>0.367</v>
+        <v>10.112</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1367</v>
+        <v>0.4</v>
       </c>
       <c r="O133" t="n">
-        <v>7.3</v>
+        <v>2.5</v>
       </c>
       <c r="P133" t="s">
-        <v>750</v>
+        <v>478</v>
       </c>
       <c r="Q133" t="s">
-        <v>749</v>
+        <v>479</v>
       </c>
       <c r="R133" t="s">
         <v>50</v>
       </c>
       <c r="S133" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="B134" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="C134" s="1" t="n">
         <v>44596</v>
       </c>
       <c r="D134" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="E134" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>181</v>
+        <v>750</v>
       </c>
       <c r="H134" t="n">
-        <v>74221</v>
+        <v>5736511</v>
       </c>
       <c r="I134" t="n">
-        <v>125.416</v>
+        <v>240.474</v>
       </c>
       <c r="J134" t="n">
-        <v>774</v>
+        <v>12260</v>
       </c>
       <c r="K134" t="n">
-        <v>1.308</v>
+        <v>0.514</v>
       </c>
       <c r="L134" t="n">
-        <v>555</v>
+        <v>12301</v>
       </c>
       <c r="M134" t="n">
-        <v>0.938</v>
+        <v>0.516</v>
       </c>
       <c r="N134" t="n">
-        <v>0.417</v>
+        <v>0.0046</v>
       </c>
       <c r="O134" t="n">
-        <v>2.4</v>
+        <v>218</v>
       </c>
       <c r="P134" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="Q134" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="R134" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S134" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="B135" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44591</v>
+        <v>44576</v>
       </c>
       <c r="D135" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="E135" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>581</v>
+        <v>742</v>
       </c>
       <c r="H135" t="n">
-        <v>17362408</v>
+        <v>18593564</v>
       </c>
       <c r="I135" t="n">
-        <v>1708.872</v>
+        <v>265.809</v>
       </c>
       <c r="J135" t="n">
-        <v>77851</v>
+        <v>47053</v>
       </c>
       <c r="K135" t="n">
-        <v>7.662</v>
+        <v>0.673</v>
       </c>
       <c r="L135" t="n">
-        <v>77851</v>
+        <v>63144</v>
       </c>
       <c r="M135" t="n">
-        <v>7.662</v>
+        <v>0.903</v>
       </c>
       <c r="N135" t="n">
-        <v>0.5256</v>
+        <v>0.1435</v>
       </c>
       <c r="O135" t="n">
-        <v>1.9</v>
+        <v>7</v>
       </c>
       <c r="P135" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="Q135" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="R135" t="s">
         <v>50</v>
       </c>
       <c r="S135" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="B136" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44595</v>
+        <v>44489</v>
       </c>
       <c r="D136" t="s">
-        <v>483</v>
+        <v>774</v>
       </c>
       <c r="E136" t="s">
-        <v>484</v>
+        <v>42</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>622</v>
+        <v>24</v>
       </c>
       <c r="H136" t="n">
-        <v>17353304</v>
+        <v>211166</v>
       </c>
       <c r="I136" t="n">
-        <v>1991.087</v>
-      </c>
-      <c r="J136" t="n">
-        <v>75919</v>
-      </c>
-      <c r="K136" t="n">
-        <v>8.711</v>
-      </c>
+        <v>157.132</v>
+      </c>
+      <c r="J136"/>
+      <c r="K136"/>
       <c r="L136" t="n">
-        <v>88133</v>
+        <v>227</v>
       </c>
       <c r="M136" t="n">
-        <v>10.112</v>
+        <v>0.169</v>
       </c>
       <c r="N136" t="n">
-        <v>0.4</v>
+        <v>0.0352</v>
       </c>
       <c r="O136" t="n">
-        <v>2.5</v>
+        <v>28.4</v>
       </c>
       <c r="P136" t="s">
-        <v>484</v>
+        <v>42</v>
       </c>
       <c r="Q136" t="s">
-        <v>485</v>
+        <v>774</v>
       </c>
       <c r="R136" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S136" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="B137" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44596</v>
-      </c>
-      <c r="D137" t="s">
-        <v>769</v>
-      </c>
+        <v>44598</v>
+      </c>
+      <c r="D137"/>
       <c r="E137" t="s">
-        <v>770</v>
-      </c>
-      <c r="F137"/>
+        <v>778</v>
+      </c>
+      <c r="F137" t="s">
+        <v>779</v>
+      </c>
       <c r="G137" t="n">
-        <v>750</v>
+        <v>699</v>
       </c>
       <c r="H137" t="n">
-        <v>5736511</v>
+        <v>668848</v>
       </c>
       <c r="I137" t="n">
-        <v>240.474</v>
+        <v>78.89</v>
       </c>
       <c r="J137" t="n">
-        <v>12260</v>
+        <v>866</v>
       </c>
       <c r="K137" t="n">
-        <v>0.514</v>
+        <v>0.102</v>
       </c>
       <c r="L137" t="n">
-        <v>12301</v>
+        <v>885</v>
       </c>
       <c r="M137" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="N137"/>
-      <c r="O137"/>
+        <v>0.104</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="O137" t="n">
+        <v>60.7</v>
+      </c>
       <c r="P137" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="Q137" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="R137" t="s">
-        <v>31</v>
+        <v>781</v>
       </c>
       <c r="S137" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="B138" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44576</v>
+        <v>44475</v>
       </c>
       <c r="D138" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
       <c r="E138" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>742</v>
+        <v>504</v>
       </c>
       <c r="H138" t="n">
-        <v>18593564</v>
+        <v>357432</v>
       </c>
       <c r="I138" t="n">
-        <v>265.809</v>
+        <v>254.695</v>
       </c>
       <c r="J138" t="n">
-        <v>47053</v>
+        <v>954</v>
       </c>
       <c r="K138" t="n">
-        <v>0.673</v>
+        <v>0.68</v>
       </c>
       <c r="L138" t="n">
-        <v>63144</v>
+        <v>825</v>
       </c>
       <c r="M138" t="n">
-        <v>0.903</v>
+        <v>0.588</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1435</v>
+        <v>0.2345</v>
       </c>
       <c r="O138" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="P138" t="s">
-        <v>776</v>
+        <v>42</v>
       </c>
       <c r="Q138" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="R138" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S138" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="B139" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44489</v>
+        <v>44594</v>
       </c>
       <c r="D139" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="E139" t="s">
-        <v>42</v>
+        <v>791</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="H139" t="n">
-        <v>211166</v>
+        <v>4092366</v>
       </c>
       <c r="I139" t="n">
-        <v>157.132</v>
-      </c>
-      <c r="J139"/>
-      <c r="K139"/>
+        <v>342.866</v>
+      </c>
+      <c r="J139" t="n">
+        <v>15066</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1.262</v>
+      </c>
       <c r="L139" t="n">
-        <v>227</v>
+        <v>18607</v>
       </c>
       <c r="M139" t="n">
-        <v>0.169</v>
+        <v>1.559</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0352</v>
+        <v>0.3944</v>
       </c>
       <c r="O139" t="n">
-        <v>28.4</v>
+        <v>2.5</v>
       </c>
       <c r="P139" t="s">
-        <v>42</v>
+        <v>792</v>
       </c>
       <c r="Q139" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="R139" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S139" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="B140" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>44595</v>
       </c>
-      <c r="D140"/>
+      <c r="D140" t="s">
+        <v>797</v>
+      </c>
       <c r="E140" t="s">
-        <v>785</v>
-      </c>
-      <c r="F140" t="s">
-        <v>786</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="F140"/>
       <c r="G140" t="n">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="H140" t="n">
-        <v>666105</v>
+        <v>132963480</v>
       </c>
       <c r="I140" t="n">
-        <v>78.566</v>
+        <v>1563.49</v>
       </c>
       <c r="J140" t="n">
-        <v>974</v>
+        <v>455463</v>
       </c>
       <c r="K140" t="n">
-        <v>0.115</v>
+        <v>5.356</v>
       </c>
       <c r="L140" t="n">
-        <v>920</v>
+        <v>443931</v>
       </c>
       <c r="M140" t="n">
-        <v>0.109</v>
+        <v>5.22</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0152</v>
+        <v>0.2222</v>
       </c>
       <c r="O140" t="n">
-        <v>65.7</v>
+        <v>4.5</v>
       </c>
       <c r="P140" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
       <c r="Q140" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="R140" t="s">
-        <v>788</v>
+        <v>50</v>
       </c>
       <c r="S140" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>790</v>
+        <v>801</v>
       </c>
       <c r="B141" t="s">
-        <v>791</v>
+        <v>802</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>44475</v>
+        <v>44595</v>
       </c>
       <c r="D141" t="s">
-        <v>792</v>
+        <v>35</v>
       </c>
       <c r="E141" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>504</v>
+        <v>613</v>
       </c>
       <c r="H141" t="n">
-        <v>357432</v>
+        <v>2364426</v>
       </c>
       <c r="I141" t="n">
-        <v>254.695</v>
-      </c>
-      <c r="J141" t="n">
-        <v>954</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.68</v>
-      </c>
+        <v>50.175</v>
+      </c>
+      <c r="J141"/>
+      <c r="K141"/>
       <c r="L141" t="n">
-        <v>825</v>
+        <v>3431</v>
       </c>
       <c r="M141" t="n">
-        <v>0.588</v>
+        <v>0.073</v>
       </c>
       <c r="N141" t="n">
-        <v>0.2345</v>
+        <v>0.0329</v>
       </c>
       <c r="O141" t="n">
-        <v>4.3</v>
+        <v>30.4</v>
       </c>
       <c r="P141" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q141" t="s">
-        <v>793</v>
+        <v>37</v>
       </c>
       <c r="R141" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S141" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="B142" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="D142" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="E142" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>155</v>
+        <v>551</v>
       </c>
       <c r="H142" t="n">
-        <v>4092366</v>
+        <v>18404417</v>
       </c>
       <c r="I142" t="n">
-        <v>342.866</v>
+        <v>423.413</v>
       </c>
       <c r="J142" t="n">
-        <v>15066</v>
+        <v>96361</v>
       </c>
       <c r="K142" t="n">
-        <v>1.262</v>
+        <v>2.217</v>
       </c>
       <c r="L142" t="n">
-        <v>18607</v>
+        <v>79469</v>
       </c>
       <c r="M142" t="n">
-        <v>1.559</v>
+        <v>1.828</v>
       </c>
       <c r="N142" t="n">
-        <v>0.3944</v>
+        <v>0.4318</v>
       </c>
       <c r="O142" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="P142" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="Q142" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="R142" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S142" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="B143" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="C143" s="1" t="n">
         <v>44595</v>
       </c>
       <c r="D143" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="E143" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>679</v>
+        <v>706</v>
       </c>
       <c r="H143" t="n">
-        <v>132963480</v>
+        <v>126620885</v>
       </c>
       <c r="I143" t="n">
-        <v>1563.49</v>
+        <v>12673.389</v>
       </c>
       <c r="J143" t="n">
-        <v>455463</v>
+        <v>491658</v>
       </c>
       <c r="K143" t="n">
-        <v>5.356</v>
+        <v>49.21</v>
       </c>
       <c r="L143" t="n">
-        <v>443931</v>
+        <v>488078</v>
       </c>
       <c r="M143" t="n">
-        <v>5.22</v>
+        <v>48.851</v>
       </c>
       <c r="N143" t="n">
-        <v>0.2222</v>
+        <v>0.0046</v>
       </c>
       <c r="O143" t="n">
-        <v>4.5</v>
+        <v>217.6</v>
       </c>
       <c r="P143" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="Q143" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="R143" t="s">
         <v>50</v>
       </c>
       <c r="S143" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="B144" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="D144" t="s">
-        <v>35</v>
+        <v>817</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>818</v>
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>613</v>
+        <v>672</v>
       </c>
       <c r="H144" t="n">
-        <v>2364426</v>
+        <v>441603933</v>
       </c>
       <c r="I144" t="n">
-        <v>50.175</v>
-      </c>
-      <c r="J144"/>
-      <c r="K144"/>
+        <v>6474.456</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1388657</v>
+      </c>
+      <c r="K144" t="n">
+        <v>20.359</v>
+      </c>
       <c r="L144" t="n">
-        <v>3431</v>
+        <v>1254441</v>
       </c>
       <c r="M144" t="n">
-        <v>0.073</v>
+        <v>18.392</v>
       </c>
       <c r="N144" t="n">
-        <v>0.0329</v>
+        <v>0.0593</v>
       </c>
       <c r="O144" t="n">
-        <v>30.4</v>
+        <v>16.9</v>
       </c>
       <c r="P144" t="s">
-        <v>36</v>
+        <v>819</v>
       </c>
       <c r="Q144" t="s">
-        <v>37</v>
+        <v>820</v>
       </c>
       <c r="R144" t="s">
         <v>50</v>
       </c>
       <c r="S144" t="s">
-        <v>810</v>
+        <v>821</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="B145" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>44596</v>
+        <v>44592</v>
       </c>
       <c r="D145" t="s">
-        <v>813</v>
+        <v>824</v>
       </c>
       <c r="E145" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
       <c r="F145"/>
       <c r="G145" t="n">
-        <v>551</v>
+        <v>702</v>
       </c>
       <c r="H145" t="n">
-        <v>18404417</v>
+        <v>784731786</v>
       </c>
       <c r="I145" t="n">
-        <v>423.413</v>
+        <v>2357.153</v>
       </c>
       <c r="J145" t="n">
-        <v>96361</v>
+        <v>326579</v>
       </c>
       <c r="K145" t="n">
-        <v>2.217</v>
+        <v>0.981</v>
       </c>
       <c r="L145" t="n">
-        <v>79469</v>
+        <v>1249894</v>
       </c>
       <c r="M145" t="n">
-        <v>1.828</v>
-      </c>
-      <c r="N145"/>
-      <c r="O145"/>
+        <v>3.754</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="O145" t="n">
+        <v>5.4</v>
+      </c>
       <c r="P145" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
       <c r="Q145" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="R145" t="s">
-        <v>50</v>
+        <v>826</v>
       </c>
       <c r="S145" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="B146" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="C146" s="1" t="n">
         <v>44595</v>
       </c>
       <c r="D146" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="E146" t="s">
-        <v>820</v>
+        <v>216</v>
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="H146" t="n">
-        <v>126620885</v>
+        <v>5298718</v>
       </c>
       <c r="I146" t="n">
-        <v>12673.389</v>
+        <v>1520.369</v>
       </c>
       <c r="J146" t="n">
-        <v>491658</v>
+        <v>27460</v>
       </c>
       <c r="K146" t="n">
-        <v>49.21</v>
+        <v>7.879</v>
       </c>
       <c r="L146" t="n">
-        <v>488078</v>
+        <v>25560</v>
       </c>
       <c r="M146" t="n">
-        <v>48.851</v>
+        <v>7.334</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0046</v>
+        <v>0.3884</v>
       </c>
       <c r="O146" t="n">
-        <v>217.6</v>
+        <v>2.6</v>
       </c>
       <c r="P146" t="s">
-        <v>820</v>
+        <v>216</v>
       </c>
       <c r="Q146" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="R146" t="s">
         <v>50</v>
       </c>
       <c r="S146" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="B147" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44594</v>
+        <v>44592</v>
       </c>
       <c r="D147" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
       <c r="E147" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="F147"/>
       <c r="G147" t="n">
-        <v>672</v>
+        <v>237</v>
       </c>
       <c r="H147" t="n">
-        <v>441603933</v>
+        <v>37957209</v>
       </c>
       <c r="I147" t="n">
-        <v>6474.456</v>
-      </c>
-      <c r="J147" t="n">
-        <v>1388657</v>
-      </c>
-      <c r="K147" t="n">
-        <v>20.359</v>
-      </c>
+        <v>386.652</v>
+      </c>
+      <c r="J147"/>
+      <c r="K147"/>
       <c r="L147" t="n">
-        <v>1254441</v>
+        <v>38648</v>
       </c>
       <c r="M147" t="n">
-        <v>18.392</v>
+        <v>0.394</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0593</v>
+        <v>0.4434</v>
       </c>
       <c r="O147" t="n">
-        <v>16.9</v>
+        <v>2.3</v>
       </c>
       <c r="P147" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="Q147" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="R147" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="S147" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="B148" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>44590</v>
+        <v>44595</v>
       </c>
       <c r="D148" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="E148" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>700</v>
+        <v>661</v>
       </c>
       <c r="H148" t="n">
-        <v>783967326</v>
+        <v>3193875</v>
       </c>
       <c r="I148" t="n">
-        <v>2354.857</v>
+        <v>168.804</v>
       </c>
       <c r="J148" t="n">
-        <v>972253</v>
+        <v>3969</v>
       </c>
       <c r="K148" t="n">
-        <v>2.92</v>
+        <v>0.21</v>
       </c>
       <c r="L148" t="n">
-        <v>1498650</v>
+        <v>3595</v>
       </c>
       <c r="M148" t="n">
-        <v>4.502</v>
+        <v>0.19</v>
       </c>
       <c r="N148" t="n">
-        <v>0.201</v>
+        <v>0.0932</v>
       </c>
       <c r="O148" t="n">
-        <v>5</v>
+        <v>10.7</v>
       </c>
       <c r="P148" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="Q148" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="R148" t="s">
-        <v>833</v>
+        <v>50</v>
       </c>
       <c r="S148" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="B149" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="C149" s="1" t="n">
         <v>44595</v>
       </c>
       <c r="D149" t="s">
-        <v>837</v>
+        <v>35</v>
       </c>
       <c r="E149" t="s">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>684</v>
+        <v>634</v>
       </c>
       <c r="H149" t="n">
-        <v>5298718</v>
+        <v>1994516</v>
       </c>
       <c r="I149" t="n">
-        <v>1520.369</v>
-      </c>
-      <c r="J149" t="n">
-        <v>27460</v>
-      </c>
-      <c r="K149" t="n">
-        <v>7.879</v>
-      </c>
+        <v>132.156</v>
+      </c>
+      <c r="J149"/>
+      <c r="K149"/>
       <c r="L149" t="n">
-        <v>25560</v>
+        <v>22075</v>
       </c>
       <c r="M149" t="n">
-        <v>7.334</v>
+        <v>1.463</v>
       </c>
       <c r="N149" t="n">
-        <v>0.3884</v>
+        <v>0.007</v>
       </c>
       <c r="O149" t="n">
-        <v>2.6</v>
+        <v>143.9</v>
       </c>
       <c r="P149" t="s">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="Q149" t="s">
-        <v>837</v>
+        <v>37</v>
       </c>
       <c r="R149" t="s">
         <v>50</v>
       </c>
       <c r="S149" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>839</v>
-      </c>
-      <c r="B150" t="s">
-        <v>840</v>
-      </c>
-      <c r="C150" s="1" t="n">
-        <v>44592</v>
-      </c>
-      <c r="D150" t="s">
-        <v>841</v>
-      </c>
-      <c r="E150" t="s">
-        <v>842</v>
-      </c>
-      <c r="F150"/>
-      <c r="G150" t="n">
-        <v>237</v>
-      </c>
-      <c r="H150" t="n">
-        <v>37957209</v>
-      </c>
-      <c r="I150" t="n">
-        <v>386.652</v>
-      </c>
-      <c r="J150"/>
-      <c r="K150"/>
-      <c r="L150" t="n">
-        <v>38648</v>
-      </c>
-      <c r="M150" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0.4434</v>
-      </c>
-      <c r="O150" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P150" t="s">
-        <v>843</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>844</v>
-      </c>
-      <c r="R150" t="s">
-        <v>121</v>
-      </c>
-      <c r="S150" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>846</v>
-      </c>
-      <c r="B151" t="s">
         <v>847</v>
-      </c>
-      <c r="C151" s="1" t="n">
-        <v>44595</v>
-      </c>
-      <c r="D151" t="s">
-        <v>848</v>
-      </c>
-      <c r="E151" t="s">
-        <v>849</v>
-      </c>
-      <c r="F151"/>
-      <c r="G151" t="n">
-        <v>661</v>
-      </c>
-      <c r="H151" t="n">
-        <v>3193875</v>
-      </c>
-      <c r="I151" t="n">
-        <v>168.804</v>
-      </c>
-      <c r="J151" t="n">
-        <v>3969</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="L151" t="n">
-        <v>3595</v>
-      </c>
-      <c r="M151" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="N151" t="n">
-        <v>0.0932</v>
-      </c>
-      <c r="O151" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="P151" t="s">
-        <v>850</v>
-      </c>
-      <c r="Q151" t="s">
-        <v>848</v>
-      </c>
-      <c r="R151" t="s">
-        <v>50</v>
-      </c>
-      <c r="S151" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>852</v>
-      </c>
-      <c r="B152" t="s">
-        <v>853</v>
-      </c>
-      <c r="C152" s="1" t="n">
-        <v>44595</v>
-      </c>
-      <c r="D152" t="s">
-        <v>35</v>
-      </c>
-      <c r="E152" t="s">
-        <v>36</v>
-      </c>
-      <c r="F152"/>
-      <c r="G152" t="n">
-        <v>634</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1994516</v>
-      </c>
-      <c r="I152" t="n">
-        <v>132.156</v>
-      </c>
-      <c r="J152"/>
-      <c r="K152"/>
-      <c r="L152" t="n">
-        <v>22075</v>
-      </c>
-      <c r="M152" t="n">
-        <v>1.463</v>
-      </c>
-      <c r="N152" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="O152" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="P152" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q152" t="s">
-        <v>37</v>
-      </c>
-      <c r="R152" t="s">
-        <v>50</v>
-      </c>
-      <c r="S152" t="s">
-        <v>854</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="848">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -918,18 +918,6 @@
 The official dashboard provides testing figures since 13 March 2020. We have cross-checked a sample of the dashboard figures against the original press releases to ensure accuracy.
 It is unclear whether the reported figures include tests for which the results are pending.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source. See our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OWID_EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/owid/covid-19-data/tree/master/public/data/testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Our World in Data</t>
   </si>
   <si>
     <t xml:space="preserve">FRO</t>
@@ -5733,7 +5721,7 @@
         <v>275</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44593</v>
+        <v>44598</v>
       </c>
       <c r="D48" t="s">
         <v>276</v>
@@ -5742,247 +5730,267 @@
         <v>277</v>
       </c>
       <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
+      <c r="G48" t="n">
+        <v>22</v>
+      </c>
+      <c r="H48" t="n">
+        <v>759129</v>
+      </c>
+      <c r="I48" t="n">
+        <v>15475.69</v>
+      </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>7039657</v>
-      </c>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48"/>
+        <v>1698</v>
+      </c>
+      <c r="M48" t="n">
+        <v>34.616</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.4128</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P48" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>278</v>
+      </c>
+      <c r="R48" t="s">
+        <v>279</v>
+      </c>
+      <c r="S48" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B49" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>44598</v>
       </c>
       <c r="D49" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E49" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>22</v>
+        <v>545</v>
       </c>
       <c r="H49" t="n">
-        <v>759129</v>
+        <v>493403</v>
       </c>
       <c r="I49" t="n">
-        <v>15475.69</v>
+        <v>546.465</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>1698</v>
+        <v>181</v>
       </c>
       <c r="M49" t="n">
-        <v>34.616</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0.4128</v>
-      </c>
-      <c r="O49" t="n">
-        <v>2.4</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="N49"/>
+      <c r="O49"/>
       <c r="P49" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q49" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="R49" t="s">
-        <v>283</v>
+        <v>50</v>
       </c>
       <c r="S49" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B50" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="D50" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E50" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>545</v>
+        <v>710</v>
       </c>
       <c r="H50" t="n">
-        <v>493403</v>
+        <v>9571370</v>
       </c>
       <c r="I50" t="n">
-        <v>546.465</v>
-      </c>
-      <c r="J50"/>
-      <c r="K50"/>
+        <v>1725.081</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2984</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.538</v>
+      </c>
       <c r="L50" t="n">
-        <v>181</v>
+        <v>12647</v>
       </c>
       <c r="M50" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N50"/>
-      <c r="O50"/>
+        <v>2.279</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2.3</v>
+      </c>
       <c r="P50" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q50" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="R50" t="s">
         <v>50</v>
       </c>
       <c r="S50" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B51" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44597</v>
+        <v>44595</v>
       </c>
       <c r="D51" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E51" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>710</v>
+        <v>632</v>
       </c>
       <c r="H51" t="n">
-        <v>9571370</v>
+        <v>237534445</v>
       </c>
       <c r="I51" t="n">
-        <v>1725.081</v>
+        <v>3523.1</v>
       </c>
       <c r="J51" t="n">
-        <v>2984</v>
+        <v>803204</v>
       </c>
       <c r="K51" t="n">
-        <v>0.538</v>
+        <v>11.913</v>
       </c>
       <c r="L51" t="n">
-        <v>12647</v>
+        <v>885018</v>
       </c>
       <c r="M51" t="n">
-        <v>2.279</v>
+        <v>13.127</v>
       </c>
       <c r="N51" t="n">
-        <v>0.427</v>
+        <v>0.336</v>
       </c>
       <c r="O51" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="P51" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q51" t="s">
         <v>296</v>
       </c>
       <c r="R51" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S51" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B52" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44595</v>
+        <v>44597</v>
       </c>
       <c r="D52" t="s">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="E52" t="s">
-        <v>301</v>
+        <v>36</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>632</v>
+        <v>49</v>
       </c>
       <c r="H52" t="n">
-        <v>237534445</v>
+        <v>1548158</v>
       </c>
       <c r="I52" t="n">
-        <v>3523.1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>803204</v>
-      </c>
-      <c r="K52" t="n">
-        <v>11.913</v>
-      </c>
+        <v>679.366</v>
+      </c>
+      <c r="J52"/>
+      <c r="K52"/>
       <c r="L52" t="n">
-        <v>885018</v>
+        <v>1666</v>
       </c>
       <c r="M52" t="n">
-        <v>13.127</v>
+        <v>0.731</v>
       </c>
       <c r="N52" t="n">
-        <v>0.336</v>
+        <v>0.045</v>
       </c>
       <c r="O52" t="n">
-        <v>3</v>
+        <v>22.2</v>
       </c>
       <c r="P52" t="s">
         <v>301</v>
       </c>
       <c r="Q52" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="R52" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S52" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B53" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44597</v>
+        <v>44593</v>
       </c>
       <c r="D53" t="s">
         <v>35</v>
@@ -5992,882 +6000,886 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="H53" t="n">
-        <v>1548158</v>
+        <v>139940</v>
       </c>
       <c r="I53" t="n">
-        <v>679.366</v>
+        <v>56.27</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53" t="n">
-        <v>1666</v>
+        <v>289</v>
       </c>
       <c r="M53" t="n">
-        <v>0.731</v>
+        <v>0.116</v>
       </c>
       <c r="N53" t="n">
-        <v>0.045</v>
+        <v>0.1438</v>
       </c>
       <c r="O53" t="n">
-        <v>22.2</v>
+        <v>7</v>
       </c>
       <c r="P53" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q53" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="R53" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="S53" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B54" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44593</v>
+        <v>44596</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
+        <v>311</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>312</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>70</v>
+        <v>408</v>
       </c>
       <c r="H54" t="n">
-        <v>139940</v>
+        <v>12580815</v>
       </c>
       <c r="I54" t="n">
-        <v>56.27</v>
-      </c>
-      <c r="J54"/>
-      <c r="K54"/>
+        <v>3161.189</v>
+      </c>
+      <c r="J54" t="n">
+        <v>73821</v>
+      </c>
+      <c r="K54" t="n">
+        <v>18.549</v>
+      </c>
       <c r="L54" t="n">
-        <v>289</v>
+        <v>50125</v>
       </c>
       <c r="M54" t="n">
-        <v>0.116</v>
+        <v>12.595</v>
       </c>
       <c r="N54" t="n">
-        <v>0.1438</v>
+        <v>0.4136</v>
       </c>
       <c r="O54" t="n">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="P54" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q54" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="R54" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="S54" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B55" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44596</v>
+        <v>44591</v>
       </c>
       <c r="D55" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E55" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>408</v>
+        <v>99</v>
       </c>
       <c r="H55" t="n">
-        <v>12580815</v>
+        <v>102009068</v>
       </c>
       <c r="I55" t="n">
-        <v>3161.189</v>
-      </c>
-      <c r="J55" t="n">
-        <v>73821</v>
-      </c>
-      <c r="K55" t="n">
-        <v>18.549</v>
-      </c>
+        <v>1215.834</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55"/>
       <c r="L55" t="n">
-        <v>50125</v>
+        <v>362625</v>
       </c>
       <c r="M55" t="n">
-        <v>12.595</v>
+        <v>4.322</v>
       </c>
       <c r="N55" t="n">
-        <v>0.4136</v>
+        <v>0.406</v>
       </c>
       <c r="O55" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P55" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q55" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R55" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="S55" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B56" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44591</v>
+        <v>44595</v>
       </c>
       <c r="D56" t="s">
-        <v>321</v>
+        <v>35</v>
       </c>
       <c r="E56" t="s">
-        <v>322</v>
+        <v>36</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>99</v>
+        <v>492</v>
       </c>
       <c r="H56" t="n">
-        <v>102009068</v>
+        <v>2250718</v>
       </c>
       <c r="I56" t="n">
-        <v>1215.834</v>
+        <v>70.929</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56" t="n">
-        <v>362625</v>
+        <v>4031</v>
       </c>
       <c r="M56" t="n">
-        <v>4.322</v>
+        <v>0.127</v>
       </c>
       <c r="N56" t="n">
-        <v>0.406</v>
+        <v>0.0293</v>
       </c>
       <c r="O56" t="n">
-        <v>2.5</v>
+        <v>34.1</v>
       </c>
       <c r="P56" t="s">
-        <v>322</v>
+        <v>36</v>
       </c>
       <c r="Q56" t="s">
+        <v>37</v>
+      </c>
+      <c r="R56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S56" t="s">
         <v>323</v>
-      </c>
-      <c r="R56" t="s">
-        <v>50</v>
-      </c>
-      <c r="S56" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>324</v>
+      </c>
+      <c r="B57" t="s">
         <v>325</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="1" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D57" t="s">
         <v>326</v>
       </c>
-      <c r="C57" s="1" t="n">
-        <v>44595</v>
-      </c>
-      <c r="D57" t="s">
-        <v>35</v>
-      </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>327</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>492</v>
+        <v>631</v>
       </c>
       <c r="H57" t="n">
-        <v>2250718</v>
+        <v>59048121</v>
       </c>
       <c r="I57" t="n">
-        <v>70.929</v>
+        <v>5693.719</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57" t="n">
-        <v>4031</v>
+        <v>300121</v>
       </c>
       <c r="M57" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.0293</v>
-      </c>
-      <c r="O57" t="n">
-        <v>34.1</v>
-      </c>
+        <v>28.939</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57"/>
       <c r="P57" t="s">
-        <v>36</v>
+        <v>328</v>
       </c>
       <c r="Q57" t="s">
-        <v>37</v>
+        <v>329</v>
       </c>
       <c r="R57" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="S57" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B58" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="D58" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E58" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>631</v>
+        <v>706</v>
       </c>
       <c r="H58" t="n">
-        <v>59048121</v>
+        <v>2025880</v>
       </c>
       <c r="I58" t="n">
-        <v>5693.719</v>
-      </c>
-      <c r="J58"/>
-      <c r="K58"/>
+        <v>111.008</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4350</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.238</v>
+      </c>
       <c r="L58" t="n">
-        <v>300121</v>
+        <v>6400</v>
       </c>
       <c r="M58" t="n">
-        <v>28.939</v>
-      </c>
-      <c r="N58"/>
-      <c r="O58"/>
+        <v>0.351</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.4818</v>
+      </c>
+      <c r="O58" t="n">
+        <v>2.1</v>
+      </c>
       <c r="P58" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q58" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="R58" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="S58" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B59" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44597</v>
+        <v>44582</v>
       </c>
       <c r="D59" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E59" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>706</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
-        <v>2025880</v>
+        <v>442695</v>
       </c>
       <c r="I59" t="n">
-        <v>111.008</v>
-      </c>
-      <c r="J59" t="n">
-        <v>4350</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.238</v>
-      </c>
+        <v>560.14</v>
+      </c>
+      <c r="J59"/>
+      <c r="K59"/>
       <c r="L59" t="n">
-        <v>6400</v>
+        <v>2771</v>
       </c>
       <c r="M59" t="n">
-        <v>0.351</v>
+        <v>3.506</v>
       </c>
       <c r="N59" t="n">
-        <v>0.4818</v>
+        <v>0.3388</v>
       </c>
       <c r="O59" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="P59" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q59" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="R59" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S59" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B60" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44582</v>
+        <v>44568</v>
       </c>
       <c r="D60" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E60" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>442695</v>
+        <v>155805</v>
       </c>
       <c r="I60" t="n">
-        <v>560.14</v>
+        <v>13.499</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
-      <c r="L60" t="n">
-        <v>2771</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3.506</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.3388</v>
-      </c>
-      <c r="O60" t="n">
-        <v>3</v>
-      </c>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
       <c r="P60" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q60" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="R60" t="s">
         <v>24</v>
       </c>
       <c r="S60" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B61" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44568</v>
+        <v>44594</v>
       </c>
       <c r="D61" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E61" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H61" t="n">
-        <v>155805</v>
+        <v>34860499</v>
       </c>
       <c r="I61" t="n">
-        <v>13.499</v>
+        <v>4615.573</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
+      <c r="L61" t="n">
+        <v>138852</v>
+      </c>
+      <c r="M61" t="n">
+        <v>18.384</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1136.4</v>
+      </c>
       <c r="P61" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q61" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="R61" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="S61" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B62" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44594</v>
+        <v>44599</v>
       </c>
       <c r="D62" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E62" t="s">
-        <v>357</v>
-      </c>
-      <c r="F62"/>
+        <v>360</v>
+      </c>
+      <c r="F62" t="s">
+        <v>361</v>
+      </c>
       <c r="G62" t="n">
-        <v>28</v>
+        <v>631</v>
       </c>
       <c r="H62" t="n">
-        <v>34860499</v>
+        <v>9869298</v>
       </c>
       <c r="I62" t="n">
-        <v>4615.573</v>
-      </c>
-      <c r="J62"/>
-      <c r="K62"/>
+        <v>1024.406</v>
+      </c>
+      <c r="J62" t="n">
+        <v>112690</v>
+      </c>
+      <c r="K62" t="n">
+        <v>11.697</v>
+      </c>
       <c r="L62" t="n">
-        <v>138852</v>
+        <v>35541</v>
       </c>
       <c r="M62" t="n">
-        <v>18.384</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1136.4</v>
-      </c>
+        <v>3.689</v>
+      </c>
+      <c r="N62"/>
+      <c r="O62"/>
       <c r="P62" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q62" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="R62" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="S62" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B63" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44599</v>
+        <v>44595</v>
       </c>
       <c r="D63" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E63" t="s">
-        <v>364</v>
-      </c>
-      <c r="F63" t="s">
-        <v>365</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="F63"/>
       <c r="G63" t="n">
-        <v>631</v>
+        <v>707</v>
       </c>
       <c r="H63" t="n">
-        <v>9869298</v>
+        <v>1053756</v>
       </c>
       <c r="I63" t="n">
-        <v>1024.406</v>
+        <v>2857.318</v>
       </c>
       <c r="J63" t="n">
-        <v>112690</v>
+        <v>4265</v>
       </c>
       <c r="K63" t="n">
-        <v>11.697</v>
+        <v>11.565</v>
       </c>
       <c r="L63" t="n">
-        <v>35541</v>
+        <v>4239</v>
       </c>
       <c r="M63" t="n">
-        <v>3.689</v>
+        <v>11.494</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
       <c r="P63" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q63" t="s">
         <v>366</v>
       </c>
       <c r="R63" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="S63" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B64" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44595</v>
+        <v>44599</v>
       </c>
       <c r="D64" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E64" t="s">
-        <v>371</v>
-      </c>
-      <c r="F64"/>
+        <v>372</v>
+      </c>
+      <c r="F64" t="s">
+        <v>373</v>
+      </c>
       <c r="G64" t="n">
-        <v>707</v>
+        <v>679</v>
       </c>
       <c r="H64" t="n">
-        <v>1053756</v>
+        <v>741561587</v>
       </c>
       <c r="I64" t="n">
-        <v>2857.318</v>
+        <v>532.192</v>
       </c>
       <c r="J64" t="n">
-        <v>4265</v>
+        <v>1374446</v>
       </c>
       <c r="K64" t="n">
-        <v>11.565</v>
+        <v>0.986</v>
       </c>
       <c r="L64" t="n">
-        <v>4239</v>
+        <v>1794825</v>
       </c>
       <c r="M64" t="n">
-        <v>11.494</v>
+        <v>1.288</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q64" t="s">
         <v>371</v>
       </c>
-      <c r="Q64" t="s">
-        <v>370</v>
-      </c>
       <c r="R64" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="S64" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B65" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="D65" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E65" t="s">
-        <v>376</v>
-      </c>
-      <c r="F65" t="s">
-        <v>377</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="F65"/>
       <c r="G65" t="n">
-        <v>679</v>
+        <v>328</v>
       </c>
       <c r="H65" t="n">
-        <v>741561587</v>
+        <v>50201467</v>
       </c>
       <c r="I65" t="n">
-        <v>532.192</v>
+        <v>181.651</v>
       </c>
       <c r="J65" t="n">
-        <v>1374446</v>
+        <v>265559</v>
       </c>
       <c r="K65" t="n">
-        <v>0.986</v>
+        <v>0.961</v>
       </c>
       <c r="L65" t="n">
-        <v>1794825</v>
+        <v>265432</v>
       </c>
       <c r="M65" t="n">
-        <v>1.288</v>
-      </c>
-      <c r="N65"/>
-      <c r="O65"/>
+        <v>0.96</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.0933</v>
+      </c>
+      <c r="O65" t="n">
+        <v>10.7</v>
+      </c>
       <c r="P65" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q65" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="R65" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="S65" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B66" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="D66" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E66" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>328</v>
+        <v>428</v>
       </c>
       <c r="H66" t="n">
-        <v>50201467</v>
+        <v>45505835</v>
       </c>
       <c r="I66" t="n">
-        <v>181.651</v>
-      </c>
-      <c r="J66" t="n">
-        <v>265559</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.961</v>
-      </c>
+        <v>535.182</v>
+      </c>
+      <c r="J66"/>
+      <c r="K66"/>
       <c r="L66" t="n">
-        <v>265432</v>
+        <v>102338</v>
       </c>
       <c r="M66" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0.0933</v>
-      </c>
-      <c r="O66" t="n">
-        <v>10.7</v>
-      </c>
+        <v>1.204</v>
+      </c>
+      <c r="N66"/>
+      <c r="O66"/>
       <c r="P66" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q66" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="R66" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S66" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B67" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="D67" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E67" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>428</v>
+        <v>550</v>
       </c>
       <c r="H67" t="n">
-        <v>45505835</v>
+        <v>17571087</v>
       </c>
       <c r="I67" t="n">
-        <v>535.182</v>
-      </c>
-      <c r="J67"/>
-      <c r="K67"/>
+        <v>426.697</v>
+      </c>
+      <c r="J67" t="n">
+        <v>17791</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.432</v>
+      </c>
       <c r="L67" t="n">
-        <v>102338</v>
+        <v>24254</v>
       </c>
       <c r="M67" t="n">
-        <v>1.204</v>
-      </c>
-      <c r="N67"/>
-      <c r="O67"/>
+        <v>0.589</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.2641</v>
+      </c>
+      <c r="O67" t="n">
+        <v>3.8</v>
+      </c>
       <c r="P67" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q67" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="R67" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="S67" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B68" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="D68" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E68" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>550</v>
+        <v>692</v>
       </c>
       <c r="H68" t="n">
-        <v>17571087</v>
+        <v>11062416</v>
       </c>
       <c r="I68" t="n">
-        <v>426.697</v>
+        <v>2220.074</v>
       </c>
       <c r="J68" t="n">
-        <v>17791</v>
+        <v>12611</v>
       </c>
       <c r="K68" t="n">
-        <v>0.432</v>
+        <v>2.531</v>
       </c>
       <c r="L68" t="n">
-        <v>24254</v>
+        <v>17360</v>
       </c>
       <c r="M68" t="n">
-        <v>0.589</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0.2641</v>
-      </c>
-      <c r="O68" t="n">
-        <v>3.8</v>
-      </c>
+        <v>3.484</v>
+      </c>
+      <c r="N68"/>
+      <c r="O68"/>
       <c r="P68" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q68" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="R68" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="S68" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B69" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="D69" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E69" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>692</v>
+        <v>718</v>
       </c>
       <c r="H69" t="n">
-        <v>11062416</v>
+        <v>46575313</v>
       </c>
       <c r="I69" t="n">
-        <v>2220.074</v>
+        <v>5012.949</v>
       </c>
       <c r="J69" t="n">
-        <v>12611</v>
+        <v>199776</v>
       </c>
       <c r="K69" t="n">
-        <v>2.531</v>
+        <v>21.502</v>
       </c>
       <c r="L69" t="n">
-        <v>17360</v>
+        <v>208548</v>
       </c>
       <c r="M69" t="n">
-        <v>3.484</v>
-      </c>
-      <c r="N69"/>
-      <c r="O69"/>
+        <v>22.446</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="O69" t="n">
+        <v>4</v>
+      </c>
       <c r="P69" t="s">
-        <v>402</v>
+        <v>42</v>
       </c>
       <c r="Q69" t="s">
         <v>403</v>
@@ -6876,281 +6888,281 @@
         <v>50</v>
       </c>
       <c r="S69" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B70" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>44598</v>
       </c>
       <c r="D70" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E70" t="s">
-        <v>408</v>
-      </c>
-      <c r="F70"/>
+        <v>409</v>
+      </c>
+      <c r="F70" t="s">
+        <v>410</v>
+      </c>
       <c r="G70" t="n">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H70" t="n">
-        <v>46575313</v>
+        <v>176176489</v>
       </c>
       <c r="I70" t="n">
-        <v>5012.949</v>
+        <v>2918.401</v>
       </c>
       <c r="J70" t="n">
-        <v>199776</v>
+        <v>686544</v>
       </c>
       <c r="K70" t="n">
-        <v>21.502</v>
+        <v>11.373</v>
       </c>
       <c r="L70" t="n">
-        <v>208548</v>
+        <v>860439</v>
       </c>
       <c r="M70" t="n">
-        <v>22.446</v>
+        <v>14.253</v>
       </c>
       <c r="N70" t="n">
-        <v>0.251</v>
+        <v>0.1156</v>
       </c>
       <c r="O70" t="n">
-        <v>4</v>
+        <v>8.7</v>
       </c>
       <c r="P70" t="s">
-        <v>42</v>
+        <v>411</v>
       </c>
       <c r="Q70" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="R70" t="s">
         <v>50</v>
       </c>
       <c r="S70" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B71" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="D71" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E71" t="s">
-        <v>413</v>
-      </c>
-      <c r="F71" t="s">
-        <v>414</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="F71"/>
       <c r="G71" t="n">
-        <v>713</v>
+        <v>478</v>
       </c>
       <c r="H71" t="n">
-        <v>176176489</v>
+        <v>808366</v>
       </c>
       <c r="I71" t="n">
-        <v>2918.401</v>
+        <v>271.86</v>
       </c>
       <c r="J71" t="n">
-        <v>686544</v>
+        <v>2058</v>
       </c>
       <c r="K71" t="n">
-        <v>11.373</v>
+        <v>0.692</v>
       </c>
       <c r="L71" t="n">
-        <v>860439</v>
+        <v>2023</v>
       </c>
       <c r="M71" t="n">
-        <v>14.253</v>
+        <v>0.68</v>
       </c>
       <c r="N71" t="n">
-        <v>0.1156</v>
+        <v>0.1931</v>
       </c>
       <c r="O71" t="n">
-        <v>8.7</v>
+        <v>5.2</v>
       </c>
       <c r="P71" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q71" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="R71" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="S71" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B72" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="D72" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E72" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>478</v>
+        <v>730</v>
       </c>
       <c r="H72" t="n">
-        <v>808366</v>
+        <v>33456153</v>
       </c>
       <c r="I72" t="n">
-        <v>271.86</v>
+        <v>265.418</v>
       </c>
       <c r="J72" t="n">
-        <v>2058</v>
+        <v>86512</v>
       </c>
       <c r="K72" t="n">
-        <v>0.692</v>
+        <v>0.686</v>
       </c>
       <c r="L72" t="n">
-        <v>2023</v>
+        <v>218179</v>
       </c>
       <c r="M72" t="n">
-        <v>0.68</v>
+        <v>1.731</v>
       </c>
       <c r="N72" t="n">
-        <v>0.1931</v>
+        <v>0.4137</v>
       </c>
       <c r="O72" t="n">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="P72" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q72" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="R72" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="S72" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B73" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="D73" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E73" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>730</v>
+        <v>319</v>
       </c>
       <c r="H73" t="n">
-        <v>33456153</v>
+        <v>15072131</v>
       </c>
       <c r="I73" t="n">
-        <v>265.418</v>
+        <v>1467.728</v>
       </c>
       <c r="J73" t="n">
-        <v>86512</v>
+        <v>58025</v>
       </c>
       <c r="K73" t="n">
-        <v>0.686</v>
+        <v>5.65</v>
       </c>
       <c r="L73" t="n">
-        <v>218179</v>
+        <v>53699</v>
       </c>
       <c r="M73" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0.4137</v>
-      </c>
-      <c r="O73" t="n">
-        <v>2.4</v>
-      </c>
+        <v>5.229</v>
+      </c>
+      <c r="N73"/>
+      <c r="O73"/>
       <c r="P73" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q73" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="R73" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S73" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B74" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44599</v>
+        <v>44355</v>
       </c>
       <c r="D74" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E74" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>319</v>
+        <v>447</v>
       </c>
       <c r="H74" t="n">
-        <v>15072131</v>
+        <v>11965068</v>
       </c>
       <c r="I74" t="n">
-        <v>1467.728</v>
+        <v>629.908</v>
       </c>
       <c r="J74" t="n">
-        <v>58025</v>
+        <v>52729</v>
       </c>
       <c r="K74" t="n">
-        <v>5.65</v>
+        <v>2.776</v>
       </c>
       <c r="L74" t="n">
-        <v>53699</v>
+        <v>39955</v>
       </c>
       <c r="M74" t="n">
-        <v>5.229</v>
-      </c>
-      <c r="N74"/>
-      <c r="O74"/>
+        <v>2.103</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O74" t="n">
+        <v>33.4</v>
+      </c>
       <c r="P74" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q74" t="s">
         <v>434</v>
@@ -7159,477 +7171,477 @@
         <v>50</v>
       </c>
       <c r="S74" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B75" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44355</v>
+        <v>44597</v>
       </c>
       <c r="D75" t="s">
-        <v>438</v>
+        <v>35</v>
       </c>
       <c r="E75" t="s">
-        <v>439</v>
+        <v>36</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>447</v>
+        <v>233</v>
       </c>
       <c r="H75" t="n">
-        <v>11965068</v>
+        <v>3240690</v>
       </c>
       <c r="I75" t="n">
-        <v>629.908</v>
-      </c>
-      <c r="J75" t="n">
-        <v>52729</v>
-      </c>
-      <c r="K75" t="n">
-        <v>2.776</v>
-      </c>
+        <v>58.937</v>
+      </c>
+      <c r="J75"/>
+      <c r="K75"/>
       <c r="L75" t="n">
-        <v>39955</v>
+        <v>3810</v>
       </c>
       <c r="M75" t="n">
-        <v>2.103</v>
+        <v>0.069</v>
       </c>
       <c r="N75" t="n">
-        <v>0.03</v>
+        <v>0.0303</v>
       </c>
       <c r="O75" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="P75" t="s">
-        <v>439</v>
+        <v>36</v>
       </c>
       <c r="Q75" t="s">
-        <v>438</v>
+        <v>37</v>
       </c>
       <c r="R75" t="s">
         <v>50</v>
       </c>
       <c r="S75" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>440</v>
+      </c>
+      <c r="B76" t="s">
         <v>441</v>
-      </c>
-      <c r="B76" t="s">
-        <v>442</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>44597</v>
       </c>
       <c r="D76" t="s">
-        <v>35</v>
+        <v>442</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>443</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>233</v>
+        <v>145</v>
       </c>
       <c r="H76" t="n">
-        <v>3240690</v>
+        <v>1697491</v>
       </c>
       <c r="I76" t="n">
-        <v>58.937</v>
-      </c>
-      <c r="J76"/>
-      <c r="K76"/>
+        <v>952.515</v>
+      </c>
+      <c r="J76" t="n">
+        <v>6969</v>
+      </c>
+      <c r="K76" t="n">
+        <v>3.911</v>
+      </c>
       <c r="L76" t="n">
-        <v>3810</v>
+        <v>9563</v>
       </c>
       <c r="M76" t="n">
-        <v>0.069</v>
+        <v>5.366</v>
       </c>
       <c r="N76" t="n">
-        <v>0.0303</v>
+        <v>0.2135</v>
       </c>
       <c r="O76" t="n">
-        <v>33</v>
+        <v>4.7</v>
       </c>
       <c r="P76" t="s">
-        <v>36</v>
+        <v>444</v>
       </c>
       <c r="Q76" t="s">
-        <v>37</v>
+        <v>442</v>
       </c>
       <c r="R76" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S76" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B77" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="D77" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E77" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>145</v>
+        <v>632</v>
       </c>
       <c r="H77" t="n">
-        <v>1697491</v>
+        <v>7142068</v>
       </c>
       <c r="I77" t="n">
-        <v>952.515</v>
+        <v>1649.99</v>
       </c>
       <c r="J77" t="n">
-        <v>6969</v>
+        <v>31464</v>
       </c>
       <c r="K77" t="n">
-        <v>3.911</v>
+        <v>7.269</v>
       </c>
       <c r="L77" t="n">
-        <v>9563</v>
+        <v>32706</v>
       </c>
       <c r="M77" t="n">
-        <v>5.366</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.2135</v>
-      </c>
-      <c r="O77" t="n">
-        <v>4.7</v>
-      </c>
+        <v>7.556</v>
+      </c>
+      <c r="N77"/>
+      <c r="O77"/>
       <c r="P77" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q77" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="R77" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="S77" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B78" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>44599</v>
       </c>
       <c r="D78" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E78" t="s">
-        <v>453</v>
+        <v>42</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>632</v>
+        <v>236</v>
       </c>
       <c r="H78" t="n">
-        <v>7142068</v>
+        <v>960971</v>
       </c>
       <c r="I78" t="n">
-        <v>1649.99</v>
+        <v>130.224</v>
       </c>
       <c r="J78" t="n">
-        <v>31464</v>
+        <v>2887</v>
       </c>
       <c r="K78" t="n">
-        <v>7.269</v>
+        <v>0.391</v>
       </c>
       <c r="L78" t="n">
-        <v>32706</v>
+        <v>1841</v>
       </c>
       <c r="M78" t="n">
-        <v>7.556</v>
+        <v>0.249</v>
       </c>
       <c r="N78"/>
       <c r="O78"/>
       <c r="P78" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q78" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="R78" t="s">
-        <v>50</v>
+        <v>279</v>
       </c>
       <c r="S78" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B79" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>44599</v>
       </c>
       <c r="D79" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E79" t="s">
-        <v>42</v>
-      </c>
-      <c r="F79"/>
+        <v>461</v>
+      </c>
+      <c r="F79" t="s">
+        <v>462</v>
+      </c>
       <c r="G79" t="n">
-        <v>236</v>
+        <v>710</v>
       </c>
       <c r="H79" t="n">
-        <v>960971</v>
+        <v>6207688</v>
       </c>
       <c r="I79" t="n">
-        <v>130.224</v>
+        <v>3325.071</v>
       </c>
       <c r="J79" t="n">
-        <v>2887</v>
+        <v>9396</v>
       </c>
       <c r="K79" t="n">
-        <v>0.391</v>
+        <v>5.033</v>
       </c>
       <c r="L79" t="n">
-        <v>1841</v>
+        <v>22407</v>
       </c>
       <c r="M79" t="n">
-        <v>0.249</v>
+        <v>12.002</v>
       </c>
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q79" t="s">
         <v>460</v>
       </c>
       <c r="R79" t="s">
-        <v>283</v>
+        <v>50</v>
       </c>
       <c r="S79" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B80" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44599</v>
+        <v>44370</v>
       </c>
       <c r="D80" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E80" t="s">
-        <v>465</v>
-      </c>
-      <c r="F80" t="s">
-        <v>466</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="F80"/>
       <c r="G80" t="n">
-        <v>710</v>
+        <v>26</v>
       </c>
       <c r="H80" t="n">
-        <v>6207688</v>
+        <v>4731376</v>
       </c>
       <c r="I80" t="n">
-        <v>3325.071</v>
-      </c>
-      <c r="J80" t="n">
-        <v>9396</v>
-      </c>
-      <c r="K80" t="n">
-        <v>5.033</v>
-      </c>
+        <v>698.962</v>
+      </c>
+      <c r="J80"/>
+      <c r="K80"/>
       <c r="L80" t="n">
-        <v>22407</v>
+        <v>14688</v>
       </c>
       <c r="M80" t="n">
-        <v>12.002</v>
+        <v>2.17</v>
       </c>
       <c r="N80"/>
       <c r="O80"/>
       <c r="P80" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q80" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="R80" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S80" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B81" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44370</v>
+        <v>44597</v>
       </c>
       <c r="D81" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E81" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>26</v>
-      </c>
-      <c r="H81" t="n">
-        <v>4731376</v>
-      </c>
-      <c r="I81" t="n">
-        <v>698.962</v>
-      </c>
-      <c r="J81"/>
-      <c r="K81"/>
-      <c r="L81" t="n">
-        <v>14688</v>
-      </c>
-      <c r="M81" t="n">
-        <v>2.17</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81" t="n">
+        <v>14735</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2.118</v>
+      </c>
+      <c r="L81"/>
+      <c r="M81"/>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q81" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="R81" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="S81" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B82" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44597</v>
+        <v>44571</v>
       </c>
       <c r="D82" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E82" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>534</v>
-      </c>
-      <c r="H82"/>
-      <c r="I82"/>
+        <v>598</v>
+      </c>
+      <c r="H82" t="n">
+        <v>90632</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2369.216</v>
+      </c>
       <c r="J82" t="n">
-        <v>14735</v>
+        <v>248</v>
       </c>
       <c r="K82" t="n">
-        <v>2.118</v>
-      </c>
-      <c r="L82"/>
-      <c r="M82"/>
-      <c r="N82"/>
-      <c r="O82"/>
+        <v>6.483</v>
+      </c>
+      <c r="L82" t="n">
+        <v>220</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5.751</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="O82" t="n">
+        <v>2.9</v>
+      </c>
       <c r="P82" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Q82" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="R82" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="S82" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B83" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44571</v>
+        <v>44598</v>
       </c>
       <c r="D83" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E83" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>598</v>
+        <v>689</v>
       </c>
       <c r="H83" t="n">
-        <v>90632</v>
+        <v>7785710</v>
       </c>
       <c r="I83" t="n">
-        <v>2369.216</v>
+        <v>2894.464</v>
       </c>
       <c r="J83" t="n">
-        <v>248</v>
+        <v>15560</v>
       </c>
       <c r="K83" t="n">
-        <v>6.483</v>
+        <v>5.785</v>
       </c>
       <c r="L83" t="n">
-        <v>220</v>
+        <v>28687</v>
       </c>
       <c r="M83" t="n">
-        <v>5.751</v>
+        <v>10.665</v>
       </c>
       <c r="N83" t="n">
-        <v>0.344</v>
+        <v>0.463</v>
       </c>
       <c r="O83" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="P83" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q83" t="s">
         <v>483</v>
@@ -7638,162 +7650,158 @@
         <v>50</v>
       </c>
       <c r="S83" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B84" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="D84" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E84" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>689</v>
+        <v>711</v>
       </c>
       <c r="H84" t="n">
-        <v>7785710</v>
+        <v>4011971</v>
       </c>
       <c r="I84" t="n">
-        <v>2894.464</v>
+        <v>6319.916</v>
       </c>
       <c r="J84" t="n">
-        <v>15560</v>
+        <v>4018</v>
       </c>
       <c r="K84" t="n">
-        <v>5.785</v>
+        <v>6.329</v>
       </c>
       <c r="L84" t="n">
-        <v>28687</v>
+        <v>4628</v>
       </c>
       <c r="M84" t="n">
-        <v>10.665</v>
+        <v>7.29</v>
       </c>
       <c r="N84" t="n">
-        <v>0.463</v>
+        <v>0.342</v>
       </c>
       <c r="O84" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="P84" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q84" t="s">
         <v>488</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>487</v>
       </c>
       <c r="R84" t="s">
         <v>50</v>
       </c>
       <c r="S84" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B85" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44597</v>
+        <v>44575</v>
       </c>
       <c r="D85" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E85" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>711</v>
+        <v>271</v>
       </c>
       <c r="H85" t="n">
-        <v>4011971</v>
+        <v>352115</v>
       </c>
       <c r="I85" t="n">
-        <v>6319.916</v>
-      </c>
-      <c r="J85" t="n">
-        <v>4018</v>
-      </c>
-      <c r="K85" t="n">
-        <v>6.329</v>
-      </c>
+        <v>12.386</v>
+      </c>
+      <c r="J85"/>
+      <c r="K85"/>
       <c r="L85" t="n">
-        <v>4628</v>
+        <v>1538</v>
       </c>
       <c r="M85" t="n">
-        <v>7.29</v>
+        <v>0.054</v>
       </c>
       <c r="N85" t="n">
-        <v>0.342</v>
+        <v>0.1548</v>
       </c>
       <c r="O85" t="n">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="P85" t="s">
-        <v>493</v>
+        <v>36</v>
       </c>
       <c r="Q85" t="s">
-        <v>492</v>
+        <v>37</v>
       </c>
       <c r="R85" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S85" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B86" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44575</v>
+        <v>44597</v>
       </c>
       <c r="D86" t="s">
-        <v>497</v>
+        <v>35</v>
       </c>
       <c r="E86" t="s">
-        <v>498</v>
+        <v>36</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H86" t="n">
-        <v>352115</v>
+        <v>532347</v>
       </c>
       <c r="I86" t="n">
-        <v>12.386</v>
+        <v>27.095</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86" t="n">
-        <v>1538</v>
+        <v>850</v>
       </c>
       <c r="M86" t="n">
-        <v>0.054</v>
+        <v>0.043</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1548</v>
+        <v>0.0682</v>
       </c>
       <c r="O86" t="n">
-        <v>6.5</v>
+        <v>14.7</v>
       </c>
       <c r="P86" t="s">
         <v>36</v>
@@ -7802,1807 +7810,1811 @@
         <v>37</v>
       </c>
       <c r="R86" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="S86" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>499</v>
+      </c>
+      <c r="B87" t="s">
         <v>500</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="D87" t="s">
         <v>501</v>
       </c>
-      <c r="C87" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D87" t="s">
-        <v>35</v>
-      </c>
       <c r="E87" t="s">
-        <v>36</v>
-      </c>
-      <c r="F87"/>
+        <v>502</v>
+      </c>
+      <c r="F87" t="s">
+        <v>503</v>
+      </c>
       <c r="G87" t="n">
-        <v>269</v>
+        <v>743</v>
       </c>
       <c r="H87" t="n">
-        <v>532347</v>
+        <v>45763421</v>
       </c>
       <c r="I87" t="n">
-        <v>27.095</v>
-      </c>
-      <c r="J87"/>
-      <c r="K87"/>
+        <v>1396.24</v>
+      </c>
+      <c r="J87" t="n">
+        <v>134443</v>
+      </c>
+      <c r="K87" t="n">
+        <v>4.102</v>
+      </c>
       <c r="L87" t="n">
-        <v>850</v>
+        <v>102080</v>
       </c>
       <c r="M87" t="n">
-        <v>0.043</v>
+        <v>3.114</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0682</v>
+        <v>0.0547</v>
       </c>
       <c r="O87" t="n">
-        <v>14.7</v>
+        <v>18.3</v>
       </c>
       <c r="P87" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q87" t="s">
-        <v>37</v>
+        <v>504</v>
       </c>
       <c r="R87" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S87" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B88" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44596</v>
+        <v>44598</v>
       </c>
       <c r="D88" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E88" t="s">
-        <v>506</v>
-      </c>
-      <c r="F88" t="s">
-        <v>507</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="F88"/>
       <c r="G88" t="n">
-        <v>743</v>
+        <v>674</v>
       </c>
       <c r="H88" t="n">
-        <v>45763421</v>
+        <v>2096109</v>
       </c>
       <c r="I88" t="n">
-        <v>1396.24</v>
+        <v>3855.835</v>
       </c>
       <c r="J88" t="n">
-        <v>134443</v>
+        <v>5792</v>
       </c>
       <c r="K88" t="n">
-        <v>4.102</v>
+        <v>10.655</v>
       </c>
       <c r="L88" t="n">
-        <v>102080</v>
+        <v>6111</v>
       </c>
       <c r="M88" t="n">
-        <v>3.114</v>
+        <v>11.241</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0547</v>
+        <v>0.3322</v>
       </c>
       <c r="O88" t="n">
-        <v>18.3</v>
+        <v>3</v>
       </c>
       <c r="P88" t="s">
-        <v>42</v>
+        <v>509</v>
       </c>
       <c r="Q88" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="R88" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="S88" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B89" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="D89" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E89" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>674</v>
+        <v>568</v>
       </c>
       <c r="H89" t="n">
-        <v>2096109</v>
+        <v>1702683</v>
       </c>
       <c r="I89" t="n">
-        <v>3855.835</v>
+        <v>3299.134</v>
       </c>
       <c r="J89" t="n">
-        <v>5792</v>
+        <v>1859</v>
       </c>
       <c r="K89" t="n">
-        <v>10.655</v>
+        <v>3.602</v>
       </c>
       <c r="L89" t="n">
-        <v>6111</v>
+        <v>2307</v>
       </c>
       <c r="M89" t="n">
-        <v>11.241</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.3322</v>
-      </c>
-      <c r="O89" t="n">
-        <v>3</v>
-      </c>
+        <v>4.47</v>
+      </c>
+      <c r="N89"/>
+      <c r="O89"/>
       <c r="P89" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="Q89" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="R89" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="S89" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B90" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="D90" t="s">
-        <v>518</v>
+        <v>35</v>
       </c>
       <c r="E90" t="s">
-        <v>519</v>
+        <v>36</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>568</v>
+        <v>136</v>
       </c>
       <c r="H90" t="n">
-        <v>1702683</v>
+        <v>844397</v>
       </c>
       <c r="I90" t="n">
-        <v>3299.134</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1859</v>
-      </c>
-      <c r="K90" t="n">
-        <v>3.602</v>
-      </c>
+        <v>176.833</v>
+      </c>
+      <c r="J90"/>
+      <c r="K90"/>
       <c r="L90" t="n">
-        <v>2307</v>
+        <v>2622</v>
       </c>
       <c r="M90" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="N90"/>
-      <c r="O90"/>
+        <v>0.549</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="O90" t="n">
+        <v>58.5</v>
+      </c>
       <c r="P90" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q90" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="R90" t="s">
         <v>50</v>
       </c>
       <c r="S90" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B91" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>44597</v>
       </c>
       <c r="D91" t="s">
-        <v>35</v>
+        <v>526</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>527</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>136</v>
+        <v>767</v>
       </c>
       <c r="H91" t="n">
-        <v>844397</v>
+        <v>13773683</v>
       </c>
       <c r="I91" t="n">
-        <v>176.833</v>
-      </c>
-      <c r="J91"/>
-      <c r="K91"/>
+        <v>105.738</v>
+      </c>
+      <c r="J91" t="n">
+        <v>4137</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.032</v>
+      </c>
       <c r="L91" t="n">
-        <v>2622</v>
+        <v>20743</v>
       </c>
       <c r="M91" t="n">
-        <v>0.549</v>
+        <v>0.159</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0171</v>
+        <v>0.603</v>
       </c>
       <c r="O91" t="n">
-        <v>58.5</v>
+        <v>1.7</v>
       </c>
       <c r="P91" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="Q91" t="s">
         <v>526</v>
       </c>
       <c r="R91" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S91" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B92" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="D92" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E92" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>767</v>
-      </c>
-      <c r="H92" t="n">
-        <v>13773683</v>
-      </c>
-      <c r="I92" t="n">
-        <v>105.738</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="H92"/>
+      <c r="I92"/>
       <c r="J92" t="n">
-        <v>4137</v>
+        <v>17</v>
       </c>
       <c r="K92" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="L92" t="n">
-        <v>20743</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.159</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="O92" t="n">
-        <v>1.7</v>
-      </c>
+        <v>0.004</v>
+      </c>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
       <c r="P92" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="Q92" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="R92" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S92" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B93" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44596</v>
+        <v>44599</v>
       </c>
       <c r="D93" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E93" t="s">
-        <v>537</v>
+        <v>42</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>460</v>
-      </c>
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="J93" t="n">
-        <v>17</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="L93"/>
-      <c r="M93"/>
+        <v>329</v>
+      </c>
+      <c r="H93" t="n">
+        <v>6941687</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2085.04</v>
+      </c>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93" t="n">
+        <v>8937</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2.684</v>
+      </c>
       <c r="N93"/>
       <c r="O93"/>
       <c r="P93" t="s">
-        <v>538</v>
+        <v>42</v>
       </c>
       <c r="Q93" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="R93" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="S93" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B94" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="D94" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E94" t="s">
-        <v>42</v>
+        <v>545</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>329</v>
+        <v>693</v>
       </c>
       <c r="H94" t="n">
-        <v>6941687</v>
+        <v>10721328</v>
       </c>
       <c r="I94" t="n">
-        <v>2085.04</v>
-      </c>
-      <c r="J94"/>
-      <c r="K94"/>
+        <v>287.09</v>
+      </c>
+      <c r="J94" t="n">
+        <v>11189</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.3</v>
+      </c>
       <c r="L94" t="n">
-        <v>8937</v>
+        <v>15503</v>
       </c>
       <c r="M94" t="n">
-        <v>2.684</v>
-      </c>
-      <c r="N94"/>
-      <c r="O94"/>
+        <v>0.415</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="O94" t="n">
+        <v>6.8</v>
+      </c>
       <c r="P94" t="s">
-        <v>42</v>
+        <v>545</v>
       </c>
       <c r="Q94" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="R94" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="S94" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B95" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="D95" t="s">
-        <v>548</v>
+        <v>35</v>
       </c>
       <c r="E95" t="s">
-        <v>549</v>
+        <v>36</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>693</v>
+        <v>576</v>
       </c>
       <c r="H95" t="n">
-        <v>10721328</v>
+        <v>1235592</v>
       </c>
       <c r="I95" t="n">
-        <v>287.09</v>
-      </c>
-      <c r="J95" t="n">
-        <v>11189</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.3</v>
-      </c>
+        <v>38.417</v>
+      </c>
+      <c r="J95"/>
+      <c r="K95"/>
       <c r="L95" t="n">
-        <v>15503</v>
+        <v>2181</v>
       </c>
       <c r="M95" t="n">
-        <v>0.415</v>
+        <v>0.068</v>
       </c>
       <c r="N95" t="n">
-        <v>0.146</v>
+        <v>0.0374</v>
       </c>
       <c r="O95" t="n">
-        <v>6.8</v>
+        <v>26.7</v>
       </c>
       <c r="P95" t="s">
-        <v>549</v>
+        <v>36</v>
       </c>
       <c r="Q95" t="s">
+        <v>37</v>
+      </c>
+      <c r="R95" t="s">
+        <v>24</v>
+      </c>
+      <c r="S95" t="s">
         <v>550</v>
-      </c>
-      <c r="R95" t="s">
-        <v>31</v>
-      </c>
-      <c r="S95" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>551</v>
+      </c>
+      <c r="B96" t="s">
         <v>552</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" s="1" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D96" t="s">
         <v>553</v>
       </c>
-      <c r="C96" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D96" t="s">
-        <v>35</v>
-      </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>554</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>576</v>
+        <v>496</v>
       </c>
       <c r="H96" t="n">
-        <v>1235592</v>
+        <v>6521501</v>
       </c>
       <c r="I96" t="n">
-        <v>38.417</v>
+        <v>118.992</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
       <c r="L96" t="n">
-        <v>2181</v>
+        <v>24922</v>
       </c>
       <c r="M96" t="n">
-        <v>0.068</v>
+        <v>0.455</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0374</v>
+        <v>0.0152</v>
       </c>
       <c r="O96" t="n">
-        <v>26.7</v>
+        <v>65.9</v>
       </c>
       <c r="P96" t="s">
-        <v>36</v>
+        <v>554</v>
       </c>
       <c r="Q96" t="s">
-        <v>37</v>
+        <v>555</v>
       </c>
       <c r="R96" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="S96" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B97" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="D97" t="s">
-        <v>557</v>
+        <v>35</v>
       </c>
       <c r="E97" t="s">
-        <v>558</v>
+        <v>36</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>496</v>
+        <v>608</v>
       </c>
       <c r="H97" t="n">
-        <v>6521501</v>
+        <v>928364</v>
       </c>
       <c r="I97" t="n">
-        <v>118.992</v>
+        <v>358.81</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97" t="n">
-        <v>24922</v>
+        <v>1339</v>
       </c>
       <c r="M97" t="n">
-        <v>0.455</v>
+        <v>0.518</v>
       </c>
       <c r="N97" t="n">
-        <v>0.0152</v>
+        <v>0.0553</v>
       </c>
       <c r="O97" t="n">
-        <v>65.9</v>
+        <v>18.1</v>
       </c>
       <c r="P97" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Q97" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="R97" t="s">
         <v>121</v>
       </c>
       <c r="S97" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B98" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="D98" t="s">
-        <v>35</v>
+        <v>564</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>565</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>608</v>
+        <v>707</v>
       </c>
       <c r="H98" t="n">
-        <v>928364</v>
+        <v>5283372</v>
       </c>
       <c r="I98" t="n">
-        <v>358.81</v>
-      </c>
-      <c r="J98"/>
-      <c r="K98"/>
+        <v>178.042</v>
+      </c>
+      <c r="J98" t="n">
+        <v>7874</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.265</v>
+      </c>
       <c r="L98" t="n">
-        <v>1339</v>
+        <v>7643</v>
       </c>
       <c r="M98" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.0553</v>
-      </c>
-      <c r="O98" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0.258</v>
+      </c>
+      <c r="N98"/>
+      <c r="O98"/>
       <c r="P98" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="Q98" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="R98" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="S98" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B99" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="D99" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E99" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>707</v>
+        <v>615</v>
       </c>
       <c r="H99" t="n">
-        <v>5283372</v>
+        <v>26300050</v>
       </c>
       <c r="I99" t="n">
-        <v>178.042</v>
+        <v>1531.468</v>
       </c>
       <c r="J99" t="n">
-        <v>7874</v>
+        <v>127929</v>
       </c>
       <c r="K99" t="n">
-        <v>0.265</v>
+        <v>7.449</v>
       </c>
       <c r="L99" t="n">
-        <v>7643</v>
+        <v>141126</v>
       </c>
       <c r="M99" t="n">
-        <v>0.258</v>
-      </c>
-      <c r="N99"/>
-      <c r="O99"/>
+        <v>8.218</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.5589</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.8</v>
+      </c>
       <c r="P99" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Q99" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="R99" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S99" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B100" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="D100" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E100" t="s">
-        <v>575</v>
+        <v>42</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>615</v>
+        <v>586</v>
       </c>
       <c r="H100" t="n">
-        <v>26300050</v>
+        <v>6168565</v>
       </c>
       <c r="I100" t="n">
-        <v>1531.468</v>
-      </c>
-      <c r="J100" t="n">
-        <v>127929</v>
-      </c>
-      <c r="K100" t="n">
-        <v>7.449</v>
-      </c>
+        <v>1203.317</v>
+      </c>
+      <c r="J100"/>
+      <c r="K100"/>
       <c r="L100" t="n">
-        <v>141126</v>
+        <v>19271</v>
       </c>
       <c r="M100" t="n">
-        <v>8.218</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.5589</v>
-      </c>
-      <c r="O100" t="n">
-        <v>1.8</v>
-      </c>
+        <v>3.759</v>
+      </c>
+      <c r="N100"/>
+      <c r="O100"/>
       <c r="P100" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="Q100" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="R100" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S100" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B101" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="D101" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E101" t="s">
-        <v>42</v>
+        <v>583</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>586</v>
+        <v>269</v>
       </c>
       <c r="H101" t="n">
-        <v>6168565</v>
+        <v>4177940</v>
       </c>
       <c r="I101" t="n">
-        <v>1203.317</v>
+        <v>19.763</v>
       </c>
       <c r="J101"/>
       <c r="K101"/>
       <c r="L101" t="n">
-        <v>19271</v>
+        <v>8796</v>
       </c>
       <c r="M101" t="n">
-        <v>3.759</v>
-      </c>
-      <c r="N101"/>
-      <c r="O101"/>
+        <v>0.042</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="O101" t="n">
+        <v>87.5</v>
+      </c>
       <c r="P101" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="Q101" t="s">
         <v>582</v>
       </c>
       <c r="R101" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="S101" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B102" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44598</v>
+        <v>44571</v>
       </c>
       <c r="D102" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E102" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>269</v>
+        <v>438</v>
       </c>
       <c r="H102" t="n">
-        <v>4177940</v>
+        <v>1630947</v>
       </c>
       <c r="I102" t="n">
-        <v>19.763</v>
+        <v>783.107</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
       <c r="L102" t="n">
-        <v>8796</v>
+        <v>5177</v>
       </c>
       <c r="M102" t="n">
-        <v>0.042</v>
+        <v>2.486</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0114</v>
+        <v>0.2292</v>
       </c>
       <c r="O102" t="n">
-        <v>87.5</v>
+        <v>4.4</v>
       </c>
       <c r="P102" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="Q102" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="R102" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="S102" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B103" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44571</v>
+        <v>44597</v>
       </c>
       <c r="D103" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E103" t="s">
-        <v>42</v>
+        <v>593</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>438</v>
+        <v>675</v>
       </c>
       <c r="H103" t="n">
-        <v>1630947</v>
+        <v>10278902</v>
       </c>
       <c r="I103" t="n">
-        <v>783.107</v>
-      </c>
-      <c r="J103"/>
-      <c r="K103"/>
+        <v>1880.644</v>
+      </c>
+      <c r="J103" t="n">
+        <v>12310</v>
+      </c>
+      <c r="K103" t="n">
+        <v>2.252</v>
+      </c>
       <c r="L103" t="n">
-        <v>5177</v>
+        <v>28707</v>
       </c>
       <c r="M103" t="n">
-        <v>2.486</v>
+        <v>5.252</v>
       </c>
       <c r="N103" t="n">
-        <v>0.2292</v>
+        <v>0.6587</v>
       </c>
       <c r="O103" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="P103" t="s">
-        <v>42</v>
+        <v>593</v>
       </c>
       <c r="Q103" t="s">
         <v>592</v>
       </c>
       <c r="R103" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S103" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B104" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44597</v>
+        <v>44048</v>
       </c>
       <c r="D104" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E104" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>675</v>
-      </c>
-      <c r="H104" t="n">
-        <v>10278902</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1880.644</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H104"/>
+      <c r="I104"/>
       <c r="J104" t="n">
-        <v>12310</v>
+        <v>2682</v>
       </c>
       <c r="K104" t="n">
-        <v>2.252</v>
-      </c>
-      <c r="L104" t="n">
-        <v>28707</v>
-      </c>
-      <c r="M104" t="n">
-        <v>5.252</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0.6587</v>
-      </c>
-      <c r="O104" t="n">
-        <v>1.5</v>
-      </c>
+        <v>0.513</v>
+      </c>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
       <c r="P104" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Q104" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="R104" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="S104" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B105" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44048</v>
+        <v>44599</v>
       </c>
       <c r="D105" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E105" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>58</v>
-      </c>
-      <c r="H105"/>
-      <c r="I105"/>
-      <c r="J105" t="n">
-        <v>2682</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.513</v>
-      </c>
-      <c r="L105"/>
-      <c r="M105"/>
+        <v>633</v>
+      </c>
+      <c r="H105" t="n">
+        <v>25422966</v>
+      </c>
+      <c r="I105" t="n">
+        <v>112.891</v>
+      </c>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105" t="n">
+        <v>57798</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.257</v>
+      </c>
       <c r="N105"/>
       <c r="O105"/>
       <c r="P105" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="Q105" t="s">
         <v>603</v>
       </c>
       <c r="R105" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="S105" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B106" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>44599</v>
       </c>
       <c r="D106" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E106" t="s">
-        <v>608</v>
+        <v>42</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>633</v>
-      </c>
-      <c r="H106" t="n">
-        <v>25422966</v>
-      </c>
-      <c r="I106" t="n">
-        <v>112.891</v>
-      </c>
-      <c r="J106"/>
-      <c r="K106"/>
+        <v>517</v>
+      </c>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106" t="n">
+        <v>17245</v>
+      </c>
+      <c r="K106" t="n">
+        <v>3.302</v>
+      </c>
       <c r="L106" t="n">
-        <v>57798</v>
+        <v>19067</v>
       </c>
       <c r="M106" t="n">
-        <v>0.257</v>
+        <v>3.651</v>
       </c>
       <c r="N106"/>
       <c r="O106"/>
       <c r="P106" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Q106" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="R106" t="s">
         <v>50</v>
       </c>
       <c r="S106" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B107" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="D107" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E107" t="s">
-        <v>42</v>
+        <v>615</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>517</v>
-      </c>
-      <c r="H107"/>
-      <c r="I107"/>
+        <v>686</v>
+      </c>
+      <c r="H107" t="n">
+        <v>5298400</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1209.243</v>
+      </c>
       <c r="J107" t="n">
-        <v>17245</v>
+        <v>17066</v>
       </c>
       <c r="K107" t="n">
-        <v>3.302</v>
+        <v>3.895</v>
       </c>
       <c r="L107" t="n">
-        <v>19067</v>
+        <v>19111</v>
       </c>
       <c r="M107" t="n">
-        <v>3.651</v>
-      </c>
-      <c r="N107"/>
-      <c r="O107"/>
+        <v>4.362</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.2156</v>
+      </c>
+      <c r="O107" t="n">
+        <v>4.6</v>
+      </c>
       <c r="P107" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="Q107" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="R107" t="s">
         <v>50</v>
       </c>
       <c r="S107" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B108" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44597</v>
+        <v>44304</v>
       </c>
       <c r="D108" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E108" t="s">
-        <v>619</v>
+        <v>353</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>686</v>
+        <v>7</v>
       </c>
       <c r="H108" t="n">
-        <v>5298400</v>
+        <v>82516</v>
       </c>
       <c r="I108" t="n">
-        <v>1209.243</v>
-      </c>
-      <c r="J108" t="n">
-        <v>17066</v>
-      </c>
-      <c r="K108" t="n">
-        <v>3.895</v>
-      </c>
+        <v>9.049</v>
+      </c>
+      <c r="J108"/>
+      <c r="K108"/>
       <c r="L108" t="n">
-        <v>19111</v>
+        <v>943</v>
       </c>
       <c r="M108" t="n">
-        <v>4.362</v>
+        <v>0.103</v>
       </c>
       <c r="N108" t="n">
-        <v>0.2156</v>
+        <v>0.1963</v>
       </c>
       <c r="O108" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="P108" t="s">
-        <v>619</v>
+        <v>353</v>
       </c>
       <c r="Q108" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="R108" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S108" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B109" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44304</v>
+        <v>44598</v>
       </c>
       <c r="D109" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E109" t="s">
-        <v>357</v>
+        <v>626</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>7</v>
+        <v>699</v>
       </c>
       <c r="H109" t="n">
-        <v>82516</v>
+        <v>2433613</v>
       </c>
       <c r="I109" t="n">
-        <v>9.049</v>
-      </c>
-      <c r="J109"/>
-      <c r="K109"/>
+        <v>337.082</v>
+      </c>
+      <c r="J109" t="n">
+        <v>11715</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1.623</v>
+      </c>
       <c r="L109" t="n">
-        <v>943</v>
+        <v>12150</v>
       </c>
       <c r="M109" t="n">
-        <v>0.103</v>
+        <v>1.683</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1963</v>
+        <v>0.4407</v>
       </c>
       <c r="O109" t="n">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
       <c r="P109" t="s">
-        <v>357</v>
+        <v>626</v>
       </c>
       <c r="Q109" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="R109" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="S109" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B110" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44598</v>
+        <v>44594</v>
       </c>
       <c r="D110" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E110" t="s">
-        <v>630</v>
+        <v>196</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>699</v>
+        <v>742</v>
       </c>
       <c r="H110" t="n">
-        <v>2433613</v>
+        <v>7819703</v>
       </c>
       <c r="I110" t="n">
-        <v>337.082</v>
+        <v>234.408</v>
       </c>
       <c r="J110" t="n">
-        <v>11715</v>
+        <v>9820</v>
       </c>
       <c r="K110" t="n">
-        <v>1.623</v>
+        <v>0.294</v>
       </c>
       <c r="L110" t="n">
-        <v>12150</v>
+        <v>13854</v>
       </c>
       <c r="M110" t="n">
-        <v>1.683</v>
+        <v>0.415</v>
       </c>
       <c r="N110" t="n">
-        <v>0.4407</v>
+        <v>0.332</v>
       </c>
       <c r="O110" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="P110" t="s">
-        <v>630</v>
+        <v>196</v>
       </c>
       <c r="Q110" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="R110" t="s">
         <v>50</v>
       </c>
       <c r="S110" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B111" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44594</v>
+        <v>44589</v>
       </c>
       <c r="D111" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E111" t="s">
-        <v>196</v>
+        <v>637</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>742</v>
+        <v>666</v>
       </c>
       <c r="H111" t="n">
-        <v>7819703</v>
+        <v>25606388</v>
       </c>
       <c r="I111" t="n">
-        <v>234.408</v>
+        <v>230.591</v>
       </c>
       <c r="J111" t="n">
-        <v>9820</v>
+        <v>52757</v>
       </c>
       <c r="K111" t="n">
-        <v>0.294</v>
+        <v>0.475</v>
       </c>
       <c r="L111" t="n">
-        <v>13854</v>
+        <v>55685</v>
       </c>
       <c r="M111" t="n">
-        <v>0.415</v>
+        <v>0.501</v>
       </c>
       <c r="N111" t="n">
-        <v>0.332</v>
+        <v>0.3961</v>
       </c>
       <c r="O111" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P111" t="s">
-        <v>196</v>
+        <v>353</v>
       </c>
       <c r="Q111" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="R111" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S111" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B112" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44589</v>
+        <v>44599</v>
       </c>
       <c r="D112" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E112" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="H112" t="n">
-        <v>25606388</v>
+        <v>30889566</v>
       </c>
       <c r="I112" t="n">
-        <v>230.591</v>
+        <v>817.249</v>
       </c>
       <c r="J112" t="n">
-        <v>52757</v>
+        <v>80345</v>
       </c>
       <c r="K112" t="n">
-        <v>0.475</v>
+        <v>2.126</v>
       </c>
       <c r="L112" t="n">
-        <v>55685</v>
+        <v>142297</v>
       </c>
       <c r="M112" t="n">
-        <v>0.501</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0.3961</v>
-      </c>
-      <c r="O112" t="n">
-        <v>2.5</v>
-      </c>
+        <v>3.765</v>
+      </c>
+      <c r="N112"/>
+      <c r="O112"/>
       <c r="P112" t="s">
-        <v>357</v>
+        <v>643</v>
       </c>
       <c r="Q112" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="R112" t="s">
         <v>31</v>
       </c>
       <c r="S112" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B113" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="D113" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E113" t="s">
-        <v>647</v>
+        <v>42</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>645</v>
+        <v>708</v>
       </c>
       <c r="H113" t="n">
-        <v>30889566</v>
+        <v>36009956</v>
       </c>
       <c r="I113" t="n">
-        <v>817.249</v>
+        <v>3541.525</v>
       </c>
       <c r="J113" t="n">
-        <v>80345</v>
+        <v>86492</v>
       </c>
       <c r="K113" t="n">
-        <v>2.126</v>
+        <v>8.506</v>
       </c>
       <c r="L113" t="n">
-        <v>142297</v>
+        <v>215861</v>
       </c>
       <c r="M113" t="n">
-        <v>3.765</v>
-      </c>
-      <c r="N113"/>
-      <c r="O113"/>
+        <v>21.23</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.2012</v>
+      </c>
+      <c r="O113" t="n">
+        <v>5</v>
+      </c>
       <c r="P113" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="Q113" t="s">
         <v>648</v>
       </c>
       <c r="R113" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S113" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B114" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44598</v>
+        <v>44496</v>
       </c>
       <c r="D114" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E114" t="s">
-        <v>42</v>
+        <v>654</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>708</v>
+        <v>588</v>
       </c>
       <c r="H114" t="n">
-        <v>36009956</v>
+        <v>2809592</v>
       </c>
       <c r="I114" t="n">
-        <v>3541.525</v>
+        <v>958.734</v>
       </c>
       <c r="J114" t="n">
-        <v>86492</v>
+        <v>4616</v>
       </c>
       <c r="K114" t="n">
-        <v>8.506</v>
+        <v>1.575</v>
       </c>
       <c r="L114" t="n">
-        <v>215861</v>
+        <v>5304</v>
       </c>
       <c r="M114" t="n">
-        <v>21.23</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.2012</v>
-      </c>
-      <c r="O114" t="n">
-        <v>5</v>
-      </c>
+        <v>1.81</v>
+      </c>
+      <c r="N114"/>
+      <c r="O114"/>
       <c r="P114" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q114" t="s">
         <v>653</v>
       </c>
-      <c r="Q114" t="s">
-        <v>652</v>
-      </c>
       <c r="R114" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S114" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B115" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44496</v>
+        <v>44599</v>
       </c>
       <c r="D115" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E115" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>588</v>
+        <v>413</v>
       </c>
       <c r="H115" t="n">
-        <v>2809592</v>
+        <v>19733542</v>
       </c>
       <c r="I115" t="n">
-        <v>958.734</v>
-      </c>
-      <c r="J115" t="n">
-        <v>4616</v>
-      </c>
-      <c r="K115" t="n">
-        <v>1.575</v>
-      </c>
+        <v>1031.67</v>
+      </c>
+      <c r="J115"/>
+      <c r="K115"/>
       <c r="L115" t="n">
-        <v>5304</v>
+        <v>89216</v>
       </c>
       <c r="M115" t="n">
-        <v>1.81</v>
+        <v>4.664</v>
       </c>
       <c r="N115"/>
       <c r="O115"/>
       <c r="P115" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="Q115" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="R115" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S115" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B116" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>44599</v>
       </c>
       <c r="D116" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="E116" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>413</v>
+        <v>542</v>
       </c>
       <c r="H116" t="n">
-        <v>19733542</v>
+        <v>263153282</v>
       </c>
       <c r="I116" t="n">
-        <v>1031.67</v>
+        <v>1803.507</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116" t="n">
-        <v>89216</v>
+        <v>998577</v>
       </c>
       <c r="M116" t="n">
-        <v>4.664</v>
+        <v>6.844</v>
       </c>
       <c r="N116"/>
       <c r="O116"/>
       <c r="P116" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="Q116" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="R116" t="s">
         <v>50</v>
       </c>
       <c r="S116" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B117" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>44599</v>
       </c>
       <c r="D117" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E117" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H117" t="n">
-        <v>263153282</v>
+        <v>4570580</v>
       </c>
       <c r="I117" t="n">
-        <v>1803.507</v>
+        <v>344.26</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117" t="n">
-        <v>998577</v>
+        <v>10775</v>
       </c>
       <c r="M117" t="n">
-        <v>6.844</v>
+        <v>0.812</v>
       </c>
       <c r="N117"/>
       <c r="O117"/>
       <c r="P117" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="Q117" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="R117" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="S117" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B118" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>44599</v>
       </c>
       <c r="D118" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E118" t="s">
-        <v>677</v>
+        <v>42</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>544</v>
+        <v>120</v>
       </c>
       <c r="H118" t="n">
-        <v>4570580</v>
+        <v>65672</v>
       </c>
       <c r="I118" t="n">
-        <v>344.26</v>
+        <v>1226.459</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118" t="n">
-        <v>10775</v>
+        <v>68</v>
       </c>
       <c r="M118" t="n">
-        <v>0.812</v>
+        <v>1.27</v>
       </c>
       <c r="N118"/>
       <c r="O118"/>
       <c r="P118" t="s">
-        <v>677</v>
+        <v>42</v>
       </c>
       <c r="Q118" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="R118" t="s">
-        <v>121</v>
+        <v>279</v>
       </c>
       <c r="S118" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B119" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="D119" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E119" t="s">
-        <v>42</v>
+        <v>684</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="H119" t="n">
-        <v>65672</v>
+        <v>97377</v>
       </c>
       <c r="I119" t="n">
-        <v>1226.459</v>
-      </c>
-      <c r="J119"/>
-      <c r="K119"/>
+        <v>875.149</v>
+      </c>
+      <c r="J119" t="n">
+        <v>28</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.252</v>
+      </c>
       <c r="L119" t="n">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="M119" t="n">
-        <v>1.27</v>
+        <v>0.297</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
       <c r="P119" t="s">
-        <v>42</v>
+        <v>684</v>
       </c>
       <c r="Q119" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="R119" t="s">
-        <v>283</v>
+        <v>24</v>
       </c>
       <c r="S119" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B120" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>44598</v>
       </c>
       <c r="D120" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E120" t="s">
-        <v>688</v>
+        <v>42</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>34</v>
+        <v>707</v>
       </c>
       <c r="H120" t="n">
-        <v>97377</v>
+        <v>38814099</v>
       </c>
       <c r="I120" t="n">
-        <v>875.149</v>
+        <v>1098.284</v>
       </c>
       <c r="J120" t="n">
-        <v>28</v>
+        <v>135875</v>
       </c>
       <c r="K120" t="n">
-        <v>0.252</v>
+        <v>3.845</v>
       </c>
       <c r="L120" t="n">
-        <v>33</v>
+        <v>134556</v>
       </c>
       <c r="M120" t="n">
-        <v>0.297</v>
-      </c>
-      <c r="N120"/>
-      <c r="O120"/>
+        <v>3.807</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.0274</v>
+      </c>
+      <c r="O120" t="n">
+        <v>36.4</v>
+      </c>
       <c r="P120" t="s">
-        <v>688</v>
+        <v>42</v>
       </c>
       <c r="Q120" t="s">
         <v>689</v>
       </c>
       <c r="R120" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="S120" t="s">
         <v>690</v>
@@ -9616,44 +9628,44 @@
         <v>692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44598</v>
+        <v>44596</v>
       </c>
       <c r="D121" t="s">
         <v>693</v>
       </c>
       <c r="E121" t="s">
-        <v>42</v>
+        <v>694</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H121" t="n">
-        <v>38814099</v>
+        <v>999352</v>
       </c>
       <c r="I121" t="n">
-        <v>1098.284</v>
+        <v>58.114</v>
       </c>
       <c r="J121" t="n">
-        <v>135875</v>
+        <v>1190</v>
       </c>
       <c r="K121" t="n">
-        <v>3.845</v>
+        <v>0.069</v>
       </c>
       <c r="L121" t="n">
-        <v>134556</v>
+        <v>1364</v>
       </c>
       <c r="M121" t="n">
-        <v>3.807</v>
+        <v>0.079</v>
       </c>
       <c r="N121" t="n">
-        <v>0.0274</v>
+        <v>0.0374</v>
       </c>
       <c r="O121" t="n">
-        <v>36.4</v>
+        <v>26.7</v>
       </c>
       <c r="P121" t="s">
-        <v>42</v>
+        <v>694</v>
       </c>
       <c r="Q121" t="s">
         <v>693</v>
@@ -9662,164 +9674,164 @@
         <v>50</v>
       </c>
       <c r="S121" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B122" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44596</v>
+        <v>44598</v>
       </c>
       <c r="D122" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E122" t="s">
-        <v>698</v>
-      </c>
-      <c r="F122"/>
+        <v>42</v>
+      </c>
+      <c r="F122" t="s">
+        <v>699</v>
+      </c>
       <c r="G122" t="n">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="H122" t="n">
-        <v>999352</v>
+        <v>8324359</v>
       </c>
       <c r="I122" t="n">
-        <v>58.114</v>
+        <v>1211.424</v>
       </c>
       <c r="J122" t="n">
-        <v>1190</v>
+        <v>22013</v>
       </c>
       <c r="K122" t="n">
-        <v>0.069</v>
+        <v>3.203</v>
       </c>
       <c r="L122" t="n">
-        <v>1364</v>
+        <v>31970</v>
       </c>
       <c r="M122" t="n">
-        <v>0.079</v>
+        <v>4.653</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0374</v>
+        <v>0.4732</v>
       </c>
       <c r="O122" t="n">
-        <v>26.7</v>
+        <v>2.1</v>
       </c>
       <c r="P122" t="s">
-        <v>698</v>
+        <v>42</v>
       </c>
       <c r="Q122" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="R122" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S122" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B123" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44598</v>
+        <v>44592</v>
       </c>
       <c r="D123" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E123" t="s">
-        <v>42</v>
-      </c>
-      <c r="F123" t="s">
-        <v>703</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="F123"/>
       <c r="G123" t="n">
-        <v>711</v>
-      </c>
-      <c r="H123" t="n">
-        <v>8324359</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1211.424</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H123"/>
+      <c r="I123"/>
       <c r="J123" t="n">
-        <v>22013</v>
+        <v>228300</v>
       </c>
       <c r="K123" t="n">
-        <v>3.203</v>
+        <v>41.862</v>
       </c>
       <c r="L123" t="n">
-        <v>31970</v>
+        <v>228300</v>
       </c>
       <c r="M123" t="n">
-        <v>4.653</v>
+        <v>41.862</v>
       </c>
       <c r="N123" t="n">
-        <v>0.4732</v>
+        <v>0.0225</v>
       </c>
       <c r="O123" t="n">
-        <v>2.1</v>
+        <v>44.3</v>
       </c>
       <c r="P123" t="s">
         <v>42</v>
       </c>
       <c r="Q123" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="R123" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="S123" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B124" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44592</v>
+        <v>44598</v>
       </c>
       <c r="D124" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E124" t="s">
-        <v>709</v>
+        <v>42</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>70</v>
-      </c>
-      <c r="H124"/>
-      <c r="I124"/>
+        <v>703</v>
+      </c>
+      <c r="H124" t="n">
+        <v>48289232</v>
+      </c>
+      <c r="I124" t="n">
+        <v>8861.597</v>
+      </c>
       <c r="J124" t="n">
-        <v>228300</v>
+        <v>32006</v>
       </c>
       <c r="K124" t="n">
-        <v>41.862</v>
+        <v>5.873</v>
       </c>
       <c r="L124" t="n">
-        <v>228300</v>
+        <v>66928</v>
       </c>
       <c r="M124" t="n">
-        <v>41.862</v>
+        <v>12.282</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0225</v>
+        <v>0.306</v>
       </c>
       <c r="O124" t="n">
-        <v>44.3</v>
+        <v>3.3</v>
       </c>
       <c r="P124" t="s">
         <v>42</v>
@@ -9828,7 +9840,7 @@
         <v>710</v>
       </c>
       <c r="R124" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="S124" t="s">
         <v>711</v>
@@ -9848,38 +9860,38 @@
         <v>714</v>
       </c>
       <c r="E125" t="s">
-        <v>42</v>
+        <v>715</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="H125" t="n">
-        <v>48289232</v>
+        <v>2527903</v>
       </c>
       <c r="I125" t="n">
-        <v>8861.597</v>
+        <v>1216.085</v>
       </c>
       <c r="J125" t="n">
-        <v>32006</v>
+        <v>1247</v>
       </c>
       <c r="K125" t="n">
-        <v>5.873</v>
+        <v>0.6</v>
       </c>
       <c r="L125" t="n">
-        <v>66928</v>
+        <v>7479</v>
       </c>
       <c r="M125" t="n">
-        <v>12.282</v>
+        <v>3.598</v>
       </c>
       <c r="N125" t="n">
-        <v>0.306</v>
+        <v>0.648</v>
       </c>
       <c r="O125" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="P125" t="s">
-        <v>42</v>
+        <v>715</v>
       </c>
       <c r="Q125" t="s">
         <v>714</v>
@@ -9888,627 +9900,623 @@
         <v>50</v>
       </c>
       <c r="S125" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B126" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>44598</v>
       </c>
       <c r="D126" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E126" t="s">
+        <v>720</v>
+      </c>
+      <c r="F126" t="s">
+        <v>721</v>
+      </c>
+      <c r="G126" t="n">
+        <v>699</v>
+      </c>
+      <c r="H126" t="n">
+        <v>22464999</v>
+      </c>
+      <c r="I126" t="n">
+        <v>374.155</v>
+      </c>
+      <c r="J126" t="n">
+        <v>21800</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="L126" t="n">
+        <v>30487</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.0942</v>
+      </c>
+      <c r="O126" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="P126" t="s">
+        <v>722</v>
+      </c>
+      <c r="Q126" t="s">
         <v>719</v>
       </c>
-      <c r="F126"/>
-      <c r="G126" t="n">
-        <v>718</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2527903</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1216.085</v>
-      </c>
-      <c r="J126" t="n">
-        <v>1247</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L126" t="n">
-        <v>7479</v>
-      </c>
-      <c r="M126" t="n">
-        <v>3.598</v>
-      </c>
-      <c r="N126" t="n">
-        <v>0.648</v>
-      </c>
-      <c r="O126" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P126" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>718</v>
-      </c>
       <c r="R126" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S126" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B127" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>44598</v>
       </c>
       <c r="D127" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="E127" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="F127" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="G127" t="n">
-        <v>699</v>
+        <v>730</v>
       </c>
       <c r="H127" t="n">
-        <v>22464999</v>
+        <v>52964262</v>
       </c>
       <c r="I127" t="n">
-        <v>374.155</v>
+        <v>1032.337</v>
       </c>
       <c r="J127" t="n">
-        <v>21800</v>
+        <v>135535</v>
       </c>
       <c r="K127" t="n">
-        <v>0.363</v>
+        <v>2.642</v>
       </c>
       <c r="L127" t="n">
-        <v>30487</v>
+        <v>205273</v>
       </c>
       <c r="M127" t="n">
-        <v>0.508</v>
+        <v>4.001</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0942</v>
+        <v>0.1387</v>
       </c>
       <c r="O127" t="n">
-        <v>10.6</v>
+        <v>7.2</v>
       </c>
       <c r="P127" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="Q127" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="R127" t="s">
         <v>31</v>
       </c>
       <c r="S127" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="B128" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="D128" t="s">
-        <v>730</v>
+        <v>35</v>
       </c>
       <c r="E128" t="s">
-        <v>731</v>
-      </c>
-      <c r="F128" t="s">
-        <v>732</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F128"/>
       <c r="G128" t="n">
-        <v>730</v>
+        <v>151</v>
       </c>
       <c r="H128" t="n">
-        <v>52964262</v>
+        <v>325097</v>
       </c>
       <c r="I128" t="n">
-        <v>1032.337</v>
-      </c>
-      <c r="J128" t="n">
-        <v>135535</v>
-      </c>
-      <c r="K128" t="n">
-        <v>2.642</v>
-      </c>
+        <v>28.564</v>
+      </c>
+      <c r="J128"/>
+      <c r="K128"/>
       <c r="L128" t="n">
-        <v>205273</v>
+        <v>742</v>
       </c>
       <c r="M128" t="n">
-        <v>4.001</v>
+        <v>0.065</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1387</v>
+        <v>0.0104</v>
       </c>
       <c r="O128" t="n">
-        <v>7.2</v>
+        <v>96.2</v>
       </c>
       <c r="P128" t="s">
-        <v>733</v>
+        <v>36</v>
       </c>
       <c r="Q128" t="s">
+        <v>37</v>
+      </c>
+      <c r="R128" t="s">
+        <v>24</v>
+      </c>
+      <c r="S128" t="s">
         <v>734</v>
-      </c>
-      <c r="R128" t="s">
-        <v>31</v>
-      </c>
-      <c r="S128" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>735</v>
+      </c>
+      <c r="B129" t="s">
         <v>736</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="D129" t="s">
         <v>737</v>
       </c>
-      <c r="C129" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D129" t="s">
-        <v>35</v>
-      </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>151</v>
+        <v>689</v>
       </c>
       <c r="H129" t="n">
-        <v>325097</v>
+        <v>82706689</v>
       </c>
       <c r="I129" t="n">
-        <v>28.564</v>
-      </c>
-      <c r="J129"/>
-      <c r="K129"/>
+        <v>1769.308</v>
+      </c>
+      <c r="J129" t="n">
+        <v>202777</v>
+      </c>
+      <c r="K129" t="n">
+        <v>4.338</v>
+      </c>
       <c r="L129" t="n">
-        <v>742</v>
+        <v>213507</v>
       </c>
       <c r="M129" t="n">
-        <v>0.065</v>
+        <v>4.567</v>
       </c>
       <c r="N129" t="n">
-        <v>0.0104</v>
+        <v>0.33</v>
       </c>
       <c r="O129" t="n">
-        <v>96.2</v>
+        <v>3</v>
       </c>
       <c r="P129" t="s">
-        <v>36</v>
+        <v>738</v>
       </c>
       <c r="Q129" t="s">
-        <v>37</v>
+        <v>737</v>
       </c>
       <c r="R129" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="S129" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B130" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44593</v>
+        <v>44598</v>
       </c>
       <c r="D130" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E130" t="s">
-        <v>42</v>
+        <v>743</v>
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>689</v>
+        <v>714</v>
       </c>
       <c r="H130" t="n">
-        <v>82706689</v>
+        <v>6163772</v>
       </c>
       <c r="I130" t="n">
-        <v>1769.308</v>
+        <v>286.723</v>
       </c>
       <c r="J130" t="n">
-        <v>202777</v>
+        <v>8618</v>
       </c>
       <c r="K130" t="n">
-        <v>4.338</v>
+        <v>0.401</v>
       </c>
       <c r="L130" t="n">
-        <v>213507</v>
+        <v>7784</v>
       </c>
       <c r="M130" t="n">
-        <v>4.567</v>
+        <v>0.362</v>
       </c>
       <c r="N130" t="n">
-        <v>0.33</v>
+        <v>0.1545</v>
       </c>
       <c r="O130" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P130" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q130" t="s">
         <v>742</v>
-      </c>
-      <c r="Q130" t="s">
-        <v>741</v>
       </c>
       <c r="R130" t="s">
         <v>50</v>
       </c>
       <c r="S130" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B131" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44598</v>
+        <v>44596</v>
       </c>
       <c r="D131" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E131" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>714</v>
+        <v>181</v>
       </c>
       <c r="H131" t="n">
-        <v>6163772</v>
+        <v>74221</v>
       </c>
       <c r="I131" t="n">
-        <v>286.723</v>
+        <v>125.416</v>
       </c>
       <c r="J131" t="n">
-        <v>8618</v>
+        <v>774</v>
       </c>
       <c r="K131" t="n">
-        <v>0.401</v>
+        <v>1.308</v>
       </c>
       <c r="L131" t="n">
-        <v>7784</v>
+        <v>555</v>
       </c>
       <c r="M131" t="n">
-        <v>0.362</v>
+        <v>0.938</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1545</v>
+        <v>0.417</v>
       </c>
       <c r="O131" t="n">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="P131" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q131" t="s">
         <v>747</v>
       </c>
-      <c r="Q131" t="s">
-        <v>746</v>
-      </c>
       <c r="R131" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S131" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B132" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44596</v>
+        <v>44591</v>
       </c>
       <c r="D132" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E132" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>181</v>
+        <v>581</v>
       </c>
       <c r="H132" t="n">
-        <v>74221</v>
+        <v>17362408</v>
       </c>
       <c r="I132" t="n">
-        <v>125.416</v>
+        <v>1708.872</v>
       </c>
       <c r="J132" t="n">
-        <v>774</v>
+        <v>77851</v>
       </c>
       <c r="K132" t="n">
-        <v>1.308</v>
+        <v>7.662</v>
       </c>
       <c r="L132" t="n">
-        <v>555</v>
+        <v>77851</v>
       </c>
       <c r="M132" t="n">
-        <v>0.938</v>
+        <v>7.662</v>
       </c>
       <c r="N132" t="n">
-        <v>0.417</v>
+        <v>0.5256</v>
       </c>
       <c r="O132" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="P132" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="Q132" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="R132" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="S132" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B133" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44591</v>
+        <v>44597</v>
       </c>
       <c r="D133" t="s">
-        <v>756</v>
+        <v>477</v>
       </c>
       <c r="E133" t="s">
-        <v>757</v>
+        <v>478</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>581</v>
+        <v>624</v>
       </c>
       <c r="H133" t="n">
-        <v>17362408</v>
+        <v>17511398</v>
       </c>
       <c r="I133" t="n">
-        <v>1708.872</v>
+        <v>2009.226</v>
       </c>
       <c r="J133" t="n">
-        <v>77851</v>
+        <v>54441</v>
       </c>
       <c r="K133" t="n">
-        <v>7.662</v>
+        <v>6.246</v>
       </c>
       <c r="L133" t="n">
-        <v>77851</v>
+        <v>83777</v>
       </c>
       <c r="M133" t="n">
-        <v>7.662</v>
+        <v>9.612</v>
       </c>
       <c r="N133" t="n">
-        <v>0.5256</v>
+        <v>0.402</v>
       </c>
       <c r="O133" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="P133" t="s">
-        <v>758</v>
+        <v>478</v>
       </c>
       <c r="Q133" t="s">
-        <v>759</v>
+        <v>479</v>
       </c>
       <c r="R133" t="s">
         <v>50</v>
       </c>
       <c r="S133" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>760</v>
+      </c>
+      <c r="B134" t="s">
         <v>761</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" s="1" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D134" t="s">
         <v>762</v>
       </c>
-      <c r="C134" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D134" t="s">
-        <v>481</v>
-      </c>
       <c r="E134" t="s">
-        <v>482</v>
+        <v>763</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>624</v>
+        <v>753</v>
       </c>
       <c r="H134" t="n">
-        <v>17511398</v>
+        <v>5816835</v>
       </c>
       <c r="I134" t="n">
-        <v>2009.226</v>
+        <v>243.841</v>
       </c>
       <c r="J134" t="n">
-        <v>54441</v>
+        <v>24424</v>
       </c>
       <c r="K134" t="n">
-        <v>6.246</v>
+        <v>1.024</v>
       </c>
       <c r="L134" t="n">
-        <v>83777</v>
+        <v>18063</v>
       </c>
       <c r="M134" t="n">
-        <v>9.612</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.402</v>
-      </c>
-      <c r="O134" t="n">
-        <v>2.5</v>
-      </c>
+        <v>0.757</v>
+      </c>
+      <c r="N134"/>
+      <c r="O134"/>
       <c r="P134" t="s">
-        <v>482</v>
+        <v>763</v>
       </c>
       <c r="Q134" t="s">
-        <v>483</v>
+        <v>762</v>
       </c>
       <c r="R134" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S134" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B135" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="D135" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E135" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="H135" t="n">
-        <v>5816835</v>
+        <v>19647467</v>
       </c>
       <c r="I135" t="n">
-        <v>243.841</v>
+        <v>280.875</v>
       </c>
       <c r="J135" t="n">
-        <v>24424</v>
+        <v>39047</v>
       </c>
       <c r="K135" t="n">
-        <v>1.024</v>
+        <v>0.558</v>
       </c>
       <c r="L135" t="n">
-        <v>18063</v>
+        <v>46850</v>
       </c>
       <c r="M135" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="N135"/>
-      <c r="O135"/>
+        <v>0.67</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.1966</v>
+      </c>
+      <c r="O135" t="n">
+        <v>5.1</v>
+      </c>
       <c r="P135" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="Q135" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="R135" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S135" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B136" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44597</v>
+        <v>44489</v>
       </c>
       <c r="D136" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="E136" t="s">
-        <v>772</v>
+        <v>42</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>763</v>
+        <v>24</v>
       </c>
       <c r="H136" t="n">
-        <v>19647467</v>
+        <v>211166</v>
       </c>
       <c r="I136" t="n">
-        <v>280.875</v>
-      </c>
-      <c r="J136" t="n">
-        <v>39047</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.558</v>
-      </c>
+        <v>157.132</v>
+      </c>
+      <c r="J136"/>
+      <c r="K136"/>
       <c r="L136" t="n">
-        <v>46850</v>
+        <v>227</v>
       </c>
       <c r="M136" t="n">
-        <v>0.67</v>
+        <v>0.169</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1966</v>
+        <v>0.0352</v>
       </c>
       <c r="O136" t="n">
-        <v>5.1</v>
+        <v>28.4</v>
       </c>
       <c r="P136" t="s">
-        <v>773</v>
+        <v>42</v>
       </c>
       <c r="Q136" t="s">
         <v>774</v>
       </c>
       <c r="R136" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S136" t="s">
         <v>775</v>
@@ -10522,366 +10530,366 @@
         <v>777</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44489</v>
-      </c>
-      <c r="D137" t="s">
+        <v>44598</v>
+      </c>
+      <c r="D137"/>
+      <c r="E137" t="s">
         <v>778</v>
       </c>
-      <c r="E137" t="s">
-        <v>42</v>
-      </c>
-      <c r="F137"/>
+      <c r="F137" t="s">
+        <v>779</v>
+      </c>
       <c r="G137" t="n">
-        <v>24</v>
+        <v>699</v>
       </c>
       <c r="H137" t="n">
-        <v>211166</v>
+        <v>668848</v>
       </c>
       <c r="I137" t="n">
-        <v>157.132</v>
-      </c>
-      <c r="J137"/>
-      <c r="K137"/>
+        <v>78.89</v>
+      </c>
+      <c r="J137" t="n">
+        <v>866</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.102</v>
+      </c>
       <c r="L137" t="n">
-        <v>227</v>
+        <v>885</v>
       </c>
       <c r="M137" t="n">
-        <v>0.169</v>
+        <v>0.104</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0352</v>
+        <v>0.0165</v>
       </c>
       <c r="O137" t="n">
-        <v>28.4</v>
+        <v>60.7</v>
       </c>
       <c r="P137" t="s">
-        <v>42</v>
+        <v>778</v>
       </c>
       <c r="Q137" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="R137" t="s">
-        <v>24</v>
+        <v>781</v>
       </c>
       <c r="S137" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B138" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D138"/>
+        <v>44475</v>
+      </c>
+      <c r="D138" t="s">
+        <v>785</v>
+      </c>
       <c r="E138" t="s">
-        <v>782</v>
-      </c>
-      <c r="F138" t="s">
-        <v>783</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F138"/>
       <c r="G138" t="n">
-        <v>699</v>
+        <v>504</v>
       </c>
       <c r="H138" t="n">
-        <v>668848</v>
+        <v>357432</v>
       </c>
       <c r="I138" t="n">
-        <v>78.89</v>
+        <v>254.695</v>
       </c>
       <c r="J138" t="n">
-        <v>866</v>
+        <v>954</v>
       </c>
       <c r="K138" t="n">
-        <v>0.102</v>
+        <v>0.68</v>
       </c>
       <c r="L138" t="n">
-        <v>885</v>
+        <v>825</v>
       </c>
       <c r="M138" t="n">
-        <v>0.104</v>
+        <v>0.588</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0165</v>
+        <v>0.2345</v>
       </c>
       <c r="O138" t="n">
-        <v>60.7</v>
+        <v>4.3</v>
       </c>
       <c r="P138" t="s">
-        <v>782</v>
+        <v>42</v>
       </c>
       <c r="Q138" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="R138" t="s">
-        <v>785</v>
+        <v>31</v>
       </c>
       <c r="S138" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B139" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44475</v>
+        <v>44597</v>
       </c>
       <c r="D139" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E139" t="s">
-        <v>42</v>
+        <v>791</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>504</v>
+        <v>156</v>
       </c>
       <c r="H139" t="n">
-        <v>357432</v>
+        <v>4131634</v>
       </c>
       <c r="I139" t="n">
-        <v>254.695</v>
-      </c>
-      <c r="J139" t="n">
-        <v>954</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.68</v>
-      </c>
+        <v>346.156</v>
+      </c>
+      <c r="J139"/>
+      <c r="K139"/>
       <c r="L139" t="n">
-        <v>825</v>
+        <v>14975</v>
       </c>
       <c r="M139" t="n">
-        <v>0.588</v>
+        <v>1.255</v>
       </c>
       <c r="N139" t="n">
-        <v>0.2345</v>
+        <v>0.3732</v>
       </c>
       <c r="O139" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="P139" t="s">
-        <v>42</v>
+        <v>792</v>
       </c>
       <c r="Q139" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="R139" t="s">
         <v>31</v>
       </c>
       <c r="S139" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B140" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="D140" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="E140" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>156</v>
+        <v>682</v>
       </c>
       <c r="H140" t="n">
-        <v>4131634</v>
+        <v>134265419</v>
       </c>
       <c r="I140" t="n">
-        <v>346.156</v>
-      </c>
-      <c r="J140"/>
-      <c r="K140"/>
+        <v>1578.799</v>
+      </c>
+      <c r="J140" t="n">
+        <v>412352</v>
+      </c>
+      <c r="K140" t="n">
+        <v>4.849</v>
+      </c>
       <c r="L140" t="n">
-        <v>14975</v>
+        <v>443282</v>
       </c>
       <c r="M140" t="n">
-        <v>1.255</v>
+        <v>5.212</v>
       </c>
       <c r="N140" t="n">
-        <v>0.3732</v>
+        <v>0.2294</v>
       </c>
       <c r="O140" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="P140" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="Q140" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="R140" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S140" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B141" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="D141" t="s">
-        <v>801</v>
+        <v>35</v>
       </c>
       <c r="E141" t="s">
-        <v>802</v>
+        <v>36</v>
       </c>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>682</v>
+        <v>614</v>
       </c>
       <c r="H141" t="n">
-        <v>134265419</v>
+        <v>2368066</v>
       </c>
       <c r="I141" t="n">
-        <v>1578.799</v>
-      </c>
-      <c r="J141" t="n">
-        <v>412352</v>
-      </c>
-      <c r="K141" t="n">
-        <v>4.849</v>
-      </c>
+        <v>50.252</v>
+      </c>
+      <c r="J141"/>
+      <c r="K141"/>
       <c r="L141" t="n">
-        <v>443282</v>
+        <v>2464</v>
       </c>
       <c r="M141" t="n">
-        <v>5.212</v>
+        <v>0.052</v>
       </c>
       <c r="N141" t="n">
-        <v>0.2294</v>
+        <v>0.0406</v>
       </c>
       <c r="O141" t="n">
-        <v>4.4</v>
+        <v>24.6</v>
       </c>
       <c r="P141" t="s">
-        <v>802</v>
+        <v>36</v>
       </c>
       <c r="Q141" t="s">
-        <v>803</v>
+        <v>37</v>
       </c>
       <c r="R141" t="s">
         <v>50</v>
       </c>
       <c r="S141" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>804</v>
+      </c>
+      <c r="B142" t="s">
         <v>805</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" s="1" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D142" t="s">
         <v>806</v>
       </c>
-      <c r="C142" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D142" t="s">
-        <v>35</v>
-      </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>807</v>
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>614</v>
+        <v>552</v>
       </c>
       <c r="H142" t="n">
-        <v>2368066</v>
+        <v>18603958</v>
       </c>
       <c r="I142" t="n">
-        <v>50.252</v>
+        <v>428.004</v>
       </c>
       <c r="J142"/>
       <c r="K142"/>
       <c r="L142" t="n">
-        <v>2464</v>
+        <v>79753</v>
       </c>
       <c r="M142" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="N142" t="n">
-        <v>0.0406</v>
-      </c>
-      <c r="O142" t="n">
-        <v>24.6</v>
-      </c>
+        <v>1.835</v>
+      </c>
+      <c r="N142"/>
+      <c r="O142"/>
       <c r="P142" t="s">
-        <v>36</v>
+        <v>807</v>
       </c>
       <c r="Q142" t="s">
-        <v>37</v>
+        <v>808</v>
       </c>
       <c r="R142" t="s">
         <v>50</v>
       </c>
       <c r="S142" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B143" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C143" s="1" t="n">
         <v>44599</v>
       </c>
       <c r="D143" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E143" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>552</v>
+        <v>710</v>
       </c>
       <c r="H143" t="n">
-        <v>18603958</v>
+        <v>128571662</v>
       </c>
       <c r="I143" t="n">
-        <v>428.004</v>
-      </c>
-      <c r="J143"/>
-      <c r="K143"/>
+        <v>12868.641</v>
+      </c>
+      <c r="J143" t="n">
+        <v>473298</v>
+      </c>
+      <c r="K143" t="n">
+        <v>47.372</v>
+      </c>
       <c r="L143" t="n">
-        <v>79753</v>
+        <v>491443</v>
       </c>
       <c r="M143" t="n">
-        <v>1.835</v>
+        <v>49.188</v>
       </c>
       <c r="N143"/>
       <c r="O143"/>
       <c r="P143" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="Q143" t="s">
         <v>812</v>
@@ -10890,171 +10898,175 @@
         <v>50</v>
       </c>
       <c r="S143" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B144" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="D144" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E144" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>710</v>
+        <v>676</v>
       </c>
       <c r="H144" t="n">
-        <v>128571662</v>
+        <v>445981721</v>
       </c>
       <c r="I144" t="n">
-        <v>12868.641</v>
+        <v>6538.639</v>
       </c>
       <c r="J144" t="n">
-        <v>473298</v>
+        <v>1047060</v>
       </c>
       <c r="K144" t="n">
-        <v>47.372</v>
+        <v>15.351</v>
       </c>
       <c r="L144" t="n">
-        <v>491443</v>
+        <v>1194388</v>
       </c>
       <c r="M144" t="n">
-        <v>49.188</v>
-      </c>
-      <c r="N144"/>
-      <c r="O144"/>
+        <v>17.511</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.0585</v>
+      </c>
+      <c r="O144" t="n">
+        <v>17.1</v>
+      </c>
       <c r="P144" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="Q144" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="R144" t="s">
         <v>50</v>
       </c>
       <c r="S144" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B145" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>44598</v>
+        <v>44593</v>
       </c>
       <c r="D145" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="E145" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="F145"/>
       <c r="G145" t="n">
-        <v>676</v>
+        <v>703</v>
       </c>
       <c r="H145" t="n">
-        <v>445981721</v>
+        <v>787820796</v>
       </c>
       <c r="I145" t="n">
-        <v>6538.639</v>
+        <v>2366.432</v>
       </c>
       <c r="J145" t="n">
-        <v>1047060</v>
+        <v>1347217</v>
       </c>
       <c r="K145" t="n">
-        <v>15.351</v>
+        <v>4.047</v>
       </c>
       <c r="L145" t="n">
-        <v>1194388</v>
+        <v>1397621</v>
       </c>
       <c r="M145" t="n">
-        <v>17.511</v>
+        <v>4.198</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0585</v>
+        <v>0.179</v>
       </c>
       <c r="O145" t="n">
-        <v>17.1</v>
+        <v>5.6</v>
       </c>
       <c r="P145" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="Q145" t="s">
         <v>824</v>
       </c>
       <c r="R145" t="s">
-        <v>50</v>
+        <v>826</v>
       </c>
       <c r="S145" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B146" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>44593</v>
+        <v>44598</v>
       </c>
       <c r="D146" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E146" t="s">
-        <v>829</v>
+        <v>216</v>
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="H146" t="n">
-        <v>787820796</v>
+        <v>5365345</v>
       </c>
       <c r="I146" t="n">
-        <v>2366.432</v>
+        <v>1539.487</v>
       </c>
       <c r="J146" t="n">
-        <v>1347217</v>
+        <v>15811</v>
       </c>
       <c r="K146" t="n">
-        <v>4.047</v>
+        <v>4.537</v>
       </c>
       <c r="L146" t="n">
-        <v>1397621</v>
+        <v>23860</v>
       </c>
       <c r="M146" t="n">
-        <v>4.198</v>
+        <v>6.846</v>
       </c>
       <c r="N146" t="n">
-        <v>0.179</v>
+        <v>0.3868</v>
       </c>
       <c r="O146" t="n">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
       <c r="P146" t="s">
-        <v>829</v>
+        <v>216</v>
       </c>
       <c r="Q146" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="R146" t="s">
-        <v>830</v>
+        <v>50</v>
       </c>
       <c r="S146" t="s">
         <v>831</v>
@@ -11068,216 +11080,159 @@
         <v>833</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44598</v>
+        <v>44592</v>
       </c>
       <c r="D147" t="s">
         <v>834</v>
       </c>
       <c r="E147" t="s">
-        <v>216</v>
+        <v>835</v>
       </c>
       <c r="F147"/>
       <c r="G147" t="n">
-        <v>687</v>
+        <v>237</v>
       </c>
       <c r="H147" t="n">
-        <v>5365345</v>
+        <v>37957209</v>
       </c>
       <c r="I147" t="n">
-        <v>1539.487</v>
-      </c>
-      <c r="J147" t="n">
-        <v>15811</v>
-      </c>
-      <c r="K147" t="n">
-        <v>4.537</v>
-      </c>
+        <v>386.652</v>
+      </c>
+      <c r="J147"/>
+      <c r="K147"/>
       <c r="L147" t="n">
-        <v>23860</v>
+        <v>38648</v>
       </c>
       <c r="M147" t="n">
-        <v>6.846</v>
+        <v>0.394</v>
       </c>
       <c r="N147" t="n">
-        <v>0.3868</v>
+        <v>0.4434</v>
       </c>
       <c r="O147" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="P147" t="s">
-        <v>216</v>
+        <v>836</v>
       </c>
       <c r="Q147" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="R147" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="S147" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B148" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>44592</v>
+        <v>44595</v>
       </c>
       <c r="D148" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="E148" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>237</v>
+        <v>661</v>
       </c>
       <c r="H148" t="n">
-        <v>37957209</v>
+        <v>3193875</v>
       </c>
       <c r="I148" t="n">
-        <v>386.652</v>
-      </c>
-      <c r="J148"/>
-      <c r="K148"/>
+        <v>168.804</v>
+      </c>
+      <c r="J148" t="n">
+        <v>3969</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.21</v>
+      </c>
       <c r="L148" t="n">
-        <v>38648</v>
+        <v>3595</v>
       </c>
       <c r="M148" t="n">
-        <v>0.394</v>
+        <v>0.19</v>
       </c>
       <c r="N148" t="n">
-        <v>0.4434</v>
+        <v>0.0932</v>
       </c>
       <c r="O148" t="n">
-        <v>2.3</v>
+        <v>10.7</v>
       </c>
       <c r="P148" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="Q148" t="s">
         <v>841</v>
       </c>
       <c r="R148" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="S148" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B149" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44595</v>
+        <v>44597</v>
       </c>
       <c r="D149" t="s">
-        <v>845</v>
+        <v>35</v>
       </c>
       <c r="E149" t="s">
-        <v>846</v>
+        <v>36</v>
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="H149" t="n">
-        <v>3193875</v>
+        <v>2000510</v>
       </c>
       <c r="I149" t="n">
-        <v>168.804</v>
-      </c>
-      <c r="J149" t="n">
-        <v>3969</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.21</v>
-      </c>
+        <v>132.553</v>
+      </c>
+      <c r="J149"/>
+      <c r="K149"/>
       <c r="L149" t="n">
-        <v>3595</v>
+        <v>22058</v>
       </c>
       <c r="M149" t="n">
-        <v>0.19</v>
+        <v>1.462</v>
       </c>
       <c r="N149" t="n">
-        <v>0.0932</v>
+        <v>0.0064</v>
       </c>
       <c r="O149" t="n">
-        <v>10.7</v>
+        <v>156.4</v>
       </c>
       <c r="P149" t="s">
-        <v>847</v>
+        <v>36</v>
       </c>
       <c r="Q149" t="s">
-        <v>845</v>
+        <v>37</v>
       </c>
       <c r="R149" t="s">
         <v>50</v>
       </c>
       <c r="S149" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>849</v>
-      </c>
-      <c r="B150" t="s">
-        <v>850</v>
-      </c>
-      <c r="C150" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D150" t="s">
-        <v>35</v>
-      </c>
-      <c r="E150" t="s">
-        <v>36</v>
-      </c>
-      <c r="F150"/>
-      <c r="G150" t="n">
-        <v>635</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2000510</v>
-      </c>
-      <c r="I150" t="n">
-        <v>132.553</v>
-      </c>
-      <c r="J150"/>
-      <c r="K150"/>
-      <c r="L150" t="n">
-        <v>22058</v>
-      </c>
-      <c r="M150" t="n">
-        <v>1.462</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0.0064</v>
-      </c>
-      <c r="O150" t="n">
-        <v>156.4</v>
-      </c>
-      <c r="P150" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>37</v>
-      </c>
-      <c r="R150" t="s">
-        <v>50</v>
-      </c>
-      <c r="S150" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="846">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-7554-testime-1164-qytetare-te-infektuar-9-humbje-jete-dhe-1987-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-2962-testime-604-qytetare-te-infektuar-3-humbje-jete-dhe-1505-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -186,7 +186,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4816</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4840</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -261,7 +261,7 @@
     <t xml:space="preserve">Bahamas - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/2c199965-23c5-4b42-aca9-7e3374f9e981/Update+%23677-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%2839%29.pdf?MOD=AJPERES</t>
+    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/ef8d4ca4-91b7-4b84-9bc7-109608d03781/Update+%23685-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%2815%29.pdf?MOD=AJPERES</t>
   </si>
   <si>
     <t xml:space="preserve">Bahamas Ministry of Health and Wellness</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-7350-new-cases-1114-recoveries_i_0000140313.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-8463-new-cases-1558-recoveries_i_0000140514.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -387,16 +387,10 @@
     <t xml:space="preserve">Benin - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gouv.bj/coronavirus/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government of Benin</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.gouv.bj/coronavirus</t>
   </si>
   <si>
-    <t xml:space="preserve">The Government of Benin maintains a [dashboard](https://www.gouv.bj/coronavirus/) reporting the number of PCR and antigen tests performed.</t>
+    <t xml:space="preserve">The Africa Centres for Disease Control and Prevention maintains a [dashboard]https://africacdc.maps.arcgis.com/apps/dashboards/a5603222b29c49539df3af45bac16bcc reporting the number of tests performed for every country in the continent. We query the API to produce a time series of the cumulative number of tests performed in Benin.</t>
   </si>
   <si>
     <t xml:space="preserve">BTN</t>
@@ -405,7 +399,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/posts/373632511256254</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/posts/375435067742665</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -565,7 +559,7 @@
     <t xml:space="preserve">https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
-    <t xml:space="preserve">The Government of Canada provides a complete time series of data related to the COVID-19 outbreak [here](https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html), which includes the cumulative number of tests performed since 31 January 2021. Data on tests performed is not available before that date, as the Canadian government used to publish data on the number of people tested rather than tests performed; data on people tested is accessbile [here](https://github.com/owid/covid-19-data/blob/master/scripts/output/testing/main_data/Canada%20-%20people%20tested.csv).
+    <t xml:space="preserve">The Government of Canada provides a complete time series of data related to the COVID-19 outbreak [here](https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html), which includes the cumulative number of tests performed since 31 January 2021. Data on tests performed is not available before that date, as the Canadian government used to publish data on the number of people tested rather than tests performed; data on people tested is accessbile [here](https://github.com/owid/covid-19-data/blob/master/scripts/output/testing/main_data/Canada.csv).
 It is unclear from the source whether or not the cumulative figure repeatedly counts people that have gone through more than one round of testing over the course of the pandemic. Since we derive a count of the daily number of people tested from the change in this cumulative number, if people undergoing multiple rounds of testing are not counted repeatedly in the cumulative, repeat testers will not appear in our daily testing figures.
 The total number of cases includes publicly-reported confirmed and probable cases (which include positive results of rapid antigen testing). The figures include positive and negative test results, while excluding pending test results.</t>
   </si>
@@ -576,7 +570,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-06-de-fevereiro-de-2022/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-09-de-fevereiro-de-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -810,7 +804,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/02/Bolet%C3%ADn-especial-686-COVID-19.pdf</t>
+    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/02/Bolet%C3%ADn-especial-693-COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -829,7 +823,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2022/02/MSP_cvd19_infografia_diaria_20220205.pdf</t>
+    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2022/02/MSP_cvd19_infografia_diaria_20220209.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -947,7 +941,7 @@
     <t xml:space="preserve">Fiji - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.fj/07-02-2022/</t>
+    <t xml:space="preserve">https://www.health.gov.fj/11-02-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
@@ -1040,7 +1034,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2022/251</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2022/299</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1281,7 +1275,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/379667</t>
+    <t xml:space="preserve">https://irangov.ir/detail/379956</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -1305,7 +1299,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1490323366632464389</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1491779256040493059</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1392,7 +1386,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-saturday-february-5-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-february-9-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1496,7 +1490,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1490671714895806468</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1491758879880982534</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1695,7 +1689,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1490371608292507652</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1491819250499137542</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1778,7 +1772,7 @@
     <t xml:space="preserve">Moldova - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://msmps.gov.md/comunicare/alte-5-212-de-cazuri-noi-de-covid-19-raportate-pentru-3-februarie-2022/</t>
+    <t xml:space="preserve">https://msmps.gov.md/comunicare/alte-2-870-de-cazuri-noi-de-covid-19-raportate-pentru-10-februarie-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of the Republic of Moldova</t>
@@ -1815,7 +1809,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1490361419593928708</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1491797714941579277</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1850,7 +1844,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20220207132656/https://mohs.gov.mm/Main/content/publication/2019-ncov</t>
+    <t xml:space="preserve">https://web.archive.org/web/20220211114355/https://mohs.gov.mm/Main/content/publication/2019-ncov</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -2038,7 +2032,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/291611666399136</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/293463716213931</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -2060,7 +2054,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1490166273363304448</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1491951892515151891</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2094,7 +2088,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1490450632486309891</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1491889279265562628</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2152,7 +2146,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1490622613856600070</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1492072165449080832</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2212,7 +2206,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESA_7_FEBRUARIE.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/11-02_BULETIN_DE_PRESA_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2235,7 +2229,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20573</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20635</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2294,7 +2288,7 @@
     <t xml:space="preserve">Saint Vincent and the Grenadines - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/SVGHEALTH/posts/407264297862984</t>
+    <t xml:space="preserve">https://www.facebook.com/SVGHEALTH/posts/409797934276287</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Vincent and the Grenadines Ministry of Health, Wellness and the Environment</t>
@@ -2804,13 +2798,13 @@
     <t xml:space="preserve">VNM</t>
   </si>
   <si>
-    <t xml:space="preserve">Vietnam - samples tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-149-bc-byt-2022-tinh-hinh-dich-va-ket-qua-trien-khai-cong-tac-phong-chong-dich-covid-19-tu-16h00-ngay-31-01-2022-den-16h00-ngay-01-02-2022-216476-d6.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vietnam Ministry of Health</t>
+    <t xml:space="preserve">Vietnam - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://suckhoedoisong.vn//ngay-10-2-so-ca-covid-19-tiep-tuc-tang-len-den-26032-f0-tai-61-tinh-thanh-169220210174035924.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Health of Vietnam</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam General Department of Preventive Medicine</t>
@@ -2819,10 +2813,8 @@
     <t xml:space="preserve">http://vncdc.gov.vn/vi/search?page=1&amp;keyword=covid-19</t>
   </si>
   <si>
-    <t xml:space="preserve">The Vietnam General Department of Preventive Medicine provided daily COVID-19 bulletins that periodically report the cumulative number of samples tested to date. The bulletins extend back to 13 February 2020 and ceased on 15 October 2021. The Ministry of Health now sporadically shares testing data on their [website](https://ncov.moh.gov.vn/). We cannot say with certainty when testing began, only that 856 samples had been tested as of 13 February 2020.
-We have been unable to find testing figures in any of the bulletins published between 29 April 2020 and 28 July 2020, with the exception of a 4 July 2020 bulletin reporting that 379,701 samples had been tested to date. From 29 July 2020 onwards, the bulletins make it clear that the testing figures relate to PCR tests only.
-Some bulletins report the cumulative number of people tested alongside the cumulative number of samples tested. Oddly, the cumulative number of people tested is larger than the cumulative number of samples tested. For example, [the 18 September 2020 bulletin](http://vncdc.gov.vn/vi/phong-chong-dich-benh-viem-phoi-cap-ncov/14061/ban-tin-cap-nhat-dich-benh-covid-19-ngay-18-9-2020) reports 1,183,341 samples tested to date using PCR, while at the same time reporting 1,358,575 people tested to date. Further, a 15 March 2021 [press statement](https://ncov.moh.gov.vn/web/guest/-/6847912-112) reports 2,482,302 RT-PCR tests as well as 3,248,873 people tested. The article also states that "the number of rooms capable of testing for ... SARS-CoV-2 using RT-PCR technique is 157 rooms, the maximum testing capacity is about 62,593 samples / day", while "the number of rooms that have been allowed for confirmed testing is 101 rooms with a maximum testing capacity of about 50,663 samples per day." In another [article](https://ncov.moh.gov.vn/web/guest/-/6847912-109), it is stated that "in case of suspected positive, positive must immediately transfer the sample to the laboratory that has been allowed to test confirm SARS-CoV-2". As such, one explanation for this discrepancy is that samples are tested multiple times.
-Bulletins published between 13 February 2020 and 28 April 2020 report the cumulative number of samples tested to date alongside the cumulative number of samples with positive test results and the cumulative number of samples with negative test results, which suggests that in this time period the total number of samples tested may be equivalent to the number of people tested. However, it is unclear whether samples with negative test results include instances of resampling for the same person.</t>
+    <t xml:space="preserve">The Vietnam General Department of Preventive Medicine provided daily COVID-19 bulletins that periodically report the cumulative number of people tested to date. The bulletins extend back to 13 February 2020 and ceased on 15 October 2021. The Ministry of Health now shares testing data on their [website](https://ncov.moh.gov.vn/).
+We have been unable to find testing figures in any of the bulletins published between 29 April 2020 and 28 July 2020, with the exception of a 4 July 2020 bulletin reporting that 379,701 samples had been tested to date. From 29 July 2020 onwards, the bulletins make it clear that the testing figures relate to PCR tests only.</t>
   </si>
   <si>
     <t xml:space="preserve">ZMB</t>
@@ -3265,7 +3257,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44594</v>
+        <v>44602</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3275,32 +3267,28 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H2" t="n">
-        <v>1570334</v>
+        <v>1576432</v>
       </c>
       <c r="I2" t="n">
-        <v>546.596</v>
+        <v>548.718</v>
       </c>
       <c r="J2" t="n">
-        <v>7554</v>
+        <v>2962</v>
       </c>
       <c r="K2" t="n">
-        <v>2.629</v>
+        <v>1.031</v>
       </c>
       <c r="L2" t="n">
-        <v>2416</v>
+        <v>759</v>
       </c>
       <c r="M2" t="n">
-        <v>0.841</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.6046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.7</v>
-      </c>
+        <v>0.264</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2"/>
       <c r="P2" t="s">
         <v>22</v>
       </c>
@@ -3371,7 +3359,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44595</v>
+        <v>44602</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3381,27 +3369,27 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>1384080</v>
+        <v>1395635</v>
       </c>
       <c r="I4" t="n">
-        <v>40.788</v>
+        <v>41.128</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4" t="n">
-        <v>2757</v>
+        <v>1651</v>
       </c>
       <c r="M4" t="n">
-        <v>0.081</v>
+        <v>0.049</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0217</v>
+        <v>0.0134</v>
       </c>
       <c r="O4" t="n">
-        <v>46.2</v>
+        <v>74.6</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -3469,7 +3457,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44597</v>
+        <v>44601</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3479,31 +3467,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="H6" t="n">
-        <v>33010119</v>
+        <v>33290034</v>
       </c>
       <c r="I6" t="n">
-        <v>723.814</v>
+        <v>729.951</v>
       </c>
       <c r="J6" t="n">
-        <v>24235</v>
+        <v>40119</v>
       </c>
       <c r="K6" t="n">
-        <v>0.531</v>
+        <v>0.88</v>
       </c>
       <c r="L6" t="n">
-        <v>49601</v>
+        <v>42310</v>
       </c>
       <c r="M6" t="n">
-        <v>1.088</v>
+        <v>0.928</v>
       </c>
       <c r="N6" t="n">
-        <v>0.402</v>
+        <v>0.306</v>
       </c>
       <c r="O6" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="P6" t="s">
         <v>49</v>
@@ -3526,7 +3514,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -3536,21 +3524,25 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="H7" t="n">
-        <v>2783288</v>
+        <v>2811771</v>
       </c>
       <c r="I7" t="n">
-        <v>937.725</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
+        <v>947.321</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6743</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.272</v>
+      </c>
       <c r="L7" t="n">
-        <v>8043</v>
+        <v>6969</v>
       </c>
       <c r="M7" t="n">
-        <v>2.71</v>
+        <v>2.348</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
@@ -3575,7 +3567,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3587,25 +3579,25 @@
         <v>61</v>
       </c>
       <c r="G8" t="n">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="H8" t="n">
-        <v>61764575</v>
+        <v>62163476</v>
       </c>
       <c r="I8" t="n">
-        <v>2395.07</v>
+        <v>2410.538</v>
       </c>
       <c r="J8" t="n">
-        <v>78593</v>
+        <v>100310</v>
       </c>
       <c r="K8" t="n">
-        <v>3.048</v>
+        <v>3.89</v>
       </c>
       <c r="L8" t="n">
-        <v>100869</v>
+        <v>95952</v>
       </c>
       <c r="M8" t="n">
-        <v>3.911</v>
+        <v>3.721</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -3630,7 +3622,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="D9" t="s">
         <v>66</v>
@@ -3640,25 +3632,25 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="H9" t="n">
-        <v>147226437</v>
+        <v>149868651</v>
       </c>
       <c r="I9" t="n">
-        <v>16280.578</v>
+        <v>16572.759</v>
       </c>
       <c r="J9" t="n">
-        <v>417128</v>
+        <v>429377</v>
       </c>
       <c r="K9" t="n">
-        <v>46.127</v>
+        <v>47.481</v>
       </c>
       <c r="L9" t="n">
-        <v>735157</v>
+        <v>585377</v>
       </c>
       <c r="M9" t="n">
-        <v>81.295</v>
+        <v>64.732</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3683,7 +3675,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44598</v>
+        <v>44602</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
@@ -3693,27 +3685,27 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H10" t="n">
-        <v>6278899</v>
+        <v>6335593</v>
       </c>
       <c r="I10" t="n">
-        <v>614.173</v>
+        <v>619.718</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="n">
-        <v>18535</v>
+        <v>18170</v>
       </c>
       <c r="M10" t="n">
-        <v>1.813</v>
+        <v>1.777</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3266</v>
+        <v>0.388</v>
       </c>
       <c r="O10" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="P10" t="s">
         <v>72</v>
@@ -3736,7 +3728,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44593</v>
+        <v>44601</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3746,27 +3738,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H11" t="n">
-        <v>210442</v>
+        <v>213711</v>
       </c>
       <c r="I11" t="n">
-        <v>530.195</v>
-      </c>
-      <c r="J11"/>
-      <c r="K11"/>
+        <v>538.431</v>
+      </c>
+      <c r="J11" t="n">
+        <v>377</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.95</v>
+      </c>
       <c r="L11" t="n">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="M11" t="n">
-        <v>1.114</v>
+        <v>1.033</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1189</v>
+        <v>0.0655</v>
       </c>
       <c r="O11" t="n">
-        <v>8.4</v>
+        <v>15.3</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3789,7 +3785,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3799,21 +3795,21 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H12" t="n">
-        <v>8965358</v>
+        <v>9081352</v>
       </c>
       <c r="I12" t="n">
-        <v>5128.058</v>
+        <v>5194.405</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>26425</v>
+        <v>29672</v>
       </c>
       <c r="M12" t="n">
-        <v>15.115</v>
+        <v>16.972</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -3838,7 +3834,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44599</v>
+        <v>44602</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
@@ -3848,28 +3844,32 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="H13" t="n">
-        <v>12751430</v>
+        <v>12878559</v>
       </c>
       <c r="I13" t="n">
-        <v>76.676</v>
+        <v>77.44</v>
       </c>
       <c r="J13" t="n">
-        <v>44471</v>
+        <v>42867</v>
       </c>
       <c r="K13" t="n">
-        <v>0.267</v>
+        <v>0.258</v>
       </c>
       <c r="L13" t="n">
-        <v>41743</v>
+        <v>40706</v>
       </c>
       <c r="M13" t="n">
-        <v>0.251</v>
-      </c>
-      <c r="N13"/>
-      <c r="O13"/>
+        <v>0.245</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.2062</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4.8</v>
+      </c>
       <c r="P13" t="s">
         <v>90</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44596</v>
+        <v>44602</v>
       </c>
       <c r="D14" t="s">
         <v>94</v>
@@ -3901,31 +3901,27 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H14" t="n">
-        <v>11870801</v>
+        <v>12045122</v>
       </c>
       <c r="I14" t="n">
-        <v>1257.118</v>
-      </c>
-      <c r="J14" t="n">
-        <v>47324</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.012</v>
-      </c>
+        <v>1275.579</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
       <c r="L14" t="n">
-        <v>37522</v>
+        <v>31664</v>
       </c>
       <c r="M14" t="n">
-        <v>3.974</v>
+        <v>3.353</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0935</v>
+        <v>0.2353</v>
       </c>
       <c r="O14" t="n">
-        <v>10.7</v>
+        <v>4.2</v>
       </c>
       <c r="P14" t="s">
         <v>96</v>
@@ -3948,7 +3944,7 @@
         <v>100</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44595</v>
+        <v>44601</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
@@ -3958,31 +3954,31 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="H15" t="n">
-        <v>30613266</v>
+        <v>30976938</v>
       </c>
       <c r="I15" t="n">
-        <v>2631.739</v>
+        <v>2663.003</v>
       </c>
       <c r="J15" t="n">
-        <v>82546</v>
+        <v>62689</v>
       </c>
       <c r="K15" t="n">
-        <v>7.096</v>
+        <v>5.389</v>
       </c>
       <c r="L15" t="n">
-        <v>87748</v>
+        <v>63523</v>
       </c>
       <c r="M15" t="n">
-        <v>7.543</v>
+        <v>5.461</v>
       </c>
       <c r="N15" t="n">
-        <v>0.416</v>
+        <v>0.343</v>
       </c>
       <c r="O15" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="P15" t="s">
         <v>103</v>
@@ -4058,23 +4054,23 @@
         <v>112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44335</v>
+        <v>44600</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>640586</v>
+        <v>604310</v>
       </c>
       <c r="I17" t="n">
-        <v>51.448</v>
+        <v>48.535</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -4083,145 +4079,149 @@
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="Q17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R17" t="s">
         <v>24</v>
       </c>
       <c r="S17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D18" t="s">
         <v>117</v>
-      </c>
-      <c r="B18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D18" t="s">
-        <v>119</v>
       </c>
       <c r="E18" t="s">
         <v>42</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H18" t="n">
-        <v>1499657</v>
+        <v>1531406</v>
       </c>
       <c r="I18" t="n">
-        <v>1922.884</v>
+        <v>1963.593</v>
       </c>
       <c r="J18" t="n">
-        <v>6353</v>
+        <v>14396</v>
       </c>
       <c r="K18" t="n">
-        <v>8.146</v>
+        <v>18.459</v>
       </c>
       <c r="L18" t="n">
-        <v>7506</v>
+        <v>7900</v>
       </c>
       <c r="M18" t="n">
-        <v>9.624</v>
-      </c>
-      <c r="N18"/>
-      <c r="O18"/>
+        <v>10.13</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="O18" t="n">
+        <v>44.3</v>
+      </c>
       <c r="P18" t="s">
         <v>42</v>
       </c>
       <c r="Q18" t="s">
+        <v>118</v>
+      </c>
+      <c r="R18" t="s">
+        <v>119</v>
+      </c>
+      <c r="S18" t="s">
         <v>120</v>
-      </c>
-      <c r="R18" t="s">
-        <v>121</v>
-      </c>
-      <c r="S18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D19" t="s">
         <v>123</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>44596</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>125</v>
       </c>
-      <c r="E19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" t="s">
-        <v>127</v>
-      </c>
       <c r="G19" t="n">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="H19" t="n">
-        <v>3687854</v>
+        <v>3723158</v>
       </c>
       <c r="I19" t="n">
-        <v>311.66</v>
+        <v>314.644</v>
       </c>
       <c r="J19" t="n">
-        <v>13849</v>
+        <v>12898</v>
       </c>
       <c r="K19" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="L19" t="n">
-        <v>13232</v>
+        <v>11549</v>
       </c>
       <c r="M19" t="n">
-        <v>1.118</v>
+        <v>0.976</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2733</v>
+        <v>0.1902</v>
       </c>
       <c r="O19" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="P19" t="s">
         <v>42</v>
       </c>
       <c r="Q19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R19" t="s">
         <v>50</v>
       </c>
       <c r="S19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>44566</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
@@ -4248,24 +4248,24 @@
         <v>4.4</v>
       </c>
       <c r="P20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R20" t="s">
         <v>50</v>
       </c>
       <c r="S20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>44595</v>
@@ -4310,122 +4310,122 @@
         <v>24</v>
       </c>
       <c r="S21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D22" t="s">
         <v>139</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>44593</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>141</v>
       </c>
-      <c r="E22" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" t="s">
-        <v>143</v>
-      </c>
       <c r="G22" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H22" t="n">
-        <v>67204366</v>
+        <v>67689970</v>
       </c>
       <c r="I22" t="n">
-        <v>314.049</v>
+        <v>316.318</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22" t="n">
-        <v>74770</v>
+        <v>69372</v>
       </c>
       <c r="M22" t="n">
-        <v>0.349</v>
+        <v>0.324</v>
       </c>
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R22" t="s">
         <v>24</v>
       </c>
       <c r="S22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D23" t="s">
         <v>145</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
         <v>146</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" t="s">
-        <v>148</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H23" t="n">
-        <v>8669990</v>
+        <v>8798625</v>
       </c>
       <c r="I23" t="n">
-        <v>1257.13</v>
+        <v>1275.782</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23" t="n">
-        <v>32851</v>
+        <v>29065</v>
       </c>
       <c r="M23" t="n">
-        <v>4.763</v>
+        <v>4.214</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2332</v>
+        <v>0.2198</v>
       </c>
       <c r="O23" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="R23" t="s">
         <v>50</v>
       </c>
       <c r="S23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44597</v>
+        <v>44602</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -4435,27 +4435,27 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
-        <v>311008</v>
+        <v>312837</v>
       </c>
       <c r="I24" t="n">
-        <v>14.467</v>
+        <v>14.553</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24" t="n">
-        <v>275</v>
+        <v>407</v>
       </c>
       <c r="M24" t="n">
-        <v>0.013</v>
+        <v>0.019</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0353</v>
+        <v>0.0112</v>
       </c>
       <c r="O24" t="n">
-        <v>28.3</v>
+        <v>89</v>
       </c>
       <c r="P24" t="s">
         <v>36</v>
@@ -4467,18 +4467,18 @@
         <v>24</v>
       </c>
       <c r="S24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44595</v>
+        <v>44602</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -4488,27 +4488,27 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H25" t="n">
-        <v>1360036</v>
+        <v>1376884</v>
       </c>
       <c r="I25" t="n">
-        <v>110.974</v>
+        <v>112.349</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25" t="n">
-        <v>2835</v>
+        <v>2407</v>
       </c>
       <c r="M25" t="n">
-        <v>0.231</v>
+        <v>0.196</v>
       </c>
       <c r="N25" t="n">
-        <v>0.015</v>
+        <v>0.0151</v>
       </c>
       <c r="O25" t="n">
-        <v>66.8</v>
+        <v>66.3</v>
       </c>
       <c r="P25" t="s">
         <v>36</v>
@@ -4520,173 +4520,169 @@
         <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D26" t="s">
         <v>158</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E26" t="s">
         <v>159</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>44449</v>
-      </c>
-      <c r="D26" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" t="s">
-        <v>161</v>
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H26" t="n">
-        <v>2289480</v>
+        <v>2816148</v>
       </c>
       <c r="I26" t="n">
-        <v>135.101</v>
+        <v>166.179</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="n">
-        <v>11829</v>
+        <v>3113</v>
       </c>
       <c r="M26" t="n">
-        <v>0.698</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.0455</v>
-      </c>
-      <c r="O26" t="n">
-        <v>22</v>
-      </c>
+        <v>0.184</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26"/>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="R26" t="s">
         <v>24</v>
       </c>
       <c r="S26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D27" t="s">
         <v>163</v>
       </c>
-      <c r="B27" t="s">
+      <c r="E27" t="s">
         <v>164</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D27" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" t="s">
-        <v>166</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="H27" t="n">
-        <v>56922667</v>
+        <v>57270143</v>
       </c>
       <c r="I27" t="n">
-        <v>1495.293</v>
+        <v>1504.42</v>
       </c>
       <c r="J27" t="n">
-        <v>46235</v>
+        <v>74433</v>
       </c>
       <c r="K27" t="n">
-        <v>1.215</v>
+        <v>1.955</v>
       </c>
       <c r="L27" t="n">
-        <v>77134</v>
+        <v>67842</v>
       </c>
       <c r="M27" t="n">
-        <v>2.026</v>
+        <v>1.782</v>
       </c>
       <c r="N27" t="n">
-        <v>0.1703</v>
+        <v>0.1569</v>
       </c>
       <c r="O27" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="P27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="R27" t="s">
         <v>50</v>
       </c>
       <c r="S27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D28" t="s">
         <v>169</v>
       </c>
-      <c r="B28" t="s">
+      <c r="E28" t="s">
         <v>170</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D28" t="s">
-        <v>171</v>
-      </c>
-      <c r="E28" t="s">
-        <v>172</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28" t="n">
-        <v>512</v>
+        <v>399</v>
       </c>
       <c r="K28" t="n">
-        <v>0.911</v>
+        <v>0.71</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R28" t="s">
         <v>50</v>
       </c>
       <c r="S28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44595</v>
+        <v>44600</v>
       </c>
       <c r="D29" t="s">
         <v>35</v>
@@ -4696,24 +4692,28 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>82526</v>
+        <v>82793</v>
       </c>
       <c r="I29" t="n">
-        <v>16.774</v>
+        <v>16.828</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="M29" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="N29"/>
-      <c r="O29"/>
+        <v>0.015</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4.9</v>
+      </c>
       <c r="P29" t="s">
         <v>36</v>
       </c>
@@ -4724,18 +4724,18 @@
         <v>24</v>
       </c>
       <c r="S29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44593</v>
+        <v>44602</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -4745,27 +4745,27 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H30" t="n">
-        <v>198518</v>
+        <v>200916</v>
       </c>
       <c r="I30" t="n">
-        <v>11.736</v>
+        <v>11.878</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M30" t="n">
         <v>0.016</v>
       </c>
       <c r="N30" t="n">
-        <v>0.043</v>
+        <v>0.0313</v>
       </c>
       <c r="O30" t="n">
-        <v>23.3</v>
+        <v>31.9</v>
       </c>
       <c r="P30" t="s">
         <v>36</v>
@@ -4777,77 +4777,81 @@
         <v>24</v>
       </c>
       <c r="S30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D31" t="s">
         <v>181</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E31" t="s">
         <v>182</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D31" t="s">
-        <v>183</v>
-      </c>
-      <c r="E31" t="s">
-        <v>184</v>
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="H31" t="n">
-        <v>30570728</v>
+        <v>30910518</v>
       </c>
       <c r="I31" t="n">
-        <v>1591.201</v>
+        <v>1608.887</v>
       </c>
       <c r="J31" t="n">
-        <v>118824</v>
+        <v>129605</v>
       </c>
       <c r="K31" t="n">
-        <v>6.185</v>
+        <v>6.746</v>
       </c>
       <c r="L31" t="n">
-        <v>124523</v>
+        <v>124301</v>
       </c>
       <c r="M31" t="n">
-        <v>6.481</v>
-      </c>
-      <c r="N31"/>
-      <c r="O31"/>
+        <v>6.47</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.2829</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3.5</v>
+      </c>
       <c r="P31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R31" t="s">
         <v>50</v>
       </c>
       <c r="S31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>44049</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
@@ -4874,141 +4878,141 @@
         <v>41741.2</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R32" t="s">
         <v>50</v>
       </c>
       <c r="S32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D33" t="s">
         <v>193</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E33" t="s">
         <v>194</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D33" t="s">
-        <v>195</v>
-      </c>
-      <c r="E33" t="s">
-        <v>196</v>
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="H33" t="n">
-        <v>32399330</v>
+        <v>32542383</v>
       </c>
       <c r="I33" t="n">
-        <v>631.987</v>
+        <v>634.777</v>
       </c>
       <c r="J33" t="n">
-        <v>42409</v>
+        <v>41962</v>
       </c>
       <c r="K33" t="n">
-        <v>0.827</v>
+        <v>0.819</v>
       </c>
       <c r="L33" t="n">
-        <v>49857</v>
+        <v>46394</v>
       </c>
       <c r="M33" t="n">
-        <v>0.973</v>
+        <v>0.905</v>
       </c>
       <c r="N33" t="n">
-        <v>0.32</v>
+        <v>0.284</v>
       </c>
       <c r="O33" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R33" t="s">
         <v>50</v>
       </c>
       <c r="S33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D34" t="s">
         <v>199</v>
-      </c>
-      <c r="B34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>44590</v>
-      </c>
-      <c r="D34" t="s">
-        <v>201</v>
       </c>
       <c r="E34" t="s">
         <v>42</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="H34" t="n">
-        <v>2595067</v>
+        <v>2681961</v>
       </c>
       <c r="I34" t="n">
-        <v>504.97</v>
+        <v>521.878</v>
       </c>
       <c r="J34" t="n">
-        <v>12261</v>
+        <v>13205</v>
       </c>
       <c r="K34" t="n">
-        <v>2.386</v>
+        <v>2.57</v>
       </c>
       <c r="L34" t="n">
-        <v>13053</v>
+        <v>12411</v>
       </c>
       <c r="M34" t="n">
-        <v>2.54</v>
+        <v>2.415</v>
       </c>
       <c r="N34" t="n">
-        <v>0.399</v>
+        <v>0.41</v>
       </c>
       <c r="O34" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R34" t="s">
         <v>31</v>
       </c>
       <c r="S34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44597</v>
+        <v>44602</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
@@ -5018,27 +5022,27 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H35" t="n">
-        <v>1363297</v>
+        <v>1374303</v>
       </c>
       <c r="I35" t="n">
-        <v>50.392</v>
+        <v>50.799</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35" t="n">
-        <v>1745</v>
+        <v>2005</v>
       </c>
       <c r="M35" t="n">
-        <v>0.065</v>
+        <v>0.074</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0228</v>
+        <v>0.0183</v>
       </c>
       <c r="O35" t="n">
-        <v>43.9</v>
+        <v>54.6</v>
       </c>
       <c r="P35" t="s">
         <v>36</v>
@@ -5050,76 +5054,76 @@
         <v>24</v>
       </c>
       <c r="S35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D36" t="s">
         <v>207</v>
       </c>
-      <c r="B36" t="s">
+      <c r="E36" t="s">
         <v>208</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" t="s">
-        <v>210</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H36" t="n">
-        <v>4331339</v>
+        <v>4387730</v>
       </c>
       <c r="I36" t="n">
-        <v>1061.172</v>
+        <v>1074.987</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>14281</v>
+        <v>12258</v>
       </c>
       <c r="M36" t="n">
-        <v>3.499</v>
+        <v>3.003</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R36" t="s">
         <v>31</v>
       </c>
       <c r="S36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>44381</v>
       </c>
       <c r="D37" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" t="s">
         <v>215</v>
-      </c>
-      <c r="E37" t="s">
-        <v>216</v>
-      </c>
-      <c r="F37" t="s">
-        <v>217</v>
       </c>
       <c r="G37" t="n">
         <v>470</v>
@@ -5149,147 +5153,147 @@
         <v>11.4</v>
       </c>
       <c r="P37" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q37" t="s">
         <v>216</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>218</v>
       </c>
       <c r="R37" t="s">
         <v>50</v>
       </c>
       <c r="S37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>218</v>
+      </c>
+      <c r="B38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D38" t="s">
         <v>220</v>
-      </c>
-      <c r="B38" t="s">
-        <v>221</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D38" t="s">
-        <v>222</v>
       </c>
       <c r="E38" t="s">
         <v>42</v>
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="H38" t="n">
-        <v>23365717</v>
+        <v>23826136</v>
       </c>
       <c r="I38" t="n">
-        <v>26077.664</v>
+        <v>26591.521</v>
       </c>
       <c r="J38" t="n">
-        <v>85567</v>
+        <v>113030</v>
       </c>
       <c r="K38" t="n">
-        <v>95.498</v>
+        <v>126.149</v>
       </c>
       <c r="L38" t="n">
-        <v>108202</v>
+        <v>107151</v>
       </c>
       <c r="M38" t="n">
-        <v>120.76</v>
+        <v>119.588</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0268</v>
+        <v>0.0233</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3</v>
+        <v>42.8</v>
       </c>
       <c r="P38" t="s">
         <v>42</v>
       </c>
       <c r="Q38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R38" t="s">
         <v>50</v>
       </c>
       <c r="S38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D39" t="s">
         <v>224</v>
-      </c>
-      <c r="B39" t="s">
-        <v>225</v>
-      </c>
-      <c r="C39" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D39" t="s">
-        <v>226</v>
       </c>
       <c r="E39" t="s">
         <v>42</v>
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="H39" t="n">
-        <v>50130668</v>
+        <v>50636599</v>
       </c>
       <c r="I39" t="n">
-        <v>4674.383</v>
+        <v>4721.558</v>
       </c>
       <c r="J39" t="n">
-        <v>39299</v>
+        <v>103410</v>
       </c>
       <c r="K39" t="n">
-        <v>3.664</v>
+        <v>9.642</v>
       </c>
       <c r="L39" t="n">
-        <v>133951</v>
+        <v>108451</v>
       </c>
       <c r="M39" t="n">
-        <v>12.49</v>
+        <v>10.112</v>
       </c>
       <c r="N39" t="n">
-        <v>0.245</v>
+        <v>0.238</v>
       </c>
       <c r="O39" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="P39" t="s">
         <v>42</v>
       </c>
       <c r="Q39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="R39" t="s">
         <v>50</v>
       </c>
       <c r="S39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>44428</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
@@ -5316,202 +5320,206 @@
         <v>15.7</v>
       </c>
       <c r="P40" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>230</v>
+      </c>
+      <c r="R40" t="s">
+        <v>119</v>
+      </c>
+      <c r="S40" t="s">
         <v>231</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>232</v>
-      </c>
-      <c r="R40" t="s">
-        <v>121</v>
-      </c>
-      <c r="S40" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D41" t="s">
         <v>234</v>
       </c>
-      <c r="B41" t="s">
+      <c r="E41" t="s">
         <v>235</v>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D41" t="s">
-        <v>236</v>
-      </c>
-      <c r="E41" t="s">
-        <v>237</v>
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="H41" t="n">
-        <v>60281530</v>
+        <v>60861638</v>
       </c>
       <c r="I41" t="n">
-        <v>10369.585</v>
+        <v>10469.375</v>
       </c>
       <c r="J41" t="n">
-        <v>66710</v>
+        <v>161830</v>
       </c>
       <c r="K41" t="n">
-        <v>11.475</v>
+        <v>27.838</v>
       </c>
       <c r="L41" t="n">
-        <v>145811</v>
+        <v>154125</v>
       </c>
       <c r="M41" t="n">
-        <v>25.082</v>
+        <v>26.512</v>
       </c>
       <c r="N41" t="n">
-        <v>0.2837</v>
+        <v>0.2779</v>
       </c>
       <c r="O41" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="R41" t="s">
         <v>50</v>
       </c>
       <c r="S41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D42" t="s">
         <v>239</v>
       </c>
-      <c r="B42" t="s">
+      <c r="E42" t="s">
         <v>240</v>
-      </c>
-      <c r="C42" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D42" t="s">
-        <v>241</v>
-      </c>
-      <c r="E42" t="s">
-        <v>242</v>
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="H42" t="n">
-        <v>2973479</v>
+        <v>3022224</v>
       </c>
       <c r="I42" t="n">
-        <v>271.459</v>
+        <v>275.909</v>
       </c>
       <c r="J42" t="n">
-        <v>6187</v>
+        <v>7257</v>
       </c>
       <c r="K42" t="n">
-        <v>0.565</v>
+        <v>0.663</v>
       </c>
       <c r="L42" t="n">
-        <v>6174</v>
+        <v>6964</v>
       </c>
       <c r="M42" t="n">
-        <v>0.564</v>
+        <v>0.636</v>
       </c>
       <c r="N42" t="n">
-        <v>0.2505</v>
+        <v>0.1629</v>
       </c>
       <c r="O42" t="n">
-        <v>4</v>
+        <v>6.1</v>
       </c>
       <c r="P42" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>241</v>
+      </c>
+      <c r="R42" t="s">
+        <v>119</v>
+      </c>
+      <c r="S42" t="s">
         <v>242</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>243</v>
-      </c>
-      <c r="R42" t="s">
-        <v>121</v>
-      </c>
-      <c r="S42" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D43" t="s">
         <v>245</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
         <v>246</v>
       </c>
-      <c r="C43" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>247</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="n">
+        <v>667</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2415871</v>
+      </c>
+      <c r="I43" t="n">
+        <v>135.052</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6711</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L43" t="n">
+        <v>8415</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.3961</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P43" t="s">
         <v>248</v>
       </c>
-      <c r="F43" t="s">
+      <c r="Q43" t="s">
         <v>249</v>
-      </c>
-      <c r="G43" t="n">
-        <v>663</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2390090</v>
-      </c>
-      <c r="I43" t="n">
-        <v>133.611</v>
-      </c>
-      <c r="J43" t="n">
-        <v>8799</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="L43" t="n">
-        <v>9420</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.527</v>
-      </c>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>251</v>
       </c>
       <c r="R43" t="s">
         <v>31</v>
       </c>
       <c r="S43" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B44" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>44591</v>
       </c>
       <c r="D44" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E44" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
@@ -5542,133 +5550,133 @@
         <v>5.4</v>
       </c>
       <c r="P44" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q44" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="R44" t="s">
         <v>50</v>
       </c>
       <c r="S44" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D45" t="s">
         <v>258</v>
       </c>
-      <c r="B45" t="s">
+      <c r="E45" t="s">
         <v>259</v>
-      </c>
-      <c r="C45" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D45" t="s">
-        <v>260</v>
-      </c>
-      <c r="E45" t="s">
-        <v>261</v>
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H45" t="n">
-        <v>280530</v>
+        <v>281167</v>
       </c>
       <c r="I45" t="n">
-        <v>193.484</v>
+        <v>193.923</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="n">
-        <v>353</v>
+        <v>200</v>
       </c>
       <c r="M45" t="n">
-        <v>0.243</v>
+        <v>0.138</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q45" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="R45" t="s">
         <v>24</v>
       </c>
       <c r="S45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>262</v>
+      </c>
+      <c r="B46" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D46" t="s">
         <v>264</v>
       </c>
-      <c r="B46" t="s">
+      <c r="E46" t="s">
         <v>265</v>
-      </c>
-      <c r="C46" s="1" t="n">
-        <v>44594</v>
-      </c>
-      <c r="D46" t="s">
-        <v>266</v>
-      </c>
-      <c r="E46" t="s">
-        <v>267</v>
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="H46" t="n">
-        <v>2876493</v>
+        <v>2968367</v>
       </c>
       <c r="I46" t="n">
-        <v>2170.63</v>
+        <v>2239.959</v>
       </c>
       <c r="J46" t="n">
-        <v>12322</v>
+        <v>9407</v>
       </c>
       <c r="K46" t="n">
-        <v>9.298</v>
+        <v>7.099</v>
       </c>
       <c r="L46" t="n">
-        <v>12471</v>
+        <v>10995</v>
       </c>
       <c r="M46" t="n">
-        <v>9.411</v>
+        <v>8.297</v>
       </c>
       <c r="N46" t="n">
-        <v>0.5016</v>
+        <v>0.6108</v>
       </c>
       <c r="O46" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="P46" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q46" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="R46" t="s">
         <v>50</v>
       </c>
       <c r="S46" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B47" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44597</v>
+        <v>44602</v>
       </c>
       <c r="D47" t="s">
         <v>35</v>
@@ -5678,266 +5686,266 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H47" t="n">
-        <v>4373295</v>
+        <v>4409020</v>
       </c>
       <c r="I47" t="n">
-        <v>37.101</v>
+        <v>37.404</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47" t="n">
-        <v>5970</v>
+        <v>6874</v>
       </c>
       <c r="M47" t="n">
-        <v>0.051</v>
+        <v>0.058</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0407</v>
+        <v>0.0213</v>
       </c>
       <c r="O47" t="n">
-        <v>24.6</v>
+        <v>46.9</v>
       </c>
       <c r="P47" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q47" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="R47" t="s">
         <v>50</v>
       </c>
       <c r="S47" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" t="s">
+        <v>273</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D48" t="s">
         <v>274</v>
       </c>
-      <c r="B48" t="s">
+      <c r="E48" t="s">
         <v>275</v>
-      </c>
-      <c r="C48" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D48" t="s">
-        <v>276</v>
-      </c>
-      <c r="E48" t="s">
-        <v>277</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H48" t="n">
-        <v>759129</v>
+        <v>764760</v>
       </c>
       <c r="I48" t="n">
-        <v>15475.69</v>
+        <v>15590.484</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>1698</v>
+        <v>1397</v>
       </c>
       <c r="M48" t="n">
-        <v>34.616</v>
+        <v>28.479</v>
       </c>
       <c r="N48" t="n">
-        <v>0.4128</v>
+        <v>0.494</v>
       </c>
       <c r="O48" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="P48" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>276</v>
+      </c>
+      <c r="R48" t="s">
         <v>277</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="S48" t="s">
         <v>278</v>
-      </c>
-      <c r="R48" t="s">
-        <v>279</v>
-      </c>
-      <c r="S48" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>279</v>
+      </c>
+      <c r="B49" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D49" t="s">
         <v>281</v>
       </c>
-      <c r="B49" t="s">
+      <c r="E49" t="s">
         <v>282</v>
-      </c>
-      <c r="C49" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D49" t="s">
-        <v>283</v>
-      </c>
-      <c r="E49" t="s">
-        <v>284</v>
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H49" t="n">
-        <v>493403</v>
+        <v>494144</v>
       </c>
       <c r="I49" t="n">
-        <v>546.465</v>
+        <v>547.286</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="M49" t="n">
-        <v>0.2</v>
+        <v>0.184</v>
       </c>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q49" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="R49" t="s">
         <v>50</v>
       </c>
       <c r="S49" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>285</v>
+      </c>
+      <c r="B50" t="s">
+        <v>286</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D50" t="s">
         <v>287</v>
       </c>
-      <c r="B50" t="s">
+      <c r="E50" t="s">
         <v>288</v>
-      </c>
-      <c r="C50" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D50" t="s">
-        <v>289</v>
-      </c>
-      <c r="E50" t="s">
-        <v>290</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="H50" t="n">
-        <v>9571370</v>
+        <v>9669938</v>
       </c>
       <c r="I50" t="n">
-        <v>1725.081</v>
+        <v>1742.846</v>
       </c>
       <c r="J50" t="n">
-        <v>2984</v>
+        <v>15688</v>
       </c>
       <c r="K50" t="n">
-        <v>0.538</v>
+        <v>2.828</v>
       </c>
       <c r="L50" t="n">
-        <v>12647</v>
+        <v>15279</v>
       </c>
       <c r="M50" t="n">
-        <v>2.279</v>
+        <v>2.754</v>
       </c>
       <c r="N50" t="n">
-        <v>0.427</v>
+        <v>0.363</v>
       </c>
       <c r="O50" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="P50" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q50" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="R50" t="s">
         <v>50</v>
       </c>
       <c r="S50" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>292</v>
+      </c>
+      <c r="B51" t="s">
+        <v>293</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D51" t="s">
         <v>294</v>
       </c>
-      <c r="B51" t="s">
+      <c r="E51" t="s">
         <v>295</v>
-      </c>
-      <c r="C51" s="1" t="n">
-        <v>44595</v>
-      </c>
-      <c r="D51" t="s">
-        <v>296</v>
-      </c>
-      <c r="E51" t="s">
-        <v>297</v>
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="H51" t="n">
-        <v>237534445</v>
+        <v>239907749</v>
       </c>
       <c r="I51" t="n">
-        <v>3523.1</v>
+        <v>3558.301</v>
       </c>
       <c r="J51" t="n">
-        <v>803204</v>
+        <v>854425</v>
       </c>
       <c r="K51" t="n">
-        <v>11.913</v>
+        <v>12.673</v>
       </c>
       <c r="L51" t="n">
-        <v>885018</v>
+        <v>722823</v>
       </c>
       <c r="M51" t="n">
-        <v>13.127</v>
+        <v>10.721</v>
       </c>
       <c r="N51" t="n">
-        <v>0.336</v>
+        <v>0.317</v>
       </c>
       <c r="O51" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P51" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="R51" t="s">
         <v>31</v>
       </c>
       <c r="S51" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B52" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44597</v>
+        <v>44602</v>
       </c>
       <c r="D52" t="s">
         <v>35</v>
@@ -5947,50 +5955,50 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H52" t="n">
-        <v>1548158</v>
+        <v>1553431</v>
       </c>
       <c r="I52" t="n">
-        <v>679.366</v>
+        <v>681.679</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52" t="n">
-        <v>1666</v>
+        <v>1245</v>
       </c>
       <c r="M52" t="n">
-        <v>0.731</v>
+        <v>0.546</v>
       </c>
       <c r="N52" t="n">
-        <v>0.045</v>
+        <v>0.0288</v>
       </c>
       <c r="O52" t="n">
-        <v>22.2</v>
+        <v>34.7</v>
       </c>
       <c r="P52" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q52" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="R52" t="s">
         <v>24</v>
       </c>
       <c r="S52" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B53" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44593</v>
+        <v>44600</v>
       </c>
       <c r="D53" t="s">
         <v>35</v>
@@ -6000,160 +6008,156 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H53" t="n">
-        <v>139940</v>
+        <v>140970</v>
       </c>
       <c r="I53" t="n">
-        <v>56.27</v>
+        <v>56.684</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53" t="n">
-        <v>289</v>
+        <v>147</v>
       </c>
       <c r="M53" t="n">
-        <v>0.116</v>
+        <v>0.059</v>
       </c>
       <c r="N53" t="n">
-        <v>0.1438</v>
+        <v>0.0165</v>
       </c>
       <c r="O53" t="n">
-        <v>7</v>
+        <v>60.5</v>
       </c>
       <c r="P53" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>305</v>
+      </c>
+      <c r="R53" t="s">
+        <v>119</v>
+      </c>
+      <c r="S53" t="s">
         <v>306</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>307</v>
-      </c>
-      <c r="R53" t="s">
-        <v>121</v>
-      </c>
-      <c r="S53" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>307</v>
+      </c>
+      <c r="B54" t="s">
+        <v>308</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D54" t="s">
         <v>309</v>
       </c>
-      <c r="B54" t="s">
+      <c r="E54" t="s">
         <v>310</v>
-      </c>
-      <c r="C54" s="1" t="n">
-        <v>44596</v>
-      </c>
-      <c r="D54" t="s">
-        <v>311</v>
-      </c>
-      <c r="E54" t="s">
-        <v>312</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H54" t="n">
-        <v>12580815</v>
+        <v>12678907</v>
       </c>
       <c r="I54" t="n">
-        <v>3161.189</v>
+        <v>3185.837</v>
       </c>
       <c r="J54" t="n">
-        <v>73821</v>
+        <v>64187</v>
       </c>
       <c r="K54" t="n">
-        <v>18.549</v>
+        <v>16.128</v>
       </c>
       <c r="L54" t="n">
-        <v>50125</v>
+        <v>14013</v>
       </c>
       <c r="M54" t="n">
-        <v>12.595</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="O54" t="n">
-        <v>2.4</v>
-      </c>
+        <v>3.521</v>
+      </c>
+      <c r="N54"/>
+      <c r="O54"/>
       <c r="P54" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Q54" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R54" t="s">
         <v>24</v>
       </c>
       <c r="S54" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>313</v>
+      </c>
+      <c r="B55" t="s">
+        <v>314</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D55" t="s">
         <v>315</v>
       </c>
-      <c r="B55" t="s">
+      <c r="E55" t="s">
         <v>316</v>
-      </c>
-      <c r="C55" s="1" t="n">
-        <v>44591</v>
-      </c>
-      <c r="D55" t="s">
-        <v>317</v>
-      </c>
-      <c r="E55" t="s">
-        <v>318</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H55" t="n">
-        <v>102009068</v>
+        <v>104632333</v>
       </c>
       <c r="I55" t="n">
-        <v>1215.834</v>
+        <v>1247.101</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55" t="n">
-        <v>362625</v>
+        <v>370940</v>
       </c>
       <c r="M55" t="n">
-        <v>4.322</v>
+        <v>4.421</v>
       </c>
       <c r="N55" t="n">
-        <v>0.406</v>
+        <v>0.444</v>
       </c>
       <c r="O55" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="P55" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Q55" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="R55" t="s">
         <v>50</v>
       </c>
       <c r="S55" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B56" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44595</v>
+        <v>44600</v>
       </c>
       <c r="D56" t="s">
         <v>35</v>
@@ -6163,28 +6167,24 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H56" t="n">
-        <v>2250718</v>
+        <v>2267437</v>
       </c>
       <c r="I56" t="n">
-        <v>70.929</v>
+        <v>71.456</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56" t="n">
-        <v>4031</v>
+        <v>3268</v>
       </c>
       <c r="M56" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.0293</v>
-      </c>
-      <c r="O56" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0.103</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56"/>
       <c r="P56" t="s">
         <v>36</v>
       </c>
@@ -6195,130 +6195,134 @@
         <v>24</v>
       </c>
       <c r="S56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>322</v>
+      </c>
+      <c r="B57" t="s">
+        <v>323</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D57" t="s">
         <v>324</v>
       </c>
-      <c r="B57" t="s">
+      <c r="E57" t="s">
         <v>325</v>
-      </c>
-      <c r="C57" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D57" t="s">
-        <v>326</v>
-      </c>
-      <c r="E57" t="s">
-        <v>327</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H57" t="n">
-        <v>59048121</v>
+        <v>60194779</v>
       </c>
       <c r="I57" t="n">
-        <v>5693.719</v>
+        <v>5804.286</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57" t="n">
-        <v>300121</v>
+        <v>308911</v>
       </c>
       <c r="M57" t="n">
-        <v>28.939</v>
-      </c>
-      <c r="N57"/>
-      <c r="O57"/>
+        <v>29.787</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.0587</v>
+      </c>
+      <c r="O57" t="n">
+        <v>17</v>
+      </c>
       <c r="P57" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>327</v>
+      </c>
+      <c r="R57" t="s">
+        <v>119</v>
+      </c>
+      <c r="S57" t="s">
         <v>328</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>329</v>
-      </c>
-      <c r="R57" t="s">
-        <v>121</v>
-      </c>
-      <c r="S57" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>329</v>
+      </c>
+      <c r="B58" t="s">
+        <v>330</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D58" t="s">
         <v>331</v>
       </c>
-      <c r="B58" t="s">
+      <c r="E58" t="s">
         <v>332</v>
-      </c>
-      <c r="C58" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D58" t="s">
-        <v>333</v>
-      </c>
-      <c r="E58" t="s">
-        <v>334</v>
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="H58" t="n">
-        <v>2025880</v>
+        <v>3719048</v>
       </c>
       <c r="I58" t="n">
-        <v>111.008</v>
+        <v>203.785</v>
       </c>
       <c r="J58" t="n">
-        <v>4350</v>
+        <v>16755</v>
       </c>
       <c r="K58" t="n">
-        <v>0.238</v>
+        <v>0.918</v>
       </c>
       <c r="L58" t="n">
-        <v>6400</v>
+        <v>12220</v>
       </c>
       <c r="M58" t="n">
-        <v>0.351</v>
+        <v>0.67</v>
       </c>
       <c r="N58" t="n">
-        <v>0.4818</v>
+        <v>0.2621</v>
       </c>
       <c r="O58" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="P58" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Q58" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="R58" t="s">
         <v>31</v>
       </c>
       <c r="S58" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B59" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>44582</v>
       </c>
       <c r="D59" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E59" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
@@ -6345,33 +6349,33 @@
         <v>3</v>
       </c>
       <c r="P59" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q59" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="R59" t="s">
         <v>24</v>
       </c>
       <c r="S59" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B60" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>44568</v>
       </c>
       <c r="D60" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E60" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
@@ -6390,33 +6394,33 @@
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q60" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="R60" t="s">
         <v>24</v>
       </c>
       <c r="S60" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B61" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>44594</v>
       </c>
       <c r="D61" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E61" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
@@ -6443,695 +6447,699 @@
         <v>1136.4</v>
       </c>
       <c r="P61" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q61" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R61" t="s">
         <v>50</v>
       </c>
       <c r="S61" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>355</v>
+      </c>
+      <c r="B62" t="s">
+        <v>356</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D62" t="s">
         <v>357</v>
       </c>
-      <c r="B62" t="s">
+      <c r="E62" t="s">
         <v>358</v>
       </c>
-      <c r="C62" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
         <v>359</v>
       </c>
-      <c r="E62" t="s">
-        <v>360</v>
-      </c>
-      <c r="F62" t="s">
-        <v>361</v>
-      </c>
       <c r="G62" t="n">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="H62" t="n">
-        <v>9869298</v>
+        <v>9978877</v>
       </c>
       <c r="I62" t="n">
-        <v>1024.406</v>
+        <v>1035.78</v>
       </c>
       <c r="J62" t="n">
-        <v>112690</v>
+        <v>37736</v>
       </c>
       <c r="K62" t="n">
-        <v>11.697</v>
+        <v>3.917</v>
       </c>
       <c r="L62" t="n">
-        <v>35541</v>
+        <v>31753</v>
       </c>
       <c r="M62" t="n">
-        <v>3.689</v>
+        <v>3.296</v>
       </c>
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q62" t="s">
         <v>360</v>
       </c>
-      <c r="Q62" t="s">
-        <v>362</v>
-      </c>
       <c r="R62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S62" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>362</v>
+      </c>
+      <c r="B63" t="s">
+        <v>363</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D63" t="s">
         <v>364</v>
       </c>
-      <c r="B63" t="s">
+      <c r="E63" t="s">
         <v>365</v>
-      </c>
-      <c r="C63" s="1" t="n">
-        <v>44595</v>
-      </c>
-      <c r="D63" t="s">
-        <v>366</v>
-      </c>
-      <c r="E63" t="s">
-        <v>367</v>
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="H63" t="n">
-        <v>1053756</v>
+        <v>1071149</v>
       </c>
       <c r="I63" t="n">
-        <v>2857.318</v>
+        <v>2904.48</v>
       </c>
       <c r="J63" t="n">
-        <v>4265</v>
+        <v>3476</v>
       </c>
       <c r="K63" t="n">
-        <v>11.565</v>
+        <v>9.425</v>
       </c>
       <c r="L63" t="n">
-        <v>4239</v>
+        <v>4487</v>
       </c>
       <c r="M63" t="n">
-        <v>11.494</v>
+        <v>12.167</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
       <c r="P63" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q63" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="R63" t="s">
         <v>50</v>
       </c>
       <c r="S63" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>367</v>
+      </c>
+      <c r="B64" t="s">
+        <v>368</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D64" t="s">
         <v>369</v>
       </c>
-      <c r="B64" t="s">
+      <c r="E64" t="s">
         <v>370</v>
       </c>
-      <c r="C64" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
         <v>371</v>
       </c>
-      <c r="E64" t="s">
-        <v>372</v>
-      </c>
-      <c r="F64" t="s">
-        <v>373</v>
-      </c>
       <c r="G64" t="n">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="H64" t="n">
-        <v>741561587</v>
+        <v>747870047</v>
       </c>
       <c r="I64" t="n">
-        <v>532.192</v>
+        <v>536.72</v>
       </c>
       <c r="J64" t="n">
-        <v>1374446</v>
+        <v>1673976</v>
       </c>
       <c r="K64" t="n">
-        <v>0.986</v>
+        <v>1.201</v>
       </c>
       <c r="L64" t="n">
-        <v>1794825</v>
+        <v>1723681</v>
       </c>
       <c r="M64" t="n">
-        <v>1.288</v>
+        <v>1.237</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>369</v>
+      </c>
+      <c r="R64" t="s">
+        <v>119</v>
+      </c>
+      <c r="S64" t="s">
         <v>372</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>371</v>
-      </c>
-      <c r="R64" t="s">
-        <v>121</v>
-      </c>
-      <c r="S64" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>373</v>
+      </c>
+      <c r="B65" t="s">
+        <v>374</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D65" t="s">
         <v>375</v>
       </c>
-      <c r="B65" t="s">
+      <c r="E65" t="s">
         <v>376</v>
-      </c>
-      <c r="C65" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D65" t="s">
-        <v>377</v>
-      </c>
-      <c r="E65" t="s">
-        <v>378</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H65" t="n">
-        <v>50201467</v>
+        <v>51378087</v>
       </c>
       <c r="I65" t="n">
-        <v>181.651</v>
+        <v>185.909</v>
       </c>
       <c r="J65" t="n">
-        <v>265559</v>
+        <v>226502</v>
       </c>
       <c r="K65" t="n">
-        <v>0.961</v>
+        <v>0.82</v>
       </c>
       <c r="L65" t="n">
-        <v>265432</v>
+        <v>249774</v>
       </c>
       <c r="M65" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0.0933</v>
-      </c>
-      <c r="O65" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0.904</v>
+      </c>
+      <c r="N65"/>
+      <c r="O65"/>
       <c r="P65" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="Q65" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="R65" t="s">
         <v>31</v>
       </c>
       <c r="S65" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>379</v>
+      </c>
+      <c r="B66" t="s">
+        <v>380</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D66" t="s">
         <v>381</v>
       </c>
-      <c r="B66" t="s">
+      <c r="E66" t="s">
         <v>382</v>
-      </c>
-      <c r="C66" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D66" t="s">
-        <v>383</v>
-      </c>
-      <c r="E66" t="s">
-        <v>384</v>
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H66" t="n">
-        <v>45505835</v>
+        <v>45806771</v>
       </c>
       <c r="I66" t="n">
-        <v>535.182</v>
+        <v>538.721</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66" t="n">
-        <v>102338</v>
+        <v>101646</v>
       </c>
       <c r="M66" t="n">
-        <v>1.204</v>
-      </c>
-      <c r="N66"/>
-      <c r="O66"/>
+        <v>1.195</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.3469</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.9</v>
+      </c>
       <c r="P66" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q66" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="R66" t="s">
         <v>50</v>
       </c>
       <c r="S66" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>386</v>
+      </c>
+      <c r="B67" t="s">
+        <v>387</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D67" t="s">
         <v>388</v>
       </c>
-      <c r="B67" t="s">
+      <c r="E67" t="s">
         <v>389</v>
-      </c>
-      <c r="C67" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D67" t="s">
-        <v>390</v>
-      </c>
-      <c r="E67" t="s">
-        <v>391</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H67" t="n">
-        <v>17571087</v>
+        <v>17670573</v>
       </c>
       <c r="I67" t="n">
-        <v>426.697</v>
+        <v>429.112</v>
       </c>
       <c r="J67" t="n">
-        <v>17791</v>
+        <v>24241</v>
       </c>
       <c r="K67" t="n">
-        <v>0.432</v>
+        <v>0.589</v>
       </c>
       <c r="L67" t="n">
-        <v>24254</v>
+        <v>23132</v>
       </c>
       <c r="M67" t="n">
-        <v>0.589</v>
+        <v>0.562</v>
       </c>
       <c r="N67" t="n">
-        <v>0.2641</v>
+        <v>0.2101</v>
       </c>
       <c r="O67" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="P67" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>391</v>
+      </c>
+      <c r="R67" t="s">
+        <v>119</v>
+      </c>
+      <c r="S67" t="s">
         <v>392</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>393</v>
-      </c>
-      <c r="R67" t="s">
-        <v>121</v>
-      </c>
-      <c r="S67" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>393</v>
+      </c>
+      <c r="B68" t="s">
+        <v>394</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D68" t="s">
         <v>395</v>
       </c>
-      <c r="B68" t="s">
+      <c r="E68" t="s">
         <v>396</v>
-      </c>
-      <c r="C68" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D68" t="s">
-        <v>397</v>
-      </c>
-      <c r="E68" t="s">
-        <v>398</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="H68" t="n">
-        <v>11062416</v>
+        <v>11135743</v>
       </c>
       <c r="I68" t="n">
-        <v>2220.074</v>
+        <v>2234.79</v>
       </c>
       <c r="J68" t="n">
-        <v>12611</v>
+        <v>17526</v>
       </c>
       <c r="K68" t="n">
-        <v>2.531</v>
+        <v>3.517</v>
       </c>
       <c r="L68" t="n">
-        <v>17360</v>
+        <v>16920</v>
       </c>
       <c r="M68" t="n">
-        <v>3.484</v>
+        <v>3.396</v>
       </c>
       <c r="N68"/>
       <c r="O68"/>
       <c r="P68" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q68" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="R68" t="s">
         <v>50</v>
       </c>
       <c r="S68" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>399</v>
+      </c>
+      <c r="B69" t="s">
+        <v>400</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D69" t="s">
         <v>401</v>
       </c>
-      <c r="B69" t="s">
+      <c r="E69" t="s">
         <v>402</v>
-      </c>
-      <c r="C69" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D69" t="s">
-        <v>403</v>
-      </c>
-      <c r="E69" t="s">
-        <v>404</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="H69" t="n">
-        <v>46575313</v>
+        <v>47224659</v>
       </c>
       <c r="I69" t="n">
-        <v>5012.949</v>
+        <v>5082.839</v>
       </c>
       <c r="J69" t="n">
-        <v>199776</v>
+        <v>132472</v>
       </c>
       <c r="K69" t="n">
-        <v>21.502</v>
+        <v>14.258</v>
       </c>
       <c r="L69" t="n">
-        <v>208548</v>
+        <v>163697</v>
       </c>
       <c r="M69" t="n">
-        <v>22.446</v>
+        <v>17.619</v>
       </c>
       <c r="N69" t="n">
-        <v>0.251</v>
+        <v>0.2198</v>
       </c>
       <c r="O69" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="P69" t="s">
         <v>42</v>
       </c>
       <c r="Q69" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="R69" t="s">
         <v>50</v>
       </c>
       <c r="S69" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>404</v>
+      </c>
+      <c r="B70" t="s">
+        <v>405</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D70" t="s">
         <v>406</v>
       </c>
-      <c r="B70" t="s">
+      <c r="E70" t="s">
         <v>407</v>
       </c>
-      <c r="C70" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
         <v>408</v>
       </c>
-      <c r="E70" t="s">
+      <c r="G70" t="n">
+        <v>717</v>
+      </c>
+      <c r="H70" t="n">
+        <v>178984246</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2964.912</v>
+      </c>
+      <c r="J70" t="n">
+        <v>683715</v>
+      </c>
+      <c r="K70" t="n">
+        <v>11.326</v>
+      </c>
+      <c r="L70" t="n">
+        <v>746525</v>
+      </c>
+      <c r="M70" t="n">
+        <v>12.366</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O70" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="P70" t="s">
         <v>409</v>
       </c>
-      <c r="F70" t="s">
+      <c r="Q70" t="s">
         <v>410</v>
-      </c>
-      <c r="G70" t="n">
-        <v>713</v>
-      </c>
-      <c r="H70" t="n">
-        <v>176176489</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2918.401</v>
-      </c>
-      <c r="J70" t="n">
-        <v>686544</v>
-      </c>
-      <c r="K70" t="n">
-        <v>11.373</v>
-      </c>
-      <c r="L70" t="n">
-        <v>860439</v>
-      </c>
-      <c r="M70" t="n">
-        <v>14.253</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0.1156</v>
-      </c>
-      <c r="O70" t="n">
-        <v>8.7</v>
-      </c>
-      <c r="P70" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>412</v>
       </c>
       <c r="R70" t="s">
         <v>50</v>
       </c>
       <c r="S70" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>412</v>
+      </c>
+      <c r="B71" t="s">
+        <v>413</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D71" t="s">
         <v>414</v>
       </c>
-      <c r="B71" t="s">
+      <c r="E71" t="s">
         <v>415</v>
-      </c>
-      <c r="C71" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D71" t="s">
-        <v>416</v>
-      </c>
-      <c r="E71" t="s">
-        <v>417</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="H71" t="n">
-        <v>808366</v>
+        <v>816101</v>
       </c>
       <c r="I71" t="n">
-        <v>271.86</v>
+        <v>274.462</v>
       </c>
       <c r="J71" t="n">
-        <v>2058</v>
+        <v>2201</v>
       </c>
       <c r="K71" t="n">
-        <v>0.692</v>
+        <v>0.74</v>
       </c>
       <c r="L71" t="n">
-        <v>2023</v>
+        <v>1926</v>
       </c>
       <c r="M71" t="n">
-        <v>0.68</v>
+        <v>0.648</v>
       </c>
       <c r="N71" t="n">
-        <v>0.1931</v>
+        <v>0.109</v>
       </c>
       <c r="O71" t="n">
-        <v>5.2</v>
+        <v>9.2</v>
       </c>
       <c r="P71" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>416</v>
+      </c>
+      <c r="R71" t="s">
+        <v>119</v>
+      </c>
+      <c r="S71" t="s">
         <v>417</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>418</v>
-      </c>
-      <c r="R71" t="s">
-        <v>121</v>
-      </c>
-      <c r="S71" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>418</v>
+      </c>
+      <c r="B72" t="s">
+        <v>419</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D72" t="s">
         <v>420</v>
       </c>
-      <c r="B72" t="s">
+      <c r="E72" t="s">
         <v>421</v>
-      </c>
-      <c r="C72" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D72" t="s">
-        <v>422</v>
-      </c>
-      <c r="E72" t="s">
-        <v>423</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="H72" t="n">
-        <v>33456153</v>
+        <v>34457138</v>
       </c>
       <c r="I72" t="n">
-        <v>265.418</v>
+        <v>273.359</v>
       </c>
       <c r="J72" t="n">
-        <v>86512</v>
+        <v>210245</v>
       </c>
       <c r="K72" t="n">
-        <v>0.686</v>
+        <v>1.668</v>
       </c>
       <c r="L72" t="n">
-        <v>218179</v>
+        <v>213415</v>
       </c>
       <c r="M72" t="n">
-        <v>1.731</v>
+        <v>1.693</v>
       </c>
       <c r="N72" t="n">
-        <v>0.4137</v>
+        <v>0.4396</v>
       </c>
       <c r="O72" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="P72" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q72" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="R72" t="s">
         <v>31</v>
       </c>
       <c r="S72" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>424</v>
+      </c>
+      <c r="B73" t="s">
+        <v>425</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D73" t="s">
         <v>426</v>
       </c>
-      <c r="B73" t="s">
+      <c r="E73" t="s">
         <v>427</v>
-      </c>
-      <c r="C73" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D73" t="s">
-        <v>428</v>
-      </c>
-      <c r="E73" t="s">
-        <v>429</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H73" t="n">
-        <v>15072131</v>
+        <v>15363142</v>
       </c>
       <c r="I73" t="n">
-        <v>1467.728</v>
+        <v>1496.067</v>
       </c>
       <c r="J73" t="n">
-        <v>58025</v>
+        <v>72951</v>
       </c>
       <c r="K73" t="n">
-        <v>5.65</v>
+        <v>7.104</v>
       </c>
       <c r="L73" t="n">
-        <v>53699</v>
+        <v>67744</v>
       </c>
       <c r="M73" t="n">
-        <v>5.229</v>
-      </c>
-      <c r="N73"/>
-      <c r="O73"/>
+        <v>6.597</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.2906</v>
+      </c>
+      <c r="O73" t="n">
+        <v>3.4</v>
+      </c>
       <c r="P73" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Q73" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="R73" t="s">
         <v>50</v>
       </c>
       <c r="S73" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B74" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>44355</v>
       </c>
       <c r="D74" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E74" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
@@ -7162,27 +7170,27 @@
         <v>33.4</v>
       </c>
       <c r="P74" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Q74" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="R74" t="s">
         <v>50</v>
       </c>
       <c r="S74" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B75" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44597</v>
+        <v>44602</v>
       </c>
       <c r="D75" t="s">
         <v>35</v>
@@ -7192,27 +7200,27 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H75" t="n">
-        <v>3240690</v>
+        <v>3272286</v>
       </c>
       <c r="I75" t="n">
-        <v>58.937</v>
+        <v>59.512</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75" t="n">
-        <v>3810</v>
+        <v>5494</v>
       </c>
       <c r="M75" t="n">
-        <v>0.069</v>
+        <v>0.1</v>
       </c>
       <c r="N75" t="n">
-        <v>0.0303</v>
+        <v>0.0148</v>
       </c>
       <c r="O75" t="n">
-        <v>33</v>
+        <v>67.5</v>
       </c>
       <c r="P75" t="s">
         <v>36</v>
@@ -7224,242 +7232,246 @@
         <v>50</v>
       </c>
       <c r="S75" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>438</v>
+      </c>
+      <c r="B76" t="s">
+        <v>439</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D76" t="s">
         <v>440</v>
       </c>
-      <c r="B76" t="s">
+      <c r="E76" t="s">
         <v>441</v>
-      </c>
-      <c r="C76" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D76" t="s">
-        <v>442</v>
-      </c>
-      <c r="E76" t="s">
-        <v>443</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H76" t="n">
-        <v>1697491</v>
+        <v>1717757</v>
       </c>
       <c r="I76" t="n">
-        <v>952.515</v>
+        <v>963.887</v>
       </c>
       <c r="J76" t="n">
-        <v>6969</v>
+        <v>4285</v>
       </c>
       <c r="K76" t="n">
-        <v>3.911</v>
+        <v>2.404</v>
       </c>
       <c r="L76" t="n">
-        <v>9563</v>
+        <v>5617</v>
       </c>
       <c r="M76" t="n">
-        <v>5.366</v>
+        <v>3.152</v>
       </c>
       <c r="N76" t="n">
-        <v>0.2135</v>
+        <v>0.2454</v>
       </c>
       <c r="O76" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="P76" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q76" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="R76" t="s">
         <v>24</v>
       </c>
       <c r="S76" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>444</v>
+      </c>
+      <c r="B77" t="s">
+        <v>445</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D77" t="s">
         <v>446</v>
       </c>
-      <c r="B77" t="s">
+      <c r="E77" t="s">
         <v>447</v>
-      </c>
-      <c r="C77" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D77" t="s">
-        <v>448</v>
-      </c>
-      <c r="E77" t="s">
-        <v>449</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H77" t="n">
-        <v>7142068</v>
+        <v>7226936</v>
       </c>
       <c r="I77" t="n">
-        <v>1649.99</v>
+        <v>1669.596</v>
       </c>
       <c r="J77" t="n">
-        <v>31464</v>
+        <v>28081</v>
       </c>
       <c r="K77" t="n">
-        <v>7.269</v>
+        <v>6.487</v>
       </c>
       <c r="L77" t="n">
-        <v>32706</v>
+        <v>29801</v>
       </c>
       <c r="M77" t="n">
-        <v>7.556</v>
-      </c>
-      <c r="N77"/>
-      <c r="O77"/>
+        <v>6.885</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.1398</v>
+      </c>
+      <c r="O77" t="n">
+        <v>7.2</v>
+      </c>
       <c r="P77" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q77" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="R77" t="s">
         <v>50</v>
       </c>
       <c r="S77" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>450</v>
+      </c>
+      <c r="B78" t="s">
+        <v>451</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D78" t="s">
         <v>452</v>
-      </c>
-      <c r="B78" t="s">
-        <v>453</v>
-      </c>
-      <c r="C78" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D78" t="s">
-        <v>454</v>
       </c>
       <c r="E78" t="s">
         <v>42</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H78" t="n">
-        <v>960971</v>
+        <v>963981</v>
       </c>
       <c r="I78" t="n">
-        <v>130.224</v>
+        <v>130.632</v>
       </c>
       <c r="J78" t="n">
-        <v>2887</v>
+        <v>3010</v>
       </c>
       <c r="K78" t="n">
-        <v>0.391</v>
+        <v>0.408</v>
       </c>
       <c r="L78" t="n">
-        <v>1841</v>
+        <v>842</v>
       </c>
       <c r="M78" t="n">
-        <v>0.249</v>
+        <v>0.114</v>
       </c>
       <c r="N78"/>
       <c r="O78"/>
       <c r="P78" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>454</v>
+      </c>
+      <c r="R78" t="s">
+        <v>277</v>
+      </c>
+      <c r="S78" t="s">
         <v>455</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>456</v>
-      </c>
-      <c r="R78" t="s">
-        <v>279</v>
-      </c>
-      <c r="S78" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>456</v>
+      </c>
+      <c r="B79" t="s">
+        <v>457</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D79" t="s">
         <v>458</v>
       </c>
-      <c r="B79" t="s">
+      <c r="E79" t="s">
         <v>459</v>
       </c>
-      <c r="C79" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="F79" t="s">
         <v>460</v>
       </c>
-      <c r="E79" t="s">
-        <v>461</v>
-      </c>
-      <c r="F79" t="s">
-        <v>462</v>
-      </c>
       <c r="G79" t="n">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="H79" t="n">
-        <v>6207688</v>
+        <v>6319786</v>
       </c>
       <c r="I79" t="n">
-        <v>3325.071</v>
+        <v>3385.115</v>
       </c>
       <c r="J79" t="n">
-        <v>9396</v>
+        <v>28049</v>
       </c>
       <c r="K79" t="n">
-        <v>5.033</v>
+        <v>15.024</v>
       </c>
       <c r="L79" t="n">
-        <v>22407</v>
+        <v>23693</v>
       </c>
       <c r="M79" t="n">
-        <v>12.002</v>
+        <v>12.691</v>
       </c>
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Q79" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="R79" t="s">
         <v>50</v>
       </c>
       <c r="S79" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B80" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>44370</v>
       </c>
       <c r="D80" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E80" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
@@ -7482,78 +7494,78 @@
       <c r="N80"/>
       <c r="O80"/>
       <c r="P80" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Q80" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="R80" t="s">
         <v>24</v>
       </c>
       <c r="S80" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>467</v>
+      </c>
+      <c r="B81" t="s">
+        <v>468</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D81" t="s">
         <v>469</v>
       </c>
-      <c r="B81" t="s">
+      <c r="E81" t="s">
         <v>470</v>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D81" t="s">
-        <v>471</v>
-      </c>
-      <c r="E81" t="s">
-        <v>472</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H81"/>
       <c r="I81"/>
       <c r="J81" t="n">
-        <v>14735</v>
+        <v>10164</v>
       </c>
       <c r="K81" t="n">
-        <v>2.118</v>
+        <v>1.461</v>
       </c>
       <c r="L81"/>
       <c r="M81"/>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>471</v>
+      </c>
+      <c r="R81" t="s">
+        <v>119</v>
+      </c>
+      <c r="S81" t="s">
         <v>472</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>473</v>
-      </c>
-      <c r="R81" t="s">
-        <v>121</v>
-      </c>
-      <c r="S81" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B82" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>44571</v>
       </c>
       <c r="D82" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E82" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
@@ -7584,147 +7596,147 @@
         <v>2.9</v>
       </c>
       <c r="P82" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="Q82" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="R82" t="s">
         <v>50</v>
       </c>
       <c r="S82" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>479</v>
+      </c>
+      <c r="B83" t="s">
+        <v>480</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D83" t="s">
         <v>481</v>
       </c>
-      <c r="B83" t="s">
+      <c r="E83" t="s">
         <v>482</v>
-      </c>
-      <c r="C83" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D83" t="s">
-        <v>483</v>
-      </c>
-      <c r="E83" t="s">
-        <v>484</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H83" t="n">
-        <v>7785710</v>
+        <v>7808956</v>
       </c>
       <c r="I83" t="n">
-        <v>2894.464</v>
+        <v>2903.107</v>
       </c>
       <c r="J83" t="n">
-        <v>15560</v>
+        <v>22609</v>
       </c>
       <c r="K83" t="n">
-        <v>5.785</v>
+        <v>8.405</v>
       </c>
       <c r="L83" t="n">
-        <v>28687</v>
+        <v>27714</v>
       </c>
       <c r="M83" t="n">
-        <v>10.665</v>
+        <v>10.303</v>
       </c>
       <c r="N83" t="n">
-        <v>0.463</v>
+        <v>0.477</v>
       </c>
       <c r="O83" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P83" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q83" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="R83" t="s">
         <v>50</v>
       </c>
       <c r="S83" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>484</v>
+      </c>
+      <c r="B84" t="s">
+        <v>485</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D84" t="s">
         <v>486</v>
       </c>
-      <c r="B84" t="s">
+      <c r="E84" t="s">
         <v>487</v>
-      </c>
-      <c r="C84" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D84" t="s">
-        <v>488</v>
-      </c>
-      <c r="E84" t="s">
-        <v>489</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="H84" t="n">
-        <v>4011971</v>
+        <v>4025649</v>
       </c>
       <c r="I84" t="n">
-        <v>6319.916</v>
+        <v>6341.462</v>
       </c>
       <c r="J84" t="n">
-        <v>4018</v>
+        <v>4280</v>
       </c>
       <c r="K84" t="n">
-        <v>6.329</v>
+        <v>6.742</v>
       </c>
       <c r="L84" t="n">
-        <v>4628</v>
+        <v>4000</v>
       </c>
       <c r="M84" t="n">
-        <v>7.29</v>
+        <v>6.301</v>
       </c>
       <c r="N84" t="n">
-        <v>0.342</v>
+        <v>0.304</v>
       </c>
       <c r="O84" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P84" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="Q84" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="R84" t="s">
         <v>50</v>
       </c>
       <c r="S84" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B85" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>44575</v>
       </c>
       <c r="D85" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E85" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
@@ -7760,18 +7772,18 @@
         <v>24</v>
       </c>
       <c r="S85" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B86" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44597</v>
+        <v>44602</v>
       </c>
       <c r="D86" t="s">
         <v>35</v>
@@ -7781,27 +7793,27 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H86" t="n">
-        <v>532347</v>
+        <v>535771</v>
       </c>
       <c r="I86" t="n">
-        <v>27.095</v>
+        <v>27.269</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86" t="n">
-        <v>850</v>
+        <v>759</v>
       </c>
       <c r="M86" t="n">
-        <v>0.043</v>
+        <v>0.039</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0682</v>
+        <v>0.0457</v>
       </c>
       <c r="O86" t="n">
-        <v>14.7</v>
+        <v>21.9</v>
       </c>
       <c r="P86" t="s">
         <v>36</v>
@@ -7813,187 +7825,187 @@
         <v>50</v>
       </c>
       <c r="S86" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>497</v>
+      </c>
+      <c r="B87" t="s">
+        <v>498</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D87" t="s">
         <v>499</v>
       </c>
-      <c r="B87" t="s">
+      <c r="E87" t="s">
         <v>500</v>
       </c>
-      <c r="C87" s="1" t="n">
-        <v>44596</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="F87" t="s">
         <v>501</v>
       </c>
-      <c r="E87" t="s">
-        <v>502</v>
-      </c>
-      <c r="F87" t="s">
-        <v>503</v>
-      </c>
       <c r="G87" t="n">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="H87" t="n">
-        <v>45763421</v>
+        <v>46526887</v>
       </c>
       <c r="I87" t="n">
-        <v>1396.24</v>
+        <v>1419.533</v>
       </c>
       <c r="J87" t="n">
-        <v>134443</v>
+        <v>226392</v>
       </c>
       <c r="K87" t="n">
-        <v>4.102</v>
+        <v>6.907</v>
       </c>
       <c r="L87" t="n">
-        <v>102080</v>
+        <v>159189</v>
       </c>
       <c r="M87" t="n">
-        <v>3.114</v>
+        <v>4.857</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0547</v>
+        <v>0.0564</v>
       </c>
       <c r="O87" t="n">
-        <v>18.3</v>
+        <v>17.7</v>
       </c>
       <c r="P87" t="s">
         <v>42</v>
       </c>
       <c r="Q87" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="R87" t="s">
         <v>31</v>
       </c>
       <c r="S87" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>504</v>
+      </c>
+      <c r="B88" t="s">
+        <v>505</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D88" t="s">
         <v>506</v>
       </c>
-      <c r="B88" t="s">
+      <c r="E88" t="s">
         <v>507</v>
-      </c>
-      <c r="C88" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D88" t="s">
-        <v>508</v>
-      </c>
-      <c r="E88" t="s">
-        <v>509</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="H88" t="n">
-        <v>2096109</v>
+        <v>2115525</v>
       </c>
       <c r="I88" t="n">
-        <v>3855.835</v>
+        <v>3891.551</v>
       </c>
       <c r="J88" t="n">
-        <v>5792</v>
+        <v>4781</v>
       </c>
       <c r="K88" t="n">
-        <v>10.655</v>
+        <v>8.795</v>
       </c>
       <c r="L88" t="n">
-        <v>6111</v>
+        <v>5185</v>
       </c>
       <c r="M88" t="n">
-        <v>11.241</v>
+        <v>9.538</v>
       </c>
       <c r="N88" t="n">
-        <v>0.3322</v>
+        <v>0.2998</v>
       </c>
       <c r="O88" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P88" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>508</v>
+      </c>
+      <c r="R88" t="s">
+        <v>119</v>
+      </c>
+      <c r="S88" t="s">
         <v>509</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>510</v>
-      </c>
-      <c r="R88" t="s">
-        <v>121</v>
-      </c>
-      <c r="S88" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>510</v>
+      </c>
+      <c r="B89" t="s">
+        <v>511</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D89" t="s">
         <v>512</v>
       </c>
-      <c r="B89" t="s">
+      <c r="E89" t="s">
         <v>513</v>
-      </c>
-      <c r="C89" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D89" t="s">
-        <v>514</v>
-      </c>
-      <c r="E89" t="s">
-        <v>515</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="H89" t="n">
-        <v>1702683</v>
+        <v>1710457</v>
       </c>
       <c r="I89" t="n">
-        <v>3299.134</v>
+        <v>3314.197</v>
       </c>
       <c r="J89" t="n">
-        <v>1859</v>
+        <v>1658</v>
       </c>
       <c r="K89" t="n">
-        <v>3.602</v>
+        <v>3.213</v>
       </c>
       <c r="L89" t="n">
-        <v>2307</v>
+        <v>1987</v>
       </c>
       <c r="M89" t="n">
-        <v>4.47</v>
+        <v>3.85</v>
       </c>
       <c r="N89"/>
       <c r="O89"/>
       <c r="P89" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="Q89" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="R89" t="s">
         <v>50</v>
       </c>
       <c r="S89" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B90" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44597</v>
+        <v>44602</v>
       </c>
       <c r="D90" t="s">
         <v>35</v>
@@ -8003,176 +8015,176 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H90" t="n">
-        <v>844397</v>
+        <v>855121</v>
       </c>
       <c r="I90" t="n">
-        <v>176.833</v>
+        <v>179.079</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90" t="n">
-        <v>2622</v>
+        <v>2245</v>
       </c>
       <c r="M90" t="n">
-        <v>0.549</v>
+        <v>0.47</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0171</v>
+        <v>0.0102</v>
       </c>
       <c r="O90" t="n">
-        <v>58.5</v>
+        <v>97.6</v>
       </c>
       <c r="P90" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Q90" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="R90" t="s">
         <v>50</v>
       </c>
       <c r="S90" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>522</v>
+      </c>
+      <c r="B91" t="s">
+        <v>523</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D91" t="s">
         <v>524</v>
       </c>
-      <c r="B91" t="s">
+      <c r="E91" t="s">
         <v>525</v>
-      </c>
-      <c r="C91" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D91" t="s">
-        <v>526</v>
-      </c>
-      <c r="E91" t="s">
-        <v>527</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="H91" t="n">
-        <v>13773683</v>
+        <v>13895250</v>
       </c>
       <c r="I91" t="n">
-        <v>105.738</v>
+        <v>106.671</v>
       </c>
       <c r="J91" t="n">
-        <v>4137</v>
+        <v>9561</v>
       </c>
       <c r="K91" t="n">
-        <v>0.032</v>
+        <v>0.073</v>
       </c>
       <c r="L91" t="n">
-        <v>20743</v>
+        <v>13938</v>
       </c>
       <c r="M91" t="n">
-        <v>0.159</v>
+        <v>0.107</v>
       </c>
       <c r="N91" t="n">
-        <v>0.603</v>
+        <v>0.563</v>
       </c>
       <c r="O91" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P91" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Q91" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="R91" t="s">
         <v>31</v>
       </c>
       <c r="S91" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>528</v>
+      </c>
+      <c r="B92" t="s">
+        <v>529</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D92" t="s">
         <v>530</v>
       </c>
-      <c r="B92" t="s">
+      <c r="E92" t="s">
         <v>531</v>
-      </c>
-      <c r="C92" s="1" t="n">
-        <v>44596</v>
-      </c>
-      <c r="D92" t="s">
-        <v>532</v>
-      </c>
-      <c r="E92" t="s">
-        <v>533</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H92"/>
       <c r="I92"/>
       <c r="J92" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K92" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="L92"/>
       <c r="M92"/>
       <c r="N92"/>
       <c r="O92"/>
       <c r="P92" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="Q92" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="R92" t="s">
         <v>24</v>
       </c>
       <c r="S92" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>535</v>
+      </c>
+      <c r="B93" t="s">
+        <v>536</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D93" t="s">
         <v>537</v>
-      </c>
-      <c r="B93" t="s">
-        <v>538</v>
-      </c>
-      <c r="C93" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D93" t="s">
-        <v>539</v>
       </c>
       <c r="E93" t="s">
         <v>42</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H93" t="n">
-        <v>6941687</v>
+        <v>7003022</v>
       </c>
       <c r="I93" t="n">
-        <v>2085.04</v>
+        <v>2103.463</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>8937</v>
+        <v>12205</v>
       </c>
       <c r="M93" t="n">
-        <v>2.684</v>
+        <v>3.666</v>
       </c>
       <c r="N93"/>
       <c r="O93"/>
@@ -8180,81 +8192,81 @@
         <v>42</v>
       </c>
       <c r="Q93" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="R93" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S93" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>540</v>
+      </c>
+      <c r="B94" t="s">
+        <v>541</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D94" t="s">
         <v>542</v>
       </c>
-      <c r="B94" t="s">
+      <c r="E94" t="s">
         <v>543</v>
-      </c>
-      <c r="C94" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D94" t="s">
-        <v>544</v>
-      </c>
-      <c r="E94" t="s">
-        <v>545</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H94" t="n">
-        <v>10721328</v>
+        <v>10786146</v>
       </c>
       <c r="I94" t="n">
-        <v>287.09</v>
+        <v>288.826</v>
       </c>
       <c r="J94" t="n">
-        <v>11189</v>
+        <v>18973</v>
       </c>
       <c r="K94" t="n">
-        <v>0.3</v>
+        <v>0.508</v>
       </c>
       <c r="L94" t="n">
-        <v>15503</v>
+        <v>15249</v>
       </c>
       <c r="M94" t="n">
-        <v>0.415</v>
+        <v>0.408</v>
       </c>
       <c r="N94" t="n">
-        <v>0.146</v>
+        <v>0.1003</v>
       </c>
       <c r="O94" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="P94" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="Q94" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="R94" t="s">
         <v>31</v>
       </c>
       <c r="S94" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B95" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44597</v>
+        <v>44602</v>
       </c>
       <c r="D95" t="s">
         <v>35</v>
@@ -8264,27 +8276,27 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H95" t="n">
-        <v>1235592</v>
+        <v>1242168</v>
       </c>
       <c r="I95" t="n">
-        <v>38.417</v>
+        <v>38.621</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
       <c r="L95" t="n">
-        <v>2181</v>
+        <v>1820</v>
       </c>
       <c r="M95" t="n">
-        <v>0.068</v>
+        <v>0.057</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0374</v>
+        <v>0.0327</v>
       </c>
       <c r="O95" t="n">
-        <v>26.7</v>
+        <v>30.6</v>
       </c>
       <c r="P95" t="s">
         <v>36</v>
@@ -8296,71 +8308,71 @@
         <v>24</v>
       </c>
       <c r="S95" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>549</v>
+      </c>
+      <c r="B96" t="s">
+        <v>550</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D96" t="s">
         <v>551</v>
       </c>
-      <c r="B96" t="s">
+      <c r="E96" t="s">
         <v>552</v>
-      </c>
-      <c r="C96" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D96" t="s">
-        <v>553</v>
-      </c>
-      <c r="E96" t="s">
-        <v>554</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H96" t="n">
-        <v>6521501</v>
+        <v>6619542</v>
       </c>
       <c r="I96" t="n">
-        <v>118.992</v>
+        <v>120.781</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
       <c r="L96" t="n">
-        <v>24922</v>
+        <v>22106</v>
       </c>
       <c r="M96" t="n">
-        <v>0.455</v>
+        <v>0.403</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0152</v>
+        <v>0.0323</v>
       </c>
       <c r="O96" t="n">
-        <v>65.9</v>
+        <v>30.9</v>
       </c>
       <c r="P96" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>553</v>
+      </c>
+      <c r="R96" t="s">
+        <v>119</v>
+      </c>
+      <c r="S96" t="s">
         <v>554</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>555</v>
-      </c>
-      <c r="R96" t="s">
-        <v>121</v>
-      </c>
-      <c r="S96" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B97" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44597</v>
+        <v>44602</v>
       </c>
       <c r="D97" t="s">
         <v>35</v>
@@ -8370,56 +8382,56 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H97" t="n">
-        <v>928364</v>
+        <v>932707</v>
       </c>
       <c r="I97" t="n">
-        <v>358.81</v>
+        <v>360.488</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97" t="n">
-        <v>1339</v>
+        <v>1065</v>
       </c>
       <c r="M97" t="n">
-        <v>0.518</v>
+        <v>0.412</v>
       </c>
       <c r="N97" t="n">
-        <v>0.0553</v>
+        <v>0.0618</v>
       </c>
       <c r="O97" t="n">
-        <v>18.1</v>
+        <v>16.2</v>
       </c>
       <c r="P97" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>558</v>
+      </c>
+      <c r="R97" t="s">
+        <v>119</v>
+      </c>
+      <c r="S97" t="s">
         <v>559</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>560</v>
-      </c>
-      <c r="R97" t="s">
-        <v>121</v>
-      </c>
-      <c r="S97" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B98" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>44599</v>
       </c>
       <c r="D98" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
@@ -8443,142 +8455,146 @@
       <c r="M98" t="n">
         <v>0.258</v>
       </c>
-      <c r="N98"/>
-      <c r="O98"/>
+      <c r="N98" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="O98" t="n">
+        <v>4</v>
+      </c>
       <c r="P98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="Q98" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="R98" t="s">
         <v>50</v>
       </c>
       <c r="S98" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>566</v>
+      </c>
+      <c r="B99" t="s">
+        <v>567</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D99" t="s">
         <v>568</v>
       </c>
-      <c r="B99" t="s">
+      <c r="E99" t="s">
         <v>569</v>
-      </c>
-      <c r="C99" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D99" t="s">
-        <v>570</v>
-      </c>
-      <c r="E99" t="s">
-        <v>571</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="H99" t="n">
-        <v>26300050</v>
+        <v>26704995</v>
       </c>
       <c r="I99" t="n">
-        <v>1531.468</v>
+        <v>1555.049</v>
       </c>
       <c r="J99" t="n">
-        <v>127929</v>
+        <v>138987</v>
       </c>
       <c r="K99" t="n">
-        <v>7.449</v>
+        <v>8.093</v>
       </c>
       <c r="L99" t="n">
-        <v>141126</v>
+        <v>138437</v>
       </c>
       <c r="M99" t="n">
-        <v>8.218</v>
+        <v>8.061</v>
       </c>
       <c r="N99" t="n">
-        <v>0.5589</v>
+        <v>0.8378</v>
       </c>
       <c r="O99" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="P99" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="Q99" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="R99" t="s">
         <v>31</v>
       </c>
       <c r="S99" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>572</v>
+      </c>
+      <c r="B100" t="s">
+        <v>573</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D100" t="s">
         <v>574</v>
-      </c>
-      <c r="B100" t="s">
-        <v>575</v>
-      </c>
-      <c r="C100" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D100" t="s">
-        <v>576</v>
       </c>
       <c r="E100" t="s">
         <v>42</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H100" t="n">
-        <v>6168565</v>
+        <v>6249107</v>
       </c>
       <c r="I100" t="n">
-        <v>1203.317</v>
+        <v>1219.029</v>
       </c>
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100" t="n">
-        <v>19271</v>
+        <v>18817</v>
       </c>
       <c r="M100" t="n">
-        <v>3.759</v>
+        <v>3.671</v>
       </c>
       <c r="N100"/>
       <c r="O100"/>
       <c r="P100" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="Q100" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="R100" t="s">
         <v>50</v>
       </c>
       <c r="S100" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B101" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>44598</v>
       </c>
       <c r="D101" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E101" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
@@ -8605,30 +8621,30 @@
         <v>87.5</v>
       </c>
       <c r="P101" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="Q101" t="s">
+        <v>580</v>
+      </c>
+      <c r="R101" t="s">
+        <v>119</v>
+      </c>
+      <c r="S101" t="s">
         <v>582</v>
-      </c>
-      <c r="R101" t="s">
-        <v>121</v>
-      </c>
-      <c r="S101" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B102" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>44571</v>
       </c>
       <c r="D102" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E102" t="s">
         <v>42</v>
@@ -8661,87 +8677,87 @@
         <v>42</v>
       </c>
       <c r="Q102" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="R102" t="s">
         <v>50</v>
       </c>
       <c r="S102" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>588</v>
+      </c>
+      <c r="B103" t="s">
+        <v>589</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D103" t="s">
         <v>590</v>
       </c>
-      <c r="B103" t="s">
+      <c r="E103" t="s">
         <v>591</v>
-      </c>
-      <c r="C103" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D103" t="s">
-        <v>592</v>
-      </c>
-      <c r="E103" t="s">
-        <v>593</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="H103" t="n">
-        <v>10278902</v>
+        <v>10407016</v>
       </c>
       <c r="I103" t="n">
-        <v>1880.644</v>
+        <v>1904.084</v>
       </c>
       <c r="J103" t="n">
-        <v>12310</v>
+        <v>31743</v>
       </c>
       <c r="K103" t="n">
-        <v>2.252</v>
+        <v>5.808</v>
       </c>
       <c r="L103" t="n">
-        <v>28707</v>
+        <v>28149</v>
       </c>
       <c r="M103" t="n">
-        <v>5.252</v>
+        <v>5.15</v>
       </c>
       <c r="N103" t="n">
-        <v>0.6587</v>
+        <v>0.6842</v>
       </c>
       <c r="O103" t="n">
         <v>1.5</v>
       </c>
       <c r="P103" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Q103" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="R103" t="s">
         <v>31</v>
       </c>
       <c r="S103" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B104" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C104" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="D104" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E104" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
@@ -8760,188 +8776,184 @@
       <c r="N104"/>
       <c r="O104"/>
       <c r="P104" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q104" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="R104" t="s">
         <v>85</v>
       </c>
       <c r="S104" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>599</v>
+      </c>
+      <c r="B105" t="s">
+        <v>600</v>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D105" t="s">
         <v>601</v>
       </c>
-      <c r="B105" t="s">
+      <c r="E105" t="s">
         <v>602</v>
-      </c>
-      <c r="C105" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D105" t="s">
-        <v>603</v>
-      </c>
-      <c r="E105" t="s">
-        <v>604</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H105" t="n">
-        <v>25422966</v>
+        <v>25639757</v>
       </c>
       <c r="I105" t="n">
-        <v>112.891</v>
+        <v>113.853</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
       <c r="L105" t="n">
-        <v>57798</v>
+        <v>54433</v>
       </c>
       <c r="M105" t="n">
-        <v>0.257</v>
+        <v>0.242</v>
       </c>
       <c r="N105"/>
       <c r="O105"/>
       <c r="P105" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="Q105" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="R105" t="s">
         <v>50</v>
       </c>
       <c r="S105" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>604</v>
+      </c>
+      <c r="B106" t="s">
+        <v>605</v>
+      </c>
+      <c r="C106" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D106" t="s">
         <v>606</v>
-      </c>
-      <c r="B106" t="s">
-        <v>607</v>
-      </c>
-      <c r="C106" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D106" t="s">
-        <v>608</v>
       </c>
       <c r="E106" t="s">
         <v>42</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H106"/>
       <c r="I106"/>
       <c r="J106" t="n">
-        <v>17245</v>
+        <v>12264</v>
       </c>
       <c r="K106" t="n">
-        <v>3.302</v>
-      </c>
-      <c r="L106" t="n">
-        <v>19067</v>
-      </c>
-      <c r="M106" t="n">
-        <v>3.651</v>
-      </c>
+        <v>2.348</v>
+      </c>
+      <c r="L106"/>
+      <c r="M106"/>
       <c r="N106"/>
       <c r="O106"/>
       <c r="P106" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="Q106" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="R106" t="s">
         <v>50</v>
       </c>
       <c r="S106" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>610</v>
+      </c>
+      <c r="B107" t="s">
+        <v>611</v>
+      </c>
+      <c r="C107" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D107" t="s">
         <v>612</v>
       </c>
-      <c r="B107" t="s">
+      <c r="E107" t="s">
         <v>613</v>
-      </c>
-      <c r="C107" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D107" t="s">
-        <v>614</v>
-      </c>
-      <c r="E107" t="s">
-        <v>615</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="H107" t="n">
-        <v>5298400</v>
+        <v>5363176</v>
       </c>
       <c r="I107" t="n">
-        <v>1209.243</v>
+        <v>1224.027</v>
       </c>
       <c r="J107" t="n">
-        <v>17066</v>
+        <v>12701</v>
       </c>
       <c r="K107" t="n">
-        <v>3.895</v>
+        <v>2.899</v>
       </c>
       <c r="L107" t="n">
-        <v>19111</v>
+        <v>14245</v>
       </c>
       <c r="M107" t="n">
-        <v>4.362</v>
+        <v>3.251</v>
       </c>
       <c r="N107" t="n">
-        <v>0.2156</v>
+        <v>0.2055</v>
       </c>
       <c r="O107" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="P107" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="Q107" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R107" t="s">
         <v>50</v>
       </c>
       <c r="S107" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B108" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>44304</v>
       </c>
       <c r="D108" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E108" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
@@ -8968,90 +8980,90 @@
         <v>5.1</v>
       </c>
       <c r="P108" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Q108" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="R108" t="s">
         <v>24</v>
       </c>
       <c r="S108" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>621</v>
+      </c>
+      <c r="B109" t="s">
+        <v>622</v>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D109" t="s">
         <v>623</v>
       </c>
-      <c r="B109" t="s">
+      <c r="E109" t="s">
         <v>624</v>
-      </c>
-      <c r="C109" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D109" t="s">
-        <v>625</v>
-      </c>
-      <c r="E109" t="s">
-        <v>626</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="H109" t="n">
-        <v>2433613</v>
+        <v>2469716</v>
       </c>
       <c r="I109" t="n">
-        <v>337.082</v>
+        <v>342.083</v>
       </c>
       <c r="J109" t="n">
-        <v>11715</v>
+        <v>8507</v>
       </c>
       <c r="K109" t="n">
-        <v>1.623</v>
+        <v>1.178</v>
       </c>
       <c r="L109" t="n">
-        <v>12150</v>
+        <v>10293</v>
       </c>
       <c r="M109" t="n">
-        <v>1.683</v>
+        <v>1.426</v>
       </c>
       <c r="N109" t="n">
-        <v>0.4407</v>
+        <v>0.2865</v>
       </c>
       <c r="O109" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="P109" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="Q109" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="R109" t="s">
         <v>50</v>
       </c>
       <c r="S109" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B110" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>44594</v>
       </c>
       <c r="D110" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E110" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
@@ -9082,33 +9094,33 @@
         <v>3</v>
       </c>
       <c r="P110" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q110" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="R110" t="s">
         <v>50</v>
       </c>
       <c r="S110" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B111" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>44589</v>
       </c>
       <c r="D111" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E111" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
@@ -9139,143 +9151,143 @@
         <v>2.5</v>
       </c>
       <c r="P111" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Q111" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="R111" t="s">
         <v>31</v>
       </c>
       <c r="S111" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>638</v>
+      </c>
+      <c r="B112" t="s">
+        <v>639</v>
+      </c>
+      <c r="C112" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D112" t="s">
         <v>640</v>
       </c>
-      <c r="B112" t="s">
+      <c r="E112" t="s">
         <v>641</v>
-      </c>
-      <c r="C112" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D112" t="s">
-        <v>642</v>
-      </c>
-      <c r="E112" t="s">
-        <v>643</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="H112" t="n">
-        <v>30889566</v>
+        <v>31439912</v>
       </c>
       <c r="I112" t="n">
-        <v>817.249</v>
+        <v>831.81</v>
       </c>
       <c r="J112" t="n">
-        <v>80345</v>
+        <v>127432</v>
       </c>
       <c r="K112" t="n">
-        <v>2.126</v>
+        <v>3.371</v>
       </c>
       <c r="L112" t="n">
-        <v>142297</v>
+        <v>129017</v>
       </c>
       <c r="M112" t="n">
-        <v>3.765</v>
+        <v>3.413</v>
       </c>
       <c r="N112"/>
       <c r="O112"/>
       <c r="P112" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="Q112" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="R112" t="s">
         <v>31</v>
       </c>
       <c r="S112" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>644</v>
+      </c>
+      <c r="B113" t="s">
+        <v>645</v>
+      </c>
+      <c r="C113" s="1" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D113" t="s">
         <v>646</v>
-      </c>
-      <c r="B113" t="s">
-        <v>647</v>
-      </c>
-      <c r="C113" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D113" t="s">
-        <v>648</v>
       </c>
       <c r="E113" t="s">
         <v>42</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="H113" t="n">
-        <v>36009956</v>
+        <v>36514985</v>
       </c>
       <c r="I113" t="n">
-        <v>3541.525</v>
+        <v>3591.194</v>
       </c>
       <c r="J113" t="n">
-        <v>86492</v>
+        <v>159376</v>
       </c>
       <c r="K113" t="n">
-        <v>8.506</v>
+        <v>15.674</v>
       </c>
       <c r="L113" t="n">
-        <v>215861</v>
+        <v>179131</v>
       </c>
       <c r="M113" t="n">
-        <v>21.23</v>
+        <v>17.617</v>
       </c>
       <c r="N113" t="n">
-        <v>0.2012</v>
+        <v>0.2013</v>
       </c>
       <c r="O113" t="n">
         <v>5</v>
       </c>
       <c r="P113" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="Q113" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="R113" t="s">
         <v>50</v>
       </c>
       <c r="S113" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B114" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>44496</v>
       </c>
       <c r="D114" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E114" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
@@ -9302,198 +9314,198 @@
       <c r="N114"/>
       <c r="O114"/>
       <c r="P114" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="Q114" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="R114" t="s">
         <v>31</v>
       </c>
       <c r="S114" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>655</v>
+      </c>
+      <c r="B115" t="s">
+        <v>656</v>
+      </c>
+      <c r="C115" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D115" t="s">
         <v>657</v>
       </c>
-      <c r="B115" t="s">
+      <c r="E115" t="s">
         <v>658</v>
-      </c>
-      <c r="C115" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D115" t="s">
-        <v>659</v>
-      </c>
-      <c r="E115" t="s">
-        <v>660</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H115" t="n">
-        <v>19733542</v>
+        <v>20111952</v>
       </c>
       <c r="I115" t="n">
-        <v>1031.67</v>
+        <v>1051.453</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115" t="n">
-        <v>89216</v>
+        <v>80994</v>
       </c>
       <c r="M115" t="n">
-        <v>4.664</v>
+        <v>4.234</v>
       </c>
       <c r="N115"/>
       <c r="O115"/>
       <c r="P115" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="Q115" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="R115" t="s">
         <v>50</v>
       </c>
       <c r="S115" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>662</v>
+      </c>
+      <c r="B116" t="s">
+        <v>663</v>
+      </c>
+      <c r="C116" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D116" t="s">
         <v>664</v>
       </c>
-      <c r="B116" t="s">
+      <c r="E116" t="s">
         <v>665</v>
-      </c>
-      <c r="C116" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D116" t="s">
-        <v>666</v>
-      </c>
-      <c r="E116" t="s">
-        <v>667</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H116" t="n">
-        <v>263153282</v>
+        <v>266851795</v>
       </c>
       <c r="I116" t="n">
-        <v>1803.507</v>
+        <v>1828.854</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116" t="n">
-        <v>998577</v>
+        <v>1011588</v>
       </c>
       <c r="M116" t="n">
-        <v>6.844</v>
+        <v>6.933</v>
       </c>
       <c r="N116"/>
       <c r="O116"/>
       <c r="P116" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="Q116" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="R116" t="s">
         <v>50</v>
       </c>
       <c r="S116" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>668</v>
+      </c>
+      <c r="B117" t="s">
+        <v>669</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D117" t="s">
         <v>670</v>
       </c>
-      <c r="B117" t="s">
+      <c r="E117" t="s">
         <v>671</v>
-      </c>
-      <c r="C117" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D117" t="s">
-        <v>672</v>
-      </c>
-      <c r="E117" t="s">
-        <v>673</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H117" t="n">
-        <v>4570580</v>
+        <v>4613062</v>
       </c>
       <c r="I117" t="n">
-        <v>344.26</v>
+        <v>347.46</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117" t="n">
-        <v>10775</v>
+        <v>11544</v>
       </c>
       <c r="M117" t="n">
-        <v>0.812</v>
+        <v>0.87</v>
       </c>
       <c r="N117"/>
       <c r="O117"/>
       <c r="P117" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>672</v>
+      </c>
+      <c r="R117" t="s">
+        <v>119</v>
+      </c>
+      <c r="S117" t="s">
         <v>673</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>674</v>
-      </c>
-      <c r="R117" t="s">
-        <v>121</v>
-      </c>
-      <c r="S117" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>674</v>
+      </c>
+      <c r="B118" t="s">
+        <v>675</v>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D118" t="s">
         <v>676</v>
-      </c>
-      <c r="B118" t="s">
-        <v>677</v>
-      </c>
-      <c r="C118" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D118" t="s">
-        <v>678</v>
       </c>
       <c r="E118" t="s">
         <v>42</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H118" t="n">
-        <v>65672</v>
+        <v>65938</v>
       </c>
       <c r="I118" t="n">
-        <v>1226.459</v>
+        <v>1231.427</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M118" t="n">
-        <v>1.27</v>
+        <v>1.345</v>
       </c>
       <c r="N118"/>
       <c r="O118"/>
@@ -9501,256 +9513,260 @@
         <v>42</v>
       </c>
       <c r="Q118" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="R118" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S118" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>679</v>
+      </c>
+      <c r="B119" t="s">
+        <v>680</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D119" t="s">
         <v>681</v>
       </c>
-      <c r="B119" t="s">
+      <c r="E119" t="s">
         <v>682</v>
-      </c>
-      <c r="C119" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D119" t="s">
-        <v>683</v>
-      </c>
-      <c r="E119" t="s">
-        <v>684</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H119" t="n">
-        <v>97377</v>
+        <v>97565</v>
       </c>
       <c r="I119" t="n">
-        <v>875.149</v>
+        <v>876.839</v>
       </c>
       <c r="J119" t="n">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="K119" t="n">
-        <v>0.252</v>
+        <v>0.593</v>
       </c>
       <c r="L119" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M119" t="n">
-        <v>0.297</v>
-      </c>
-      <c r="N119"/>
-      <c r="O119"/>
+        <v>0.368</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.7143</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1.4</v>
+      </c>
       <c r="P119" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q119" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="R119" t="s">
         <v>24</v>
       </c>
       <c r="S119" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>685</v>
+      </c>
+      <c r="B120" t="s">
+        <v>686</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D120" t="s">
         <v>687</v>
-      </c>
-      <c r="B120" t="s">
-        <v>688</v>
-      </c>
-      <c r="C120" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D120" t="s">
-        <v>689</v>
       </c>
       <c r="E120" t="s">
         <v>42</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="H120" t="n">
-        <v>38814099</v>
+        <v>39312767</v>
       </c>
       <c r="I120" t="n">
-        <v>1098.284</v>
+        <v>1112.394</v>
       </c>
       <c r="J120" t="n">
-        <v>135875</v>
+        <v>116200</v>
       </c>
       <c r="K120" t="n">
-        <v>3.845</v>
+        <v>3.288</v>
       </c>
       <c r="L120" t="n">
-        <v>134556</v>
+        <v>124305</v>
       </c>
       <c r="M120" t="n">
-        <v>3.807</v>
+        <v>3.517</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0274</v>
+        <v>0.0264</v>
       </c>
       <c r="O120" t="n">
-        <v>36.4</v>
+        <v>37.9</v>
       </c>
       <c r="P120" t="s">
         <v>42</v>
       </c>
       <c r="Q120" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="R120" t="s">
         <v>50</v>
       </c>
       <c r="S120" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>689</v>
+      </c>
+      <c r="B121" t="s">
+        <v>690</v>
+      </c>
+      <c r="C121" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D121" t="s">
         <v>691</v>
       </c>
-      <c r="B121" t="s">
+      <c r="E121" t="s">
         <v>692</v>
-      </c>
-      <c r="C121" s="1" t="n">
-        <v>44596</v>
-      </c>
-      <c r="D121" t="s">
-        <v>693</v>
-      </c>
-      <c r="E121" t="s">
-        <v>694</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="H121" t="n">
-        <v>999352</v>
+        <v>1008128</v>
       </c>
       <c r="I121" t="n">
-        <v>58.114</v>
+        <v>58.625</v>
       </c>
       <c r="J121" t="n">
-        <v>1190</v>
+        <v>1313</v>
       </c>
       <c r="K121" t="n">
-        <v>0.069</v>
+        <v>0.076</v>
       </c>
       <c r="L121" t="n">
-        <v>1364</v>
+        <v>1424</v>
       </c>
       <c r="M121" t="n">
-        <v>0.079</v>
+        <v>0.083</v>
       </c>
       <c r="N121" t="n">
-        <v>0.0374</v>
+        <v>0.0192</v>
       </c>
       <c r="O121" t="n">
-        <v>26.7</v>
+        <v>52.2</v>
       </c>
       <c r="P121" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="Q121" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="R121" t="s">
         <v>50</v>
       </c>
       <c r="S121" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>694</v>
+      </c>
+      <c r="B122" t="s">
+        <v>695</v>
+      </c>
+      <c r="C122" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D122" t="s">
         <v>696</v>
-      </c>
-      <c r="B122" t="s">
-        <v>697</v>
-      </c>
-      <c r="C122" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D122" t="s">
-        <v>698</v>
       </c>
       <c r="E122" t="s">
         <v>42</v>
       </c>
       <c r="F122" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G122" t="n">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="H122" t="n">
-        <v>8324359</v>
+        <v>8443235</v>
       </c>
       <c r="I122" t="n">
-        <v>1211.424</v>
+        <v>1228.724</v>
       </c>
       <c r="J122" t="n">
-        <v>22013</v>
+        <v>29075</v>
       </c>
       <c r="K122" t="n">
-        <v>3.203</v>
+        <v>4.231</v>
       </c>
       <c r="L122" t="n">
-        <v>31970</v>
+        <v>28667</v>
       </c>
       <c r="M122" t="n">
-        <v>4.653</v>
+        <v>4.172</v>
       </c>
       <c r="N122" t="n">
-        <v>0.4732</v>
+        <v>0.4322</v>
       </c>
       <c r="O122" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P122" t="s">
         <v>42</v>
       </c>
       <c r="Q122" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="R122" t="s">
         <v>31</v>
       </c>
       <c r="S122" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>700</v>
+      </c>
+      <c r="B123" t="s">
+        <v>701</v>
+      </c>
+      <c r="C123" s="1" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D123" t="s">
         <v>702</v>
       </c>
-      <c r="B123" t="s">
+      <c r="E123" t="s">
         <v>703</v>
-      </c>
-      <c r="C123" s="1" t="n">
-        <v>44592</v>
-      </c>
-      <c r="D123" t="s">
-        <v>704</v>
-      </c>
-      <c r="E123" t="s">
-        <v>705</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
@@ -9759,227 +9775,227 @@
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" t="n">
-        <v>228300</v>
+        <v>237000</v>
       </c>
       <c r="K123" t="n">
-        <v>41.862</v>
+        <v>43.458</v>
       </c>
       <c r="L123" t="n">
-        <v>228300</v>
+        <v>237000</v>
       </c>
       <c r="M123" t="n">
-        <v>41.862</v>
+        <v>43.458</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0225</v>
+        <v>0.0318</v>
       </c>
       <c r="O123" t="n">
-        <v>44.3</v>
+        <v>31.4</v>
       </c>
       <c r="P123" t="s">
         <v>42</v>
       </c>
       <c r="Q123" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="R123" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S123" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>706</v>
+      </c>
+      <c r="B124" t="s">
+        <v>707</v>
+      </c>
+      <c r="C124" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D124" t="s">
         <v>708</v>
-      </c>
-      <c r="B124" t="s">
-        <v>709</v>
-      </c>
-      <c r="C124" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D124" t="s">
-        <v>710</v>
       </c>
       <c r="E124" t="s">
         <v>42</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="H124" t="n">
-        <v>48289232</v>
+        <v>48572017</v>
       </c>
       <c r="I124" t="n">
-        <v>8861.597</v>
+        <v>8913.491</v>
       </c>
       <c r="J124" t="n">
-        <v>32006</v>
+        <v>34914</v>
       </c>
       <c r="K124" t="n">
-        <v>5.873</v>
+        <v>6.407</v>
       </c>
       <c r="L124" t="n">
-        <v>66928</v>
+        <v>59126</v>
       </c>
       <c r="M124" t="n">
-        <v>12.282</v>
+        <v>10.85</v>
       </c>
       <c r="N124" t="n">
-        <v>0.306</v>
+        <v>0.357</v>
       </c>
       <c r="O124" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P124" t="s">
         <v>42</v>
       </c>
       <c r="Q124" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="R124" t="s">
         <v>50</v>
       </c>
       <c r="S124" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>710</v>
+      </c>
+      <c r="B125" t="s">
+        <v>711</v>
+      </c>
+      <c r="C125" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D125" t="s">
         <v>712</v>
       </c>
-      <c r="B125" t="s">
+      <c r="E125" t="s">
         <v>713</v>
-      </c>
-      <c r="C125" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D125" t="s">
-        <v>714</v>
-      </c>
-      <c r="E125" t="s">
-        <v>715</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="H125" t="n">
-        <v>2527903</v>
+        <v>2538891</v>
       </c>
       <c r="I125" t="n">
-        <v>1216.085</v>
+        <v>1221.371</v>
       </c>
       <c r="J125" t="n">
-        <v>1247</v>
+        <v>2978</v>
       </c>
       <c r="K125" t="n">
-        <v>0.6</v>
+        <v>1.433</v>
       </c>
       <c r="L125" t="n">
-        <v>7479</v>
+        <v>2572</v>
       </c>
       <c r="M125" t="n">
-        <v>3.598</v>
+        <v>1.237</v>
       </c>
       <c r="N125" t="n">
-        <v>0.648</v>
+        <v>0.278</v>
       </c>
       <c r="O125" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="P125" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="Q125" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="R125" t="s">
         <v>50</v>
       </c>
       <c r="S125" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>715</v>
+      </c>
+      <c r="B126" t="s">
+        <v>716</v>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D126" t="s">
         <v>717</v>
       </c>
-      <c r="B126" t="s">
+      <c r="E126" t="s">
         <v>718</v>
       </c>
-      <c r="C126" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="F126" t="s">
         <v>719</v>
       </c>
-      <c r="E126" t="s">
+      <c r="G126" t="n">
+        <v>703</v>
+      </c>
+      <c r="H126" t="n">
+        <v>22591175</v>
+      </c>
+      <c r="I126" t="n">
+        <v>376.256</v>
+      </c>
+      <c r="J126" t="n">
+        <v>36113</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="L126" t="n">
+        <v>30987</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.0864</v>
+      </c>
+      <c r="O126" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="P126" t="s">
         <v>720</v>
       </c>
-      <c r="F126" t="s">
-        <v>721</v>
-      </c>
-      <c r="G126" t="n">
-        <v>699</v>
-      </c>
-      <c r="H126" t="n">
-        <v>22464999</v>
-      </c>
-      <c r="I126" t="n">
-        <v>374.155</v>
-      </c>
-      <c r="J126" t="n">
-        <v>21800</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="L126" t="n">
-        <v>30487</v>
-      </c>
-      <c r="M126" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="N126" t="n">
-        <v>0.0942</v>
-      </c>
-      <c r="O126" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="P126" t="s">
-        <v>722</v>
-      </c>
       <c r="Q126" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="R126" t="s">
         <v>31</v>
       </c>
       <c r="S126" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B127" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>44598</v>
       </c>
       <c r="D127" t="s">
+        <v>724</v>
+      </c>
+      <c r="E127" t="s">
+        <v>725</v>
+      </c>
+      <c r="F127" t="s">
         <v>726</v>
-      </c>
-      <c r="E127" t="s">
-        <v>727</v>
-      </c>
-      <c r="F127" t="s">
-        <v>728</v>
       </c>
       <c r="G127" t="n">
         <v>730</v>
@@ -10009,27 +10025,27 @@
         <v>7.2</v>
       </c>
       <c r="P127" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="Q127" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="R127" t="s">
         <v>31</v>
       </c>
       <c r="S127" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B128" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44597</v>
+        <v>44602</v>
       </c>
       <c r="D128" t="s">
         <v>35</v>
@@ -10039,27 +10055,27 @@
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H128" t="n">
-        <v>325097</v>
+        <v>328215</v>
       </c>
       <c r="I128" t="n">
-        <v>28.564</v>
+        <v>28.838</v>
       </c>
       <c r="J128"/>
       <c r="K128"/>
       <c r="L128" t="n">
-        <v>742</v>
+        <v>552</v>
       </c>
       <c r="M128" t="n">
-        <v>0.065</v>
+        <v>0.049</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0104</v>
+        <v>0.0155</v>
       </c>
       <c r="O128" t="n">
-        <v>96.2</v>
+        <v>64.4</v>
       </c>
       <c r="P128" t="s">
         <v>36</v>
@@ -10071,362 +10087,366 @@
         <v>24</v>
       </c>
       <c r="S128" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>733</v>
+      </c>
+      <c r="B129" t="s">
+        <v>734</v>
+      </c>
+      <c r="C129" s="1" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D129" t="s">
         <v>735</v>
-      </c>
-      <c r="B129" t="s">
-        <v>736</v>
-      </c>
-      <c r="C129" s="1" t="n">
-        <v>44593</v>
-      </c>
-      <c r="D129" t="s">
-        <v>737</v>
       </c>
       <c r="E129" t="s">
         <v>42</v>
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="H129" t="n">
-        <v>82706689</v>
+        <v>83916627</v>
       </c>
       <c r="I129" t="n">
-        <v>1769.308</v>
+        <v>1795.192</v>
       </c>
       <c r="J129" t="n">
-        <v>202777</v>
+        <v>153093</v>
       </c>
       <c r="K129" t="n">
-        <v>4.338</v>
+        <v>3.275</v>
       </c>
       <c r="L129" t="n">
-        <v>213507</v>
+        <v>156800</v>
       </c>
       <c r="M129" t="n">
-        <v>4.567</v>
+        <v>3.354</v>
       </c>
       <c r="N129" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="O129" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P129" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="Q129" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="R129" t="s">
         <v>50</v>
       </c>
       <c r="S129" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>738</v>
+      </c>
+      <c r="B130" t="s">
+        <v>739</v>
+      </c>
+      <c r="C130" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D130" t="s">
         <v>740</v>
       </c>
-      <c r="B130" t="s">
+      <c r="E130" t="s">
         <v>741</v>
-      </c>
-      <c r="C130" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D130" t="s">
-        <v>742</v>
-      </c>
-      <c r="E130" t="s">
-        <v>743</v>
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="H130" t="n">
-        <v>6163772</v>
+        <v>6194675</v>
       </c>
       <c r="I130" t="n">
-        <v>286.723</v>
+        <v>288.161</v>
       </c>
       <c r="J130" t="n">
-        <v>8618</v>
+        <v>7745</v>
       </c>
       <c r="K130" t="n">
-        <v>0.401</v>
+        <v>0.36</v>
       </c>
       <c r="L130" t="n">
-        <v>7784</v>
+        <v>8189</v>
       </c>
       <c r="M130" t="n">
-        <v>0.362</v>
+        <v>0.381</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1545</v>
+        <v>0.1725</v>
       </c>
       <c r="O130" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="P130" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="Q130" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="R130" t="s">
         <v>50</v>
       </c>
       <c r="S130" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>743</v>
+      </c>
+      <c r="B131" t="s">
+        <v>744</v>
+      </c>
+      <c r="C131" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D131" t="s">
         <v>745</v>
       </c>
-      <c r="B131" t="s">
+      <c r="E131" t="s">
         <v>746</v>
-      </c>
-      <c r="C131" s="1" t="n">
-        <v>44596</v>
-      </c>
-      <c r="D131" t="s">
-        <v>747</v>
-      </c>
-      <c r="E131" t="s">
-        <v>748</v>
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H131" t="n">
-        <v>74221</v>
+        <v>74870</v>
       </c>
       <c r="I131" t="n">
-        <v>125.416</v>
+        <v>126.513</v>
       </c>
       <c r="J131" t="n">
-        <v>774</v>
+        <v>649</v>
       </c>
       <c r="K131" t="n">
-        <v>1.308</v>
+        <v>1.097</v>
       </c>
       <c r="L131" t="n">
-        <v>555</v>
+        <v>148</v>
       </c>
       <c r="M131" t="n">
-        <v>0.938</v>
+        <v>0.25</v>
       </c>
       <c r="N131" t="n">
-        <v>0.417</v>
+        <v>0.411</v>
       </c>
       <c r="O131" t="n">
         <v>2.4</v>
       </c>
       <c r="P131" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="Q131" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="R131" t="s">
         <v>24</v>
       </c>
       <c r="S131" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>748</v>
+      </c>
+      <c r="B132" t="s">
+        <v>749</v>
+      </c>
+      <c r="C132" s="1" t="n">
+        <v>44598</v>
+      </c>
+      <c r="D132" t="s">
         <v>750</v>
       </c>
-      <c r="B132" t="s">
+      <c r="E132" t="s">
         <v>751</v>
-      </c>
-      <c r="C132" s="1" t="n">
-        <v>44591</v>
-      </c>
-      <c r="D132" t="s">
-        <v>752</v>
-      </c>
-      <c r="E132" t="s">
-        <v>753</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="H132" t="n">
-        <v>17362408</v>
+        <v>17711218</v>
       </c>
       <c r="I132" t="n">
-        <v>1708.872</v>
+        <v>1743.203</v>
       </c>
       <c r="J132" t="n">
-        <v>77851</v>
+        <v>49830</v>
       </c>
       <c r="K132" t="n">
-        <v>7.662</v>
+        <v>4.904</v>
       </c>
       <c r="L132" t="n">
-        <v>77851</v>
+        <v>49830</v>
       </c>
       <c r="M132" t="n">
-        <v>7.662</v>
+        <v>4.904</v>
       </c>
       <c r="N132" t="n">
-        <v>0.5256</v>
+        <v>0.6231</v>
       </c>
       <c r="O132" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="P132" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="Q132" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="R132" t="s">
         <v>50</v>
       </c>
       <c r="S132" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B133" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44597</v>
+        <v>44602</v>
       </c>
       <c r="D133" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E133" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="H133" t="n">
-        <v>17511398</v>
+        <v>17853513</v>
       </c>
       <c r="I133" t="n">
-        <v>2009.226</v>
+        <v>2048.48</v>
       </c>
       <c r="J133" t="n">
-        <v>54441</v>
+        <v>59173</v>
       </c>
       <c r="K133" t="n">
-        <v>6.246</v>
+        <v>6.789</v>
       </c>
       <c r="L133" t="n">
-        <v>83777</v>
+        <v>67880</v>
       </c>
       <c r="M133" t="n">
-        <v>9.612</v>
+        <v>7.788</v>
       </c>
       <c r="N133" t="n">
-        <v>0.402</v>
+        <v>0.393</v>
       </c>
       <c r="O133" t="n">
         <v>2.5</v>
       </c>
       <c r="P133" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="Q133" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="R133" t="s">
         <v>50</v>
       </c>
       <c r="S133" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>758</v>
+      </c>
+      <c r="B134" t="s">
+        <v>759</v>
+      </c>
+      <c r="C134" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D134" t="s">
         <v>760</v>
       </c>
-      <c r="B134" t="s">
+      <c r="E134" t="s">
         <v>761</v>
-      </c>
-      <c r="C134" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D134" t="s">
-        <v>762</v>
-      </c>
-      <c r="E134" t="s">
-        <v>763</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="H134" t="n">
-        <v>5816835</v>
+        <v>5918661</v>
       </c>
       <c r="I134" t="n">
-        <v>243.841</v>
+        <v>248.11</v>
       </c>
       <c r="J134" t="n">
-        <v>24424</v>
+        <v>15549</v>
       </c>
       <c r="K134" t="n">
-        <v>1.024</v>
+        <v>0.652</v>
       </c>
       <c r="L134" t="n">
-        <v>18063</v>
+        <v>27402</v>
       </c>
       <c r="M134" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="N134"/>
-      <c r="O134"/>
+        <v>1.149</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="O134" t="n">
+        <v>458.9</v>
+      </c>
       <c r="P134" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="Q134" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="R134" t="s">
         <v>31</v>
       </c>
       <c r="S134" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B135" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C135" s="1" t="n">
         <v>44597</v>
       </c>
       <c r="D135" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E135" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
@@ -10457,140 +10477,136 @@
         <v>5.1</v>
       </c>
       <c r="P135" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="Q135" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="R135" t="s">
         <v>50</v>
       </c>
       <c r="S135" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>770</v>
+      </c>
+      <c r="B136" t="s">
+        <v>771</v>
+      </c>
+      <c r="C136" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D136" t="s">
         <v>772</v>
-      </c>
-      <c r="B136" t="s">
-        <v>773</v>
-      </c>
-      <c r="C136" s="1" t="n">
-        <v>44489</v>
-      </c>
-      <c r="D136" t="s">
-        <v>774</v>
       </c>
       <c r="E136" t="s">
         <v>42</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H136" t="n">
-        <v>211166</v>
+        <v>239055</v>
       </c>
       <c r="I136" t="n">
-        <v>157.132</v>
+        <v>177.885</v>
       </c>
       <c r="J136"/>
       <c r="K136"/>
       <c r="L136" t="n">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="M136" t="n">
-        <v>0.169</v>
-      </c>
-      <c r="N136" t="n">
-        <v>0.0352</v>
-      </c>
-      <c r="O136" t="n">
-        <v>28.4</v>
-      </c>
+        <v>0.182</v>
+      </c>
+      <c r="N136"/>
+      <c r="O136"/>
       <c r="P136" t="s">
         <v>42</v>
       </c>
       <c r="Q136" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="R136" t="s">
         <v>24</v>
       </c>
       <c r="S136" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B137" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44598</v>
+        <v>44602</v>
       </c>
       <c r="D137"/>
       <c r="E137" t="s">
+        <v>776</v>
+      </c>
+      <c r="F137" t="s">
+        <v>777</v>
+      </c>
+      <c r="G137" t="n">
+        <v>703</v>
+      </c>
+      <c r="H137" t="n">
+        <v>672353</v>
+      </c>
+      <c r="I137" t="n">
+        <v>79.303</v>
+      </c>
+      <c r="J137" t="n">
+        <v>891</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="L137" t="n">
+        <v>893</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="O137" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="P137" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q137" t="s">
         <v>778</v>
       </c>
-      <c r="F137" t="s">
+      <c r="R137" t="s">
         <v>779</v>
       </c>
-      <c r="G137" t="n">
-        <v>699</v>
-      </c>
-      <c r="H137" t="n">
-        <v>668848</v>
-      </c>
-      <c r="I137" t="n">
-        <v>78.89</v>
-      </c>
-      <c r="J137" t="n">
-        <v>866</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="L137" t="n">
-        <v>885</v>
-      </c>
-      <c r="M137" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="N137" t="n">
-        <v>0.0165</v>
-      </c>
-      <c r="O137" t="n">
-        <v>60.7</v>
-      </c>
-      <c r="P137" t="s">
-        <v>778</v>
-      </c>
-      <c r="Q137" t="s">
+      <c r="S137" t="s">
         <v>780</v>
-      </c>
-      <c r="R137" t="s">
-        <v>781</v>
-      </c>
-      <c r="S137" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B138" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>44475</v>
       </c>
       <c r="D138" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E138" t="s">
         <v>42</v>
@@ -10627,134 +10643,134 @@
         <v>42</v>
       </c>
       <c r="Q138" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="R138" t="s">
         <v>31</v>
       </c>
       <c r="S138" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>786</v>
+      </c>
+      <c r="B139" t="s">
+        <v>787</v>
+      </c>
+      <c r="C139" s="1" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D139" t="s">
         <v>788</v>
       </c>
-      <c r="B139" t="s">
+      <c r="E139" t="s">
         <v>789</v>
-      </c>
-      <c r="C139" s="1" t="n">
-        <v>44597</v>
-      </c>
-      <c r="D139" t="s">
-        <v>790</v>
-      </c>
-      <c r="E139" t="s">
-        <v>791</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H139" t="n">
-        <v>4131634</v>
+        <v>4175438</v>
       </c>
       <c r="I139" t="n">
-        <v>346.156</v>
+        <v>349.826</v>
       </c>
       <c r="J139"/>
       <c r="K139"/>
       <c r="L139" t="n">
-        <v>14975</v>
+        <v>11867</v>
       </c>
       <c r="M139" t="n">
-        <v>1.255</v>
+        <v>0.994</v>
       </c>
       <c r="N139" t="n">
-        <v>0.3732</v>
+        <v>0.4444</v>
       </c>
       <c r="O139" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="P139" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="Q139" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R139" t="s">
         <v>31</v>
       </c>
       <c r="S139" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>793</v>
+      </c>
+      <c r="B140" t="s">
+        <v>794</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D140" t="s">
         <v>795</v>
       </c>
-      <c r="B140" t="s">
+      <c r="E140" t="s">
         <v>796</v>
-      </c>
-      <c r="C140" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D140" t="s">
-        <v>797</v>
-      </c>
-      <c r="E140" t="s">
-        <v>798</v>
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="H140" t="n">
-        <v>134265419</v>
+        <v>136056198</v>
       </c>
       <c r="I140" t="n">
-        <v>1578.799</v>
+        <v>1599.857</v>
       </c>
       <c r="J140" t="n">
-        <v>412352</v>
+        <v>450044</v>
       </c>
       <c r="K140" t="n">
-        <v>4.849</v>
+        <v>5.292</v>
       </c>
       <c r="L140" t="n">
-        <v>443282</v>
+        <v>441817</v>
       </c>
       <c r="M140" t="n">
-        <v>5.212</v>
+        <v>5.195</v>
       </c>
       <c r="N140" t="n">
-        <v>0.2294</v>
+        <v>0.2304</v>
       </c>
       <c r="O140" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="P140" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q140" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="R140" t="s">
         <v>50</v>
       </c>
       <c r="S140" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B141" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>44597</v>
+        <v>44602</v>
       </c>
       <c r="D141" t="s">
         <v>35</v>
@@ -10764,27 +10780,27 @@
       </c>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H141" t="n">
-        <v>2368066</v>
+        <v>2389360</v>
       </c>
       <c r="I141" t="n">
-        <v>50.252</v>
+        <v>50.704</v>
       </c>
       <c r="J141"/>
       <c r="K141"/>
       <c r="L141" t="n">
-        <v>2464</v>
+        <v>3562</v>
       </c>
       <c r="M141" t="n">
-        <v>0.052</v>
+        <v>0.076</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0406</v>
+        <v>0.0205</v>
       </c>
       <c r="O141" t="n">
-        <v>24.6</v>
+        <v>48.9</v>
       </c>
       <c r="P141" t="s">
         <v>36</v>
@@ -10796,401 +10812,401 @@
         <v>50</v>
       </c>
       <c r="S141" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>802</v>
+      </c>
+      <c r="B142" t="s">
+        <v>803</v>
+      </c>
+      <c r="C142" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D142" t="s">
         <v>804</v>
       </c>
-      <c r="B142" t="s">
+      <c r="E142" t="s">
         <v>805</v>
-      </c>
-      <c r="C142" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D142" t="s">
-        <v>806</v>
-      </c>
-      <c r="E142" t="s">
-        <v>807</v>
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H142" t="n">
-        <v>18603958</v>
+        <v>18920897</v>
       </c>
       <c r="I142" t="n">
-        <v>428.004</v>
+        <v>435.295</v>
       </c>
       <c r="J142"/>
       <c r="K142"/>
       <c r="L142" t="n">
-        <v>79753</v>
+        <v>73783</v>
       </c>
       <c r="M142" t="n">
-        <v>1.835</v>
+        <v>1.697</v>
       </c>
       <c r="N142"/>
       <c r="O142"/>
       <c r="P142" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="Q142" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="R142" t="s">
         <v>50</v>
       </c>
       <c r="S142" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>808</v>
+      </c>
+      <c r="B143" t="s">
+        <v>809</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>44603</v>
+      </c>
+      <c r="D143" t="s">
         <v>810</v>
       </c>
-      <c r="B143" t="s">
+      <c r="E143" t="s">
         <v>811</v>
-      </c>
-      <c r="C143" s="1" t="n">
-        <v>44599</v>
-      </c>
-      <c r="D143" t="s">
-        <v>812</v>
-      </c>
-      <c r="E143" t="s">
-        <v>813</v>
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="H143" t="n">
-        <v>128571662</v>
+        <v>130555625</v>
       </c>
       <c r="I143" t="n">
-        <v>12868.641</v>
+        <v>13067.215</v>
       </c>
       <c r="J143" t="n">
-        <v>473298</v>
+        <v>495628</v>
       </c>
       <c r="K143" t="n">
-        <v>47.372</v>
+        <v>49.607</v>
       </c>
       <c r="L143" t="n">
-        <v>491443</v>
+        <v>492543</v>
       </c>
       <c r="M143" t="n">
-        <v>49.188</v>
+        <v>49.298</v>
       </c>
       <c r="N143"/>
       <c r="O143"/>
       <c r="P143" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="Q143" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="R143" t="s">
         <v>50</v>
       </c>
       <c r="S143" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>813</v>
+      </c>
+      <c r="B144" t="s">
+        <v>814</v>
+      </c>
+      <c r="C144" s="1" t="n">
+        <v>44601</v>
+      </c>
+      <c r="D144" t="s">
         <v>815</v>
       </c>
-      <c r="B144" t="s">
+      <c r="E144" t="s">
         <v>816</v>
-      </c>
-      <c r="C144" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D144" t="s">
-        <v>817</v>
-      </c>
-      <c r="E144" t="s">
-        <v>818</v>
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="H144" t="n">
-        <v>445981721</v>
+        <v>449535868</v>
       </c>
       <c r="I144" t="n">
-        <v>6538.639</v>
+        <v>6590.748</v>
       </c>
       <c r="J144" t="n">
-        <v>1047060</v>
+        <v>1212793</v>
       </c>
       <c r="K144" t="n">
-        <v>15.351</v>
+        <v>17.781</v>
       </c>
       <c r="L144" t="n">
-        <v>1194388</v>
+        <v>1133134</v>
       </c>
       <c r="M144" t="n">
-        <v>17.511</v>
+        <v>16.613</v>
       </c>
       <c r="N144" t="n">
-        <v>0.0585</v>
+        <v>0.0615</v>
       </c>
       <c r="O144" t="n">
-        <v>17.1</v>
+        <v>16.3</v>
       </c>
       <c r="P144" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="Q144" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="R144" t="s">
         <v>50</v>
       </c>
       <c r="S144" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>820</v>
+      </c>
+      <c r="B145" t="s">
+        <v>821</v>
+      </c>
+      <c r="C145" s="1" t="n">
+        <v>44597</v>
+      </c>
+      <c r="D145" t="s">
         <v>822</v>
       </c>
-      <c r="B145" t="s">
+      <c r="E145" t="s">
         <v>823</v>
-      </c>
-      <c r="C145" s="1" t="n">
-        <v>44593</v>
-      </c>
-      <c r="D145" t="s">
-        <v>824</v>
-      </c>
-      <c r="E145" t="s">
-        <v>825</v>
       </c>
       <c r="F145"/>
       <c r="G145" t="n">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="H145" t="n">
-        <v>787820796</v>
+        <v>793185049</v>
       </c>
       <c r="I145" t="n">
-        <v>2366.432</v>
+        <v>2382.545</v>
       </c>
       <c r="J145" t="n">
-        <v>1347217</v>
+        <v>729756</v>
       </c>
       <c r="K145" t="n">
-        <v>4.047</v>
+        <v>2.192</v>
       </c>
       <c r="L145" t="n">
-        <v>1397621</v>
+        <v>1157817</v>
       </c>
       <c r="M145" t="n">
-        <v>4.198</v>
+        <v>3.478</v>
       </c>
       <c r="N145" t="n">
-        <v>0.179</v>
+        <v>0.143</v>
       </c>
       <c r="O145" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="P145" t="s">
+        <v>823</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>822</v>
+      </c>
+      <c r="R145" t="s">
+        <v>824</v>
+      </c>
+      <c r="S145" t="s">
         <v>825</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>824</v>
-      </c>
-      <c r="R145" t="s">
-        <v>826</v>
-      </c>
-      <c r="S145" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>826</v>
+      </c>
+      <c r="B146" t="s">
+        <v>827</v>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D146" t="s">
         <v>828</v>
       </c>
-      <c r="B146" t="s">
-        <v>829</v>
-      </c>
-      <c r="C146" s="1" t="n">
-        <v>44598</v>
-      </c>
-      <c r="D146" t="s">
-        <v>830</v>
-      </c>
       <c r="E146" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="H146" t="n">
-        <v>5365345</v>
+        <v>5450665</v>
       </c>
       <c r="I146" t="n">
-        <v>1539.487</v>
+        <v>1563.968</v>
       </c>
       <c r="J146" t="n">
-        <v>15811</v>
+        <v>22827</v>
       </c>
       <c r="K146" t="n">
-        <v>4.537</v>
+        <v>6.55</v>
       </c>
       <c r="L146" t="n">
-        <v>23860</v>
+        <v>21707</v>
       </c>
       <c r="M146" t="n">
-        <v>6.846</v>
+        <v>6.228</v>
       </c>
       <c r="N146" t="n">
-        <v>0.3868</v>
+        <v>0.3808</v>
       </c>
       <c r="O146" t="n">
         <v>2.6</v>
       </c>
       <c r="P146" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q146" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="R146" t="s">
         <v>50</v>
       </c>
       <c r="S146" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>830</v>
+      </c>
+      <c r="B147" t="s">
+        <v>831</v>
+      </c>
+      <c r="C147" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D147" t="s">
         <v>832</v>
       </c>
-      <c r="B147" t="s">
+      <c r="E147" t="s">
         <v>833</v>
-      </c>
-      <c r="C147" s="1" t="n">
-        <v>44592</v>
-      </c>
-      <c r="D147" t="s">
-        <v>834</v>
-      </c>
-      <c r="E147" t="s">
-        <v>835</v>
       </c>
       <c r="F147"/>
       <c r="G147" t="n">
-        <v>237</v>
+        <v>130</v>
       </c>
       <c r="H147" t="n">
-        <v>37957209</v>
+        <v>77518004</v>
       </c>
       <c r="I147" t="n">
-        <v>386.652</v>
+        <v>789.64</v>
       </c>
       <c r="J147"/>
       <c r="K147"/>
       <c r="L147" t="n">
-        <v>38648</v>
+        <v>36323</v>
       </c>
       <c r="M147" t="n">
-        <v>0.394</v>
+        <v>0.37</v>
       </c>
       <c r="N147" t="n">
-        <v>0.4434</v>
+        <v>0.4979</v>
       </c>
       <c r="O147" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="P147" t="s">
+        <v>834</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>835</v>
+      </c>
+      <c r="R147" t="s">
+        <v>31</v>
+      </c>
+      <c r="S147" t="s">
         <v>836</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>837</v>
-      </c>
-      <c r="R147" t="s">
-        <v>121</v>
-      </c>
-      <c r="S147" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>837</v>
+      </c>
+      <c r="B148" t="s">
+        <v>838</v>
+      </c>
+      <c r="C148" s="1" t="n">
+        <v>44602</v>
+      </c>
+      <c r="D148" t="s">
         <v>839</v>
       </c>
-      <c r="B148" t="s">
+      <c r="E148" t="s">
         <v>840</v>
-      </c>
-      <c r="C148" s="1" t="n">
-        <v>44595</v>
-      </c>
-      <c r="D148" t="s">
-        <v>841</v>
-      </c>
-      <c r="E148" t="s">
-        <v>842</v>
       </c>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="H148" t="n">
-        <v>3193875</v>
+        <v>3217713</v>
       </c>
       <c r="I148" t="n">
-        <v>168.804</v>
+        <v>170.063</v>
       </c>
       <c r="J148" t="n">
-        <v>3969</v>
+        <v>4054</v>
       </c>
       <c r="K148" t="n">
-        <v>0.21</v>
+        <v>0.214</v>
       </c>
       <c r="L148" t="n">
-        <v>3595</v>
+        <v>3405</v>
       </c>
       <c r="M148" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0932</v>
+        <v>0.0927</v>
       </c>
       <c r="O148" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="P148" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="Q148" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="R148" t="s">
         <v>50</v>
       </c>
       <c r="S148" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B149" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44597</v>
+        <v>44602</v>
       </c>
       <c r="D149" t="s">
         <v>35</v>
@@ -11200,27 +11216,27 @@
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H149" t="n">
-        <v>2000510</v>
+        <v>2016085</v>
       </c>
       <c r="I149" t="n">
-        <v>132.553</v>
+        <v>133.585</v>
       </c>
       <c r="J149"/>
       <c r="K149"/>
       <c r="L149" t="n">
-        <v>22058</v>
+        <v>3081</v>
       </c>
       <c r="M149" t="n">
-        <v>1.462</v>
+        <v>0.204</v>
       </c>
       <c r="N149" t="n">
-        <v>0.0064</v>
+        <v>0.0403</v>
       </c>
       <c r="O149" t="n">
-        <v>156.4</v>
+        <v>24.8</v>
       </c>
       <c r="P149" t="s">
         <v>36</v>
@@ -11232,7 +11248,7 @@
         <v>50</v>
       </c>
       <c r="S149" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -8482,7 +8482,7 @@
         <v>567</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="D99" t="s">
         <v>568</v>
@@ -8492,31 +8492,31 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H99" t="n">
-        <v>26704995</v>
+        <v>26842070</v>
       </c>
       <c r="I99" t="n">
-        <v>1555.049</v>
+        <v>1563.031</v>
       </c>
       <c r="J99" t="n">
-        <v>138987</v>
+        <v>136256</v>
       </c>
       <c r="K99" t="n">
-        <v>8.093</v>
+        <v>7.934</v>
       </c>
       <c r="L99" t="n">
-        <v>138437</v>
+        <v>136327</v>
       </c>
       <c r="M99" t="n">
-        <v>8.061</v>
+        <v>7.938</v>
       </c>
       <c r="N99" t="n">
-        <v>0.8378</v>
+        <v>0.592</v>
       </c>
       <c r="O99" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="P99" t="s">
         <v>569</v>
@@ -9986,7 +9986,7 @@
         <v>723</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44598</v>
+        <v>44602</v>
       </c>
       <c r="D127" t="s">
         <v>724</v>
@@ -9998,31 +9998,31 @@
         <v>726</v>
       </c>
       <c r="G127" t="n">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="H127" t="n">
-        <v>52964262</v>
+        <v>54153177</v>
       </c>
       <c r="I127" t="n">
-        <v>1032.337</v>
+        <v>1055.511</v>
       </c>
       <c r="J127" t="n">
-        <v>135535</v>
+        <v>353577</v>
       </c>
       <c r="K127" t="n">
-        <v>2.642</v>
+        <v>6.892</v>
       </c>
       <c r="L127" t="n">
-        <v>205273</v>
+        <v>243554</v>
       </c>
       <c r="M127" t="n">
-        <v>4.001</v>
+        <v>4.747</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1387</v>
+        <v>0.1787</v>
       </c>
       <c r="O127" t="n">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="P127" t="s">
         <v>727</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-2419-testime-300-qytetare-te-infektuar-2-humbje-jete-dhe-934-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-1610-testime-206-qytetare-te-infektuar-7-humbje-jete-dhe-604-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -405,7 +405,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/posts/380446093908229</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/posts/381709127115259</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -576,7 +576,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-17-de-fevereiro-de-2022/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-20-de-fevereiro-de-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -820,7 +820,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/02/Bolet%C3%ADn-especial-701-COVID-19.pdf</t>
+    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/02/Bolet%C3%ADn-especial-704-COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -955,7 +955,7 @@
     <t xml:space="preserve">Fiji - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.fj/18-02-2022/</t>
+    <t xml:space="preserve">https://www.health.gov.fj/21-02-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/380346</t>
+    <t xml:space="preserve">https://irangov.ir/detail/380632</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-thursday-february-17-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-saturday-february-19-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1501,7 +1501,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1494695719361519617</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1495797979885809673</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1494719975554424832</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1495805526755745797</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1494697614905946120</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1495784530065694727</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1849,7 +1849,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20220214143210/https://mohs.gov.mm/Main/content/publication/2019-ncov</t>
+    <t xml:space="preserve">https://web.archive.org/web/20220221203924/https://mohs.gov.mm/Main/content/publication/2019-ncov</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1977,7 +1977,7 @@
     <t xml:space="preserve">North Macedonia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/223855</t>
+    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/223862</t>
   </si>
   <si>
     <t xml:space="preserve">https://koronavirus.gov.mk/stat</t>
@@ -2046,7 +2046,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/298543575705945</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/300409132186056</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -2068,7 +2068,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1494454946250567680</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1495546970840121353</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1494425557639049225</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1495530081158156290</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2160,7 +2160,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1494608880516669451</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1495696044172066820</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2223,7 +2223,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESA_18_FEBRUARIE.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESA_21_FEBRUARIE.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20708</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20748</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2305,7 +2305,7 @@
     <t xml:space="preserve">Saint Vincent and the Grenadines - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/SVGHEALTH/posts/413150757274338</t>
+    <t xml:space="preserve">https://www.facebook.com/SVGHEALTH/posts/416354223620658</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Vincent and the Grenadines Ministry of Health, Wellness and the Environment</t>
@@ -2840,7 +2840,7 @@
     <t xml:space="preserve">Vietnam - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://suckhoedoisong.vn//ngay-18-2-lan-dau-so-mac-covid-19-moi-o-nuoc-ta-len-den-42439-ca-169220218175125661.htm</t>
+    <t xml:space="preserve">https://suckhoedoisong.vn//ngay-21-2-co-46861-ca-covid-19-moi-so-ca-tu-vong-tang-hon-hom-qua-169220221174212465.htm</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of Vietnam</t>
@@ -3296,7 +3296,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3306,31 +3306,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H2" t="n">
-        <v>1583514</v>
+        <v>1585124</v>
       </c>
       <c r="I2" t="n">
-        <v>551.184</v>
+        <v>551.744</v>
       </c>
       <c r="J2" t="n">
-        <v>2419</v>
+        <v>1610</v>
       </c>
       <c r="K2" t="n">
-        <v>0.842</v>
+        <v>0.56</v>
       </c>
       <c r="L2" t="n">
-        <v>1012</v>
+        <v>974</v>
       </c>
       <c r="M2" t="n">
-        <v>0.352</v>
+        <v>0.339</v>
       </c>
       <c r="N2" t="n">
-        <v>0.322</v>
+        <v>0.3162</v>
       </c>
       <c r="O2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -3406,7 +3406,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
@@ -3416,21 +3416,21 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>1408150</v>
+        <v>1413392</v>
       </c>
       <c r="I4" t="n">
-        <v>41.497</v>
+        <v>41.652</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4" t="n">
-        <v>1683</v>
+        <v>1800</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05</v>
+        <v>0.053</v>
       </c>
       <c r="N4"/>
       <c r="O4"/>
@@ -3508,7 +3508,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44608</v>
+        <v>44611</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
@@ -3518,31 +3518,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="H6" t="n">
-        <v>33690778</v>
+        <v>33827856</v>
       </c>
       <c r="I6" t="n">
-        <v>738.739</v>
+        <v>741.744</v>
       </c>
       <c r="J6" t="n">
-        <v>37743</v>
+        <v>18211</v>
       </c>
       <c r="K6" t="n">
-        <v>0.828</v>
+        <v>0.399</v>
       </c>
       <c r="L6" t="n">
-        <v>37160</v>
+        <v>36026</v>
       </c>
       <c r="M6" t="n">
-        <v>0.815</v>
+        <v>0.79</v>
       </c>
       <c r="N6" t="n">
-        <v>0.187</v>
+        <v>0.156</v>
       </c>
       <c r="O6" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="P6" t="s">
         <v>50</v>
@@ -3565,7 +3565,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D7" t="s">
         <v>55</v>
@@ -3575,31 +3575,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="H7" t="n">
-        <v>2852957</v>
+        <v>2865962</v>
       </c>
       <c r="I7" t="n">
-        <v>961.197</v>
+        <v>965.579</v>
       </c>
       <c r="J7" t="n">
-        <v>5659</v>
+        <v>3192</v>
       </c>
       <c r="K7" t="n">
-        <v>1.907</v>
+        <v>1.075</v>
       </c>
       <c r="L7" t="n">
-        <v>5728</v>
+        <v>5202</v>
       </c>
       <c r="M7" t="n">
-        <v>1.93</v>
+        <v>1.753</v>
       </c>
       <c r="N7" t="n">
-        <v>0.272</v>
+        <v>0.238</v>
       </c>
       <c r="O7" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="P7" t="s">
         <v>43</v>
@@ -3622,7 +3622,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D8" t="s">
         <v>60</v>
@@ -3634,25 +3634,25 @@
         <v>62</v>
       </c>
       <c r="G8" t="n">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="H8" t="n">
-        <v>62746248</v>
+        <v>62942737</v>
       </c>
       <c r="I8" t="n">
-        <v>2433.136</v>
+        <v>2440.756</v>
       </c>
       <c r="J8" t="n">
-        <v>89883</v>
+        <v>51466</v>
       </c>
       <c r="K8" t="n">
-        <v>3.485</v>
+        <v>1.996</v>
       </c>
       <c r="L8" t="n">
-        <v>83253</v>
+        <v>78902</v>
       </c>
       <c r="M8" t="n">
-        <v>3.228</v>
+        <v>3.06</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -3677,7 +3677,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D9" t="s">
         <v>67</v>
@@ -3687,25 +3687,25 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="H9" t="n">
-        <v>154061824</v>
+        <v>155336402</v>
       </c>
       <c r="I9" t="n">
-        <v>17036.448</v>
+        <v>17177.393</v>
       </c>
       <c r="J9" t="n">
-        <v>618109</v>
+        <v>195199</v>
       </c>
       <c r="K9" t="n">
-        <v>68.352</v>
+        <v>21.585</v>
       </c>
       <c r="L9" t="n">
-        <v>599025</v>
+        <v>595028</v>
       </c>
       <c r="M9" t="n">
-        <v>66.241</v>
+        <v>65.799</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3730,7 +3730,7 @@
         <v>71</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D10" t="s">
         <v>72</v>
@@ -3740,21 +3740,21 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H10" t="n">
-        <v>6459513</v>
+        <v>6491040</v>
       </c>
       <c r="I10" t="n">
-        <v>631.84</v>
+        <v>634.923</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="n">
-        <v>14708</v>
+        <v>10983</v>
       </c>
       <c r="M10" t="n">
-        <v>1.439</v>
+        <v>1.074</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -3836,7 +3836,7 @@
         <v>82</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D12" t="s">
         <v>83</v>
@@ -3846,21 +3846,21 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H12" t="n">
-        <v>9266163</v>
+        <v>9300962</v>
       </c>
       <c r="I12" t="n">
-        <v>5300.114</v>
+        <v>5320.019</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>26402</v>
+        <v>20410</v>
       </c>
       <c r="M12" t="n">
-        <v>15.102</v>
+        <v>11.674</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -3885,7 +3885,7 @@
         <v>89</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -3895,25 +3895,25 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="H13" t="n">
-        <v>13139314</v>
+        <v>13217514</v>
       </c>
       <c r="I13" t="n">
-        <v>79.008</v>
+        <v>79.478</v>
       </c>
       <c r="J13" t="n">
-        <v>27765</v>
+        <v>28097</v>
       </c>
       <c r="K13" t="n">
-        <v>0.167</v>
+        <v>0.169</v>
       </c>
       <c r="L13" t="n">
-        <v>32384</v>
+        <v>29597</v>
       </c>
       <c r="M13" t="n">
-        <v>0.195</v>
+        <v>0.178</v>
       </c>
       <c r="N13"/>
       <c r="O13"/>
@@ -3938,7 +3938,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -3948,21 +3948,21 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H14" t="n">
-        <v>12248033</v>
+        <v>12311853</v>
       </c>
       <c r="I14" t="n">
-        <v>1297.067</v>
+        <v>1303.826</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>24290</v>
+        <v>22655</v>
       </c>
       <c r="M14" t="n">
-        <v>2.572</v>
+        <v>2.399</v>
       </c>
       <c r="N14"/>
       <c r="O14"/>
@@ -3987,7 +3987,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -3997,31 +3997,31 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H15" t="n">
-        <v>31307004</v>
+        <v>31351923</v>
       </c>
       <c r="I15" t="n">
-        <v>2691.378</v>
+        <v>2695.239</v>
       </c>
       <c r="J15" t="n">
-        <v>43989</v>
+        <v>38263</v>
       </c>
       <c r="K15" t="n">
-        <v>3.782</v>
+        <v>3.289</v>
       </c>
       <c r="L15" t="n">
-        <v>46786</v>
+        <v>45517</v>
       </c>
       <c r="M15" t="n">
-        <v>4.022</v>
+        <v>3.913</v>
       </c>
       <c r="N15" t="n">
-        <v>0.268</v>
+        <v>0.259</v>
       </c>
       <c r="O15" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="P15" t="s">
         <v>104</v>
@@ -4142,7 +4142,7 @@
         <v>118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44610</v>
+        <v>44612</v>
       </c>
       <c r="D18" t="s">
         <v>119</v>
@@ -4152,28 +4152,32 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H18" t="n">
-        <v>1634758</v>
+        <v>1652926</v>
       </c>
       <c r="I18" t="n">
-        <v>2096.112</v>
+        <v>2119.408</v>
       </c>
       <c r="J18" t="n">
-        <v>10443</v>
+        <v>8094</v>
       </c>
       <c r="K18" t="n">
-        <v>13.39</v>
+        <v>10.378</v>
       </c>
       <c r="L18" t="n">
-        <v>12713</v>
+        <v>10866</v>
       </c>
       <c r="M18" t="n">
-        <v>16.301</v>
-      </c>
-      <c r="N18"/>
-      <c r="O18"/>
+        <v>13.933</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0348</v>
+      </c>
+      <c r="O18" t="n">
+        <v>28.7</v>
+      </c>
       <c r="P18" t="s">
         <v>43</v>
       </c>
@@ -4407,7 +4411,7 @@
         <v>146</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D23" t="s">
         <v>147</v>
@@ -4417,27 +4421,27 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H23" t="n">
-        <v>8975653</v>
+        <v>9031014</v>
       </c>
       <c r="I23" t="n">
-        <v>1301.45</v>
+        <v>1309.477</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23" t="n">
-        <v>25290</v>
+        <v>24256</v>
       </c>
       <c r="M23" t="n">
-        <v>3.667</v>
+        <v>3.517</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1924</v>
+        <v>0.1815</v>
       </c>
       <c r="O23" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="P23" t="s">
         <v>149</v>
@@ -4460,7 +4464,7 @@
         <v>153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D24" t="s">
         <v>36</v>
@@ -4470,21 +4474,21 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="n">
-        <v>315805</v>
+        <v>317494</v>
       </c>
       <c r="I24" t="n">
-        <v>14.691</v>
+        <v>14.769</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
       <c r="M24" t="n">
-        <v>0.016</v>
+        <v>0.019</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
@@ -4509,7 +4513,7 @@
         <v>156</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D25" t="s">
         <v>36</v>
@@ -4519,21 +4523,21 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H25" t="n">
-        <v>1391828</v>
+        <v>1396218</v>
       </c>
       <c r="I25" t="n">
-        <v>113.568</v>
+        <v>113.926</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25" t="n">
-        <v>1942</v>
+        <v>1823</v>
       </c>
       <c r="M25" t="n">
-        <v>0.158</v>
+        <v>0.149</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
@@ -4558,7 +4562,7 @@
         <v>159</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D26" t="s">
         <v>160</v>
@@ -4568,21 +4572,21 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H26" t="n">
-        <v>2833096</v>
+        <v>2844283</v>
       </c>
       <c r="I26" t="n">
-        <v>167.179</v>
+        <v>167.839</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="n">
-        <v>2421</v>
+        <v>2832</v>
       </c>
       <c r="M26" t="n">
-        <v>0.143</v>
+        <v>0.167</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
@@ -4607,7 +4611,7 @@
         <v>164</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="D27" t="s">
         <v>165</v>
@@ -4617,31 +4621,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="H27" t="n">
-        <v>57686902</v>
+        <v>57771312</v>
       </c>
       <c r="I27" t="n">
-        <v>1515.368</v>
+        <v>1517.585</v>
       </c>
       <c r="J27" t="n">
-        <v>59712</v>
+        <v>25869</v>
       </c>
       <c r="K27" t="n">
-        <v>1.569</v>
+        <v>0.68</v>
       </c>
       <c r="L27" t="n">
-        <v>59537</v>
+        <v>59936</v>
       </c>
       <c r="M27" t="n">
-        <v>1.564</v>
+        <v>1.574</v>
       </c>
       <c r="N27" t="n">
-        <v>0.1298</v>
+        <v>0.1177</v>
       </c>
       <c r="O27" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="P27" t="s">
         <v>166</v>
@@ -4664,7 +4668,7 @@
         <v>170</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44608</v>
+        <v>44611</v>
       </c>
       <c r="D28" t="s">
         <v>171</v>
@@ -4674,15 +4678,15 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28" t="n">
-        <v>368</v>
+        <v>271</v>
       </c>
       <c r="K28" t="n">
-        <v>0.655</v>
+        <v>0.482</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -4815,7 +4819,7 @@
         <v>182</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D31" t="s">
         <v>183</v>
@@ -4825,25 +4829,25 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="H31" t="n">
-        <v>31807203</v>
+        <v>32112548</v>
       </c>
       <c r="I31" t="n">
-        <v>1655.559</v>
+        <v>1671.452</v>
       </c>
       <c r="J31" t="n">
-        <v>113815</v>
+        <v>86698</v>
       </c>
       <c r="K31" t="n">
-        <v>5.924</v>
+        <v>4.513</v>
       </c>
       <c r="L31" t="n">
-        <v>108803</v>
+        <v>102717</v>
       </c>
       <c r="M31" t="n">
-        <v>5.663</v>
+        <v>5.346</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
@@ -4921,7 +4925,7 @@
         <v>194</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D33" t="s">
         <v>195</v>
@@ -4931,31 +4935,31 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="H33" t="n">
-        <v>32807426</v>
+        <v>32892409</v>
       </c>
       <c r="I33" t="n">
-        <v>639.947</v>
+        <v>641.605</v>
       </c>
       <c r="J33" t="n">
-        <v>38982</v>
+        <v>30984</v>
       </c>
       <c r="K33" t="n">
-        <v>0.76</v>
+        <v>0.604</v>
       </c>
       <c r="L33" t="n">
-        <v>31481</v>
+        <v>32125</v>
       </c>
       <c r="M33" t="n">
-        <v>0.614</v>
+        <v>0.627</v>
       </c>
       <c r="N33" t="n">
-        <v>0.169</v>
+        <v>0.144</v>
       </c>
       <c r="O33" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="P33" t="s">
         <v>196</v>
@@ -4978,7 +4982,7 @@
         <v>200</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44604</v>
+        <v>44606</v>
       </c>
       <c r="D34" t="s">
         <v>201</v>
@@ -4988,28 +4992,28 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H34" t="n">
-        <v>2760745</v>
+        <v>2774653</v>
       </c>
       <c r="I34" t="n">
-        <v>537.209</v>
+        <v>539.915</v>
       </c>
       <c r="J34" t="n">
-        <v>12171</v>
+        <v>5170</v>
       </c>
       <c r="K34" t="n">
-        <v>2.368</v>
+        <v>1.006</v>
       </c>
       <c r="L34" t="n">
-        <v>11255</v>
+        <v>11028</v>
       </c>
       <c r="M34" t="n">
-        <v>2.19</v>
+        <v>2.146</v>
       </c>
       <c r="N34" t="n">
-        <v>0.392</v>
+        <v>0.383</v>
       </c>
       <c r="O34" t="n">
         <v>2.6</v>
@@ -5035,7 +5039,7 @@
         <v>205</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D35" t="s">
         <v>36</v>
@@ -5045,21 +5049,21 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H35" t="n">
-        <v>1391848</v>
+        <v>1399989</v>
       </c>
       <c r="I35" t="n">
-        <v>51.448</v>
+        <v>51.749</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35" t="n">
-        <v>2175</v>
+        <v>2372</v>
       </c>
       <c r="M35" t="n">
-        <v>0.08</v>
+        <v>0.088</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
@@ -5084,7 +5088,7 @@
         <v>208</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D36" t="s">
         <v>209</v>
@@ -5094,21 +5098,21 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H36" t="n">
-        <v>4452415</v>
+        <v>4470858</v>
       </c>
       <c r="I36" t="n">
-        <v>1090.835</v>
+        <v>1095.354</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>9241</v>
+        <v>8770</v>
       </c>
       <c r="M36" t="n">
-        <v>2.264</v>
+        <v>2.149</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -5192,7 +5196,7 @@
         <v>221</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D38" t="s">
         <v>222</v>
@@ -5202,31 +5206,31 @@
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="H38" t="n">
-        <v>24542559</v>
+        <v>24820317</v>
       </c>
       <c r="I38" t="n">
-        <v>27391.096</v>
+        <v>27701.092</v>
       </c>
       <c r="J38" t="n">
-        <v>99502</v>
+        <v>86413</v>
       </c>
       <c r="K38" t="n">
-        <v>111.051</v>
+        <v>96.443</v>
       </c>
       <c r="L38" t="n">
-        <v>102346</v>
+        <v>102009</v>
       </c>
       <c r="M38" t="n">
-        <v>114.225</v>
+        <v>113.849</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0237</v>
+        <v>0.0226</v>
       </c>
       <c r="O38" t="n">
-        <v>42.2</v>
+        <v>44.3</v>
       </c>
       <c r="P38" t="s">
         <v>43</v>
@@ -5249,7 +5253,7 @@
         <v>225</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D39" t="s">
         <v>226</v>
@@ -5259,31 +5263,31 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="H39" t="n">
-        <v>51218487</v>
+        <v>51359661</v>
       </c>
       <c r="I39" t="n">
-        <v>4775.816</v>
+        <v>4788.979</v>
       </c>
       <c r="J39" t="n">
-        <v>78197</v>
+        <v>19619</v>
       </c>
       <c r="K39" t="n">
-        <v>7.291</v>
+        <v>1.829</v>
       </c>
       <c r="L39" t="n">
-        <v>80062</v>
+        <v>73192</v>
       </c>
       <c r="M39" t="n">
-        <v>7.465</v>
+        <v>6.825</v>
       </c>
       <c r="N39" t="n">
-        <v>0.215</v>
+        <v>0.208</v>
       </c>
       <c r="O39" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="P39" t="s">
         <v>43</v>
@@ -5359,7 +5363,7 @@
         <v>235</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D41" t="s">
         <v>236</v>
@@ -5369,31 +5373,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="H41" t="n">
-        <v>61818066</v>
+        <v>62112795</v>
       </c>
       <c r="I41" t="n">
-        <v>10633.899</v>
+        <v>10684.598</v>
       </c>
       <c r="J41" t="n">
-        <v>61811</v>
+        <v>61645</v>
       </c>
       <c r="K41" t="n">
-        <v>10.633</v>
+        <v>10.604</v>
       </c>
       <c r="L41" t="n">
-        <v>112621</v>
+        <v>105633</v>
       </c>
       <c r="M41" t="n">
-        <v>19.373</v>
+        <v>18.171</v>
       </c>
       <c r="N41" t="n">
-        <v>0.3639</v>
+        <v>0.339</v>
       </c>
       <c r="O41" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P41" t="s">
         <v>237</v>
@@ -5416,7 +5420,7 @@
         <v>240</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D42" t="s">
         <v>36</v>
@@ -5426,18 +5430,22 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
-        <v>280478</v>
+        <v>282005</v>
       </c>
       <c r="I42" t="n">
-        <v>279.863</v>
+        <v>281.387</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
+      <c r="L42" t="n">
+        <v>400</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.399</v>
+      </c>
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42" t="s">
@@ -5461,7 +5469,7 @@
         <v>243</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D43" t="s">
         <v>244</v>
@@ -5471,31 +5479,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H43" t="n">
-        <v>3065877</v>
+        <v>3079556</v>
       </c>
       <c r="I43" t="n">
-        <v>279.894</v>
+        <v>281.143</v>
       </c>
       <c r="J43" t="n">
-        <v>3668</v>
+        <v>4048</v>
       </c>
       <c r="K43" t="n">
-        <v>0.335</v>
+        <v>0.37</v>
       </c>
       <c r="L43" t="n">
-        <v>5735</v>
+        <v>4051</v>
       </c>
       <c r="M43" t="n">
-        <v>0.524</v>
+        <v>0.37</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0948</v>
+        <v>0.085</v>
       </c>
       <c r="O43" t="n">
-        <v>10.6</v>
+        <v>11.8</v>
       </c>
       <c r="P43" t="s">
         <v>245</v>
@@ -5634,7 +5642,7 @@
         <v>262</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D46" t="s">
         <v>263</v>
@@ -5644,21 +5652,21 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H46" t="n">
-        <v>284687</v>
+        <v>286479</v>
       </c>
       <c r="I46" t="n">
-        <v>196.351</v>
+        <v>197.587</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="n">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="M46" t="n">
-        <v>0.347</v>
+        <v>0.367</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
@@ -5683,7 +5691,7 @@
         <v>267</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D47" t="s">
         <v>268</v>
@@ -5693,31 +5701,31 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="H47" t="n">
-        <v>3034564</v>
+        <v>3058906</v>
       </c>
       <c r="I47" t="n">
-        <v>2289.912</v>
+        <v>2308.281</v>
       </c>
       <c r="J47" t="n">
-        <v>11465</v>
+        <v>5584</v>
       </c>
       <c r="K47" t="n">
-        <v>8.652</v>
+        <v>4.214</v>
       </c>
       <c r="L47" t="n">
-        <v>9460</v>
+        <v>9640</v>
       </c>
       <c r="M47" t="n">
-        <v>7.139</v>
+        <v>7.274</v>
       </c>
       <c r="N47" t="n">
-        <v>0.5563</v>
+        <v>0.5801</v>
       </c>
       <c r="O47" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P47" t="s">
         <v>269</v>
@@ -5740,7 +5748,7 @@
         <v>272</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D48" t="s">
         <v>36</v>
@@ -5750,21 +5758,21 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H48" t="n">
-        <v>4450781</v>
+        <v>4461088</v>
       </c>
       <c r="I48" t="n">
-        <v>37.758</v>
+        <v>37.846</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>5176</v>
+        <v>4503</v>
       </c>
       <c r="M48" t="n">
-        <v>0.044</v>
+        <v>0.038</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
@@ -5789,7 +5797,7 @@
         <v>277</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D49" t="s">
         <v>278</v>
@@ -5799,24 +5807,28 @@
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H49" t="n">
-        <v>773030</v>
+        <v>774591</v>
       </c>
       <c r="I49" t="n">
-        <v>15759.077</v>
+        <v>15790.9</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>1181</v>
+        <v>939</v>
       </c>
       <c r="M49" t="n">
-        <v>24.076</v>
-      </c>
-      <c r="N49"/>
-      <c r="O49"/>
+        <v>19.143</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.5049</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2</v>
+      </c>
       <c r="P49" t="s">
         <v>279</v>
       </c>
@@ -5838,7 +5850,7 @@
         <v>284</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D50" t="s">
         <v>285</v>
@@ -5848,21 +5860,21 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H50" t="n">
-        <v>495355</v>
+        <v>495733</v>
       </c>
       <c r="I50" t="n">
-        <v>548.627</v>
+        <v>549.046</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M50" t="n">
-        <v>0.192</v>
+        <v>0.189</v>
       </c>
       <c r="N50"/>
       <c r="O50"/>
@@ -5887,7 +5899,7 @@
         <v>290</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44608</v>
+        <v>44611</v>
       </c>
       <c r="D51" t="s">
         <v>291</v>
@@ -5897,31 +5909,31 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="H51" t="n">
-        <v>9793970</v>
+        <v>9818690</v>
       </c>
       <c r="I51" t="n">
-        <v>1765.201</v>
+        <v>1769.656</v>
       </c>
       <c r="J51" t="n">
-        <v>17011</v>
+        <v>3296</v>
       </c>
       <c r="K51" t="n">
-        <v>3.066</v>
+        <v>0.594</v>
       </c>
       <c r="L51" t="n">
-        <v>15701</v>
+        <v>11981</v>
       </c>
       <c r="M51" t="n">
-        <v>2.83</v>
+        <v>2.159</v>
       </c>
       <c r="N51" t="n">
-        <v>0.315</v>
+        <v>0.433</v>
       </c>
       <c r="O51" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="P51" t="s">
         <v>293</v>
@@ -5944,7 +5956,7 @@
         <v>297</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44607</v>
+        <v>44610</v>
       </c>
       <c r="D52" t="s">
         <v>298</v>
@@ -5954,31 +5966,31 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="H52" t="n">
-        <v>243616328</v>
+        <v>244765417</v>
       </c>
       <c r="I52" t="n">
-        <v>3613.306</v>
+        <v>3630.349</v>
       </c>
       <c r="J52" t="n">
-        <v>416996</v>
+        <v>369590</v>
       </c>
       <c r="K52" t="n">
-        <v>6.185</v>
+        <v>5.482</v>
       </c>
       <c r="L52" t="n">
-        <v>441254</v>
+        <v>377100</v>
       </c>
       <c r="M52" t="n">
-        <v>6.545</v>
+        <v>5.593</v>
       </c>
       <c r="N52" t="n">
-        <v>0.261</v>
+        <v>0.243</v>
       </c>
       <c r="O52" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="P52" t="s">
         <v>299</v>
@@ -6001,7 +6013,7 @@
         <v>302</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D53" t="s">
         <v>36</v>
@@ -6011,21 +6023,21 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H53" t="n">
-        <v>1560376</v>
+        <v>1562803</v>
       </c>
       <c r="I53" t="n">
-        <v>684.727</v>
+        <v>685.792</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53" t="n">
-        <v>860</v>
+        <v>801</v>
       </c>
       <c r="M53" t="n">
-        <v>0.377</v>
+        <v>0.351</v>
       </c>
       <c r="N53"/>
       <c r="O53"/>
@@ -6133,8 +6145,12 @@
       <c r="M55" t="n">
         <v>3.889</v>
       </c>
-      <c r="N55"/>
-      <c r="O55"/>
+      <c r="N55" t="n">
+        <v>0.9985</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
       <c r="P55" t="s">
         <v>313</v>
       </c>
@@ -6209,7 +6225,7 @@
         <v>323</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D57" t="s">
         <v>36</v>
@@ -6219,21 +6235,21 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H57" t="n">
-        <v>2284338</v>
+        <v>2287642</v>
       </c>
       <c r="I57" t="n">
-        <v>71.988</v>
+        <v>72.092</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57" t="n">
-        <v>1893</v>
+        <v>1843</v>
       </c>
       <c r="M57" t="n">
-        <v>0.06</v>
+        <v>0.058</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
@@ -6258,7 +6274,7 @@
         <v>326</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D58" t="s">
         <v>327</v>
@@ -6268,21 +6284,21 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H58" t="n">
-        <v>62801589</v>
+        <v>63470397</v>
       </c>
       <c r="I58" t="n">
-        <v>6055.648</v>
+        <v>6120.137</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58" t="n">
-        <v>327379</v>
+        <v>314950</v>
       </c>
       <c r="M58" t="n">
-        <v>31.568</v>
+        <v>30.369</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
@@ -6515,7 +6531,7 @@
         <v>359</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D63" t="s">
         <v>360</v>
@@ -6527,25 +6543,25 @@
         <v>362</v>
       </c>
       <c r="G63" t="n">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H63" t="n">
-        <v>10146214</v>
+        <v>10211986</v>
       </c>
       <c r="I63" t="n">
-        <v>1053.15</v>
+        <v>1059.977</v>
       </c>
       <c r="J63" t="n">
-        <v>27023</v>
+        <v>65772</v>
       </c>
       <c r="K63" t="n">
-        <v>2.805</v>
+        <v>6.827</v>
       </c>
       <c r="L63" t="n">
-        <v>23905</v>
+        <v>21392</v>
       </c>
       <c r="M63" t="n">
-        <v>2.481</v>
+        <v>2.22</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
@@ -6570,7 +6586,7 @@
         <v>366</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44606</v>
+        <v>44609</v>
       </c>
       <c r="D64" t="s">
         <v>367</v>
@@ -6580,25 +6596,25 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="H64" t="n">
-        <v>1105535</v>
+        <v>1120502</v>
       </c>
       <c r="I64" t="n">
-        <v>2997.72</v>
+        <v>3038.303</v>
       </c>
       <c r="J64" t="n">
-        <v>3528</v>
+        <v>4721</v>
       </c>
       <c r="K64" t="n">
-        <v>9.566</v>
+        <v>12.801</v>
       </c>
       <c r="L64" t="n">
-        <v>4912</v>
+        <v>4725</v>
       </c>
       <c r="M64" t="n">
-        <v>13.319</v>
+        <v>12.812</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
@@ -6623,7 +6639,7 @@
         <v>371</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44610</v>
+        <v>44612</v>
       </c>
       <c r="D65" t="s">
         <v>372</v>
@@ -6635,28 +6651,32 @@
         <v>374</v>
       </c>
       <c r="G65" t="n">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H65" t="n">
-        <v>756851787</v>
+        <v>759315246</v>
       </c>
       <c r="I65" t="n">
-        <v>543.166</v>
+        <v>544.933</v>
       </c>
       <c r="J65" t="n">
-        <v>1319327</v>
+        <v>1187766</v>
       </c>
       <c r="K65" t="n">
-        <v>0.947</v>
+        <v>0.852</v>
       </c>
       <c r="L65" t="n">
-        <v>1283106</v>
+        <v>1225627</v>
       </c>
       <c r="M65" t="n">
-        <v>0.921</v>
-      </c>
-      <c r="N65"/>
-      <c r="O65"/>
+        <v>0.88</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.0202</v>
+      </c>
+      <c r="O65" t="n">
+        <v>49.6</v>
+      </c>
       <c r="P65" t="s">
         <v>373</v>
       </c>
@@ -6678,7 +6698,7 @@
         <v>377</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D66" t="s">
         <v>378</v>
@@ -6688,25 +6708,25 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H66" t="n">
-        <v>53603989</v>
+        <v>54422139</v>
       </c>
       <c r="I66" t="n">
-        <v>193.963</v>
+        <v>196.924</v>
       </c>
       <c r="J66" t="n">
-        <v>307607</v>
+        <v>243226</v>
       </c>
       <c r="K66" t="n">
-        <v>1.113</v>
+        <v>0.88</v>
       </c>
       <c r="L66" t="n">
-        <v>317986</v>
+        <v>310929</v>
       </c>
       <c r="M66" t="n">
-        <v>1.151</v>
+        <v>1.125</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
@@ -6731,7 +6751,7 @@
         <v>383</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D67" t="s">
         <v>384</v>
@@ -6741,21 +6761,21 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H67" t="n">
-        <v>46466138</v>
+        <v>46701520</v>
       </c>
       <c r="I67" t="n">
-        <v>546.476</v>
+        <v>549.244</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67" t="n">
-        <v>82120</v>
+        <v>79522</v>
       </c>
       <c r="M67" t="n">
-        <v>0.966</v>
+        <v>0.935</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
@@ -6837,7 +6857,7 @@
         <v>397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D69" t="s">
         <v>398</v>
@@ -6847,25 +6867,25 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="H69" t="n">
-        <v>11250554</v>
+        <v>11290751</v>
       </c>
       <c r="I69" t="n">
-        <v>2257.831</v>
+        <v>2265.898</v>
       </c>
       <c r="J69" t="n">
-        <v>17149</v>
+        <v>10867</v>
       </c>
       <c r="K69" t="n">
-        <v>3.442</v>
+        <v>2.181</v>
       </c>
       <c r="L69" t="n">
-        <v>16230</v>
+        <v>15748</v>
       </c>
       <c r="M69" t="n">
-        <v>3.257</v>
+        <v>3.16</v>
       </c>
       <c r="N69"/>
       <c r="O69"/>
@@ -6890,7 +6910,7 @@
         <v>403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44609</v>
+        <v>44613</v>
       </c>
       <c r="D70" t="s">
         <v>404</v>
@@ -6900,32 +6920,28 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="H70" t="n">
-        <v>47997110</v>
+        <v>48296124</v>
       </c>
       <c r="I70" t="n">
-        <v>5165.979</v>
+        <v>5198.162</v>
       </c>
       <c r="J70" t="n">
-        <v>98219</v>
+        <v>77088</v>
       </c>
       <c r="K70" t="n">
-        <v>10.571</v>
+        <v>8.297</v>
       </c>
       <c r="L70" t="n">
-        <v>109258</v>
+        <v>89638</v>
       </c>
       <c r="M70" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0.2147</v>
-      </c>
-      <c r="O70" t="n">
-        <v>4.7</v>
-      </c>
+        <v>9.648</v>
+      </c>
+      <c r="N70"/>
+      <c r="O70"/>
       <c r="P70" t="s">
         <v>43</v>
       </c>
@@ -6947,7 +6963,7 @@
         <v>408</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D71" t="s">
         <v>409</v>
@@ -6959,25 +6975,25 @@
         <v>411</v>
       </c>
       <c r="G71" t="n">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="H71" t="n">
-        <v>183281687</v>
+        <v>184378274</v>
       </c>
       <c r="I71" t="n">
-        <v>3036.1</v>
+        <v>3054.265</v>
       </c>
       <c r="J71" t="n">
-        <v>510283</v>
+        <v>231766</v>
       </c>
       <c r="K71" t="n">
-        <v>8.453</v>
+        <v>3.839</v>
       </c>
       <c r="L71" t="n">
-        <v>519094</v>
+        <v>485118</v>
       </c>
       <c r="M71" t="n">
-        <v>8.599</v>
+        <v>8.036</v>
       </c>
       <c r="N71"/>
       <c r="O71"/>
@@ -7002,7 +7018,7 @@
         <v>416</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="D72" t="s">
         <v>417</v>
@@ -7012,31 +7028,31 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H72" t="n">
-        <v>830166</v>
+        <v>835015</v>
       </c>
       <c r="I72" t="n">
-        <v>279.192</v>
+        <v>280.822</v>
       </c>
       <c r="J72" t="n">
-        <v>1652</v>
+        <v>2630</v>
       </c>
       <c r="K72" t="n">
-        <v>0.556</v>
+        <v>0.884</v>
       </c>
       <c r="L72" t="n">
-        <v>1776</v>
+        <v>1864</v>
       </c>
       <c r="M72" t="n">
-        <v>0.597</v>
+        <v>0.627</v>
       </c>
       <c r="N72" t="n">
-        <v>0.0634</v>
+        <v>0.0483</v>
       </c>
       <c r="O72" t="n">
-        <v>15.8</v>
+        <v>20.7</v>
       </c>
       <c r="P72" t="s">
         <v>418</v>
@@ -7059,7 +7075,7 @@
         <v>422</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D73" t="s">
         <v>423</v>
@@ -7069,31 +7085,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="H73" t="n">
-        <v>35631207</v>
+        <v>36102787</v>
       </c>
       <c r="I73" t="n">
-        <v>282.673</v>
+        <v>286.415</v>
       </c>
       <c r="J73" t="n">
-        <v>206304</v>
+        <v>88843</v>
       </c>
       <c r="K73" t="n">
-        <v>1.637</v>
+        <v>0.705</v>
       </c>
       <c r="L73" t="n">
-        <v>167724</v>
+        <v>184992</v>
       </c>
       <c r="M73" t="n">
-        <v>1.331</v>
+        <v>1.468</v>
       </c>
       <c r="N73" t="n">
-        <v>0.4891</v>
+        <v>0.4408</v>
       </c>
       <c r="O73" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="P73" t="s">
         <v>424</v>
@@ -7116,7 +7132,7 @@
         <v>428</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44605</v>
+        <v>44613</v>
       </c>
       <c r="D74" t="s">
         <v>429</v>
@@ -7126,32 +7142,28 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H74" t="n">
-        <v>15545166</v>
+        <v>16020086</v>
       </c>
       <c r="I74" t="n">
-        <v>1513.792</v>
+        <v>1560.04</v>
       </c>
       <c r="J74" t="n">
-        <v>65199</v>
+        <v>52222</v>
       </c>
       <c r="K74" t="n">
-        <v>6.349</v>
+        <v>5.085</v>
       </c>
       <c r="L74" t="n">
-        <v>75866</v>
+        <v>59219</v>
       </c>
       <c r="M74" t="n">
-        <v>7.388</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0.2603</v>
-      </c>
-      <c r="O74" t="n">
-        <v>3.8</v>
-      </c>
+        <v>5.767</v>
+      </c>
+      <c r="N74"/>
+      <c r="O74"/>
       <c r="P74" t="s">
         <v>430</v>
       </c>
@@ -7230,7 +7242,7 @@
         <v>439</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D76" t="s">
         <v>36</v>
@@ -7240,21 +7252,21 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H76" t="n">
-        <v>3322325</v>
+        <v>3335912</v>
       </c>
       <c r="I76" t="n">
-        <v>60.422</v>
+        <v>60.669</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76" t="n">
-        <v>6063</v>
+        <v>5544</v>
       </c>
       <c r="M76" t="n">
-        <v>0.11</v>
+        <v>0.101</v>
       </c>
       <c r="N76"/>
       <c r="O76"/>
@@ -7279,7 +7291,7 @@
         <v>442</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D77" t="s">
         <v>443</v>
@@ -7289,31 +7301,31 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H77" t="n">
-        <v>1742427</v>
+        <v>1749613</v>
       </c>
       <c r="I77" t="n">
-        <v>977.73</v>
+        <v>981.762</v>
       </c>
       <c r="J77" t="n">
-        <v>2648</v>
+        <v>1595</v>
       </c>
       <c r="K77" t="n">
-        <v>1.486</v>
+        <v>0.895</v>
       </c>
       <c r="L77" t="n">
-        <v>3166</v>
+        <v>3016</v>
       </c>
       <c r="M77" t="n">
-        <v>1.777</v>
+        <v>1.692</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1604</v>
+        <v>0.1045</v>
       </c>
       <c r="O77" t="n">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
       <c r="P77" t="s">
         <v>445</v>
@@ -7336,7 +7348,7 @@
         <v>448</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D78" t="s">
         <v>449</v>
@@ -7346,25 +7358,25 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="H78" t="n">
-        <v>7426449</v>
+        <v>7489094</v>
       </c>
       <c r="I78" t="n">
-        <v>1715.689</v>
+        <v>1730.161</v>
       </c>
       <c r="J78" t="n">
-        <v>22593</v>
+        <v>20376</v>
       </c>
       <c r="K78" t="n">
-        <v>5.22</v>
+        <v>4.707</v>
       </c>
       <c r="L78" t="n">
-        <v>24458</v>
+        <v>22340</v>
       </c>
       <c r="M78" t="n">
-        <v>5.65</v>
+        <v>5.161</v>
       </c>
       <c r="N78"/>
       <c r="O78"/>
@@ -7389,7 +7401,7 @@
         <v>454</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44608</v>
+        <v>44613</v>
       </c>
       <c r="D79" t="s">
         <v>455</v>
@@ -7399,32 +7411,28 @@
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H79" t="n">
-        <v>971296</v>
+        <v>973221</v>
       </c>
       <c r="I79" t="n">
-        <v>131.623</v>
+        <v>131.884</v>
       </c>
       <c r="J79" t="n">
-        <v>2753</v>
+        <v>1925</v>
       </c>
       <c r="K79" t="n">
-        <v>0.373</v>
+        <v>0.261</v>
       </c>
       <c r="L79" t="n">
-        <v>1260</v>
+        <v>668</v>
       </c>
       <c r="M79" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.2804</v>
-      </c>
-      <c r="O79" t="n">
-        <v>3.6</v>
-      </c>
+        <v>0.091</v>
+      </c>
+      <c r="N79"/>
+      <c r="O79"/>
       <c r="P79" t="s">
         <v>456</v>
       </c>
@@ -7446,7 +7454,7 @@
         <v>460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D80" t="s">
         <v>461</v>
@@ -7458,25 +7466,25 @@
         <v>463</v>
       </c>
       <c r="G80" t="n">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="H80" t="n">
-        <v>6472159</v>
+        <v>6523418</v>
       </c>
       <c r="I80" t="n">
-        <v>3466.732</v>
+        <v>3494.188</v>
       </c>
       <c r="J80" t="n">
-        <v>23648</v>
+        <v>8445</v>
       </c>
       <c r="K80" t="n">
-        <v>12.667</v>
+        <v>4.523</v>
       </c>
       <c r="L80" t="n">
-        <v>21768</v>
+        <v>21486</v>
       </c>
       <c r="M80" t="n">
-        <v>11.66</v>
+        <v>11.509</v>
       </c>
       <c r="N80"/>
       <c r="O80"/>
@@ -7550,7 +7558,7 @@
         <v>471</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44607</v>
+        <v>44612</v>
       </c>
       <c r="D82" t="s">
         <v>472</v>
@@ -7560,15 +7568,15 @@
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82" t="n">
-        <v>8563</v>
+        <v>7120</v>
       </c>
       <c r="K82" t="n">
-        <v>1.231</v>
+        <v>1.023</v>
       </c>
       <c r="L82"/>
       <c r="M82"/>
@@ -7652,7 +7660,7 @@
         <v>483</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44605</v>
+        <v>44609</v>
       </c>
       <c r="D84" t="s">
         <v>484</v>
@@ -7662,28 +7670,28 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="H84" t="n">
-        <v>7942633</v>
+        <v>8012492</v>
       </c>
       <c r="I84" t="n">
-        <v>2952.803</v>
+        <v>2978.774</v>
       </c>
       <c r="J84" t="n">
-        <v>9681</v>
+        <v>15070</v>
       </c>
       <c r="K84" t="n">
-        <v>3.599</v>
+        <v>5.603</v>
       </c>
       <c r="L84" t="n">
-        <v>22298</v>
+        <v>17431</v>
       </c>
       <c r="M84" t="n">
-        <v>8.29</v>
+        <v>6.48</v>
       </c>
       <c r="N84" t="n">
-        <v>0.507</v>
+        <v>0.509</v>
       </c>
       <c r="O84" t="n">
         <v>2</v>
@@ -7709,7 +7717,7 @@
         <v>488</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="D85" t="s">
         <v>489</v>
@@ -7719,31 +7727,31 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H85" t="n">
-        <v>4047952</v>
+        <v>4051669</v>
       </c>
       <c r="I85" t="n">
-        <v>6376.595</v>
+        <v>6382.451</v>
       </c>
       <c r="J85" t="n">
-        <v>2847</v>
+        <v>2005</v>
       </c>
       <c r="K85" t="n">
-        <v>4.485</v>
+        <v>3.158</v>
       </c>
       <c r="L85" t="n">
-        <v>2575</v>
+        <v>2171</v>
       </c>
       <c r="M85" t="n">
-        <v>4.056</v>
+        <v>3.42</v>
       </c>
       <c r="N85" t="n">
-        <v>0.219</v>
+        <v>0.24</v>
       </c>
       <c r="O85" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="P85" t="s">
         <v>490</v>
@@ -7792,8 +7800,12 @@
       <c r="M86" t="n">
         <v>0.041</v>
       </c>
-      <c r="N86"/>
-      <c r="O86"/>
+      <c r="N86" t="n">
+        <v>0.1728</v>
+      </c>
+      <c r="O86" t="n">
+        <v>5.8</v>
+      </c>
       <c r="P86" t="s">
         <v>37</v>
       </c>
@@ -7815,7 +7827,7 @@
         <v>496</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D87" t="s">
         <v>36</v>
@@ -7825,18 +7837,18 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H87" t="n">
-        <v>540563</v>
+        <v>542492</v>
       </c>
       <c r="I87" t="n">
-        <v>27.513</v>
+        <v>27.611</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87" t="n">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="M87" t="n">
         <v>0.03</v>
@@ -7864,7 +7876,7 @@
         <v>499</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44608</v>
+        <v>44611</v>
       </c>
       <c r="D88" t="s">
         <v>500</v>
@@ -7876,31 +7888,31 @@
         <v>502</v>
       </c>
       <c r="G88" t="n">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="H88" t="n">
-        <v>48471718</v>
+        <v>49215870</v>
       </c>
       <c r="I88" t="n">
-        <v>1478.87</v>
+        <v>1501.574</v>
       </c>
       <c r="J88" t="n">
-        <v>283270</v>
+        <v>221480</v>
       </c>
       <c r="K88" t="n">
-        <v>8.643</v>
+        <v>6.757</v>
       </c>
       <c r="L88" t="n">
-        <v>241270</v>
+        <v>255487</v>
       </c>
       <c r="M88" t="n">
-        <v>7.361</v>
+        <v>7.795</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0919</v>
+        <v>0.0982</v>
       </c>
       <c r="O88" t="n">
-        <v>10.9</v>
+        <v>10.2</v>
       </c>
       <c r="P88" t="s">
         <v>43</v>
@@ -7923,7 +7935,7 @@
         <v>506</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D89" t="s">
         <v>507</v>
@@ -7933,25 +7945,25 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H89" t="n">
-        <v>2149013</v>
+        <v>2160565</v>
       </c>
       <c r="I89" t="n">
-        <v>3953.153</v>
+        <v>3974.403</v>
       </c>
       <c r="J89" t="n">
-        <v>2823</v>
+        <v>4191</v>
       </c>
       <c r="K89" t="n">
-        <v>5.193</v>
+        <v>7.709</v>
       </c>
       <c r="L89" t="n">
-        <v>4222</v>
+        <v>3889</v>
       </c>
       <c r="M89" t="n">
-        <v>7.766</v>
+        <v>7.154</v>
       </c>
       <c r="N89"/>
       <c r="O89"/>
@@ -7976,7 +7988,7 @@
         <v>512</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D90" t="s">
         <v>513</v>
@@ -7986,25 +7998,25 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="H90" t="n">
-        <v>1723258</v>
+        <v>1728032</v>
       </c>
       <c r="I90" t="n">
-        <v>3339</v>
+        <v>3348.25</v>
       </c>
       <c r="J90" t="n">
-        <v>1687</v>
+        <v>1495</v>
       </c>
       <c r="K90" t="n">
-        <v>3.269</v>
+        <v>2.897</v>
       </c>
       <c r="L90" t="n">
-        <v>1829</v>
+        <v>1730</v>
       </c>
       <c r="M90" t="n">
-        <v>3.544</v>
+        <v>3.352</v>
       </c>
       <c r="N90"/>
       <c r="O90"/>
@@ -8029,7 +8041,7 @@
         <v>519</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D91" t="s">
         <v>36</v>
@@ -8039,21 +8051,21 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H91" t="n">
-        <v>870052</v>
+        <v>875475</v>
       </c>
       <c r="I91" t="n">
-        <v>182.206</v>
+        <v>183.341</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91" t="n">
-        <v>1927</v>
+        <v>1990</v>
       </c>
       <c r="M91" t="n">
-        <v>0.404</v>
+        <v>0.417</v>
       </c>
       <c r="N91"/>
       <c r="O91"/>
@@ -8078,7 +8090,7 @@
         <v>524</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44608</v>
+        <v>44611</v>
       </c>
       <c r="D92" t="s">
         <v>525</v>
@@ -8088,31 +8100,31 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="H92" t="n">
-        <v>14135475</v>
+        <v>14227433</v>
       </c>
       <c r="I92" t="n">
-        <v>108.516</v>
+        <v>109.221</v>
       </c>
       <c r="J92" t="n">
-        <v>7103</v>
+        <v>2292</v>
       </c>
       <c r="K92" t="n">
-        <v>0.055</v>
+        <v>0.018</v>
       </c>
       <c r="L92" t="n">
-        <v>12075</v>
+        <v>11371</v>
       </c>
       <c r="M92" t="n">
-        <v>0.093</v>
+        <v>0.087</v>
       </c>
       <c r="N92" t="n">
-        <v>0.502</v>
+        <v>0.451</v>
       </c>
       <c r="O92" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="P92" t="s">
         <v>527</v>
@@ -8180,7 +8192,7 @@
         <v>537</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D94" t="s">
         <v>538</v>
@@ -8190,21 +8202,21 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H94" t="n">
-        <v>7082428</v>
+        <v>7097615</v>
       </c>
       <c r="I94" t="n">
-        <v>2127.314</v>
+        <v>2131.876</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="n">
-        <v>11344</v>
+        <v>8766</v>
       </c>
       <c r="M94" t="n">
-        <v>3.407</v>
+        <v>2.633</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
@@ -8229,7 +8241,7 @@
         <v>542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D95" t="s">
         <v>543</v>
@@ -8239,25 +8251,25 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="H95" t="n">
-        <v>10907939</v>
+        <v>10950440</v>
       </c>
       <c r="I95" t="n">
-        <v>292.087</v>
+        <v>293.225</v>
       </c>
       <c r="J95" t="n">
-        <v>15728</v>
+        <v>9116</v>
       </c>
       <c r="K95" t="n">
-        <v>0.421</v>
+        <v>0.244</v>
       </c>
       <c r="L95" t="n">
-        <v>14991</v>
+        <v>15188</v>
       </c>
       <c r="M95" t="n">
-        <v>0.401</v>
+        <v>0.407</v>
       </c>
       <c r="N95"/>
       <c r="O95"/>
@@ -8282,7 +8294,7 @@
         <v>548</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D96" t="s">
         <v>36</v>
@@ -8292,21 +8304,21 @@
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H96" t="n">
-        <v>1255458</v>
+        <v>1259571</v>
       </c>
       <c r="I96" t="n">
-        <v>39.034</v>
+        <v>39.162</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
       <c r="L96" t="n">
-        <v>1548</v>
+        <v>1261</v>
       </c>
       <c r="M96" t="n">
-        <v>0.048</v>
+        <v>0.039</v>
       </c>
       <c r="N96"/>
       <c r="O96"/>
@@ -8331,7 +8343,7 @@
         <v>551</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D97" t="s">
         <v>552</v>
@@ -8341,21 +8353,21 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H97" t="n">
-        <v>6839661</v>
+        <v>6935983</v>
       </c>
       <c r="I97" t="n">
-        <v>124.798</v>
+        <v>126.555</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97" t="n">
-        <v>28083</v>
+        <v>31755</v>
       </c>
       <c r="M97" t="n">
-        <v>0.512</v>
+        <v>0.579</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -8380,7 +8392,7 @@
         <v>557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D98" t="s">
         <v>36</v>
@@ -8390,21 +8402,21 @@
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H98" t="n">
-        <v>942414</v>
+        <v>946174</v>
       </c>
       <c r="I98" t="n">
-        <v>364.24</v>
+        <v>365.693</v>
       </c>
       <c r="J98"/>
       <c r="K98"/>
       <c r="L98" t="n">
-        <v>1162</v>
+        <v>1056</v>
       </c>
       <c r="M98" t="n">
-        <v>0.449</v>
+        <v>0.408</v>
       </c>
       <c r="N98"/>
       <c r="O98"/>
@@ -8459,8 +8471,12 @@
       <c r="M99" t="n">
         <v>0.223</v>
       </c>
-      <c r="N99"/>
-      <c r="O99"/>
+      <c r="N99" t="n">
+        <v>0.0645</v>
+      </c>
+      <c r="O99" t="n">
+        <v>15.5</v>
+      </c>
       <c r="P99" t="s">
         <v>564</v>
       </c>
@@ -8482,7 +8498,7 @@
         <v>568</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44608</v>
+        <v>44611</v>
       </c>
       <c r="D100" t="s">
         <v>569</v>
@@ -8492,31 +8508,31 @@
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="H100" t="n">
-        <v>27547112</v>
+        <v>27725158</v>
       </c>
       <c r="I100" t="n">
-        <v>1604.086</v>
+        <v>1614.453</v>
       </c>
       <c r="J100" t="n">
-        <v>87537</v>
+        <v>59626</v>
       </c>
       <c r="K100" t="n">
-        <v>5.097</v>
+        <v>3.472</v>
       </c>
       <c r="L100" t="n">
-        <v>100570</v>
+        <v>79195</v>
       </c>
       <c r="M100" t="n">
-        <v>5.856</v>
+        <v>4.612</v>
       </c>
       <c r="N100" t="n">
-        <v>0.569</v>
+        <v>0.579</v>
       </c>
       <c r="O100" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P100" t="s">
         <v>570</v>
@@ -8539,7 +8555,7 @@
         <v>574</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D101" t="s">
         <v>575</v>
@@ -8549,21 +8565,21 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H101" t="n">
-        <v>6428083</v>
+        <v>6513660</v>
       </c>
       <c r="I101" t="n">
-        <v>1253.942</v>
+        <v>1270.636</v>
       </c>
       <c r="J101"/>
       <c r="K101"/>
       <c r="L101" t="n">
-        <v>25568</v>
+        <v>28567</v>
       </c>
       <c r="M101" t="n">
-        <v>4.988</v>
+        <v>5.573</v>
       </c>
       <c r="N101"/>
       <c r="O101"/>
@@ -8588,7 +8604,7 @@
         <v>580</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D102" t="s">
         <v>36</v>
@@ -8598,18 +8614,22 @@
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H102" t="n">
-        <v>224075</v>
+        <v>226119</v>
       </c>
       <c r="I102" t="n">
-        <v>8.916</v>
+        <v>8.998</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
-      <c r="L102"/>
-      <c r="M102"/>
+      <c r="L102" t="n">
+        <v>456</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.018</v>
+      </c>
       <c r="N102"/>
       <c r="O102"/>
       <c r="P102" t="s">
@@ -8659,8 +8679,12 @@
       <c r="M103" t="n">
         <v>0.022</v>
       </c>
-      <c r="N103"/>
-      <c r="O103"/>
+      <c r="N103" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="O103" t="n">
+        <v>108.5</v>
+      </c>
       <c r="P103" t="s">
         <v>584</v>
       </c>
@@ -8682,7 +8706,7 @@
         <v>588</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D104" t="s">
         <v>589</v>
@@ -8692,21 +8716,21 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H104" t="n">
-        <v>1862041</v>
+        <v>1871411</v>
       </c>
       <c r="I104" t="n">
-        <v>894.068</v>
+        <v>898.567</v>
       </c>
       <c r="J104"/>
       <c r="K104"/>
       <c r="L104" t="n">
-        <v>4667</v>
+        <v>3349</v>
       </c>
       <c r="M104" t="n">
-        <v>2.241</v>
+        <v>1.608</v>
       </c>
       <c r="N104"/>
       <c r="O104"/>
@@ -8731,7 +8755,7 @@
         <v>593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44608</v>
+        <v>44611</v>
       </c>
       <c r="D105" t="s">
         <v>594</v>
@@ -8741,31 +8765,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H105" t="n">
-        <v>10565685</v>
+        <v>10616343</v>
       </c>
       <c r="I105" t="n">
-        <v>1933.114</v>
+        <v>1942.383</v>
       </c>
       <c r="J105" t="n">
-        <v>23008</v>
+        <v>7207</v>
       </c>
       <c r="K105" t="n">
-        <v>4.21</v>
+        <v>1.319</v>
       </c>
       <c r="L105" t="n">
-        <v>22522</v>
+        <v>19267</v>
       </c>
       <c r="M105" t="n">
-        <v>4.121</v>
+        <v>3.525</v>
       </c>
       <c r="N105" t="n">
-        <v>0.703</v>
+        <v>0.683</v>
       </c>
       <c r="O105" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P105" t="s">
         <v>595</v>
@@ -8833,7 +8857,7 @@
         <v>604</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D107" t="s">
         <v>605</v>
@@ -8843,21 +8867,21 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H107" t="n">
-        <v>25997179</v>
+        <v>26136422</v>
       </c>
       <c r="I107" t="n">
-        <v>115.44</v>
+        <v>116.059</v>
       </c>
       <c r="J107"/>
       <c r="K107"/>
       <c r="L107" t="n">
-        <v>51060</v>
+        <v>48179</v>
       </c>
       <c r="M107" t="n">
-        <v>0.227</v>
+        <v>0.214</v>
       </c>
       <c r="N107"/>
       <c r="O107"/>
@@ -8882,7 +8906,7 @@
         <v>609</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D108" t="s">
         <v>610</v>
@@ -8892,22 +8916,18 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108" t="n">
-        <v>7215</v>
+        <v>7455</v>
       </c>
       <c r="K108" t="n">
-        <v>1.381</v>
-      </c>
-      <c r="L108" t="n">
-        <v>8188</v>
-      </c>
-      <c r="M108" t="n">
-        <v>1.568</v>
-      </c>
+        <v>1.427</v>
+      </c>
+      <c r="L108"/>
+      <c r="M108"/>
       <c r="N108"/>
       <c r="O108"/>
       <c r="P108" t="s">
@@ -8931,7 +8951,7 @@
         <v>615</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D109" t="s">
         <v>616</v>
@@ -8941,31 +8961,31 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="H109" t="n">
-        <v>5434230</v>
+        <v>5457948</v>
       </c>
       <c r="I109" t="n">
-        <v>1240.244</v>
+        <v>1245.657</v>
       </c>
       <c r="J109" t="n">
-        <v>9749</v>
+        <v>6377</v>
       </c>
       <c r="K109" t="n">
-        <v>2.225</v>
+        <v>1.455</v>
       </c>
       <c r="L109" t="n">
-        <v>10151</v>
+        <v>8955</v>
       </c>
       <c r="M109" t="n">
-        <v>2.317</v>
+        <v>2.044</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1443</v>
+        <v>0.1261</v>
       </c>
       <c r="O109" t="n">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="P109" t="s">
         <v>617</v>
@@ -9033,7 +9053,7 @@
         <v>625</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D111" t="s">
         <v>626</v>
@@ -9043,32 +9063,28 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="H111" t="n">
-        <v>2514488</v>
+        <v>2525886</v>
       </c>
       <c r="I111" t="n">
-        <v>348.284</v>
+        <v>349.863</v>
       </c>
       <c r="J111" t="n">
-        <v>5783</v>
+        <v>3559</v>
       </c>
       <c r="K111" t="n">
-        <v>0.801</v>
+        <v>0.493</v>
       </c>
       <c r="L111" t="n">
-        <v>6396</v>
+        <v>4864</v>
       </c>
       <c r="M111" t="n">
-        <v>0.886</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.3044</v>
-      </c>
-      <c r="O111" t="n">
-        <v>3.3</v>
-      </c>
+        <v>0.674</v>
+      </c>
+      <c r="N111"/>
+      <c r="O111"/>
       <c r="P111" t="s">
         <v>627</v>
       </c>
@@ -9090,7 +9106,7 @@
         <v>631</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D112" t="s">
         <v>632</v>
@@ -9102,27 +9118,27 @@
         <v>633</v>
       </c>
       <c r="G112" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="H112" t="n">
-        <v>26777800</v>
+        <v>26969707</v>
       </c>
       <c r="I112" t="n">
-        <v>802.706</v>
+        <v>808.459</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
       <c r="L112" t="n">
-        <v>72931</v>
+        <v>63759</v>
       </c>
       <c r="M112" t="n">
-        <v>2.186</v>
+        <v>1.911</v>
       </c>
       <c r="N112" t="n">
-        <v>0.125</v>
+        <v>0.126</v>
       </c>
       <c r="O112" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="P112" t="s">
         <v>196</v>
@@ -9145,7 +9161,7 @@
         <v>637</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44596</v>
+        <v>44603</v>
       </c>
       <c r="D113" t="s">
         <v>638</v>
@@ -9155,31 +9171,31 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="H113" t="n">
-        <v>25899275</v>
+        <v>26127209</v>
       </c>
       <c r="I113" t="n">
-        <v>233.228</v>
+        <v>235.281</v>
       </c>
       <c r="J113" t="n">
-        <v>38516</v>
+        <v>29780</v>
       </c>
       <c r="K113" t="n">
-        <v>0.347</v>
+        <v>0.268</v>
       </c>
       <c r="L113" t="n">
-        <v>40833</v>
+        <v>31988</v>
       </c>
       <c r="M113" t="n">
-        <v>0.368</v>
+        <v>0.288</v>
       </c>
       <c r="N113" t="n">
-        <v>0.2887</v>
+        <v>0.1636</v>
       </c>
       <c r="O113" t="n">
-        <v>3.5</v>
+        <v>6.1</v>
       </c>
       <c r="P113" t="s">
         <v>354</v>
@@ -9202,7 +9218,7 @@
         <v>643</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D114" t="s">
         <v>644</v>
@@ -9212,25 +9228,25 @@
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="H114" t="n">
-        <v>32140083</v>
+        <v>32350757</v>
       </c>
       <c r="I114" t="n">
-        <v>850.334</v>
+        <v>855.908</v>
       </c>
       <c r="J114" t="n">
-        <v>102727</v>
+        <v>49523</v>
       </c>
       <c r="K114" t="n">
-        <v>2.718</v>
+        <v>1.31</v>
       </c>
       <c r="L114" t="n">
-        <v>100024</v>
+        <v>92760</v>
       </c>
       <c r="M114" t="n">
-        <v>2.646</v>
+        <v>2.454</v>
       </c>
       <c r="N114"/>
       <c r="O114"/>
@@ -9255,7 +9271,7 @@
         <v>649</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D115" t="s">
         <v>650</v>
@@ -9265,31 +9281,31 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="H115" t="n">
-        <v>37479016</v>
+        <v>37712155</v>
       </c>
       <c r="I115" t="n">
-        <v>3686.005</v>
+        <v>3708.934</v>
       </c>
       <c r="J115" t="n">
-        <v>116899</v>
+        <v>38104</v>
       </c>
       <c r="K115" t="n">
-        <v>11.497</v>
+        <v>3.747</v>
       </c>
       <c r="L115" t="n">
-        <v>116220</v>
+        <v>101037</v>
       </c>
       <c r="M115" t="n">
-        <v>11.43</v>
+        <v>9.937</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1511</v>
+        <v>0.1444</v>
       </c>
       <c r="O115" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="P115" t="s">
         <v>651</v>
@@ -9312,7 +9328,7 @@
         <v>654</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D116" t="s">
         <v>655</v>
@@ -9322,25 +9338,25 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H116" t="n">
-        <v>5620810</v>
+        <v>5681688</v>
       </c>
       <c r="I116" t="n">
-        <v>1918.022</v>
+        <v>1938.796</v>
       </c>
       <c r="J116" t="n">
-        <v>22861</v>
+        <v>21707</v>
       </c>
       <c r="K116" t="n">
-        <v>7.801</v>
+        <v>7.407</v>
       </c>
       <c r="L116" t="n">
-        <v>24283</v>
+        <v>22113</v>
       </c>
       <c r="M116" t="n">
-        <v>8.286</v>
+        <v>7.546</v>
       </c>
       <c r="N116"/>
       <c r="O116"/>
@@ -9365,7 +9381,7 @@
         <v>661</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D117" t="s">
         <v>662</v>
@@ -9375,21 +9391,21 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H117" t="n">
-        <v>20565431</v>
+        <v>20688043</v>
       </c>
       <c r="I117" t="n">
-        <v>1075.161</v>
+        <v>1081.571</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117" t="n">
-        <v>64783</v>
+        <v>60422</v>
       </c>
       <c r="M117" t="n">
-        <v>3.387</v>
+        <v>3.159</v>
       </c>
       <c r="N117"/>
       <c r="O117"/>
@@ -9414,7 +9430,7 @@
         <v>668</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D118" t="s">
         <v>669</v>
@@ -9424,21 +9440,21 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H118" t="n">
-        <v>271725319</v>
+        <v>273486507</v>
       </c>
       <c r="I118" t="n">
-        <v>1862.254</v>
+        <v>1874.325</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118" t="n">
-        <v>696218</v>
+        <v>595508</v>
       </c>
       <c r="M118" t="n">
-        <v>4.771</v>
+        <v>4.081</v>
       </c>
       <c r="N118"/>
       <c r="O118"/>
@@ -9546,8 +9562,12 @@
       <c r="M120" t="n">
         <v>1592.257</v>
       </c>
-      <c r="N120"/>
-      <c r="O120"/>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>28419.7</v>
+      </c>
       <c r="P120" t="s">
         <v>43</v>
       </c>
@@ -9569,7 +9589,7 @@
         <v>685</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44607</v>
+        <v>44612</v>
       </c>
       <c r="D121" t="s">
         <v>686</v>
@@ -9579,32 +9599,28 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H121" t="n">
-        <v>97677</v>
+        <v>97955</v>
       </c>
       <c r="I121" t="n">
-        <v>877.846</v>
+        <v>880.344</v>
       </c>
       <c r="J121" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K121" t="n">
-        <v>0.225</v>
+        <v>0.207</v>
       </c>
       <c r="L121" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M121" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.4402</v>
-      </c>
-      <c r="O121" t="n">
-        <v>2.3</v>
-      </c>
+        <v>0.395</v>
+      </c>
+      <c r="N121"/>
+      <c r="O121"/>
       <c r="P121" t="s">
         <v>687</v>
       </c>
@@ -9626,7 +9642,7 @@
         <v>691</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D122" t="s">
         <v>692</v>
@@ -9636,31 +9652,31 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="H122" t="n">
-        <v>40005414</v>
+        <v>40241874</v>
       </c>
       <c r="I122" t="n">
-        <v>1131.993</v>
+        <v>1138.684</v>
       </c>
       <c r="J122" t="n">
-        <v>93492</v>
+        <v>83083</v>
       </c>
       <c r="K122" t="n">
-        <v>2.645</v>
+        <v>2.351</v>
       </c>
       <c r="L122" t="n">
-        <v>98950</v>
+        <v>91077</v>
       </c>
       <c r="M122" t="n">
-        <v>2.8</v>
+        <v>2.577</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0201</v>
+        <v>0.0172</v>
       </c>
       <c r="O122" t="n">
-        <v>49.6</v>
+        <v>58.2</v>
       </c>
       <c r="P122" t="s">
         <v>43</v>
@@ -9683,7 +9699,7 @@
         <v>695</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D123" t="s">
         <v>696</v>
@@ -9693,25 +9709,25 @@
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="H123" t="n">
-        <v>1020030</v>
+        <v>1024222</v>
       </c>
       <c r="I123" t="n">
-        <v>59.317</v>
+        <v>59.561</v>
       </c>
       <c r="J123" t="n">
-        <v>1257</v>
+        <v>1423</v>
       </c>
       <c r="K123" t="n">
-        <v>0.073</v>
+        <v>0.083</v>
       </c>
       <c r="L123" t="n">
-        <v>1484</v>
+        <v>1303</v>
       </c>
       <c r="M123" t="n">
-        <v>0.086</v>
+        <v>0.076</v>
       </c>
       <c r="N123"/>
       <c r="O123"/>
@@ -9736,7 +9752,7 @@
         <v>700</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44609</v>
+        <v>44613</v>
       </c>
       <c r="D124" t="s">
         <v>701</v>
@@ -9748,32 +9764,28 @@
         <v>702</v>
       </c>
       <c r="G124" t="n">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="H124" t="n">
-        <v>8584592</v>
+        <v>8651160</v>
       </c>
       <c r="I124" t="n">
-        <v>1249.295</v>
+        <v>1258.983</v>
       </c>
       <c r="J124" t="n">
-        <v>20918</v>
+        <v>17667</v>
       </c>
       <c r="K124" t="n">
-        <v>3.044</v>
+        <v>2.571</v>
       </c>
       <c r="L124" t="n">
-        <v>20194</v>
+        <v>17736</v>
       </c>
       <c r="M124" t="n">
-        <v>2.939</v>
-      </c>
-      <c r="N124" t="n">
-        <v>0.3582</v>
-      </c>
-      <c r="O124" t="n">
-        <v>2.8</v>
-      </c>
+        <v>2.581</v>
+      </c>
+      <c r="N124"/>
+      <c r="O124"/>
       <c r="P124" t="s">
         <v>43</v>
       </c>
@@ -9848,7 +9860,7 @@
         <v>712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D126" t="s">
         <v>713</v>
@@ -9860,31 +9872,31 @@
         <v>714</v>
       </c>
       <c r="G126" t="n">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="H126" t="n">
-        <v>49006444</v>
+        <v>49170213</v>
       </c>
       <c r="I126" t="n">
-        <v>8993.213</v>
+        <v>9023.266</v>
       </c>
       <c r="J126" t="n">
-        <v>31342</v>
+        <v>20349</v>
       </c>
       <c r="K126" t="n">
-        <v>5.752</v>
+        <v>3.734</v>
       </c>
       <c r="L126" t="n">
-        <v>53469</v>
+        <v>55300</v>
       </c>
       <c r="M126" t="n">
-        <v>9.812</v>
+        <v>10.148</v>
       </c>
       <c r="N126" t="n">
-        <v>0.372</v>
+        <v>0.349</v>
       </c>
       <c r="O126" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P126" t="s">
         <v>43</v>
@@ -9907,7 +9919,7 @@
         <v>717</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D127" t="s">
         <v>718</v>
@@ -9919,31 +9931,31 @@
         <v>720</v>
       </c>
       <c r="G127" t="n">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="H127" t="n">
-        <v>4095722</v>
+        <v>4279115</v>
       </c>
       <c r="I127" t="n">
-        <v>1970.307</v>
+        <v>2058.531</v>
       </c>
       <c r="J127" t="n">
-        <v>77592</v>
+        <v>35000</v>
       </c>
       <c r="K127" t="n">
-        <v>37.327</v>
+        <v>16.837</v>
       </c>
       <c r="L127" t="n">
-        <v>85006</v>
+        <v>78610</v>
       </c>
       <c r="M127" t="n">
-        <v>40.893</v>
+        <v>37.816</v>
       </c>
       <c r="N127" t="n">
-        <v>0.06</v>
+        <v>0.051</v>
       </c>
       <c r="O127" t="n">
-        <v>16.7</v>
+        <v>19.6</v>
       </c>
       <c r="P127" t="s">
         <v>721</v>
@@ -9966,7 +9978,7 @@
         <v>724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D128" t="s">
         <v>725</v>
@@ -9978,25 +9990,25 @@
         <v>727</v>
       </c>
       <c r="G128" t="n">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="H128" t="n">
-        <v>22830172</v>
+        <v>22896483</v>
       </c>
       <c r="I128" t="n">
-        <v>380.237</v>
+        <v>381.341</v>
       </c>
       <c r="J128" t="n">
-        <v>33519</v>
+        <v>15604</v>
       </c>
       <c r="K128" t="n">
-        <v>0.558</v>
+        <v>0.26</v>
       </c>
       <c r="L128" t="n">
-        <v>29451</v>
+        <v>29033</v>
       </c>
       <c r="M128" t="n">
-        <v>0.491</v>
+        <v>0.484</v>
       </c>
       <c r="N128"/>
       <c r="O128"/>
@@ -10021,7 +10033,7 @@
         <v>731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D129" t="s">
         <v>732</v>
@@ -10033,31 +10045,31 @@
         <v>734</v>
       </c>
       <c r="G129" t="n">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="H129" t="n">
-        <v>56439912</v>
+        <v>57663663</v>
       </c>
       <c r="I129" t="n">
-        <v>1100.082</v>
+        <v>1123.934</v>
       </c>
       <c r="J129" t="n">
-        <v>395735</v>
+        <v>311062</v>
       </c>
       <c r="K129" t="n">
-        <v>7.713</v>
+        <v>6.063</v>
       </c>
       <c r="L129" t="n">
-        <v>346463</v>
+        <v>386955</v>
       </c>
       <c r="M129" t="n">
-        <v>6.753</v>
+        <v>7.542</v>
       </c>
       <c r="N129" t="n">
-        <v>0.213</v>
+        <v>0.2411</v>
       </c>
       <c r="O129" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="P129" t="s">
         <v>735</v>
@@ -10133,7 +10145,7 @@
         <v>742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44607</v>
+        <v>44610</v>
       </c>
       <c r="D131" t="s">
         <v>743</v>
@@ -10143,31 +10155,31 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="H131" t="n">
-        <v>84291670</v>
+        <v>84703635</v>
       </c>
       <c r="I131" t="n">
-        <v>1803.215</v>
+        <v>1812.028</v>
       </c>
       <c r="J131" t="n">
-        <v>104999</v>
+        <v>86613</v>
       </c>
       <c r="K131" t="n">
-        <v>2.246</v>
+        <v>1.853</v>
       </c>
       <c r="L131" t="n">
-        <v>115391</v>
+        <v>107018</v>
       </c>
       <c r="M131" t="n">
-        <v>2.469</v>
+        <v>2.289</v>
       </c>
       <c r="N131" t="n">
-        <v>0.232</v>
+        <v>0.208</v>
       </c>
       <c r="O131" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="P131" t="s">
         <v>744</v>
@@ -10190,7 +10202,7 @@
         <v>747</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44609</v>
+        <v>44613</v>
       </c>
       <c r="D132" t="s">
         <v>748</v>
@@ -10200,32 +10212,28 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="H132" t="n">
-        <v>7272482</v>
+        <v>7312367</v>
       </c>
       <c r="I132" t="n">
-        <v>338.297</v>
+        <v>340.153</v>
       </c>
       <c r="J132" t="n">
-        <v>9175</v>
+        <v>7916</v>
       </c>
       <c r="K132" t="n">
-        <v>0.427</v>
+        <v>0.368</v>
       </c>
       <c r="L132" t="n">
-        <v>9789</v>
+        <v>10201</v>
       </c>
       <c r="M132" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="N132" t="n">
-        <v>0.1241</v>
-      </c>
-      <c r="O132" t="n">
-        <v>8.1</v>
-      </c>
+        <v>0.475</v>
+      </c>
+      <c r="N132"/>
+      <c r="O132"/>
       <c r="P132" t="s">
         <v>749</v>
       </c>
@@ -10406,7 +10414,7 @@
         <v>767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D136" t="s">
         <v>478</v>
@@ -10416,28 +10424,28 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="H136" t="n">
-        <v>18265214</v>
+        <v>18362379</v>
       </c>
       <c r="I136" t="n">
-        <v>2095.718</v>
+        <v>2106.866</v>
       </c>
       <c r="J136" t="n">
-        <v>44400</v>
+        <v>15503</v>
       </c>
       <c r="K136" t="n">
-        <v>5.094</v>
+        <v>1.779</v>
       </c>
       <c r="L136" t="n">
-        <v>56052</v>
+        <v>49577</v>
       </c>
       <c r="M136" t="n">
-        <v>6.431</v>
+        <v>5.688</v>
       </c>
       <c r="N136" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O136" t="n">
         <v>2.8</v>
@@ -10463,7 +10471,7 @@
         <v>770</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D137" t="s">
         <v>771</v>
@@ -10473,25 +10481,25 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="H137" t="n">
-        <v>6130479</v>
+        <v>6192221</v>
       </c>
       <c r="I137" t="n">
-        <v>256.989</v>
+        <v>259.577</v>
       </c>
       <c r="J137" t="n">
-        <v>14422</v>
+        <v>19914</v>
       </c>
       <c r="K137" t="n">
-        <v>0.605</v>
+        <v>0.835</v>
       </c>
       <c r="L137" t="n">
-        <v>24464</v>
+        <v>22102</v>
       </c>
       <c r="M137" t="n">
-        <v>1.026</v>
+        <v>0.927</v>
       </c>
       <c r="N137"/>
       <c r="O137"/>
@@ -10516,7 +10524,7 @@
         <v>775</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44597</v>
+        <v>44611</v>
       </c>
       <c r="D138" t="s">
         <v>776</v>
@@ -10526,31 +10534,31 @@
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="H138" t="n">
-        <v>19647467</v>
+        <v>20470260</v>
       </c>
       <c r="I138" t="n">
-        <v>280.875</v>
+        <v>292.638</v>
       </c>
       <c r="J138" t="n">
-        <v>39047</v>
+        <v>48690</v>
       </c>
       <c r="K138" t="n">
-        <v>0.558</v>
+        <v>0.696</v>
       </c>
       <c r="L138" t="n">
-        <v>46850</v>
+        <v>58398</v>
       </c>
       <c r="M138" t="n">
-        <v>0.67</v>
+        <v>0.835</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1966</v>
+        <v>0.2911</v>
       </c>
       <c r="O138" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="P138" t="s">
         <v>778</v>
@@ -10573,7 +10581,7 @@
         <v>782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44607</v>
+        <v>44612</v>
       </c>
       <c r="D139" t="s">
         <v>783</v>
@@ -10583,31 +10591,27 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H139" t="n">
-        <v>242636</v>
+        <v>245941</v>
       </c>
       <c r="I139" t="n">
-        <v>180.55</v>
-      </c>
-      <c r="J139" t="n">
-        <v>796</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.592</v>
-      </c>
+        <v>183.009</v>
+      </c>
+      <c r="J139"/>
+      <c r="K139"/>
       <c r="L139" t="n">
-        <v>616</v>
+        <v>718</v>
       </c>
       <c r="M139" t="n">
-        <v>0.458</v>
+        <v>0.534</v>
       </c>
       <c r="N139" t="n">
-        <v>0.2618</v>
+        <v>0.1446</v>
       </c>
       <c r="O139" t="n">
-        <v>3.8</v>
+        <v>6.9</v>
       </c>
       <c r="P139" t="s">
         <v>43</v>
@@ -10630,7 +10634,7 @@
         <v>786</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D140"/>
       <c r="E140" t="s">
@@ -10640,25 +10644,25 @@
         <v>788</v>
       </c>
       <c r="G140" t="n">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="H140" t="n">
-        <v>680612</v>
+        <v>683572</v>
       </c>
       <c r="I140" t="n">
-        <v>80.277</v>
+        <v>80.627</v>
       </c>
       <c r="J140" t="n">
-        <v>1010</v>
+        <v>903</v>
       </c>
       <c r="K140" t="n">
-        <v>0.119</v>
+        <v>0.107</v>
       </c>
       <c r="L140" t="n">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="M140" t="n">
-        <v>0.123</v>
+        <v>0.121</v>
       </c>
       <c r="N140"/>
       <c r="O140"/>
@@ -10740,7 +10744,7 @@
         <v>798</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44607</v>
+        <v>44611</v>
       </c>
       <c r="D142" t="s">
         <v>799</v>
@@ -10750,31 +10754,27 @@
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H142" t="n">
-        <v>4233759</v>
+        <v>4280200</v>
       </c>
       <c r="I142" t="n">
-        <v>354.712</v>
-      </c>
-      <c r="J142" t="n">
-        <v>9367</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.785</v>
-      </c>
+        <v>358.603</v>
+      </c>
+      <c r="J142"/>
+      <c r="K142"/>
       <c r="L142" t="n">
-        <v>9896</v>
+        <v>10985</v>
       </c>
       <c r="M142" t="n">
-        <v>0.829</v>
+        <v>0.92</v>
       </c>
       <c r="N142" t="n">
-        <v>0.2572</v>
+        <v>0.1906</v>
       </c>
       <c r="O142" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="P142" t="s">
         <v>801</v>
@@ -10797,7 +10797,7 @@
         <v>805</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D143" t="s">
         <v>806</v>
@@ -10807,25 +10807,25 @@
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="H143" t="n">
-        <v>139675410</v>
+        <v>141039358</v>
       </c>
       <c r="I143" t="n">
-        <v>1642.414</v>
+        <v>1658.453</v>
       </c>
       <c r="J143" t="n">
-        <v>463855</v>
+        <v>461513</v>
       </c>
       <c r="K143" t="n">
-        <v>5.454</v>
+        <v>5.427</v>
       </c>
       <c r="L143" t="n">
-        <v>451581</v>
+        <v>459795</v>
       </c>
       <c r="M143" t="n">
-        <v>5.31</v>
+        <v>5.407</v>
       </c>
       <c r="N143"/>
       <c r="O143"/>
@@ -10850,7 +10850,7 @@
         <v>811</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D144" t="s">
         <v>36</v>
@@ -10860,21 +10860,21 @@
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H144" t="n">
-        <v>2426761</v>
+        <v>2437127</v>
       </c>
       <c r="I144" t="n">
-        <v>51.498</v>
+        <v>51.718</v>
       </c>
       <c r="J144"/>
       <c r="K144"/>
       <c r="L144" t="n">
-        <v>4532</v>
+        <v>3792</v>
       </c>
       <c r="M144" t="n">
-        <v>0.096</v>
+        <v>0.08</v>
       </c>
       <c r="N144"/>
       <c r="O144"/>
@@ -10925,8 +10925,12 @@
       <c r="M145" t="n">
         <v>1.209</v>
       </c>
-      <c r="N145"/>
-      <c r="O145"/>
+      <c r="N145" t="n">
+        <v>0.6027</v>
+      </c>
+      <c r="O145" t="n">
+        <v>1.7</v>
+      </c>
       <c r="P145" t="s">
         <v>816</v>
       </c>
@@ -10948,7 +10952,7 @@
         <v>820</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D146" t="s">
         <v>821</v>
@@ -10958,25 +10962,25 @@
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="H146" t="n">
-        <v>133423912</v>
+        <v>134560760</v>
       </c>
       <c r="I146" t="n">
-        <v>13354.299</v>
+        <v>13468.085</v>
       </c>
       <c r="J146" t="n">
-        <v>398902</v>
+        <v>410158</v>
       </c>
       <c r="K146" t="n">
-        <v>39.926</v>
+        <v>41.052</v>
       </c>
       <c r="L146" t="n">
-        <v>409755</v>
+        <v>382821</v>
       </c>
       <c r="M146" t="n">
-        <v>41.012</v>
+        <v>38.316</v>
       </c>
       <c r="N146"/>
       <c r="O146"/>
@@ -11001,7 +11005,7 @@
         <v>826</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D147" t="s">
         <v>827</v>
@@ -11011,31 +11015,31 @@
       </c>
       <c r="F147"/>
       <c r="G147" t="n">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="H147" t="n">
-        <v>456991067</v>
+        <v>459040234</v>
       </c>
       <c r="I147" t="n">
-        <v>6700.05</v>
+        <v>6730.093</v>
       </c>
       <c r="J147" t="n">
-        <v>951173</v>
+        <v>726671</v>
       </c>
       <c r="K147" t="n">
-        <v>13.945</v>
+        <v>10.654</v>
       </c>
       <c r="L147" t="n">
-        <v>905939</v>
+        <v>839719</v>
       </c>
       <c r="M147" t="n">
-        <v>13.282</v>
+        <v>12.311</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0535</v>
+        <v>0.0511</v>
       </c>
       <c r="O147" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="P147" t="s">
         <v>829</v>
@@ -11058,7 +11062,7 @@
         <v>833</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>44604</v>
+        <v>44607</v>
       </c>
       <c r="D148" t="s">
         <v>834</v>
@@ -11068,31 +11072,31 @@
       </c>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="H148" t="n">
-        <v>803614064</v>
+        <v>806751537</v>
       </c>
       <c r="I148" t="n">
-        <v>2413.871</v>
+        <v>2423.295</v>
       </c>
       <c r="J148" t="n">
-        <v>588602</v>
+        <v>1030386</v>
       </c>
       <c r="K148" t="n">
-        <v>1.768</v>
+        <v>3.095</v>
       </c>
       <c r="L148" t="n">
-        <v>1114778</v>
+        <v>1047542</v>
       </c>
       <c r="M148" t="n">
-        <v>3.349</v>
+        <v>3.147</v>
       </c>
       <c r="N148" t="n">
-        <v>0.094</v>
+        <v>0.079</v>
       </c>
       <c r="O148" t="n">
-        <v>10.6</v>
+        <v>12.7</v>
       </c>
       <c r="P148" t="s">
         <v>835</v>
@@ -11115,7 +11119,7 @@
         <v>839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D149" t="s">
         <v>840</v>
@@ -11125,31 +11129,31 @@
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="H149" t="n">
-        <v>5566279</v>
+        <v>5610703</v>
       </c>
       <c r="I149" t="n">
-        <v>1597.141</v>
+        <v>1609.888</v>
       </c>
       <c r="J149" t="n">
-        <v>15966</v>
+        <v>9864</v>
       </c>
       <c r="K149" t="n">
-        <v>4.581</v>
+        <v>2.83</v>
       </c>
       <c r="L149" t="n">
-        <v>16516</v>
+        <v>15604</v>
       </c>
       <c r="M149" t="n">
-        <v>4.739</v>
+        <v>4.477</v>
       </c>
       <c r="N149" t="n">
-        <v>0.3673</v>
+        <v>0.3499</v>
       </c>
       <c r="O149" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P149" t="s">
         <v>216</v>
@@ -11172,7 +11176,7 @@
         <v>843</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D150" t="s">
         <v>844</v>
@@ -11182,21 +11186,21 @@
       </c>
       <c r="F150"/>
       <c r="G150" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H150" t="n">
-        <v>78259191</v>
+        <v>78508813</v>
       </c>
       <c r="I150" t="n">
-        <v>797.19</v>
+        <v>799.733</v>
       </c>
       <c r="J150"/>
       <c r="K150"/>
       <c r="L150" t="n">
-        <v>94833</v>
+        <v>97341</v>
       </c>
       <c r="M150" t="n">
-        <v>0.966</v>
+        <v>0.992</v>
       </c>
       <c r="N150"/>
       <c r="O150"/>
@@ -11221,7 +11225,7 @@
         <v>850</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="D151" t="s">
         <v>851</v>
@@ -11231,31 +11235,31 @@
       </c>
       <c r="F151"/>
       <c r="G151" t="n">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H151" t="n">
-        <v>3239374</v>
+        <v>3245731</v>
       </c>
       <c r="I151" t="n">
-        <v>171.208</v>
+        <v>171.544</v>
       </c>
       <c r="J151" t="n">
-        <v>3383</v>
+        <v>3056</v>
       </c>
       <c r="K151" t="n">
-        <v>0.179</v>
+        <v>0.162</v>
       </c>
       <c r="L151" t="n">
-        <v>3094</v>
+        <v>2919</v>
       </c>
       <c r="M151" t="n">
-        <v>0.164</v>
+        <v>0.154</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0886</v>
+        <v>0.0843</v>
       </c>
       <c r="O151" t="n">
-        <v>11.3</v>
+        <v>11.9</v>
       </c>
       <c r="P151" t="s">
         <v>853</v>
@@ -11278,7 +11282,7 @@
         <v>856</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D152" t="s">
         <v>36</v>
@@ -11288,21 +11292,21 @@
       </c>
       <c r="F152"/>
       <c r="G152" t="n">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H152" t="n">
-        <v>2043572</v>
+        <v>2049310</v>
       </c>
       <c r="I152" t="n">
-        <v>135.406</v>
+        <v>135.786</v>
       </c>
       <c r="J152"/>
       <c r="K152"/>
       <c r="L152" t="n">
-        <v>3439</v>
+        <v>2971</v>
       </c>
       <c r="M152" t="n">
-        <v>0.228</v>
+        <v>0.197</v>
       </c>
       <c r="N152"/>
       <c r="O152"/>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -1045,7 +1045,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2022/353</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2022/372</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -6115,7 +6115,7 @@
         <v>311</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="D55" t="s">
         <v>312</v>
@@ -6125,32 +6125,28 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="H55" t="n">
-        <v>12787248</v>
+        <v>13273996</v>
       </c>
       <c r="I55" t="n">
-        <v>3213.06</v>
+        <v>3335.365</v>
       </c>
       <c r="J55" t="n">
-        <v>48595</v>
+        <v>18351</v>
       </c>
       <c r="K55" t="n">
-        <v>12.21</v>
+        <v>4.611</v>
       </c>
       <c r="L55" t="n">
-        <v>15477</v>
+        <v>36988</v>
       </c>
       <c r="M55" t="n">
-        <v>3.889</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.9985</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1</v>
-      </c>
+        <v>9.294</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55"/>
       <c r="P55" t="s">
         <v>313</v>
       </c>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-1610-testime-206-qytetare-te-infektuar-7-humbje-jete-dhe-604-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-2387-testime-279-qytetare-te-infektuar-2-humbje-jete-dhe-483-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -264,7 +264,7 @@
     <t xml:space="preserve">Bahamas - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/8b359deb-9628-4dfc-972d-51d24922961c/Update+%23692-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%2813%29.pdf?MOD=AJPERES</t>
+    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/4cea571b-624e-4693-8db2-1f19660c21d2/Update+%23698+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%2810%29.pdf?MOD=AJPERES</t>
   </si>
   <si>
     <t xml:space="preserve">Bahamas Ministry of Health and Wellness</t>
@@ -405,7 +405,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/posts/381709127115259</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/posts/385013826784789</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -576,7 +576,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-20-de-fevereiro-de-2022/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-24-de-fevereiro-de-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -820,7 +820,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/02/Bolet%C3%ADn-especial-704-COVID-19.pdf</t>
+    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/02/Bolet%C3%ADn-especial-707-COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2022/02/MSP_cvd19_infografia_diaria_20220216.pdf</t>
+    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2022/02/MSP_cvd19_infografia_diaria_20220224.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -955,7 +955,7 @@
     <t xml:space="preserve">Fiji - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.fj/21-02-2022/</t>
+    <t xml:space="preserve">https://www.health.gov.fj/25-02-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
@@ -1045,7 +1045,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2022/372</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2022/426</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/380632</t>
+    <t xml:space="preserve">https://irangov.ir/detail/381021</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1494037301659377666</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1496220083831644160</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-saturday-february-19-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-february-23-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1501,7 +1501,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1495797979885809673</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1497190902179274753</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1495805526755745797</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1497255070647435275</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1777,7 +1777,7 @@
     <t xml:space="preserve">Moldova - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://msmps.gov.md/comunicare/alte-1-854-de-cazuri-noi-de-covid-19-raportate-pentru-17-februarie-2022/</t>
+    <t xml:space="preserve">https://msmps.gov.md/comunicare/alte-1-129-de-cazuri-noi-de-covid-19-raportate-pentru-24-februarie-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of the Republic of Moldova</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1495784530065694727</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1497238270131900417</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1849,7 +1849,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20220221203924/https://mohs.gov.mm/Main/content/publication/2019-ncov</t>
+    <t xml:space="preserve">https://mohs.gov.mm/Main/content/publication/2019-ncov</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1884,10 +1884,10 @@
     <t xml:space="preserve">NPL</t>
   </si>
   <si>
-    <t xml:space="preserve">Nepal - tests performed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1JtDV6zxaXhz1CgxP2jtWBzFnMK0Hk9s7</t>
+    <t xml:space="preserve">Nepal - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/62189f51362b8_SitRep747_COVID-19_25-02-2022_EN.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1977,7 +1977,7 @@
     <t xml:space="preserve">North Macedonia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/223862</t>
+    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/223873</t>
   </si>
   <si>
     <t xml:space="preserve">https://koronavirus.gov.mk/stat</t>
@@ -2046,7 +2046,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/300409132186056</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/303024271924542</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -2068,7 +2068,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1495546970840121353</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1497026752383758338</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1495530081158156290</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1496962778791354368</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2160,7 +2160,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1495696044172066820</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1497145595403722753</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2223,7 +2223,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESA_21_FEBRUARIE.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRES%C4%82_-_25_februarie_2022,_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20748</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20789</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2305,7 +2305,7 @@
     <t xml:space="preserve">Saint Vincent and the Grenadines - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/SVGHEALTH/posts/416354223620658</t>
+    <t xml:space="preserve">https://www.facebook.com/SVGHEALTH/posts/418282730094474</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Vincent and the Grenadines Ministry of Health, Wellness and the Environment</t>
@@ -2840,7 +2840,7 @@
     <t xml:space="preserve">Vietnam - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://suckhoedoisong.vn//ngay-21-2-co-46861-ca-covid-19-moi-so-ca-tu-vong-tang-hon-hom-qua-169220221174212465.htm</t>
+    <t xml:space="preserve">https://suckhoedoisong.vn//ngay-25-2-so-mac-moi-covid-19-tang-vot-len-78795-ca-ha-noi-gan-10000-f0-169220225175200481.htm</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of Vietnam</t>
@@ -3296,7 +3296,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44612</v>
+        <v>44614</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3306,31 +3306,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H2" t="n">
-        <v>1585124</v>
+        <v>1587511</v>
       </c>
       <c r="I2" t="n">
-        <v>551.744</v>
+        <v>552.575</v>
       </c>
       <c r="J2" t="n">
-        <v>1610</v>
+        <v>2387</v>
       </c>
       <c r="K2" t="n">
-        <v>0.56</v>
+        <v>0.831</v>
       </c>
       <c r="L2" t="n">
-        <v>974</v>
+        <v>917</v>
       </c>
       <c r="M2" t="n">
-        <v>0.339</v>
+        <v>0.319</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3162</v>
+        <v>0.306</v>
       </c>
       <c r="O2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -3406,7 +3406,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
@@ -3416,24 +3416,28 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>1413392</v>
+        <v>1416784</v>
       </c>
       <c r="I4" t="n">
-        <v>41.652</v>
+        <v>41.752</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4" t="n">
-        <v>1800</v>
+        <v>1654</v>
       </c>
       <c r="M4" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="N4"/>
-      <c r="O4"/>
+        <v>0.049</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="O4" t="n">
+        <v>89.1</v>
+      </c>
       <c r="P4" t="s">
         <v>37</v>
       </c>
@@ -3508,7 +3512,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44611</v>
+        <v>44615</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
@@ -3518,31 +3522,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="H6" t="n">
-        <v>33827856</v>
+        <v>34060692</v>
       </c>
       <c r="I6" t="n">
-        <v>741.744</v>
+        <v>746.85</v>
       </c>
       <c r="J6" t="n">
-        <v>18211</v>
+        <v>34402</v>
       </c>
       <c r="K6" t="n">
-        <v>0.399</v>
+        <v>0.754</v>
       </c>
       <c r="L6" t="n">
-        <v>36026</v>
+        <v>36120</v>
       </c>
       <c r="M6" t="n">
-        <v>0.79</v>
+        <v>0.792</v>
       </c>
       <c r="N6" t="n">
-        <v>0.156</v>
+        <v>0.121</v>
       </c>
       <c r="O6" t="n">
-        <v>6.4</v>
+        <v>8.3</v>
       </c>
       <c r="P6" t="s">
         <v>50</v>
@@ -3565,7 +3569,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D7" t="s">
         <v>55</v>
@@ -3575,31 +3579,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="H7" t="n">
-        <v>2865962</v>
+        <v>2885418</v>
       </c>
       <c r="I7" t="n">
-        <v>965.579</v>
+        <v>972.134</v>
       </c>
       <c r="J7" t="n">
-        <v>3192</v>
+        <v>4642</v>
       </c>
       <c r="K7" t="n">
-        <v>1.075</v>
+        <v>1.564</v>
       </c>
       <c r="L7" t="n">
-        <v>5202</v>
+        <v>4642</v>
       </c>
       <c r="M7" t="n">
-        <v>1.753</v>
+        <v>1.564</v>
       </c>
       <c r="N7" t="n">
-        <v>0.238</v>
+        <v>0.169</v>
       </c>
       <c r="O7" t="n">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="P7" t="s">
         <v>43</v>
@@ -3622,7 +3626,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D8" t="s">
         <v>60</v>
@@ -3634,25 +3638,25 @@
         <v>62</v>
       </c>
       <c r="G8" t="n">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="H8" t="n">
-        <v>62942737</v>
+        <v>63315728</v>
       </c>
       <c r="I8" t="n">
-        <v>2440.756</v>
+        <v>2455.219</v>
       </c>
       <c r="J8" t="n">
-        <v>51466</v>
+        <v>100549</v>
       </c>
       <c r="K8" t="n">
-        <v>1.996</v>
+        <v>3.899</v>
       </c>
       <c r="L8" t="n">
-        <v>78902</v>
+        <v>81354</v>
       </c>
       <c r="M8" t="n">
-        <v>3.06</v>
+        <v>3.155</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -3677,7 +3681,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D9" t="s">
         <v>67</v>
@@ -3687,25 +3691,25 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="H9" t="n">
-        <v>155336402</v>
+        <v>157784227</v>
       </c>
       <c r="I9" t="n">
-        <v>17177.393</v>
+        <v>17448.078</v>
       </c>
       <c r="J9" t="n">
-        <v>195199</v>
+        <v>468335</v>
       </c>
       <c r="K9" t="n">
-        <v>21.585</v>
+        <v>51.789</v>
       </c>
       <c r="L9" t="n">
-        <v>595028</v>
+        <v>531772</v>
       </c>
       <c r="M9" t="n">
-        <v>65.799</v>
+        <v>58.804</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3730,7 +3734,7 @@
         <v>71</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44613</v>
+        <v>44616</v>
       </c>
       <c r="D10" t="s">
         <v>72</v>
@@ -3740,24 +3744,32 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H10" t="n">
-        <v>6491040</v>
+        <v>6531133</v>
       </c>
       <c r="I10" t="n">
-        <v>634.923</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10"/>
+        <v>638.845</v>
+      </c>
+      <c r="J10" t="n">
+        <v>19269</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.885</v>
+      </c>
       <c r="L10" t="n">
-        <v>10983</v>
+        <v>11851</v>
       </c>
       <c r="M10" t="n">
-        <v>1.074</v>
-      </c>
-      <c r="N10"/>
-      <c r="O10"/>
+        <v>1.159</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4.8</v>
+      </c>
       <c r="P10" t="s">
         <v>73</v>
       </c>
@@ -3779,7 +3791,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44607</v>
+        <v>44614</v>
       </c>
       <c r="D11" t="s">
         <v>77</v>
@@ -3789,31 +3801,27 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H11" t="n">
-        <v>216233</v>
+        <v>218582</v>
       </c>
       <c r="I11" t="n">
-        <v>544.786</v>
-      </c>
-      <c r="J11" t="n">
-        <v>877</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.21</v>
-      </c>
+        <v>550.704</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
       <c r="L11" t="n">
-        <v>414</v>
+        <v>336</v>
       </c>
       <c r="M11" t="n">
-        <v>1.043</v>
+        <v>0.847</v>
       </c>
       <c r="N11" t="n">
-        <v>0.048</v>
+        <v>0.0463</v>
       </c>
       <c r="O11" t="n">
-        <v>20.8</v>
+        <v>21.6</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -3836,7 +3844,7 @@
         <v>82</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D12" t="s">
         <v>83</v>
@@ -3846,21 +3854,25 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="H12" t="n">
-        <v>9300962</v>
+        <v>9351953</v>
       </c>
       <c r="I12" t="n">
-        <v>5320.019</v>
-      </c>
-      <c r="J12"/>
-      <c r="K12"/>
+        <v>5349.185</v>
+      </c>
+      <c r="J12" t="n">
+        <v>13144</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7.518</v>
+      </c>
       <c r="L12" t="n">
-        <v>20410</v>
+        <v>12256</v>
       </c>
       <c r="M12" t="n">
-        <v>11.674</v>
+        <v>7.01</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -3885,7 +3897,7 @@
         <v>89</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -3895,25 +3907,25 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="H13" t="n">
-        <v>13217514</v>
+        <v>13317436</v>
       </c>
       <c r="I13" t="n">
-        <v>79.478</v>
+        <v>80.079</v>
       </c>
       <c r="J13" t="n">
-        <v>28097</v>
+        <v>25667</v>
       </c>
       <c r="K13" t="n">
-        <v>0.169</v>
+        <v>0.154</v>
       </c>
       <c r="L13" t="n">
-        <v>29597</v>
+        <v>25446</v>
       </c>
       <c r="M13" t="n">
-        <v>0.178</v>
+        <v>0.153</v>
       </c>
       <c r="N13"/>
       <c r="O13"/>
@@ -3938,7 +3950,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -3948,21 +3960,25 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H14" t="n">
-        <v>12311853</v>
+        <v>12389320</v>
       </c>
       <c r="I14" t="n">
-        <v>1303.826</v>
-      </c>
-      <c r="J14"/>
-      <c r="K14"/>
+        <v>1312.029</v>
+      </c>
+      <c r="J14" t="n">
+        <v>22089</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.339</v>
+      </c>
       <c r="L14" t="n">
-        <v>22655</v>
+        <v>20184</v>
       </c>
       <c r="M14" t="n">
-        <v>2.399</v>
+        <v>2.137</v>
       </c>
       <c r="N14"/>
       <c r="O14"/>
@@ -3987,7 +4003,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44609</v>
+        <v>44615</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -3997,31 +4013,31 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="H15" t="n">
-        <v>31351923</v>
+        <v>31587552</v>
       </c>
       <c r="I15" t="n">
-        <v>2695.239</v>
+        <v>2715.496</v>
       </c>
       <c r="J15" t="n">
-        <v>38263</v>
+        <v>42686</v>
       </c>
       <c r="K15" t="n">
-        <v>3.289</v>
+        <v>3.67</v>
       </c>
       <c r="L15" t="n">
-        <v>45517</v>
+        <v>38994</v>
       </c>
       <c r="M15" t="n">
-        <v>3.913</v>
+        <v>3.352</v>
       </c>
       <c r="N15" t="n">
-        <v>0.259</v>
+        <v>0.215</v>
       </c>
       <c r="O15" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="P15" t="s">
         <v>104</v>
@@ -4044,7 +4060,7 @@
         <v>108</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44606</v>
+        <v>44615</v>
       </c>
       <c r="D16" t="s">
         <v>109</v>
@@ -4054,27 +4070,27 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H16" t="n">
-        <v>485497</v>
+        <v>496949</v>
       </c>
       <c r="I16" t="n">
-        <v>1199.01</v>
+        <v>1227.292</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16" t="n">
-        <v>1847</v>
+        <v>1271</v>
       </c>
       <c r="M16" t="n">
-        <v>4.561</v>
+        <v>3.139</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1036</v>
+        <v>0.0727</v>
       </c>
       <c r="O16" t="n">
-        <v>9.7</v>
+        <v>13.8</v>
       </c>
       <c r="P16" t="s">
         <v>111</v>
@@ -4142,7 +4158,7 @@
         <v>118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44612</v>
+        <v>44617</v>
       </c>
       <c r="D18" t="s">
         <v>119</v>
@@ -4152,32 +4168,28 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="H18" t="n">
-        <v>1652926</v>
+        <v>1689300</v>
       </c>
       <c r="I18" t="n">
-        <v>2119.408</v>
+        <v>2166.047</v>
       </c>
       <c r="J18" t="n">
-        <v>8094</v>
+        <v>13746</v>
       </c>
       <c r="K18" t="n">
-        <v>10.378</v>
+        <v>17.625</v>
       </c>
       <c r="L18" t="n">
-        <v>10866</v>
+        <v>7792</v>
       </c>
       <c r="M18" t="n">
-        <v>13.933</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.0348</v>
-      </c>
-      <c r="O18" t="n">
-        <v>28.7</v>
-      </c>
+        <v>9.991</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18"/>
       <c r="P18" t="s">
         <v>43</v>
       </c>
@@ -4199,7 +4211,7 @@
         <v>124</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44608</v>
+        <v>44616</v>
       </c>
       <c r="D19" t="s">
         <v>125</v>
@@ -4211,32 +4223,28 @@
         <v>127</v>
       </c>
       <c r="G19" t="n">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="H19" t="n">
-        <v>3788665</v>
+        <v>3868938</v>
       </c>
       <c r="I19" t="n">
-        <v>320.18</v>
+        <v>326.963</v>
       </c>
       <c r="J19" t="n">
-        <v>8239</v>
+        <v>6356</v>
       </c>
       <c r="K19" t="n">
-        <v>0.696</v>
+        <v>0.537</v>
       </c>
       <c r="L19" t="n">
-        <v>7739</v>
+        <v>6108</v>
       </c>
       <c r="M19" t="n">
-        <v>0.654</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.1508</v>
-      </c>
-      <c r="O19" t="n">
-        <v>6.6</v>
-      </c>
+        <v>0.516</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19"/>
       <c r="P19" t="s">
         <v>43</v>
       </c>
@@ -4337,8 +4345,12 @@
       <c r="M21" t="n">
         <v>1.596</v>
       </c>
-      <c r="N21"/>
-      <c r="O21"/>
+      <c r="N21" t="n">
+        <v>0.0843</v>
+      </c>
+      <c r="O21" t="n">
+        <v>11.9</v>
+      </c>
       <c r="P21" t="s">
         <v>37</v>
       </c>
@@ -4411,7 +4423,7 @@
         <v>146</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D23" t="s">
         <v>147</v>
@@ -4421,27 +4433,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H23" t="n">
-        <v>9031014</v>
+        <v>9125177</v>
       </c>
       <c r="I23" t="n">
-        <v>1309.477</v>
-      </c>
-      <c r="J23"/>
-      <c r="K23"/>
+        <v>1323.131</v>
+      </c>
+      <c r="J23" t="n">
+        <v>18149</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.632</v>
+      </c>
       <c r="L23" t="n">
-        <v>24256</v>
+        <v>21361</v>
       </c>
       <c r="M23" t="n">
-        <v>3.517</v>
+        <v>3.097</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1815</v>
+        <v>0.1621</v>
       </c>
       <c r="O23" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="P23" t="s">
         <v>149</v>
@@ -4490,8 +4506,12 @@
       <c r="M24" t="n">
         <v>0.019</v>
       </c>
-      <c r="N24"/>
-      <c r="O24"/>
+      <c r="N24" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="O24" t="n">
+        <v>95.4</v>
+      </c>
       <c r="P24" t="s">
         <v>37</v>
       </c>
@@ -4513,7 +4533,7 @@
         <v>156</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="D25" t="s">
         <v>36</v>
@@ -4523,24 +4543,28 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H25" t="n">
-        <v>1396218</v>
+        <v>1397502</v>
       </c>
       <c r="I25" t="n">
-        <v>113.926</v>
+        <v>114.031</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25" t="n">
-        <v>1823</v>
+        <v>1368</v>
       </c>
       <c r="M25" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="N25"/>
-      <c r="O25"/>
+        <v>0.112</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0084</v>
+      </c>
+      <c r="O25" t="n">
+        <v>119.7</v>
+      </c>
       <c r="P25" t="s">
         <v>37</v>
       </c>
@@ -4562,7 +4586,7 @@
         <v>159</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D26" t="s">
         <v>160</v>
@@ -4572,21 +4596,25 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H26" t="n">
-        <v>2844283</v>
+        <v>2854942</v>
       </c>
       <c r="I26" t="n">
-        <v>167.839</v>
-      </c>
-      <c r="J26"/>
-      <c r="K26"/>
+        <v>168.468</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2594</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.153</v>
+      </c>
       <c r="L26" t="n">
-        <v>2832</v>
+        <v>3121</v>
       </c>
       <c r="M26" t="n">
-        <v>0.167</v>
+        <v>0.184</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
@@ -4611,7 +4639,7 @@
         <v>164</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44611</v>
+        <v>44616</v>
       </c>
       <c r="D27" t="s">
         <v>165</v>
@@ -4621,28 +4649,28 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="H27" t="n">
-        <v>57771312</v>
+        <v>58032175</v>
       </c>
       <c r="I27" t="n">
-        <v>1517.585</v>
+        <v>1524.438</v>
       </c>
       <c r="J27" t="n">
-        <v>25869</v>
+        <v>50541</v>
       </c>
       <c r="K27" t="n">
-        <v>0.68</v>
+        <v>1.328</v>
       </c>
       <c r="L27" t="n">
-        <v>59936</v>
+        <v>49325</v>
       </c>
       <c r="M27" t="n">
-        <v>1.574</v>
+        <v>1.296</v>
       </c>
       <c r="N27" t="n">
-        <v>0.1177</v>
+        <v>0.1176</v>
       </c>
       <c r="O27" t="n">
         <v>8.5</v>
@@ -4668,7 +4696,7 @@
         <v>170</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44611</v>
+        <v>44615</v>
       </c>
       <c r="D28" t="s">
         <v>171</v>
@@ -4678,15 +4706,15 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28" t="n">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="K28" t="n">
-        <v>0.482</v>
+        <v>0.591</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -4819,7 +4847,7 @@
         <v>182</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D31" t="s">
         <v>183</v>
@@ -4829,25 +4857,25 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="H31" t="n">
-        <v>32112548</v>
+        <v>32490390</v>
       </c>
       <c r="I31" t="n">
-        <v>1671.452</v>
+        <v>1691.119</v>
       </c>
       <c r="J31" t="n">
-        <v>86698</v>
+        <v>108600</v>
       </c>
       <c r="K31" t="n">
-        <v>4.513</v>
+        <v>5.653</v>
       </c>
       <c r="L31" t="n">
-        <v>102717</v>
+        <v>97598</v>
       </c>
       <c r="M31" t="n">
-        <v>5.346</v>
+        <v>5.08</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
@@ -4925,7 +4953,7 @@
         <v>194</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D33" t="s">
         <v>195</v>
@@ -4935,31 +4963,31 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="H33" t="n">
-        <v>32892409</v>
+        <v>33024037</v>
       </c>
       <c r="I33" t="n">
-        <v>641.605</v>
+        <v>644.172</v>
       </c>
       <c r="J33" t="n">
-        <v>30984</v>
+        <v>35053</v>
       </c>
       <c r="K33" t="n">
+        <v>0.684</v>
+      </c>
+      <c r="L33" t="n">
+        <v>30944</v>
+      </c>
+      <c r="M33" t="n">
         <v>0.604</v>
       </c>
-      <c r="L33" t="n">
-        <v>32125</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.627</v>
-      </c>
       <c r="N33" t="n">
-        <v>0.144</v>
+        <v>0.112</v>
       </c>
       <c r="O33" t="n">
-        <v>6.9</v>
+        <v>8.9</v>
       </c>
       <c r="P33" t="s">
         <v>196</v>
@@ -4982,7 +5010,7 @@
         <v>200</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44606</v>
+        <v>44611</v>
       </c>
       <c r="D34" t="s">
         <v>201</v>
@@ -4992,31 +5020,31 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H34" t="n">
-        <v>2774653</v>
+        <v>2829854</v>
       </c>
       <c r="I34" t="n">
-        <v>539.915</v>
+        <v>550.657</v>
       </c>
       <c r="J34" t="n">
-        <v>5170</v>
+        <v>11734</v>
       </c>
       <c r="K34" t="n">
-        <v>1.006</v>
+        <v>2.283</v>
       </c>
       <c r="L34" t="n">
-        <v>11028</v>
+        <v>9873</v>
       </c>
       <c r="M34" t="n">
-        <v>2.146</v>
+        <v>1.921</v>
       </c>
       <c r="N34" t="n">
-        <v>0.383</v>
+        <v>0.32</v>
       </c>
       <c r="O34" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="P34" t="s">
         <v>202</v>
@@ -5039,7 +5067,7 @@
         <v>205</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44613</v>
+        <v>44616</v>
       </c>
       <c r="D35" t="s">
         <v>36</v>
@@ -5049,24 +5077,32 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H35" t="n">
-        <v>1399989</v>
+        <v>1406040</v>
       </c>
       <c r="I35" t="n">
-        <v>51.749</v>
-      </c>
-      <c r="J35"/>
-      <c r="K35"/>
+        <v>51.972</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2392</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.088</v>
+      </c>
       <c r="L35" t="n">
-        <v>2372</v>
+        <v>2330</v>
       </c>
       <c r="M35" t="n">
-        <v>0.088</v>
-      </c>
-      <c r="N35"/>
-      <c r="O35"/>
+        <v>0.086</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="O35" t="n">
+        <v>127.4</v>
+      </c>
       <c r="P35" t="s">
         <v>37</v>
       </c>
@@ -5088,7 +5124,7 @@
         <v>208</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D36" t="s">
         <v>209</v>
@@ -5098,21 +5134,25 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="H36" t="n">
-        <v>4470858</v>
+        <v>4502474</v>
       </c>
       <c r="I36" t="n">
-        <v>1095.354</v>
-      </c>
-      <c r="J36"/>
-      <c r="K36"/>
+        <v>1103.1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>6344</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.554</v>
+      </c>
       <c r="L36" t="n">
-        <v>8770</v>
+        <v>7151</v>
       </c>
       <c r="M36" t="n">
-        <v>2.149</v>
+        <v>1.752</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -5196,7 +5236,7 @@
         <v>221</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D38" t="s">
         <v>222</v>
@@ -5206,32 +5246,28 @@
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="H38" t="n">
-        <v>24820317</v>
+        <v>25264396</v>
       </c>
       <c r="I38" t="n">
-        <v>27701.092</v>
+        <v>28196.713</v>
       </c>
       <c r="J38" t="n">
-        <v>86413</v>
+        <v>110229</v>
       </c>
       <c r="K38" t="n">
-        <v>96.443</v>
+        <v>123.023</v>
       </c>
       <c r="L38" t="n">
-        <v>102009</v>
+        <v>103120</v>
       </c>
       <c r="M38" t="n">
-        <v>113.849</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.0226</v>
-      </c>
-      <c r="O38" t="n">
-        <v>44.3</v>
-      </c>
+        <v>115.089</v>
+      </c>
+      <c r="N38"/>
+      <c r="O38"/>
       <c r="P38" t="s">
         <v>43</v>
       </c>
@@ -5253,7 +5289,7 @@
         <v>225</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D39" t="s">
         <v>226</v>
@@ -5263,31 +5299,31 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="H39" t="n">
-        <v>51359661</v>
+        <v>51587474</v>
       </c>
       <c r="I39" t="n">
-        <v>4788.979</v>
+        <v>4810.221</v>
       </c>
       <c r="J39" t="n">
-        <v>19619</v>
+        <v>45324</v>
       </c>
       <c r="K39" t="n">
-        <v>1.829</v>
+        <v>4.226</v>
       </c>
       <c r="L39" t="n">
-        <v>73192</v>
+        <v>50429</v>
       </c>
       <c r="M39" t="n">
-        <v>6.825</v>
+        <v>4.702</v>
       </c>
       <c r="N39" t="n">
-        <v>0.208</v>
+        <v>0.213</v>
       </c>
       <c r="O39" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="P39" t="s">
         <v>43</v>
@@ -5363,7 +5399,7 @@
         <v>235</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D41" t="s">
         <v>236</v>
@@ -5373,31 +5409,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="H41" t="n">
-        <v>62112795</v>
+        <v>62484678</v>
       </c>
       <c r="I41" t="n">
-        <v>10684.598</v>
+        <v>10748.569</v>
       </c>
       <c r="J41" t="n">
-        <v>61645</v>
+        <v>54205</v>
       </c>
       <c r="K41" t="n">
-        <v>10.604</v>
+        <v>9.324</v>
       </c>
       <c r="L41" t="n">
-        <v>105633</v>
+        <v>86446</v>
       </c>
       <c r="M41" t="n">
-        <v>18.171</v>
+        <v>14.87</v>
       </c>
       <c r="N41" t="n">
-        <v>0.339</v>
+        <v>0.3442</v>
       </c>
       <c r="O41" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P41" t="s">
         <v>237</v>
@@ -5420,7 +5456,7 @@
         <v>240</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="D42" t="s">
         <v>36</v>
@@ -5430,24 +5466,28 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H42" t="n">
-        <v>282005</v>
+        <v>283058</v>
       </c>
       <c r="I42" t="n">
-        <v>281.387</v>
+        <v>282.437</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42" t="n">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="M42" t="n">
-        <v>0.399</v>
-      </c>
-      <c r="N42"/>
-      <c r="O42"/>
+        <v>0.453</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="O42" t="n">
+        <v>397.2</v>
+      </c>
       <c r="P42" t="s">
         <v>37</v>
       </c>
@@ -5469,7 +5509,7 @@
         <v>243</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44612</v>
+        <v>44615</v>
       </c>
       <c r="D43" t="s">
         <v>244</v>
@@ -5479,31 +5519,27 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H43" t="n">
-        <v>3079556</v>
+        <v>3093792</v>
       </c>
       <c r="I43" t="n">
-        <v>281.143</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4048</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.37</v>
-      </c>
+        <v>282.442</v>
+      </c>
+      <c r="J43"/>
+      <c r="K43"/>
       <c r="L43" t="n">
-        <v>4051</v>
+        <v>4512</v>
       </c>
       <c r="M43" t="n">
-        <v>0.37</v>
+        <v>0.412</v>
       </c>
       <c r="N43" t="n">
-        <v>0.085</v>
+        <v>0.0621</v>
       </c>
       <c r="O43" t="n">
-        <v>11.8</v>
+        <v>16.1</v>
       </c>
       <c r="P43" t="s">
         <v>245</v>
@@ -5526,7 +5562,7 @@
         <v>249</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44608</v>
+        <v>44616</v>
       </c>
       <c r="D44" t="s">
         <v>250</v>
@@ -5538,31 +5574,31 @@
         <v>252</v>
       </c>
       <c r="G44" t="n">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="H44" t="n">
-        <v>2464122</v>
+        <v>2509214</v>
       </c>
       <c r="I44" t="n">
-        <v>137.749</v>
+        <v>140.27</v>
       </c>
       <c r="J44" t="n">
-        <v>8267</v>
+        <v>6255</v>
       </c>
       <c r="K44" t="n">
-        <v>0.462</v>
+        <v>0.35</v>
       </c>
       <c r="L44" t="n">
-        <v>6893</v>
+        <v>5365</v>
       </c>
       <c r="M44" t="n">
-        <v>0.385</v>
+        <v>0.3</v>
       </c>
       <c r="N44" t="n">
-        <v>0.646</v>
+        <v>0.5015</v>
       </c>
       <c r="O44" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P44" t="s">
         <v>253</v>
@@ -5642,7 +5678,7 @@
         <v>262</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44613</v>
+        <v>44616</v>
       </c>
       <c r="D46" t="s">
         <v>263</v>
@@ -5652,24 +5688,28 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H46" t="n">
-        <v>286479</v>
+        <v>287396</v>
       </c>
       <c r="I46" t="n">
-        <v>197.587</v>
+        <v>198.219</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="n">
-        <v>532</v>
+        <v>447</v>
       </c>
       <c r="M46" t="n">
-        <v>0.367</v>
-      </c>
-      <c r="N46"/>
-      <c r="O46"/>
+        <v>0.308</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="O46" t="n">
+        <v>447</v>
+      </c>
       <c r="P46" t="s">
         <v>37</v>
       </c>
@@ -5691,7 +5731,7 @@
         <v>267</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D47" t="s">
         <v>268</v>
@@ -5701,28 +5741,28 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="H47" t="n">
-        <v>3058906</v>
+        <v>3096316</v>
       </c>
       <c r="I47" t="n">
-        <v>2308.281</v>
+        <v>2336.511</v>
       </c>
       <c r="J47" t="n">
-        <v>5584</v>
+        <v>8228</v>
       </c>
       <c r="K47" t="n">
-        <v>4.214</v>
+        <v>6.209</v>
       </c>
       <c r="L47" t="n">
-        <v>9640</v>
+        <v>8827</v>
       </c>
       <c r="M47" t="n">
-        <v>7.274</v>
+        <v>6.661</v>
       </c>
       <c r="N47" t="n">
-        <v>0.5801</v>
+        <v>0.5988</v>
       </c>
       <c r="O47" t="n">
         <v>1.7</v>
@@ -5748,7 +5788,7 @@
         <v>272</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44613</v>
+        <v>44616</v>
       </c>
       <c r="D48" t="s">
         <v>36</v>
@@ -5758,24 +5798,32 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H48" t="n">
-        <v>4461088</v>
+        <v>4480864</v>
       </c>
       <c r="I48" t="n">
-        <v>37.846</v>
-      </c>
-      <c r="J48"/>
-      <c r="K48"/>
+        <v>38.013</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5825</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.049</v>
+      </c>
       <c r="L48" t="n">
-        <v>4503</v>
+        <v>5120</v>
       </c>
       <c r="M48" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="N48"/>
-      <c r="O48"/>
+        <v>0.043</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="O48" t="n">
+        <v>60.8</v>
+      </c>
       <c r="P48" t="s">
         <v>273</v>
       </c>
@@ -5797,7 +5845,7 @@
         <v>277</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D49" t="s">
         <v>278</v>
@@ -5807,27 +5855,31 @@
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H49" t="n">
-        <v>774591</v>
+        <v>777084</v>
       </c>
       <c r="I49" t="n">
-        <v>15790.9</v>
-      </c>
-      <c r="J49"/>
-      <c r="K49"/>
+        <v>15841.722</v>
+      </c>
+      <c r="J49" t="n">
+        <v>391</v>
+      </c>
+      <c r="K49" t="n">
+        <v>7.971</v>
+      </c>
       <c r="L49" t="n">
-        <v>939</v>
+        <v>579</v>
       </c>
       <c r="M49" t="n">
-        <v>19.143</v>
+        <v>11.804</v>
       </c>
       <c r="N49" t="n">
-        <v>0.5049</v>
+        <v>0.6445</v>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="P49" t="s">
         <v>279</v>
@@ -5850,7 +5902,7 @@
         <v>284</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D50" t="s">
         <v>285</v>
@@ -5860,21 +5912,21 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H50" t="n">
-        <v>495733</v>
+        <v>496558</v>
       </c>
       <c r="I50" t="n">
-        <v>549.046</v>
+        <v>549.96</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M50" t="n">
-        <v>0.189</v>
+        <v>0.19</v>
       </c>
       <c r="N50"/>
       <c r="O50"/>
@@ -5899,7 +5951,7 @@
         <v>290</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44611</v>
+        <v>44615</v>
       </c>
       <c r="D51" t="s">
         <v>291</v>
@@ -5909,31 +5961,31 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="H51" t="n">
-        <v>9818690</v>
+        <v>9903281</v>
       </c>
       <c r="I51" t="n">
-        <v>1769.656</v>
+        <v>1784.902</v>
       </c>
       <c r="J51" t="n">
-        <v>3296</v>
+        <v>12223</v>
       </c>
       <c r="K51" t="n">
-        <v>0.594</v>
+        <v>2.203</v>
       </c>
       <c r="L51" t="n">
-        <v>11981</v>
+        <v>14509</v>
       </c>
       <c r="M51" t="n">
-        <v>2.159</v>
+        <v>2.615</v>
       </c>
       <c r="N51" t="n">
-        <v>0.433</v>
+        <v>0.291</v>
       </c>
       <c r="O51" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="P51" t="s">
         <v>293</v>
@@ -5956,7 +6008,7 @@
         <v>297</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44610</v>
+        <v>44614</v>
       </c>
       <c r="D52" t="s">
         <v>298</v>
@@ -5966,31 +6018,31 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="H52" t="n">
-        <v>244765417</v>
+        <v>245967578</v>
       </c>
       <c r="I52" t="n">
-        <v>3630.349</v>
+        <v>3648.18</v>
       </c>
       <c r="J52" t="n">
-        <v>369590</v>
+        <v>340422</v>
       </c>
       <c r="K52" t="n">
-        <v>5.482</v>
+        <v>5.049</v>
       </c>
       <c r="L52" t="n">
-        <v>377100</v>
+        <v>334749</v>
       </c>
       <c r="M52" t="n">
-        <v>5.593</v>
+        <v>4.965</v>
       </c>
       <c r="N52" t="n">
-        <v>0.243</v>
+        <v>0.222</v>
       </c>
       <c r="O52" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="P52" t="s">
         <v>299</v>
@@ -6013,7 +6065,7 @@
         <v>302</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="D53" t="s">
         <v>36</v>
@@ -6023,24 +6075,28 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H53" t="n">
-        <v>1562803</v>
+        <v>1564505</v>
       </c>
       <c r="I53" t="n">
-        <v>685.792</v>
+        <v>686.539</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53" t="n">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="M53" t="n">
-        <v>0.351</v>
-      </c>
-      <c r="N53"/>
-      <c r="O53"/>
+        <v>0.35</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="O53" t="n">
+        <v>75.5</v>
+      </c>
       <c r="P53" t="s">
         <v>37</v>
       </c>
@@ -6115,7 +6171,7 @@
         <v>311</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D55" t="s">
         <v>312</v>
@@ -6125,25 +6181,25 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H55" t="n">
-        <v>13273996</v>
+        <v>13393983</v>
       </c>
       <c r="I55" t="n">
-        <v>3335.365</v>
+        <v>3365.514</v>
       </c>
       <c r="J55" t="n">
-        <v>18351</v>
+        <v>35583</v>
       </c>
       <c r="K55" t="n">
-        <v>4.611</v>
+        <v>8.941</v>
       </c>
       <c r="L55" t="n">
-        <v>36988</v>
+        <v>24401</v>
       </c>
       <c r="M55" t="n">
-        <v>9.294</v>
+        <v>6.131</v>
       </c>
       <c r="N55"/>
       <c r="O55"/>
@@ -6168,7 +6224,7 @@
         <v>317</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44605</v>
+        <v>44612</v>
       </c>
       <c r="D56" t="s">
         <v>318</v>
@@ -6178,27 +6234,27 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H56" t="n">
-        <v>107094344</v>
+        <v>109315956</v>
       </c>
       <c r="I56" t="n">
-        <v>1276.445</v>
+        <v>1302.924</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56" t="n">
-        <v>350752</v>
+        <v>306323</v>
       </c>
       <c r="M56" t="n">
-        <v>4.181</v>
+        <v>3.651</v>
       </c>
       <c r="N56" t="n">
-        <v>0.443</v>
+        <v>0.457</v>
       </c>
       <c r="O56" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P56" t="s">
         <v>319</v>
@@ -6221,7 +6277,7 @@
         <v>323</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="D57" t="s">
         <v>36</v>
@@ -6231,24 +6287,28 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H57" t="n">
-        <v>2287642</v>
+        <v>2305405</v>
       </c>
       <c r="I57" t="n">
-        <v>72.092</v>
+        <v>72.652</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57" t="n">
-        <v>1843</v>
+        <v>3808</v>
       </c>
       <c r="M57" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="N57"/>
-      <c r="O57"/>
+        <v>0.12</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.0362</v>
+      </c>
+      <c r="O57" t="n">
+        <v>27.6</v>
+      </c>
       <c r="P57" t="s">
         <v>37</v>
       </c>
@@ -6270,7 +6330,7 @@
         <v>326</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D58" t="s">
         <v>327</v>
@@ -6280,21 +6340,25 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="H58" t="n">
-        <v>63470397</v>
+        <v>64927413</v>
       </c>
       <c r="I58" t="n">
-        <v>6120.137</v>
-      </c>
-      <c r="J58"/>
-      <c r="K58"/>
+        <v>6260.63</v>
+      </c>
+      <c r="J58" t="n">
+        <v>356333</v>
+      </c>
+      <c r="K58" t="n">
+        <v>34.359</v>
+      </c>
       <c r="L58" t="n">
-        <v>314950</v>
+        <v>303689</v>
       </c>
       <c r="M58" t="n">
-        <v>30.369</v>
+        <v>29.283</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
@@ -6527,7 +6591,7 @@
         <v>359</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D63" t="s">
         <v>360</v>
@@ -6539,25 +6603,25 @@
         <v>362</v>
       </c>
       <c r="G63" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="H63" t="n">
-        <v>10211986</v>
+        <v>10283077</v>
       </c>
       <c r="I63" t="n">
-        <v>1059.977</v>
+        <v>1067.356</v>
       </c>
       <c r="J63" t="n">
-        <v>65772</v>
+        <v>22634</v>
       </c>
       <c r="K63" t="n">
-        <v>6.827</v>
+        <v>2.349</v>
       </c>
       <c r="L63" t="n">
-        <v>21392</v>
+        <v>19552</v>
       </c>
       <c r="M63" t="n">
-        <v>2.22</v>
+        <v>2.029</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
@@ -6582,7 +6646,7 @@
         <v>366</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44609</v>
+        <v>44613</v>
       </c>
       <c r="D64" t="s">
         <v>367</v>
@@ -6592,25 +6656,25 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="H64" t="n">
-        <v>1120502</v>
+        <v>1137416</v>
       </c>
       <c r="I64" t="n">
-        <v>3038.303</v>
+        <v>3084.167</v>
       </c>
       <c r="J64" t="n">
-        <v>4721</v>
+        <v>4711</v>
       </c>
       <c r="K64" t="n">
-        <v>12.801</v>
+        <v>12.774</v>
       </c>
       <c r="L64" t="n">
-        <v>4725</v>
+        <v>4776</v>
       </c>
       <c r="M64" t="n">
-        <v>12.812</v>
+        <v>12.95</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
@@ -6635,7 +6699,7 @@
         <v>371</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D65" t="s">
         <v>372</v>
@@ -6647,31 +6711,31 @@
         <v>374</v>
       </c>
       <c r="G65" t="n">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="H65" t="n">
-        <v>759315246</v>
+        <v>763569165</v>
       </c>
       <c r="I65" t="n">
-        <v>544.933</v>
+        <v>547.986</v>
       </c>
       <c r="J65" t="n">
-        <v>1187766</v>
+        <v>1155147</v>
       </c>
       <c r="K65" t="n">
-        <v>0.852</v>
+        <v>0.829</v>
       </c>
       <c r="L65" t="n">
-        <v>1225627</v>
+        <v>1148101</v>
       </c>
       <c r="M65" t="n">
-        <v>0.88</v>
+        <v>0.824</v>
       </c>
       <c r="N65" t="n">
-        <v>0.0202</v>
+        <v>0.0142</v>
       </c>
       <c r="O65" t="n">
-        <v>49.6</v>
+        <v>70.4</v>
       </c>
       <c r="P65" t="s">
         <v>373</v>
@@ -6694,7 +6758,7 @@
         <v>377</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D66" t="s">
         <v>378</v>
@@ -6704,25 +6768,25 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H66" t="n">
-        <v>54422139</v>
+        <v>55621829</v>
       </c>
       <c r="I66" t="n">
-        <v>196.924</v>
+        <v>201.265</v>
       </c>
       <c r="J66" t="n">
-        <v>243226</v>
+        <v>275753</v>
       </c>
       <c r="K66" t="n">
-        <v>0.88</v>
+        <v>0.998</v>
       </c>
       <c r="L66" t="n">
-        <v>310929</v>
+        <v>288263</v>
       </c>
       <c r="M66" t="n">
-        <v>1.125</v>
+        <v>1.043</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
@@ -6747,7 +6811,7 @@
         <v>383</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D67" t="s">
         <v>384</v>
@@ -6757,21 +6821,21 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H67" t="n">
-        <v>46701520</v>
+        <v>47014581</v>
       </c>
       <c r="I67" t="n">
-        <v>549.244</v>
+        <v>552.926</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67" t="n">
-        <v>79522</v>
+        <v>78349</v>
       </c>
       <c r="M67" t="n">
-        <v>0.935</v>
+        <v>0.921</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
@@ -6796,7 +6860,7 @@
         <v>390</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44608</v>
+        <v>44614</v>
       </c>
       <c r="D68" t="s">
         <v>391</v>
@@ -6806,31 +6870,27 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H68" t="n">
-        <v>17787528</v>
+        <v>17887384</v>
       </c>
       <c r="I68" t="n">
-        <v>431.953</v>
-      </c>
-      <c r="J68" t="n">
-        <v>20703</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.503</v>
-      </c>
+        <v>434.378</v>
+      </c>
+      <c r="J68"/>
+      <c r="K68"/>
       <c r="L68" t="n">
-        <v>20171</v>
+        <v>17223</v>
       </c>
       <c r="M68" t="n">
-        <v>0.49</v>
+        <v>0.418</v>
       </c>
       <c r="N68" t="n">
-        <v>0.1465</v>
+        <v>0.1108</v>
       </c>
       <c r="O68" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="P68" t="s">
         <v>393</v>
@@ -6853,7 +6913,7 @@
         <v>397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D69" t="s">
         <v>398</v>
@@ -6863,25 +6923,25 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="H69" t="n">
-        <v>11290751</v>
+        <v>11345980</v>
       </c>
       <c r="I69" t="n">
-        <v>2265.898</v>
+        <v>2276.981</v>
       </c>
       <c r="J69" t="n">
-        <v>10867</v>
+        <v>12939</v>
       </c>
       <c r="K69" t="n">
-        <v>2.181</v>
+        <v>2.597</v>
       </c>
       <c r="L69" t="n">
-        <v>15748</v>
+        <v>13436</v>
       </c>
       <c r="M69" t="n">
-        <v>3.16</v>
+        <v>2.696</v>
       </c>
       <c r="N69"/>
       <c r="O69"/>
@@ -6906,7 +6966,7 @@
         <v>403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44613</v>
+        <v>44616</v>
       </c>
       <c r="D70" t="s">
         <v>404</v>
@@ -6916,28 +6976,32 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="H70" t="n">
-        <v>48296124</v>
+        <v>48571375</v>
       </c>
       <c r="I70" t="n">
-        <v>5198.162</v>
+        <v>5227.788</v>
       </c>
       <c r="J70" t="n">
-        <v>77088</v>
+        <v>80706</v>
       </c>
       <c r="K70" t="n">
-        <v>8.297</v>
+        <v>8.686</v>
       </c>
       <c r="L70" t="n">
-        <v>89638</v>
+        <v>81558</v>
       </c>
       <c r="M70" t="n">
-        <v>9.648</v>
-      </c>
-      <c r="N70"/>
-      <c r="O70"/>
+        <v>8.778</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.1577</v>
+      </c>
+      <c r="O70" t="n">
+        <v>6.3</v>
+      </c>
       <c r="P70" t="s">
         <v>43</v>
       </c>
@@ -6959,7 +7023,7 @@
         <v>408</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D71" t="s">
         <v>409</v>
@@ -6971,25 +7035,25 @@
         <v>411</v>
       </c>
       <c r="G71" t="n">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="H71" t="n">
-        <v>184378274</v>
+        <v>186386005</v>
       </c>
       <c r="I71" t="n">
-        <v>3054.265</v>
+        <v>3087.524</v>
       </c>
       <c r="J71" t="n">
-        <v>231766</v>
+        <v>440115</v>
       </c>
       <c r="K71" t="n">
-        <v>3.839</v>
+        <v>7.291</v>
       </c>
       <c r="L71" t="n">
-        <v>485118</v>
+        <v>443474</v>
       </c>
       <c r="M71" t="n">
-        <v>8.036</v>
+        <v>7.346</v>
       </c>
       <c r="N71"/>
       <c r="O71"/>
@@ -7014,7 +7078,7 @@
         <v>416</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44611</v>
+        <v>44615</v>
       </c>
       <c r="D72" t="s">
         <v>417</v>
@@ -7024,31 +7088,31 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H72" t="n">
-        <v>835015</v>
+        <v>843150</v>
       </c>
       <c r="I72" t="n">
-        <v>280.822</v>
+        <v>283.558</v>
       </c>
       <c r="J72" t="n">
-        <v>2630</v>
+        <v>2227</v>
       </c>
       <c r="K72" t="n">
-        <v>0.884</v>
+        <v>0.749</v>
       </c>
       <c r="L72" t="n">
-        <v>1864</v>
+        <v>2091</v>
       </c>
       <c r="M72" t="n">
-        <v>0.627</v>
+        <v>0.703</v>
       </c>
       <c r="N72" t="n">
-        <v>0.0483</v>
+        <v>0.0305</v>
       </c>
       <c r="O72" t="n">
-        <v>20.7</v>
+        <v>32.7</v>
       </c>
       <c r="P72" t="s">
         <v>418</v>
@@ -7071,7 +7135,7 @@
         <v>422</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D73" t="s">
         <v>423</v>
@@ -7081,28 +7145,28 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="H73" t="n">
-        <v>36102787</v>
+        <v>36805681</v>
       </c>
       <c r="I73" t="n">
-        <v>286.415</v>
+        <v>291.991</v>
       </c>
       <c r="J73" t="n">
-        <v>88843</v>
+        <v>184714</v>
       </c>
       <c r="K73" t="n">
-        <v>0.705</v>
+        <v>1.465</v>
       </c>
       <c r="L73" t="n">
-        <v>184992</v>
+        <v>167782</v>
       </c>
       <c r="M73" t="n">
-        <v>1.468</v>
+        <v>1.331</v>
       </c>
       <c r="N73" t="n">
-        <v>0.4408</v>
+        <v>0.4286</v>
       </c>
       <c r="O73" t="n">
         <v>2.3</v>
@@ -7128,7 +7192,7 @@
         <v>428</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D74" t="s">
         <v>429</v>
@@ -7138,25 +7202,25 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H74" t="n">
-        <v>16020086</v>
+        <v>16187673</v>
       </c>
       <c r="I74" t="n">
-        <v>1560.04</v>
+        <v>1576.36</v>
       </c>
       <c r="J74" t="n">
-        <v>52222</v>
+        <v>42668</v>
       </c>
       <c r="K74" t="n">
-        <v>5.085</v>
+        <v>4.155</v>
       </c>
       <c r="L74" t="n">
-        <v>59219</v>
+        <v>48654</v>
       </c>
       <c r="M74" t="n">
-        <v>5.767</v>
+        <v>4.738</v>
       </c>
       <c r="N74"/>
       <c r="O74"/>
@@ -7238,7 +7302,7 @@
         <v>439</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44613</v>
+        <v>44616</v>
       </c>
       <c r="D76" t="s">
         <v>36</v>
@@ -7248,24 +7312,32 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H76" t="n">
-        <v>3335912</v>
+        <v>3351782</v>
       </c>
       <c r="I76" t="n">
-        <v>60.669</v>
-      </c>
-      <c r="J76"/>
-      <c r="K76"/>
+        <v>60.957</v>
+      </c>
+      <c r="J76" t="n">
+        <v>5211</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.095</v>
+      </c>
       <c r="L76" t="n">
-        <v>5544</v>
+        <v>5313</v>
       </c>
       <c r="M76" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="N76"/>
-      <c r="O76"/>
+        <v>0.097</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="O76" t="n">
+        <v>178.8</v>
+      </c>
       <c r="P76" t="s">
         <v>37</v>
       </c>
@@ -7287,7 +7359,7 @@
         <v>442</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D77" t="s">
         <v>443</v>
@@ -7297,31 +7369,31 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H77" t="n">
-        <v>1749613</v>
+        <v>1758767</v>
       </c>
       <c r="I77" t="n">
-        <v>981.762</v>
+        <v>986.899</v>
       </c>
       <c r="J77" t="n">
-        <v>1595</v>
+        <v>2060</v>
       </c>
       <c r="K77" t="n">
-        <v>0.895</v>
+        <v>1.156</v>
       </c>
       <c r="L77" t="n">
-        <v>3016</v>
+        <v>2334</v>
       </c>
       <c r="M77" t="n">
-        <v>1.692</v>
+        <v>1.31</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1045</v>
+        <v>0.084</v>
       </c>
       <c r="O77" t="n">
-        <v>9.6</v>
+        <v>11.9</v>
       </c>
       <c r="P77" t="s">
         <v>445</v>
@@ -7344,7 +7416,7 @@
         <v>448</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D78" t="s">
         <v>449</v>
@@ -7354,25 +7426,25 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="H78" t="n">
-        <v>7489094</v>
+        <v>7581627</v>
       </c>
       <c r="I78" t="n">
-        <v>1730.161</v>
+        <v>1751.538</v>
       </c>
       <c r="J78" t="n">
-        <v>20376</v>
+        <v>28597</v>
       </c>
       <c r="K78" t="n">
-        <v>4.707</v>
+        <v>6.607</v>
       </c>
       <c r="L78" t="n">
-        <v>22340</v>
+        <v>22168</v>
       </c>
       <c r="M78" t="n">
-        <v>5.161</v>
+        <v>5.121</v>
       </c>
       <c r="N78"/>
       <c r="O78"/>
@@ -7397,7 +7469,7 @@
         <v>454</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D79" t="s">
         <v>455</v>
@@ -7407,25 +7479,25 @@
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H79" t="n">
-        <v>973221</v>
+        <v>981093</v>
       </c>
       <c r="I79" t="n">
-        <v>131.884</v>
+        <v>132.951</v>
       </c>
       <c r="J79" t="n">
-        <v>1925</v>
+        <v>2684</v>
       </c>
       <c r="K79" t="n">
-        <v>0.261</v>
+        <v>0.364</v>
       </c>
       <c r="L79" t="n">
-        <v>668</v>
+        <v>1290</v>
       </c>
       <c r="M79" t="n">
-        <v>0.091</v>
+        <v>0.175</v>
       </c>
       <c r="N79"/>
       <c r="O79"/>
@@ -7450,7 +7522,7 @@
         <v>460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D80" t="s">
         <v>461</v>
@@ -7462,25 +7534,25 @@
         <v>463</v>
       </c>
       <c r="G80" t="n">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="H80" t="n">
-        <v>6523418</v>
+        <v>6617365</v>
       </c>
       <c r="I80" t="n">
-        <v>3494.188</v>
+        <v>3544.509</v>
       </c>
       <c r="J80" t="n">
-        <v>8445</v>
+        <v>22269</v>
       </c>
       <c r="K80" t="n">
-        <v>4.523</v>
+        <v>11.928</v>
       </c>
       <c r="L80" t="n">
-        <v>21486</v>
+        <v>20744</v>
       </c>
       <c r="M80" t="n">
-        <v>11.509</v>
+        <v>11.111</v>
       </c>
       <c r="N80"/>
       <c r="O80"/>
@@ -7554,7 +7626,7 @@
         <v>471</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D82" t="s">
         <v>472</v>
@@ -7564,15 +7636,15 @@
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82" t="n">
-        <v>7120</v>
+        <v>4495</v>
       </c>
       <c r="K82" t="n">
-        <v>1.023</v>
+        <v>0.646</v>
       </c>
       <c r="L82"/>
       <c r="M82"/>
@@ -7656,7 +7728,7 @@
         <v>483</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="D84" t="s">
         <v>484</v>
@@ -7666,31 +7738,31 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="H84" t="n">
-        <v>8012492</v>
+        <v>8053936</v>
       </c>
       <c r="I84" t="n">
-        <v>2978.774</v>
+        <v>2994.182</v>
       </c>
       <c r="J84" t="n">
-        <v>15070</v>
+        <v>8360</v>
       </c>
       <c r="K84" t="n">
-        <v>5.603</v>
+        <v>3.108</v>
       </c>
       <c r="L84" t="n">
-        <v>17431</v>
+        <v>15668</v>
       </c>
       <c r="M84" t="n">
-        <v>6.48</v>
+        <v>5.825</v>
       </c>
       <c r="N84" t="n">
-        <v>0.509</v>
+        <v>0.513</v>
       </c>
       <c r="O84" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P84" t="s">
         <v>485</v>
@@ -7713,7 +7785,7 @@
         <v>488</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44611</v>
+        <v>44616</v>
       </c>
       <c r="D85" t="s">
         <v>489</v>
@@ -7723,31 +7795,31 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="H85" t="n">
-        <v>4051669</v>
+        <v>4064929</v>
       </c>
       <c r="I85" t="n">
-        <v>6382.451</v>
+        <v>6403.339</v>
       </c>
       <c r="J85" t="n">
-        <v>2005</v>
+        <v>2751</v>
       </c>
       <c r="K85" t="n">
-        <v>3.158</v>
+        <v>4.334</v>
       </c>
       <c r="L85" t="n">
-        <v>2171</v>
+        <v>2425</v>
       </c>
       <c r="M85" t="n">
-        <v>3.42</v>
+        <v>3.82</v>
       </c>
       <c r="N85" t="n">
-        <v>0.24</v>
+        <v>0.267</v>
       </c>
       <c r="O85" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="P85" t="s">
         <v>490</v>
@@ -7823,7 +7895,7 @@
         <v>496</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44613</v>
+        <v>44616</v>
       </c>
       <c r="D87" t="s">
         <v>36</v>
@@ -7833,24 +7905,32 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H87" t="n">
-        <v>542492</v>
+        <v>544043</v>
       </c>
       <c r="I87" t="n">
-        <v>27.611</v>
-      </c>
-      <c r="J87"/>
-      <c r="K87"/>
+        <v>27.69</v>
+      </c>
+      <c r="J87" t="n">
+        <v>486</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.025</v>
+      </c>
       <c r="L87" t="n">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N87"/>
-      <c r="O87"/>
+        <v>0.029</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.0359</v>
+      </c>
+      <c r="O87" t="n">
+        <v>27.9</v>
+      </c>
       <c r="P87" t="s">
         <v>37</v>
       </c>
@@ -7872,7 +7952,7 @@
         <v>499</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44611</v>
+        <v>44615</v>
       </c>
       <c r="D88" t="s">
         <v>500</v>
@@ -7884,31 +7964,31 @@
         <v>502</v>
       </c>
       <c r="G88" t="n">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="H88" t="n">
-        <v>49215870</v>
+        <v>50243083</v>
       </c>
       <c r="I88" t="n">
-        <v>1501.574</v>
+        <v>1532.914</v>
       </c>
       <c r="J88" t="n">
-        <v>221480</v>
+        <v>249498</v>
       </c>
       <c r="K88" t="n">
-        <v>6.757</v>
+        <v>7.612</v>
       </c>
       <c r="L88" t="n">
-        <v>255487</v>
+        <v>253052</v>
       </c>
       <c r="M88" t="n">
-        <v>7.795</v>
+        <v>7.721</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0982</v>
+        <v>0.1093</v>
       </c>
       <c r="O88" t="n">
-        <v>10.2</v>
+        <v>9.1</v>
       </c>
       <c r="P88" t="s">
         <v>43</v>
@@ -7931,7 +8011,7 @@
         <v>506</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D89" t="s">
         <v>507</v>
@@ -7941,25 +8021,25 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="H89" t="n">
-        <v>2160565</v>
+        <v>2175439</v>
       </c>
       <c r="I89" t="n">
-        <v>3974.403</v>
+        <v>4001.764</v>
       </c>
       <c r="J89" t="n">
-        <v>4191</v>
+        <v>3223</v>
       </c>
       <c r="K89" t="n">
-        <v>7.709</v>
+        <v>5.929</v>
       </c>
       <c r="L89" t="n">
-        <v>3889</v>
+        <v>3775</v>
       </c>
       <c r="M89" t="n">
-        <v>7.154</v>
+        <v>6.944</v>
       </c>
       <c r="N89"/>
       <c r="O89"/>
@@ -7984,7 +8064,7 @@
         <v>512</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D90" t="s">
         <v>513</v>
@@ -7994,25 +8074,25 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H90" t="n">
-        <v>1728032</v>
+        <v>1735023</v>
       </c>
       <c r="I90" t="n">
-        <v>3348.25</v>
+        <v>3361.796</v>
       </c>
       <c r="J90" t="n">
-        <v>1495</v>
+        <v>1638</v>
       </c>
       <c r="K90" t="n">
-        <v>2.897</v>
+        <v>3.174</v>
       </c>
       <c r="L90" t="n">
-        <v>1730</v>
+        <v>1681</v>
       </c>
       <c r="M90" t="n">
-        <v>3.352</v>
+        <v>3.257</v>
       </c>
       <c r="N90"/>
       <c r="O90"/>
@@ -8037,7 +8117,7 @@
         <v>519</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44613</v>
+        <v>44616</v>
       </c>
       <c r="D91" t="s">
         <v>36</v>
@@ -8047,24 +8127,32 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H91" t="n">
-        <v>875475</v>
+        <v>881238</v>
       </c>
       <c r="I91" t="n">
-        <v>183.341</v>
-      </c>
-      <c r="J91"/>
-      <c r="K91"/>
+        <v>184.548</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2040</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.427</v>
+      </c>
       <c r="L91" t="n">
-        <v>1990</v>
+        <v>1903</v>
       </c>
       <c r="M91" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="N91"/>
-      <c r="O91"/>
+        <v>0.399</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="O91" t="n">
+        <v>475.8</v>
+      </c>
       <c r="P91" t="s">
         <v>520</v>
       </c>
@@ -8086,7 +8174,7 @@
         <v>524</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44611</v>
+        <v>44615</v>
       </c>
       <c r="D92" t="s">
         <v>525</v>
@@ -8096,31 +8184,31 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="H92" t="n">
-        <v>14227433</v>
+        <v>14348027</v>
       </c>
       <c r="I92" t="n">
-        <v>109.221</v>
+        <v>110.147</v>
       </c>
       <c r="J92" t="n">
-        <v>2292</v>
+        <v>6436</v>
       </c>
       <c r="K92" t="n">
-        <v>0.018</v>
+        <v>0.049</v>
       </c>
       <c r="L92" t="n">
-        <v>11371</v>
+        <v>11082</v>
       </c>
       <c r="M92" t="n">
-        <v>0.087</v>
+        <v>0.085</v>
       </c>
       <c r="N92" t="n">
-        <v>0.451</v>
+        <v>0.384</v>
       </c>
       <c r="O92" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="P92" t="s">
         <v>527</v>
@@ -8143,7 +8231,7 @@
         <v>530</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D93" t="s">
         <v>531</v>
@@ -8153,15 +8241,15 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93" t="n">
-        <v>10102</v>
+        <v>7714</v>
       </c>
       <c r="K93" t="n">
-        <v>2.51</v>
+        <v>1.917</v>
       </c>
       <c r="L93"/>
       <c r="M93"/>
@@ -8188,7 +8276,7 @@
         <v>537</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D94" t="s">
         <v>538</v>
@@ -8198,21 +8286,25 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H94" t="n">
-        <v>7097615</v>
+        <v>7135436</v>
       </c>
       <c r="I94" t="n">
-        <v>2131.876</v>
-      </c>
-      <c r="J94"/>
-      <c r="K94"/>
+        <v>2143.236</v>
+      </c>
+      <c r="J94" t="n">
+        <v>8566</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2.573</v>
+      </c>
       <c r="L94" t="n">
-        <v>8766</v>
+        <v>7573</v>
       </c>
       <c r="M94" t="n">
-        <v>2.633</v>
+        <v>2.275</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
@@ -8237,7 +8329,7 @@
         <v>542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D95" t="s">
         <v>543</v>
@@ -8247,25 +8339,25 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="H95" t="n">
-        <v>10950440</v>
+        <v>11012702</v>
       </c>
       <c r="I95" t="n">
-        <v>293.225</v>
+        <v>294.893</v>
       </c>
       <c r="J95" t="n">
-        <v>9116</v>
+        <v>14801</v>
       </c>
       <c r="K95" t="n">
-        <v>0.244</v>
+        <v>0.396</v>
       </c>
       <c r="L95" t="n">
-        <v>15188</v>
+        <v>14966</v>
       </c>
       <c r="M95" t="n">
-        <v>0.407</v>
+        <v>0.401</v>
       </c>
       <c r="N95"/>
       <c r="O95"/>
@@ -8290,7 +8382,7 @@
         <v>548</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="D96" t="s">
         <v>36</v>
@@ -8300,24 +8392,28 @@
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H96" t="n">
-        <v>1259571</v>
+        <v>1262889</v>
       </c>
       <c r="I96" t="n">
-        <v>39.162</v>
+        <v>39.265</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
       <c r="L96" t="n">
-        <v>1261</v>
+        <v>1395</v>
       </c>
       <c r="M96" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="N96"/>
-      <c r="O96"/>
+        <v>0.043</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.0197</v>
+      </c>
+      <c r="O96" t="n">
+        <v>50.9</v>
+      </c>
       <c r="P96" t="s">
         <v>37</v>
       </c>
@@ -8339,31 +8435,35 @@
         <v>551</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D97" t="s">
         <v>552</v>
       </c>
       <c r="E97" t="s">
-        <v>553</v>
+        <v>43</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="H97" t="n">
-        <v>6935983</v>
+        <v>7056044</v>
       </c>
       <c r="I97" t="n">
-        <v>126.555</v>
-      </c>
-      <c r="J97"/>
-      <c r="K97"/>
+        <v>128.746</v>
+      </c>
+      <c r="J97" t="n">
+        <v>27158</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.496</v>
+      </c>
       <c r="L97" t="n">
-        <v>31755</v>
+        <v>30912</v>
       </c>
       <c r="M97" t="n">
-        <v>0.579</v>
+        <v>0.564</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -8388,7 +8488,7 @@
         <v>557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44613</v>
+        <v>44616</v>
       </c>
       <c r="D98" t="s">
         <v>36</v>
@@ -8398,24 +8498,32 @@
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H98" t="n">
-        <v>946174</v>
+        <v>949780</v>
       </c>
       <c r="I98" t="n">
-        <v>365.693</v>
-      </c>
-      <c r="J98"/>
-      <c r="K98"/>
+        <v>367.087</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1232</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.476</v>
+      </c>
       <c r="L98" t="n">
-        <v>1056</v>
+        <v>1161</v>
       </c>
       <c r="M98" t="n">
-        <v>0.408</v>
-      </c>
-      <c r="N98"/>
-      <c r="O98"/>
+        <v>0.449</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.0237</v>
+      </c>
+      <c r="O98" t="n">
+        <v>42.1</v>
+      </c>
       <c r="P98" t="s">
         <v>558</v>
       </c>
@@ -8437,7 +8545,7 @@
         <v>562</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44610</v>
+        <v>44617</v>
       </c>
       <c r="D99" t="s">
         <v>563</v>
@@ -8447,31 +8555,27 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="H99" t="n">
-        <v>5369664</v>
+        <v>6461400</v>
       </c>
       <c r="I99" t="n">
-        <v>180.95</v>
-      </c>
-      <c r="J99" t="n">
-        <v>5133</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.173</v>
-      </c>
+        <v>217.739</v>
+      </c>
+      <c r="J99"/>
+      <c r="K99"/>
       <c r="L99" t="n">
-        <v>6624</v>
+        <v>8506</v>
       </c>
       <c r="M99" t="n">
-        <v>0.223</v>
+        <v>0.287</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0645</v>
+        <v>0.043</v>
       </c>
       <c r="O99" t="n">
-        <v>15.5</v>
+        <v>23.3</v>
       </c>
       <c r="P99" t="s">
         <v>564</v>
@@ -8494,7 +8598,7 @@
         <v>568</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44611</v>
+        <v>44615</v>
       </c>
       <c r="D100" t="s">
         <v>569</v>
@@ -8504,31 +8608,31 @@
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="H100" t="n">
-        <v>27725158</v>
+        <v>27963752</v>
       </c>
       <c r="I100" t="n">
-        <v>1614.453</v>
+        <v>1628.347</v>
       </c>
       <c r="J100" t="n">
-        <v>59626</v>
+        <v>61876</v>
       </c>
       <c r="K100" t="n">
-        <v>3.472</v>
+        <v>3.603</v>
       </c>
       <c r="L100" t="n">
-        <v>79195</v>
+        <v>59511</v>
       </c>
       <c r="M100" t="n">
-        <v>4.612</v>
+        <v>3.465</v>
       </c>
       <c r="N100" t="n">
-        <v>0.579</v>
+        <v>0.607</v>
       </c>
       <c r="O100" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="P100" t="s">
         <v>570</v>
@@ -8551,7 +8655,7 @@
         <v>574</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D101" t="s">
         <v>575</v>
@@ -8561,21 +8665,25 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="H101" t="n">
-        <v>6513660</v>
+        <v>6629650</v>
       </c>
       <c r="I101" t="n">
-        <v>1270.636</v>
-      </c>
-      <c r="J101"/>
-      <c r="K101"/>
+        <v>1293.262</v>
+      </c>
+      <c r="J101" t="n">
+        <v>30861</v>
+      </c>
+      <c r="K101" t="n">
+        <v>6.02</v>
+      </c>
       <c r="L101" t="n">
-        <v>28567</v>
+        <v>28795</v>
       </c>
       <c r="M101" t="n">
-        <v>5.573</v>
+        <v>5.617</v>
       </c>
       <c r="N101"/>
       <c r="O101"/>
@@ -8600,7 +8708,7 @@
         <v>580</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44613</v>
+        <v>44616</v>
       </c>
       <c r="D102" t="s">
         <v>36</v>
@@ -8610,24 +8718,32 @@
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H102" t="n">
-        <v>226119</v>
+        <v>227005</v>
       </c>
       <c r="I102" t="n">
-        <v>8.998</v>
-      </c>
-      <c r="J102"/>
-      <c r="K102"/>
+        <v>9.033</v>
+      </c>
+      <c r="J102" t="n">
+        <v>327</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.013</v>
+      </c>
       <c r="L102" t="n">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M102" t="n">
         <v>0.018</v>
       </c>
-      <c r="N102"/>
-      <c r="O102"/>
+      <c r="N102" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="O102" t="n">
+        <v>178.9</v>
+      </c>
       <c r="P102" t="s">
         <v>37</v>
       </c>
@@ -8649,7 +8765,7 @@
         <v>583</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44610</v>
+        <v>44615</v>
       </c>
       <c r="D103" t="s">
         <v>36</v>
@@ -8659,27 +8775,27 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H103" t="n">
-        <v>4233363</v>
+        <v>4317621</v>
       </c>
       <c r="I103" t="n">
-        <v>20.025</v>
+        <v>20.424</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
       <c r="L103" t="n">
-        <v>4619</v>
+        <v>13356</v>
       </c>
       <c r="M103" t="n">
-        <v>0.022</v>
+        <v>0.063</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0092</v>
+        <v>0.0023</v>
       </c>
       <c r="O103" t="n">
-        <v>108.5</v>
+        <v>434.9</v>
       </c>
       <c r="P103" t="s">
         <v>584</v>
@@ -8702,7 +8818,7 @@
         <v>588</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D104" t="s">
         <v>589</v>
@@ -8712,21 +8828,25 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H104" t="n">
-        <v>1871411</v>
+        <v>1883560</v>
       </c>
       <c r="I104" t="n">
-        <v>898.567</v>
-      </c>
-      <c r="J104"/>
-      <c r="K104"/>
+        <v>904.401</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2669</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1.282</v>
+      </c>
       <c r="L104" t="n">
-        <v>3349</v>
+        <v>3074</v>
       </c>
       <c r="M104" t="n">
-        <v>1.608</v>
+        <v>1.476</v>
       </c>
       <c r="N104"/>
       <c r="O104"/>
@@ -8751,7 +8871,7 @@
         <v>593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44611</v>
+        <v>44615</v>
       </c>
       <c r="D105" t="s">
         <v>594</v>
@@ -8761,28 +8881,28 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="H105" t="n">
-        <v>10616343</v>
+        <v>10703461</v>
       </c>
       <c r="I105" t="n">
-        <v>1942.383</v>
+        <v>1958.322</v>
       </c>
       <c r="J105" t="n">
-        <v>7207</v>
+        <v>21256</v>
       </c>
       <c r="K105" t="n">
-        <v>1.319</v>
+        <v>3.889</v>
       </c>
       <c r="L105" t="n">
-        <v>19267</v>
+        <v>19716</v>
       </c>
       <c r="M105" t="n">
-        <v>3.525</v>
+        <v>3.607</v>
       </c>
       <c r="N105" t="n">
-        <v>0.683</v>
+        <v>0.666</v>
       </c>
       <c r="O105" t="n">
         <v>1.5</v>
@@ -8853,7 +8973,7 @@
         <v>604</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D107" t="s">
         <v>605</v>
@@ -8863,21 +8983,25 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="H107" t="n">
-        <v>26136422</v>
+        <v>26299843</v>
       </c>
       <c r="I107" t="n">
-        <v>116.059</v>
-      </c>
-      <c r="J107"/>
-      <c r="K107"/>
+        <v>116.784</v>
+      </c>
+      <c r="J107" t="n">
+        <v>41142</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.183</v>
+      </c>
       <c r="L107" t="n">
-        <v>48179</v>
+        <v>43238</v>
       </c>
       <c r="M107" t="n">
-        <v>0.214</v>
+        <v>0.192</v>
       </c>
       <c r="N107"/>
       <c r="O107"/>
@@ -8902,7 +9026,7 @@
         <v>609</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D108" t="s">
         <v>610</v>
@@ -8912,15 +9036,15 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108" t="n">
-        <v>7455</v>
+        <v>4496</v>
       </c>
       <c r="K108" t="n">
-        <v>1.427</v>
+        <v>0.861</v>
       </c>
       <c r="L108"/>
       <c r="M108"/>
@@ -8947,7 +9071,7 @@
         <v>615</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D109" t="s">
         <v>616</v>
@@ -8957,31 +9081,31 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="H109" t="n">
-        <v>5457948</v>
+        <v>5490154</v>
       </c>
       <c r="I109" t="n">
-        <v>1245.657</v>
+        <v>1253.007</v>
       </c>
       <c r="J109" t="n">
-        <v>6377</v>
+        <v>8631</v>
       </c>
       <c r="K109" t="n">
-        <v>1.455</v>
+        <v>1.97</v>
       </c>
       <c r="L109" t="n">
-        <v>8955</v>
+        <v>7989</v>
       </c>
       <c r="M109" t="n">
-        <v>2.044</v>
+        <v>1.823</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1261</v>
+        <v>0.1033</v>
       </c>
       <c r="O109" t="n">
-        <v>7.9</v>
+        <v>9.7</v>
       </c>
       <c r="P109" t="s">
         <v>617</v>
@@ -9049,7 +9173,7 @@
         <v>625</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D111" t="s">
         <v>626</v>
@@ -9059,28 +9183,32 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="H111" t="n">
-        <v>2525886</v>
+        <v>2537927</v>
       </c>
       <c r="I111" t="n">
-        <v>349.863</v>
+        <v>351.531</v>
       </c>
       <c r="J111" t="n">
-        <v>3559</v>
+        <v>2789</v>
       </c>
       <c r="K111" t="n">
-        <v>0.493</v>
+        <v>0.386</v>
       </c>
       <c r="L111" t="n">
-        <v>4864</v>
+        <v>3348</v>
       </c>
       <c r="M111" t="n">
-        <v>0.674</v>
-      </c>
-      <c r="N111"/>
-      <c r="O111"/>
+        <v>0.464</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.2831</v>
+      </c>
+      <c r="O111" t="n">
+        <v>3.5</v>
+      </c>
       <c r="P111" t="s">
         <v>627</v>
       </c>
@@ -9102,7 +9230,7 @@
         <v>631</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D112" t="s">
         <v>632</v>
@@ -9114,27 +9242,27 @@
         <v>633</v>
       </c>
       <c r="G112" t="n">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="H112" t="n">
-        <v>26969707</v>
+        <v>27166379</v>
       </c>
       <c r="I112" t="n">
-        <v>808.459</v>
+        <v>814.354</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
       <c r="L112" t="n">
-        <v>63759</v>
+        <v>55511</v>
       </c>
       <c r="M112" t="n">
-        <v>1.911</v>
+        <v>1.664</v>
       </c>
       <c r="N112" t="n">
-        <v>0.126</v>
+        <v>0.08</v>
       </c>
       <c r="O112" t="n">
-        <v>7.9</v>
+        <v>12.5</v>
       </c>
       <c r="P112" t="s">
         <v>196</v>
@@ -9214,7 +9342,7 @@
         <v>643</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D114" t="s">
         <v>644</v>
@@ -9224,25 +9352,25 @@
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="H114" t="n">
-        <v>32350757</v>
+        <v>32714701</v>
       </c>
       <c r="I114" t="n">
-        <v>855.908</v>
+        <v>865.537</v>
       </c>
       <c r="J114" t="n">
-        <v>49523</v>
+        <v>82009</v>
       </c>
       <c r="K114" t="n">
-        <v>1.31</v>
+        <v>2.17</v>
       </c>
       <c r="L114" t="n">
-        <v>92760</v>
+        <v>82088</v>
       </c>
       <c r="M114" t="n">
-        <v>2.454</v>
+        <v>2.172</v>
       </c>
       <c r="N114"/>
       <c r="O114"/>
@@ -9267,7 +9395,7 @@
         <v>649</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D115" t="s">
         <v>650</v>
@@ -9277,31 +9405,31 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="H115" t="n">
-        <v>37712155</v>
+        <v>38119866</v>
       </c>
       <c r="I115" t="n">
-        <v>3708.934</v>
+        <v>3749.032</v>
       </c>
       <c r="J115" t="n">
-        <v>38104</v>
+        <v>85951</v>
       </c>
       <c r="K115" t="n">
-        <v>3.747</v>
+        <v>8.453</v>
       </c>
       <c r="L115" t="n">
-        <v>101037</v>
+        <v>91550</v>
       </c>
       <c r="M115" t="n">
-        <v>9.937</v>
+        <v>9.004</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1444</v>
+        <v>0.129</v>
       </c>
       <c r="O115" t="n">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="P115" t="s">
         <v>651</v>
@@ -9324,7 +9452,7 @@
         <v>654</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D116" t="s">
         <v>655</v>
@@ -9334,25 +9462,25 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H116" t="n">
-        <v>5681688</v>
+        <v>5764680</v>
       </c>
       <c r="I116" t="n">
-        <v>1938.796</v>
+        <v>1967.116</v>
       </c>
       <c r="J116" t="n">
-        <v>21707</v>
+        <v>19858</v>
       </c>
       <c r="K116" t="n">
-        <v>7.407</v>
+        <v>6.776</v>
       </c>
       <c r="L116" t="n">
-        <v>22113</v>
+        <v>20553</v>
       </c>
       <c r="M116" t="n">
-        <v>7.546</v>
+        <v>7.013</v>
       </c>
       <c r="N116"/>
       <c r="O116"/>
@@ -9377,7 +9505,7 @@
         <v>661</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D117" t="s">
         <v>662</v>
@@ -9387,21 +9515,25 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H117" t="n">
-        <v>20688043</v>
+        <v>20939926</v>
       </c>
       <c r="I117" t="n">
-        <v>1081.571</v>
-      </c>
-      <c r="J117"/>
-      <c r="K117"/>
+        <v>1094.739</v>
+      </c>
+      <c r="J117" t="n">
+        <v>56740</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2.966</v>
+      </c>
       <c r="L117" t="n">
-        <v>60422</v>
+        <v>53499</v>
       </c>
       <c r="M117" t="n">
-        <v>3.159</v>
+        <v>2.797</v>
       </c>
       <c r="N117"/>
       <c r="O117"/>
@@ -9426,7 +9558,7 @@
         <v>668</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D118" t="s">
         <v>669</v>
@@ -9436,21 +9568,25 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H118" t="n">
-        <v>273486507</v>
+        <v>275174811</v>
       </c>
       <c r="I118" t="n">
-        <v>1874.325</v>
-      </c>
-      <c r="J118"/>
-      <c r="K118"/>
+        <v>1885.895</v>
+      </c>
+      <c r="J118" t="n">
+        <v>429805</v>
+      </c>
+      <c r="K118" t="n">
+        <v>2.946</v>
+      </c>
       <c r="L118" t="n">
-        <v>595508</v>
+        <v>492785</v>
       </c>
       <c r="M118" t="n">
-        <v>4.081</v>
+        <v>3.377</v>
       </c>
       <c r="N118"/>
       <c r="O118"/>
@@ -9475,7 +9611,7 @@
         <v>674</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44607</v>
+        <v>44617</v>
       </c>
       <c r="D119" t="s">
         <v>675</v>
@@ -9485,32 +9621,28 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="H119" t="n">
-        <v>4663942</v>
+        <v>4780592</v>
       </c>
       <c r="I119" t="n">
-        <v>351.293</v>
+        <v>360.079</v>
       </c>
       <c r="J119" t="n">
-        <v>9707</v>
+        <v>12912</v>
       </c>
       <c r="K119" t="n">
-        <v>0.731</v>
+        <v>0.973</v>
       </c>
       <c r="L119" t="n">
-        <v>12018</v>
+        <v>12143</v>
       </c>
       <c r="M119" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="O119" t="n">
-        <v>564.6</v>
-      </c>
+        <v>0.915</v>
+      </c>
+      <c r="N119"/>
+      <c r="O119"/>
       <c r="P119" t="s">
         <v>676</v>
       </c>
@@ -9532,7 +9664,7 @@
         <v>680</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44610</v>
+        <v>44617</v>
       </c>
       <c r="D120" t="s">
         <v>681</v>
@@ -9542,28 +9674,24 @@
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H120" t="n">
-        <v>662750</v>
+        <v>66657</v>
       </c>
       <c r="I120" t="n">
-        <v>12377.208</v>
+        <v>1244.855</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
       <c r="L120" t="n">
-        <v>85259</v>
+        <v>55</v>
       </c>
       <c r="M120" t="n">
-        <v>1592.257</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0</v>
-      </c>
-      <c r="O120" t="n">
-        <v>28419.7</v>
-      </c>
+        <v>1.027</v>
+      </c>
+      <c r="N120"/>
+      <c r="O120"/>
       <c r="P120" t="s">
         <v>43</v>
       </c>
@@ -9585,7 +9713,7 @@
         <v>685</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44612</v>
+        <v>44615</v>
       </c>
       <c r="D121" t="s">
         <v>686</v>
@@ -9595,28 +9723,32 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H121" t="n">
-        <v>97955</v>
+        <v>98032</v>
       </c>
       <c r="I121" t="n">
-        <v>880.344</v>
+        <v>881.036</v>
       </c>
       <c r="J121" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K121" t="n">
-        <v>0.207</v>
+        <v>0.243</v>
       </c>
       <c r="L121" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M121" t="n">
-        <v>0.395</v>
-      </c>
-      <c r="N121"/>
-      <c r="O121"/>
+        <v>0.377</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.1803</v>
+      </c>
+      <c r="O121" t="n">
+        <v>5.5</v>
+      </c>
       <c r="P121" t="s">
         <v>687</v>
       </c>
@@ -9638,7 +9770,7 @@
         <v>691</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D122" t="s">
         <v>692</v>
@@ -9648,31 +9780,31 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="H122" t="n">
-        <v>40241874</v>
+        <v>40519559</v>
       </c>
       <c r="I122" t="n">
-        <v>1138.684</v>
+        <v>1146.542</v>
       </c>
       <c r="J122" t="n">
-        <v>83083</v>
+        <v>69834</v>
       </c>
       <c r="K122" t="n">
-        <v>2.351</v>
+        <v>1.976</v>
       </c>
       <c r="L122" t="n">
-        <v>91077</v>
+        <v>73449</v>
       </c>
       <c r="M122" t="n">
-        <v>2.577</v>
+        <v>2.078</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0172</v>
+        <v>0.0128</v>
       </c>
       <c r="O122" t="n">
-        <v>58.2</v>
+        <v>78.1</v>
       </c>
       <c r="P122" t="s">
         <v>43</v>
@@ -9695,7 +9827,7 @@
         <v>695</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D123" t="s">
         <v>696</v>
@@ -9705,25 +9837,25 @@
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="H123" t="n">
-        <v>1024222</v>
+        <v>1028844</v>
       </c>
       <c r="I123" t="n">
-        <v>59.561</v>
+        <v>59.829</v>
       </c>
       <c r="J123" t="n">
-        <v>1423</v>
+        <v>1196</v>
       </c>
       <c r="K123" t="n">
-        <v>0.083</v>
+        <v>0.07</v>
       </c>
       <c r="L123" t="n">
-        <v>1303</v>
+        <v>1259</v>
       </c>
       <c r="M123" t="n">
-        <v>0.076</v>
+        <v>0.073</v>
       </c>
       <c r="N123"/>
       <c r="O123"/>
@@ -9748,7 +9880,7 @@
         <v>700</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44613</v>
+        <v>44616</v>
       </c>
       <c r="D124" t="s">
         <v>701</v>
@@ -9760,28 +9892,32 @@
         <v>702</v>
       </c>
       <c r="G124" t="n">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="H124" t="n">
-        <v>8651160</v>
+        <v>8704941</v>
       </c>
       <c r="I124" t="n">
-        <v>1258.983</v>
+        <v>1266.809</v>
       </c>
       <c r="J124" t="n">
-        <v>17667</v>
+        <v>16450</v>
       </c>
       <c r="K124" t="n">
-        <v>2.571</v>
+        <v>2.394</v>
       </c>
       <c r="L124" t="n">
-        <v>17736</v>
+        <v>17193</v>
       </c>
       <c r="M124" t="n">
-        <v>2.581</v>
-      </c>
-      <c r="N124"/>
-      <c r="O124"/>
+        <v>2.502</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.2697</v>
+      </c>
+      <c r="O124" t="n">
+        <v>3.7</v>
+      </c>
       <c r="P124" t="s">
         <v>43</v>
       </c>
@@ -9856,7 +9992,7 @@
         <v>712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D126" t="s">
         <v>713</v>
@@ -9868,31 +10004,31 @@
         <v>714</v>
       </c>
       <c r="G126" t="n">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="H126" t="n">
-        <v>49170213</v>
+        <v>49280503</v>
       </c>
       <c r="I126" t="n">
-        <v>9023.266</v>
+        <v>9043.505</v>
       </c>
       <c r="J126" t="n">
-        <v>20349</v>
+        <v>23849</v>
       </c>
       <c r="K126" t="n">
-        <v>3.734</v>
+        <v>4.377</v>
       </c>
       <c r="L126" t="n">
-        <v>55300</v>
+        <v>31050</v>
       </c>
       <c r="M126" t="n">
-        <v>10.148</v>
+        <v>5.698</v>
       </c>
       <c r="N126" t="n">
-        <v>0.349</v>
+        <v>0.474</v>
       </c>
       <c r="O126" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="P126" t="s">
         <v>43</v>
@@ -9915,7 +10051,7 @@
         <v>717</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D127" t="s">
         <v>718</v>
@@ -9927,31 +10063,31 @@
         <v>720</v>
       </c>
       <c r="G127" t="n">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="H127" t="n">
-        <v>4279115</v>
+        <v>4357006</v>
       </c>
       <c r="I127" t="n">
-        <v>2058.531</v>
+        <v>2096.001</v>
       </c>
       <c r="J127" t="n">
-        <v>35000</v>
+        <v>13601</v>
       </c>
       <c r="K127" t="n">
-        <v>16.837</v>
+        <v>6.543</v>
       </c>
       <c r="L127" t="n">
-        <v>78610</v>
+        <v>36515</v>
       </c>
       <c r="M127" t="n">
-        <v>37.816</v>
+        <v>17.566</v>
       </c>
       <c r="N127" t="n">
-        <v>0.051</v>
+        <v>0.067</v>
       </c>
       <c r="O127" t="n">
-        <v>19.6</v>
+        <v>14.9</v>
       </c>
       <c r="P127" t="s">
         <v>721</v>
@@ -9974,7 +10110,7 @@
         <v>724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D128" t="s">
         <v>725</v>
@@ -9986,25 +10122,25 @@
         <v>727</v>
       </c>
       <c r="G128" t="n">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="H128" t="n">
-        <v>22896483</v>
+        <v>23020001</v>
       </c>
       <c r="I128" t="n">
-        <v>381.341</v>
+        <v>383.398</v>
       </c>
       <c r="J128" t="n">
-        <v>15604</v>
+        <v>25056</v>
       </c>
       <c r="K128" t="n">
-        <v>0.26</v>
+        <v>0.417</v>
       </c>
       <c r="L128" t="n">
-        <v>29033</v>
+        <v>27118</v>
       </c>
       <c r="M128" t="n">
-        <v>0.484</v>
+        <v>0.452</v>
       </c>
       <c r="N128"/>
       <c r="O128"/>
@@ -10029,7 +10165,7 @@
         <v>731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D129" t="s">
         <v>732</v>
@@ -10041,31 +10177,31 @@
         <v>734</v>
       </c>
       <c r="G129" t="n">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="H129" t="n">
-        <v>57663663</v>
+        <v>59607270</v>
       </c>
       <c r="I129" t="n">
-        <v>1123.934</v>
+        <v>1161.818</v>
       </c>
       <c r="J129" t="n">
-        <v>311062</v>
+        <v>496831</v>
       </c>
       <c r="K129" t="n">
-        <v>6.063</v>
+        <v>9.684</v>
       </c>
       <c r="L129" t="n">
-        <v>386955</v>
+        <v>452465</v>
       </c>
       <c r="M129" t="n">
-        <v>7.542</v>
+        <v>8.819</v>
       </c>
       <c r="N129" t="n">
-        <v>0.2411</v>
+        <v>0.2871</v>
       </c>
       <c r="O129" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="P129" t="s">
         <v>735</v>
@@ -10141,7 +10277,7 @@
         <v>742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44610</v>
+        <v>44615</v>
       </c>
       <c r="D131" t="s">
         <v>743</v>
@@ -10151,31 +10287,31 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="H131" t="n">
-        <v>84703635</v>
+        <v>85238704</v>
       </c>
       <c r="I131" t="n">
-        <v>1812.028</v>
+        <v>1823.475</v>
       </c>
       <c r="J131" t="n">
-        <v>86613</v>
+        <v>93828</v>
       </c>
       <c r="K131" t="n">
-        <v>1.853</v>
+        <v>2.007</v>
       </c>
       <c r="L131" t="n">
-        <v>107018</v>
+        <v>99155</v>
       </c>
       <c r="M131" t="n">
-        <v>2.289</v>
+        <v>2.121</v>
       </c>
       <c r="N131" t="n">
-        <v>0.208</v>
+        <v>0.181</v>
       </c>
       <c r="O131" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="P131" t="s">
         <v>744</v>
@@ -10198,7 +10334,7 @@
         <v>747</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D132" t="s">
         <v>748</v>
@@ -10208,25 +10344,25 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="H132" t="n">
-        <v>7312367</v>
+        <v>7352395</v>
       </c>
       <c r="I132" t="n">
-        <v>340.153</v>
+        <v>342.015</v>
       </c>
       <c r="J132" t="n">
-        <v>7916</v>
+        <v>9406</v>
       </c>
       <c r="K132" t="n">
-        <v>0.368</v>
+        <v>0.438</v>
       </c>
       <c r="L132" t="n">
-        <v>10201</v>
+        <v>9872</v>
       </c>
       <c r="M132" t="n">
-        <v>0.475</v>
+        <v>0.459</v>
       </c>
       <c r="N132"/>
       <c r="O132"/>
@@ -10296,7 +10432,7 @@
         <v>755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D134" t="s">
         <v>756</v>
@@ -10306,31 +10442,31 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H134" t="n">
-        <v>75958</v>
+        <v>77310</v>
       </c>
       <c r="I134" t="n">
-        <v>128.351</v>
+        <v>130.636</v>
       </c>
       <c r="J134" t="n">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="K134" t="n">
-        <v>0.689</v>
+        <v>0.602</v>
       </c>
       <c r="L134" t="n">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="M134" t="n">
-        <v>0.262</v>
+        <v>0.326</v>
       </c>
       <c r="N134" t="n">
-        <v>0.392</v>
+        <v>0.226</v>
       </c>
       <c r="O134" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="P134" t="s">
         <v>757</v>
@@ -10353,7 +10489,7 @@
         <v>760</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44605</v>
+        <v>44612</v>
       </c>
       <c r="D135" t="s">
         <v>761</v>
@@ -10363,31 +10499,31 @@
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="H135" t="n">
-        <v>17860668</v>
+        <v>17932299</v>
       </c>
       <c r="I135" t="n">
-        <v>1757.912</v>
+        <v>1764.962</v>
       </c>
       <c r="J135" t="n">
-        <v>21350</v>
+        <v>10233</v>
       </c>
       <c r="K135" t="n">
-        <v>2.101</v>
+        <v>1.007</v>
       </c>
       <c r="L135" t="n">
-        <v>21350</v>
+        <v>10233</v>
       </c>
       <c r="M135" t="n">
-        <v>2.101</v>
+        <v>1.007</v>
       </c>
       <c r="N135" t="n">
-        <v>0.733</v>
+        <v>0.3564</v>
       </c>
       <c r="O135" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="P135" t="s">
         <v>763</v>
@@ -10410,7 +10546,7 @@
         <v>767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D136" t="s">
         <v>478</v>
@@ -10420,31 +10556,31 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="H136" t="n">
-        <v>18362379</v>
+        <v>18563383</v>
       </c>
       <c r="I136" t="n">
-        <v>2106.866</v>
+        <v>2129.929</v>
       </c>
       <c r="J136" t="n">
-        <v>15503</v>
+        <v>39144</v>
       </c>
       <c r="K136" t="n">
-        <v>1.779</v>
+        <v>4.491</v>
       </c>
       <c r="L136" t="n">
-        <v>49577</v>
+        <v>41052</v>
       </c>
       <c r="M136" t="n">
-        <v>5.688</v>
+        <v>4.71</v>
       </c>
       <c r="N136" t="n">
-        <v>0.363</v>
+        <v>0.394</v>
       </c>
       <c r="O136" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P136" t="s">
         <v>479</v>
@@ -10467,7 +10603,7 @@
         <v>770</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D137" t="s">
         <v>771</v>
@@ -10477,25 +10613,25 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="H137" t="n">
-        <v>6192221</v>
+        <v>6277837</v>
       </c>
       <c r="I137" t="n">
-        <v>259.577</v>
+        <v>263.166</v>
       </c>
       <c r="J137" t="n">
-        <v>19914</v>
+        <v>11983</v>
       </c>
       <c r="K137" t="n">
-        <v>0.835</v>
+        <v>0.502</v>
       </c>
       <c r="L137" t="n">
-        <v>22102</v>
+        <v>19340</v>
       </c>
       <c r="M137" t="n">
-        <v>0.927</v>
+        <v>0.811</v>
       </c>
       <c r="N137"/>
       <c r="O137"/>
@@ -10577,7 +10713,7 @@
         <v>782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D139" t="s">
         <v>783</v>
@@ -10587,27 +10723,27 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H139" t="n">
-        <v>245941</v>
+        <v>247931</v>
       </c>
       <c r="I139" t="n">
-        <v>183.009</v>
+        <v>184.49</v>
       </c>
       <c r="J139"/>
       <c r="K139"/>
       <c r="L139" t="n">
-        <v>718</v>
+        <v>568</v>
       </c>
       <c r="M139" t="n">
-        <v>0.534</v>
+        <v>0.423</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1446</v>
+        <v>0.1122</v>
       </c>
       <c r="O139" t="n">
-        <v>6.9</v>
+        <v>8.9</v>
       </c>
       <c r="P139" t="s">
         <v>43</v>
@@ -10630,7 +10766,7 @@
         <v>786</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44613</v>
+        <v>44616</v>
       </c>
       <c r="D140"/>
       <c r="E140" t="s">
@@ -10640,28 +10776,32 @@
         <v>788</v>
       </c>
       <c r="G140" t="n">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="H140" t="n">
-        <v>683572</v>
+        <v>686609</v>
       </c>
       <c r="I140" t="n">
-        <v>80.627</v>
+        <v>80.985</v>
       </c>
       <c r="J140" t="n">
-        <v>903</v>
+        <v>1151</v>
       </c>
       <c r="K140" t="n">
-        <v>0.107</v>
+        <v>0.136</v>
       </c>
       <c r="L140" t="n">
-        <v>1024</v>
+        <v>1001</v>
       </c>
       <c r="M140" t="n">
-        <v>0.121</v>
-      </c>
-      <c r="N140"/>
-      <c r="O140"/>
+        <v>0.118</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.0096</v>
+      </c>
+      <c r="O140" t="n">
+        <v>104.6</v>
+      </c>
       <c r="P140" t="s">
         <v>787</v>
       </c>
@@ -10740,7 +10880,7 @@
         <v>798</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44611</v>
+        <v>44615</v>
       </c>
       <c r="D142" t="s">
         <v>799</v>
@@ -10750,27 +10890,31 @@
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H142" t="n">
-        <v>4280200</v>
+        <v>4323847</v>
       </c>
       <c r="I142" t="n">
-        <v>358.603</v>
-      </c>
-      <c r="J142"/>
-      <c r="K142"/>
+        <v>362.26</v>
+      </c>
+      <c r="J142" t="n">
+        <v>8404</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.704</v>
+      </c>
       <c r="L142" t="n">
-        <v>10985</v>
+        <v>11211</v>
       </c>
       <c r="M142" t="n">
-        <v>0.92</v>
+        <v>0.939</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1906</v>
+        <v>0.2424</v>
       </c>
       <c r="O142" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="P142" t="s">
         <v>801</v>
@@ -10793,7 +10937,7 @@
         <v>805</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D143" t="s">
         <v>806</v>
@@ -10803,25 +10947,25 @@
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="H143" t="n">
-        <v>141039358</v>
+        <v>142875926</v>
       </c>
       <c r="I143" t="n">
-        <v>1658.453</v>
+        <v>1680.049</v>
       </c>
       <c r="J143" t="n">
-        <v>461513</v>
+        <v>453947</v>
       </c>
       <c r="K143" t="n">
-        <v>5.427</v>
+        <v>5.338</v>
       </c>
       <c r="L143" t="n">
-        <v>459795</v>
+        <v>457217</v>
       </c>
       <c r="M143" t="n">
-        <v>5.407</v>
+        <v>5.376</v>
       </c>
       <c r="N143"/>
       <c r="O143"/>
@@ -10846,7 +10990,7 @@
         <v>811</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44613</v>
+        <v>44616</v>
       </c>
       <c r="D144" t="s">
         <v>36</v>
@@ -10856,24 +11000,32 @@
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H144" t="n">
-        <v>2437127</v>
+        <v>2446107</v>
       </c>
       <c r="I144" t="n">
-        <v>51.718</v>
-      </c>
-      <c r="J144"/>
-      <c r="K144"/>
+        <v>51.908</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2862</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.061</v>
+      </c>
       <c r="L144" t="n">
-        <v>3792</v>
+        <v>3334</v>
       </c>
       <c r="M144" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N144"/>
-      <c r="O144"/>
+        <v>0.071</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.0106</v>
+      </c>
+      <c r="O144" t="n">
+        <v>94.5</v>
+      </c>
       <c r="P144" t="s">
         <v>37</v>
       </c>
@@ -10948,7 +11100,7 @@
         <v>820</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D146" t="s">
         <v>821</v>
@@ -10958,25 +11110,25 @@
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="H146" t="n">
-        <v>134560760</v>
+        <v>136398177</v>
       </c>
       <c r="I146" t="n">
-        <v>13468.085</v>
+        <v>13651.991</v>
       </c>
       <c r="J146" t="n">
-        <v>410158</v>
+        <v>430359</v>
       </c>
       <c r="K146" t="n">
-        <v>41.052</v>
+        <v>43.074</v>
       </c>
       <c r="L146" t="n">
-        <v>382821</v>
+        <v>424895</v>
       </c>
       <c r="M146" t="n">
-        <v>38.316</v>
+        <v>42.527</v>
       </c>
       <c r="N146"/>
       <c r="O146"/>
@@ -11001,7 +11153,7 @@
         <v>826</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D147" t="s">
         <v>827</v>
@@ -11011,31 +11163,31 @@
       </c>
       <c r="F147"/>
       <c r="G147" t="n">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="H147" t="n">
-        <v>459040234</v>
+        <v>462207375</v>
       </c>
       <c r="I147" t="n">
-        <v>6730.093</v>
+        <v>6776.527</v>
       </c>
       <c r="J147" t="n">
-        <v>726671</v>
+        <v>764641</v>
       </c>
       <c r="K147" t="n">
-        <v>10.654</v>
+        <v>11.211</v>
       </c>
       <c r="L147" t="n">
-        <v>839719</v>
+        <v>745187</v>
       </c>
       <c r="M147" t="n">
-        <v>12.311</v>
+        <v>10.925</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0511</v>
+        <v>0.0529</v>
       </c>
       <c r="O147" t="n">
-        <v>19.6</v>
+        <v>18.9</v>
       </c>
       <c r="P147" t="s">
         <v>829</v>
@@ -11058,7 +11210,7 @@
         <v>833</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>44607</v>
+        <v>44611</v>
       </c>
       <c r="D148" t="s">
         <v>834</v>
@@ -11068,31 +11220,31 @@
       </c>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="H148" t="n">
-        <v>806751537</v>
+        <v>812809349</v>
       </c>
       <c r="I148" t="n">
-        <v>2423.295</v>
+        <v>2441.492</v>
       </c>
       <c r="J148" t="n">
-        <v>1030386</v>
+        <v>765405</v>
       </c>
       <c r="K148" t="n">
-        <v>3.095</v>
+        <v>2.299</v>
       </c>
       <c r="L148" t="n">
-        <v>1047542</v>
+        <v>1153179</v>
       </c>
       <c r="M148" t="n">
-        <v>3.147</v>
+        <v>3.464</v>
       </c>
       <c r="N148" t="n">
-        <v>0.079</v>
+        <v>0.058</v>
       </c>
       <c r="O148" t="n">
-        <v>12.7</v>
+        <v>17.2</v>
       </c>
       <c r="P148" t="s">
         <v>835</v>
@@ -11115,7 +11267,7 @@
         <v>839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D149" t="s">
         <v>840</v>
@@ -11125,31 +11277,31 @@
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="H149" t="n">
-        <v>5610703</v>
+        <v>5664769</v>
       </c>
       <c r="I149" t="n">
-        <v>1609.888</v>
+        <v>1625.401</v>
       </c>
       <c r="J149" t="n">
-        <v>9864</v>
+        <v>13701</v>
       </c>
       <c r="K149" t="n">
-        <v>2.83</v>
+        <v>3.931</v>
       </c>
       <c r="L149" t="n">
-        <v>15604</v>
+        <v>14070</v>
       </c>
       <c r="M149" t="n">
-        <v>4.477</v>
+        <v>4.037</v>
       </c>
       <c r="N149" t="n">
-        <v>0.3499</v>
+        <v>0.3159</v>
       </c>
       <c r="O149" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P149" t="s">
         <v>216</v>
@@ -11172,7 +11324,7 @@
         <v>843</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="D150" t="s">
         <v>844</v>
@@ -11182,21 +11334,25 @@
       </c>
       <c r="F150"/>
       <c r="G150" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H150" t="n">
-        <v>78508813</v>
+        <v>78848051</v>
       </c>
       <c r="I150" t="n">
-        <v>799.733</v>
-      </c>
-      <c r="J150"/>
-      <c r="K150"/>
+        <v>803.188</v>
+      </c>
+      <c r="J150" t="n">
+        <v>93961</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.957</v>
+      </c>
       <c r="L150" t="n">
-        <v>97341</v>
+        <v>84123</v>
       </c>
       <c r="M150" t="n">
-        <v>0.992</v>
+        <v>0.857</v>
       </c>
       <c r="N150"/>
       <c r="O150"/>
@@ -11221,7 +11377,7 @@
         <v>850</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>44611</v>
+        <v>44616</v>
       </c>
       <c r="D151" t="s">
         <v>851</v>
@@ -11231,31 +11387,31 @@
       </c>
       <c r="F151"/>
       <c r="G151" t="n">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="H151" t="n">
-        <v>3245731</v>
+        <v>3259776</v>
       </c>
       <c r="I151" t="n">
-        <v>171.544</v>
+        <v>172.287</v>
       </c>
       <c r="J151" t="n">
-        <v>3056</v>
+        <v>3082</v>
       </c>
       <c r="K151" t="n">
-        <v>0.162</v>
+        <v>0.163</v>
       </c>
       <c r="L151" t="n">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="M151" t="n">
         <v>0.154</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0843</v>
+        <v>0.0806</v>
       </c>
       <c r="O151" t="n">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="P151" t="s">
         <v>853</v>
@@ -11278,7 +11434,7 @@
         <v>856</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="D152" t="s">
         <v>36</v>
@@ -11288,24 +11444,28 @@
       </c>
       <c r="F152"/>
       <c r="G152" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H152" t="n">
-        <v>2049310</v>
+        <v>2058584</v>
       </c>
       <c r="I152" t="n">
-        <v>135.786</v>
+        <v>136.401</v>
       </c>
       <c r="J152"/>
       <c r="K152"/>
       <c r="L152" t="n">
-        <v>2971</v>
+        <v>3371</v>
       </c>
       <c r="M152" t="n">
-        <v>0.197</v>
-      </c>
-      <c r="N152"/>
-      <c r="O152"/>
+        <v>0.223</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.1007</v>
+      </c>
+      <c r="O152" t="n">
+        <v>9.9</v>
+      </c>
       <c r="P152" t="s">
         <v>37</v>
       </c>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-2387-testime-279-qytetare-te-infektuar-2-humbje-jete-dhe-483-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-1213-testime-102-qytetare-te-infektuar-2-humbje-jete-dhe-208-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -405,7 +405,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/posts/385013826784789</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/posts/386289649990540</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -955,7 +955,7 @@
     <t xml:space="preserve">Fiji - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.fj/25-02-2022/</t>
+    <t xml:space="preserve">https://www.health.gov.fj/28-02-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/381021</t>
+    <t xml:space="preserve">https://irangov.ir/detail/381227</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-february-23-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-saturday-february-26-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1501,7 +1501,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1497190902179274753</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1497919462175133701</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1497255070647435275</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1497979844470128640</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1777,7 +1777,7 @@
     <t xml:space="preserve">Moldova - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://msmps.gov.md/comunicare/alte-1-129-de-cazuri-noi-de-covid-19-raportate-pentru-24-februarie-2022/</t>
+    <t xml:space="preserve">https://msmps.gov.md/comunicare/alte-668-de-cazuri-noi-de-covid-19-raportate-pentru-25-februarie-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of the Republic of Moldova</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1497238270131900417</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1497608860378570754</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1887,7 +1887,7 @@
     <t xml:space="preserve">Nepal - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/62189f51362b8_SitRep747_COVID-19_25-02-2022_EN.pdf</t>
+    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/621c9e6dd8a16_SitRep750_COVID-19_28-02-2022_EN.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1977,7 +1977,7 @@
     <t xml:space="preserve">North Macedonia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/223873</t>
+    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/223877</t>
   </si>
   <si>
     <t xml:space="preserve">https://koronavirus.gov.mk/stat</t>
@@ -2046,7 +2046,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/303024271924542</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/304358328457803</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -2068,7 +2068,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1497026752383758338</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1498134097180434434</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1496962778791354368</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1498054385791864842</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2160,7 +2160,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1497145595403722753</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1498232759021715457</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2223,7 +2223,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRES%C4%82_-_25_februarie_2022,_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRES%C4%82_-_28_februarie_2022,_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20789</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20834</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2305,7 +2305,7 @@
     <t xml:space="preserve">Saint Vincent and the Grenadines - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/SVGHEALTH/posts/418282730094474</t>
+    <t xml:space="preserve">https://www.facebook.com/photo/?fbid=420941619828585&amp;set=pcb.420942346495179</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Vincent and the Grenadines Ministry of Health, Wellness and the Environment</t>
@@ -2840,7 +2840,7 @@
     <t xml:space="preserve">Vietnam - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://suckhoedoisong.vn//ngay-25-2-so-mac-moi-covid-19-tang-vot-len-78795-ca-ha-noi-gan-10000-f0-169220225175200481.htm</t>
+    <t xml:space="preserve">https://suckhoedoisong.vn//ngay-28-2-ca-mac-moi-covid-19-lan-dau-tang-vot-len-94385-quang-ninh-bo-sung-hon-28000-f0-169220228175026217.htm</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of Vietnam</t>
@@ -3296,7 +3296,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44614</v>
+        <v>44619</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3306,31 +3306,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H2" t="n">
-        <v>1587511</v>
+        <v>1588724</v>
       </c>
       <c r="I2" t="n">
-        <v>552.575</v>
+        <v>552.997</v>
       </c>
       <c r="J2" t="n">
-        <v>2387</v>
+        <v>1213</v>
       </c>
       <c r="K2" t="n">
-        <v>0.831</v>
+        <v>0.422</v>
       </c>
       <c r="L2" t="n">
-        <v>917</v>
+        <v>514</v>
       </c>
       <c r="M2" t="n">
-        <v>0.319</v>
+        <v>0.179</v>
       </c>
       <c r="N2" t="n">
-        <v>0.306</v>
+        <v>0.3788</v>
       </c>
       <c r="O2" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -3406,7 +3406,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44615</v>
+        <v>44618</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
@@ -3416,27 +3416,27 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
-        <v>1416784</v>
+        <v>1424011</v>
       </c>
       <c r="I4" t="n">
-        <v>41.752</v>
+        <v>41.965</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4" t="n">
-        <v>1654</v>
+        <v>2016</v>
       </c>
       <c r="M4" t="n">
-        <v>0.049</v>
+        <v>0.059</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0112</v>
+        <v>0.006</v>
       </c>
       <c r="O4" t="n">
-        <v>89.1</v>
+        <v>168</v>
       </c>
       <c r="P4" t="s">
         <v>37</v>
@@ -3512,7 +3512,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44615</v>
+        <v>44618</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
@@ -3522,31 +3522,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="H6" t="n">
-        <v>34060692</v>
+        <v>34183925</v>
       </c>
       <c r="I6" t="n">
-        <v>746.85</v>
+        <v>749.552</v>
       </c>
       <c r="J6" t="n">
-        <v>34402</v>
+        <v>15547</v>
       </c>
       <c r="K6" t="n">
-        <v>0.754</v>
+        <v>0.341</v>
       </c>
       <c r="L6" t="n">
-        <v>36120</v>
+        <v>33008</v>
       </c>
       <c r="M6" t="n">
-        <v>0.792</v>
+        <v>0.724</v>
       </c>
       <c r="N6" t="n">
-        <v>0.121</v>
+        <v>0.101</v>
       </c>
       <c r="O6" t="n">
-        <v>8.3</v>
+        <v>9.9</v>
       </c>
       <c r="P6" t="s">
         <v>50</v>
@@ -3569,7 +3569,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D7" t="s">
         <v>55</v>
@@ -3579,31 +3579,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="H7" t="n">
-        <v>2885418</v>
+        <v>2895679</v>
       </c>
       <c r="I7" t="n">
-        <v>972.134</v>
+        <v>975.591</v>
       </c>
       <c r="J7" t="n">
-        <v>4642</v>
+        <v>2804</v>
       </c>
       <c r="K7" t="n">
-        <v>1.564</v>
+        <v>0.945</v>
       </c>
       <c r="L7" t="n">
-        <v>4642</v>
+        <v>4245</v>
       </c>
       <c r="M7" t="n">
-        <v>1.564</v>
+        <v>1.43</v>
       </c>
       <c r="N7" t="n">
-        <v>0.169</v>
+        <v>0.137</v>
       </c>
       <c r="O7" t="n">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="P7" t="s">
         <v>43</v>
@@ -3626,7 +3626,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="D8" t="s">
         <v>60</v>
@@ -3638,25 +3638,25 @@
         <v>62</v>
       </c>
       <c r="G8" t="n">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="H8" t="n">
-        <v>63315728</v>
+        <v>63523582</v>
       </c>
       <c r="I8" t="n">
-        <v>2455.219</v>
+        <v>2463.279</v>
       </c>
       <c r="J8" t="n">
-        <v>100549</v>
+        <v>58369</v>
       </c>
       <c r="K8" t="n">
-        <v>3.899</v>
+        <v>2.263</v>
       </c>
       <c r="L8" t="n">
-        <v>81354</v>
+        <v>82978</v>
       </c>
       <c r="M8" t="n">
-        <v>3.155</v>
+        <v>3.218</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -3681,7 +3681,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="D9" t="s">
         <v>67</v>
@@ -3691,28 +3691,32 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H9" t="n">
-        <v>157784227</v>
+        <v>158481730</v>
       </c>
       <c r="I9" t="n">
-        <v>17448.078</v>
+        <v>17525.209</v>
       </c>
       <c r="J9" t="n">
-        <v>468335</v>
+        <v>697503</v>
       </c>
       <c r="K9" t="n">
-        <v>51.789</v>
+        <v>77.131</v>
       </c>
       <c r="L9" t="n">
-        <v>531772</v>
+        <v>529799</v>
       </c>
       <c r="M9" t="n">
-        <v>58.804</v>
-      </c>
-      <c r="N9"/>
-      <c r="O9"/>
+        <v>58.586</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="O9" t="n">
+        <v>17.5</v>
+      </c>
       <c r="P9" t="s">
         <v>68</v>
       </c>
@@ -3734,7 +3738,7 @@
         <v>71</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D10" t="s">
         <v>72</v>
@@ -3744,31 +3748,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H10" t="n">
-        <v>6531133</v>
+        <v>6551104</v>
       </c>
       <c r="I10" t="n">
-        <v>638.845</v>
+        <v>640.799</v>
       </c>
       <c r="J10" t="n">
-        <v>19269</v>
+        <v>7849</v>
       </c>
       <c r="K10" t="n">
-        <v>1.885</v>
+        <v>0.768</v>
       </c>
       <c r="L10" t="n">
-        <v>11851</v>
+        <v>10082</v>
       </c>
       <c r="M10" t="n">
-        <v>1.159</v>
+        <v>0.986</v>
       </c>
       <c r="N10" t="n">
-        <v>0.209</v>
+        <v>0.1545</v>
       </c>
       <c r="O10" t="n">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
       <c r="P10" t="s">
         <v>73</v>
@@ -3844,7 +3848,7 @@
         <v>82</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="D12" t="s">
         <v>83</v>
@@ -3854,28 +3858,32 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H12" t="n">
-        <v>9351953</v>
+        <v>9373559</v>
       </c>
       <c r="I12" t="n">
-        <v>5349.185</v>
+        <v>5361.543</v>
       </c>
       <c r="J12" t="n">
-        <v>13144</v>
+        <v>10682</v>
       </c>
       <c r="K12" t="n">
-        <v>7.518</v>
+        <v>6.11</v>
       </c>
       <c r="L12" t="n">
-        <v>12256</v>
+        <v>12028</v>
       </c>
       <c r="M12" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="N12"/>
-      <c r="O12"/>
+        <v>6.88</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.2373</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4.2</v>
+      </c>
       <c r="P12" t="s">
         <v>84</v>
       </c>
@@ -3897,7 +3905,7 @@
         <v>89</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -3907,28 +3915,32 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H13" t="n">
-        <v>13317436</v>
+        <v>13357284</v>
       </c>
       <c r="I13" t="n">
-        <v>80.079</v>
+        <v>80.319</v>
       </c>
       <c r="J13" t="n">
-        <v>25667</v>
+        <v>21543</v>
       </c>
       <c r="K13" t="n">
-        <v>0.154</v>
+        <v>0.13</v>
       </c>
       <c r="L13" t="n">
-        <v>25446</v>
+        <v>23981</v>
       </c>
       <c r="M13" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="N13"/>
-      <c r="O13"/>
+        <v>0.144</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0559</v>
+      </c>
+      <c r="O13" t="n">
+        <v>17.9</v>
+      </c>
       <c r="P13" t="s">
         <v>91</v>
       </c>
@@ -3950,7 +3962,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -3960,28 +3972,32 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H14" t="n">
-        <v>12389320</v>
+        <v>12427770</v>
       </c>
       <c r="I14" t="n">
-        <v>1312.029</v>
+        <v>1316.101</v>
       </c>
       <c r="J14" t="n">
-        <v>22089</v>
+        <v>19136</v>
       </c>
       <c r="K14" t="n">
-        <v>2.339</v>
+        <v>2.027</v>
       </c>
       <c r="L14" t="n">
-        <v>20184</v>
+        <v>19599</v>
       </c>
       <c r="M14" t="n">
-        <v>2.137</v>
-      </c>
-      <c r="N14"/>
-      <c r="O14"/>
+        <v>2.076</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.2497</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4</v>
+      </c>
       <c r="P14" t="s">
         <v>97</v>
       </c>
@@ -4003,7 +4019,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -4013,31 +4029,31 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H15" t="n">
-        <v>31587552</v>
+        <v>31622644</v>
       </c>
       <c r="I15" t="n">
-        <v>2715.496</v>
+        <v>2718.512</v>
       </c>
       <c r="J15" t="n">
-        <v>42686</v>
+        <v>34702</v>
       </c>
       <c r="K15" t="n">
-        <v>3.67</v>
+        <v>2.983</v>
       </c>
       <c r="L15" t="n">
-        <v>38994</v>
+        <v>37628</v>
       </c>
       <c r="M15" t="n">
-        <v>3.352</v>
+        <v>3.235</v>
       </c>
       <c r="N15" t="n">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="O15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="P15" t="s">
         <v>104</v>
@@ -4158,7 +4174,7 @@
         <v>118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="D18" t="s">
         <v>119</v>
@@ -4168,28 +4184,32 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H18" t="n">
-        <v>1689300</v>
+        <v>1711669</v>
       </c>
       <c r="I18" t="n">
-        <v>2166.047</v>
+        <v>2194.729</v>
       </c>
       <c r="J18" t="n">
-        <v>13746</v>
+        <v>13010</v>
       </c>
       <c r="K18" t="n">
-        <v>17.625</v>
+        <v>16.682</v>
       </c>
       <c r="L18" t="n">
-        <v>7792</v>
+        <v>8392</v>
       </c>
       <c r="M18" t="n">
-        <v>9.991</v>
-      </c>
-      <c r="N18"/>
-      <c r="O18"/>
+        <v>10.76</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="O18" t="n">
+        <v>27.8</v>
+      </c>
       <c r="P18" t="s">
         <v>43</v>
       </c>
@@ -4243,8 +4263,12 @@
       <c r="M19" t="n">
         <v>0.516</v>
       </c>
-      <c r="N19"/>
-      <c r="O19"/>
+      <c r="N19" t="n">
+        <v>0.1114</v>
+      </c>
+      <c r="O19" t="n">
+        <v>9</v>
+      </c>
       <c r="P19" t="s">
         <v>43</v>
       </c>
@@ -4423,7 +4447,7 @@
         <v>146</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D23" t="s">
         <v>147</v>
@@ -4433,31 +4457,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H23" t="n">
-        <v>9125177</v>
+        <v>9165927</v>
       </c>
       <c r="I23" t="n">
-        <v>1323.131</v>
+        <v>1329.04</v>
       </c>
       <c r="J23" t="n">
-        <v>18149</v>
+        <v>6559</v>
       </c>
       <c r="K23" t="n">
-        <v>2.632</v>
+        <v>0.951</v>
       </c>
       <c r="L23" t="n">
-        <v>21361</v>
+        <v>19273</v>
       </c>
       <c r="M23" t="n">
-        <v>3.097</v>
+        <v>2.795</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1621</v>
+        <v>0.1547</v>
       </c>
       <c r="O23" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="P23" t="s">
         <v>149</v>
@@ -4533,7 +4557,7 @@
         <v>156</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44615</v>
+        <v>44618</v>
       </c>
       <c r="D25" t="s">
         <v>36</v>
@@ -4543,27 +4567,27 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H25" t="n">
-        <v>1397502</v>
+        <v>1403912</v>
       </c>
       <c r="I25" t="n">
-        <v>114.031</v>
+        <v>114.554</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25" t="n">
-        <v>1368</v>
+        <v>1517</v>
       </c>
       <c r="M25" t="n">
-        <v>0.112</v>
+        <v>0.124</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0084</v>
+        <v>0.0109</v>
       </c>
       <c r="O25" t="n">
-        <v>119.7</v>
+        <v>91.5</v>
       </c>
       <c r="P25" t="s">
         <v>37</v>
@@ -4586,7 +4610,7 @@
         <v>159</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="D26" t="s">
         <v>160</v>
@@ -4596,25 +4620,25 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H26" t="n">
-        <v>2854942</v>
+        <v>2861152</v>
       </c>
       <c r="I26" t="n">
-        <v>168.468</v>
+        <v>168.835</v>
       </c>
       <c r="J26" t="n">
-        <v>2594</v>
+        <v>2066</v>
       </c>
       <c r="K26" t="n">
-        <v>0.153</v>
+        <v>0.122</v>
       </c>
       <c r="L26" t="n">
-        <v>3121</v>
+        <v>2410</v>
       </c>
       <c r="M26" t="n">
-        <v>0.184</v>
+        <v>0.142</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
@@ -4847,7 +4871,7 @@
         <v>182</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="D31" t="s">
         <v>183</v>
@@ -4857,28 +4881,32 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H31" t="n">
-        <v>32490390</v>
+        <v>32693218</v>
       </c>
       <c r="I31" t="n">
-        <v>1691.119</v>
+        <v>1701.676</v>
       </c>
       <c r="J31" t="n">
-        <v>108600</v>
+        <v>99813</v>
       </c>
       <c r="K31" t="n">
-        <v>5.653</v>
+        <v>5.195</v>
       </c>
       <c r="L31" t="n">
-        <v>97598</v>
+        <v>95338</v>
       </c>
       <c r="M31" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="N31"/>
-      <c r="O31"/>
+        <v>4.962</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.2847</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3.5</v>
+      </c>
       <c r="P31" t="s">
         <v>184</v>
       </c>
@@ -4953,7 +4981,7 @@
         <v>194</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D33" t="s">
         <v>195</v>
@@ -4963,31 +4991,31 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="H33" t="n">
-        <v>33024037</v>
+        <v>33104172</v>
       </c>
       <c r="I33" t="n">
-        <v>644.172</v>
+        <v>645.735</v>
       </c>
       <c r="J33" t="n">
-        <v>35053</v>
+        <v>29134</v>
       </c>
       <c r="K33" t="n">
-        <v>0.684</v>
+        <v>0.568</v>
       </c>
       <c r="L33" t="n">
-        <v>30944</v>
+        <v>30252</v>
       </c>
       <c r="M33" t="n">
-        <v>0.604</v>
+        <v>0.59</v>
       </c>
       <c r="N33" t="n">
-        <v>0.112</v>
+        <v>0.097</v>
       </c>
       <c r="O33" t="n">
-        <v>8.9</v>
+        <v>10.3</v>
       </c>
       <c r="P33" t="s">
         <v>196</v>
@@ -5010,7 +5038,7 @@
         <v>200</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="D34" t="s">
         <v>201</v>
@@ -5020,31 +5048,31 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H34" t="n">
-        <v>2829854</v>
+        <v>2838649</v>
       </c>
       <c r="I34" t="n">
-        <v>550.657</v>
+        <v>552.368</v>
       </c>
       <c r="J34" t="n">
-        <v>11734</v>
+        <v>8795</v>
       </c>
       <c r="K34" t="n">
-        <v>2.283</v>
+        <v>1.711</v>
       </c>
       <c r="L34" t="n">
-        <v>9873</v>
+        <v>9881</v>
       </c>
       <c r="M34" t="n">
-        <v>1.921</v>
+        <v>1.923</v>
       </c>
       <c r="N34" t="n">
-        <v>0.32</v>
+        <v>0.313</v>
       </c>
       <c r="O34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P34" t="s">
         <v>202</v>
@@ -5067,7 +5095,7 @@
         <v>205</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D35" t="s">
         <v>36</v>
@@ -5077,31 +5105,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H35" t="n">
-        <v>1406040</v>
+        <v>1414287</v>
       </c>
       <c r="I35" t="n">
-        <v>51.972</v>
+        <v>52.277</v>
       </c>
       <c r="J35" t="n">
-        <v>2392</v>
+        <v>2689</v>
       </c>
       <c r="K35" t="n">
-        <v>0.088</v>
+        <v>0.099</v>
       </c>
       <c r="L35" t="n">
-        <v>2330</v>
+        <v>2430</v>
       </c>
       <c r="M35" t="n">
-        <v>0.086</v>
+        <v>0.09</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0078</v>
+        <v>0.0059</v>
       </c>
       <c r="O35" t="n">
-        <v>127.4</v>
+        <v>170.1</v>
       </c>
       <c r="P35" t="s">
         <v>37</v>
@@ -5124,7 +5152,7 @@
         <v>208</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="D36" t="s">
         <v>209</v>
@@ -5134,28 +5162,32 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H36" t="n">
-        <v>4502474</v>
+        <v>4512457</v>
       </c>
       <c r="I36" t="n">
-        <v>1103.1</v>
+        <v>1105.545</v>
       </c>
       <c r="J36" t="n">
-        <v>6344</v>
+        <v>4317</v>
       </c>
       <c r="K36" t="n">
-        <v>1.554</v>
+        <v>1.058</v>
       </c>
       <c r="L36" t="n">
-        <v>7151</v>
+        <v>6821</v>
       </c>
       <c r="M36" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="N36"/>
-      <c r="O36"/>
+        <v>1.671</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.2803</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3.6</v>
+      </c>
       <c r="P36" t="s">
         <v>210</v>
       </c>
@@ -5236,7 +5268,7 @@
         <v>221</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D38" t="s">
         <v>222</v>
@@ -5246,28 +5278,32 @@
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="H38" t="n">
-        <v>25264396</v>
+        <v>25569789</v>
       </c>
       <c r="I38" t="n">
-        <v>28196.713</v>
+        <v>28537.552</v>
       </c>
       <c r="J38" t="n">
-        <v>110229</v>
+        <v>93207</v>
       </c>
       <c r="K38" t="n">
-        <v>123.023</v>
+        <v>104.025</v>
       </c>
       <c r="L38" t="n">
-        <v>103120</v>
+        <v>107067</v>
       </c>
       <c r="M38" t="n">
-        <v>115.089</v>
-      </c>
-      <c r="N38"/>
-      <c r="O38"/>
+        <v>119.494</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="O38" t="n">
+        <v>53.8</v>
+      </c>
       <c r="P38" t="s">
         <v>43</v>
       </c>
@@ -5289,7 +5325,7 @@
         <v>225</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="D39" t="s">
         <v>226</v>
@@ -5299,28 +5335,28 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H39" t="n">
-        <v>51587474</v>
+        <v>51664323</v>
       </c>
       <c r="I39" t="n">
-        <v>4810.221</v>
+        <v>4817.387</v>
       </c>
       <c r="J39" t="n">
-        <v>45324</v>
+        <v>24455</v>
       </c>
       <c r="K39" t="n">
-        <v>4.226</v>
+        <v>2.28</v>
       </c>
       <c r="L39" t="n">
-        <v>50429</v>
+        <v>45014</v>
       </c>
       <c r="M39" t="n">
-        <v>4.702</v>
+        <v>4.197</v>
       </c>
       <c r="N39" t="n">
-        <v>0.213</v>
+        <v>0.215</v>
       </c>
       <c r="O39" t="n">
         <v>4.7</v>
@@ -5456,7 +5492,7 @@
         <v>240</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44615</v>
+        <v>44619</v>
       </c>
       <c r="D42" t="s">
         <v>36</v>
@@ -5466,27 +5502,31 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H42" t="n">
-        <v>283058</v>
+        <v>284464</v>
       </c>
       <c r="I42" t="n">
-        <v>282.437</v>
-      </c>
-      <c r="J42"/>
-      <c r="K42"/>
+        <v>283.84</v>
+      </c>
+      <c r="J42" t="n">
+        <v>321</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.32</v>
+      </c>
       <c r="L42" t="n">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="M42" t="n">
-        <v>0.453</v>
+        <v>0.423</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0025</v>
+        <v>0.0017</v>
       </c>
       <c r="O42" t="n">
-        <v>397.2</v>
+        <v>593.8</v>
       </c>
       <c r="P42" t="s">
         <v>37</v>
@@ -5731,7 +5771,7 @@
         <v>267</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D47" t="s">
         <v>268</v>
@@ -5741,28 +5781,28 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="H47" t="n">
-        <v>3096316</v>
+        <v>3115090</v>
       </c>
       <c r="I47" t="n">
-        <v>2336.511</v>
+        <v>2350.678</v>
       </c>
       <c r="J47" t="n">
-        <v>8228</v>
+        <v>4373</v>
       </c>
       <c r="K47" t="n">
-        <v>6.209</v>
+        <v>3.3</v>
       </c>
       <c r="L47" t="n">
-        <v>8827</v>
+        <v>8032</v>
       </c>
       <c r="M47" t="n">
-        <v>6.661</v>
+        <v>6.061</v>
       </c>
       <c r="N47" t="n">
-        <v>0.5988</v>
+        <v>0.5763</v>
       </c>
       <c r="O47" t="n">
         <v>1.7</v>
@@ -5788,7 +5828,7 @@
         <v>272</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D48" t="s">
         <v>36</v>
@@ -5798,31 +5838,31 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H48" t="n">
-        <v>4480864</v>
+        <v>4497273</v>
       </c>
       <c r="I48" t="n">
-        <v>38.013</v>
+        <v>38.153</v>
       </c>
       <c r="J48" t="n">
-        <v>5825</v>
+        <v>5211</v>
       </c>
       <c r="K48" t="n">
-        <v>0.049</v>
+        <v>0.044</v>
       </c>
       <c r="L48" t="n">
-        <v>5120</v>
+        <v>5660</v>
       </c>
       <c r="M48" t="n">
-        <v>0.043</v>
+        <v>0.048</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0164</v>
+        <v>0.0083</v>
       </c>
       <c r="O48" t="n">
-        <v>60.8</v>
+        <v>120.4</v>
       </c>
       <c r="P48" t="s">
         <v>273</v>
@@ -5845,7 +5885,7 @@
         <v>277</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="D49" t="s">
         <v>278</v>
@@ -5855,31 +5895,27 @@
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49" t="n">
-        <v>777084</v>
+        <v>777845</v>
       </c>
       <c r="I49" t="n">
-        <v>15841.722</v>
-      </c>
-      <c r="J49" t="n">
-        <v>391</v>
-      </c>
-      <c r="K49" t="n">
-        <v>7.971</v>
-      </c>
+        <v>15857.236</v>
+      </c>
+      <c r="J49"/>
+      <c r="K49"/>
       <c r="L49" t="n">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="M49" t="n">
-        <v>11.804</v>
+        <v>10.988</v>
       </c>
       <c r="N49" t="n">
-        <v>0.6445</v>
+        <v>0.6621</v>
       </c>
       <c r="O49" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P49" t="s">
         <v>279</v>
@@ -5902,7 +5938,7 @@
         <v>284</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D50" t="s">
         <v>285</v>
@@ -5912,21 +5948,21 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H50" t="n">
-        <v>496558</v>
+        <v>497039</v>
       </c>
       <c r="I50" t="n">
-        <v>549.96</v>
+        <v>550.492</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="M50" t="n">
-        <v>0.19</v>
+        <v>0.207</v>
       </c>
       <c r="N50"/>
       <c r="O50"/>
@@ -5951,7 +5987,7 @@
         <v>290</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44615</v>
+        <v>44618</v>
       </c>
       <c r="D51" t="s">
         <v>291</v>
@@ -5961,31 +5997,31 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="H51" t="n">
-        <v>9903281</v>
+        <v>9927042</v>
       </c>
       <c r="I51" t="n">
-        <v>1784.902</v>
+        <v>1789.185</v>
       </c>
       <c r="J51" t="n">
-        <v>12223</v>
+        <v>2578</v>
       </c>
       <c r="K51" t="n">
-        <v>2.203</v>
+        <v>0.465</v>
       </c>
       <c r="L51" t="n">
-        <v>14509</v>
+        <v>10787</v>
       </c>
       <c r="M51" t="n">
-        <v>2.615</v>
+        <v>1.944</v>
       </c>
       <c r="N51" t="n">
-        <v>0.291</v>
+        <v>0.201</v>
       </c>
       <c r="O51" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P51" t="s">
         <v>293</v>
@@ -6008,7 +6044,7 @@
         <v>297</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44614</v>
+        <v>44616</v>
       </c>
       <c r="D52" t="s">
         <v>298</v>
@@ -6018,31 +6054,31 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H52" t="n">
-        <v>245967578</v>
+        <v>246600349</v>
       </c>
       <c r="I52" t="n">
-        <v>3648.18</v>
+        <v>3657.565</v>
       </c>
       <c r="J52" t="n">
-        <v>340422</v>
+        <v>302559</v>
       </c>
       <c r="K52" t="n">
-        <v>5.049</v>
+        <v>4.488</v>
       </c>
       <c r="L52" t="n">
-        <v>334749</v>
+        <v>313892</v>
       </c>
       <c r="M52" t="n">
-        <v>4.965</v>
+        <v>4.656</v>
       </c>
       <c r="N52" t="n">
-        <v>0.222</v>
+        <v>0.212</v>
       </c>
       <c r="O52" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="P52" t="s">
         <v>299</v>
@@ -6201,8 +6237,12 @@
       <c r="M55" t="n">
         <v>6.131</v>
       </c>
-      <c r="N55"/>
-      <c r="O55"/>
+      <c r="N55" t="n">
+        <v>0.3848</v>
+      </c>
+      <c r="O55" t="n">
+        <v>2.6</v>
+      </c>
       <c r="P55" t="s">
         <v>313</v>
       </c>
@@ -6330,7 +6370,7 @@
         <v>326</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="D58" t="s">
         <v>327</v>
@@ -6340,28 +6380,32 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H58" t="n">
-        <v>64927413</v>
+        <v>65433870</v>
       </c>
       <c r="I58" t="n">
-        <v>6260.63</v>
+        <v>6309.465</v>
       </c>
       <c r="J58" t="n">
-        <v>356333</v>
+        <v>197080</v>
       </c>
       <c r="K58" t="n">
-        <v>34.359</v>
+        <v>19.003</v>
       </c>
       <c r="L58" t="n">
-        <v>303689</v>
+        <v>312344</v>
       </c>
       <c r="M58" t="n">
-        <v>29.283</v>
-      </c>
-      <c r="N58"/>
-      <c r="O58"/>
+        <v>30.118</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.0487</v>
+      </c>
+      <c r="O58" t="n">
+        <v>20.5</v>
+      </c>
       <c r="P58" t="s">
         <v>329</v>
       </c>
@@ -6591,7 +6635,7 @@
         <v>359</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="D63" t="s">
         <v>360</v>
@@ -6603,25 +6647,25 @@
         <v>362</v>
       </c>
       <c r="G63" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H63" t="n">
-        <v>10283077</v>
+        <v>10334151</v>
       </c>
       <c r="I63" t="n">
-        <v>1067.356</v>
+        <v>1072.657</v>
       </c>
       <c r="J63" t="n">
-        <v>22634</v>
+        <v>51074</v>
       </c>
       <c r="K63" t="n">
-        <v>2.349</v>
+        <v>5.301</v>
       </c>
       <c r="L63" t="n">
-        <v>19552</v>
+        <v>17452</v>
       </c>
       <c r="M63" t="n">
-        <v>2.029</v>
+        <v>1.811</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
@@ -6699,7 +6743,7 @@
         <v>371</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44616</v>
+        <v>44620</v>
       </c>
       <c r="D65" t="s">
         <v>372</v>
@@ -6711,32 +6755,28 @@
         <v>374</v>
       </c>
       <c r="G65" t="n">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="H65" t="n">
-        <v>763569165</v>
+        <v>767481346</v>
       </c>
       <c r="I65" t="n">
-        <v>547.986</v>
+        <v>550.794</v>
       </c>
       <c r="J65" t="n">
-        <v>1155147</v>
+        <v>723828</v>
       </c>
       <c r="K65" t="n">
-        <v>0.829</v>
+        <v>0.519</v>
       </c>
       <c r="L65" t="n">
-        <v>1148101</v>
+        <v>1047859</v>
       </c>
       <c r="M65" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0.0142</v>
-      </c>
-      <c r="O65" t="n">
-        <v>70.4</v>
-      </c>
+        <v>0.752</v>
+      </c>
+      <c r="N65"/>
+      <c r="O65"/>
       <c r="P65" t="s">
         <v>373</v>
       </c>
@@ -6758,7 +6798,7 @@
         <v>377</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="D66" t="s">
         <v>378</v>
@@ -6768,25 +6808,25 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H66" t="n">
-        <v>55621829</v>
+        <v>56247315</v>
       </c>
       <c r="I66" t="n">
-        <v>201.265</v>
+        <v>203.528</v>
       </c>
       <c r="J66" t="n">
-        <v>275753</v>
+        <v>137569</v>
       </c>
       <c r="K66" t="n">
-        <v>0.998</v>
+        <v>0.498</v>
       </c>
       <c r="L66" t="n">
-        <v>288263</v>
+        <v>260739</v>
       </c>
       <c r="M66" t="n">
-        <v>1.043</v>
+        <v>0.943</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
@@ -6811,7 +6851,7 @@
         <v>383</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="D67" t="s">
         <v>384</v>
@@ -6821,21 +6861,25 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H67" t="n">
-        <v>47014581</v>
+        <v>47252235</v>
       </c>
       <c r="I67" t="n">
-        <v>552.926</v>
-      </c>
-      <c r="J67"/>
-      <c r="K67"/>
+        <v>555.721</v>
+      </c>
+      <c r="J67" t="n">
+        <v>83246</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.979</v>
+      </c>
       <c r="L67" t="n">
-        <v>78349</v>
+        <v>78674</v>
       </c>
       <c r="M67" t="n">
-        <v>0.921</v>
+        <v>0.925</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
@@ -6943,8 +6987,12 @@
       <c r="M69" t="n">
         <v>2.696</v>
       </c>
-      <c r="N69"/>
-      <c r="O69"/>
+      <c r="N69" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="O69" t="n">
+        <v>3.5</v>
+      </c>
       <c r="P69" t="s">
         <v>399</v>
       </c>
@@ -6966,7 +7014,7 @@
         <v>403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D70" t="s">
         <v>404</v>
@@ -6976,31 +7024,31 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="H70" t="n">
-        <v>48571375</v>
+        <v>48742063</v>
       </c>
       <c r="I70" t="n">
-        <v>5227.788</v>
+        <v>5246.159</v>
       </c>
       <c r="J70" t="n">
-        <v>80706</v>
+        <v>69902</v>
       </c>
       <c r="K70" t="n">
-        <v>8.686</v>
+        <v>7.524</v>
       </c>
       <c r="L70" t="n">
-        <v>81558</v>
+        <v>74265</v>
       </c>
       <c r="M70" t="n">
-        <v>8.778</v>
+        <v>7.993</v>
       </c>
       <c r="N70" t="n">
-        <v>0.1577</v>
+        <v>0.1402</v>
       </c>
       <c r="O70" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="P70" t="s">
         <v>43</v>
@@ -7023,7 +7071,7 @@
         <v>408</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="D71" t="s">
         <v>409</v>
@@ -7035,28 +7083,32 @@
         <v>411</v>
       </c>
       <c r="G71" t="n">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H71" t="n">
-        <v>186386005</v>
+        <v>187137866</v>
       </c>
       <c r="I71" t="n">
-        <v>3087.524</v>
+        <v>3099.979</v>
       </c>
       <c r="J71" t="n">
-        <v>440115</v>
+        <v>317784</v>
       </c>
       <c r="K71" t="n">
-        <v>7.291</v>
+        <v>5.264</v>
       </c>
       <c r="L71" t="n">
-        <v>443474</v>
+        <v>427337</v>
       </c>
       <c r="M71" t="n">
-        <v>7.346</v>
-      </c>
-      <c r="N71"/>
-      <c r="O71"/>
+        <v>7.079</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.0985</v>
+      </c>
+      <c r="O71" t="n">
+        <v>10.2</v>
+      </c>
       <c r="P71" t="s">
         <v>412</v>
       </c>
@@ -7078,7 +7130,7 @@
         <v>416</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44615</v>
+        <v>44618</v>
       </c>
       <c r="D72" t="s">
         <v>417</v>
@@ -7088,31 +7140,31 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H72" t="n">
-        <v>843150</v>
+        <v>848470</v>
       </c>
       <c r="I72" t="n">
-        <v>283.558</v>
+        <v>285.348</v>
       </c>
       <c r="J72" t="n">
-        <v>2227</v>
+        <v>2504</v>
       </c>
       <c r="K72" t="n">
-        <v>0.749</v>
+        <v>0.842</v>
       </c>
       <c r="L72" t="n">
-        <v>2091</v>
+        <v>1922</v>
       </c>
       <c r="M72" t="n">
-        <v>0.703</v>
+        <v>0.646</v>
       </c>
       <c r="N72" t="n">
-        <v>0.0305</v>
+        <v>0.0297</v>
       </c>
       <c r="O72" t="n">
-        <v>32.7</v>
+        <v>33.6</v>
       </c>
       <c r="P72" t="s">
         <v>418</v>
@@ -7135,7 +7187,7 @@
         <v>422</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D73" t="s">
         <v>423</v>
@@ -7145,31 +7197,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="H73" t="n">
-        <v>36805681</v>
+        <v>37263716</v>
       </c>
       <c r="I73" t="n">
-        <v>291.991</v>
+        <v>295.625</v>
       </c>
       <c r="J73" t="n">
-        <v>184714</v>
+        <v>72181</v>
       </c>
       <c r="K73" t="n">
-        <v>1.465</v>
+        <v>0.573</v>
       </c>
       <c r="L73" t="n">
-        <v>167782</v>
+        <v>165847</v>
       </c>
       <c r="M73" t="n">
-        <v>1.331</v>
+        <v>1.316</v>
       </c>
       <c r="N73" t="n">
-        <v>0.4286</v>
+        <v>0.3998</v>
       </c>
       <c r="O73" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="P73" t="s">
         <v>424</v>
@@ -7192,7 +7244,7 @@
         <v>428</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="D74" t="s">
         <v>429</v>
@@ -7202,28 +7254,32 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H74" t="n">
-        <v>16187673</v>
+        <v>16246059</v>
       </c>
       <c r="I74" t="n">
-        <v>1576.36</v>
+        <v>1582.045</v>
       </c>
       <c r="J74" t="n">
-        <v>42668</v>
+        <v>35040</v>
       </c>
       <c r="K74" t="n">
-        <v>4.155</v>
+        <v>3.412</v>
       </c>
       <c r="L74" t="n">
-        <v>48654</v>
+        <v>39742</v>
       </c>
       <c r="M74" t="n">
-        <v>4.738</v>
-      </c>
-      <c r="N74"/>
-      <c r="O74"/>
+        <v>3.87</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="O74" t="n">
+        <v>5.3</v>
+      </c>
       <c r="P74" t="s">
         <v>430</v>
       </c>
@@ -7302,7 +7358,7 @@
         <v>439</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D76" t="s">
         <v>36</v>
@@ -7312,31 +7368,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H76" t="n">
-        <v>3351782</v>
+        <v>3368063</v>
       </c>
       <c r="I76" t="n">
-        <v>60.957</v>
+        <v>61.253</v>
       </c>
       <c r="J76" t="n">
-        <v>5211</v>
+        <v>4459</v>
       </c>
       <c r="K76" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5240</v>
+      </c>
+      <c r="M76" t="n">
         <v>0.095</v>
       </c>
-      <c r="L76" t="n">
-        <v>5313</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.097</v>
-      </c>
       <c r="N76" t="n">
-        <v>0.0056</v>
+        <v>0.0064</v>
       </c>
       <c r="O76" t="n">
-        <v>178.8</v>
+        <v>156.8</v>
       </c>
       <c r="P76" t="s">
         <v>37</v>
@@ -7359,7 +7415,7 @@
         <v>442</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44616</v>
+        <v>44617</v>
       </c>
       <c r="D77" t="s">
         <v>443</v>
@@ -7369,31 +7425,31 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H77" t="n">
-        <v>1758767</v>
+        <v>1762284</v>
       </c>
       <c r="I77" t="n">
-        <v>986.899</v>
+        <v>988.872</v>
       </c>
       <c r="J77" t="n">
-        <v>2060</v>
+        <v>3517</v>
       </c>
       <c r="K77" t="n">
-        <v>1.156</v>
+        <v>1.973</v>
       </c>
       <c r="L77" t="n">
-        <v>2334</v>
+        <v>2437</v>
       </c>
       <c r="M77" t="n">
-        <v>1.31</v>
+        <v>1.367</v>
       </c>
       <c r="N77" t="n">
-        <v>0.084</v>
+        <v>0.0749</v>
       </c>
       <c r="O77" t="n">
-        <v>11.9</v>
+        <v>13.4</v>
       </c>
       <c r="P77" t="s">
         <v>445</v>
@@ -7416,7 +7472,7 @@
         <v>448</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="D78" t="s">
         <v>449</v>
@@ -7426,28 +7482,32 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H78" t="n">
-        <v>7581627</v>
+        <v>7626573</v>
       </c>
       <c r="I78" t="n">
-        <v>1751.538</v>
+        <v>1761.922</v>
       </c>
       <c r="J78" t="n">
-        <v>28597</v>
+        <v>22357</v>
       </c>
       <c r="K78" t="n">
-        <v>6.607</v>
+        <v>5.165</v>
       </c>
       <c r="L78" t="n">
-        <v>22168</v>
+        <v>22551</v>
       </c>
       <c r="M78" t="n">
-        <v>5.121</v>
-      </c>
-      <c r="N78"/>
-      <c r="O78"/>
+        <v>5.21</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.0399</v>
+      </c>
+      <c r="O78" t="n">
+        <v>25.1</v>
+      </c>
       <c r="P78" t="s">
         <v>450</v>
       </c>
@@ -7499,8 +7559,12 @@
       <c r="M79" t="n">
         <v>0.175</v>
       </c>
-      <c r="N79"/>
-      <c r="O79"/>
+      <c r="N79" t="n">
+        <v>0.1808</v>
+      </c>
+      <c r="O79" t="n">
+        <v>5.5</v>
+      </c>
       <c r="P79" t="s">
         <v>456</v>
       </c>
@@ -7522,7 +7586,7 @@
         <v>460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="D80" t="s">
         <v>461</v>
@@ -7534,25 +7598,25 @@
         <v>463</v>
       </c>
       <c r="G80" t="n">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="H80" t="n">
-        <v>6617365</v>
+        <v>6659486</v>
       </c>
       <c r="I80" t="n">
-        <v>3544.509</v>
+        <v>3567.071</v>
       </c>
       <c r="J80" t="n">
-        <v>22269</v>
+        <v>7649</v>
       </c>
       <c r="K80" t="n">
-        <v>11.928</v>
+        <v>4.097</v>
       </c>
       <c r="L80" t="n">
-        <v>20744</v>
+        <v>19438</v>
       </c>
       <c r="M80" t="n">
-        <v>11.111</v>
+        <v>10.412</v>
       </c>
       <c r="N80"/>
       <c r="O80"/>
@@ -7626,7 +7690,7 @@
         <v>471</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D82" t="s">
         <v>472</v>
@@ -7636,15 +7700,15 @@
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82" t="n">
-        <v>4495</v>
+        <v>3585</v>
       </c>
       <c r="K82" t="n">
-        <v>0.646</v>
+        <v>0.515</v>
       </c>
       <c r="L82"/>
       <c r="M82"/>
@@ -7728,7 +7792,7 @@
         <v>483</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="D84" t="s">
         <v>484</v>
@@ -7738,31 +7802,31 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="H84" t="n">
-        <v>8053936</v>
+        <v>8121665</v>
       </c>
       <c r="I84" t="n">
-        <v>2994.182</v>
+        <v>3019.361</v>
       </c>
       <c r="J84" t="n">
-        <v>8360</v>
+        <v>13354</v>
       </c>
       <c r="K84" t="n">
-        <v>3.108</v>
+        <v>4.965</v>
       </c>
       <c r="L84" t="n">
-        <v>15668</v>
+        <v>15443</v>
       </c>
       <c r="M84" t="n">
-        <v>5.825</v>
+        <v>5.741</v>
       </c>
       <c r="N84" t="n">
-        <v>0.513</v>
+        <v>0.501</v>
       </c>
       <c r="O84" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P84" t="s">
         <v>485</v>
@@ -7842,7 +7906,7 @@
         <v>493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44605</v>
+        <v>44618</v>
       </c>
       <c r="D86" t="s">
         <v>36</v>
@@ -7852,27 +7916,27 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H86" t="n">
-        <v>387097</v>
+        <v>398434</v>
       </c>
       <c r="I86" t="n">
-        <v>13.617</v>
+        <v>14.016</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86" t="n">
-        <v>1166</v>
+        <v>872</v>
       </c>
       <c r="M86" t="n">
-        <v>0.041</v>
+        <v>0.031</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1728</v>
+        <v>0.037</v>
       </c>
       <c r="O86" t="n">
-        <v>5.8</v>
+        <v>27</v>
       </c>
       <c r="P86" t="s">
         <v>37</v>
@@ -7895,7 +7959,7 @@
         <v>496</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D87" t="s">
         <v>36</v>
@@ -7905,31 +7969,31 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H87" t="n">
-        <v>544043</v>
+        <v>545444</v>
       </c>
       <c r="I87" t="n">
-        <v>27.69</v>
+        <v>27.761</v>
       </c>
       <c r="J87" t="n">
-        <v>486</v>
+        <v>548</v>
       </c>
       <c r="K87" t="n">
-        <v>0.025</v>
+        <v>0.028</v>
       </c>
       <c r="L87" t="n">
-        <v>565</v>
+        <v>514</v>
       </c>
       <c r="M87" t="n">
-        <v>0.029</v>
+        <v>0.026</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0359</v>
+        <v>0.0303</v>
       </c>
       <c r="O87" t="n">
-        <v>27.9</v>
+        <v>33</v>
       </c>
       <c r="P87" t="s">
         <v>37</v>
@@ -7952,7 +8016,7 @@
         <v>499</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="D88" t="s">
         <v>500</v>
@@ -7964,31 +8028,31 @@
         <v>502</v>
       </c>
       <c r="G88" t="n">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H88" t="n">
-        <v>50243083</v>
+        <v>50649065</v>
       </c>
       <c r="I88" t="n">
-        <v>1532.914</v>
+        <v>1545.3</v>
       </c>
       <c r="J88" t="n">
-        <v>249498</v>
+        <v>192626</v>
       </c>
       <c r="K88" t="n">
-        <v>7.612</v>
+        <v>5.877</v>
       </c>
       <c r="L88" t="n">
-        <v>253052</v>
+        <v>236382</v>
       </c>
       <c r="M88" t="n">
-        <v>7.721</v>
+        <v>7.212</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1093</v>
+        <v>0.122</v>
       </c>
       <c r="O88" t="n">
-        <v>9.1</v>
+        <v>8.2</v>
       </c>
       <c r="P88" t="s">
         <v>43</v>
@@ -8011,7 +8075,7 @@
         <v>506</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="D89" t="s">
         <v>507</v>
@@ -8021,28 +8085,32 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H89" t="n">
-        <v>2175439</v>
+        <v>2181295</v>
       </c>
       <c r="I89" t="n">
-        <v>4001.764</v>
+        <v>4012.536</v>
       </c>
       <c r="J89" t="n">
-        <v>3223</v>
+        <v>3014</v>
       </c>
       <c r="K89" t="n">
-        <v>5.929</v>
+        <v>5.544</v>
       </c>
       <c r="L89" t="n">
-        <v>3775</v>
+        <v>3560</v>
       </c>
       <c r="M89" t="n">
-        <v>6.944</v>
-      </c>
-      <c r="N89"/>
-      <c r="O89"/>
+        <v>6.549</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.1829</v>
+      </c>
+      <c r="O89" t="n">
+        <v>5.5</v>
+      </c>
       <c r="P89" t="s">
         <v>508</v>
       </c>
@@ -8064,7 +8132,7 @@
         <v>512</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="D90" t="s">
         <v>513</v>
@@ -8074,25 +8142,25 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="H90" t="n">
-        <v>1735023</v>
+        <v>1739475</v>
       </c>
       <c r="I90" t="n">
-        <v>3361.796</v>
+        <v>3370.422</v>
       </c>
       <c r="J90" t="n">
-        <v>1638</v>
+        <v>1347</v>
       </c>
       <c r="K90" t="n">
-        <v>3.174</v>
+        <v>2.61</v>
       </c>
       <c r="L90" t="n">
-        <v>1681</v>
+        <v>1635</v>
       </c>
       <c r="M90" t="n">
-        <v>3.257</v>
+        <v>3.168</v>
       </c>
       <c r="N90"/>
       <c r="O90"/>
@@ -8117,7 +8185,7 @@
         <v>519</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D91" t="s">
         <v>36</v>
@@ -8127,31 +8195,31 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H91" t="n">
-        <v>881238</v>
+        <v>888998</v>
       </c>
       <c r="I91" t="n">
-        <v>184.548</v>
+        <v>186.173</v>
       </c>
       <c r="J91" t="n">
-        <v>2040</v>
+        <v>1501</v>
       </c>
       <c r="K91" t="n">
-        <v>0.427</v>
+        <v>0.314</v>
       </c>
       <c r="L91" t="n">
-        <v>1903</v>
+        <v>2190</v>
       </c>
       <c r="M91" t="n">
-        <v>0.399</v>
+        <v>0.459</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0021</v>
+        <v>0.0014</v>
       </c>
       <c r="O91" t="n">
-        <v>475.8</v>
+        <v>730</v>
       </c>
       <c r="P91" t="s">
         <v>520</v>
@@ -8174,7 +8242,7 @@
         <v>524</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44615</v>
+        <v>44618</v>
       </c>
       <c r="D92" t="s">
         <v>525</v>
@@ -8184,31 +8252,31 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="H92" t="n">
-        <v>14348027</v>
+        <v>14419368</v>
       </c>
       <c r="I92" t="n">
-        <v>110.147</v>
+        <v>110.695</v>
       </c>
       <c r="J92" t="n">
-        <v>6436</v>
+        <v>1442</v>
       </c>
       <c r="K92" t="n">
-        <v>0.049</v>
+        <v>0.011</v>
       </c>
       <c r="L92" t="n">
-        <v>11082</v>
+        <v>9897</v>
       </c>
       <c r="M92" t="n">
-        <v>0.085</v>
+        <v>0.076</v>
       </c>
       <c r="N92" t="n">
-        <v>0.384</v>
+        <v>0.36</v>
       </c>
       <c r="O92" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="P92" t="s">
         <v>527</v>
@@ -8231,7 +8299,7 @@
         <v>530</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44616</v>
+        <v>44617</v>
       </c>
       <c r="D93" t="s">
         <v>531</v>
@@ -8241,15 +8309,15 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93" t="n">
-        <v>7714</v>
+        <v>7364</v>
       </c>
       <c r="K93" t="n">
-        <v>1.917</v>
+        <v>1.83</v>
       </c>
       <c r="L93"/>
       <c r="M93"/>
@@ -8276,7 +8344,7 @@
         <v>537</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="D94" t="s">
         <v>538</v>
@@ -8286,25 +8354,21 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H94" t="n">
-        <v>7135436</v>
+        <v>7156454</v>
       </c>
       <c r="I94" t="n">
-        <v>2143.236</v>
-      </c>
-      <c r="J94" t="n">
-        <v>8566</v>
-      </c>
-      <c r="K94" t="n">
-        <v>2.573</v>
-      </c>
+        <v>2149.549</v>
+      </c>
+      <c r="J94"/>
+      <c r="K94"/>
       <c r="L94" t="n">
-        <v>7573</v>
+        <v>8406</v>
       </c>
       <c r="M94" t="n">
-        <v>2.275</v>
+        <v>2.525</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
@@ -8329,7 +8393,7 @@
         <v>542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="D95" t="s">
         <v>543</v>
@@ -8339,28 +8403,32 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H95" t="n">
-        <v>11012702</v>
+        <v>11028453</v>
       </c>
       <c r="I95" t="n">
-        <v>294.893</v>
+        <v>295.314</v>
       </c>
       <c r="J95" t="n">
-        <v>14801</v>
+        <v>15751</v>
       </c>
       <c r="K95" t="n">
-        <v>0.396</v>
+        <v>0.422</v>
       </c>
       <c r="L95" t="n">
-        <v>14966</v>
+        <v>14671</v>
       </c>
       <c r="M95" t="n">
-        <v>0.401</v>
-      </c>
-      <c r="N95"/>
-      <c r="O95"/>
+        <v>0.393</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.0203</v>
+      </c>
+      <c r="O95" t="n">
+        <v>49.3</v>
+      </c>
       <c r="P95" t="s">
         <v>544</v>
       </c>
@@ -8382,7 +8450,7 @@
         <v>548</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44615</v>
+        <v>44618</v>
       </c>
       <c r="D96" t="s">
         <v>36</v>
@@ -8392,27 +8460,27 @@
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H96" t="n">
-        <v>1262889</v>
+        <v>1266050</v>
       </c>
       <c r="I96" t="n">
-        <v>39.265</v>
+        <v>39.363</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
       <c r="L96" t="n">
-        <v>1395</v>
+        <v>1317</v>
       </c>
       <c r="M96" t="n">
-        <v>0.043</v>
+        <v>0.041</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0197</v>
+        <v>0.0167</v>
       </c>
       <c r="O96" t="n">
-        <v>50.9</v>
+        <v>59.9</v>
       </c>
       <c r="P96" t="s">
         <v>37</v>
@@ -8435,7 +8503,7 @@
         <v>551</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="D97" t="s">
         <v>552</v>
@@ -8445,28 +8513,28 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H97" t="n">
-        <v>7056044</v>
+        <v>7100472</v>
       </c>
       <c r="I97" t="n">
-        <v>128.746</v>
-      </c>
-      <c r="J97" t="n">
-        <v>27158</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.496</v>
-      </c>
+        <v>129.556</v>
+      </c>
+      <c r="J97"/>
+      <c r="K97"/>
       <c r="L97" t="n">
-        <v>30912</v>
+        <v>27567</v>
       </c>
       <c r="M97" t="n">
-        <v>0.564</v>
-      </c>
-      <c r="N97"/>
-      <c r="O97"/>
+        <v>0.503</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.1064</v>
+      </c>
+      <c r="O97" t="n">
+        <v>9.4</v>
+      </c>
       <c r="P97" t="s">
         <v>553</v>
       </c>
@@ -8488,7 +8556,7 @@
         <v>557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D98" t="s">
         <v>36</v>
@@ -8498,31 +8566,31 @@
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H98" t="n">
-        <v>949780</v>
+        <v>953850</v>
       </c>
       <c r="I98" t="n">
-        <v>367.087</v>
+        <v>368.66</v>
       </c>
       <c r="J98" t="n">
-        <v>1232</v>
+        <v>1810</v>
       </c>
       <c r="K98" t="n">
-        <v>0.476</v>
+        <v>0.7</v>
       </c>
       <c r="L98" t="n">
-        <v>1161</v>
+        <v>1276</v>
       </c>
       <c r="M98" t="n">
-        <v>0.449</v>
+        <v>0.493</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0237</v>
+        <v>0.0224</v>
       </c>
       <c r="O98" t="n">
-        <v>42.1</v>
+        <v>44.7</v>
       </c>
       <c r="P98" t="s">
         <v>558</v>
@@ -8545,7 +8613,7 @@
         <v>562</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="D99" t="s">
         <v>563</v>
@@ -8555,27 +8623,31 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="H99" t="n">
-        <v>6461400</v>
+        <v>6484603</v>
       </c>
       <c r="I99" t="n">
-        <v>217.739</v>
-      </c>
-      <c r="J99"/>
-      <c r="K99"/>
+        <v>218.521</v>
+      </c>
+      <c r="J99" t="n">
+        <v>8341</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.281</v>
+      </c>
       <c r="L99" t="n">
-        <v>8506</v>
+        <v>8242</v>
       </c>
       <c r="M99" t="n">
-        <v>0.287</v>
+        <v>0.278</v>
       </c>
       <c r="N99" t="n">
-        <v>0.043</v>
+        <v>0.033</v>
       </c>
       <c r="O99" t="n">
-        <v>23.3</v>
+        <v>30.3</v>
       </c>
       <c r="P99" t="s">
         <v>564</v>
@@ -8598,7 +8670,7 @@
         <v>568</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="D100" t="s">
         <v>569</v>
@@ -8608,28 +8680,28 @@
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H100" t="n">
-        <v>27963752</v>
+        <v>28066736</v>
       </c>
       <c r="I100" t="n">
-        <v>1628.347</v>
+        <v>1634.344</v>
       </c>
       <c r="J100" t="n">
-        <v>61876</v>
+        <v>47406</v>
       </c>
       <c r="K100" t="n">
-        <v>3.603</v>
+        <v>2.76</v>
       </c>
       <c r="L100" t="n">
-        <v>59511</v>
+        <v>57302</v>
       </c>
       <c r="M100" t="n">
-        <v>3.465</v>
+        <v>3.337</v>
       </c>
       <c r="N100" t="n">
-        <v>0.607</v>
+        <v>0.619</v>
       </c>
       <c r="O100" t="n">
         <v>1.6</v>
@@ -8655,7 +8727,7 @@
         <v>574</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="D101" t="s">
         <v>575</v>
@@ -8665,25 +8737,25 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="H101" t="n">
-        <v>6629650</v>
+        <v>6711198</v>
       </c>
       <c r="I101" t="n">
-        <v>1293.262</v>
+        <v>1309.17</v>
       </c>
       <c r="J101" t="n">
-        <v>30861</v>
+        <v>22743</v>
       </c>
       <c r="K101" t="n">
-        <v>6.02</v>
+        <v>4.437</v>
       </c>
       <c r="L101" t="n">
-        <v>28795</v>
+        <v>28220</v>
       </c>
       <c r="M101" t="n">
-        <v>5.617</v>
+        <v>5.505</v>
       </c>
       <c r="N101"/>
       <c r="O101"/>
@@ -8708,7 +8780,7 @@
         <v>580</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D102" t="s">
         <v>36</v>
@@ -8718,31 +8790,27 @@
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H102" t="n">
-        <v>227005</v>
+        <v>228105</v>
       </c>
       <c r="I102" t="n">
-        <v>9.033</v>
-      </c>
-      <c r="J102" t="n">
-        <v>327</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.013</v>
-      </c>
+        <v>9.077</v>
+      </c>
+      <c r="J102"/>
+      <c r="K102"/>
       <c r="L102" t="n">
-        <v>460</v>
+        <v>381</v>
       </c>
       <c r="M102" t="n">
-        <v>0.018</v>
+        <v>0.015</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0056</v>
+        <v>0.0049</v>
       </c>
       <c r="O102" t="n">
-        <v>178.9</v>
+        <v>205.2</v>
       </c>
       <c r="P102" t="s">
         <v>37</v>
@@ -8818,7 +8886,7 @@
         <v>588</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="D104" t="s">
         <v>589</v>
@@ -8828,28 +8896,32 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H104" t="n">
-        <v>1883560</v>
+        <v>1889266</v>
       </c>
       <c r="I104" t="n">
-        <v>904.401</v>
+        <v>907.14</v>
       </c>
       <c r="J104" t="n">
-        <v>2669</v>
+        <v>2560</v>
       </c>
       <c r="K104" t="n">
-        <v>1.282</v>
+        <v>1.229</v>
       </c>
       <c r="L104" t="n">
-        <v>3074</v>
+        <v>2997</v>
       </c>
       <c r="M104" t="n">
-        <v>1.476</v>
-      </c>
-      <c r="N104"/>
-      <c r="O104"/>
+        <v>1.439</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.1789</v>
+      </c>
+      <c r="O104" t="n">
+        <v>5.6</v>
+      </c>
       <c r="P104" t="s">
         <v>43</v>
       </c>
@@ -8871,7 +8943,7 @@
         <v>593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44615</v>
+        <v>44618</v>
       </c>
       <c r="D105" t="s">
         <v>594</v>
@@ -8881,31 +8953,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="H105" t="n">
-        <v>10703461</v>
+        <v>10750754</v>
       </c>
       <c r="I105" t="n">
-        <v>1958.322</v>
+        <v>1966.975</v>
       </c>
       <c r="J105" t="n">
-        <v>21256</v>
+        <v>6625</v>
       </c>
       <c r="K105" t="n">
-        <v>3.889</v>
+        <v>1.212</v>
       </c>
       <c r="L105" t="n">
-        <v>19716</v>
+        <v>18784</v>
       </c>
       <c r="M105" t="n">
-        <v>3.607</v>
+        <v>3.437</v>
       </c>
       <c r="N105" t="n">
-        <v>0.666</v>
+        <v>0.643</v>
       </c>
       <c r="O105" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="P105" t="s">
         <v>595</v>
@@ -8973,7 +9045,7 @@
         <v>604</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="D107" t="s">
         <v>605</v>
@@ -8983,25 +9055,25 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="H107" t="n">
-        <v>26299843</v>
+        <v>26426952</v>
       </c>
       <c r="I107" t="n">
-        <v>116.784</v>
+        <v>117.349</v>
       </c>
       <c r="J107" t="n">
-        <v>41142</v>
+        <v>33357</v>
       </c>
       <c r="K107" t="n">
-        <v>0.183</v>
+        <v>0.148</v>
       </c>
       <c r="L107" t="n">
-        <v>43238</v>
+        <v>41504</v>
       </c>
       <c r="M107" t="n">
-        <v>0.192</v>
+        <v>0.184</v>
       </c>
       <c r="N107"/>
       <c r="O107"/>
@@ -9026,7 +9098,7 @@
         <v>609</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="D108" t="s">
         <v>610</v>
@@ -9036,18 +9108,22 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108" t="n">
-        <v>4496</v>
+        <v>3546</v>
       </c>
       <c r="K108" t="n">
-        <v>0.861</v>
-      </c>
-      <c r="L108"/>
-      <c r="M108"/>
+        <v>0.679</v>
+      </c>
+      <c r="L108" t="n">
+        <v>4806</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.92</v>
+      </c>
       <c r="N108"/>
       <c r="O108"/>
       <c r="P108" t="s">
@@ -9071,7 +9147,7 @@
         <v>615</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D109" t="s">
         <v>616</v>
@@ -9081,31 +9157,31 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="H109" t="n">
-        <v>5490154</v>
+        <v>5510035</v>
       </c>
       <c r="I109" t="n">
-        <v>1253.007</v>
+        <v>1257.544</v>
       </c>
       <c r="J109" t="n">
-        <v>8631</v>
+        <v>4593</v>
       </c>
       <c r="K109" t="n">
-        <v>1.97</v>
+        <v>1.048</v>
       </c>
       <c r="L109" t="n">
-        <v>7989</v>
+        <v>7441</v>
       </c>
       <c r="M109" t="n">
-        <v>1.823</v>
+        <v>1.698</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1033</v>
+        <v>0.0864</v>
       </c>
       <c r="O109" t="n">
-        <v>9.7</v>
+        <v>11.6</v>
       </c>
       <c r="P109" t="s">
         <v>617</v>
@@ -9173,7 +9249,7 @@
         <v>625</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D111" t="s">
         <v>626</v>
@@ -9183,31 +9259,31 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="H111" t="n">
-        <v>2537927</v>
+        <v>2545783</v>
       </c>
       <c r="I111" t="n">
-        <v>351.531</v>
+        <v>352.619</v>
       </c>
       <c r="J111" t="n">
-        <v>2789</v>
+        <v>2547</v>
       </c>
       <c r="K111" t="n">
-        <v>0.386</v>
+        <v>0.353</v>
       </c>
       <c r="L111" t="n">
-        <v>3348</v>
+        <v>2842</v>
       </c>
       <c r="M111" t="n">
-        <v>0.464</v>
+        <v>0.394</v>
       </c>
       <c r="N111" t="n">
-        <v>0.2831</v>
+        <v>0.3288</v>
       </c>
       <c r="O111" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P111" t="s">
         <v>627</v>
@@ -9230,7 +9306,7 @@
         <v>631</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D112" t="s">
         <v>632</v>
@@ -9242,27 +9318,27 @@
         <v>633</v>
       </c>
       <c r="G112" t="n">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H112" t="n">
-        <v>27166379</v>
+        <v>27340836</v>
       </c>
       <c r="I112" t="n">
-        <v>814.354</v>
+        <v>819.584</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
       <c r="L112" t="n">
-        <v>55511</v>
+        <v>53018</v>
       </c>
       <c r="M112" t="n">
-        <v>1.664</v>
+        <v>1.589</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08</v>
+        <v>0.055</v>
       </c>
       <c r="O112" t="n">
-        <v>12.5</v>
+        <v>18.2</v>
       </c>
       <c r="P112" t="s">
         <v>196</v>
@@ -9285,7 +9361,7 @@
         <v>637</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44603</v>
+        <v>44610</v>
       </c>
       <c r="D113" t="s">
         <v>638</v>
@@ -9295,31 +9371,31 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="H113" t="n">
-        <v>26127209</v>
+        <v>26321315</v>
       </c>
       <c r="I113" t="n">
-        <v>235.281</v>
+        <v>237.029</v>
       </c>
       <c r="J113" t="n">
-        <v>29780</v>
+        <v>26764</v>
       </c>
       <c r="K113" t="n">
-        <v>0.268</v>
+        <v>0.241</v>
       </c>
       <c r="L113" t="n">
-        <v>31988</v>
+        <v>27280</v>
       </c>
       <c r="M113" t="n">
-        <v>0.288</v>
+        <v>0.246</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1636</v>
+        <v>0.0958</v>
       </c>
       <c r="O113" t="n">
-        <v>6.1</v>
+        <v>10.4</v>
       </c>
       <c r="P113" t="s">
         <v>354</v>
@@ -9342,7 +9418,7 @@
         <v>643</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="D114" t="s">
         <v>644</v>
@@ -9352,25 +9428,25 @@
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="H114" t="n">
-        <v>32714701</v>
+        <v>32877308</v>
       </c>
       <c r="I114" t="n">
-        <v>865.537</v>
+        <v>869.839</v>
       </c>
       <c r="J114" t="n">
-        <v>82009</v>
+        <v>40518</v>
       </c>
       <c r="K114" t="n">
-        <v>2.17</v>
+        <v>1.072</v>
       </c>
       <c r="L114" t="n">
-        <v>82088</v>
+        <v>75222</v>
       </c>
       <c r="M114" t="n">
-        <v>2.172</v>
+        <v>1.99</v>
       </c>
       <c r="N114"/>
       <c r="O114"/>
@@ -9395,7 +9471,7 @@
         <v>649</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="D115" t="s">
         <v>650</v>
@@ -9405,31 +9481,31 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H115" t="n">
-        <v>38119866</v>
+        <v>38268987</v>
       </c>
       <c r="I115" t="n">
-        <v>3749.032</v>
+        <v>3763.698</v>
       </c>
       <c r="J115" t="n">
-        <v>85951</v>
+        <v>56573</v>
       </c>
       <c r="K115" t="n">
-        <v>8.453</v>
+        <v>5.564</v>
       </c>
       <c r="L115" t="n">
-        <v>91550</v>
+        <v>84991</v>
       </c>
       <c r="M115" t="n">
-        <v>9.004</v>
+        <v>8.359</v>
       </c>
       <c r="N115" t="n">
-        <v>0.129</v>
+        <v>0.1232</v>
       </c>
       <c r="O115" t="n">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="P115" t="s">
         <v>651</v>
@@ -9452,7 +9528,7 @@
         <v>654</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D116" t="s">
         <v>655</v>
@@ -9462,25 +9538,25 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H116" t="n">
-        <v>5764680</v>
+        <v>5822526</v>
       </c>
       <c r="I116" t="n">
-        <v>1967.116</v>
+        <v>1986.855</v>
       </c>
       <c r="J116" t="n">
-        <v>19858</v>
+        <v>21676</v>
       </c>
       <c r="K116" t="n">
-        <v>6.776</v>
+        <v>7.397</v>
       </c>
       <c r="L116" t="n">
-        <v>20553</v>
+        <v>20120</v>
       </c>
       <c r="M116" t="n">
-        <v>7.013</v>
+        <v>6.866</v>
       </c>
       <c r="N116"/>
       <c r="O116"/>
@@ -9505,7 +9581,7 @@
         <v>661</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="D117" t="s">
         <v>662</v>
@@ -9515,25 +9591,25 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H117" t="n">
-        <v>20939926</v>
+        <v>21040842</v>
       </c>
       <c r="I117" t="n">
-        <v>1094.739</v>
+        <v>1100.015</v>
       </c>
       <c r="J117" t="n">
-        <v>56740</v>
+        <v>26654</v>
       </c>
       <c r="K117" t="n">
-        <v>2.966</v>
+        <v>1.393</v>
       </c>
       <c r="L117" t="n">
-        <v>53499</v>
+        <v>50400</v>
       </c>
       <c r="M117" t="n">
-        <v>2.797</v>
+        <v>2.635</v>
       </c>
       <c r="N117"/>
       <c r="O117"/>
@@ -9558,7 +9634,7 @@
         <v>668</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="D118" t="s">
         <v>669</v>
@@ -9568,25 +9644,25 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H118" t="n">
-        <v>275174811</v>
+        <v>276461998</v>
       </c>
       <c r="I118" t="n">
-        <v>1885.895</v>
+        <v>1894.717</v>
       </c>
       <c r="J118" t="n">
-        <v>429805</v>
+        <v>383827</v>
       </c>
       <c r="K118" t="n">
-        <v>2.946</v>
+        <v>2.631</v>
       </c>
       <c r="L118" t="n">
-        <v>492785</v>
+        <v>425070</v>
       </c>
       <c r="M118" t="n">
-        <v>3.377</v>
+        <v>2.913</v>
       </c>
       <c r="N118"/>
       <c r="O118"/>
@@ -9611,7 +9687,7 @@
         <v>674</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="D119" t="s">
         <v>675</v>
@@ -9621,25 +9697,25 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H119" t="n">
-        <v>4780592</v>
+        <v>4832169</v>
       </c>
       <c r="I119" t="n">
-        <v>360.079</v>
+        <v>363.964</v>
       </c>
       <c r="J119" t="n">
-        <v>12912</v>
+        <v>18213</v>
       </c>
       <c r="K119" t="n">
-        <v>0.973</v>
+        <v>1.372</v>
       </c>
       <c r="L119" t="n">
-        <v>12143</v>
+        <v>13623</v>
       </c>
       <c r="M119" t="n">
-        <v>0.915</v>
+        <v>1.026</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
@@ -9690,8 +9766,12 @@
       <c r="M120" t="n">
         <v>1.027</v>
       </c>
-      <c r="N120"/>
-      <c r="O120"/>
+      <c r="N120" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="O120" t="n">
+        <v>48.1</v>
+      </c>
       <c r="P120" t="s">
         <v>43</v>
       </c>
@@ -9713,7 +9793,7 @@
         <v>685</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44615</v>
+        <v>44618</v>
       </c>
       <c r="D121" t="s">
         <v>686</v>
@@ -9723,32 +9803,24 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H121" t="n">
-        <v>98032</v>
+        <v>98216</v>
       </c>
       <c r="I121" t="n">
-        <v>881.036</v>
-      </c>
-      <c r="J121" t="n">
-        <v>27</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.243</v>
-      </c>
+        <v>882.69</v>
+      </c>
+      <c r="J121"/>
+      <c r="K121"/>
       <c r="L121" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M121" t="n">
-        <v>0.377</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.1803</v>
-      </c>
-      <c r="O121" t="n">
-        <v>5.5</v>
-      </c>
+        <v>0.368</v>
+      </c>
+      <c r="N121"/>
+      <c r="O121"/>
       <c r="P121" t="s">
         <v>687</v>
       </c>
@@ -9770,7 +9842,7 @@
         <v>691</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D122" t="s">
         <v>692</v>
@@ -9780,31 +9852,31 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="H122" t="n">
-        <v>40519559</v>
+        <v>40704052</v>
       </c>
       <c r="I122" t="n">
-        <v>1146.542</v>
+        <v>1151.762</v>
       </c>
       <c r="J122" t="n">
-        <v>69834</v>
+        <v>62940</v>
       </c>
       <c r="K122" t="n">
-        <v>1.976</v>
+        <v>1.781</v>
       </c>
       <c r="L122" t="n">
-        <v>73449</v>
+        <v>66025</v>
       </c>
       <c r="M122" t="n">
-        <v>2.078</v>
+        <v>1.868</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0128</v>
+        <v>0.0109</v>
       </c>
       <c r="O122" t="n">
-        <v>78.1</v>
+        <v>91.9</v>
       </c>
       <c r="P122" t="s">
         <v>43</v>
@@ -9857,8 +9929,12 @@
       <c r="M123" t="n">
         <v>0.073</v>
       </c>
-      <c r="N123"/>
-      <c r="O123"/>
+      <c r="N123" t="n">
+        <v>0.0148</v>
+      </c>
+      <c r="O123" t="n">
+        <v>67.8</v>
+      </c>
       <c r="P123" t="s">
         <v>697</v>
       </c>
@@ -9880,7 +9956,7 @@
         <v>700</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D124" t="s">
         <v>701</v>
@@ -9892,31 +9968,31 @@
         <v>702</v>
       </c>
       <c r="G124" t="n">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="H124" t="n">
-        <v>8704941</v>
+        <v>8740109</v>
       </c>
       <c r="I124" t="n">
-        <v>1266.809</v>
+        <v>1271.927</v>
       </c>
       <c r="J124" t="n">
-        <v>16450</v>
+        <v>9404</v>
       </c>
       <c r="K124" t="n">
-        <v>2.394</v>
+        <v>1.369</v>
       </c>
       <c r="L124" t="n">
-        <v>17193</v>
+        <v>15231</v>
       </c>
       <c r="M124" t="n">
-        <v>2.502</v>
+        <v>2.217</v>
       </c>
       <c r="N124" t="n">
-        <v>0.2697</v>
+        <v>0.236</v>
       </c>
       <c r="O124" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="P124" t="s">
         <v>43</v>
@@ -9939,7 +10015,7 @@
         <v>706</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44599</v>
+        <v>44613</v>
       </c>
       <c r="D125" t="s">
         <v>707</v>
@@ -9949,27 +10025,27 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H125"/>
       <c r="I125"/>
       <c r="J125" t="n">
-        <v>243300</v>
+        <v>237000</v>
       </c>
       <c r="K125" t="n">
-        <v>44.613</v>
+        <v>43.458</v>
       </c>
       <c r="L125" t="n">
-        <v>243300</v>
+        <v>237000</v>
       </c>
       <c r="M125" t="n">
-        <v>44.613</v>
+        <v>43.458</v>
       </c>
       <c r="N125" t="n">
-        <v>0.031</v>
+        <v>0.0709</v>
       </c>
       <c r="O125" t="n">
-        <v>32.2</v>
+        <v>14.1</v>
       </c>
       <c r="P125" t="s">
         <v>43</v>
@@ -10051,7 +10127,7 @@
         <v>717</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D127" t="s">
         <v>718</v>
@@ -10063,31 +10139,31 @@
         <v>720</v>
       </c>
       <c r="G127" t="n">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="H127" t="n">
-        <v>4357006</v>
+        <v>4385769</v>
       </c>
       <c r="I127" t="n">
-        <v>2096.001</v>
+        <v>2109.838</v>
       </c>
       <c r="J127" t="n">
-        <v>13601</v>
+        <v>5424</v>
       </c>
       <c r="K127" t="n">
-        <v>6.543</v>
+        <v>2.609</v>
       </c>
       <c r="L127" t="n">
-        <v>36515</v>
+        <v>14140</v>
       </c>
       <c r="M127" t="n">
-        <v>17.566</v>
+        <v>6.802</v>
       </c>
       <c r="N127" t="n">
-        <v>0.067</v>
+        <v>0.125</v>
       </c>
       <c r="O127" t="n">
-        <v>14.9</v>
+        <v>8</v>
       </c>
       <c r="P127" t="s">
         <v>721</v>
@@ -10110,7 +10186,7 @@
         <v>724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="D128" t="s">
         <v>725</v>
@@ -10122,28 +10198,32 @@
         <v>727</v>
       </c>
       <c r="G128" t="n">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H128" t="n">
-        <v>23020001</v>
+        <v>23071788</v>
       </c>
       <c r="I128" t="n">
-        <v>383.398</v>
+        <v>384.261</v>
       </c>
       <c r="J128" t="n">
-        <v>25056</v>
+        <v>18766</v>
       </c>
       <c r="K128" t="n">
-        <v>0.417</v>
+        <v>0.313</v>
       </c>
       <c r="L128" t="n">
-        <v>27118</v>
+        <v>27273</v>
       </c>
       <c r="M128" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="N128"/>
-      <c r="O128"/>
+        <v>0.454</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.0771</v>
+      </c>
+      <c r="O128" t="n">
+        <v>13</v>
+      </c>
       <c r="P128" t="s">
         <v>728</v>
       </c>
@@ -10165,7 +10245,7 @@
         <v>731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D129" t="s">
         <v>732</v>
@@ -10177,31 +10257,31 @@
         <v>734</v>
       </c>
       <c r="G129" t="n">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="H129" t="n">
-        <v>59607270</v>
+        <v>61071508</v>
       </c>
       <c r="I129" t="n">
-        <v>1161.818</v>
+        <v>1190.357</v>
       </c>
       <c r="J129" t="n">
-        <v>496831</v>
+        <v>367518</v>
       </c>
       <c r="K129" t="n">
-        <v>9.684</v>
+        <v>7.163</v>
       </c>
       <c r="L129" t="n">
-        <v>452465</v>
+        <v>485943</v>
       </c>
       <c r="M129" t="n">
-        <v>8.819</v>
+        <v>9.472</v>
       </c>
       <c r="N129" t="n">
-        <v>0.2871</v>
+        <v>0.3164</v>
       </c>
       <c r="O129" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P129" t="s">
         <v>735</v>
@@ -10277,7 +10357,7 @@
         <v>742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="D131" t="s">
         <v>743</v>
@@ -10287,31 +10367,31 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="H131" t="n">
-        <v>85238704</v>
+        <v>84456901</v>
       </c>
       <c r="I131" t="n">
-        <v>1823.475</v>
+        <v>1806.75</v>
       </c>
       <c r="J131" t="n">
-        <v>93828</v>
+        <v>114166</v>
       </c>
       <c r="K131" t="n">
-        <v>2.007</v>
+        <v>2.442</v>
       </c>
       <c r="L131" t="n">
-        <v>99155</v>
+        <v>114906</v>
       </c>
       <c r="M131" t="n">
-        <v>2.121</v>
+        <v>2.458</v>
       </c>
       <c r="N131" t="n">
-        <v>0.181</v>
+        <v>0.222</v>
       </c>
       <c r="O131" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P131" t="s">
         <v>744</v>
@@ -10334,7 +10414,7 @@
         <v>747</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="D132" t="s">
         <v>748</v>
@@ -10344,28 +10424,32 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="H132" t="n">
-        <v>7352395</v>
+        <v>7371044</v>
       </c>
       <c r="I132" t="n">
-        <v>342.015</v>
+        <v>342.882</v>
       </c>
       <c r="J132" t="n">
-        <v>9406</v>
+        <v>8165</v>
       </c>
       <c r="K132" t="n">
-        <v>0.438</v>
+        <v>0.38</v>
       </c>
       <c r="L132" t="n">
-        <v>9872</v>
+        <v>9513</v>
       </c>
       <c r="M132" t="n">
-        <v>0.459</v>
-      </c>
-      <c r="N132"/>
-      <c r="O132"/>
+        <v>0.443</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.1231</v>
+      </c>
+      <c r="O132" t="n">
+        <v>8.1</v>
+      </c>
       <c r="P132" t="s">
         <v>749</v>
       </c>
@@ -10432,7 +10516,7 @@
         <v>755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D134" t="s">
         <v>756</v>
@@ -10442,31 +10526,31 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H134" t="n">
-        <v>77310</v>
+        <v>77864</v>
       </c>
       <c r="I134" t="n">
-        <v>130.636</v>
+        <v>131.572</v>
       </c>
       <c r="J134" t="n">
-        <v>356</v>
+        <v>146</v>
       </c>
       <c r="K134" t="n">
-        <v>0.602</v>
+        <v>0.247</v>
       </c>
       <c r="L134" t="n">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="M134" t="n">
-        <v>0.326</v>
+        <v>0.424</v>
       </c>
       <c r="N134" t="n">
-        <v>0.226</v>
+        <v>0.193</v>
       </c>
       <c r="O134" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="P134" t="s">
         <v>757</v>
@@ -10603,7 +10687,7 @@
         <v>770</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="D137" t="s">
         <v>771</v>
@@ -10613,28 +10697,32 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H137" t="n">
-        <v>6277837</v>
+        <v>6299553</v>
       </c>
       <c r="I137" t="n">
-        <v>263.166</v>
+        <v>264.077</v>
       </c>
       <c r="J137" t="n">
-        <v>11983</v>
+        <v>15985</v>
       </c>
       <c r="K137" t="n">
-        <v>0.502</v>
+        <v>0.67</v>
       </c>
       <c r="L137" t="n">
-        <v>19340</v>
+        <v>19812</v>
       </c>
       <c r="M137" t="n">
-        <v>0.811</v>
-      </c>
-      <c r="N137"/>
-      <c r="O137"/>
+        <v>0.831</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="O137" t="n">
+        <v>318.1</v>
+      </c>
       <c r="P137" t="s">
         <v>772</v>
       </c>
@@ -10766,7 +10854,7 @@
         <v>786</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D140"/>
       <c r="E140" t="s">
@@ -10776,31 +10864,31 @@
         <v>788</v>
       </c>
       <c r="G140" t="n">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="H140" t="n">
-        <v>686609</v>
+        <v>689743</v>
       </c>
       <c r="I140" t="n">
-        <v>80.985</v>
+        <v>81.354</v>
       </c>
       <c r="J140" t="n">
-        <v>1151</v>
+        <v>933</v>
       </c>
       <c r="K140" t="n">
-        <v>0.136</v>
+        <v>0.11</v>
       </c>
       <c r="L140" t="n">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="M140" t="n">
-        <v>0.118</v>
+        <v>0.119</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0096</v>
+        <v>0.0085</v>
       </c>
       <c r="O140" t="n">
-        <v>104.6</v>
+        <v>118</v>
       </c>
       <c r="P140" t="s">
         <v>787</v>
@@ -10880,7 +10968,7 @@
         <v>798</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44615</v>
+        <v>44618</v>
       </c>
       <c r="D142" t="s">
         <v>799</v>
@@ -10890,31 +10978,27 @@
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H142" t="n">
-        <v>4323847</v>
+        <v>4341110</v>
       </c>
       <c r="I142" t="n">
-        <v>362.26</v>
-      </c>
-      <c r="J142" t="n">
-        <v>8404</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.704</v>
-      </c>
+        <v>363.706</v>
+      </c>
+      <c r="J142"/>
+      <c r="K142"/>
       <c r="L142" t="n">
-        <v>11211</v>
+        <v>8701</v>
       </c>
       <c r="M142" t="n">
-        <v>0.939</v>
+        <v>0.729</v>
       </c>
       <c r="N142" t="n">
-        <v>0.2424</v>
+        <v>0.2644</v>
       </c>
       <c r="O142" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="P142" t="s">
         <v>801</v>
@@ -10937,7 +11021,7 @@
         <v>805</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="D143" t="s">
         <v>806</v>
@@ -10947,28 +11031,32 @@
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H143" t="n">
-        <v>142875926</v>
+        <v>143692044</v>
       </c>
       <c r="I143" t="n">
-        <v>1680.049</v>
+        <v>1689.645</v>
       </c>
       <c r="J143" t="n">
-        <v>453947</v>
+        <v>394263</v>
       </c>
       <c r="K143" t="n">
-        <v>5.338</v>
+        <v>4.636</v>
       </c>
       <c r="L143" t="n">
-        <v>457217</v>
+        <v>444886</v>
       </c>
       <c r="M143" t="n">
-        <v>5.376</v>
-      </c>
-      <c r="N143"/>
-      <c r="O143"/>
+        <v>5.231</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.1672</v>
+      </c>
+      <c r="O143" t="n">
+        <v>6</v>
+      </c>
       <c r="P143" t="s">
         <v>807</v>
       </c>
@@ -10990,7 +11078,7 @@
         <v>811</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D144" t="s">
         <v>36</v>
@@ -11000,31 +11088,31 @@
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="H144" t="n">
-        <v>2446107</v>
+        <v>2457240</v>
       </c>
       <c r="I144" t="n">
-        <v>51.908</v>
+        <v>52.145</v>
       </c>
       <c r="J144" t="n">
-        <v>2862</v>
+        <v>4668</v>
       </c>
       <c r="K144" t="n">
-        <v>0.061</v>
+        <v>0.099</v>
       </c>
       <c r="L144" t="n">
-        <v>3334</v>
+        <v>3367</v>
       </c>
       <c r="M144" t="n">
         <v>0.071</v>
       </c>
       <c r="N144" t="n">
-        <v>0.0106</v>
+        <v>0.0092</v>
       </c>
       <c r="O144" t="n">
-        <v>94.5</v>
+        <v>108.1</v>
       </c>
       <c r="P144" t="s">
         <v>37</v>
@@ -11100,7 +11188,7 @@
         <v>820</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="D146" t="s">
         <v>821</v>
@@ -11110,25 +11198,25 @@
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="H146" t="n">
-        <v>136398177</v>
+        <v>137716535</v>
       </c>
       <c r="I146" t="n">
-        <v>13651.991</v>
+        <v>13783.945</v>
       </c>
       <c r="J146" t="n">
-        <v>430359</v>
+        <v>417532</v>
       </c>
       <c r="K146" t="n">
-        <v>43.074</v>
+        <v>41.79</v>
       </c>
       <c r="L146" t="n">
-        <v>424895</v>
+        <v>450825</v>
       </c>
       <c r="M146" t="n">
-        <v>42.527</v>
+        <v>45.123</v>
       </c>
       <c r="N146"/>
       <c r="O146"/>
@@ -11210,7 +11298,7 @@
         <v>833</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>44611</v>
+        <v>44614</v>
       </c>
       <c r="D148" t="s">
         <v>834</v>
@@ -11220,31 +11308,31 @@
       </c>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="H148" t="n">
-        <v>812809349</v>
+        <v>814867640</v>
       </c>
       <c r="I148" t="n">
-        <v>2441.492</v>
+        <v>2447.674</v>
       </c>
       <c r="J148" t="n">
-        <v>765405</v>
+        <v>777221</v>
       </c>
       <c r="K148" t="n">
-        <v>2.299</v>
+        <v>2.335</v>
       </c>
       <c r="L148" t="n">
-        <v>1153179</v>
+        <v>1007782</v>
       </c>
       <c r="M148" t="n">
-        <v>3.464</v>
+        <v>3.027</v>
       </c>
       <c r="N148" t="n">
-        <v>0.058</v>
+        <v>0.053</v>
       </c>
       <c r="O148" t="n">
-        <v>17.2</v>
+        <v>18.9</v>
       </c>
       <c r="P148" t="s">
         <v>835</v>
@@ -11267,7 +11355,7 @@
         <v>839</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="D149" t="s">
         <v>840</v>
@@ -11277,31 +11365,31 @@
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="H149" t="n">
-        <v>5664769</v>
+        <v>5694478</v>
       </c>
       <c r="I149" t="n">
-        <v>1625.401</v>
+        <v>1633.925</v>
       </c>
       <c r="J149" t="n">
-        <v>13701</v>
+        <v>7890</v>
       </c>
       <c r="K149" t="n">
-        <v>3.931</v>
+        <v>2.264</v>
       </c>
       <c r="L149" t="n">
-        <v>14070</v>
+        <v>11968</v>
       </c>
       <c r="M149" t="n">
-        <v>4.037</v>
+        <v>3.434</v>
       </c>
       <c r="N149" t="n">
-        <v>0.3159</v>
+        <v>0.2961</v>
       </c>
       <c r="O149" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P149" t="s">
         <v>216</v>
@@ -11324,7 +11412,7 @@
         <v>843</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="D150" t="s">
         <v>844</v>
@@ -11334,25 +11422,25 @@
       </c>
       <c r="F150"/>
       <c r="G150" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H150" t="n">
-        <v>78848051</v>
+        <v>79198980</v>
       </c>
       <c r="I150" t="n">
-        <v>803.188</v>
+        <v>806.763</v>
       </c>
       <c r="J150" t="n">
-        <v>93961</v>
+        <v>120217</v>
       </c>
       <c r="K150" t="n">
-        <v>0.957</v>
+        <v>1.225</v>
       </c>
       <c r="L150" t="n">
-        <v>84123</v>
+        <v>98595</v>
       </c>
       <c r="M150" t="n">
-        <v>0.857</v>
+        <v>1.004</v>
       </c>
       <c r="N150"/>
       <c r="O150"/>
@@ -11434,7 +11522,7 @@
         <v>856</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>44615</v>
+        <v>44619</v>
       </c>
       <c r="D152" t="s">
         <v>36</v>
@@ -11444,28 +11532,28 @@
       </c>
       <c r="F152"/>
       <c r="G152" t="n">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H152" t="n">
-        <v>2058584</v>
+        <v>2076414</v>
       </c>
       <c r="I152" t="n">
-        <v>136.401</v>
-      </c>
-      <c r="J152"/>
-      <c r="K152"/>
+        <v>137.582</v>
+      </c>
+      <c r="J152" t="n">
+        <v>12941</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.857</v>
+      </c>
       <c r="L152" t="n">
-        <v>3371</v>
+        <v>4145</v>
       </c>
       <c r="M152" t="n">
-        <v>0.223</v>
-      </c>
-      <c r="N152" t="n">
-        <v>0.1007</v>
-      </c>
-      <c r="O152" t="n">
-        <v>9.9</v>
-      </c>
+        <v>0.275</v>
+      </c>
+      <c r="N152"/>
+      <c r="O152"/>
       <c r="P152" t="s">
         <v>37</v>
       </c>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -101,7 +101,7 @@
     <t xml:space="preserve">ALB</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-1289-testime-95-qytetare-te-infektuar-2-humbje-jete-dhe-396-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-1429-testime-102-qytetare-te-infektuar-1-humbje-jete-dhe-125-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">BHS</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/28c34924-f856-45c3-b014-86652695095e/Update+%23706+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%282%29.pdf?MOD=AJPERES</t>
+    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/778ed444-daf2-4aa9-bb52-76648c2b4f7c/Update+%23709+-+Ministry+of+Health+%26+Wellness+-+COVID-19+Report+%281%29.pdf?MOD=AJPERES</t>
   </si>
   <si>
     <t xml:space="preserve">Bahamas Ministry of Health and Wellness</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">BRB</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-wednesday-march-2/</t>
+    <t xml:space="preserve">https://gisbarbados.gov.bb/blog/covid-19-update-for-march-4/</t>
   </si>
   <si>
     <t xml:space="preserve">https://gisbarbados.gov.bb/top-stories/</t>
@@ -512,7 +512,7 @@
     <t xml:space="preserve">CPV</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-2-de-marco-de-2022/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-6-de-marco-de-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">DOM</t>
   </si>
   <si>
-    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/03/Bolet%C3%ADn-especial-715-COVID-19.pdf</t>
+    <t xml:space="preserve">https://coronavirusrd.gob.do/wp-content/uploads/2022/03/Bolet%C3%ADn-especial-718-COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">FJI</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.fj/04-03-2022/</t>
+    <t xml:space="preserve">https://www.health.gov.fj/07-03-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">GEO</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2022/524</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2022/553</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">IRN</t>
   </si>
   <si>
-    <t xml:space="preserve">https://irangov.ir/detail/381367</t>
+    <t xml:space="preserve">https://irangov.ir/detail/381740</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Medical Education</t>
@@ -1145,7 +1145,7 @@
     <t xml:space="preserve">JAM</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-thursday-march-3-2022/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-march-6-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1226,7 +1226,7 @@
     <t xml:space="preserve">KWT</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1499746546241449988</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1500878984795545604</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1379,7 +1379,7 @@
     <t xml:space="preserve">MDV</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1499791788038492163</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1500878953455570948</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">MDA</t>
   </si>
   <si>
-    <t xml:space="preserve">https://msmps.gov.md/comunicare/alte-617-cazuri-noi-de-covid-19-raportate-pentru-3-martie-2022/</t>
+    <t xml:space="preserve">https://msmps.gov.md/comunicare/alte-251-de-cazuri-noi-de-covid-19-raportate-pentru-6-martie-2022/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of the Republic of Moldova</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">MAR</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1499776719921758218</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1500859563624513538</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">NPL</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/6221df6fc17a2_SitRep754_COVID-19_04-03-2022_EN.pdf</t>
+    <t xml:space="preserve">https://covid19.mohp.gov.np/covid/englishSituationReport/6225db837e6f7_SitRep757_COVID-19_07-03-2022_EN.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">MKD</t>
   </si>
   <si>
-    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/223892</t>
+    <t xml:space="preserve">https://koronavirus.gov.mk/vesti/223898</t>
   </si>
   <si>
     <t xml:space="preserve">https://koronavirus.gov.mk/stat</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">PSE</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/307571661469803</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/309519931274976</t>
   </si>
   <si>
     <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1dBJp0U9iKQM4NRp6FpNspkGTbeIGtRu8ct4WBrUqDMw/edit#gid=1856047306</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">PAN</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1499533515276308488</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1500270983663476740</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -1700,7 +1700,7 @@
     <t xml:space="preserve">PRY</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1499501663236902914</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1500590142800674819</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">POL</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1498595146832568327</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1500769474382905349</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">ROU</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRES%C4%82_-_4_martie_2022,_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://www.gov.ro/fisiere/comunicate_fisiere/07-03_BULETIN_DE_PRESA_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">RUS</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20893</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=20905</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">VCT</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/SVGHEALTH/posts/423303656259048</t>
+    <t xml:space="preserve">https://www.facebook.com/SVGHEALTH/posts/425429632713117</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Vincent and the Grenadines Ministry of Health, Wellness and the Environment</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">VNM</t>
   </si>
   <si>
-    <t xml:space="preserve">https://suckhoedoisong.vn/ngay-4-3-ca-nuoc-co-125587-ca-mac-covid-19-bac-ninh-va-quang-ninh-bo-sung-hon-48000-f0-169220304174834555.htm</t>
+    <t xml:space="preserve">https://suckhoedoisong.vn//ngay-7-3-so-mac-moi-covid-19-ca-nuoc-tang-len-147358-f0-ca-tu-vong-giam-169220307175629241.htm</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of Vietnam</t>
@@ -2746,7 +2746,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -2756,31 +2756,35 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>1289</v>
+        <v>1429</v>
       </c>
       <c r="H2" t="n">
-        <v>1590013</v>
+        <v>1591442</v>
       </c>
       <c r="I2" t="n">
-        <v>553.446</v>
+        <v>553.943</v>
       </c>
       <c r="J2" t="n">
-        <v>0.449</v>
+        <v>0.497</v>
       </c>
       <c r="K2" t="n">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L2" t="n">
-        <v>288</v>
+        <v>388</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1</v>
+        <v>0.135</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
       </c>
-      <c r="O2"/>
-      <c r="P2"/>
+      <c r="O2" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
       <c r="Q2" t="n">
         <v>0.171</v>
       </c>
@@ -2892,7 +2896,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
@@ -2901,30 +2905,42 @@
         <v>45</v>
       </c>
       <c r="F4"/>
-      <c r="G4"/>
+      <c r="G4" t="n">
+        <v>4671</v>
+      </c>
       <c r="H4" t="n">
-        <v>1431471</v>
+        <v>1436142</v>
       </c>
       <c r="I4" t="n">
-        <v>42.184</v>
-      </c>
-      <c r="J4"/>
+        <v>42.322</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.138</v>
+      </c>
       <c r="K4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" t="n">
-        <v>1410</v>
+        <v>1733</v>
       </c>
       <c r="M4" t="n">
-        <v>0.042</v>
+        <v>0.051</v>
       </c>
       <c r="N4" t="s">
         <v>31</v>
       </c>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
+      <c r="O4" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="P4" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="R4" t="n">
+        <v>14.5</v>
+      </c>
       <c r="S4"/>
       <c r="T4" t="s">
         <v>20</v>
@@ -3030,7 +3046,7 @@
         <v>55</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44622</v>
+        <v>44625</v>
       </c>
       <c r="D6" t="s">
         <v>56</v>
@@ -3040,40 +3056,40 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>33614</v>
+        <v>17866</v>
       </c>
       <c r="H6" t="n">
-        <v>34316870</v>
+        <v>34433178</v>
       </c>
       <c r="I6" t="n">
-        <v>752.467</v>
+        <v>755.017</v>
       </c>
       <c r="J6" t="n">
-        <v>0.737</v>
+        <v>0.392</v>
       </c>
       <c r="K6" t="n">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="L6" t="n">
-        <v>26267</v>
+        <v>26514</v>
       </c>
       <c r="M6" t="n">
-        <v>0.576</v>
+        <v>0.581</v>
       </c>
       <c r="N6" t="s">
         <v>58</v>
       </c>
       <c r="O6" t="n">
-        <v>0.083</v>
+        <v>0.071</v>
       </c>
       <c r="P6" t="n">
-        <v>12</v>
+        <v>14.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.26</v>
+        <v>0.259</v>
       </c>
       <c r="R6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="S6"/>
       <c r="T6" t="s">
@@ -3103,7 +3119,7 @@
         <v>61</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D7" t="s">
         <v>62</v>
@@ -3113,37 +3129,37 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>3847</v>
+        <v>2598</v>
       </c>
       <c r="H7" t="n">
-        <v>2911004</v>
+        <v>2920038</v>
       </c>
       <c r="I7" t="n">
-        <v>980.754</v>
+        <v>983.798</v>
       </c>
       <c r="J7" t="n">
-        <v>1.296</v>
+        <v>0.875</v>
       </c>
       <c r="K7" t="n">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="L7" t="n">
-        <v>3655</v>
+        <v>3480</v>
       </c>
       <c r="M7" t="n">
-        <v>1.231</v>
+        <v>1.172</v>
       </c>
       <c r="N7" t="s">
         <v>58</v>
       </c>
       <c r="O7" t="n">
-        <v>0.087</v>
+        <v>0.064</v>
       </c>
       <c r="P7" t="n">
-        <v>11.5</v>
+        <v>15.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.145</v>
+        <v>0.144</v>
       </c>
       <c r="R7" t="n">
         <v>6.9</v>
@@ -3180,7 +3196,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D8" t="s">
         <v>66</v>
@@ -3192,25 +3208,25 @@
         <v>68</v>
       </c>
       <c r="G8" t="n">
-        <v>92085</v>
+        <v>65021</v>
       </c>
       <c r="H8" t="n">
-        <v>63878542</v>
+        <v>64093950</v>
       </c>
       <c r="I8" t="n">
-        <v>2477.044</v>
+        <v>2485.397</v>
       </c>
       <c r="J8" t="n">
-        <v>3.571</v>
+        <v>2.521</v>
       </c>
       <c r="K8" t="n">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="L8" t="n">
-        <v>80402</v>
+        <v>81481</v>
       </c>
       <c r="M8" t="n">
-        <v>3.118</v>
+        <v>3.16</v>
       </c>
       <c r="N8" t="s">
         <v>31</v>
@@ -3251,7 +3267,7 @@
         <v>72</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44623</v>
+        <v>44627</v>
       </c>
       <c r="D9" t="s">
         <v>73</v>
@@ -3261,41 +3277,33 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>801296</v>
+        <v>181146</v>
       </c>
       <c r="H9" t="n">
-        <v>161305125</v>
+        <v>162837175</v>
       </c>
       <c r="I9" t="n">
-        <v>17837.426</v>
+        <v>18006.843</v>
       </c>
       <c r="J9" t="n">
-        <v>88.609</v>
+        <v>20.031</v>
       </c>
       <c r="K9" t="n">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="L9" t="n">
-        <v>564318</v>
+        <v>533485</v>
       </c>
       <c r="M9" t="n">
-        <v>62.403</v>
+        <v>58.994</v>
       </c>
       <c r="N9" t="s">
         <v>31</v>
       </c>
-      <c r="O9" t="n">
-        <v>0.0498</v>
-      </c>
-      <c r="P9" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="R9" t="n">
-        <v>58.8</v>
-      </c>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
       <c r="S9"/>
       <c r="T9" t="s">
         <v>20</v>
@@ -3328,7 +3336,7 @@
         <v>76</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44622</v>
+        <v>44626</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
@@ -3338,34 +3346,34 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>8487</v>
+        <v>3512</v>
       </c>
       <c r="H10" t="n">
-        <v>6572316</v>
+        <v>6603318</v>
       </c>
       <c r="I10" t="n">
-        <v>642.873</v>
+        <v>645.906</v>
       </c>
       <c r="J10" t="n">
-        <v>0.83</v>
+        <v>0.344</v>
       </c>
       <c r="K10" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L10" t="n">
-        <v>8636</v>
+        <v>7459</v>
       </c>
       <c r="M10" t="n">
-        <v>0.845</v>
+        <v>0.73</v>
       </c>
       <c r="N10" t="s">
         <v>31</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1255</v>
+        <v>0.0772</v>
       </c>
       <c r="P10" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q10" t="n">
         <v>0.12</v>
@@ -3405,7 +3413,7 @@
         <v>80</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44622</v>
+        <v>44625</v>
       </c>
       <c r="D11" t="s">
         <v>81</v>
@@ -3415,37 +3423,37 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="H11" t="n">
-        <v>221075</v>
+        <v>222475</v>
       </c>
       <c r="I11" t="n">
-        <v>556.985</v>
+        <v>560.512</v>
       </c>
       <c r="J11" t="n">
-        <v>0.464</v>
+        <v>0.418</v>
       </c>
       <c r="K11" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L11" t="n">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="M11" t="n">
-        <v>0.771</v>
+        <v>0.897</v>
       </c>
       <c r="N11" t="s">
         <v>31</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0322</v>
+        <v>0.0245</v>
       </c>
       <c r="P11" t="n">
-        <v>31</v>
+        <v>40.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.15</v>
+        <v>0.149</v>
       </c>
       <c r="R11" t="n">
         <v>6.7</v>
@@ -3482,7 +3490,7 @@
         <v>86</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D12" t="s">
         <v>87</v>
@@ -3492,25 +3500,25 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>10869</v>
+        <v>9453</v>
       </c>
       <c r="H12" t="n">
-        <v>9429334</v>
+        <v>9453634</v>
       </c>
       <c r="I12" t="n">
-        <v>5393.446</v>
+        <v>5407.345</v>
       </c>
       <c r="J12" t="n">
-        <v>6.217</v>
+        <v>5.407</v>
       </c>
       <c r="K12" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L12" t="n">
-        <v>11054</v>
+        <v>9760</v>
       </c>
       <c r="M12" t="n">
-        <v>6.323</v>
+        <v>5.583</v>
       </c>
       <c r="N12" t="s">
         <v>31</v>
@@ -3551,7 +3559,7 @@
         <v>92</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44623</v>
+        <v>44627</v>
       </c>
       <c r="D13" t="s">
         <v>93</v>
@@ -3561,41 +3569,33 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>22584</v>
+        <v>20009</v>
       </c>
       <c r="H13" t="n">
-        <v>13451006</v>
+        <v>13527500</v>
       </c>
       <c r="I13" t="n">
-        <v>80.882</v>
+        <v>81.342</v>
       </c>
       <c r="J13" t="n">
-        <v>0.136</v>
+        <v>0.12</v>
       </c>
       <c r="K13" t="n">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="L13" t="n">
-        <v>22748</v>
+        <v>20802</v>
       </c>
       <c r="M13" t="n">
-        <v>0.137</v>
+        <v>0.125</v>
       </c>
       <c r="N13" t="s">
         <v>31</v>
       </c>
-      <c r="O13" t="n">
-        <v>0.0384</v>
-      </c>
-      <c r="P13" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="R13" t="n">
-        <v>6.9</v>
-      </c>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
       <c r="S13"/>
       <c r="T13" t="s">
         <v>83</v>
@@ -3628,7 +3628,7 @@
         <v>96</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44622</v>
+        <v>44624</v>
       </c>
       <c r="D14" t="s">
         <v>97</v>
@@ -3638,19 +3638,19 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="H14" t="n">
-        <v>588782</v>
+        <v>590700</v>
       </c>
       <c r="I14" t="n">
-        <v>2046.457</v>
+        <v>2053.123</v>
       </c>
       <c r="J14" t="n">
-        <v>3.493</v>
+        <v>3.465</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
@@ -3660,10 +3660,10 @@
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14" t="n">
-        <v>0.094</v>
+        <v>0.095</v>
       </c>
       <c r="R14" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S14"/>
       <c r="T14" t="s">
@@ -3699,7 +3699,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -3710,20 +3710,20 @@
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15" t="n">
-        <v>12510624</v>
+        <v>12559952</v>
       </c>
       <c r="I15" t="n">
-        <v>1324.876</v>
+        <v>1330.099</v>
       </c>
       <c r="J15"/>
       <c r="K15" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L15" t="n">
-        <v>17329</v>
+        <v>17306</v>
       </c>
       <c r="M15" t="n">
-        <v>1.835</v>
+        <v>1.833</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
@@ -3764,7 +3764,7 @@
         <v>107</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="D16" t="s">
         <v>108</v>
@@ -3774,34 +3774,34 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>36405</v>
+        <v>35564</v>
       </c>
       <c r="H16" t="n">
-        <v>31830216</v>
+        <v>31865935</v>
       </c>
       <c r="I16" t="n">
-        <v>2736.357</v>
+        <v>2739.427</v>
       </c>
       <c r="J16" t="n">
-        <v>3.13</v>
+        <v>3.057</v>
       </c>
       <c r="K16" t="n">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L16" t="n">
-        <v>34551</v>
+        <v>33679</v>
       </c>
       <c r="M16" t="n">
-        <v>2.97</v>
+        <v>2.895</v>
       </c>
       <c r="N16" t="s">
         <v>58</v>
       </c>
       <c r="O16" t="n">
-        <v>0.191</v>
+        <v>0.196</v>
       </c>
       <c r="P16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Q16" t="n">
         <v>0.112</v>
@@ -4350,7 +4350,7 @@
         <v>146</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44622</v>
+        <v>44625</v>
       </c>
       <c r="D24" t="s">
         <v>147</v>
@@ -4360,34 +4360,34 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>18769</v>
+        <v>10686</v>
       </c>
       <c r="H24" t="n">
-        <v>9225405</v>
+        <v>9264285</v>
       </c>
       <c r="I24" t="n">
-        <v>1337.664</v>
+        <v>1343.301</v>
       </c>
       <c r="J24" t="n">
-        <v>2.721</v>
+        <v>1.549</v>
       </c>
       <c r="K24" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="L24" t="n">
-        <v>16911</v>
+        <v>14988</v>
       </c>
       <c r="M24" t="n">
-        <v>2.452</v>
+        <v>2.173</v>
       </c>
       <c r="N24" t="s">
         <v>31</v>
       </c>
       <c r="O24" t="n">
-        <v>0.132</v>
+        <v>0.1241</v>
       </c>
       <c r="P24" t="n">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="Q24" t="n">
         <v>0.119</v>
@@ -4427,7 +4427,7 @@
         <v>152</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44613</v>
+        <v>44626</v>
       </c>
       <c r="D25" t="s">
         <v>44</v>
@@ -4438,35 +4438,33 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25" t="n">
-        <v>317494</v>
+        <v>324311</v>
       </c>
       <c r="I25" t="n">
-        <v>14.769</v>
+        <v>15.086</v>
       </c>
       <c r="J25"/>
       <c r="K25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L25" t="n">
-        <v>409</v>
+        <v>524</v>
       </c>
       <c r="M25" t="n">
-        <v>0.019</v>
+        <v>0.024</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0105</v>
-      </c>
-      <c r="P25" t="n">
-        <v>95.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P25"/>
       <c r="Q25" t="n">
-        <v>0.065</v>
+        <v>0.064</v>
       </c>
       <c r="R25" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="S25"/>
       <c r="T25" t="s">
@@ -4500,7 +4498,7 @@
         <v>154</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44622</v>
+        <v>44625</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
@@ -4511,29 +4509,29 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26" t="n">
-        <v>1411113</v>
+        <v>1412395</v>
       </c>
       <c r="I26" t="n">
-        <v>115.142</v>
+        <v>115.246</v>
       </c>
       <c r="J26"/>
       <c r="K26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L26" t="n">
-        <v>1944</v>
+        <v>1212</v>
       </c>
       <c r="M26" t="n">
-        <v>0.159</v>
+        <v>0.099</v>
       </c>
       <c r="N26" t="s">
         <v>31</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0073</v>
+        <v>0.0103</v>
       </c>
       <c r="P26" t="n">
-        <v>136.1</v>
+        <v>97.5</v>
       </c>
       <c r="Q26" t="n">
         <v>0.027</v>
@@ -4573,7 +4571,7 @@
         <v>156</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D27" t="s">
         <v>157</v>
@@ -4583,25 +4581,25 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>5268</v>
+        <v>1984</v>
       </c>
       <c r="H27" t="n">
-        <v>2871758</v>
+        <v>2878344</v>
       </c>
       <c r="I27" t="n">
-        <v>169.461</v>
+        <v>169.849</v>
       </c>
       <c r="J27" t="n">
-        <v>0.311</v>
+        <v>0.117</v>
       </c>
       <c r="K27" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L27" t="n">
-        <v>2402</v>
+        <v>2456</v>
       </c>
       <c r="M27" t="n">
-        <v>0.142</v>
+        <v>0.145</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
@@ -4642,7 +4640,7 @@
         <v>160</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44623</v>
+        <v>44625</v>
       </c>
       <c r="D28" t="s">
         <v>161</v>
@@ -4652,34 +4650,34 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>35777</v>
+        <v>29196</v>
       </c>
       <c r="H28" t="n">
-        <v>58355310</v>
+        <v>58443951</v>
       </c>
       <c r="I28" t="n">
-        <v>1532.926</v>
+        <v>1535.255</v>
       </c>
       <c r="J28" t="n">
-        <v>0.94</v>
+        <v>0.767</v>
       </c>
       <c r="K28" t="n">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="L28" t="n">
-        <v>46162</v>
+        <v>45271</v>
       </c>
       <c r="M28" t="n">
-        <v>1.213</v>
+        <v>1.189</v>
       </c>
       <c r="N28" t="s">
         <v>31</v>
       </c>
       <c r="O28" t="n">
-        <v>0.1272</v>
+        <v>0.137</v>
       </c>
       <c r="P28" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="Q28" t="n">
         <v>0.057</v>
@@ -4719,7 +4717,7 @@
         <v>165</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="D29" t="s">
         <v>166</v>
@@ -4729,15 +4727,15 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="n">
-        <v>0.602</v>
+        <v>0.53</v>
       </c>
       <c r="K29" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L29"/>
       <c r="M29"/>
@@ -4926,7 +4924,7 @@
         <v>174</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D32" t="s">
         <v>175</v>
@@ -4936,25 +4934,25 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>95416</v>
+        <v>67895</v>
       </c>
       <c r="H32" t="n">
-        <v>33095254</v>
+        <v>33346607</v>
       </c>
       <c r="I32" t="n">
-        <v>1722.602</v>
+        <v>1735.685</v>
       </c>
       <c r="J32" t="n">
-        <v>4.966</v>
+        <v>3.534</v>
       </c>
       <c r="K32" t="n">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="L32" t="n">
-        <v>86409</v>
+        <v>82219</v>
       </c>
       <c r="M32" t="n">
-        <v>4.498</v>
+        <v>4.279</v>
       </c>
       <c r="N32" t="s">
         <v>31</v>
@@ -5066,7 +5064,7 @@
         <v>186</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D34" t="s">
         <v>187</v>
@@ -5076,37 +5074,37 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>31114</v>
+        <v>24547</v>
       </c>
       <c r="H34" t="n">
-        <v>33220052</v>
+        <v>33288779</v>
       </c>
       <c r="I34" t="n">
-        <v>647.996</v>
+        <v>649.336</v>
       </c>
       <c r="J34" t="n">
-        <v>0.607</v>
+        <v>0.479</v>
       </c>
       <c r="K34" t="n">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="L34" t="n">
-        <v>28002</v>
+        <v>26372</v>
       </c>
       <c r="M34" t="n">
-        <v>0.546</v>
+        <v>0.514</v>
       </c>
       <c r="N34" t="s">
         <v>58</v>
       </c>
       <c r="O34" t="n">
-        <v>0.073</v>
+        <v>0.059</v>
       </c>
       <c r="P34" t="n">
-        <v>13.7</v>
+        <v>16.9</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.183</v>
+        <v>0.182</v>
       </c>
       <c r="R34" t="n">
         <v>5.5</v>
@@ -5143,7 +5141,7 @@
         <v>191</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44618</v>
+        <v>44621</v>
       </c>
       <c r="D35" t="s">
         <v>192</v>
@@ -5153,34 +5151,34 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>5269</v>
+        <v>8870</v>
       </c>
       <c r="H35" t="n">
-        <v>2891699</v>
+        <v>2915067</v>
       </c>
       <c r="I35" t="n">
-        <v>562.691</v>
+        <v>567.238</v>
       </c>
       <c r="J35" t="n">
-        <v>1.025</v>
+        <v>1.726</v>
       </c>
       <c r="K35" t="n">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="L35" t="n">
-        <v>8835</v>
+        <v>8524</v>
       </c>
       <c r="M35" t="n">
-        <v>1.719</v>
+        <v>1.659</v>
       </c>
       <c r="N35" t="s">
         <v>58</v>
       </c>
       <c r="O35" t="n">
-        <v>0.261</v>
+        <v>0.225</v>
       </c>
       <c r="P35" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="Q35" t="n">
         <v>0.278</v>
@@ -5220,7 +5218,7 @@
         <v>195</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44624</v>
+        <v>44626</v>
       </c>
       <c r="D36" t="s">
         <v>44</v>
@@ -5229,30 +5227,38 @@
         <v>45</v>
       </c>
       <c r="F36"/>
-      <c r="G36"/>
+      <c r="G36" t="n">
+        <v>2849</v>
+      </c>
       <c r="H36" t="n">
-        <v>1421267</v>
+        <v>1428735</v>
       </c>
       <c r="I36" t="n">
-        <v>52.535</v>
-      </c>
-      <c r="J36"/>
+        <v>52.811</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.105</v>
+      </c>
       <c r="K36" t="n">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="L36" t="n">
-        <v>1778</v>
+        <v>2064</v>
       </c>
       <c r="M36" t="n">
-        <v>0.066</v>
+        <v>0.076</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
       </c>
       <c r="O36"/>
       <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
+      <c r="Q36" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="R36" t="n">
+        <v>17.5</v>
+      </c>
       <c r="S36"/>
       <c r="T36" t="s">
         <v>20</v>
@@ -5285,7 +5291,7 @@
         <v>197</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44624</v>
+        <v>44626</v>
       </c>
       <c r="D37" t="s">
         <v>198</v>
@@ -5294,30 +5300,42 @@
         <v>199</v>
       </c>
       <c r="F37"/>
-      <c r="G37"/>
+      <c r="G37" t="n">
+        <v>3866</v>
+      </c>
       <c r="H37" t="n">
-        <v>4538432</v>
+        <v>4547463</v>
       </c>
       <c r="I37" t="n">
-        <v>1111.909</v>
-      </c>
-      <c r="J37"/>
+        <v>1114.122</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.947</v>
+      </c>
       <c r="K37" t="n">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="L37" t="n">
-        <v>5137</v>
+        <v>5001</v>
       </c>
       <c r="M37" t="n">
-        <v>1.259</v>
+        <v>1.225</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
       </c>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
+      <c r="O37" t="n">
+        <v>0.2637</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4.3</v>
+      </c>
       <c r="S37"/>
       <c r="T37" t="s">
         <v>20</v>
@@ -5506,7 +5524,7 @@
         <v>211</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D40" t="s">
         <v>212</v>
@@ -5516,34 +5534,34 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>34870</v>
+        <v>11985</v>
       </c>
       <c r="H40" t="n">
-        <v>51865032</v>
+        <v>51941441</v>
       </c>
       <c r="I40" t="n">
-        <v>4836.102</v>
+        <v>4843.227</v>
       </c>
       <c r="J40" t="n">
-        <v>3.251</v>
+        <v>1.118</v>
       </c>
       <c r="K40" t="n">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="L40" t="n">
-        <v>37919</v>
+        <v>35566</v>
       </c>
       <c r="M40" t="n">
-        <v>3.536</v>
+        <v>3.316</v>
       </c>
       <c r="N40" t="s">
         <v>58</v>
       </c>
       <c r="O40" t="n">
-        <v>0.214</v>
+        <v>0.218</v>
       </c>
       <c r="P40" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Q40" t="n">
         <v>0.07</v>
@@ -5654,7 +5672,7 @@
         <v>221</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D42" t="s">
         <v>222</v>
@@ -5664,31 +5682,35 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>46068</v>
+        <v>34816</v>
       </c>
       <c r="H42" t="n">
-        <v>62944430</v>
+        <v>63091541</v>
       </c>
       <c r="I42" t="n">
-        <v>10827.655</v>
+        <v>10852.961</v>
       </c>
       <c r="J42" t="n">
-        <v>7.925</v>
+        <v>5.989</v>
       </c>
       <c r="K42" t="n">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="L42" t="n">
-        <v>60972</v>
+        <v>57822</v>
       </c>
       <c r="M42" t="n">
-        <v>10.488</v>
+        <v>9.946</v>
       </c>
       <c r="N42" t="s">
         <v>31</v>
       </c>
-      <c r="O42"/>
-      <c r="P42"/>
+      <c r="O42" t="n">
+        <v>0.2861</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3.5</v>
+      </c>
       <c r="Q42" t="n">
         <v>0.045</v>
       </c>
@@ -5727,7 +5749,7 @@
         <v>225</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="D43" t="s">
         <v>44</v>
@@ -5736,30 +5758,42 @@
         <v>45</v>
       </c>
       <c r="F43"/>
-      <c r="G43"/>
+      <c r="G43" t="n">
+        <v>912</v>
+      </c>
       <c r="H43" t="n">
-        <v>285800</v>
+        <v>286712</v>
       </c>
       <c r="I43" t="n">
-        <v>285.173</v>
-      </c>
-      <c r="J43"/>
+        <v>286.083</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.91</v>
+      </c>
       <c r="K43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L43" t="n">
-        <v>288</v>
+        <v>367</v>
       </c>
       <c r="M43" t="n">
-        <v>0.287</v>
+        <v>0.366</v>
       </c>
       <c r="N43" t="s">
         <v>31</v>
       </c>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43"/>
+      <c r="O43" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="P43" t="n">
+        <v>855.5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="R43" t="n">
+        <v>18.5</v>
+      </c>
       <c r="S43"/>
       <c r="T43" t="s">
         <v>20</v>
@@ -5792,7 +5826,7 @@
         <v>227</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D44" t="s">
         <v>228</v>
@@ -5802,40 +5836,40 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>5084</v>
+        <v>5001</v>
       </c>
       <c r="H44" t="n">
-        <v>3134774</v>
+        <v>3148849</v>
       </c>
       <c r="I44" t="n">
-        <v>286.184</v>
+        <v>287.469</v>
       </c>
       <c r="J44" t="n">
-        <v>0.464</v>
+        <v>0.457</v>
       </c>
       <c r="K44" t="n">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L44" t="n">
-        <v>5214</v>
+        <v>4807</v>
       </c>
       <c r="M44" t="n">
-        <v>0.476</v>
+        <v>0.439</v>
       </c>
       <c r="N44" t="s">
         <v>31</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0542</v>
+        <v>0.0558</v>
       </c>
       <c r="P44" t="n">
-        <v>18.4</v>
+        <v>17.9</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.184</v>
+        <v>0.183</v>
       </c>
       <c r="R44" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="S44"/>
       <c r="T44" t="s">
@@ -6100,7 +6134,7 @@
         <v>248</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D48" t="s">
         <v>249</v>
@@ -6110,40 +6144,40 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>6548</v>
+        <v>3335</v>
       </c>
       <c r="H48" t="n">
-        <v>3145454</v>
+        <v>3158142</v>
       </c>
       <c r="I48" t="n">
-        <v>2373.591</v>
+        <v>2383.165</v>
       </c>
       <c r="J48" t="n">
-        <v>4.941</v>
+        <v>2.517</v>
       </c>
       <c r="K48" t="n">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="L48" t="n">
-        <v>7025</v>
+        <v>6156</v>
       </c>
       <c r="M48" t="n">
-        <v>5.301</v>
+        <v>4.645</v>
       </c>
       <c r="N48" t="s">
         <v>31</v>
       </c>
       <c r="O48" t="n">
-        <v>0.5851</v>
+        <v>0.5467</v>
       </c>
       <c r="P48" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.161</v>
+        <v>0.163</v>
       </c>
       <c r="R48" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="S48"/>
       <c r="T48" t="s">
@@ -6177,7 +6211,7 @@
         <v>252</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="D49" t="s">
         <v>44</v>
@@ -6186,30 +6220,42 @@
         <v>45</v>
       </c>
       <c r="F49"/>
-      <c r="G49"/>
+      <c r="G49" t="n">
+        <v>10603</v>
+      </c>
       <c r="H49" t="n">
-        <v>4516402</v>
+        <v>4527005</v>
       </c>
       <c r="I49" t="n">
-        <v>38.315</v>
-      </c>
-      <c r="J49"/>
+        <v>38.405</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.09</v>
+      </c>
       <c r="K49" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L49" t="n">
-        <v>4277</v>
+        <v>4992</v>
       </c>
       <c r="M49" t="n">
-        <v>0.036</v>
+        <v>0.042</v>
       </c>
       <c r="N49" t="s">
         <v>31</v>
       </c>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
+      <c r="O49" t="n">
+        <v>0.0087</v>
+      </c>
+      <c r="P49" t="n">
+        <v>114.6</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="R49" t="n">
+        <v>9.6</v>
+      </c>
       <c r="S49"/>
       <c r="T49" t="s">
         <v>20</v>
@@ -6311,7 +6357,7 @@
         <v>262</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D51" t="s">
         <v>263</v>
@@ -6322,20 +6368,20 @@
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51" t="n">
-        <v>497869</v>
+        <v>498190</v>
       </c>
       <c r="I51" t="n">
-        <v>551.412</v>
+        <v>551.767</v>
       </c>
       <c r="J51"/>
       <c r="K51" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L51" t="n">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="M51" t="n">
-        <v>0.207</v>
+        <v>0.182</v>
       </c>
       <c r="N51" t="s">
         <v>31</v>
@@ -6380,7 +6426,7 @@
         <v>267</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44622</v>
+        <v>44625</v>
       </c>
       <c r="D52" t="s">
         <v>268</v>
@@ -6390,40 +6436,40 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>10850</v>
+        <v>2170</v>
       </c>
       <c r="H52" t="n">
-        <v>10008532</v>
+        <v>10032456</v>
       </c>
       <c r="I52" t="n">
-        <v>1803.872</v>
+        <v>1808.184</v>
       </c>
       <c r="J52" t="n">
-        <v>1.956</v>
+        <v>0.391</v>
       </c>
       <c r="K52" t="n">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="L52" t="n">
-        <v>13309</v>
+        <v>10545</v>
       </c>
       <c r="M52" t="n">
-        <v>2.399</v>
+        <v>1.901</v>
       </c>
       <c r="N52" t="s">
         <v>58</v>
       </c>
       <c r="O52" t="n">
-        <v>0.246</v>
+        <v>0.359</v>
       </c>
       <c r="P52" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.066</v>
+        <v>0.067</v>
       </c>
       <c r="R52" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="S52"/>
       <c r="T52" t="s">
@@ -6457,7 +6503,7 @@
         <v>273</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44620</v>
+        <v>44624</v>
       </c>
       <c r="D53" t="s">
         <v>274</v>
@@ -6467,34 +6513,34 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>392411</v>
+        <v>285175</v>
       </c>
       <c r="H53" t="n">
-        <v>247648632</v>
+        <v>248823939</v>
       </c>
       <c r="I53" t="n">
-        <v>3673.113</v>
+        <v>3690.545</v>
       </c>
       <c r="J53" t="n">
-        <v>5.82</v>
+        <v>4.23</v>
       </c>
       <c r="K53" t="n">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="L53" t="n">
-        <v>288119</v>
+        <v>273281</v>
       </c>
       <c r="M53" t="n">
-        <v>4.273</v>
+        <v>4.053</v>
       </c>
       <c r="N53" t="s">
         <v>58</v>
       </c>
       <c r="O53" t="n">
-        <v>0.201</v>
+        <v>0.203</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Q53" t="n">
         <v>0.092</v>
@@ -6534,7 +6580,7 @@
         <v>277</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="D54" t="s">
         <v>44</v>
@@ -6543,30 +6589,42 @@
         <v>45</v>
       </c>
       <c r="F54"/>
-      <c r="G54"/>
+      <c r="G54" t="n">
+        <v>2256</v>
+      </c>
       <c r="H54" t="n">
-        <v>1574269</v>
+        <v>1576525</v>
       </c>
       <c r="I54" t="n">
-        <v>690.824</v>
-      </c>
-      <c r="J54"/>
+        <v>691.814</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K54" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L54" t="n">
-        <v>1186</v>
+        <v>1404</v>
       </c>
       <c r="M54" t="n">
-        <v>0.52</v>
+        <v>0.616</v>
       </c>
       <c r="N54" t="s">
         <v>31</v>
       </c>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
+      <c r="O54" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="P54" t="n">
+        <v>252</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R54" t="n">
+        <v>33.3</v>
+      </c>
       <c r="S54"/>
       <c r="T54" t="s">
         <v>20</v>
@@ -6672,7 +6730,7 @@
         <v>284</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D56" t="s">
         <v>285</v>
@@ -6682,25 +6740,25 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>9671</v>
+        <v>6685</v>
       </c>
       <c r="H56" t="n">
-        <v>13492620</v>
+        <v>13499305</v>
       </c>
       <c r="I56" t="n">
-        <v>3390.299</v>
+        <v>3391.979</v>
       </c>
       <c r="J56" t="n">
-        <v>2.43</v>
+        <v>1.68</v>
       </c>
       <c r="K56" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L56" t="n">
-        <v>14091</v>
+        <v>13026</v>
       </c>
       <c r="M56" t="n">
-        <v>3.541</v>
+        <v>3.273</v>
       </c>
       <c r="N56" t="s">
         <v>31</v>
@@ -6814,7 +6872,7 @@
         <v>294</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44622</v>
+        <v>44625</v>
       </c>
       <c r="D58" t="s">
         <v>44</v>
@@ -6825,30 +6883,26 @@
       <c r="F58"/>
       <c r="G58"/>
       <c r="H58" t="n">
-        <v>2327529</v>
+        <v>2333852</v>
       </c>
       <c r="I58" t="n">
-        <v>73.349</v>
+        <v>73.549</v>
       </c>
       <c r="J58"/>
       <c r="K58" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L58" t="n">
-        <v>3161</v>
+        <v>2709</v>
       </c>
       <c r="M58" t="n">
-        <v>0.1</v>
+        <v>0.085</v>
       </c>
       <c r="N58" t="s">
         <v>31</v>
       </c>
-      <c r="O58" t="n">
-        <v>0.0347</v>
-      </c>
-      <c r="P58" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="O58"/>
+      <c r="P58"/>
       <c r="Q58" t="n">
         <v>0.069</v>
       </c>
@@ -6889,7 +6943,7 @@
         <v>297</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44624</v>
+        <v>44626</v>
       </c>
       <c r="D59" t="s">
         <v>298</v>
@@ -6898,30 +6952,42 @@
         <v>299</v>
       </c>
       <c r="F59"/>
-      <c r="G59"/>
+      <c r="G59" t="n">
+        <v>178935</v>
+      </c>
       <c r="H59" t="n">
-        <v>66920511</v>
+        <v>67391555</v>
       </c>
       <c r="I59" t="n">
-        <v>6452.815</v>
-      </c>
-      <c r="J59"/>
+        <v>6498.235</v>
+      </c>
+      <c r="J59" t="n">
+        <v>17.254</v>
+      </c>
       <c r="K59" t="n">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="L59" t="n">
-        <v>284728</v>
+        <v>279669</v>
       </c>
       <c r="M59" t="n">
-        <v>27.455</v>
+        <v>26.967</v>
       </c>
       <c r="N59" t="s">
         <v>31</v>
       </c>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
-      <c r="R59"/>
+      <c r="O59" t="n">
+        <v>0.0526</v>
+      </c>
+      <c r="P59" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="R59" t="n">
+        <v>27</v>
+      </c>
       <c r="S59"/>
       <c r="T59" t="s">
         <v>20</v>
@@ -7240,7 +7306,7 @@
         <v>325</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44623</v>
+        <v>44627</v>
       </c>
       <c r="D64" t="s">
         <v>326</v>
@@ -7252,41 +7318,33 @@
         <v>328</v>
       </c>
       <c r="G64" t="n">
-        <v>18526</v>
+        <v>41967</v>
       </c>
       <c r="H64" t="n">
-        <v>10368142</v>
+        <v>10428093</v>
       </c>
       <c r="I64" t="n">
-        <v>1076.185</v>
+        <v>1082.408</v>
       </c>
       <c r="J64" t="n">
-        <v>1.923</v>
+        <v>4.356</v>
       </c>
       <c r="K64" t="n">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="L64" t="n">
-        <v>15386</v>
+        <v>13420</v>
       </c>
       <c r="M64" t="n">
-        <v>1.597</v>
+        <v>1.393</v>
       </c>
       <c r="N64" t="s">
         <v>31</v>
       </c>
-      <c r="O64" t="n">
-        <v>0.2071</v>
-      </c>
-      <c r="P64" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0.173</v>
-      </c>
-      <c r="R64" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
       <c r="S64"/>
       <c r="T64" t="s">
         <v>20</v>
@@ -7319,7 +7377,7 @@
         <v>331</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44613</v>
+        <v>44623</v>
       </c>
       <c r="D65" t="s">
         <v>332</v>
@@ -7329,25 +7387,25 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>4711</v>
+        <v>5981</v>
       </c>
       <c r="H65" t="n">
-        <v>1137416</v>
+        <v>1196083</v>
       </c>
       <c r="I65" t="n">
-        <v>3084.167</v>
+        <v>3243.246</v>
       </c>
       <c r="J65" t="n">
-        <v>12.774</v>
+        <v>16.218</v>
       </c>
       <c r="K65" t="n">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="L65" t="n">
-        <v>4776</v>
+        <v>6022</v>
       </c>
       <c r="M65" t="n">
-        <v>12.95</v>
+        <v>16.329</v>
       </c>
       <c r="N65" t="s">
         <v>58</v>
@@ -7355,10 +7413,10 @@
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65" t="n">
-        <v>0.096</v>
+        <v>0.116</v>
       </c>
       <c r="R65" t="n">
-        <v>10.4</v>
+        <v>8.6</v>
       </c>
       <c r="S65"/>
       <c r="T65" t="s">
@@ -7377,10 +7435,10 @@
         <v>59</v>
       </c>
       <c r="Y65" t="s">
-        <v>219</v>
+        <v>34</v>
       </c>
       <c r="Z65" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AA65"/>
     </row>
@@ -7392,7 +7450,7 @@
         <v>335</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D66" t="s">
         <v>336</v>
@@ -7404,25 +7462,25 @@
         <v>338</v>
       </c>
       <c r="G66" t="n">
-        <v>923351</v>
+        <v>612926</v>
       </c>
       <c r="H66" t="n">
-        <v>770973356</v>
+        <v>773437172</v>
       </c>
       <c r="I66" t="n">
-        <v>553.3</v>
+        <v>555.068</v>
       </c>
       <c r="J66" t="n">
-        <v>0.663</v>
+        <v>0.44</v>
       </c>
       <c r="K66" t="n">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="L66" t="n">
-        <v>903017</v>
+        <v>850832</v>
       </c>
       <c r="M66" t="n">
-        <v>0.648</v>
+        <v>0.611</v>
       </c>
       <c r="N66" t="s">
         <v>31</v>
@@ -7465,7 +7523,7 @@
         <v>341</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D67" t="s">
         <v>342</v>
@@ -7475,25 +7533,25 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>193981</v>
+        <v>215396</v>
       </c>
       <c r="H67" t="n">
-        <v>57117140</v>
+        <v>57754516</v>
       </c>
       <c r="I67" t="n">
-        <v>206.675</v>
+        <v>208.982</v>
       </c>
       <c r="J67" t="n">
-        <v>0.702</v>
+        <v>0.779</v>
       </c>
       <c r="K67" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L67" t="n">
-        <v>213616</v>
+        <v>215314</v>
       </c>
       <c r="M67" t="n">
-        <v>0.773</v>
+        <v>0.779</v>
       </c>
       <c r="N67" t="s">
         <v>31</v>
@@ -7534,7 +7592,7 @@
         <v>347</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44623</v>
+        <v>44627</v>
       </c>
       <c r="D68" t="s">
         <v>348</v>
@@ -7544,22 +7602,22 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>78234</v>
+        <v>81526</v>
       </c>
       <c r="H68" t="n">
-        <v>47494176</v>
+        <v>47808284</v>
       </c>
       <c r="I68" t="n">
-        <v>558.566</v>
+        <v>562.26</v>
       </c>
       <c r="J68" t="n">
-        <v>0.92</v>
+        <v>0.959</v>
       </c>
       <c r="K68" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L68" t="n">
-        <v>79403</v>
+        <v>79436</v>
       </c>
       <c r="M68" t="n">
         <v>0.934</v>
@@ -7567,18 +7625,10 @@
       <c r="N68" t="s">
         <v>31</v>
       </c>
-      <c r="O68" t="n">
-        <v>0.1112</v>
-      </c>
-      <c r="P68" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="R68" t="n">
-        <v>6.7</v>
-      </c>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
       <c r="S68"/>
       <c r="T68" t="s">
         <v>20</v>
@@ -7686,7 +7736,7 @@
         <v>360</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D70" t="s">
         <v>361</v>
@@ -7696,25 +7746,25 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>10406</v>
+        <v>7439</v>
       </c>
       <c r="H70" t="n">
-        <v>11426271</v>
+        <v>11453467</v>
       </c>
       <c r="I70" t="n">
-        <v>2293.095</v>
+        <v>2298.553</v>
       </c>
       <c r="J70" t="n">
-        <v>2.088</v>
+        <v>1.493</v>
       </c>
       <c r="K70" t="n">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="L70" t="n">
-        <v>10833</v>
+        <v>10460</v>
       </c>
       <c r="M70" t="n">
-        <v>2.174</v>
+        <v>2.099</v>
       </c>
       <c r="N70" t="s">
         <v>31</v>
@@ -7755,7 +7805,7 @@
         <v>365</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44623</v>
+        <v>44627</v>
       </c>
       <c r="D71" t="s">
         <v>366</v>
@@ -7765,41 +7815,33 @@
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>62381</v>
+        <v>30701</v>
       </c>
       <c r="H71" t="n">
-        <v>49033827</v>
+        <v>49203949</v>
       </c>
       <c r="I71" t="n">
-        <v>5277.562</v>
+        <v>5295.872</v>
       </c>
       <c r="J71" t="n">
-        <v>6.714</v>
+        <v>3.304</v>
       </c>
       <c r="K71" t="n">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="L71" t="n">
-        <v>65515</v>
+        <v>55572</v>
       </c>
       <c r="M71" t="n">
-        <v>7.051</v>
+        <v>5.981</v>
       </c>
       <c r="N71" t="s">
         <v>31</v>
       </c>
-      <c r="O71" t="n">
-        <v>0.1127</v>
-      </c>
-      <c r="P71" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="R71" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
       <c r="S71"/>
       <c r="T71" t="s">
         <v>20</v>
@@ -7832,7 +7874,7 @@
         <v>369</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D72" t="s">
         <v>370</v>
@@ -7844,25 +7886,25 @@
         <v>372</v>
       </c>
       <c r="G72" t="n">
-        <v>388836</v>
+        <v>188274</v>
       </c>
       <c r="H72" t="n">
-        <v>189102673</v>
+        <v>189968677</v>
       </c>
       <c r="I72" t="n">
-        <v>3132.526</v>
+        <v>3146.872</v>
       </c>
       <c r="J72" t="n">
-        <v>6.441</v>
+        <v>3.119</v>
       </c>
       <c r="K72" t="n">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="L72" t="n">
-        <v>388095</v>
+        <v>376043</v>
       </c>
       <c r="M72" t="n">
-        <v>6.429</v>
+        <v>6.229</v>
       </c>
       <c r="N72" t="s">
         <v>31</v>
@@ -7903,7 +7945,7 @@
         <v>376</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D73" t="s">
         <v>377</v>
@@ -7913,40 +7955,40 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>1936</v>
+        <v>5408</v>
       </c>
       <c r="H73" t="n">
-        <v>859586</v>
+        <v>867379</v>
       </c>
       <c r="I73" t="n">
-        <v>289.086</v>
+        <v>291.707</v>
       </c>
       <c r="J73" t="n">
-        <v>0.651</v>
+        <v>1.819</v>
       </c>
       <c r="K73" t="n">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L73" t="n">
-        <v>2247</v>
+        <v>2274</v>
       </c>
       <c r="M73" t="n">
-        <v>0.756</v>
+        <v>0.765</v>
       </c>
       <c r="N73" t="s">
         <v>31</v>
       </c>
       <c r="O73" t="n">
-        <v>0.0196</v>
+        <v>0.0137</v>
       </c>
       <c r="P73" t="n">
-        <v>50.9</v>
+        <v>73</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.149</v>
+        <v>0.148</v>
       </c>
       <c r="R73" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="S73"/>
       <c r="T73" t="s">
@@ -7980,7 +8022,7 @@
         <v>381</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D74" t="s">
         <v>382</v>
@@ -7990,40 +8032,40 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>142456</v>
+        <v>72152</v>
       </c>
       <c r="H74" t="n">
-        <v>37989703</v>
+        <v>38394244</v>
       </c>
       <c r="I74" t="n">
-        <v>301.384</v>
+        <v>304.593</v>
       </c>
       <c r="J74" t="n">
-        <v>1.13</v>
+        <v>0.572</v>
       </c>
       <c r="K74" t="n">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="L74" t="n">
-        <v>169146</v>
+        <v>161504</v>
       </c>
       <c r="M74" t="n">
-        <v>1.342</v>
+        <v>1.281</v>
       </c>
       <c r="N74" t="s">
         <v>31</v>
       </c>
       <c r="O74" t="n">
-        <v>0.389</v>
+        <v>0.3894</v>
       </c>
       <c r="P74" t="n">
         <v>2.6</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.137</v>
+        <v>0.141</v>
       </c>
       <c r="R74" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="S74"/>
       <c r="T74" t="s">
@@ -8205,7 +8247,7 @@
         <v>396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="D77" t="s">
         <v>44</v>
@@ -8214,30 +8256,42 @@
         <v>45</v>
       </c>
       <c r="F77"/>
-      <c r="G77"/>
+      <c r="G77" t="n">
+        <v>12045</v>
+      </c>
       <c r="H77" t="n">
-        <v>3381634</v>
+        <v>3393679</v>
       </c>
       <c r="I77" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="J77"/>
+        <v>61.719</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.219</v>
+      </c>
       <c r="K77" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L77" t="n">
-        <v>3420</v>
+        <v>4296</v>
       </c>
       <c r="M77" t="n">
-        <v>0.062</v>
+        <v>0.078</v>
       </c>
       <c r="N77" t="s">
         <v>31</v>
       </c>
-      <c r="O77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
-      <c r="R77"/>
+      <c r="O77" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="P77" t="n">
+        <v>182.3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="R77" t="n">
+        <v>10.5</v>
+      </c>
       <c r="S77"/>
       <c r="T77" t="s">
         <v>20</v>
@@ -8347,7 +8401,7 @@
         <v>403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D79" t="s">
         <v>404</v>
@@ -8357,25 +8411,25 @@
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>11533</v>
+        <v>11037</v>
       </c>
       <c r="H79" t="n">
-        <v>7703089</v>
+        <v>7737670</v>
       </c>
       <c r="I79" t="n">
-        <v>1779.599</v>
+        <v>1787.588</v>
       </c>
       <c r="J79" t="n">
-        <v>2.664</v>
+        <v>2.55</v>
       </c>
       <c r="K79" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="L79" t="n">
-        <v>17352</v>
+        <v>13187</v>
       </c>
       <c r="M79" t="n">
-        <v>4.009</v>
+        <v>3.047</v>
       </c>
       <c r="N79" t="s">
         <v>31</v>
@@ -8418,7 +8472,7 @@
         <v>410</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44622</v>
+        <v>44627</v>
       </c>
       <c r="D80" t="s">
         <v>411</v>
@@ -8428,41 +8482,33 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>2464</v>
+        <v>1521</v>
       </c>
       <c r="H80" t="n">
-        <v>984875</v>
+        <v>988261</v>
       </c>
       <c r="I80" t="n">
-        <v>133.464</v>
+        <v>133.922</v>
       </c>
       <c r="J80" t="n">
-        <v>0.334</v>
+        <v>0.206</v>
       </c>
       <c r="K80" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L80" t="n">
-        <v>1115</v>
+        <v>836</v>
       </c>
       <c r="M80" t="n">
-        <v>0.151</v>
+        <v>0.113</v>
       </c>
       <c r="N80" t="s">
         <v>31</v>
       </c>
-      <c r="O80" t="n">
-        <v>0.1981</v>
-      </c>
-      <c r="P80" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="R80" t="n">
-        <v>6.9</v>
-      </c>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
       <c r="S80"/>
       <c r="T80" t="s">
         <v>20</v>
@@ -8495,7 +8541,7 @@
         <v>415</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D81" t="s">
         <v>416</v>
@@ -8507,25 +8553,25 @@
         <v>418</v>
       </c>
       <c r="G81" t="n">
-        <v>18103</v>
+        <v>5872</v>
       </c>
       <c r="H81" t="n">
-        <v>6738390</v>
+        <v>6769175</v>
       </c>
       <c r="I81" t="n">
-        <v>3609.335</v>
+        <v>3625.824</v>
       </c>
       <c r="J81" t="n">
-        <v>9.697</v>
+        <v>3.145</v>
       </c>
       <c r="K81" t="n">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="L81" t="n">
-        <v>17289</v>
+        <v>15670</v>
       </c>
       <c r="M81" t="n">
-        <v>9.261</v>
+        <v>8.393</v>
       </c>
       <c r="N81" t="s">
         <v>31</v>
@@ -8635,7 +8681,7 @@
         <v>424</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D83" t="s">
         <v>425</v>
@@ -8645,15 +8691,15 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>2787</v>
+        <v>3041</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83" t="n">
-        <v>0.401</v>
+        <v>0.437</v>
       </c>
       <c r="K83" t="n">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L83"/>
       <c r="M83"/>
@@ -8773,7 +8819,7 @@
         <v>434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44619</v>
+        <v>44623</v>
       </c>
       <c r="D85" t="s">
         <v>435</v>
@@ -8783,40 +8829,40 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>4847</v>
+        <v>12414</v>
       </c>
       <c r="H85" t="n">
-        <v>8150414</v>
+        <v>8182623</v>
       </c>
       <c r="I85" t="n">
-        <v>3030.049</v>
+        <v>3042.023</v>
       </c>
       <c r="J85" t="n">
-        <v>1.802</v>
+        <v>4.615</v>
       </c>
       <c r="K85" t="n">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="L85" t="n">
-        <v>13651</v>
+        <v>11829</v>
       </c>
       <c r="M85" t="n">
-        <v>5.075</v>
+        <v>4.398</v>
       </c>
       <c r="N85" t="s">
         <v>58</v>
       </c>
       <c r="O85" t="n">
-        <v>0.483</v>
+        <v>0.472</v>
       </c>
       <c r="P85" t="n">
         <v>2.1</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.11</v>
+        <v>0.112</v>
       </c>
       <c r="R85" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="S85"/>
       <c r="T85" t="s">
@@ -8850,7 +8896,7 @@
         <v>438</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44623</v>
+        <v>44625</v>
       </c>
       <c r="D86" t="s">
         <v>439</v>
@@ -8860,40 +8906,40 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>2535</v>
+        <v>2142</v>
       </c>
       <c r="H86" t="n">
-        <v>4081710</v>
+        <v>4086376</v>
       </c>
       <c r="I86" t="n">
-        <v>6429.773</v>
+        <v>6437.123</v>
       </c>
       <c r="J86" t="n">
-        <v>3.993</v>
+        <v>3.374</v>
       </c>
       <c r="K86" t="n">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L86" t="n">
-        <v>2397</v>
+        <v>2450</v>
       </c>
       <c r="M86" t="n">
-        <v>3.776</v>
+        <v>3.859</v>
       </c>
       <c r="N86" t="s">
         <v>58</v>
       </c>
       <c r="O86" t="n">
-        <v>0.266</v>
+        <v>0.28</v>
       </c>
       <c r="P86" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.045</v>
+        <v>0.046</v>
       </c>
       <c r="R86" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="S86"/>
       <c r="T86" t="s">
@@ -8927,7 +8973,7 @@
         <v>442</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44618</v>
+        <v>44625</v>
       </c>
       <c r="D87" t="s">
         <v>44</v>
@@ -8938,35 +8984,35 @@
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87" t="n">
-        <v>398434</v>
+        <v>401851</v>
       </c>
       <c r="I87" t="n">
-        <v>14.016</v>
+        <v>14.136</v>
       </c>
       <c r="J87"/>
       <c r="K87" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L87" t="n">
-        <v>872</v>
+        <v>488</v>
       </c>
       <c r="M87" t="n">
-        <v>0.031</v>
+        <v>0.017</v>
       </c>
       <c r="N87" t="s">
         <v>31</v>
       </c>
       <c r="O87" t="n">
-        <v>0.037</v>
+        <v>0.0386</v>
       </c>
       <c r="P87" t="n">
-        <v>27</v>
+        <v>25.9</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.16</v>
+        <v>0.159</v>
       </c>
       <c r="R87" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="S87" t="s">
         <v>443</v>
@@ -9002,7 +9048,7 @@
         <v>445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="D88" t="s">
         <v>44</v>
@@ -9011,30 +9057,42 @@
         <v>45</v>
       </c>
       <c r="F88"/>
-      <c r="G88"/>
+      <c r="G88" t="n">
+        <v>967</v>
+      </c>
       <c r="H88" t="n">
-        <v>548601</v>
+        <v>549568</v>
       </c>
       <c r="I88" t="n">
-        <v>27.922</v>
-      </c>
-      <c r="J88"/>
+        <v>27.971</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.049</v>
+      </c>
       <c r="K88" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L88" t="n">
-        <v>590</v>
+        <v>667</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="N88" t="s">
         <v>31</v>
       </c>
-      <c r="O88"/>
-      <c r="P88"/>
-      <c r="Q88"/>
-      <c r="R88"/>
+      <c r="O88" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="P88" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="R88" t="n">
+        <v>6.5</v>
+      </c>
       <c r="S88"/>
       <c r="T88" t="s">
         <v>20</v>
@@ -9067,7 +9125,7 @@
         <v>447</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="D89" t="s">
         <v>448</v>
@@ -9079,40 +9137,40 @@
         <v>450</v>
       </c>
       <c r="G89" t="n">
-        <v>218433</v>
+        <v>148904</v>
       </c>
       <c r="H89" t="n">
-        <v>51421477</v>
+        <v>52151893</v>
       </c>
       <c r="I89" t="n">
-        <v>1568.867</v>
+        <v>1591.152</v>
       </c>
       <c r="J89" t="n">
-        <v>6.664</v>
+        <v>4.543</v>
       </c>
       <c r="K89" t="n">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="L89" t="n">
-        <v>203985</v>
+        <v>191419</v>
       </c>
       <c r="M89" t="n">
-        <v>6.224</v>
+        <v>5.84</v>
       </c>
       <c r="N89" t="s">
         <v>31</v>
       </c>
       <c r="O89" t="n">
-        <v>0.1363</v>
+        <v>0.1493</v>
       </c>
       <c r="P89" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.067</v>
+        <v>0.069</v>
       </c>
       <c r="R89" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="S89" t="s">
         <v>451</v>
@@ -9148,7 +9206,7 @@
         <v>454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D90" t="s">
         <v>455</v>
@@ -9158,25 +9216,25 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>2101</v>
+        <v>2119</v>
       </c>
       <c r="H90" t="n">
-        <v>2194418</v>
+        <v>2200569</v>
       </c>
       <c r="I90" t="n">
-        <v>4036.676</v>
+        <v>4047.991</v>
       </c>
       <c r="J90" t="n">
-        <v>3.865</v>
+        <v>3.898</v>
       </c>
       <c r="K90" t="n">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="L90" t="n">
-        <v>2711</v>
+        <v>2256</v>
       </c>
       <c r="M90" t="n">
-        <v>4.987</v>
+        <v>4.15</v>
       </c>
       <c r="N90" t="s">
         <v>31</v>
@@ -9219,7 +9277,7 @@
         <v>460</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D91" t="s">
         <v>461</v>
@@ -9229,25 +9287,25 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>1644</v>
+        <v>1408</v>
       </c>
       <c r="H91" t="n">
-        <v>1746199</v>
+        <v>1750664</v>
       </c>
       <c r="I91" t="n">
-        <v>3383.451</v>
+        <v>3392.102</v>
       </c>
       <c r="J91" t="n">
-        <v>3.185</v>
+        <v>2.728</v>
       </c>
       <c r="K91" t="n">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="L91" t="n">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="M91" t="n">
-        <v>3.094</v>
+        <v>3.096</v>
       </c>
       <c r="N91" t="s">
         <v>31</v>
@@ -9288,7 +9346,7 @@
         <v>466</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44624</v>
+        <v>44626</v>
       </c>
       <c r="D92" t="s">
         <v>44</v>
@@ -9297,30 +9355,42 @@
         <v>45</v>
       </c>
       <c r="F92"/>
-      <c r="G92"/>
+      <c r="G92" t="n">
+        <v>1420</v>
+      </c>
       <c r="H92" t="n">
-        <v>895882</v>
+        <v>898624</v>
       </c>
       <c r="I92" t="n">
-        <v>187.615</v>
-      </c>
-      <c r="J92"/>
+        <v>188.189</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.297</v>
+      </c>
       <c r="K92" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L92" t="n">
-        <v>1645</v>
+        <v>1375</v>
       </c>
       <c r="M92" t="n">
-        <v>0.344</v>
+        <v>0.288</v>
       </c>
       <c r="N92" t="s">
         <v>31</v>
       </c>
-      <c r="O92"/>
-      <c r="P92"/>
-      <c r="Q92"/>
-      <c r="R92"/>
+      <c r="O92" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="P92" t="n">
+        <v>566.1</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="R92" t="n">
+        <v>15.4</v>
+      </c>
       <c r="S92"/>
       <c r="T92" t="s">
         <v>20</v>
@@ -9353,7 +9423,7 @@
         <v>470</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44622</v>
+        <v>44625</v>
       </c>
       <c r="D93" t="s">
         <v>471</v>
@@ -9363,34 +9433,34 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>4314</v>
+        <v>1252</v>
       </c>
       <c r="H93" t="n">
-        <v>14505516</v>
+        <v>14561832</v>
       </c>
       <c r="I93" t="n">
-        <v>111.356</v>
+        <v>111.789</v>
       </c>
       <c r="J93" t="n">
-        <v>0.033</v>
+        <v>0.01</v>
       </c>
       <c r="K93" t="n">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="L93" t="n">
-        <v>8348</v>
+        <v>7692</v>
       </c>
       <c r="M93" t="n">
-        <v>0.064</v>
+        <v>0.059</v>
       </c>
       <c r="N93" t="s">
         <v>58</v>
       </c>
       <c r="O93" t="n">
-        <v>0.304</v>
+        <v>0.268</v>
       </c>
       <c r="P93" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="Q93" t="n">
         <v>0.381</v>
@@ -9430,7 +9500,7 @@
         <v>475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D94" t="s">
         <v>476</v>
@@ -9440,15 +9510,15 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>5948</v>
+        <v>2711</v>
       </c>
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="n">
-        <v>1.478</v>
+        <v>0.674</v>
       </c>
       <c r="K94" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L94"/>
       <c r="M94"/>
@@ -9491,7 +9561,7 @@
         <v>481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D95" t="s">
         <v>482</v>
@@ -9501,25 +9571,25 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>6849</v>
+        <v>4870</v>
       </c>
       <c r="H95" t="n">
-        <v>7190252</v>
+        <v>7206650</v>
       </c>
       <c r="I95" t="n">
-        <v>2159.7</v>
+        <v>2164.626</v>
       </c>
       <c r="J95" t="n">
-        <v>2.057</v>
+        <v>1.463</v>
       </c>
       <c r="K95" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L95" t="n">
-        <v>7831</v>
+        <v>7171</v>
       </c>
       <c r="M95" t="n">
-        <v>2.352</v>
+        <v>2.154</v>
       </c>
       <c r="N95" t="s">
         <v>31</v>
@@ -9560,7 +9630,7 @@
         <v>485</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D96" t="s">
         <v>486</v>
@@ -9570,25 +9640,25 @@
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>9600</v>
+        <v>5591</v>
       </c>
       <c r="H96" t="n">
-        <v>11091502</v>
+        <v>11114286</v>
       </c>
       <c r="I96" t="n">
-        <v>297.003</v>
+        <v>297.613</v>
       </c>
       <c r="J96" t="n">
-        <v>0.257</v>
+        <v>0.15</v>
       </c>
       <c r="K96" t="n">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="L96" t="n">
-        <v>11257</v>
+        <v>9292</v>
       </c>
       <c r="M96" t="n">
-        <v>0.301</v>
+        <v>0.249</v>
       </c>
       <c r="N96" t="s">
         <v>31</v>
@@ -9631,7 +9701,7 @@
         <v>491</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="D97" t="s">
         <v>44</v>
@@ -9640,30 +9710,42 @@
         <v>45</v>
       </c>
       <c r="F97"/>
-      <c r="G97"/>
+      <c r="G97" t="n">
+        <v>2758</v>
+      </c>
       <c r="H97" t="n">
-        <v>1272590</v>
+        <v>1275348</v>
       </c>
       <c r="I97" t="n">
-        <v>39.567</v>
-      </c>
-      <c r="J97"/>
+        <v>39.653</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.086</v>
+      </c>
       <c r="K97" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L97" t="n">
-        <v>1085</v>
+        <v>1328</v>
       </c>
       <c r="M97" t="n">
-        <v>0.034</v>
+        <v>0.041</v>
       </c>
       <c r="N97" t="s">
         <v>31</v>
       </c>
-      <c r="O97"/>
-      <c r="P97"/>
-      <c r="Q97"/>
-      <c r="R97"/>
+      <c r="O97" t="n">
+        <v>0.0106</v>
+      </c>
+      <c r="P97" t="n">
+        <v>93.9</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5.6</v>
+      </c>
       <c r="S97" t="s">
         <v>492</v>
       </c>
@@ -9698,7 +9780,7 @@
         <v>494</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D98" t="s">
         <v>495</v>
@@ -9708,34 +9790,34 @@
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>47135</v>
+        <v>36612</v>
       </c>
       <c r="H98" t="n">
-        <v>7212901</v>
+        <v>7274351</v>
       </c>
       <c r="I98" t="n">
-        <v>131.608</v>
+        <v>132.729</v>
       </c>
       <c r="J98" t="n">
-        <v>0.86</v>
+        <v>0.668</v>
       </c>
       <c r="K98" t="n">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L98" t="n">
-        <v>26288</v>
+        <v>24840</v>
       </c>
       <c r="M98" t="n">
-        <v>0.48</v>
+        <v>0.453</v>
       </c>
       <c r="N98" t="s">
         <v>31</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0843</v>
+        <v>0.0704</v>
       </c>
       <c r="P98" t="n">
-        <v>11.9</v>
+        <v>14.2</v>
       </c>
       <c r="Q98" t="n">
         <v>0.082</v>
@@ -9775,7 +9857,7 @@
         <v>499</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44624</v>
+        <v>44626</v>
       </c>
       <c r="D99" t="s">
         <v>44</v>
@@ -9784,30 +9866,42 @@
         <v>45</v>
       </c>
       <c r="F99"/>
-      <c r="G99"/>
+      <c r="G99" t="n">
+        <v>2284</v>
+      </c>
       <c r="H99" t="n">
-        <v>957442</v>
+        <v>961681</v>
       </c>
       <c r="I99" t="n">
-        <v>370.048</v>
-      </c>
-      <c r="J99"/>
+        <v>371.687</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.883</v>
+      </c>
       <c r="K99" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="L99" t="n">
-        <v>933</v>
+        <v>1119</v>
       </c>
       <c r="M99" t="n">
-        <v>0.361</v>
+        <v>0.432</v>
       </c>
       <c r="N99" t="s">
         <v>31</v>
       </c>
-      <c r="O99"/>
-      <c r="P99"/>
-      <c r="Q99"/>
-      <c r="R99"/>
+      <c r="O99" t="n">
+        <v>0.0163</v>
+      </c>
+      <c r="P99" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="R99" t="n">
+        <v>6.1</v>
+      </c>
       <c r="S99" t="s">
         <v>500</v>
       </c>
@@ -9842,7 +9936,7 @@
         <v>504</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D100" t="s">
         <v>505</v>
@@ -9851,31 +9945,35 @@
         <v>506</v>
       </c>
       <c r="F100"/>
-      <c r="G100"/>
+      <c r="G100" t="n">
+        <v>8638</v>
+      </c>
       <c r="H100" t="n">
-        <v>6511838</v>
+        <v>6531625</v>
       </c>
       <c r="I100" t="n">
-        <v>219.439</v>
-      </c>
-      <c r="J100"/>
+        <v>220.106</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.291</v>
+      </c>
       <c r="K100" t="n">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="L100" t="n">
-        <v>7205</v>
+        <v>6717</v>
       </c>
       <c r="M100" t="n">
-        <v>0.243</v>
+        <v>0.226</v>
       </c>
       <c r="N100" t="s">
         <v>58</v>
       </c>
       <c r="O100" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="P100" t="n">
-        <v>34.5</v>
+        <v>58.8</v>
       </c>
       <c r="Q100"/>
       <c r="R100"/>
@@ -9913,7 +10011,7 @@
         <v>510</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44622</v>
+        <v>44625</v>
       </c>
       <c r="D101" t="s">
         <v>511</v>
@@ -9923,37 +10021,37 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>91429</v>
+        <v>86594</v>
       </c>
       <c r="H101" t="n">
-        <v>28376081</v>
+        <v>28653699</v>
       </c>
       <c r="I101" t="n">
-        <v>1652.357</v>
+        <v>1668.523</v>
       </c>
       <c r="J101" t="n">
-        <v>5.324</v>
+        <v>5.042</v>
       </c>
       <c r="K101" t="n">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="L101" t="n">
-        <v>58861</v>
+        <v>78363</v>
       </c>
       <c r="M101" t="n">
-        <v>3.428</v>
+        <v>4.563</v>
       </c>
       <c r="N101" t="s">
         <v>58</v>
       </c>
       <c r="O101" t="n">
-        <v>0.666</v>
+        <v>0.698</v>
       </c>
       <c r="P101" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.23</v>
+        <v>0.235</v>
       </c>
       <c r="R101" t="n">
         <v>4.3</v>
@@ -9992,7 +10090,7 @@
         <v>516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D102" t="s">
         <v>517</v>
@@ -10001,22 +10099,26 @@
         <v>51</v>
       </c>
       <c r="F102"/>
-      <c r="G102"/>
+      <c r="G102" t="n">
+        <v>4752</v>
+      </c>
       <c r="H102" t="n">
-        <v>6788023</v>
+        <v>6812511</v>
       </c>
       <c r="I102" t="n">
-        <v>1324.156</v>
-      </c>
-      <c r="J102"/>
+        <v>1328.933</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.927</v>
+      </c>
       <c r="K102" t="n">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="L102" t="n">
-        <v>22625</v>
+        <v>14473</v>
       </c>
       <c r="M102" t="n">
-        <v>4.414</v>
+        <v>2.823</v>
       </c>
       <c r="N102" t="s">
         <v>31</v>
@@ -10057,7 +10159,7 @@
         <v>521</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44624</v>
+        <v>44626</v>
       </c>
       <c r="D103" t="s">
         <v>44</v>
@@ -10066,30 +10168,42 @@
         <v>45</v>
       </c>
       <c r="F103"/>
-      <c r="G103"/>
+      <c r="G103" t="n">
+        <v>579</v>
+      </c>
       <c r="H103" t="n">
-        <v>229436</v>
+        <v>230448</v>
       </c>
       <c r="I103" t="n">
-        <v>9.13</v>
-      </c>
-      <c r="J103"/>
+        <v>9.17</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.023</v>
+      </c>
       <c r="K103" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L103" t="n">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="M103" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="N103" t="s">
         <v>31</v>
       </c>
-      <c r="O103"/>
-      <c r="P103"/>
-      <c r="Q103"/>
-      <c r="R103"/>
+      <c r="O103" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="P103" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="R103" t="n">
+        <v>26.3</v>
+      </c>
       <c r="S103"/>
       <c r="T103" t="s">
         <v>20</v>
@@ -10195,7 +10309,7 @@
         <v>527</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D105" t="s">
         <v>528</v>
@@ -10204,22 +10318,26 @@
         <v>51</v>
       </c>
       <c r="F105"/>
-      <c r="G105"/>
+      <c r="G105" t="n">
+        <v>1209</v>
+      </c>
       <c r="H105" t="n">
-        <v>1901296</v>
+        <v>1908017</v>
       </c>
       <c r="I105" t="n">
-        <v>912.917</v>
-      </c>
-      <c r="J105"/>
+        <v>916.144</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.581</v>
+      </c>
       <c r="K105" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L105" t="n">
-        <v>2534</v>
+        <v>2484</v>
       </c>
       <c r="M105" t="n">
-        <v>1.217</v>
+        <v>1.193</v>
       </c>
       <c r="N105" t="s">
         <v>31</v>
@@ -10256,7 +10374,7 @@
         <v>531</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44622</v>
+        <v>44625</v>
       </c>
       <c r="D106" t="s">
         <v>532</v>
@@ -10266,40 +10384,40 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>14554</v>
+        <v>4275</v>
       </c>
       <c r="H106" t="n">
-        <v>10814390</v>
+        <v>10844001</v>
       </c>
       <c r="I106" t="n">
-        <v>1978.618</v>
+        <v>1984.035</v>
       </c>
       <c r="J106" t="n">
-        <v>2.663</v>
+        <v>0.782</v>
       </c>
       <c r="K106" t="n">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="L106" t="n">
-        <v>15594</v>
+        <v>13045</v>
       </c>
       <c r="M106" t="n">
-        <v>2.853</v>
+        <v>2.387</v>
       </c>
       <c r="N106" t="s">
         <v>58</v>
       </c>
       <c r="O106" t="n">
-        <v>0.709</v>
+        <v>0.656</v>
       </c>
       <c r="P106" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="R106" t="n">
-        <v>8.5</v>
+        <v>8.3</v>
       </c>
       <c r="S106"/>
       <c r="T106" t="s">
@@ -10396,7 +10514,7 @@
         <v>542</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D108" t="s">
         <v>543</v>
@@ -10406,25 +10524,25 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>36678</v>
+        <v>37518</v>
       </c>
       <c r="H108" t="n">
-        <v>26570773</v>
+        <v>26683737</v>
       </c>
       <c r="I108" t="n">
-        <v>117.987</v>
+        <v>118.489</v>
       </c>
       <c r="J108" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="K108" t="n">
+        <v>651</v>
+      </c>
+      <c r="L108" t="n">
+        <v>36684</v>
+      </c>
+      <c r="M108" t="n">
         <v>0.163</v>
-      </c>
-      <c r="K108" t="n">
-        <v>648</v>
-      </c>
-      <c r="L108" t="n">
-        <v>38704</v>
-      </c>
-      <c r="M108" t="n">
-        <v>0.172</v>
       </c>
       <c r="N108" t="s">
         <v>31</v>
@@ -10465,7 +10583,7 @@
         <v>546</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D109" t="s">
         <v>547</v>
@@ -10475,21 +10593,21 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>2197</v>
+        <v>2263</v>
       </c>
       <c r="H109"/>
       <c r="I109"/>
       <c r="J109" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="K109" t="n">
+        <v>543</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2199</v>
+      </c>
+      <c r="M109" t="n">
         <v>0.421</v>
-      </c>
-      <c r="K109" t="n">
-        <v>540</v>
-      </c>
-      <c r="L109" t="n">
-        <v>2768</v>
-      </c>
-      <c r="M109" t="n">
-        <v>0.53</v>
       </c>
       <c r="N109" t="s">
         <v>31</v>
@@ -10532,7 +10650,7 @@
         <v>552</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44623</v>
+        <v>44625</v>
       </c>
       <c r="D110" t="s">
         <v>553</v>
@@ -10542,34 +10660,34 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>7215</v>
+        <v>6496</v>
       </c>
       <c r="H110" t="n">
-        <v>5530496</v>
+        <v>5544311</v>
       </c>
       <c r="I110" t="n">
-        <v>1262.214</v>
+        <v>1265.367</v>
       </c>
       <c r="J110" t="n">
-        <v>1.647</v>
+        <v>1.483</v>
       </c>
       <c r="K110" t="n">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="L110" t="n">
-        <v>5763</v>
+        <v>5553</v>
       </c>
       <c r="M110" t="n">
-        <v>1.315</v>
+        <v>1.267</v>
       </c>
       <c r="N110" t="s">
         <v>31</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0705</v>
+        <v>0.0664</v>
       </c>
       <c r="P110" t="n">
-        <v>14.2</v>
+        <v>15.1</v>
       </c>
       <c r="Q110" t="n">
         <v>0.137</v>
@@ -10672,7 +10790,7 @@
         <v>561</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D112" t="s">
         <v>562</v>
@@ -10682,37 +10800,37 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>2479</v>
+        <v>2200</v>
       </c>
       <c r="H112" t="n">
-        <v>2555716</v>
+        <v>2562538</v>
       </c>
       <c r="I112" t="n">
-        <v>353.995</v>
+        <v>354.94</v>
       </c>
       <c r="J112" t="n">
-        <v>0.343</v>
+        <v>0.305</v>
       </c>
       <c r="K112" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="L112" t="n">
-        <v>2541</v>
+        <v>2394</v>
       </c>
       <c r="M112" t="n">
-        <v>0.352</v>
+        <v>0.332</v>
       </c>
       <c r="N112" t="s">
         <v>31</v>
       </c>
       <c r="O112" t="n">
-        <v>0.2195</v>
+        <v>0.1526</v>
       </c>
       <c r="P112" t="n">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.252</v>
+        <v>0.251</v>
       </c>
       <c r="R112" t="n">
         <v>4</v>
@@ -10751,7 +10869,7 @@
         <v>567</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44622</v>
+        <v>44625</v>
       </c>
       <c r="D113" t="s">
         <v>568</v>
@@ -10764,29 +10882,29 @@
       </c>
       <c r="G113"/>
       <c r="H113" t="n">
-        <v>27460384</v>
+        <v>27602423</v>
       </c>
       <c r="I113" t="n">
-        <v>823.167</v>
+        <v>827.425</v>
       </c>
       <c r="J113"/>
       <c r="K113" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="L113" t="n">
-        <v>49915</v>
+        <v>45173</v>
       </c>
       <c r="M113" t="n">
-        <v>1.496</v>
+        <v>1.354</v>
       </c>
       <c r="N113" t="s">
         <v>58</v>
       </c>
       <c r="O113" t="n">
-        <v>0.048</v>
+        <v>0.043</v>
       </c>
       <c r="P113" t="n">
-        <v>20.8</v>
+        <v>23.3</v>
       </c>
       <c r="Q113" t="n">
         <v>0.128</v>
@@ -10826,7 +10944,7 @@
         <v>573</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44610</v>
+        <v>44617</v>
       </c>
       <c r="D114" t="s">
         <v>574</v>
@@ -10836,37 +10954,37 @@
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>26764</v>
+        <v>25315</v>
       </c>
       <c r="H114" t="n">
-        <v>26321315</v>
+        <v>26505545</v>
       </c>
       <c r="I114" t="n">
-        <v>237.029</v>
+        <v>238.688</v>
       </c>
       <c r="J114" t="n">
-        <v>0.241</v>
+        <v>0.228</v>
       </c>
       <c r="K114" t="n">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="L114" t="n">
-        <v>27280</v>
+        <v>25704</v>
       </c>
       <c r="M114" t="n">
-        <v>0.246</v>
+        <v>0.231</v>
       </c>
       <c r="N114" t="s">
         <v>31</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0958</v>
+        <v>0.0554</v>
       </c>
       <c r="P114" t="n">
-        <v>10.4</v>
+        <v>18.1</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.139</v>
+        <v>0.138</v>
       </c>
       <c r="R114" t="n">
         <v>7.2</v>
@@ -10903,7 +11021,7 @@
         <v>578</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D115" t="s">
         <v>579</v>
@@ -10913,25 +11031,25 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>771818</v>
+        <v>38563</v>
       </c>
       <c r="H115" t="n">
-        <v>33959125</v>
+        <v>33341343</v>
       </c>
       <c r="I115" t="n">
-        <v>898.461</v>
+        <v>882.116</v>
       </c>
       <c r="J115" t="n">
-        <v>20.42</v>
+        <v>1.02</v>
       </c>
       <c r="K115" t="n">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="L115" t="n">
-        <v>177775</v>
+        <v>66291</v>
       </c>
       <c r="M115" t="n">
-        <v>4.703</v>
+        <v>1.754</v>
       </c>
       <c r="N115" t="s">
         <v>31</v>
@@ -10974,7 +11092,7 @@
         <v>584</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D116" t="s">
         <v>585</v>
@@ -10984,40 +11102,40 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>75997</v>
+        <v>28087</v>
       </c>
       <c r="H116" t="n">
-        <v>38580475</v>
+        <v>38727942</v>
       </c>
       <c r="I116" t="n">
-        <v>3794.332</v>
+        <v>3808.835</v>
       </c>
       <c r="J116" t="n">
-        <v>7.474</v>
+        <v>2.762</v>
       </c>
       <c r="K116" t="n">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L116" t="n">
-        <v>65801</v>
+        <v>61211</v>
       </c>
       <c r="M116" t="n">
-        <v>6.471</v>
+        <v>6.02</v>
       </c>
       <c r="N116" t="s">
         <v>31</v>
       </c>
       <c r="O116" t="n">
-        <v>0.1381</v>
+        <v>0.1722</v>
       </c>
       <c r="P116" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.085</v>
+        <v>0.086</v>
       </c>
       <c r="R116" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="S116"/>
       <c r="T116" t="s">
@@ -11051,7 +11169,7 @@
         <v>588</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D117" t="s">
         <v>589</v>
@@ -11061,25 +11179,25 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>18270</v>
+        <v>17805</v>
       </c>
       <c r="H117" t="n">
-        <v>5900138</v>
+        <v>5949972</v>
       </c>
       <c r="I117" t="n">
-        <v>2013.339</v>
+        <v>2030.344</v>
       </c>
       <c r="J117" t="n">
-        <v>6.234</v>
+        <v>6.076</v>
       </c>
       <c r="K117" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L117" t="n">
-        <v>19351</v>
+        <v>18207</v>
       </c>
       <c r="M117" t="n">
-        <v>6.603</v>
+        <v>6.213</v>
       </c>
       <c r="N117" t="s">
         <v>31</v>
@@ -11087,10 +11205,10 @@
       <c r="O117"/>
       <c r="P117"/>
       <c r="Q117" t="n">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
       <c r="R117" t="n">
-        <v>16.4</v>
+        <v>16.7</v>
       </c>
       <c r="S117"/>
       <c r="T117" t="s">
@@ -11120,7 +11238,7 @@
         <v>594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D118" t="s">
         <v>595</v>
@@ -11129,22 +11247,26 @@
         <v>596</v>
       </c>
       <c r="F118"/>
-      <c r="G118"/>
+      <c r="G118" t="n">
+        <v>25065</v>
+      </c>
       <c r="H118" t="n">
-        <v>21249513</v>
+        <v>21341417</v>
       </c>
       <c r="I118" t="n">
-        <v>1110.925</v>
-      </c>
-      <c r="J118"/>
+        <v>1115.729</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.31</v>
+      </c>
       <c r="K118" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L118" t="n">
-        <v>44227</v>
+        <v>42939</v>
       </c>
       <c r="M118" t="n">
-        <v>2.312</v>
+        <v>2.245</v>
       </c>
       <c r="N118" t="s">
         <v>31</v>
@@ -11185,7 +11307,7 @@
         <v>600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D119" t="s">
         <v>601</v>
@@ -11196,20 +11318,20 @@
       <c r="F119"/>
       <c r="G119"/>
       <c r="H119" t="n">
-        <v>277956957</v>
+        <v>279050081</v>
       </c>
       <c r="I119" t="n">
-        <v>1904.963</v>
+        <v>1912.454</v>
       </c>
       <c r="J119"/>
       <c r="K119" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L119" t="n">
-        <v>397449</v>
+        <v>369726</v>
       </c>
       <c r="M119" t="n">
-        <v>2.724</v>
+        <v>2.534</v>
       </c>
       <c r="N119" t="s">
         <v>31</v>
@@ -11250,7 +11372,7 @@
         <v>605</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D120" t="s">
         <v>606</v>
@@ -11259,22 +11381,26 @@
         <v>607</v>
       </c>
       <c r="F120"/>
-      <c r="G120"/>
+      <c r="G120" t="n">
+        <v>12913</v>
+      </c>
       <c r="H120" t="n">
-        <v>4876887</v>
+        <v>4918502</v>
       </c>
       <c r="I120" t="n">
-        <v>367.332</v>
-      </c>
-      <c r="J120"/>
+        <v>370.466</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.973</v>
+      </c>
       <c r="K120" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="L120" t="n">
-        <v>13756</v>
+        <v>12333</v>
       </c>
       <c r="M120" t="n">
-        <v>1.036</v>
+        <v>0.929</v>
       </c>
       <c r="N120" t="s">
         <v>31</v>
@@ -11311,7 +11437,7 @@
         <v>610</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D121" t="s">
         <v>611</v>
@@ -11322,14 +11448,14 @@
       <c r="F121"/>
       <c r="G121"/>
       <c r="H121" t="n">
-        <v>66903</v>
+        <v>67011</v>
       </c>
       <c r="I121" t="n">
-        <v>1249.449</v>
+        <v>1251.466</v>
       </c>
       <c r="J121"/>
       <c r="K121" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L121" t="n">
         <v>35</v>
@@ -11376,7 +11502,7 @@
         <v>614</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44623</v>
+        <v>44625</v>
       </c>
       <c r="D122" t="s">
         <v>615</v>
@@ -11385,30 +11511,34 @@
         <v>115</v>
       </c>
       <c r="F122"/>
-      <c r="G122" t="n">
+      <c r="G122"/>
+      <c r="H122" t="n">
+        <v>136618</v>
+      </c>
+      <c r="I122" t="n">
+        <v>740.875</v>
+      </c>
+      <c r="J122"/>
+      <c r="K122" t="n">
+        <v>6</v>
+      </c>
+      <c r="L122" t="n">
         <v>201</v>
       </c>
-      <c r="H122" t="n">
-        <v>136343</v>
-      </c>
-      <c r="I122" t="n">
-        <v>739.383</v>
-      </c>
-      <c r="J122" t="n">
+      <c r="M122" t="n">
         <v>1.09</v>
       </c>
-      <c r="K122" t="n">
-        <v>5</v>
-      </c>
-      <c r="L122"/>
-      <c r="M122"/>
       <c r="N122" t="s">
         <v>31</v>
       </c>
-      <c r="O122"/>
-      <c r="P122"/>
+      <c r="O122" t="n">
+        <v>0.0597</v>
+      </c>
+      <c r="P122" t="n">
+        <v>16.8</v>
+      </c>
       <c r="Q122" t="n">
-        <v>0.167</v>
+        <v>0.166</v>
       </c>
       <c r="R122" t="n">
         <v>6</v>
@@ -11447,7 +11577,7 @@
         <v>617</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D123" t="s">
         <v>618</v>
@@ -11457,34 +11587,34 @@
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="H123" t="n">
-        <v>98326</v>
+        <v>98336</v>
       </c>
       <c r="I123" t="n">
-        <v>883.678</v>
+        <v>883.768</v>
       </c>
       <c r="J123" t="n">
-        <v>0.315</v>
+        <v>0.036</v>
       </c>
       <c r="K123" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L123" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M123" t="n">
-        <v>0.297</v>
+        <v>0.144</v>
       </c>
       <c r="N123" t="s">
         <v>31</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0433</v>
+        <v>0.0982</v>
       </c>
       <c r="P123" t="n">
-        <v>23.1</v>
+        <v>10.2</v>
       </c>
       <c r="Q123" t="n">
         <v>0.085</v>
@@ -11520,7 +11650,7 @@
         <v>622</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D124" t="s">
         <v>623</v>
@@ -11530,34 +11660,34 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>56117</v>
+        <v>41505</v>
       </c>
       <c r="H124" t="n">
-        <v>40943934</v>
+        <v>41081211</v>
       </c>
       <c r="I124" t="n">
-        <v>1158.55</v>
+        <v>1162.434</v>
       </c>
       <c r="J124" t="n">
-        <v>1.588</v>
+        <v>1.174</v>
       </c>
       <c r="K124" t="n">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L124" t="n">
-        <v>60625</v>
+        <v>53880</v>
       </c>
       <c r="M124" t="n">
-        <v>1.715</v>
+        <v>1.525</v>
       </c>
       <c r="N124" t="s">
         <v>31</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0093</v>
+        <v>0.0081</v>
       </c>
       <c r="P124" t="n">
-        <v>107.9</v>
+        <v>123.2</v>
       </c>
       <c r="Q124" t="n">
         <v>0.018</v>
@@ -11593,7 +11723,7 @@
         <v>625</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D125" t="s">
         <v>626</v>
@@ -11603,25 +11733,25 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>1186</v>
+        <v>1307</v>
       </c>
       <c r="H125" t="n">
-        <v>1037247</v>
+        <v>1041950</v>
       </c>
       <c r="I125" t="n">
-        <v>60.318</v>
+        <v>60.591</v>
       </c>
       <c r="J125" t="n">
-        <v>0.069</v>
+        <v>0.076</v>
       </c>
       <c r="K125" t="n">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L125" t="n">
-        <v>1200</v>
+        <v>1312</v>
       </c>
       <c r="M125" t="n">
-        <v>0.07</v>
+        <v>0.076</v>
       </c>
       <c r="N125" t="s">
         <v>31</v>
@@ -11664,7 +11794,7 @@
         <v>630</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44624</v>
+        <v>44626</v>
       </c>
       <c r="D126" t="s">
         <v>631</v>
@@ -11676,33 +11806,41 @@
         <v>632</v>
       </c>
       <c r="G126" t="n">
-        <v>14007</v>
+        <v>8443</v>
       </c>
       <c r="H126" t="n">
-        <v>8814153</v>
+        <v>8834066</v>
       </c>
       <c r="I126" t="n">
-        <v>1282.703</v>
+        <v>1285.601</v>
       </c>
       <c r="J126" t="n">
-        <v>2.038</v>
+        <v>1.229</v>
       </c>
       <c r="K126" t="n">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L126" t="n">
-        <v>13590</v>
+        <v>13422</v>
       </c>
       <c r="M126" t="n">
-        <v>1.978</v>
+        <v>1.953</v>
       </c>
       <c r="N126" t="s">
         <v>31</v>
       </c>
-      <c r="O126"/>
-      <c r="P126"/>
-      <c r="Q126"/>
-      <c r="R126"/>
+      <c r="O126" t="n">
+        <v>0.1846</v>
+      </c>
+      <c r="P126" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="R126" t="n">
+        <v>4.6</v>
+      </c>
       <c r="S126"/>
       <c r="T126" t="s">
         <v>20</v>
@@ -11804,7 +11942,7 @@
         <v>640</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44622</v>
+        <v>44626</v>
       </c>
       <c r="D128" t="s">
         <v>641</v>
@@ -11816,40 +11954,40 @@
         <v>642</v>
       </c>
       <c r="G128" t="n">
-        <v>37425</v>
+        <v>13650</v>
       </c>
       <c r="H128" t="n">
-        <v>49671489</v>
+        <v>49789124</v>
       </c>
       <c r="I128" t="n">
-        <v>9115.256</v>
+        <v>9136.843</v>
       </c>
       <c r="J128" t="n">
-        <v>6.868</v>
+        <v>2.505</v>
       </c>
       <c r="K128" t="n">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="L128" t="n">
-        <v>40405</v>
+        <v>36564</v>
       </c>
       <c r="M128" t="n">
-        <v>7.415</v>
+        <v>6.71</v>
       </c>
       <c r="N128" t="s">
         <v>58</v>
       </c>
       <c r="O128" t="n">
-        <v>0.322</v>
+        <v>0.32</v>
       </c>
       <c r="P128" t="n">
         <v>3.1</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="R128" t="n">
-        <v>23.3</v>
+        <v>22.7</v>
       </c>
       <c r="S128"/>
       <c r="T128" t="s">
@@ -11883,7 +12021,7 @@
         <v>644</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D129" t="s">
         <v>645</v>
@@ -11895,34 +12033,34 @@
         <v>647</v>
       </c>
       <c r="G129" t="n">
-        <v>11296</v>
+        <v>4623</v>
       </c>
       <c r="H129" t="n">
-        <v>4447765</v>
+        <v>4472935</v>
       </c>
       <c r="I129" t="n">
-        <v>2139.662</v>
+        <v>2151.771</v>
       </c>
       <c r="J129" t="n">
-        <v>5.434</v>
+        <v>2.224</v>
       </c>
       <c r="K129" t="n">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="L129" t="n">
-        <v>11875</v>
+        <v>11229</v>
       </c>
       <c r="M129" t="n">
-        <v>5.713</v>
+        <v>5.402</v>
       </c>
       <c r="N129" t="s">
         <v>58</v>
       </c>
       <c r="O129" t="n">
-        <v>0.138</v>
+        <v>0.148</v>
       </c>
       <c r="P129" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Q129" t="n">
         <v>0.202</v>
@@ -11962,7 +12100,7 @@
         <v>650</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D130" t="s">
         <v>651</v>
@@ -11974,25 +12112,25 @@
         <v>653</v>
       </c>
       <c r="G130" t="n">
-        <v>30153</v>
+        <v>14466</v>
       </c>
       <c r="H130" t="n">
-        <v>23196880</v>
+        <v>23259839</v>
       </c>
       <c r="I130" t="n">
-        <v>386.344</v>
+        <v>387.393</v>
       </c>
       <c r="J130" t="n">
-        <v>0.502</v>
+        <v>0.241</v>
       </c>
       <c r="K130" t="n">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="L130" t="n">
-        <v>25268</v>
+        <v>24912</v>
       </c>
       <c r="M130" t="n">
-        <v>0.421</v>
+        <v>0.415</v>
       </c>
       <c r="N130" t="s">
         <v>31</v>
@@ -12033,7 +12171,7 @@
         <v>656</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D131" t="s">
         <v>657</v>
@@ -12045,40 +12183,40 @@
         <v>659</v>
       </c>
       <c r="G131" t="n">
-        <v>575076</v>
+        <v>527509</v>
       </c>
       <c r="H131" t="n">
-        <v>63098211</v>
+        <v>64781880</v>
       </c>
       <c r="I131" t="n">
-        <v>1229.86</v>
+        <v>1262.677</v>
       </c>
       <c r="J131" t="n">
-        <v>11.209</v>
+        <v>10.282</v>
       </c>
       <c r="K131" t="n">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="L131" t="n">
-        <v>498599</v>
+        <v>529604</v>
       </c>
       <c r="M131" t="n">
-        <v>9.718</v>
+        <v>10.323</v>
       </c>
       <c r="N131" t="s">
         <v>31</v>
       </c>
       <c r="O131" t="n">
-        <v>0.3705</v>
+        <v>0.4134</v>
       </c>
       <c r="P131" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.063</v>
+        <v>0.072</v>
       </c>
       <c r="R131" t="n">
-        <v>15.9</v>
+        <v>13.9</v>
       </c>
       <c r="S131"/>
       <c r="T131" t="s">
@@ -12141,10 +12279,18 @@
       <c r="N132" t="s">
         <v>31</v>
       </c>
-      <c r="O132"/>
-      <c r="P132"/>
-      <c r="Q132"/>
-      <c r="R132"/>
+      <c r="O132" t="n">
+        <v>0.0093</v>
+      </c>
+      <c r="P132" t="n">
+        <v>108</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R132" t="n">
+        <v>20</v>
+      </c>
       <c r="S132"/>
       <c r="T132" t="s">
         <v>20</v>
@@ -12177,7 +12323,7 @@
         <v>665</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44621</v>
+        <v>44624</v>
       </c>
       <c r="D133" t="s">
         <v>666</v>
@@ -12187,34 +12333,34 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>92883</v>
+        <v>68939</v>
       </c>
       <c r="H133" t="n">
-        <v>85779178</v>
+        <v>86134414</v>
       </c>
       <c r="I133" t="n">
-        <v>1835.037</v>
+        <v>1842.636</v>
       </c>
       <c r="J133" t="n">
-        <v>1.987</v>
+        <v>1.475</v>
       </c>
       <c r="K133" t="n">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="L133" t="n">
-        <v>86003</v>
+        <v>84672</v>
       </c>
       <c r="M133" t="n">
-        <v>1.84</v>
+        <v>1.811</v>
       </c>
       <c r="N133" t="s">
         <v>58</v>
       </c>
       <c r="O133" t="n">
-        <v>0.164</v>
+        <v>0.169</v>
       </c>
       <c r="P133" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Q133" t="n">
         <v>0.129</v>
@@ -12256,7 +12402,7 @@
         <v>671</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44623</v>
+        <v>44627</v>
       </c>
       <c r="D134" t="s">
         <v>672</v>
@@ -12266,41 +12412,33 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>7164</v>
+        <v>5327</v>
       </c>
       <c r="H134" t="n">
-        <v>7401164</v>
+        <v>7426586</v>
       </c>
       <c r="I134" t="n">
-        <v>344.283</v>
+        <v>345.466</v>
       </c>
       <c r="J134" t="n">
-        <v>0.333</v>
+        <v>0.248</v>
       </c>
       <c r="K134" t="n">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="L134" t="n">
-        <v>8311</v>
+        <v>6890</v>
       </c>
       <c r="M134" t="n">
-        <v>0.387</v>
+        <v>0.321</v>
       </c>
       <c r="N134" t="s">
         <v>31</v>
       </c>
-      <c r="O134" t="n">
-        <v>0.1139</v>
-      </c>
-      <c r="P134" t="n">
-        <v>8.8</v>
-      </c>
-      <c r="Q134" t="n">
-        <v>0.088</v>
-      </c>
-      <c r="R134" t="n">
-        <v>11.4</v>
-      </c>
+      <c r="O134"/>
+      <c r="P134"/>
+      <c r="Q134"/>
+      <c r="R134"/>
       <c r="S134"/>
       <c r="T134" t="s">
         <v>20</v>
@@ -12394,7 +12532,7 @@
         <v>677</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D136" t="s">
         <v>678</v>
@@ -12404,37 +12542,37 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>333</v>
+        <v>127</v>
       </c>
       <c r="H136" t="n">
-        <v>79472</v>
+        <v>80068</v>
       </c>
       <c r="I136" t="n">
-        <v>134.289</v>
+        <v>135.296</v>
       </c>
       <c r="J136" t="n">
-        <v>0.563</v>
+        <v>0.215</v>
       </c>
       <c r="K136" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L136" t="n">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="M136" t="n">
-        <v>0.522</v>
+        <v>0.532</v>
       </c>
       <c r="N136" t="s">
         <v>58</v>
       </c>
       <c r="O136" t="n">
-        <v>0.175</v>
+        <v>0.176</v>
       </c>
       <c r="P136" t="n">
         <v>5.7</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.986</v>
+        <v>0.981</v>
       </c>
       <c r="R136" t="n">
         <v>1</v>
@@ -12548,7 +12686,7 @@
         <v>687</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D138" t="s">
         <v>430</v>
@@ -12558,34 +12696,34 @@
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>46646</v>
+        <v>22188</v>
       </c>
       <c r="H138" t="n">
-        <v>18871544</v>
+        <v>18999657</v>
       </c>
       <c r="I138" t="n">
-        <v>2165.287</v>
+        <v>2179.986</v>
       </c>
       <c r="J138" t="n">
-        <v>5.352</v>
+        <v>2.546</v>
       </c>
       <c r="K138" t="n">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="L138" t="n">
-        <v>42536</v>
+        <v>47497</v>
       </c>
       <c r="M138" t="n">
-        <v>4.881</v>
+        <v>5.45</v>
       </c>
       <c r="N138" t="s">
         <v>58</v>
       </c>
       <c r="O138" t="n">
-        <v>0.466</v>
+        <v>0.492</v>
       </c>
       <c r="P138" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q138" t="n">
         <v>0.152</v>
@@ -12625,7 +12763,7 @@
         <v>689</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D139" t="s">
         <v>690</v>
@@ -12635,25 +12773,25 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>13275</v>
+        <v>16910</v>
       </c>
       <c r="H139" t="n">
-        <v>6416041</v>
+        <v>6475857</v>
       </c>
       <c r="I139" t="n">
-        <v>268.96</v>
+        <v>271.467</v>
       </c>
       <c r="J139" t="n">
-        <v>0.556</v>
+        <v>0.709</v>
       </c>
       <c r="K139" t="n">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="L139" t="n">
-        <v>18537</v>
+        <v>19798</v>
       </c>
       <c r="M139" t="n">
-        <v>0.777</v>
+        <v>0.83</v>
       </c>
       <c r="N139" t="s">
         <v>31</v>
@@ -12903,7 +13041,7 @@
         <v>706</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44623</v>
+        <v>44627</v>
       </c>
       <c r="D143"/>
       <c r="E143" t="s">
@@ -12913,41 +13051,33 @@
         <v>708</v>
       </c>
       <c r="G143" t="n">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="H143" t="n">
-        <v>693303</v>
+        <v>697157</v>
       </c>
       <c r="I143" t="n">
-        <v>81.774</v>
+        <v>82.229</v>
       </c>
       <c r="J143" t="n">
-        <v>0.113</v>
+        <v>0.112</v>
       </c>
       <c r="K143" t="n">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="L143" t="n">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="M143" t="n">
-        <v>0.113</v>
+        <v>0.11</v>
       </c>
       <c r="N143" t="s">
         <v>31</v>
       </c>
-      <c r="O143" t="n">
-        <v>0.0052</v>
-      </c>
-      <c r="P143" t="n">
-        <v>191.2</v>
-      </c>
-      <c r="Q143" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="R143" t="n">
-        <v>18.9</v>
-      </c>
+      <c r="O143"/>
+      <c r="P143"/>
+      <c r="Q143"/>
+      <c r="R143"/>
       <c r="S143" t="s">
         <v>709</v>
       </c>
@@ -13059,7 +13189,7 @@
         <v>716</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>44622</v>
+        <v>44624</v>
       </c>
       <c r="D145" t="s">
         <v>717</v>
@@ -13068,31 +13198,35 @@
         <v>718</v>
       </c>
       <c r="F145"/>
-      <c r="G145"/>
+      <c r="G145" t="n">
+        <v>9509</v>
+      </c>
       <c r="H145" t="n">
-        <v>4362099</v>
+        <v>4379844</v>
       </c>
       <c r="I145" t="n">
-        <v>365.465</v>
-      </c>
-      <c r="J145"/>
+        <v>366.951</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.797</v>
+      </c>
       <c r="K145" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L145" t="n">
-        <v>5465</v>
+        <v>6355</v>
       </c>
       <c r="M145" t="n">
-        <v>0.458</v>
+        <v>0.532</v>
       </c>
       <c r="N145" t="s">
         <v>31</v>
       </c>
       <c r="O145" t="n">
-        <v>0.2342</v>
+        <v>0.1621</v>
       </c>
       <c r="P145" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="Q145" t="n">
         <v>0.229</v>
@@ -13132,7 +13266,7 @@
         <v>722</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D146" t="s">
         <v>723</v>
@@ -13142,25 +13276,25 @@
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>365614</v>
+        <v>371684</v>
       </c>
       <c r="H146" t="n">
-        <v>145676988</v>
+        <v>146757171</v>
       </c>
       <c r="I146" t="n">
-        <v>1712.986</v>
+        <v>1725.687</v>
       </c>
       <c r="J146" t="n">
-        <v>4.299</v>
+        <v>4.371</v>
       </c>
       <c r="K146" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="L146" t="n">
-        <v>400152</v>
+        <v>379242</v>
       </c>
       <c r="M146" t="n">
-        <v>4.705</v>
+        <v>4.459</v>
       </c>
       <c r="N146" t="s">
         <v>31</v>
@@ -13201,7 +13335,7 @@
         <v>727</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44624</v>
+        <v>44626</v>
       </c>
       <c r="D147" t="s">
         <v>44</v>
@@ -13212,28 +13346,36 @@
       <c r="F147"/>
       <c r="G147"/>
       <c r="H147" t="n">
-        <v>2468798</v>
+        <v>2472516</v>
       </c>
       <c r="I147" t="n">
-        <v>52.39</v>
+        <v>52.469</v>
       </c>
       <c r="J147"/>
       <c r="K147" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L147" t="n">
-        <v>2780</v>
+        <v>2182</v>
       </c>
       <c r="M147" t="n">
-        <v>0.059</v>
+        <v>0.046</v>
       </c>
       <c r="N147" t="s">
         <v>31</v>
       </c>
-      <c r="O147"/>
-      <c r="P147"/>
-      <c r="Q147"/>
-      <c r="R147"/>
+      <c r="O147" t="n">
+        <v>0.0087</v>
+      </c>
+      <c r="P147" t="n">
+        <v>114.8</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="R147" t="n">
+        <v>15.2</v>
+      </c>
       <c r="S147" t="s">
         <v>728</v>
       </c>
@@ -13341,7 +13483,7 @@
         <v>735</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D149" t="s">
         <v>736</v>
@@ -13351,25 +13493,25 @@
       </c>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>370472</v>
+        <v>301287</v>
       </c>
       <c r="H149" t="n">
-        <v>139324445</v>
+        <v>140443546</v>
       </c>
       <c r="I149" t="n">
-        <v>13944.879</v>
+        <v>14056.889</v>
       </c>
       <c r="J149" t="n">
-        <v>37.08</v>
+        <v>30.156</v>
       </c>
       <c r="K149" t="n">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="L149" t="n">
-        <v>418038</v>
+        <v>389573</v>
       </c>
       <c r="M149" t="n">
-        <v>41.841</v>
+        <v>38.992</v>
       </c>
       <c r="N149" t="s">
         <v>31</v>
@@ -13410,7 +13552,7 @@
         <v>740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D150" t="s">
         <v>741</v>
@@ -13420,35 +13562,31 @@
       </c>
       <c r="F150"/>
       <c r="G150" t="n">
-        <v>776169</v>
+        <v>552252</v>
       </c>
       <c r="H150" t="n">
-        <v>466739693</v>
+        <v>468407190</v>
       </c>
       <c r="I150" t="n">
-        <v>6842.977</v>
+        <v>6867.424</v>
       </c>
       <c r="J150" t="n">
-        <v>11.38</v>
+        <v>8.097</v>
       </c>
       <c r="K150" t="n">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="L150" t="n">
-        <v>647474</v>
+        <v>652733</v>
       </c>
       <c r="M150" t="n">
-        <v>9.493</v>
+        <v>9.57</v>
       </c>
       <c r="N150" t="s">
         <v>31</v>
       </c>
-      <c r="O150" t="n">
-        <v>0.0671</v>
-      </c>
-      <c r="P150" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="O150"/>
+      <c r="P150"/>
       <c r="Q150" t="n">
         <v>0.041</v>
       </c>
@@ -13487,7 +13625,7 @@
         <v>746</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>44618</v>
+        <v>44621</v>
       </c>
       <c r="D151" t="s">
         <v>747</v>
@@ -13497,34 +13635,34 @@
       </c>
       <c r="F151"/>
       <c r="G151" t="n">
-        <v>611593</v>
+        <v>1180196</v>
       </c>
       <c r="H151" t="n">
-        <v>820619379</v>
+        <v>823328764</v>
       </c>
       <c r="I151" t="n">
-        <v>2464.951</v>
+        <v>2473.089</v>
       </c>
       <c r="J151" t="n">
-        <v>1.837</v>
+        <v>3.545</v>
       </c>
       <c r="K151" t="n">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="L151" t="n">
-        <v>927690</v>
+        <v>962833</v>
       </c>
       <c r="M151" t="n">
-        <v>2.787</v>
+        <v>2.892</v>
       </c>
       <c r="N151" t="s">
         <v>58</v>
       </c>
       <c r="O151" t="n">
-        <v>0.043</v>
+        <v>0.036</v>
       </c>
       <c r="P151" t="n">
-        <v>23.3</v>
+        <v>27.8</v>
       </c>
       <c r="Q151" t="n">
         <v>0.096</v>
@@ -13564,7 +13702,7 @@
         <v>752</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="D152" t="s">
         <v>753</v>
@@ -13574,34 +13712,34 @@
       </c>
       <c r="F152"/>
       <c r="G152" t="n">
-        <v>10008</v>
+        <v>6021</v>
       </c>
       <c r="H152" t="n">
-        <v>5728942</v>
+        <v>5755067</v>
       </c>
       <c r="I152" t="n">
-        <v>1643.814</v>
+        <v>1651.31</v>
       </c>
       <c r="J152" t="n">
-        <v>2.872</v>
+        <v>1.728</v>
       </c>
       <c r="K152" t="n">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="L152" t="n">
-        <v>9168</v>
+        <v>8656</v>
       </c>
       <c r="M152" t="n">
-        <v>2.631</v>
+        <v>2.484</v>
       </c>
       <c r="N152" t="s">
         <v>31</v>
       </c>
       <c r="O152" t="n">
-        <v>0.2665</v>
+        <v>0.2288</v>
       </c>
       <c r="P152" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="Q152" t="n">
         <v>0.148</v>
@@ -13641,7 +13779,7 @@
         <v>755</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="D153" t="s">
         <v>756</v>
@@ -13650,22 +13788,26 @@
         <v>757</v>
       </c>
       <c r="F153"/>
-      <c r="G153"/>
+      <c r="G153" t="n">
+        <v>205084</v>
+      </c>
       <c r="H153" t="n">
-        <v>79863303</v>
+        <v>80329853</v>
       </c>
       <c r="I153" t="n">
-        <v>813.53</v>
-      </c>
-      <c r="J153"/>
+        <v>818.283</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2.089</v>
+      </c>
       <c r="K153" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L153" t="n">
-        <v>145036</v>
+        <v>161553</v>
       </c>
       <c r="M153" t="n">
-        <v>1.477</v>
+        <v>1.646</v>
       </c>
       <c r="N153" t="s">
         <v>31</v>
@@ -13706,7 +13848,7 @@
         <v>761</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>44622</v>
+        <v>44625</v>
       </c>
       <c r="D154" t="s">
         <v>762</v>
@@ -13716,40 +13858,40 @@
       </c>
       <c r="F154"/>
       <c r="G154" t="n">
-        <v>3398</v>
+        <v>3571</v>
       </c>
       <c r="H154" t="n">
-        <v>3276743</v>
+        <v>3287759</v>
       </c>
       <c r="I154" t="n">
-        <v>173.183</v>
+        <v>173.766</v>
       </c>
       <c r="J154" t="n">
-        <v>0.18</v>
+        <v>0.189</v>
       </c>
       <c r="K154" t="n">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="L154" t="n">
-        <v>2864</v>
+        <v>2991</v>
       </c>
       <c r="M154" t="n">
-        <v>0.151</v>
+        <v>0.158</v>
       </c>
       <c r="N154" t="s">
         <v>31</v>
       </c>
       <c r="O154" t="n">
-        <v>0.0656</v>
+        <v>0.0541</v>
       </c>
       <c r="P154" t="n">
-        <v>15.2</v>
+        <v>18.5</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.096</v>
+        <v>0.095</v>
       </c>
       <c r="R154" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S154"/>
       <c r="T154" t="s">
@@ -13779,7 +13921,7 @@
         <v>766</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>44624</v>
+        <v>44626</v>
       </c>
       <c r="D155" t="s">
         <v>44</v>
@@ -13790,28 +13932,36 @@
       <c r="F155"/>
       <c r="G155"/>
       <c r="H155" t="n">
-        <v>2090217</v>
+        <v>2102446</v>
       </c>
       <c r="I155" t="n">
-        <v>138.497</v>
+        <v>139.307</v>
       </c>
       <c r="J155"/>
       <c r="K155" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L155" t="n">
-        <v>4053</v>
+        <v>3719</v>
       </c>
       <c r="M155" t="n">
-        <v>0.269</v>
+        <v>0.246</v>
       </c>
       <c r="N155" t="s">
         <v>31</v>
       </c>
-      <c r="O155"/>
-      <c r="P155"/>
-      <c r="Q155"/>
-      <c r="R155"/>
+      <c r="O155" t="n">
+        <v>0.1308</v>
+      </c>
+      <c r="P155" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="R155" t="n">
+        <v>8.8</v>
+      </c>
       <c r="S155" t="s">
         <v>767</v>
       </c>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">VNM</t>
   </si>
   <si>
-    <t xml:space="preserve">https://suckhoedoisong.vn//ngay-8-3-so-mac-covid-19-tang-len-162435-ca-bac-ninh-bo-sung-hon-32000-f0-169220308170507913.htm</t>
+    <t xml:space="preserve">https://suckhoedoisong.vn/ngay-11-3-so-mac-covid-19-moi-tang-len-169114-ca-vinh-phuc-bo-sung-hon-19300-f0-169220311173323537.htm</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health of Vietnam</t>
@@ -14602,7 +14602,7 @@
         <v>790</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>44628</v>
+        <v>44631</v>
       </c>
       <c r="D165" t="s">
         <v>791</v>
@@ -14612,41 +14612,29 @@
       </c>
       <c r="F165"/>
       <c r="G165" t="n">
-        <v>80574910</v>
-      </c>
-      <c r="H165" t="n">
-        <v>245057</v>
-      </c>
+        <v>81001418</v>
+      </c>
+      <c r="H165"/>
       <c r="I165" t="n">
-        <v>820.779</v>
-      </c>
-      <c r="J165" t="n">
-        <v>2.496</v>
-      </c>
+        <v>825.124</v>
+      </c>
+      <c r="J165"/>
       <c r="K165" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L165" t="n">
-        <v>180817</v>
+        <v>162588</v>
       </c>
       <c r="M165" t="n">
-        <v>1.842</v>
+        <v>1.656</v>
       </c>
       <c r="N165" t="s">
         <v>31</v>
       </c>
-      <c r="O165" t="n">
-        <v>0.9633</v>
-      </c>
-      <c r="P165" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q165" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="R165" t="n">
-        <v>16.9</v>
-      </c>
+      <c r="O165"/>
+      <c r="P165"/>
+      <c r="Q165"/>
+      <c r="R165"/>
       <c r="S165"/>
       <c r="T165" t="s">
         <v>20</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="810">
   <si>
     <t xml:space="preserve">Entity</t>
   </si>
@@ -101,309 +101,312 @@
     <t xml:space="preserve">AFG</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.emro.who.int/images/stories/coronavirus/covid-sitrep-30.pdf?ua=1</t>
+    <t xml:space="preserve">http://www.emro.who.int/images/stories/coronavirus/covid-sitrep-30.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO Regional Office for the Eastern Mediterranean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OWID</t>
   </si>
   <si>
     <t xml:space="preserve">Eastern Mediterranean WHO</t>
   </si>
   <si>
-    <t xml:space="preserve">OWID</t>
+    <t xml:space="preserve">http://www.emro.who.int/health-topics/corona-virus/situation-reports.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-663-testime-42-qytetare-te-infektuar-asnje-humbje-jete-dhe-